--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9133A4A4-0B65-4D08-A73B-364E580D7625}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98031965-85A1-47C9-A87F-CD6DF73C8056}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="192">
   <si>
     <t>SN</t>
   </si>
@@ -540,9 +540,6 @@
   </si>
   <si>
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
-  </si>
-  <si>
-    <t>Daily Operators shifts support.</t>
   </si>
   <si>
     <t>JNPA</t>
@@ -840,20 +837,6 @@
 5] FAT for VMD pole is scheduled from 28 to 29-Aug-25 &amp; is in progress. </t>
   </si>
   <si>
-    <t>Billing for Mar-25 to Jul-25 done.</t>
-  </si>
-  <si>
-    <t>All Material delivered at site for inspection on delivery challan.
-Data required by software team is collected &amp; provided to stakeholders for further process.
-MFM meter installation &amp; communication architecture is completed; Water meter installation in progress.</t>
-  </si>
-  <si>
-    <t>Billing to be done post FAT for delivered material.
-Software configuration is in progress.
-Water meter installation.
-IOT SIM procurement for GPRS communication is in progress.</t>
-  </si>
-  <si>
     <t>Hiring of Professionals for --.
 Application Development and Maintenance – 36 months.
 Front End and Back End developer – 8 Resources.
@@ -875,6 +858,38 @@
 5 resource – Full stack developer (&gt;6 to &lt;10 yrs.)
 6 resource – Full stack developer (&gt;3 to &lt;6 yrs.)
 Deployment of 16 resources on need basis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present work order is completed on 4th September,2025, However from customer side L&amp;T Project Director Mr. P. R. Kumar's mail stated 3 months extension. </t>
+  </si>
+  <si>
+    <t>1. Raise invoice for August-2025 month with Supporting documents.
+2. Recruitment for 20+ vacancies in project</t>
+  </si>
+  <si>
+    <t>Although the customer mail received for extension but awaiting for actual work Order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Servers: Configured, tested, and delivered on 13-08-2025.
+#Substations (1,2,3): Communication network completed; IPs assigned.
+#ABT Meters: Two meters installed in custom panel, delivered on 13-08-2025; rack placed at permanent location.
+#Water Flow Meters: 62 delivered, 3 (40 mm) installed; balance pending location finalization.
+#RMU Communication: Survey completed; converter installation planned on 08-09-2025.
+#Billing Meter Communication: GPRS testing ongoing with live data at JNPA.
+</t>
+  </si>
+  <si>
+    <t>#Servers: Installation in NOC room on 08-09-2025.
+#Substations: Begin meter data retrieval post server installation.
+ABT Meters: Connect with incomer meters in coming week with electrical team.
+#Water Flow Meters: Awaiting JNPA’s approval for 25 mm &amp; 40 mm meter scope.
+#RMU Communication: Converter installation &amp; cabling for one RMU on 08-09-2025.
+#Billing Meters: Continue GPRS testing; VI SIM cards expected in 20–25 days.</t>
+  </si>
+  <si>
+    <t>#Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
+#RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
+#Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
   </si>
 </sst>
 </file>
@@ -1228,6 +1243,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_CDATACONNECT_QUERY</we:customFunctionIds>
@@ -1244,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,13 +1417,13 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
         <v>153</v>
-      </c>
-      <c r="U2" t="s">
-        <v>154</v>
       </c>
       <c r="V2" t="s">
         <v>33</v>
@@ -1482,10 +1500,10 @@
         <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V3" t="s">
         <v>40</v>
@@ -1562,10 +1580,10 @@
         <v>46</v>
       </c>
       <c r="T4" t="s">
+        <v>155</v>
+      </c>
+      <c r="U4" t="s">
         <v>156</v>
-      </c>
-      <c r="U4" t="s">
-        <v>157</v>
       </c>
       <c r="V4" t="s">
         <v>47</v>
@@ -1642,10 +1660,10 @@
         <v>54</v>
       </c>
       <c r="T5" t="s">
+        <v>157</v>
+      </c>
+      <c r="U5" t="s">
         <v>158</v>
-      </c>
-      <c r="U5" t="s">
-        <v>159</v>
       </c>
       <c r="V5" t="s">
         <v>55</v>
@@ -1722,10 +1740,10 @@
         <v>61</v>
       </c>
       <c r="T6" t="s">
+        <v>159</v>
+      </c>
+      <c r="U6" t="s">
         <v>160</v>
-      </c>
-      <c r="U6" t="s">
-        <v>161</v>
       </c>
       <c r="V6" t="s">
         <v>62</v>
@@ -1802,10 +1820,10 @@
         <v>70</v>
       </c>
       <c r="T7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" t="s">
         <v>162</v>
-      </c>
-      <c r="U7" t="s">
-        <v>163</v>
       </c>
       <c r="V7" t="s">
         <v>71</v>
@@ -1873,7 +1891,7 @@
         <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R8" t="s">
         <v>76</v>
@@ -1882,10 +1900,10 @@
         <v>77</v>
       </c>
       <c r="T8" t="s">
+        <v>164</v>
+      </c>
+      <c r="U8" t="s">
         <v>165</v>
-      </c>
-      <c r="U8" t="s">
-        <v>166</v>
       </c>
       <c r="V8" t="s">
         <v>78</v>
@@ -1959,13 +1977,13 @@
         <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T9" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" t="s">
         <v>167</v>
-      </c>
-      <c r="U9" t="s">
-        <v>168</v>
       </c>
       <c r="V9" t="s">
         <v>83</v>
@@ -2042,16 +2060,16 @@
         <v>91</v>
       </c>
       <c r="T10" t="s">
+        <v>168</v>
+      </c>
+      <c r="U10" t="s">
         <v>169</v>
-      </c>
-      <c r="U10" t="s">
-        <v>170</v>
       </c>
       <c r="V10" t="s">
         <v>92</v>
       </c>
       <c r="W10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X10" s="3">
         <v>45898</v>
@@ -2122,10 +2140,10 @@
         <v>98</v>
       </c>
       <c r="T11" t="s">
+        <v>171</v>
+      </c>
+      <c r="U11" t="s">
         <v>172</v>
-      </c>
-      <c r="U11" t="s">
-        <v>173</v>
       </c>
       <c r="V11" t="s">
         <v>92</v>
@@ -2202,10 +2220,10 @@
         <v>106</v>
       </c>
       <c r="T12" t="s">
+        <v>173</v>
+      </c>
+      <c r="U12" t="s">
         <v>174</v>
-      </c>
-      <c r="U12" t="s">
-        <v>175</v>
       </c>
       <c r="V12" t="s">
         <v>92</v>
@@ -2282,7 +2300,7 @@
         <v>113</v>
       </c>
       <c r="T13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U13" t="s">
         <v>114</v>
@@ -2442,10 +2460,10 @@
         <v>126</v>
       </c>
       <c r="T15" t="s">
+        <v>176</v>
+      </c>
+      <c r="U15" t="s">
         <v>177</v>
-      </c>
-      <c r="U15" t="s">
-        <v>178</v>
       </c>
       <c r="V15" t="s">
         <v>92</v>
@@ -2522,10 +2540,10 @@
         <v>132</v>
       </c>
       <c r="T16" t="s">
+        <v>178</v>
+      </c>
+      <c r="U16" t="s">
         <v>179</v>
-      </c>
-      <c r="U16" t="s">
-        <v>180</v>
       </c>
       <c r="V16" t="s">
         <v>133</v>
@@ -2599,13 +2617,13 @@
         <v>131</v>
       </c>
       <c r="S17" t="s">
+        <v>180</v>
+      </c>
+      <c r="T17" t="s">
         <v>181</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>182</v>
-      </c>
-      <c r="U17" t="s">
-        <v>183</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2682,19 +2700,19 @@
         <v>143</v>
       </c>
       <c r="T18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="U18" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
+      <c r="W18" t="s">
+        <v>188</v>
       </c>
       <c r="X18" s="3">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="Y18" s="1">
         <v>0.62624581052110095</v>
@@ -2708,13 +2726,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="2">
         <v>171.31355932203391</v>
@@ -2741,40 +2759,40 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>147</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>148</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>149</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>150</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>151</v>
       </c>
-      <c r="S19" t="s">
-        <v>152</v>
-      </c>
       <c r="T19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="U19" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19">
-        <v>0</v>
+      <c r="W19" t="s">
+        <v>191</v>
       </c>
       <c r="X19" s="3">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>56</v>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98031965-85A1-47C9-A87F-CD6DF73C8056}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B5AD96-6D3B-4DA8-B906-A5BDE0076DDD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>NodeJS , HTML5/CSS , JS , React , Springboot Elastic, PostGreSQL , MySQL , MongoDB, Postman, API &amp; SSO integration</t>
   </si>
   <si>
-    <t>Replacement of Bimal Kalsa (Backend+Elastic Developer) - As per rfp terms we need to provide replacement with overlapping period of 30 days, if not then penalty equivalent to monthly amt of resource will be deducted.</t>
-  </si>
-  <si>
     <t>SBM-U</t>
   </si>
   <si>
@@ -570,22 +567,6 @@
 c) Energy billing system that coverers consumer’s energy monitoring and billing
 #&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
 #&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
-  </si>
-  <si>
-    <t>Monthly billing from July-23 to Jul-25 done. 
-Application maintenance and regular CR deployment.
-354 tasks out of 401 tasks are in production as on date.
-Pragati meetings module is developed by CMS - These meetings are being chaired by Prime Minister of India.
-AWS Optimization has been done on all PMG environments as instructed by PMG team.
-Security Audit was done &amp; agency has raised total 26 points, out of which 7 high priority tasks are completed &amp; awaiting further action from Auditor.
-Customer wants AI module to be integrated, pitching our AI solution &amp; will get additional order if selected.</t>
-  </si>
-  <si>
-    <t>Maintenance activities :.
-Deployment of 2 task -- on UAT.
-7 Tasks In progress (+ 9 Tasks in QA Testing, +4 in designing, +11 under estimation &amp; + 14 Tasks in to do).
-Due payment collection (Apr to Jul 25).
-Replacement of Bimal Kalsa on priority.</t>
   </si>
   <si>
     <t>20 resources on-boarded (13 resources from GAIA – Tech Partner).
@@ -890,6 +871,25 @@
     <t>#Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
 #RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
 #Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
+  </si>
+  <si>
+    <t>Monthly billing from Jul-23 to Aug-25 done. 
+Application maintenance and regular CR deployment.
+355 tasks out of 408 tasks are in production as on date.
+Pragati meetings module is developed by CMS - These meetings are being chaired by Prime Minister of India.
+AWS Optimization has been done on all PMG environments as instructed by PMG team.
+Security Audit was done &amp; agency has raised total 26 points, out of which 7 high priority tasks are completed &amp; awaiting further action from Auditor.
+Customer wants AI module to be integrated, pitching our AI solution &amp; will get additional order if selected.</t>
+  </si>
+  <si>
+    <t>Maintenance activities :.
+Deployment of 2 task -- on UAT.
+14 Tasks In progress (+ 9 Tasks in QA Testing, +3 in designing, +11 under estimation &amp; + 14 Tasks in to do).
+Due payment collection (May to Aug 25).
+Replacement of Bimal Kalsa on priority.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacement of Bimal Kalsa (Backend+Elastic Developer) - As per rfp terms we need to provide replacement with overlapping period of 30 days, if not then penalty equivalent to monthly amt of resource will be deducted.	</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,22 +1417,22 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="T2" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="U2" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="V2" t="s">
         <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="X2" s="3">
-        <v>45897</v>
+        <v>45906</v>
       </c>
       <c r="Y2" s="1">
         <v>0.58012380038870615</v>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1488,25 +1488,25 @@
         <v>30</v>
       </c>
       <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>37</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3" t="s">
         <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>154</v>
-      </c>
-      <c r="U3" t="s">
-        <v>184</v>
-      </c>
-      <c r="V3" t="s">
-        <v>40</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1559,7 +1559,7 @@
         <v>29.405495299999998</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" s="1">
         <v>0.43356734718966405</v>
@@ -1568,25 +1568,25 @@
         <v>30</v>
       </c>
       <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>45</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V4" t="s">
         <v>46</v>
-      </c>
-      <c r="T4" t="s">
-        <v>155</v>
-      </c>
-      <c r="U4" t="s">
-        <v>156</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1639,34 +1639,34 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="1">
         <v>0.79550498220506516</v>
       </c>
       <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>52</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>53</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" t="s">
+        <v>155</v>
+      </c>
+      <c r="V5" t="s">
         <v>54</v>
-      </c>
-      <c r="T5" t="s">
-        <v>157</v>
-      </c>
-      <c r="U5" t="s">
-        <v>158</v>
-      </c>
-      <c r="V5" t="s">
-        <v>55</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>45897</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="1">
         <v>-0.17633052574372954</v>
@@ -1686,10 +1686,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1719,37 +1719,37 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="1">
         <v>0.16546413092938081</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q6">
         <v>68</v>
       </c>
       <c r="R6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" t="s">
         <v>60</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
+        <v>156</v>
+      </c>
+      <c r="U6" t="s">
+        <v>157</v>
+      </c>
+      <c r="V6" t="s">
         <v>61</v>
       </c>
-      <c r="T6" t="s">
-        <v>159</v>
-      </c>
-      <c r="U6" t="s">
-        <v>160</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>62</v>
-      </c>
-      <c r="W6" t="s">
-        <v>63</v>
       </c>
       <c r="X6" s="3">
         <v>45897</v>
@@ -1766,13 +1766,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2">
         <v>1265.69472</v>
@@ -1799,34 +1799,34 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="1">
         <v>0.34405265196966295</v>
       </c>
       <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
         <v>67</v>
-      </c>
-      <c r="P7" t="s">
-        <v>68</v>
       </c>
       <c r="Q7">
         <v>26</v>
       </c>
       <c r="R7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" t="s">
         <v>69</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U7" t="s">
+        <v>159</v>
+      </c>
+      <c r="V7" t="s">
         <v>70</v>
-      </c>
-      <c r="T7" t="s">
-        <v>161</v>
-      </c>
-      <c r="U7" t="s">
-        <v>162</v>
-      </c>
-      <c r="V7" t="s">
-        <v>71</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>45897</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1846,13 +1846,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
         <v>2186.2800000000002</v>
@@ -1879,34 +1879,34 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="1">
         <v>7.4441517097535534E-2</v>
       </c>
       <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s">
         <v>74</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" t="s">
-        <v>163</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>76</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
+        <v>161</v>
+      </c>
+      <c r="U8" t="s">
+        <v>162</v>
+      </c>
+      <c r="V8" t="s">
         <v>77</v>
-      </c>
-      <c r="T8" t="s">
-        <v>164</v>
-      </c>
-      <c r="U8" t="s">
-        <v>165</v>
-      </c>
-      <c r="V8" t="s">
-        <v>78</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1959,7 +1959,7 @@
         <v>67.878</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" s="1">
         <v>0.26727680470462245</v>
@@ -1968,25 +1968,25 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>81</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>182</v>
+      </c>
+      <c r="T9" t="s">
+        <v>163</v>
+      </c>
+      <c r="U9" t="s">
+        <v>164</v>
+      </c>
+      <c r="V9" t="s">
         <v>82</v>
-      </c>
-      <c r="S9" t="s">
-        <v>185</v>
-      </c>
-      <c r="T9" t="s">
-        <v>166</v>
-      </c>
-      <c r="U9" t="s">
-        <v>167</v>
-      </c>
-      <c r="V9" t="s">
-        <v>83</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>1372.5805700000001</v>
@@ -2039,37 +2039,37 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10" s="1">
         <v>0.28930934830295613</v>
       </c>
       <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
         <v>87</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>89</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>90</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
+        <v>165</v>
+      </c>
+      <c r="U10" t="s">
+        <v>166</v>
+      </c>
+      <c r="V10" t="s">
         <v>91</v>
       </c>
-      <c r="T10" t="s">
-        <v>168</v>
-      </c>
-      <c r="U10" t="s">
-        <v>169</v>
-      </c>
-      <c r="V10" t="s">
-        <v>92</v>
-      </c>
       <c r="W10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="X10" s="3">
         <v>45898</v>
@@ -2086,13 +2086,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
         <v>5337.5</v>
@@ -2119,37 +2119,37 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N11" s="1">
         <v>0.6428571428571429</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>96</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>97</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
+        <v>168</v>
+      </c>
+      <c r="U11" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" t="s">
         <v>98</v>
-      </c>
-      <c r="T11" t="s">
-        <v>171</v>
-      </c>
-      <c r="U11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V11" t="s">
-        <v>92</v>
-      </c>
-      <c r="W11" t="s">
-        <v>99</v>
       </c>
       <c r="X11" s="3">
         <v>45898</v>
@@ -2166,13 +2166,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
         <v>100</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
       </c>
       <c r="E12" s="2">
         <v>680.69294500000001</v>
@@ -2199,7 +2199,7 @@
         <v>-2.0912500000000001</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N12" s="1">
         <v>0.35236380097930942</v>
@@ -2208,25 +2208,25 @@
         <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>15</v>
       </c>
       <c r="R12" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" t="s">
         <v>105</v>
       </c>
-      <c r="S12" t="s">
-        <v>106</v>
-      </c>
       <c r="T12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="V12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2246,13 +2246,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2">
         <v>1045.762712</v>
@@ -2279,34 +2279,34 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N13" s="1">
         <v>0.6783589862783328</v>
       </c>
       <c r="O13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" t="s">
         <v>109</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>110</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>111</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>112</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>172</v>
+      </c>
+      <c r="U13" t="s">
         <v>113</v>
       </c>
-      <c r="T13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U13" t="s">
-        <v>114</v>
-      </c>
       <c r="V13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>45898</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="1">
         <v>0.18000000439604424</v>
@@ -2326,13 +2326,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2">
         <v>2019.8763390000001</v>
@@ -2359,34 +2359,34 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N14" s="1">
         <v>0.12168138848622852</v>
       </c>
       <c r="O14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" t="s">
         <v>116</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>117</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>118</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>119</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>120</v>
       </c>
-      <c r="U14" t="s">
-        <v>121</v>
-      </c>
       <c r="V14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2">
         <v>2903.04126</v>
@@ -2439,34 +2439,34 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N15" s="1">
         <v>0.59318156563162339</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="R15" t="s">
+        <v>124</v>
+      </c>
+      <c r="S15" t="s">
         <v>125</v>
       </c>
-      <c r="S15" t="s">
-        <v>126</v>
-      </c>
       <c r="T15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2486,13 +2486,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2">
         <v>1047.3630700000001</v>
@@ -2519,34 +2519,34 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N16" s="1">
         <v>0.15559721329490833</v>
       </c>
       <c r="O16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" t="s">
         <v>129</v>
-      </c>
-      <c r="P16" t="s">
-        <v>130</v>
       </c>
       <c r="Q16">
         <v>23</v>
       </c>
       <c r="R16" t="s">
+        <v>130</v>
+      </c>
+      <c r="S16" t="s">
         <v>131</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
+        <v>175</v>
+      </c>
+      <c r="U16" t="s">
+        <v>176</v>
+      </c>
+      <c r="V16" t="s">
         <v>132</v>
-      </c>
-      <c r="T16" t="s">
-        <v>178</v>
-      </c>
-      <c r="U16" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" t="s">
-        <v>133</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>45898</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="1">
         <v>-9.5509698226650848</v>
@@ -2566,13 +2566,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
         <v>134</v>
       </c>
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2">
         <v>669.18430290000003</v>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N17" s="1">
         <v>0.86323800542931128</v>
       </c>
       <c r="O17" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" t="s">
         <v>137</v>
-      </c>
-      <c r="P17" t="s">
-        <v>138</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="U17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2">
         <v>437.16408000000001</v>
@@ -2679,7 +2679,7 @@
         <v>72.569237299999998</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N18" s="1">
         <v>0.82583333356208044</v>
@@ -2688,28 +2688,28 @@
         <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>227</v>
       </c>
       <c r="R18" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" t="s">
         <v>142</v>
       </c>
-      <c r="S18" t="s">
-        <v>143</v>
-      </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="U18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X18" s="3">
         <v>45905</v>
@@ -2718,7 +2718,7 @@
         <v>0.62624581052110095</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2726,13 +2726,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
         <v>144</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>145</v>
       </c>
       <c r="E19" s="2">
         <v>171.31355932203391</v>
@@ -2759,46 +2759,46 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>146</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>147</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>148</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>149</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>150</v>
       </c>
-      <c r="S19" t="s">
-        <v>151</v>
-      </c>
       <c r="T19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="U19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="X19" s="3">
         <v>45905</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B5AD96-6D3B-4DA8-B906-A5BDE0076DDD}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2871F4-0117-49DF-A849-C0319496CE33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,13 +841,6 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Present work order is completed on 4th September,2025, However from customer side L&amp;T Project Director Mr. P. R. Kumar's mail stated 3 months extension. </t>
-  </si>
-  <si>
-    <t>1. Raise invoice for August-2025 month with Supporting documents.
-2. Recruitment for 20+ vacancies in project</t>
-  </si>
-  <si>
     <t>Although the customer mail received for extension but awaiting for actual work Order.</t>
   </si>
   <si>
@@ -890,6 +883,13 @@
   </si>
   <si>
     <t xml:space="preserve">Replacement of Bimal Kalsa (Backend+Elastic Developer) - As per rfp terms we need to provide replacement with overlapping period of 30 days, if not then penalty equivalent to monthly amt of resource will be deducted.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present work order is completed on 4th September,2025. However from customer side L&amp;T Project Director Mr P R Kumar's mail stated 3 months extension. </t>
+  </si>
+  <si>
+    <t>1) Raise invoice for August-2025 month with Supporting documents.
+2) Recruitment for 20+ vacancies in project.</t>
   </si>
 </sst>
 </file>
@@ -938,11 +938,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1262,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,16 +1421,16 @@
         <v>180</v>
       </c>
       <c r="T2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
         <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="X2" s="3">
         <v>45906</v>
@@ -2700,16 +2701,16 @@
         <v>142</v>
       </c>
       <c r="T18" t="s">
+        <v>190</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
         <v>183</v>
-      </c>
-      <c r="U18" t="s">
-        <v>184</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>185</v>
       </c>
       <c r="X18" s="3">
         <v>45905</v>
@@ -2780,16 +2781,16 @@
         <v>150</v>
       </c>
       <c r="T19" t="s">
+        <v>184</v>
+      </c>
+      <c r="U19" t="s">
+        <v>185</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>186</v>
-      </c>
-      <c r="U19" t="s">
-        <v>187</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>188</v>
       </c>
       <c r="X19" s="3">
         <v>45905</v>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2871F4-0117-49DF-A849-C0319496CE33}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A439427-51CC-4684-AAA0-18F797A51A53}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,12 +938,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1263,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2702,7 @@
       <c r="T18" t="s">
         <v>190</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" t="s">
         <v>191</v>
       </c>
       <c r="V18">
@@ -2793,7 +2792,7 @@
         <v>186</v>
       </c>
       <c r="X19" s="3">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>55</v>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE48C49-74C5-448A-8217-827E50E21E58}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{488249BD-8A1D-40F0-A43E-2025E6E36003}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,14 +664,6 @@
 </t>
   </si>
   <si>
-    <t>#Servers: Installation in NOC room on 08-09-2025.
-#Substations: Begin meter data retrieval post server installation.
-ABT Meters: Connect with incomer meters in coming week with electrical team.
-#Water Flow Meters: Awaiting JNPA’s approval for 25 mm &amp; 40 mm meter scope.
-#RMU Communication: Converter installation &amp; cabling for one RMU on 08-09-2025.
-#Billing Meters: Continue GPRS testing; VI SIM cards expected in 20–25 days.</t>
-  </si>
-  <si>
     <t>#Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
 #RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
 #Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
@@ -730,13 +722,6 @@
 # Bulk upload parser under implementation.</t>
   </si>
   <si>
-    <t># Maintenance activities: Daily ULB support -- Website changes ongoing.
-# New SBM Dashboard 2'0 development: legacy waste &amp; Toilets: ongoing.
-# New IHHL Certificate deployed &amp; support ongoing -- Updates in SSJ page. 
-# DWR Mobile App pilot to be planned, Enable DWR for Dumpsite.
-# SS Handover with IPSOS in the next week based on resource availability.</t>
-  </si>
-  <si>
     <t># Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI)
 # No WiFi at New location</t>
   </si>
@@ -757,13 +742,6 @@
 # Commitee formed for current contract extension.</t>
   </si>
   <si>
-    <t># Indore IMC Zonal register creation.
-# Pondicherry state to join CRS portal.
-# WSO2 to NAPIX Shifting.
-# Gujarat onboarding from 15-Aug-25.
-# Contract extension approval -- proposal submitted.</t>
-  </si>
-  <si>
     <t>WSO2 server issues.</t>
   </si>
   <si>
@@ -780,14 +758,6 @@
 # SLA clock changes for 5'3 from 24 hours to 16 hours (WZU approved) &amp; changes done in HPSM.</t>
   </si>
   <si>
-    <t># SLA methodology to be finalized with Customer to avoid penalties - SLA methdology finalisation discussions in progress with PGA &amp; WZU.
-# Ramp-up requirement for tech upgrade.
-# Implement CR's in JIRA  -- to automate SLA computation for enhancement related SLA's
-# Attendance system changes to be done from TCS -- followup ongoing
-# CSAT automated mails follow-up.
-# Collection of due payment.</t>
-  </si>
-  <si>
     <t>PENSION FUND REGULATORY AND DEVELOPMENT AUTHORITY - PFRDA</t>
   </si>
   <si>
@@ -800,13 +770,6 @@
 # Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
   </si>
   <si>
-    <t># Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
-# Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
-# VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
-# Payment collection for implementation milestone.
-# Billing for remaining milestones.</t>
-  </si>
-  <si>
     <t>DIGITAL INDIA CORP - NATIONAL HIGHWAY AUTHORITY OF INDIA</t>
   </si>
   <si>
@@ -814,11 +777,6 @@
 # Total 9 modules in part 1 &amp; Total 8 modules in part 2 including Drone module (moved from part 1 to part 2).
 # 9 out of 9 – development complete &amp; UAT done for part 1.
 # Go-live of 7 completed modules done on 17th Jul 2025 -- awaiting official sign-off.</t>
-  </si>
-  <si>
-    <t># Production deployment of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
-# Next Part-2 modules decision -- requirement analysis in progress for 7 modules; yet to start for employee directory &amp; drone module.
-# Post Go-live activities -- SOP creation of helpdesk support, user manual etc.</t>
   </si>
   <si>
     <t>DEPT OF AGRICULTURE CORP &amp; FARMER WELFARE</t>
@@ -845,20 +803,6 @@
 4] Krishi Unnati – Mother/Daily sanction module: In Progress</t>
   </si>
   <si>
-    <t>1] NFSM – Make Agristack data live on Krishi Mapper
-2] KM –
-   #GIS google map with optimized API will push on Live
-   #PDMC data will push on Live
-   #Discussion on new UM layout
-   #Preparing Model flow or GT scheme
-   #UM – Optimizing the counts records
-   #Onboard consumed API’s data on KM
-   #Fixing UM bugs
-3] NF – 
-   #Work on Given Observation points
-   #Providing Data Import option</t>
-  </si>
-  <si>
     <t>NEW MANGALORE PORT TRUST - NMPT</t>
   </si>
   <si>
@@ -1050,6 +994,62 @@
   </si>
   <si>
     <t>Discussion with OEM to be initiated post receiving of LOI</t>
+  </si>
+  <si>
+    <t>-&gt; Maintenance activities: Daily ULB support -- Website changes ongoing.
+-&gt; New SBM Dashboard 2'0 development: legacy waste &amp; Toilets: ongoing.
+-&gt; New IHHL Certificate deployed &amp; support ongoing -- Updates in SSJ page. 
+-&gt; DWR Mobile App pilot to be planned, Enable DWR for Dumpsite.
+-&gt; SS Handover with IPSOS in the next week based on resource availability.</t>
+  </si>
+  <si>
+    <t>-&gt; Indore IMC Zonal register creation.
+-&gt; Pondicherry state to join CRS portal.
+-&gt; WSO2 to NAPIX Shifting.
+-&gt; Gujarat onboarding from 15-Aug-25.
+-&gt; Contract extension approval -- proposal submitted.</t>
+  </si>
+  <si>
+    <t>-&gt; SLA methodology to be finalized with Customer to avoid penalties - SLA methdology finalisation discussions in progress with PGA &amp; WZU.
+-&gt; Ramp-up requirement for tech upgrade.
+-&gt; Implement CR's in JIRA  -- to automate SLA computation for enhancement related SLA's
+-&gt; Attendance system changes to be done from TCS -- followup ongoing
+-&gt; CSAT automated mails follow-up.
+-&gt; Collection of due payment.</t>
+  </si>
+  <si>
+    <t>-&gt; Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
+-&gt; Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
+-&gt; VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
+-&gt; Payment collection for implementation milestone.
+-&gt; Billing for remaining milestones.</t>
+  </si>
+  <si>
+    <t>-&gt; Production deployment of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
+-&gt; Next Part-2 modules decision -- requirement analysis in progress for 7 modules; yet to start for employee directory &amp; drone module.
+-&gt; Post Go-live activities -- SOP creation of helpdesk support, user manual etc.</t>
+  </si>
+  <si>
+    <t>1] NFSM – Make Agristack data live on Krishi Mapper
+2] KM –
+   -&gt;GIS google map with optimized API will push on Live
+   -&gt;PDMC data will push on Live
+   -&gt;Discussion on new UM layout
+   -&gt;Preparing Model flow or GT scheme
+   -&gt;UM – Optimizing the counts records
+   -&gt;Onboard consumed API’s data on KM
+   -&gt;Fixing UM bugs
+3] NF – 
+   -&gt;Work on Given Observation points
+   -&gt;Providing Data Import option</t>
+  </si>
+  <si>
+    <t>-&gt;Servers: Installation in NOC room on 08-09-2025.
+-&gt;Substations: Begin meter data retrieval post server installation.
+ABT Meters: Connect with incomer meters in coming week with electrical team.
+-&gt;Water Flow Meters: Awaiting JNPA’s approval for 25 mm &amp; 40 mm meter scope.
+-&gt;RMU Communication: Converter installation &amp; cabling for one RMU on 08-09-2025.
+-&gt;Billing Meters: Continue GPRS testing; VI SIM cards expected in 20–25 days.</t>
   </si>
 </sst>
 </file>
@@ -1103,9 +1103,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1425,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,25 +1443,25 @@
     <col min="12" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="2"/>
     <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="24" max="24" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1486,37 +1488,37 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="3" t="s">
@@ -1530,19 +1532,19 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="2">
@@ -1569,38 +1571,38 @@
       <c r="M2" s="2">
         <v>23.340126300000005</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="1">
         <v>0.69912997976269697</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" t="s">
         <v>159</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
         <v>160</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="Y2" s="3">
         <v>45906</v>
@@ -1613,19 +1615,19 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2">
@@ -1652,38 +1654,38 @@
       <c r="M3" s="2">
         <v>36.262500000000003</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="1">
         <v>0.54928315446780807</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
         <v>167</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
         <v>168</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="Y3" s="3">
         <v>45904</v>
@@ -1696,19 +1698,19 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="2">
@@ -1735,38 +1737,38 @@
       <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="O4" s="1">
         <v>0.43356734718966405</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" t="s">
+        <v>170</v>
+      </c>
+      <c r="S4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>171</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" t="s">
         <v>172</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="Y4" s="3">
         <v>45905</v>
@@ -1779,19 +1781,19 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="2">
@@ -1818,37 +1820,37 @@
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="O5" s="1">
         <v>0.16546413092938081</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="R5" t="s">
+        <v>174</v>
+      </c>
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="4" t="s">
+      <c r="U5" t="s">
+        <v>175</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="W5" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5" s="3">
@@ -1862,19 +1864,19 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="2">
@@ -1901,37 +1903,37 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="O6" s="1">
         <v>0.34405265196966295</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="R6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S6" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="U6" t="s">
+        <v>178</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="W6" t="s">
         <v>61</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6" s="3">
@@ -1945,19 +1947,19 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="2">
@@ -1984,37 +1986,37 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>63</v>
       </c>
       <c r="O7" s="1">
         <v>7.4441517097535534E-2</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="W7" s="4" t="s">
+      <c r="U7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="W7" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" s="3">
@@ -2028,19 +2030,19 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="2">
@@ -2067,37 +2069,37 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="O8" s="1">
         <v>0.26727680470462245</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="S8" s="4" t="s">
+      <c r="R8" t="s">
+        <v>182</v>
+      </c>
+      <c r="S8" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" t="s">
         <v>154</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="W8" s="4" t="s">
+      <c r="U8" t="s">
+        <v>183</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="W8" t="s">
         <v>72</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
@@ -2111,19 +2113,19 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F9" s="2">
@@ -2150,37 +2152,37 @@
       <c r="M9" s="2">
         <v>34.570928100000003</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5" t="s">
         <v>75</v>
       </c>
       <c r="O9" s="1">
         <v>0.31449615981377327</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" t="s">
         <v>80</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" t="s">
         <v>141</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" t="s">
         <v>142</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" t="s">
         <v>81</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" t="s">
         <v>143</v>
       </c>
       <c r="Y9" s="3">
@@ -2194,19 +2196,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="2">
@@ -2233,37 +2235,37 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>83</v>
       </c>
       <c r="O10" s="1">
         <v>0.6428571428571429</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" t="s">
         <v>87</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" t="s">
         <v>144</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="V10" t="s">
         <v>145</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="W10" t="s">
         <v>81</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="X10" t="s">
         <v>88</v>
       </c>
       <c r="Y10" s="3">
@@ -2277,19 +2279,19 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F11" s="2">
@@ -2316,37 +2318,37 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>92</v>
       </c>
       <c r="O11" s="1">
         <v>0.35236380097930942</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="S11" s="4" t="s">
+      <c r="R11" t="s">
+        <v>163</v>
+      </c>
+      <c r="S11" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" t="s">
         <v>95</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" t="s">
         <v>146</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="V11" t="s">
         <v>147</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" t="s">
         <v>81</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11" s="3">
@@ -2360,19 +2362,19 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="2">
@@ -2399,37 +2401,37 @@
       <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>97</v>
       </c>
       <c r="O12" s="1">
         <v>0.6783589862783328</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" t="s">
         <v>100</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" t="s">
         <v>101</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" t="s">
         <v>102</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" t="s">
         <v>148</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="W12" t="s">
         <v>81</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12" s="3">
@@ -2443,19 +2445,19 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="2">
@@ -2482,37 +2484,37 @@
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>92</v>
       </c>
       <c r="O13" s="1">
         <v>0.1643651001745805</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" t="s">
         <v>105</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" t="s">
         <v>106</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" t="s">
         <v>109</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V13" t="s">
         <v>110</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" t="s">
         <v>81</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13" s="3">
@@ -2526,19 +2528,19 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="2">
@@ -2565,37 +2567,37 @@
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>112</v>
       </c>
       <c r="O14" s="1">
         <v>0.59318156563162339</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" t="s">
         <v>113</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="S14" s="4" t="s">
+      <c r="R14" t="s">
+        <v>174</v>
+      </c>
+      <c r="S14" t="s">
         <v>114</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" t="s">
         <v>115</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" t="s">
         <v>149</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" t="s">
         <v>150</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" t="s">
         <v>81</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
@@ -2609,19 +2611,19 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="2">
@@ -2648,37 +2650,37 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>117</v>
       </c>
       <c r="O15" s="1">
         <v>0.15559721329490833</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" t="s">
         <v>118</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" t="s">
         <v>119</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="S15" s="4" t="s">
+      <c r="R15" t="s">
+        <v>188</v>
+      </c>
+      <c r="S15" t="s">
         <v>120</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" t="s">
         <v>121</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" t="s">
         <v>151</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" t="s">
         <v>152</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="W15" t="s">
         <v>122</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15" s="3">
@@ -2692,19 +2694,19 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="2">
@@ -2731,37 +2733,37 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>125</v>
       </c>
       <c r="O16" s="1">
         <v>0.86323800542931128</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" t="s">
         <v>127</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="S16" s="4" t="s">
+      <c r="R16" t="s">
+        <v>189</v>
+      </c>
+      <c r="S16" t="s">
         <v>120</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" t="s">
         <v>153</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
+      <c r="U16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V16" t="s">
+        <v>191</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16" s="3">
@@ -2775,19 +2777,19 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F17" s="2">
@@ -2814,37 +2816,37 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="5" t="s">
         <v>129</v>
       </c>
       <c r="O17" s="1">
         <v>0.82583333356208044</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" t="s">
         <v>130</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="S17" s="4" t="s">
+      <c r="R17" t="s">
+        <v>193</v>
+      </c>
+      <c r="S17" t="s">
         <v>131</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" t="s">
         <v>132</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4" t="s">
+      <c r="U17" t="s">
+        <v>161</v>
+      </c>
+      <c r="V17" t="s">
+        <v>194</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
         <v>155</v>
       </c>
       <c r="Y17" s="3">
@@ -2858,19 +2860,19 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F18" s="2">
@@ -2897,38 +2899,38 @@
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5" t="s">
         <v>135</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" t="s">
         <v>136</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" t="s">
         <v>137</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="S18" s="4" t="s">
+      <c r="R18" t="s">
+        <v>196</v>
+      </c>
+      <c r="S18" t="s">
         <v>138</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" t="s">
         <v>139</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" t="s">
         <v>156</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="V18" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>157</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="Y18" s="3">
         <v>45905</v>
@@ -2941,19 +2943,19 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="2">
@@ -2980,37 +2982,37 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>201</v>
+      </c>
+      <c r="R19" t="s">
+        <v>202</v>
+      </c>
+      <c r="S19" t="s">
+        <v>203</v>
+      </c>
+      <c r="T19" t="s">
+        <v>204</v>
+      </c>
+      <c r="U19" t="s">
+        <v>205</v>
+      </c>
+      <c r="V19" t="s">
         <v>206</v>
       </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19" s="3">
@@ -3024,77 +3026,77 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>209</v>
+      </c>
+      <c r="R20" t="s">
+        <v>210</v>
+      </c>
+      <c r="S20" t="s">
+        <v>81</v>
+      </c>
+      <c r="T20" t="s">
+        <v>211</v>
+      </c>
+      <c r="U20" t="s">
+        <v>212</v>
+      </c>
+      <c r="V20" t="s">
+        <v>213</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
         <v>214</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="Y20" s="3">
         <v>45910</v>
@@ -3107,19 +3109,19 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="2">
@@ -3146,38 +3148,38 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>218</v>
+      </c>
+      <c r="R21" t="s">
+        <v>219</v>
+      </c>
+      <c r="S21" t="s">
+        <v>220</v>
+      </c>
+      <c r="T21" t="s">
+        <v>221</v>
+      </c>
+      <c r="U21" t="s">
+        <v>222</v>
+      </c>
+      <c r="V21" t="s">
+        <v>223</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>224</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="Y21" s="3">
         <v>45910</v>
@@ -3190,74 +3192,74 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>228</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>229</v>
+      </c>
+      <c r="T22" t="s">
+        <v>230</v>
+      </c>
+      <c r="U22" t="s">
+        <v>231</v>
+      </c>
+      <c r="V22" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22" s="3">

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{488249BD-8A1D-40F0-A43E-2025E6E36003}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460222B1-9681-4F84-85F5-779551F53951}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,14 +521,6 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
-a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
-b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
-c) Energy billing system that coverers consumer’s energy monitoring and billing
-#&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
-#&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
-  </si>
-  <si>
     <t>38+4</t>
   </si>
   <si>
@@ -655,15 +647,6 @@
     <t>Although the customer mail received for extension but awaiting for actual work Order.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Servers: Configured, tested, and delivered on 13-08-2025.
-#Substations (1,2,3): Communication network completed; IPs assigned.
-#ABT Meters: Two meters installed in custom panel, delivered on 13-08-2025; rack placed at permanent location.
-#Water Flow Meters: 62 delivered, 3 (40 mm) installed; balance pending location finalization.
-#RMU Communication: Survey completed; converter installation planned on 08-09-2025.
-#Billing Meter Communication: GPRS testing ongoing with live data at JNPA.
-</t>
-  </si>
-  <si>
     <t>#Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
 #RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
 #Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
@@ -709,19 +692,6 @@
     <t>7+13</t>
   </si>
   <si>
-    <t># 20 resources on-boarded, (13 resources from GAIA – Tech Partner)
-# Payment received till May’25; Invoicing done for Aug’25.
-# 2 resources onboarded for SS; Interviews ongoing for other 3 resources.
-# DWR mobile app: changes ongoing for dumpsite. 
-# New SBM Dashboard ver2'0 (Legacy waste &amp; Toilets): dev ongoing.
-# New SSJ (Swachh Survekshan Jodi) page created for City pairing on website.
-# UWM (Used Water Management) Action Plan: addition of FSTP plant &amp; SOAK (ULB): Completed.
-# SS Report/certificate for ULB: uploaded for ODF on portal, GFC-done.
-# API to be modified for SHS portal.
-# Assam ULB Name changed. 
-# Bulk upload parser under implementation.</t>
-  </si>
-  <si>
     <t># Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI)
 # No WiFi at New location</t>
   </si>
@@ -732,16 +702,6 @@
     <t>27</t>
   </si>
   <si>
-    <t># May 25 Bill Payment received.
-# June Payment under process.
-# Vikas July progress report verification is under progress.
-# July Draft invoice submitted -- approval pending.
-# New DB is deployed, 1 Tech support resource Joined.
-# GP Can extract Certificate 
-# Gujarat Onboarding Successfully done on 01-Sep-2025.
-# Commitee formed for current contract extension.</t>
-  </si>
-  <si>
     <t>WSO2 server issues.</t>
   </si>
   <si>
@@ -751,56 +711,19 @@
     <t>68</t>
   </si>
   <si>
-    <t># Revised SLA methodology document shared and meetings ongoing to finalize.
-# Feb’25-Mar’25 &amp; AMJ25 bills submitted, data upload pending as PGA informed to finalize SLA document.
-# POC on new technology upgrade has been completed and VAPT initiated.
-# Approval received for SLA 4'8 -- henceforth TCS tickets for shifting traffic will not be logged under ECCS (25-Jun-25), which were creating change in severity.
-# SLA clock changes for 5'3 from 24 hours to 16 hours (WZU approved) &amp; changes done in HPSM.</t>
-  </si>
-  <si>
     <t>PENSION FUND REGULATORY AND DEVELOPMENT AUTHORITY - PFRDA</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t># System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
-# Go-Live done on 19th May 2025.
-# Helpdesk set-up done.
-# Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
-  </si>
-  <si>
     <t>DIGITAL INDIA CORP - NATIONAL HIGHWAY AUTHORITY OF INDIA</t>
   </si>
   <si>
-    <t># DIC team along with CMS team working on this project.
-# Total 9 modules in part 1 &amp; Total 8 modules in part 2 including Drone module (moved from part 1 to part 2).
-# 9 out of 9 – development complete &amp; UAT done for part 1.
-# Go-live of 7 completed modules done on 17th Jul 2025 -- awaiting official sign-off.</t>
-  </si>
-  <si>
     <t>DEPT OF AGRICULTURE CORP &amp; FARMER WELFARE</t>
   </si>
   <si>
     <t>52+2</t>
-  </si>
-  <si>
-    <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
-15 resources onboarded out of 15 – additional on need basis approval received from customer.
-2 VC Support addnl order received -- onboarded.
-1 Drupal &amp; 1 SEO developer onboarded on temporary basis (FOC basis)
-Billing till Jul-25 done.
-Payment of 136 L received on 26-Aug-2025 (till Jun-25)
-1] KM (Krishi Mapper) –
-   #Applying Scheduler on Telangana State API for NMEO-OP
-   #New API applied on 12 schemes on GIS
-   #Optimizing current GIS Dashboard
-   #GIS – Cluster has been applied till District level
-   #KM Dashboard new layout is in progress
-   #Aligned meeting with Maha DBT team for API discussion
-2] Natural Farming - Fixing users highlighted issue.
-3] MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store (Under Review) - Working on Offline mode.
-4] Krishi Unnati – Mother/Daily sanction module: In Progress</t>
   </si>
   <si>
     <t>NEW MANGALORE PORT TRUST - NMPT</t>
@@ -1050,6 +973,83 @@
 -&gt;Water Flow Meters: Awaiting JNPA’s approval for 25 mm &amp; 40 mm meter scope.
 -&gt;RMU Communication: Converter installation &amp; cabling for one RMU on 08-09-2025.
 -&gt;Billing Meters: Continue GPRS testing; VI SIM cards expected in 20–25 days.</t>
+  </si>
+  <si>
+    <t>-&gt; 20 resources on-boarded, (13 resources from GAIA – Tech Partner)
+-&gt; Payment received till May’25; Invoicing done for Aug’25.
+-&gt; 2 resources onboarded for SS; Interviews ongoing for other 3 resources.
+-&gt; DWR mobile app: changes ongoing for dumpsite. 
+-&gt; New SBM Dashboard ver2'0 (Legacy waste &amp; Toilets): dev ongoing.
+-&gt; New SSJ (Swachh Survekshan Jodi) page created for City pairing on website.
+-&gt; UWM (Used Water Management) Action Plan: addition of FSTP plant &amp; SOAK (ULB): Completed.
+-&gt; SS Report/certificate for ULB: uploaded for ODF on portal, GFC-done.
+-&gt; API to be modified for SHS portal.
+-&gt; Assam ULB Name changed. 
+-&gt; Bulk upload parser under implementation.</t>
+  </si>
+  <si>
+    <t>-&gt; May 25 Bill Payment received.
+-&gt; June Payment under process.
+-&gt; Vikas July progress report verification is under progress.
+-&gt; July Draft invoice submitted -- approval pending.
+-&gt; New DB is deployed, 1 Tech support resource Joined.
+-&gt; GP Can extract Certificate 
+-&gt; Gujarat Onboarding Successfully done on 01-Sep-2025.
+-&gt; Commitee formed for current contract extension.</t>
+  </si>
+  <si>
+    <t>-&gt; Revised SLA methodology document shared and meetings ongoing to finalize.
+-&gt; Feb’25-Mar’25 &amp; AMJ25 bills submitted, data upload pending as PGA informed to finalize SLA document.
+-&gt; POC on new technology upgrade has been completed and VAPT initiated.
+-&gt; Approval received for SLA 4'8 -- henceforth TCS tickets for shifting traffic will not be logged under ECCS (25-Jun-25), which were creating change in severity.
+-&gt; SLA clock changes for 5'3 from 24 hours to 16 hours (WZU approved) &amp; changes done in HPSM.</t>
+  </si>
+  <si>
+    <t>-&gt; System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
+-&gt; Go-Live done on 19th May 2025.
+-&gt; Helpdesk set-up done.
+-&gt; Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
+  </si>
+  <si>
+    <t>-&gt; DIC team along with CMS team working on this project.
+-&gt; Total 9 modules in part 1 &amp; Total 8 modules in part 2 including Drone module (moved from part 1 to part 2).
+-&gt; 9 out of 9 – development complete &amp; UAT done for part 1.
+-&gt; Go-live of 7 completed modules done on 17th Jul 2025 -- awaiting official sign-off.</t>
+  </si>
+  <si>
+    <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
+15 resources onboarded out of 15 – additional on need basis approval received from customer.
+2 VC Support addnl order received -- onboarded.
+1 Drupal &amp; 1 SEO developer onboarded on temporary basis (FOC basis)
+Billing till Jul-25 done.
+Payment of 136 L received on 26-Aug-2025 (till Jun-25)
+1] KM (Krishi Mapper) –
+   -&gt;Applying Scheduler on Telangana State API for NMEO-OP
+   -&gt;New API applied on 12 schemes on GIS
+   -&gt;Optimizing current GIS Dashboard
+   -&gt;GIS – Cluster has been applied till District level
+   -&gt;KM Dashboard new layout is in progress
+   -&gt;Aligned meeting with Maha DBT team for API discussion
+2] Natural Farming - Fixing users highlighted issue.
+3] MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store (Under Review) - Working on Offline mode.
+4] Krishi Unnati – Mother/Daily sanction module: In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt;Servers: Configured, tested, and delivered on 13-08-2025.
+-&gt;Substations (1,2,3): Communication network completed; IPs assigned.
+-&gt;ABT Meters: Two meters installed in custom panel, delivered on 13-08-2025; rack placed at permanent location.
+-&gt;Water Flow Meters: 62 delivered, 3 (40 mm) installed; balance pending location finalization.
+-&gt;RMU Communication: Survey completed; converter installation planned on 08-09-2025.
+-&gt;Billing Meter Communication: GPRS testing ongoing with live data at JNPA.
+</t>
+  </si>
+  <si>
+    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
+a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
+b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
+c) Energy billing system that coverers consumer’s energy monitoring and billing
+-&gt;&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
+-&gt;&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1098,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1108,6 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1428,7 +1429,7 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V1:V1048576"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,6 +1444,7 @@
     <col min="12" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="2"/>
     <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="21" max="22" width="9.140625" style="7"/>
     <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="9.140625" style="1"/>
@@ -1456,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1509,10 +1511,10 @@
       <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="W1" t="s">
@@ -1584,25 +1586,25 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>164</v>
-      </c>
-      <c r="U2" t="s">
-        <v>158</v>
-      </c>
-      <c r="V2" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="W2" t="s">
         <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Y2" s="3">
         <v>45906</v>
@@ -1622,7 +1624,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1667,7 +1669,7 @@
         <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S3" t="s">
         <v>36</v>
@@ -1675,17 +1677,17 @@
       <c r="T3" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
-        <v>167</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>233</v>
+      <c r="U3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
       <c r="X3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="3">
         <v>45904</v>
@@ -1705,7 +1707,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1750,7 +1752,7 @@
         <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S4" t="s">
         <v>42</v>
@@ -1758,17 +1760,17 @@
       <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" t="s">
-        <v>171</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>234</v>
+      <c r="U4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="W4" t="s">
         <v>44</v>
       </c>
       <c r="X4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y4" s="3">
         <v>45905</v>
@@ -1788,7 +1790,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -1833,7 +1835,7 @@
         <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="S5" t="s">
         <v>51</v>
@@ -1841,11 +1843,11 @@
       <c r="T5" t="s">
         <v>52</v>
       </c>
-      <c r="U5" t="s">
-        <v>175</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>235</v>
+      <c r="U5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="W5" t="s">
         <v>53</v>
@@ -1871,7 +1873,7 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1916,7 +1918,7 @@
         <v>58</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S6" t="s">
         <v>59</v>
@@ -1924,11 +1926,11 @@
       <c r="T6" t="s">
         <v>60</v>
       </c>
-      <c r="U6" t="s">
-        <v>178</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>236</v>
+      <c r="U6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="W6" t="s">
         <v>61</v>
@@ -1954,7 +1956,7 @@
         <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1999,7 +2001,7 @@
         <v>65</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -2007,11 +2009,11 @@
       <c r="T7" t="s">
         <v>67</v>
       </c>
-      <c r="U7" t="s">
-        <v>180</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>237</v>
+      <c r="U7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="W7" t="s">
         <v>68</v>
@@ -2037,7 +2039,7 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2082,19 +2084,19 @@
         <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
         <v>71</v>
       </c>
       <c r="T8" t="s">
-        <v>154</v>
-      </c>
-      <c r="U8" t="s">
-        <v>183</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>238</v>
+        <v>153</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="W8" t="s">
         <v>72</v>
@@ -2173,17 +2175,17 @@
       <c r="T9" t="s">
         <v>80</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="V9" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="V9" t="s">
-        <v>142</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y9" s="3">
         <v>45897</v>
@@ -2256,11 +2258,11 @@
       <c r="T10" t="s">
         <v>87</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="V10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="V10" t="s">
-        <v>145</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
@@ -2286,7 +2288,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
         <v>90</v>
@@ -2331,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S11" t="s">
         <v>94</v>
@@ -2339,11 +2341,11 @@
       <c r="T11" t="s">
         <v>95</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="V11" t="s">
-        <v>147</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
@@ -2369,7 +2371,7 @@
         <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2422,10 +2424,10 @@
       <c r="T12" t="s">
         <v>102</v>
       </c>
-      <c r="U12" t="s">
-        <v>148</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="U12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>103</v>
       </c>
       <c r="W12" t="s">
@@ -2505,10 +2507,10 @@
       <c r="T13" t="s">
         <v>108</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="7" t="s">
         <v>110</v>
       </c>
       <c r="W13" t="s">
@@ -2535,7 +2537,7 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -2580,7 +2582,7 @@
         <v>113</v>
       </c>
       <c r="R14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="S14" t="s">
         <v>114</v>
@@ -2588,11 +2590,11 @@
       <c r="T14" t="s">
         <v>115</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="V14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="V14" t="s">
-        <v>150</v>
       </c>
       <c r="W14" t="s">
         <v>81</v>
@@ -2618,7 +2620,7 @@
         <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -2663,7 +2665,7 @@
         <v>119</v>
       </c>
       <c r="R15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="S15" t="s">
         <v>120</v>
@@ -2671,11 +2673,11 @@
       <c r="T15" t="s">
         <v>121</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="V15" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="V15" t="s">
-        <v>152</v>
       </c>
       <c r="W15" t="s">
         <v>122</v>
@@ -2746,19 +2748,19 @@
         <v>127</v>
       </c>
       <c r="R16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="S16" t="s">
         <v>120</v>
       </c>
       <c r="T16" t="s">
-        <v>153</v>
-      </c>
-      <c r="U16" t="s">
-        <v>190</v>
-      </c>
-      <c r="V16" t="s">
-        <v>191</v>
+        <v>152</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2784,7 +2786,7 @@
         <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -2829,7 +2831,7 @@
         <v>130</v>
       </c>
       <c r="R17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="S17" t="s">
         <v>131</v>
@@ -2837,17 +2839,17 @@
       <c r="T17" t="s">
         <v>132</v>
       </c>
-      <c r="U17" t="s">
-        <v>161</v>
-      </c>
-      <c r="V17" t="s">
-        <v>194</v>
+      <c r="U17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y17" s="3">
         <v>45905</v>
@@ -2867,7 +2869,7 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -2912,25 +2914,25 @@
         <v>137</v>
       </c>
       <c r="R18" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="S18" t="s">
         <v>138</v>
       </c>
-      <c r="T18" t="s">
-        <v>139</v>
-      </c>
-      <c r="U18" t="s">
-        <v>156</v>
-      </c>
-      <c r="V18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>239</v>
       </c>
+      <c r="U18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y18" s="3">
         <v>45905</v>
@@ -2947,10 +2949,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -2983,31 +2985,31 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="R19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="S19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="T19" t="s">
-        <v>204</v>
-      </c>
-      <c r="U19" t="s">
-        <v>205</v>
-      </c>
-      <c r="V19" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -3030,10 +3032,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -3075,28 +3077,28 @@
         <v>81</v>
       </c>
       <c r="Q20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="R20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="S20" t="s">
         <v>81</v>
       </c>
       <c r="T20" t="s">
-        <v>211</v>
-      </c>
-      <c r="U20" t="s">
-        <v>212</v>
-      </c>
-      <c r="V20" t="s">
-        <v>213</v>
+        <v>203</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Y20" s="3">
         <v>45910</v>
@@ -3113,10 +3115,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -3149,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
@@ -3158,28 +3160,28 @@
         <v>30</v>
       </c>
       <c r="Q21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="R21" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="S21" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="T21" t="s">
-        <v>221</v>
-      </c>
-      <c r="U21" t="s">
-        <v>222</v>
-      </c>
-      <c r="V21" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Y21" s="3">
         <v>45910</v>
@@ -3196,10 +3198,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
@@ -3230,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
@@ -3239,22 +3241,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="T22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U22" t="s">
-        <v>231</v>
-      </c>
-      <c r="V22" t="s">
-        <v>232</v>
+        <v>222</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="W22">
         <v>0</v>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460222B1-9681-4F84-85F5-779551F53951}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CC3FAF5-C488-49E1-A723-A863279D48EB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,9 +280,6 @@
     <t>67.88 L</t>
   </si>
   <si>
-    <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
-  </si>
-  <si>
     <t>GWALIOR SC ICCC</t>
   </si>
   <si>
@@ -647,11 +644,6 @@
     <t>Although the customer mail received for extension but awaiting for actual work Order.</t>
   </si>
   <si>
-    <t>#Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
-#RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
-#Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
-  </si>
-  <si>
     <t>Monthly billing from Jul-23 to Aug-25 done. 
 Application maintenance and regular CR deployment.
 355 tasks out of 408 tasks are in production as on date.
@@ -690,10 +682,6 @@
   </si>
   <si>
     <t>7+13</t>
-  </si>
-  <si>
-    <t># Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI)
-# No WiFi at New location</t>
   </si>
   <si>
     <t>OFFICE OF REGISTRAR GENERAL OF INDIA - CRS</t>
@@ -1050,6 +1038,18 @@
 c) Energy billing system that coverers consumer’s energy monitoring and billing
 -&gt;&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
 -&gt;&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
+  </si>
+  <si>
+    <t>-&gt; Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI)
+-&gt; No WiFi at New location</t>
+  </si>
+  <si>
+    <t>C-&gt;, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
+  </si>
+  <si>
+    <t>-&gt;Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
+-&gt;RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
+-&gt;Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
   </si>
 </sst>
 </file>
@@ -1098,17 +1098,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1428,1849 +1425,1851 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="21" max="22" width="9.140625" style="7"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="15" width="9.140625" style="5"/>
+    <col min="16" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="5"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>840.24454680000008</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>587.44015300000058</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>23</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>610.44015300000058</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>110.00000000000001</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>252.8043937999995</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>140.04075780000008</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>23.340126300000005</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="5">
         <v>0.69912997976269697</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
-        <v>161</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
-        <v>162</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="6">
         <v>45906</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="5">
         <v>0.58012380038870615</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="5">
         <v>0.4323402397342212</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>1305.45</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>717.0616940000001</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>36</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>753.0616940000001</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>92</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>588.38830599999994</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>217.57499999999999</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>36.262500000000003</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="5">
         <v>0.54928315446780807</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R3" t="s">
-        <v>164</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="U3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y3" s="3">
+      <c r="X3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y3" s="6">
         <v>45904</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="5">
         <v>0.19000000000000017</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="5">
         <v>0.19000000008625473</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>849.8214484745763</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>368.45483099999984</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>67</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>435.45483099999984</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>33</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>481.36661747457646</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>114.94027879999999</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="5">
         <v>0.43356734718966405</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R4" t="s">
-        <v>167</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="R4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="U4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y4" s="3">
+      <c r="X4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y4" s="6">
         <v>45905</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="5">
         <v>0.22607225678680021</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="5">
         <v>0.11942473989981339</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>2413.0259999999998</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>399.26925</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>182</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>581.26925000000006</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>471</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>2013.7567499999998</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>399.26925</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="5">
         <v>0.16546413092938081</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R5" t="s">
-        <v>170</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="R5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="U5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
         <v>45905</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="5">
         <v>0.41621469835230751</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="5">
         <v>0.33027289323308273</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1265.69472</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>435.46562499999999</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>435.46562499999999</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>367</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>830.22909499999992</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="s">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="5">
         <v>0.34405265196966295</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R6" t="s">
-        <v>172</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="R6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="U6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
         <v>45897</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>2186.2800000000002</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>162.75</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>245.00000000000003</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>407.75</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>77</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>2023.5300000000002</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>162.75</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="5">
         <v>7.4441517097535534E-2</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="R7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="U7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
         <v>45897</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="5">
         <v>0.27640980757497513</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="5">
         <v>0.32590705634920647</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1606.08</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>429.26793049999998</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>68</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>497.26793049999998</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>99</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>1176.8120695</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>317.74232499999999</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="5">
         <v>0.26727680470462245</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R8" t="s">
-        <v>175</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="R8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T8" t="s">
-        <v>153</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="W8" t="s">
-        <v>72</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="T8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
         <v>45904</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="5">
         <v>0.11000001051303465</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="5">
         <v>0.10999999996973608</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="3">
+        <v>1372.5805700000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>431.67131830000005</v>
+      </c>
+      <c r="H9" s="3">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3">
+        <v>477.67131830000005</v>
+      </c>
+      <c r="J9" s="3">
+        <v>204</v>
+      </c>
+      <c r="K9" s="3">
+        <v>940.90925170000003</v>
+      </c>
+      <c r="L9" s="3">
+        <v>75.85388949999998</v>
+      </c>
+      <c r="M9" s="3">
+        <v>34.570928100000003</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="2">
-        <v>1372.5805700000001</v>
-      </c>
-      <c r="G9" s="2">
-        <v>431.67131830000005</v>
-      </c>
-      <c r="H9" s="2">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2">
-        <v>477.67131830000005</v>
-      </c>
-      <c r="J9" s="2">
-        <v>204</v>
-      </c>
-      <c r="K9" s="2">
-        <v>940.90925170000003</v>
-      </c>
-      <c r="L9" s="2">
-        <v>75.85388949999998</v>
-      </c>
-      <c r="M9" s="2">
-        <v>34.570928100000003</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5">
+        <v>0.31449615981377327</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="1">
-        <v>0.31449615981377327</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="V9" s="7" t="s">
+      <c r="X9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W9" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="6">
         <v>45897</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="5">
         <v>0.19540000015149273</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="5">
         <v>0.11441806775377272</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5337.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3431.25</v>
+      </c>
+      <c r="H10" s="3">
+        <v>635</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4066.25</v>
+      </c>
+      <c r="J10" s="3">
+        <v>916</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1906.25</v>
+      </c>
+      <c r="L10" s="3">
+        <v>762.5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5337.5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3431.25</v>
-      </c>
-      <c r="H10" s="2">
-        <v>635</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4066.25</v>
-      </c>
-      <c r="J10" s="2">
-        <v>916</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1906.25</v>
-      </c>
-      <c r="L10" s="2">
-        <v>762.5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="1">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="P10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="W10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="6">
         <v>45897</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="5">
         <v>0.25</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="5">
         <v>0.51229508024724535</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3">
+        <v>680.69294500000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>239.8515534</v>
+      </c>
+      <c r="H11" s="3">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3">
+        <v>261.8515534</v>
+      </c>
+      <c r="J11" s="3">
+        <v>50</v>
+      </c>
+      <c r="K11" s="3">
+        <v>440.84139160000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>20.746828200000003</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="2">
-        <v>680.69294500000001</v>
-      </c>
-      <c r="G11" s="2">
-        <v>239.8515534</v>
-      </c>
-      <c r="H11" s="2">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2">
-        <v>261.8515534</v>
-      </c>
-      <c r="J11" s="2">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2">
-        <v>440.84139160000001</v>
-      </c>
-      <c r="L11" s="2">
-        <v>20.746828200000003</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5">
+        <v>0.35236380097930942</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="1">
-        <v>0.35236380097930942</v>
-      </c>
-      <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="R11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
-        <v>161</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="V11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="W11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
+      <c r="W11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
         <v>45898</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="5">
         <v>-0.25967603526289684</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="5">
         <v>0.12040585230689282</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1045.762712</v>
+      </c>
+      <c r="G12" s="3">
+        <v>709.40253320000011</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>709.40253320000011</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>336.36017879999986</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-0.59409959999999995</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1045.762712</v>
-      </c>
-      <c r="G12" s="2">
-        <v>709.40253320000011</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>709.40253320000011</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>336.36017879999986</v>
-      </c>
-      <c r="L12" s="2">
-        <v>-0.59409959999999995</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5">
+        <v>0.6783589862783328</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="1">
-        <v>0.6783589862783328</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="W12" t="s">
-        <v>81</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
+      <c r="W12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
         <v>45898</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="5">
         <v>0.18000000439604424</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2019.8763390000001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>331.99717679999998</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>331.99717679999998</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1687.8791622000001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>171.16043740000003</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.1643651001745805</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2019.8763390000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>331.99717679999998</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>331.99717679999998</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1687.8791622000001</v>
-      </c>
-      <c r="L13" s="2">
-        <v>171.16043740000003</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.1643651001745805</v>
-      </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="V13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="W13" t="s">
-        <v>81</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
+      <c r="W13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
         <v>45898</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="5">
         <v>0.20490000022684418</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13" s="5">
         <v>0.2046391013686556</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2903.04126</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1722.0305597000006</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1722.0305597000006</v>
+      </c>
+      <c r="J14" s="3">
+        <v>977</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1181.0107002999994</v>
+      </c>
+      <c r="L14" s="3">
+        <v>54.821240000000003</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2903.04126</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1722.0305597000006</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1722.0305597000006</v>
-      </c>
-      <c r="J14" s="2">
-        <v>977</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1181.0107002999994</v>
-      </c>
-      <c r="L14" s="2">
-        <v>54.821240000000003</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5">
+        <v>0.59318156563162339</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O14" s="1">
-        <v>0.59318156563162339</v>
-      </c>
-      <c r="P14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="R14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R14" t="s">
-        <v>170</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T14" t="s">
-        <v>115</v>
-      </c>
-      <c r="U14" s="7" t="s">
+      <c r="U14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="V14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="W14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="W14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
         <v>45898</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="5">
         <v>0.2022725498365231</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="5">
         <v>-0.204144834903355</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1047.3630700000001</v>
+      </c>
+      <c r="G15" s="3">
+        <v>162.96677500000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>162.96677500000001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>114.99999999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>884.39629500000012</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1047.3630700000001</v>
-      </c>
-      <c r="G15" s="2">
-        <v>162.96677500000001</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>162.96677500000001</v>
-      </c>
-      <c r="J15" s="2">
-        <v>114.99999999999999</v>
-      </c>
-      <c r="K15" s="2">
-        <v>884.39629500000012</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5">
+        <v>0.15559721329490833</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O15" s="1">
-        <v>0.15559721329490833</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R15" t="s">
-        <v>180</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="T15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="W15" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="6">
         <v>45898</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="5">
         <v>-9.5509698226650848</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="3">
+        <v>669.18430290000003</v>
+      </c>
+      <c r="G16" s="3">
+        <v>577.66532290000009</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>577.66532290000009</v>
+      </c>
+      <c r="J16" s="3">
+        <v>325</v>
+      </c>
+      <c r="K16" s="3">
+        <v>91.518979999999942</v>
+      </c>
+      <c r="L16" s="3">
+        <v>262.51094999999998</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="2">
-        <v>669.18430290000003</v>
-      </c>
-      <c r="G16" s="2">
-        <v>577.66532290000009</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>577.66532290000009</v>
-      </c>
-      <c r="J16" s="2">
-        <v>325</v>
-      </c>
-      <c r="K16" s="2">
-        <v>91.518979999999942</v>
-      </c>
-      <c r="L16" s="2">
-        <v>262.51094999999998</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5">
+        <v>0.86323800542931128</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O16" s="1">
-        <v>0.86323800542931128</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R16" t="s">
-        <v>181</v>
-      </c>
-      <c r="S16" t="s">
-        <v>120</v>
-      </c>
-      <c r="T16" t="s">
-        <v>152</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
+      <c r="R16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
         <v>45898</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="5">
         <v>0.36662132665084957</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="5">
         <v>0.20000000003501683</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3">
+        <v>437.16408000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>361.02466950000002</v>
+      </c>
+      <c r="H17" s="3">
+        <v>73</v>
+      </c>
+      <c r="I17" s="3">
+        <v>434.02466950000002</v>
+      </c>
+      <c r="J17" s="3">
+        <v>257</v>
+      </c>
+      <c r="K17" s="3">
+        <v>76.139410499999997</v>
+      </c>
+      <c r="L17" s="3">
+        <v>361.02466950000002</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="2">
-        <v>437.16408000000001</v>
-      </c>
-      <c r="G17" s="2">
-        <v>361.02466950000002</v>
-      </c>
-      <c r="H17" s="2">
-        <v>73</v>
-      </c>
-      <c r="I17" s="2">
-        <v>434.02466950000002</v>
-      </c>
-      <c r="J17" s="2">
-        <v>257</v>
-      </c>
-      <c r="K17" s="2">
-        <v>76.139410499999997</v>
-      </c>
-      <c r="L17" s="2">
-        <v>361.02466950000002</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5">
+        <v>0.82583333356208044</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="1">
-        <v>0.82583333356208044</v>
-      </c>
-      <c r="P17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="R17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R17" t="s">
-        <v>185</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="T17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T17" t="s">
-        <v>132</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="U17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" s="6">
         <v>45905</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="5">
         <v>0.62624581052110095</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="3">
+        <v>171.31355932203391</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>171.31355932203391</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="2">
-        <v>171.31355932203391</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>171.31355932203391</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="Q18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R18" t="s">
-        <v>188</v>
-      </c>
-      <c r="S18" t="s">
-        <v>138</v>
-      </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U18" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="6">
         <v>45905</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3">
+        <v>111.36</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>111.36</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C19" t="s">
+      <c r="Q19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="2">
-        <v>111.36</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>111.36</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="R19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="S19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="T19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="R19" t="s">
+      <c r="U19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="S19" t="s">
+      <c r="V19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T19" t="s">
-        <v>196</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3">
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6">
         <v>45909</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AA19" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C20" t="s">
+      <c r="S20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="U20" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="R20" t="s">
+      <c r="V20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="S20" t="s">
-        <v>81</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="U20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="6">
         <v>45910</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AA20" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3">
+        <v>509.88</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>509.88</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C21" t="s">
+      <c r="R21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="2">
-        <v>509.88</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>509.88</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="s">
+      <c r="S21" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="T21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="R21" t="s">
+      <c r="U21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="S21" t="s">
+      <c r="V21" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="T21" t="s">
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="U21" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="6">
         <v>45910</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AA21" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C22" t="s">
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="s">
+      <c r="T22" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="U22" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="V22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="T22" t="s">
-        <v>222</v>
-      </c>
-      <c r="U22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="6">
         <v>45910</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AA22" s="5" t="s">
         <v>47</v>
       </c>
     </row>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CC3FAF5-C488-49E1-A723-A863279D48EB}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{111A1F49-4954-4C68-8A74-659F25A2A98E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="244">
   <si>
     <t>SN</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Start Date (PO) : 30-Aug-24 :: End Date (PO) : 31-Oct-29</t>
   </si>
   <si>
-    <t>33+1</t>
-  </si>
-  <si>
     <t>As per milestone</t>
   </si>
   <si>
@@ -519,26 +516,6 @@
   </si>
   <si>
     <t>38+4</t>
-  </si>
-  <si>
-    <t>ICCC and upgradation of IT and non IT infra; Project earlier managed by HP - CMS O &amp; M started from 1st October 24.
-HOTO &amp; GAP report submitted on 30th Sep &amp; acknowledgement copy received from Customer.
-FAT &amp; UAT completed &amp; sign-off received.
-33 manpower deployment done.
-ICCC &amp; DC upgradation component approval recd &amp; material delivered at site.
-Payment of 117 L received on 4th July.
-Manpower &amp; O&amp;M Invoice submitted to client; Billing done till Apr-25 &amp; AMC Q2 (FMA-25), MJJ-25 PI submitted for Manpower &amp; O&amp;M.
-Invoicing for upgradation milestone done 324 L, Installation complete.</t>
-  </si>
-  <si>
-    <t>Maintenance activities.
-ISO Certification - consultant visited &amp; required documentation work is in progress.
-Critical issues list identified and shared to HO - WLD (Water Leak Detection) display &amp; AMC for - Tape Library, Server, Storage  - in progress.
-Min wages letter to be submitted to client.
-Replacement of UI/UX devloper (Harsh Pathak - Resigned).</t>
-  </si>
-  <si>
-    <t>Min wage hikes for resources - poses a risk.</t>
   </si>
   <si>
     <t>Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
@@ -573,53 +550,6 @@
 10/44 Jn upgradation permission received.
 10/10 upgradation completed.
 Balance location -- 302 Aspects additional to be supplied -- awaiting material (EDD - Tentative 12 Sep)</t>
-  </si>
-  <si>
-    <t>Phase-1 of 14 Junctions are Live – Payment collected (1039 L).
-Phase-2 – 16  Junctions completed &amp; invoices submitted for payment.
-Phase-3 –10 Junctions and 44 Locations delivered &amp; invoices submitted for payment.
-Received go ahead on 26-Aug-25 for 8 ITMS &amp; 10 ATCS Junction (~4 Cr).
-Revised CAPEX now capped at 16Cr (+4 Cr) for work completion and payment processing.
-Reimbursement claims submitted for payment collection.
-O &amp; M requested from 1st Sep 2024.
-Collection for due payments approx 500 L – Phase 2 and 3 along with electricity and connectivity reimbursement.</t>
-  </si>
-  <si>
-    <t>Go-Live expected by 13-Sep-25 &amp; O&amp;M maintenance activities.
-Due payment collection.
-Expected new order of 20 entry exit upgradation ANPR.</t>
-  </si>
-  <si>
-    <t>HRMS &amp; Payroll – .
-1] April Payroll Re-run for HO Employees - Due to the dump of production into the staging server, data and settings were impacted; Consequently, the April payroll needs to be re-run in preparation for the upcoming payroll demo scheduled next week.
-1_a] Work is ongoing on creating pay contracts and updating employee data.
-1_b] During the April payroll re-run, several issues were identified, including:.
-o    EPF calculation mismatch for specific employees.
-o    Incorrect pays lip calculations (certain allowances excluded).
-o    Residual perks being calculated annually, whereas the amount is payable once in the next financial year.
-1_c] These issues have been shared with the development team for corrections. Awaiting their updates before proceeding with the April payroll run.
-2] Identified Issues &amp; Coordination with Development Team – Post production dump into staging and the April payroll re-run, multiple issues were identified; Data updation has been initiated to support:
-2_a] April payroll re-run.
-2_b] Preparation of May payroll in staging.
-2_c] Demo execution in production.
-Finance – .
-1] Finance bugs fixing for the finance &amp; payroll integration setup - completed</t>
-  </si>
-  <si>
-    <t>HRMS &amp; Payroll – .
-1] Completion of April Payroll Re-Run &amp; May Payroll Demo - A trial run for the May payroll in IITS; The focus will be on completing the April payroll re-run and conducting the May payroll demo.
-2] Ongoing Client Support and Coordination - Continue providing daily client support, resolving payroll-related queries, and assisting in optimizing payroll operations to improve process efficiency.
-MM -.
-1] Add 2 Add 2 decimal in stock values for all transaction –Staging testing &amp; production deployment.
-2] Need to store pending status in all transaction except PO/WO –UAT testing &amp; production deployment.
-3] Cost Centre is not showing in SES accounting screen – QA testing &amp; UAT testing.
-4] Delete Items Provision in update mode in SES screen – QA testing &amp; UAT testing.
-5] Order type is blank in across all units – QA testing &amp; UAT testing.
-Finance -.
-1] Asset Management and Budgeting -modules in progress.
-2] Data Migration - TB of units.
-3] Payroll - Finance demo to the client.
-4] Finance bugs fixing for the Chavara demo feedback.</t>
   </si>
   <si>
     <t>SITC for --.
@@ -644,25 +574,6 @@
     <t>Although the customer mail received for extension but awaiting for actual work Order.</t>
   </si>
   <si>
-    <t>Monthly billing from Jul-23 to Aug-25 done. 
-Application maintenance and regular CR deployment.
-355 tasks out of 408 tasks are in production as on date.
-Pragati meetings module is developed by CMS - These meetings are being chaired by Prime Minister of India.
-AWS Optimization has been done on all PMG environments as instructed by PMG team.
-Security Audit was done &amp; agency has raised total 26 points, out of which 7 high priority tasks are completed &amp; awaiting further action from Auditor.
-Customer wants AI module to be integrated, pitching our AI solution &amp; will get additional order if selected.</t>
-  </si>
-  <si>
-    <t>Maintenance activities :.
-Deployment of 2 task -- on UAT.
-14 Tasks In progress (+ 9 Tasks in QA Testing, +3 in designing, +11 under estimation &amp; + 14 Tasks in to do).
-Due payment collection (May to Aug 25).
-Replacement of Bimal Kalsa on priority.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replacement of Bimal Kalsa (Backend+Elastic Developer) - As per rfp terms we need to provide replacement with overlapping period of 30 days, if not then penalty equivalent to monthly amt of resource will be deducted.	</t>
-  </si>
-  <si>
     <t xml:space="preserve">Present work order is completed on 4th September,2025. However from customer side L&amp;T Project Director Mr P R Kumar's mail stated 3 months extension. </t>
   </si>
   <si>
@@ -679,9 +590,6 @@
   </si>
   <si>
     <t>SWACHH BHARAT MISSION - SBM</t>
-  </si>
-  <si>
-    <t>7+13</t>
   </si>
   <si>
     <t>OFFICE OF REGISTRAR GENERAL OF INDIA - CRS</t>
@@ -907,102 +815,225 @@
     <t>Discussion with OEM to be initiated post receiving of LOI</t>
   </si>
   <si>
-    <t>-&gt; Maintenance activities: Daily ULB support -- Website changes ongoing.
--&gt; New SBM Dashboard 2'0 development: legacy waste &amp; Toilets: ongoing.
--&gt; New IHHL Certificate deployed &amp; support ongoing -- Updates in SSJ page. 
--&gt; DWR Mobile App pilot to be planned, Enable DWR for Dumpsite.
--&gt; SS Handover with IPSOS in the next week based on resource availability.</t>
-  </si>
-  <si>
-    <t>-&gt; Indore IMC Zonal register creation.
--&gt; Pondicherry state to join CRS portal.
--&gt; WSO2 to NAPIX Shifting.
--&gt; Gujarat onboarding from 15-Aug-25.
--&gt; Contract extension approval -- proposal submitted.</t>
-  </si>
-  <si>
-    <t>-&gt; SLA methodology to be finalized with Customer to avoid penalties - SLA methdology finalisation discussions in progress with PGA &amp; WZU.
--&gt; Ramp-up requirement for tech upgrade.
--&gt; Implement CR's in JIRA  -- to automate SLA computation for enhancement related SLA's
--&gt; Attendance system changes to be done from TCS -- followup ongoing
--&gt; CSAT automated mails follow-up.
--&gt; Collection of due payment.</t>
-  </si>
-  <si>
-    <t>-&gt; Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
--&gt; Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
--&gt; VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
--&gt; Payment collection for implementation milestone.
--&gt; Billing for remaining milestones.</t>
-  </si>
-  <si>
-    <t>-&gt; Production deployment of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
--&gt; Next Part-2 modules decision -- requirement analysis in progress for 7 modules; yet to start for employee directory &amp; drone module.
--&gt; Post Go-live activities -- SOP creation of helpdesk support, user manual etc.</t>
-  </si>
-  <si>
-    <t>1] NFSM – Make Agristack data live on Krishi Mapper
-2] KM –
-   -&gt;GIS google map with optimized API will push on Live
-   -&gt;PDMC data will push on Live
-   -&gt;Discussion on new UM layout
-   -&gt;Preparing Model flow or GT scheme
-   -&gt;UM – Optimizing the counts records
-   -&gt;Onboard consumed API’s data on KM
-   -&gt;Fixing UM bugs
-3] NF – 
-   -&gt;Work on Given Observation points
-   -&gt;Providing Data Import option</t>
-  </si>
-  <si>
-    <t>-&gt;Servers: Installation in NOC room on 08-09-2025.
--&gt;Substations: Begin meter data retrieval post server installation.
-ABT Meters: Connect with incomer meters in coming week with electrical team.
--&gt;Water Flow Meters: Awaiting JNPA’s approval for 25 mm &amp; 40 mm meter scope.
--&gt;RMU Communication: Converter installation &amp; cabling for one RMU on 08-09-2025.
--&gt;Billing Meters: Continue GPRS testing; VI SIM cards expected in 20–25 days.</t>
-  </si>
-  <si>
-    <t>-&gt; 20 resources on-boarded, (13 resources from GAIA – Tech Partner)
--&gt; Payment received till May’25; Invoicing done for Aug’25.
--&gt; 2 resources onboarded for SS; Interviews ongoing for other 3 resources.
--&gt; DWR mobile app: changes ongoing for dumpsite. 
--&gt; New SBM Dashboard ver2'0 (Legacy waste &amp; Toilets): dev ongoing.
--&gt; New SSJ (Swachh Survekshan Jodi) page created for City pairing on website.
--&gt; UWM (Used Water Management) Action Plan: addition of FSTP plant &amp; SOAK (ULB): Completed.
--&gt; SS Report/certificate for ULB: uploaded for ODF on portal, GFC-done.
--&gt; API to be modified for SHS portal.
--&gt; Assam ULB Name changed. 
--&gt; Bulk upload parser under implementation.</t>
-  </si>
-  <si>
-    <t>-&gt; May 25 Bill Payment received.
--&gt; June Payment under process.
--&gt; Vikas July progress report verification is under progress.
--&gt; July Draft invoice submitted -- approval pending.
--&gt; New DB is deployed, 1 Tech support resource Joined.
--&gt; GP Can extract Certificate 
--&gt; Gujarat Onboarding Successfully done on 01-Sep-2025.
--&gt; Commitee formed for current contract extension.</t>
-  </si>
-  <si>
-    <t>-&gt; Revised SLA methodology document shared and meetings ongoing to finalize.
--&gt; Feb’25-Mar’25 &amp; AMJ25 bills submitted, data upload pending as PGA informed to finalize SLA document.
--&gt; POC on new technology upgrade has been completed and VAPT initiated.
--&gt; Approval received for SLA 4'8 -- henceforth TCS tickets for shifting traffic will not be logged under ECCS (25-Jun-25), which were creating change in severity.
--&gt; SLA clock changes for 5'3 from 24 hours to 16 hours (WZU approved) &amp; changes done in HPSM.</t>
-  </si>
-  <si>
-    <t>-&gt; System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
--&gt; Go-Live done on 19th May 2025.
--&gt; Helpdesk set-up done.
--&gt; Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
-  </si>
-  <si>
-    <t>-&gt; DIC team along with CMS team working on this project.
--&gt; Total 9 modules in part 1 &amp; Total 8 modules in part 2 including Drone module (moved from part 1 to part 2).
--&gt; 9 out of 9 – development complete &amp; UAT done for part 1.
--&gt; Go-live of 7 completed modules done on 17th Jul 2025 -- awaiting official sign-off.</t>
+    <t>Monthly billing from Jul-23 to Aug-25 done. 
+Application maintenance and regular CR deployment.
+356 tasks out of 413 tasks are in production as on date.
+Pragati meetings module is developed by CMS - These meetings are being chaired by Prime Minister of India.
+AWS Optimization has been done on all PMG environments as instructed by PMG team.
+Security Audit was done &amp; agency has raised total 26 points, out of which 7 high priority tasks are completed &amp; awaiting further action from Auditor.
+Customer wants AI module to be integrated, pitching our AI solution &amp; will get additional order if selected.</t>
+  </si>
+  <si>
+    <t>Maintenance activities :.
+Deployment of 2 task -- on UAT.
+14 Tasks In progress (+ 9 Tasks in QA Testing, +3 in designing, +11 under estimation &amp; + 15 Tasks in to do).
+Due payment collection (May to Aug 25).
+Replacement of Bimal Kalsa &amp; ragavendra Pratab on priority.</t>
+  </si>
+  <si>
+    <t>Replacement of Bimal Kalsa (Backend+Elastic Developer) - As per rfp terms we need to provide replacement with overlapping period of 30 days, if not then penalty equivalent to monthly amt of resource will be deducted.
+Replacement of Ragavendra Pratab on priority</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 20 resources on-boarded. (13 resources from GAIA – Tech Partner)
+2. Payment received till May’25. Invoicing done for Aug’25.
+3. 2 resources onboarded for SS. 1 will be joining today. Interviews ongoing for other 2 resources
+4. DWR mobile app: changes ongoing for dumpsite. 
+5. New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): Testing &amp; Bug Fixing ongoing
+6. New SBM Dashboard ver2.0 (UWM): Development ongoing
+7. New SSJ page created for City pairing on website.
+8. Dumpsite API modified for SHS portal.  
+9. Bulk upload parser under implementation
+10. Website updates ongoing.
+11. Discussion done with 3rd party security Auditor on portal and mobile app.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Maintenance activities: Daily ULB support. 
+2. Website changes.
+3. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: Testing
+4. New SBM Dashboard ver2.0 (UWM): Development 
+5. IHHL support ongoing. 
+6. Updates in SSJ page. 
+7. DWR Mobile App pilot to be planned. Enable DWR for Dumpsite.
+8. SS Handover with IPSOS in the next week based on resource availability.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Need 2 developers (1 NodeJS + 1 Power BI)
+2. Limited Seats available for team members in the ministry.
+3. Majority of team members working remotely. 
+4, No Wi-Fi at New location
+</t>
+  </si>
+  <si>
+    <t>All critical resources have been onboarded.
+All AMJ quarter data has been sent to the client for releasing 80% payment.
+Successfully delivering the weekly dwell time report – an ad-hoc requirement apart from CR/in-application work.
+New technology upgrade planning is in progress.
+Received 80% payment for FM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizing the new technology upgrade.
+Finalizing the SLA document (except 3 pending points).
+Closing all approvals for AMJ (for 20% payment).
+Initiated approvals for July.
+Payment release discussion for Tatwa with Avdhoot.
+</t>
+  </si>
+  <si>
+    <t>From WZU, we require the SOP and process changes for each approval, as WZU has recently revised the approval procedure.
+Productivity challenges observed among a few employees.
+Certain SLA parameters are challenging to achieve.
+Attendance marking on the CBIC portal for absent employees.
+RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.</t>
+  </si>
+  <si>
+    <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI/UX developer joining in progress client approval pending.
+3rd Qtr. Invoice and all details submit to PDMC for SLA calculation.
+Server, Storage &amp;Tape library HDD AMC Required. Pending from Vendor and purchase team.
+WLD Display installation pending from Siemens Vendor.
+ISO 27001 Documents work in progress.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment file move from consultant to Client for note sheet and approval. 
+Follow up for approval to UI/UX developer joining
+Follow up for WLD display and server storage to our purchase team.
+</t>
+  </si>
+  <si>
+    <t>from Purchase team finalize server and storage AMC ASAP.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hold 11 ATCS and 9 ITMS junction work letter received from ISCDL for complete the work.
+2. Hold 3 TVDS, 3 SVDS, 19 PTZ location work letter received from ISCDL for complete the work.
+3. Submitted invoices for completed work including other recurring cost are verified and under signing process by ISCDL team. 
+4. CAPEX cost of 2.43CR note sheet are ready for CEO sign and approval.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. On Monday dt: - 15-09-2025, CEO sir will join the office, Post CDO sir will submit the note sheet for CEO sir sign and approval.
+2. Hold junction CAPEX cost approval submitted at ISCDL and briefed to CDO sir for CEO sir approval.
+3. With the discussion with CEO sir, CDO Sir will release the GO-Live letter. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Work approval required from HO for the execution of ISCDL letter for 11 ATCS junctions, 9 ITMS junctions, 3 SVDS, 3 TVDS and 19 PTZs.
+2. Material approval including dispatching required as per site consumption report.
+3. Still no clarity received from Smart city regarding the availability of Payment receipt from different resources.
+</t>
+  </si>
+  <si>
+    <t>HRMS- Payroll : Ongoing Tasks
+a. Post Demo Activities - Shared identified points with the development team for enhancements, including: 
+o    Loan module improvements: interest calculation, handling cases where no EMI is deducted, impact on other loans, and loan recovery planning (Actual vs. Draft Recovery Plan).
+o    Payroll integration with reimbursement payment processing.
+o    Integration of Earned Leave (EL) with initial pay computation.
+o    Income tax computation updates, including perquisite calculation with a screen-view option for detailed visibility.
+b. Reports – Attendance - Visited and discussed with IREL HO HR team regarding attendance calculation process and logic.
+· Conducted comparison between IREL’s calculation and our system-generated report: 
+o    Identified use of sandwich rule for leave calculation.
+o    Consideration of tour status as present.
+o    Verified physical attendance against report data.
+·  Highlighted a discrepancy in IREL’s May attendance data for one employee (incorrect record).
+·  Discussed issues related to missing attendance updates for retired employees on their last day.
+·  Raised ticket and assigned to developer for necessary corrections.
+Finance: 
+1.Production and Feedback bugs fixing
+2.Functional Support to developers and cross-functional teams
+3.Cashflow movement to production server
+4.Segment reports moved to production server
+MM :
+1.  Add 2 decimal in stock values for all transaction – Completed, Deploy on Production server
+2.  Last transaction date update in Chavara unit – Completed, Deploy on Production server
+3.  Cancel Provision in Purchase order and Work order transaction - Development in Process
+4.  Order type is blank in across all units – Chavara and MK is in Process
+5.  ITC blank in Purchase Requisition – OSCOM &amp; MK is in Process
+6.  Transactional Non-moving material code incorporates in SIV transaction – QA &amp; UAT testing
+7.  Production issues -5, Resolved.</t>
+  </si>
+  <si>
+    <t>HRMS - Payroll :
+a. Testing &amp; Validation - 
+·   Test all changes suggested during demo.
+·   Execute payroll runs for April, May, and June with updated logic.
+b. Ongoing Client Support &amp; Coordination 
+·    Continue addressing daily payroll-related queries. 
+·    Provide support for payroll operations. 
+·    Assist clients in streamlining payroll processes to improve efficiency.
+Finance :
+1.Production and Feedback bugs fixing
+2.Validation with actual data for cashflow statement
+3.Validation with actual data for segment reports
+MM :
+1.  Last transaction date update in RED unit – Update on Production server
+2.  Cancel Provision in Purchase order and Work order transaction - UAT &amp; Production deployment
+3.  Order type is blank in across all units – Chavara and MK will complete
+4.  ITC blank in Purchase Requisition – OSCOM &amp; MK will complete
+5.  Transactional Non-moving material code incorporates in SIV transaction – UAT &amp; Production deployment</t>
+  </si>
+  <si>
+    <t>1. Payment release
+2. Unstable ERP behavior for computation</t>
+  </si>
+  <si>
+    <t>#Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
+#RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
+#Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
+  </si>
+  <si>
+    <t>-&gt;  May 25 Bill Payment received.
+-&gt;  June Payment under process.
+-&gt;  Vikas July progress report verification is under progress.
+-&gt;  July Draft invoice submitted -- approval pending.
+-&gt;  New DB is deployed, 1 Tech support resource Joined.
+-&gt;  GP Can extract Certificate 
+-&gt;  Gujarat Onboarding Successfully done on 01-Sep-2025.
+-&gt;  Commitee formed for current contract extension.</t>
+  </si>
+  <si>
+    <t>-&gt;  Indore IMC Zonal register creation.
+-&gt;  Pondicherry state to join CRS portal.
+-&gt;  WSO2 to NAPIX Shifting.
+-&gt;  Gujarat onboarding from 15-Aug-25.
+-&gt;  Contract extension approval -- proposal submitted.</t>
+  </si>
+  <si>
+    <t>-&gt;  System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
+-&gt;  Go-Live done on 19th May 2025.
+-&gt;  Helpdesk set-up done.
+-&gt;  Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
+  </si>
+  <si>
+    <t>-&gt;  Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
+-&gt;  Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
+-&gt;  VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
+-&gt;  Payment collection for implementation milestone.
+-&gt;  Billing for remaining milestones.</t>
+  </si>
+  <si>
+    <t>-&gt;  DIC team along with CMS team working on this project.
+-&gt;  Total 9 modules in part 1 &amp; Total 8 modules in part 2 including Drone module (moved from part 1 to part 2).
+-&gt;  9 out of 9 – development complete &amp; UAT done for part 1.
+-&gt;  Go-live of 7 completed modules done on 17th Jul 2025 -- awaiting official sign-off.</t>
+  </si>
+  <si>
+    <t>-&gt;  Production deployment of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
+-&gt;  Next Part-2 modules decision -- requirement analysis in progress for 7 modules; yet to start for employee directory &amp; drone module.
+-&gt;  Post Go-live activities -- SOP creation of helpdesk support, user manual etc.</t>
   </si>
   <si>
     <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
@@ -1012,44 +1043,54 @@
 Billing till Jul-25 done.
 Payment of 136 L received on 26-Aug-2025 (till Jun-25)
 1] KM (Krishi Mapper) –
-   -&gt;Applying Scheduler on Telangana State API for NMEO-OP
-   -&gt;New API applied on 12 schemes on GIS
-   -&gt;Optimizing current GIS Dashboard
-   -&gt;GIS – Cluster has been applied till District level
-   -&gt;KM Dashboard new layout is in progress
-   -&gt;Aligned meeting with Maha DBT team for API discussion
+   -&gt; Applying Scheduler on Telangana State API for NMEO-OP
+   -&gt; New API applied on 12 schemes on GIS
+   -&gt; Optimizing current GIS Dashboard
+   -&gt; GIS – Cluster has been applied till District level
+   -&gt; KM Dashboard new layout is in progress
+   -&gt; Aligned meeting with Maha DBT team for API discussion
 2] Natural Farming - Fixing users highlighted issue.
 3] MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store (Under Review) - Working on Offline mode.
 4] Krishi Unnati – Mother/Daily sanction module: In Progress</t>
   </si>
   <si>
-    <t xml:space="preserve">-&gt;Servers: Configured, tested, and delivered on 13-08-2025.
--&gt;Substations (1,2,3): Communication network completed; IPs assigned.
--&gt;ABT Meters: Two meters installed in custom panel, delivered on 13-08-2025; rack placed at permanent location.
--&gt;Water Flow Meters: 62 delivered, 3 (40 mm) installed; balance pending location finalization.
--&gt;RMU Communication: Survey completed; converter installation planned on 08-09-2025.
--&gt;Billing Meter Communication: GPRS testing ongoing with live data at JNPA.
-</t>
+    <t>1] NFSM – Make Agristack data live on Krishi Mapper
+2] KM –
+   -&gt; GIS google map with optimized API will push on Live
+   -&gt; PDMC data will push on Live
+   -&gt; Discussion on new UM layout
+   -&gt; Preparing Model flow or GT scheme
+   -&gt; UM – Optimizing the counts records
+   -&gt; Onboard consumed API’s data on KM
+   -&gt; Fixing UM bugs
+3] NF – 
+   -&gt; Work on Given Observation points
+   -&gt; Providing Data Import option</t>
   </si>
   <si>
     <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
 a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
 b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
 c) Energy billing system that coverers consumer’s energy monitoring and billing
--&gt;&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
--&gt;&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
-  </si>
-  <si>
-    <t>-&gt; Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI)
--&gt; No WiFi at New location</t>
-  </si>
-  <si>
-    <t>C-&gt;, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
-  </si>
-  <si>
-    <t>-&gt;Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
--&gt;RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
--&gt;Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
+-&gt; &gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
+-&gt; &gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; Servers: Configured, tested, and delivered on 13-08-2025.
+-&gt; Substations (1,2,3): Communication network completed; IPs assigned.
+-&gt; ABT Meters: Two meters installed in custom panel, delivered on 13-08-2025; rack placed at permanent location.
+-&gt; Water Flow Meters: 62 delivered, 3 (40 mm) installed; balance pending location finalization.
+-&gt; RMU Communication: Survey completed; converter installation planned on 08-09-2025.
+-&gt; Billing Meter Communication: GPRS testing ongoing with live data at JNPA.
+</t>
+  </si>
+  <si>
+    <t>-&gt; Servers: Installation in NOC room on 08-09-2025.
+-&gt; Substations: Begin meter data retrieval post server installation.
+ABT Meters: Connect with incomer meters in coming week with electrical team.
+-&gt; Water Flow Meters: Awaiting JNPA’s approval for 25 mm &amp; 40 mm meter scope.
+-&gt; RMU Communication: Converter installation &amp; cabling for one RMU on 08-09-2025.
+-&gt; Billing Meters: Continue GPRS testing; VI SIM cards expected in 20–25 days.</t>
   </si>
 </sst>
 </file>
@@ -1100,12 +1141,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1425,1851 +1468,1848 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="14" max="15" width="9.140625" style="5"/>
-    <col min="16" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="5"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="15" width="9.140625" style="4"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>840.24454680000008</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>587.44015300000058</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>23</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>610.44015300000058</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>110.00000000000001</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>252.8043937999995</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>140.04075780000008</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>23.340126300000005</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>0.69912997976269697</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="R2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="T2" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" t="s">
+        <v>210</v>
+      </c>
+      <c r="V2" t="s">
+        <v>211</v>
+      </c>
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>45906</v>
-      </c>
-      <c r="Z2" s="5">
+      <c r="X2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>45911</v>
+      </c>
+      <c r="Z2" s="4">
         <v>0.58012380038870615</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>0.4323402397342212</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1305.45</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>717.0616940000001</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>36</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>753.0616940000001</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>92</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>588.38830599999994</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>217.57499999999999</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>36.262500000000003</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>0.54928315446780807</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="U3" t="s">
+        <v>214</v>
+      </c>
+      <c r="V3" t="s">
+        <v>215</v>
+      </c>
+      <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>45904</v>
-      </c>
-      <c r="Z3" s="5">
+      <c r="X3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>45911</v>
+      </c>
+      <c r="Z3" s="4">
         <v>0.19000000000000017</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="4">
         <v>0.19000000008625473</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>849.8214484745763</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>368.45483099999984</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>67</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>435.45483099999984</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>33</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>481.36661747457646</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>114.94027879999999</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0.43356734718966405</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="R4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="U4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="W4" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y4" s="6">
+      <c r="X4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y4" s="5">
         <v>45905</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>0.22607225678680021</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>0.11942473989981339</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>2413.0259999999998</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>399.26925</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>182</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>581.26925000000006</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>471</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>2013.7567499999998</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>399.26925</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>0.16546413092938081</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="R5" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="U5" t="s">
+        <v>217</v>
+      </c>
+      <c r="V5" t="s">
+        <v>218</v>
+      </c>
+      <c r="W5" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>45905</v>
-      </c>
-      <c r="Z5" s="5">
+      <c r="X5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>45911</v>
+      </c>
+      <c r="Z5" s="4">
         <v>0.41621469835230751</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>0.33027289323308273</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1265.69472</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>435.46562499999999</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>435.46562499999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>367</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>830.22909499999992</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>0.34405265196966295</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="R6" t="s">
+        <v>157</v>
+      </c>
+      <c r="S6" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="U6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="W6" t="s">
         <v>61</v>
       </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
         <v>45897</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2186.2800000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>162.75</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>245.00000000000003</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>407.75</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>77</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>2023.5300000000002</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>162.75</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>7.4441517097535534E-2</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="R7" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="U7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="W7" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
         <v>45897</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="4">
         <v>0.27640980757497513</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>0.32590705634920647</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1606.08</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>429.26793049999998</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>68</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>497.26793049999998</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>99</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>1176.8120695</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>317.74232499999999</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>0.26727680470462245</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="R8" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
+      <c r="T8" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="W8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
         <v>45904</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="4">
         <v>0.11000001051303465</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>0.10999999996973608</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1372.5805700000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>431.67131830000005</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>46</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>477.67131830000005</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>204</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>940.90925170000003</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>75.85388949999998</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>34.570928100000003</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>0.31449615981377327</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>76</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
+        <v>221</v>
+      </c>
+      <c r="S9" t="s">
         <v>77</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" t="s">
+        <v>222</v>
+      </c>
+      <c r="V9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W9" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>45897</v>
-      </c>
-      <c r="Z9" s="5">
+      <c r="X9" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>45912</v>
+      </c>
+      <c r="Z9" s="4">
         <v>0.19540000015149273</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="4">
         <v>0.11441806775377272</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5337.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3431.25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>635</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4066.25</v>
+      </c>
+      <c r="J10" s="2">
+        <v>916</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1906.25</v>
+      </c>
+      <c r="L10" s="2">
+        <v>762.5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5337.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3431.25</v>
-      </c>
-      <c r="H10" s="3">
-        <v>635</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4066.25</v>
-      </c>
-      <c r="J10" s="3">
-        <v>916</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1906.25</v>
-      </c>
-      <c r="L10" s="3">
-        <v>762.5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="5">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" t="s">
         <v>84</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" t="s">
         <v>85</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" t="s">
+        <v>138</v>
+      </c>
+      <c r="V10" t="s">
+        <v>139</v>
+      </c>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
         <v>86</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <v>45897</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="4">
         <v>0.25</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="4">
         <v>0.51229508024724535</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2">
+        <v>680.69294500000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>239.8515534</v>
+      </c>
+      <c r="H11" s="2">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2">
+        <v>261.8515534</v>
+      </c>
+      <c r="J11" s="2">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
+        <v>440.84139160000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20.746828200000003</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="3">
-        <v>680.69294500000001</v>
-      </c>
-      <c r="G11" s="3">
-        <v>239.8515534</v>
-      </c>
-      <c r="H11" s="3">
-        <v>22</v>
-      </c>
-      <c r="I11" s="3">
-        <v>261.8515534</v>
-      </c>
-      <c r="J11" s="3">
-        <v>50</v>
-      </c>
-      <c r="K11" s="3">
-        <v>440.84139160000001</v>
-      </c>
-      <c r="L11" s="3">
-        <v>20.746828200000003</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4">
+        <v>0.35236380097930942</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
         <v>91</v>
       </c>
-      <c r="O11" s="5">
-        <v>0.35236380097930942</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
+      <c r="U11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V11" t="s">
+        <v>141</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
         <v>45898</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="4">
         <v>-0.25967603526289684</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="4">
         <v>0.12040585230689282</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1045.762712</v>
+      </c>
+      <c r="G12" s="2">
+        <v>709.40253320000011</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>709.40253320000011</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>336.36017879999986</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-0.59409959999999995</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1045.762712</v>
-      </c>
-      <c r="G12" s="3">
-        <v>709.40253320000011</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>709.40253320000011</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>336.36017879999986</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-0.59409959999999995</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4">
+        <v>0.6783589862783328</v>
+      </c>
+      <c r="P12" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="5">
-        <v>0.6783589862783328</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>97</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" t="s">
         <v>98</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" t="s">
         <v>99</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" t="s">
+        <v>142</v>
+      </c>
+      <c r="V12" t="s">
         <v>101</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
+      <c r="W12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
         <v>45898</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="Z12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="4">
         <v>0.18000000439604424</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2019.8763390000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>331.99717679999998</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>331.99717679999998</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1687.8791622000001</v>
+      </c>
+      <c r="L13" s="2">
+        <v>171.16043740000003</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.1643651001745805</v>
+      </c>
+      <c r="P13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2019.8763390000001</v>
-      </c>
-      <c r="G13" s="3">
-        <v>331.99717679999998</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>331.99717679999998</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1687.8791622000001</v>
-      </c>
-      <c r="L13" s="3">
-        <v>171.16043740000003</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0.1643651001745805</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" t="s">
         <v>105</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" t="s">
         <v>107</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" t="s">
         <v>108</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
         <v>45898</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" s="4">
         <v>0.20490000022684418</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="4">
         <v>0.2046391013686556</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2903.04126</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1722.0305597000006</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1722.0305597000006</v>
+      </c>
+      <c r="J14" s="2">
+        <v>977</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1181.0107002999994</v>
+      </c>
+      <c r="L14" s="2">
+        <v>54.821240000000003</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2903.04126</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1722.0305597000006</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1722.0305597000006</v>
-      </c>
-      <c r="J14" s="3">
-        <v>977</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1181.0107002999994</v>
-      </c>
-      <c r="L14" s="3">
-        <v>54.821240000000003</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4">
+        <v>0.59318156563162339</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" t="s">
         <v>111</v>
       </c>
-      <c r="O14" s="5">
-        <v>0.59318156563162339</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" t="s">
+        <v>225</v>
+      </c>
+      <c r="S14" t="s">
         <v>112</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" t="s">
         <v>113</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>45898</v>
-      </c>
-      <c r="Z14" s="5">
+      <c r="U14" t="s">
+        <v>226</v>
+      </c>
+      <c r="V14" t="s">
+        <v>227</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>45910</v>
+      </c>
+      <c r="Z14" s="4">
         <v>0.2022725498365231</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="4">
         <v>-0.204144834903355</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1047.3630700000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>162.96677500000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>162.96677500000001</v>
+      </c>
+      <c r="J15" s="2">
+        <v>114.99999999999999</v>
+      </c>
+      <c r="K15" s="2">
+        <v>884.39629500000012</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1047.3630700000001</v>
-      </c>
-      <c r="G15" s="3">
-        <v>162.96677500000001</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>162.96677500000001</v>
-      </c>
-      <c r="J15" s="3">
-        <v>114.99999999999999</v>
-      </c>
-      <c r="K15" s="3">
-        <v>884.39629500000012</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4">
+        <v>0.15559721329490833</v>
+      </c>
+      <c r="P15" t="s">
         <v>116</v>
       </c>
-      <c r="O15" s="5">
-        <v>0.15559721329490833</v>
-      </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" t="s">
+        <v>165</v>
+      </c>
+      <c r="S15" t="s">
         <v>118</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" t="s">
+        <v>229</v>
+      </c>
+      <c r="V15" t="s">
+        <v>230</v>
+      </c>
+      <c r="W15" t="s">
         <v>120</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>45898</v>
-      </c>
-      <c r="Z15" s="5" t="s">
+      <c r="X15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>45911</v>
+      </c>
+      <c r="Z15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="4">
         <v>-9.5509698226650848</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2">
+        <v>669.18430290000003</v>
+      </c>
+      <c r="G16" s="2">
+        <v>577.66532290000009</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>577.66532290000009</v>
+      </c>
+      <c r="J16" s="2">
+        <v>325</v>
+      </c>
+      <c r="K16" s="2">
+        <v>91.518979999999942</v>
+      </c>
+      <c r="L16" s="2">
+        <v>262.51094999999998</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="3">
-        <v>669.18430290000003</v>
-      </c>
-      <c r="G16" s="3">
-        <v>577.66532290000009</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>577.66532290000009</v>
-      </c>
-      <c r="J16" s="3">
-        <v>325</v>
-      </c>
-      <c r="K16" s="3">
-        <v>91.518979999999942</v>
-      </c>
-      <c r="L16" s="3">
-        <v>262.51094999999998</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4">
+        <v>0.86323800542931128</v>
+      </c>
+      <c r="P16" t="s">
         <v>124</v>
       </c>
-      <c r="O16" s="5">
-        <v>0.86323800542931128</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>125</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
+      <c r="R16" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" t="s">
+        <v>118</v>
+      </c>
+      <c r="T16" t="s">
+        <v>143</v>
+      </c>
+      <c r="U16" t="s">
+        <v>167</v>
+      </c>
+      <c r="V16" t="s">
+        <v>168</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
         <v>45898</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="4">
         <v>0.36662132665084957</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="4">
         <v>0.20000000003501683</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2">
+        <v>437.16408000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>361.02466950000002</v>
+      </c>
+      <c r="H17" s="2">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2">
+        <v>434.02466950000002</v>
+      </c>
+      <c r="J17" s="2">
+        <v>257</v>
+      </c>
+      <c r="K17" s="2">
+        <v>76.139410499999997</v>
+      </c>
+      <c r="L17" s="2">
+        <v>361.02466950000002</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="3">
-        <v>437.16408000000001</v>
-      </c>
-      <c r="G17" s="3">
-        <v>361.02466950000002</v>
-      </c>
-      <c r="H17" s="3">
-        <v>73</v>
-      </c>
-      <c r="I17" s="3">
-        <v>434.02466950000002</v>
-      </c>
-      <c r="J17" s="3">
-        <v>257</v>
-      </c>
-      <c r="K17" s="3">
-        <v>76.139410499999997</v>
-      </c>
-      <c r="L17" s="3">
-        <v>361.02466950000002</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4">
+        <v>0.82583333356208044</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
         <v>128</v>
       </c>
-      <c r="O17" s="5">
-        <v>0.82583333356208044</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" t="s">
+        <v>170</v>
+      </c>
+      <c r="S17" t="s">
         <v>129</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" t="s">
         <v>130</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y17" s="6">
+      <c r="U17" t="s">
+        <v>146</v>
+      </c>
+      <c r="V17" t="s">
+        <v>171</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y17" s="5">
         <v>45905</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="4">
         <v>0.62624581052110095</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AA17" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2">
+        <v>171.31355932203391</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>171.31355932203391</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="3">
-        <v>171.31355932203391</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>171.31355932203391</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
         <v>134</v>
       </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>135</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" t="s">
+        <v>173</v>
+      </c>
+      <c r="S18" t="s">
         <v>136</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y18" s="6">
+      <c r="T18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y18" s="5">
         <v>45905</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="Z18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA18" s="5" t="s">
+      <c r="AA18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>111.36</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
         <v>111.36</v>
       </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>178</v>
+      </c>
+      <c r="R19" t="s">
+        <v>179</v>
+      </c>
+      <c r="S19" t="s">
+        <v>180</v>
+      </c>
+      <c r="T19" t="s">
+        <v>181</v>
+      </c>
+      <c r="U19" t="s">
+        <v>182</v>
+      </c>
+      <c r="V19" t="s">
+        <v>183</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
         <v>45909</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="Z19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AA19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y20" s="6">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>186</v>
+      </c>
+      <c r="R20" t="s">
+        <v>187</v>
+      </c>
+      <c r="S20" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s">
+        <v>188</v>
+      </c>
+      <c r="U20" t="s">
+        <v>189</v>
+      </c>
+      <c r="V20" t="s">
+        <v>190</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" s="5">
         <v>45910</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="Z20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="AA20" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>509.88</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <v>509.88</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y21" s="6">
+      <c r="Q21" t="s">
+        <v>195</v>
+      </c>
+      <c r="R21" t="s">
+        <v>196</v>
+      </c>
+      <c r="S21" t="s">
+        <v>197</v>
+      </c>
+      <c r="T21" t="s">
+        <v>198</v>
+      </c>
+      <c r="U21" t="s">
+        <v>199</v>
+      </c>
+      <c r="V21" t="s">
+        <v>200</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" s="5">
         <v>45910</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="Z21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA21" s="5" t="s">
+      <c r="AA21" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="6">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>205</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>206</v>
+      </c>
+      <c r="T22" t="s">
+        <v>207</v>
+      </c>
+      <c r="U22" t="s">
+        <v>208</v>
+      </c>
+      <c r="V22" t="s">
+        <v>209</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
         <v>45910</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="Z22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA22" s="5" t="s">
+      <c r="AA22" s="4" t="s">
         <v>47</v>
       </c>
     </row>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{111A1F49-4954-4C68-8A74-659F25A2A98E}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698BAA5B-2813-4C1A-B8C1-08623EC63AC6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1146,9 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1468,13 +1466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="6"/>
     <col min="5" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1484,22 +1483,24 @@
     <col min="12" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="2"/>
     <col min="14" max="15" width="9.140625" style="4"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="9.140625" style="6"/>
+    <col min="24" max="24" width="10.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="9.140625" style="4"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1535,31 +1536,31 @@
       <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="5" t="s">
@@ -1573,16 +1574,16 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1618,31 +1619,31 @@
       <c r="O2" s="4">
         <v>0.69912997976269697</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="6" t="s">
         <v>212</v>
       </c>
       <c r="Y2" s="5">
@@ -1656,16 +1657,16 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1701,31 +1702,31 @@
       <c r="O3" s="4">
         <v>0.54928315446780807</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="6" t="s">
         <v>216</v>
       </c>
       <c r="Y3" s="5">
@@ -1739,16 +1740,16 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1758,25 +1759,25 @@
         <v>849.8214484745763</v>
       </c>
       <c r="G4" s="2">
-        <v>368.45483099999984</v>
+        <v>402.06583000000001</v>
       </c>
       <c r="H4" s="2">
         <v>67</v>
       </c>
       <c r="I4" s="2">
-        <v>435.45483099999984</v>
+        <v>469.06583000000001</v>
       </c>
       <c r="J4" s="2">
         <v>33</v>
       </c>
       <c r="K4" s="2">
-        <v>481.36661747457646</v>
+        <v>447.75561847457629</v>
       </c>
       <c r="L4" s="2">
-        <v>114.94027879999999</v>
+        <v>148.55127779999995</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>33.610999000000007</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>40</v>
@@ -1784,19 +1785,19 @@
       <c r="O4" s="4">
         <v>0.43356734718966405</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="U4" s="6" t="s">
@@ -1805,10 +1806,10 @@
       <c r="V4" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="6" t="s">
         <v>153</v>
       </c>
       <c r="Y4" s="5">
@@ -1822,16 +1823,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1867,31 +1868,31 @@
       <c r="O5" s="4">
         <v>0.16546413092938081</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="6" t="s">
         <v>219</v>
       </c>
       <c r="Y5" s="5">
@@ -1905,16 +1906,16 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1950,19 +1951,19 @@
       <c r="O6" s="4">
         <v>0.34405265196966295</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="U6" s="6" t="s">
@@ -1971,10 +1972,10 @@
       <c r="V6" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="6">
         <v>0</v>
       </c>
       <c r="Y6" s="5">
@@ -1988,16 +1989,16 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2007,25 +2008,25 @@
         <v>2186.2800000000002</v>
       </c>
       <c r="G7" s="2">
-        <v>162.75</v>
+        <v>325.5</v>
       </c>
       <c r="H7" s="2">
         <v>245.00000000000003</v>
       </c>
       <c r="I7" s="2">
-        <v>407.75</v>
+        <v>570.5</v>
       </c>
       <c r="J7" s="2">
         <v>77</v>
       </c>
       <c r="K7" s="2">
-        <v>2023.5300000000002</v>
+        <v>1860.7800000000002</v>
       </c>
       <c r="L7" s="2">
+        <v>325.5</v>
+      </c>
+      <c r="M7" s="2">
         <v>162.75</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>63</v>
@@ -2033,19 +2034,19 @@
       <c r="O7" s="4">
         <v>7.4441517097535534E-2</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="6" t="s">
         <v>67</v>
       </c>
       <c r="U7" s="6" t="s">
@@ -2054,10 +2055,10 @@
       <c r="V7" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="6">
         <v>0</v>
       </c>
       <c r="Y7" s="5">
@@ -2071,16 +2072,16 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2090,25 +2091,25 @@
         <v>1606.08</v>
       </c>
       <c r="G8" s="2">
-        <v>429.26793049999998</v>
+        <v>497.14593049999996</v>
       </c>
       <c r="H8" s="2">
         <v>68</v>
       </c>
       <c r="I8" s="2">
-        <v>497.26793049999998</v>
+        <v>565.14593049999996</v>
       </c>
       <c r="J8" s="2">
         <v>99</v>
       </c>
       <c r="K8" s="2">
-        <v>1176.8120695</v>
+        <v>1108.9340695000001</v>
       </c>
       <c r="L8" s="2">
-        <v>317.74232499999999</v>
+        <v>385.62032499999998</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>67.878</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>40</v>
@@ -2116,19 +2117,19 @@
       <c r="O8" s="4">
         <v>0.26727680470462245</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="6" t="s">
         <v>144</v>
       </c>
       <c r="U8" s="6" t="s">
@@ -2137,10 +2138,10 @@
       <c r="V8" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="6">
         <v>0</v>
       </c>
       <c r="Y8" s="5">
@@ -2154,16 +2155,16 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2173,25 +2174,25 @@
         <v>1372.5805700000001</v>
       </c>
       <c r="G9" s="2">
-        <v>431.67131830000005</v>
+        <v>430.5498189000001</v>
       </c>
       <c r="H9" s="2">
         <v>46</v>
       </c>
       <c r="I9" s="2">
-        <v>477.67131830000005</v>
+        <v>476.5498189000001</v>
       </c>
       <c r="J9" s="2">
         <v>204</v>
       </c>
       <c r="K9" s="2">
-        <v>940.90925170000003</v>
+        <v>942.03075109999997</v>
       </c>
       <c r="L9" s="2">
-        <v>75.85388949999998</v>
+        <v>74.732390099999975</v>
       </c>
       <c r="M9" s="2">
-        <v>34.570928100000003</v>
+        <v>33.449428699999999</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>74</v>
@@ -2199,31 +2200,31 @@
       <c r="O9" s="4">
         <v>0.31449615981377327</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="6" t="s">
         <v>224</v>
       </c>
       <c r="Y9" s="5">
@@ -2237,16 +2238,16 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2282,31 +2283,31 @@
       <c r="O10" s="4">
         <v>0.6428571428571429</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Y10" s="5">
@@ -2320,16 +2321,16 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2365,31 +2366,31 @@
       <c r="O11" s="4">
         <v>0.35236380097930942</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="6">
         <v>0</v>
       </c>
       <c r="Y11" s="5">
@@ -2403,16 +2404,16 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2448,31 +2449,31 @@
       <c r="O12" s="4">
         <v>0.6783589862783328</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="6">
         <v>0</v>
       </c>
       <c r="Y12" s="5">
@@ -2486,16 +2487,16 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2531,31 +2532,31 @@
       <c r="O13" s="4">
         <v>0.1643651001745805</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="6">
         <v>0</v>
       </c>
       <c r="Y13" s="5">
@@ -2569,16 +2570,16 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2614,31 +2615,31 @@
       <c r="O14" s="4">
         <v>0.59318156563162339</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="6" t="s">
         <v>228</v>
       </c>
       <c r="Y14" s="5">
@@ -2652,16 +2653,16 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2697,31 +2698,31 @@
       <c r="O15" s="4">
         <v>0.15559721329490833</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="6" t="s">
         <v>231</v>
       </c>
       <c r="Y15" s="5">
@@ -2735,16 +2736,16 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2780,31 +2781,31 @@
       <c r="O16" s="4">
         <v>0.86323800542931128</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
         <v>0</v>
       </c>
       <c r="Y16" s="5">
@@ -2818,16 +2819,16 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2837,25 +2838,25 @@
         <v>437.16408000000001</v>
       </c>
       <c r="G17" s="2">
-        <v>361.02466950000002</v>
+        <v>433.08388200000002</v>
       </c>
       <c r="H17" s="2">
         <v>73</v>
       </c>
       <c r="I17" s="2">
-        <v>434.02466950000002</v>
+        <v>506.08388200000002</v>
       </c>
       <c r="J17" s="2">
         <v>257</v>
       </c>
       <c r="K17" s="2">
-        <v>76.139410499999997</v>
+        <v>4.0801979999999958</v>
       </c>
       <c r="L17" s="2">
-        <v>361.02466950000002</v>
+        <v>433.08388200000002</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>72.059212500000001</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>127</v>
@@ -2863,31 +2864,31 @@
       <c r="O17" s="4">
         <v>0.82583333356208044</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6" t="s">
         <v>145</v>
       </c>
       <c r="Y17" s="5">
@@ -2901,16 +2902,16 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2946,16 +2947,16 @@
       <c r="O18" s="4">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="6" t="s">
         <v>136</v>
       </c>
       <c r="T18" s="6" t="s">
@@ -2967,10 +2968,10 @@
       <c r="V18" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6" t="s">
         <v>232</v>
       </c>
       <c r="Y18" s="5">
@@ -2984,16 +2985,16 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3029,31 +3030,31 @@
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6">
         <v>0</v>
       </c>
       <c r="Y19" s="5">
@@ -3067,16 +3068,16 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3112,31 +3113,31 @@
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="W20" s="6">
+        <v>0</v>
+      </c>
+      <c r="X20" s="6" t="s">
         <v>191</v>
       </c>
       <c r="Y20" s="5">
@@ -3150,16 +3151,16 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3195,31 +3196,31 @@
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="W21" s="6">
+        <v>0</v>
+      </c>
+      <c r="X21" s="6" t="s">
         <v>201</v>
       </c>
       <c r="Y21" s="5">
@@ -3233,16 +3234,16 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="1"/>
@@ -3276,31 +3277,31 @@
       <c r="O22" s="4">
         <v>0</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+      <c r="W22" s="6">
+        <v>0</v>
+      </c>
+      <c r="X22" s="6">
         <v>0</v>
       </c>
       <c r="Y22" s="5">

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36C3D50-1CDF-4128-ACD9-354033A05335}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651D4D28-EE67-42E7-A91E-1C924C154EB5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="261">
   <si>
     <t>SN</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Start Date (PO) : 26-Feb-24 :: End Date (PO) : 25-Jun-29</t>
   </si>
   <si>
-    <t>1 (Shared)</t>
-  </si>
-  <si>
     <t>full</t>
   </si>
   <si>
@@ -382,10 +379,6 @@
 Integration with existing system.
 5 year comprehensive maintenance service.
 Payment 100% after successful installation.</t>
-  </si>
-  <si>
-    <t>Field work for remaining locations, after approval. O&amp;M started from 01 Feb 2025. - support activities.
-First Qtr billing(~8 L) after Capex final billing (~47L) -- after aspects delivery.</t>
   </si>
   <si>
     <t>VADODARA ICCC</t>
@@ -541,15 +534,6 @@
     <t>Regular maintenance activities.
 Support activities for UHF Reader, HF Reader, and FRS applications; Official Go-live expected but payment for the milestone is received from NMPT (177 L ~ on 22-Aug-25).
 Payment collection for Apr-25 to May-25 CAMC invoices.</t>
-  </si>
-  <si>
-    <t>Site survey done for all 28 Junction and submitted to Client
-VMC approval received for SIT at all 28 Locations. 
-28/28 Junction made Live.
-O &amp; M from 1st Feb 2025 reveived.
-10/44 Jn upgradation permission received.
-10/10 upgradation completed.
-Balance location -- 302 Aspects additional to be supplied -- awaiting material (EDD - Tentative 12 Sep)</t>
   </si>
   <si>
     <t>SITC for --.
@@ -1088,6 +1072,66 @@
 #Water Flow Meters: Awaiting JNPA’s approval for 25 mm &amp; 40 mm meter scope.
 #RMU Communication: Converter installation &amp; cabling for one RMU on 08-09-2025.
 #Billing Meters: Continue GPRS testing; VI SIM cards expected in 20–25 days.</t>
+  </si>
+  <si>
+    <t>search_db</t>
+  </si>
+  <si>
+    <t>PMG INVEST INDIA</t>
+  </si>
+  <si>
+    <t>SWACHH BHARAT MISSION - SBM URBAN</t>
+  </si>
+  <si>
+    <t>orgi OFFICE OF REGISTRAR GENERAL OF INDIA - CRS</t>
+  </si>
+  <si>
+    <t>EXPRESS CARGO CLEARANCE SYSTEM – ECCS NEW 2.0</t>
+  </si>
+  <si>
+    <t>DIGITAL INDIA CORPORATION - NATIONAL HIGHWAY AUTHORITY OF INDIA DIC NHAI</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF AGRICULTURE CORPORATION AND FARMER WELFARE DIVISION MINISTRY MAOFW DANFW DACFW dept of agri.</t>
+  </si>
+  <si>
+    <t>Kanpur SC O&amp;M tech mahindra TECHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharing resources </t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 traffic light material delivery and installation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 traffic light delivery </t>
+  </si>
+  <si>
+    <t>VADODARA ICCC vadodara</t>
+  </si>
+  <si>
+    <t>INDORE SMART CITY ISCDL</t>
+  </si>
+  <si>
+    <t>Guwahati SC Honeywell Automation India Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai city surveillance larsen and toubro mcs </t>
+  </si>
+  <si>
+    <t>Jawaharlal Nehru Port Authority JNPA jnpt</t>
+  </si>
+  <si>
+    <t>DIGITAL INDIA CORP -PRD RAILWAY &amp; ROB GIRDER INSPECTION PORTAL DIGITAL INDIA CORP -PRD RAILWAY &amp; ROB GIRDER INSPECTION PORTAL  DIC ROB</t>
+  </si>
+  <si>
+    <t>NATIONAL E-GOVERNANCE DIV - ITPO BHARAT MANDAPAM NATIONAL E-GOVERNANCE DIV - ITPO BHARAT MANDAPAM NeGD ITPO</t>
+  </si>
+  <si>
+    <t>MMRDA - BALASAHEB THAKRE RASHTRIYA SMARAK MMRDA - BALASAHEB THAKRE RASHTRIYA SMARAK MMRDA BTRS</t>
   </si>
 </sst>
 </file>
@@ -1460,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:AE22"/>
+  <dimension ref="E1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:AE22"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1528,7 @@
     <col min="26" max="28" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -1566,8 +1610,11 @@
       <c r="AE1" t="s">
         <v>25</v>
       </c>
+      <c r="AF1" t="s">
+        <v>241</v>
+      </c>
     </row>
-    <row r="2" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -1602,7 +1649,7 @@
         <v>252.8043937999995</v>
       </c>
       <c r="P2">
-        <v>140.04075780000008</v>
+        <v>140.04075780000014</v>
       </c>
       <c r="Q2">
         <v>23.340126300000005</v>
@@ -1620,25 +1667,25 @@
         <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W2" t="s">
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AC2">
         <v>45911</v>
@@ -1649,8 +1696,11 @@
       <c r="AE2">
         <v>0.4323402397342212</v>
       </c>
+      <c r="AF2" t="s">
+        <v>242</v>
+      </c>
     </row>
-    <row r="3" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E3" s="1">
         <v>2</v>
       </c>
@@ -1658,7 +1708,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>27</v>
@@ -1703,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="W3" t="s">
         <v>36</v>
@@ -1712,16 +1762,16 @@
         <v>37</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AC3">
         <v>45911</v>
@@ -1732,8 +1782,11 @@
       <c r="AE3">
         <v>0.19000000008625473</v>
       </c>
+      <c r="AF3" t="s">
+        <v>243</v>
+      </c>
     </row>
-    <row r="4" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <v>3</v>
       </c>
@@ -1741,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
@@ -1768,7 +1821,7 @@
         <v>447.75561847457629</v>
       </c>
       <c r="P4">
-        <v>148.55127779999995</v>
+        <v>148.55127779999992</v>
       </c>
       <c r="Q4">
         <v>33.610999000000007</v>
@@ -1786,7 +1839,7 @@
         <v>41</v>
       </c>
       <c r="V4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W4" t="s">
         <v>42</v>
@@ -1795,16 +1848,16 @@
         <v>43</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AC4">
         <v>45905</v>
@@ -1815,8 +1868,11 @@
       <c r="AE4">
         <v>0.11942473989981339</v>
       </c>
+      <c r="AF4" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="5" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>4</v>
       </c>
@@ -1824,7 +1880,7 @@
         <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>45</v>
@@ -1869,7 +1925,7 @@
         <v>50</v>
       </c>
       <c r="V5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W5" t="s">
         <v>51</v>
@@ -1878,16 +1934,16 @@
         <v>52</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AC5">
         <v>45911</v>
@@ -1898,8 +1954,11 @@
       <c r="AE5">
         <v>0.33027289323308273</v>
       </c>
+      <c r="AF5" t="s">
+        <v>245</v>
+      </c>
     </row>
-    <row r="6" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>5</v>
       </c>
@@ -1907,7 +1966,7 @@
         <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
@@ -1952,7 +2011,7 @@
         <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="W6" t="s">
         <v>59</v>
@@ -1961,10 +2020,10 @@
         <v>60</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>61</v>
@@ -1981,8 +2040,11 @@
       <c r="AE6" t="s">
         <v>47</v>
       </c>
+      <c r="AF6" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="7" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>6</v>
       </c>
@@ -1990,7 +2052,7 @@
         <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -2035,7 +2097,7 @@
         <v>65</v>
       </c>
       <c r="V7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="W7" t="s">
         <v>66</v>
@@ -2044,10 +2106,10 @@
         <v>67</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>68</v>
@@ -2064,8 +2126,11 @@
       <c r="AE7">
         <v>0.32590705634920647</v>
       </c>
+      <c r="AF7" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="8" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>7</v>
       </c>
@@ -2073,7 +2138,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -2118,22 +2183,22 @@
         <v>70</v>
       </c>
       <c r="V8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W8" t="s">
         <v>71</v>
       </c>
       <c r="X8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
@@ -2147,8 +2212,11 @@
       <c r="AE8">
         <v>0.10999999996973608</v>
       </c>
+      <c r="AF8" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="9" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>8</v>
       </c>
@@ -2201,7 +2269,7 @@
         <v>76</v>
       </c>
       <c r="V9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="W9" t="s">
         <v>77</v>
@@ -2210,16 +2278,16 @@
         <v>78</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>79</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AC9">
         <v>45912</v>
@@ -2230,8 +2298,11 @@
       <c r="AE9">
         <v>0.11441806775377272</v>
       </c>
+      <c r="AF9" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="10" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>9</v>
       </c>
@@ -2293,10 +2364,10 @@
         <v>85</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>79</v>
@@ -2313,8 +2384,11 @@
       <c r="AE10">
         <v>0.51229508024724535</v>
       </c>
+      <c r="AF10" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="11" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>10</v>
       </c>
@@ -2322,7 +2396,7 @@
         <v>87</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>88</v>
@@ -2367,7 +2441,7 @@
         <v>91</v>
       </c>
       <c r="V11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W11" t="s">
         <v>92</v>
@@ -2376,10 +2450,10 @@
         <v>93</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>79</v>
@@ -2396,8 +2470,11 @@
       <c r="AE11">
         <v>0.12040585230689282</v>
       </c>
+      <c r="AF11" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="12" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>11</v>
       </c>
@@ -2405,7 +2482,7 @@
         <v>94</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>45</v>
@@ -2450,28 +2527,28 @@
         <v>97</v>
       </c>
       <c r="V12" t="s">
+        <v>249</v>
+      </c>
+      <c r="W12" t="s">
         <v>98</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>99</v>
       </c>
-      <c r="X12" t="s">
-        <v>100</v>
-      </c>
       <c r="Y12" s="5" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AA12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AB12" s="4">
-        <v>0</v>
+      <c r="AB12" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="AC12">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="AD12" t="s">
         <v>47</v>
@@ -2479,16 +2556,19 @@
       <c r="AE12">
         <v>0.18000000439604424</v>
       </c>
+      <c r="AF12" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="13" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>45</v>
@@ -2530,22 +2610,22 @@
         <v>46</v>
       </c>
       <c r="U13" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" t="s">
         <v>103</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>104</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>79</v>
@@ -2562,16 +2642,19 @@
       <c r="AE13">
         <v>0.2046391013686556</v>
       </c>
+      <c r="AF13" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="14" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>45</v>
@@ -2604,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S14">
         <v>0.59318156563162339</v>
@@ -2613,28 +2696,28 @@
         <v>46</v>
       </c>
       <c r="U14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" t="s">
+        <v>214</v>
+      </c>
+      <c r="W14" t="s">
+        <v>110</v>
+      </c>
+      <c r="X14" t="s">
         <v>111</v>
       </c>
-      <c r="V14" t="s">
-        <v>217</v>
-      </c>
-      <c r="W14" t="s">
-        <v>112</v>
-      </c>
-      <c r="X14" t="s">
-        <v>113</v>
-      </c>
       <c r="Y14" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AC14">
         <v>45910</v>
@@ -2645,16 +2728,19 @@
       <c r="AE14">
         <v>-0.204144834903355</v>
       </c>
+      <c r="AF14" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="15" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>45</v>
@@ -2687,37 +2773,37 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S15">
         <v>0.15559721329490833</v>
       </c>
       <c r="T15" t="s">
+        <v>114</v>
+      </c>
+      <c r="U15" t="s">
+        <v>115</v>
+      </c>
+      <c r="V15" t="s">
+        <v>162</v>
+      </c>
+      <c r="W15" t="s">
         <v>116</v>
       </c>
-      <c r="U15" t="s">
+      <c r="X15" t="s">
         <v>117</v>
       </c>
-      <c r="V15" t="s">
-        <v>165</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="Y15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="X15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="AB15" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AC15">
         <v>45911</v>
@@ -2728,19 +2814,22 @@
       <c r="AE15">
         <v>-9.5509698226650848</v>
       </c>
+      <c r="AF15" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="16" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>73</v>
@@ -2770,31 +2859,31 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S16">
         <v>0.86323800542931128</v>
       </c>
       <c r="T16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AA16" s="4">
         <v>0</v>
@@ -2811,16 +2900,19 @@
       <c r="AE16">
         <v>0.20000000003501683</v>
       </c>
+      <c r="AF16" t="s">
+        <v>255</v>
+      </c>
     </row>
-    <row r="17" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>45</v>
@@ -2853,7 +2945,7 @@
         <v>72.059212500000001</v>
       </c>
       <c r="R17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S17">
         <v>0.99066666684966431</v>
@@ -2862,28 +2954,28 @@
         <v>30</v>
       </c>
       <c r="U17" t="s">
+        <v>126</v>
+      </c>
+      <c r="V17" t="s">
+        <v>167</v>
+      </c>
+      <c r="W17" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" t="s">
         <v>128</v>
       </c>
-      <c r="V17" t="s">
-        <v>170</v>
-      </c>
-      <c r="W17" t="s">
-        <v>129</v>
-      </c>
-      <c r="X17" t="s">
-        <v>130</v>
-      </c>
       <c r="Y17" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AA17" s="4">
         <v>0</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AC17">
         <v>45905</v>
@@ -2894,22 +2986,25 @@
       <c r="AE17" t="s">
         <v>47</v>
       </c>
+      <c r="AF17" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="18" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J18" s="2">
         <v>171.31355932203391</v>
@@ -2936,37 +3031,37 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
+        <v>131</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U18" t="s">
         <v>133</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
+        <v>170</v>
+      </c>
+      <c r="W18" t="s">
         <v>134</v>
       </c>
-      <c r="U18" t="s">
-        <v>135</v>
-      </c>
-      <c r="V18" t="s">
-        <v>173</v>
-      </c>
-      <c r="W18" t="s">
-        <v>136</v>
-      </c>
       <c r="X18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AA18" s="4">
         <v>0</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AC18">
         <v>45905</v>
@@ -2977,16 +3072,19 @@
       <c r="AE18" t="s">
         <v>47</v>
       </c>
+      <c r="AF18" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="19" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>27</v>
@@ -3019,31 +3117,31 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>174</v>
+      </c>
+      <c r="U19" t="s">
+        <v>175</v>
+      </c>
+      <c r="V19" t="s">
         <v>176</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="W19" t="s">
         <v>177</v>
       </c>
-      <c r="U19" t="s">
+      <c r="X19" t="s">
         <v>178</v>
       </c>
-      <c r="V19" t="s">
+      <c r="Y19" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Z19" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="X19" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="AA19" s="4">
         <v>0</v>
@@ -3060,16 +3158,19 @@
       <c r="AE19" t="s">
         <v>47</v>
       </c>
+      <c r="AF19" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="20" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>27</v>
@@ -3111,28 +3212,28 @@
         <v>79</v>
       </c>
       <c r="U20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="W20" t="s">
         <v>79</v>
       </c>
       <c r="X20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="AC20">
         <v>45910</v>
@@ -3143,16 +3244,19 @@
       <c r="AE20" t="s">
         <v>47</v>
       </c>
+      <c r="AF20" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="21" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>27</v>
@@ -3185,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3194,28 +3298,28 @@
         <v>30</v>
       </c>
       <c r="U21" t="s">
+        <v>192</v>
+      </c>
+      <c r="V21" t="s">
+        <v>193</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
         <v>195</v>
       </c>
-      <c r="V21" t="s">
+      <c r="Y21" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Z21" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="AC21">
         <v>45910</v>
@@ -3226,16 +3330,19 @@
       <c r="AE21" t="s">
         <v>47</v>
       </c>
+      <c r="AF21" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="22" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>45</v>
@@ -3265,31 +3372,31 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
+        <v>201</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>202</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
         <v>204</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="Y22" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="Z22" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="X22" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="AA22" s="4">
         <v>0</v>
@@ -3305,6 +3412,9 @@
       </c>
       <c r="AE22" t="s">
         <v>47</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E7C034B-F6B1-4F06-B5B5-A89FF5DB1605}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35293307-12FB-4022-8488-17B9AFE4F8B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="265">
   <si>
     <t>SN</t>
   </si>
@@ -393,28 +393,12 @@
     <t>Start Date (PO) : 01-Aug-24 :: End Date (PO) : 31-Jul-29</t>
   </si>
   <si>
-    <t>7 +10(shared) / 17</t>
-  </si>
-  <si>
     <t>100.99 L</t>
   </si>
   <si>
     <t>O&amp;M support, AMC of all BOQ. Maintenance of Hardware, Network, Software, ICT Infrastructure, L1 , L2, L3 &amp; OEM Support of all field solutions, DC &amp; DR and applications for 60 months
 Deployment of manpower : Project Manager (1), Technical Expert (4) [Network and Security, Video management, server-storage, CCC software], Electrician (4), Field staff (8)  
 PBG of 3%</t>
-  </si>
-  <si>
-    <t>Contract agreement signed .
-PBG of 3 % submitted 
-All resources has onboarded.
-BOM and other detail shared with purchase team for finalization of contract.
-First Qtr payment received ~ 80 L on 28-May-25
-Third quarter invoice submitted.</t>
-  </si>
-  <si>
-    <t>Start maintenance activity as per SLA 
-Third quarter invoice submitted.
-Payment collection. (2nd &amp; 3rd Qtr)</t>
   </si>
   <si>
     <t>ISCDL</t>
@@ -512,9 +496,6 @@
   </si>
   <si>
     <t>131.78 L</t>
-  </si>
-  <si>
-    <t>38+4</t>
   </si>
   <si>
     <t>Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
@@ -627,25 +608,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Site Survey done &amp; report submitted to customer.
-GIS software invoicing done 315 L &amp; installation completed - Configuration in process (SRS &amp; FRS finalization awaited).
-PA, ECB, EVS, EVS Poles (10 nos) materials delivered.
-EVS, PA-ECB, GIS, VMS software delivered. 
-1] Change request letter for VMD submitted by Honeywell to GSC -- approval received.
-2] VMD Structure &amp; Pole drawing approved by GSC.
-3] EVS pole foundation 10/10 ready.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] EVS pole installation after curing.
-2] ECB encloser foundation &amp; VMD Foundation work in progress
-3] FRS &amp; SRS for GIS software to submit -- In progress (under PMC review).
-4] Collection of due payment.
-5] FAT for VMD pole is scheduled from 28 to 29-Aug-25 &amp; is in progress. </t>
-  </si>
-  <si>
     <t>Mumbai City Surveillance</t>
   </si>
   <si>
@@ -692,15 +654,6 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t>As per work order, we need to develop complete ROB portal (both Phase-1 and Phase-2) and make it live in 4 months -- by 8th Oct25.
-The tentative end date for the Project is 31st Oct 25 (from CMS).
-The Phase 1 (MVP) for ROB Project has gone live on 21st July 2025; Phase 2 in progress.
-A total of 46/80 Man Months has been consumed till 5th Sept 25 in the Project.</t>
-  </si>
-  <si>
-    <t>Billing for ROB to be done in 3rd week of September.</t>
-  </si>
-  <si>
     <t>DIC NOC</t>
   </si>
   <si>
@@ -741,9 +694,6 @@
   </si>
   <si>
     <t>Start Date (PO) : 25-Aug-25 :: End Date (PO) : 24-Aug-27</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>21.25 L</t>
@@ -756,18 +706,6 @@
 Front End and Back End developer – 8 Resources (Including 1 senior developer each)
 Mobile App Developer – 2 resources
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
-  </si>
-  <si>
-    <t>Kick-off meeting done with customer.
-PBG, escalation matrix, signed work order copy submitted to customer.
-Resources identified from other projects &amp; same will be onboarded after concurrence from customer.</t>
-  </si>
-  <si>
-    <t>Onboarding of resources as per requirement.</t>
-  </si>
-  <si>
-    <t>Stringent timeline to deploy resources - 21 days.
-Failure to Deploy Resources -- If less than 70% of selected resources join within 1 week of the Work Order : The bidder may be debarred and blacklisted for 3 years.</t>
   </si>
   <si>
     <t>MMRDA BTRS</t>
@@ -1001,9 +939,6 @@
     <t>Kanpur SC O&amp;M tech mahindra TECHM</t>
   </si>
   <si>
-    <t xml:space="preserve">sharing resources </t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -1037,45 +972,58 @@
     <t>MMRDA - BALASAHEB THAKRE RASHTRIYA SMARAK MMRDA - BALASAHEB THAKRE RASHTRIYA SMARAK MMRDA BTRS</t>
   </si>
   <si>
-    <t>-&gt;  May 25 Bill Payment received.
--&gt;  June Payment under process.
--&gt;  Vikas July progress report verification is under progress.
--&gt;  July Draft invoice submitted -- approval pending.
--&gt;  New DB is deployed, 1 Tech support resource Joined.
--&gt;  GP Can extract Certificate 
--&gt;  Gujarat Onboarding Successfully done on 01-Sep-2025.
--&gt;  Commitee formed for current contract extension.</t>
-  </si>
-  <si>
-    <t>-&gt;  Indore IMC Zonal register creation.
--&gt;  Pondicherry state to join CRS portal.
--&gt;  WSO2 to NAPIX Shifting.
--&gt;  Gujarat onboarding from 15-Aug-25.
--&gt;  Contract extension approval -- proposal submitted.</t>
-  </si>
-  <si>
-    <t>-&gt;  System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
--&gt;  Go-Live done on 19th May 2025.
--&gt;  Helpdesk set-up done.
--&gt;  Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
-  </si>
-  <si>
-    <t>-&gt;  Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
--&gt;  Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
--&gt;  VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
--&gt;  Payment collection for implementation milestone.
--&gt;  Billing for remaining milestones.</t>
-  </si>
-  <si>
-    <t>-&gt;  DIC team along with CMS team working on this project.
--&gt;  Total 9 modules in part 1 &amp; Total 8 modules in part 2 including Drone module (moved from part 1 to part 2).
--&gt;  9 out of 9 – development complete &amp; UAT done for part 1.
--&gt;  Go-live of 7 completed modules done on 17th Jul 2025 -- awaiting official sign-off.</t>
-  </si>
-  <si>
-    <t>-&gt;  Production deployment of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
--&gt;  Next Part-2 modules decision -- requirement analysis in progress for 7 modules; yet to start for employee directory &amp; drone module.
--&gt;  Post Go-live activities -- SOP creation of helpdesk support, user manual etc.</t>
+    <t># May 25 Bill Payment received.
+# June Payment under process.
+# Vikas July progress report verification is under progress.
+# July Draft invoice submitted -- approval pending.
+# New DB is deployed, 1 Tech support resource Joined.
+# GP Can extract Certificate 
+# Gujarat Onboarding Successfully done on 01-Sep-2025.
+# Commitee formed for current contract extension.</t>
+  </si>
+  <si>
+    <t># Indore IMC Zonal register creation.
+# Pondicherry state to join CRS portal.
+# WSO2 to NAPIX Shifting.
+# Gujarat onboarding from 15-Aug-25.
+# Contract extension approval -- proposal submitted.</t>
+  </si>
+  <si>
+    <t># System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
+# Go-Live done on 19th May 2025.
+# Helpdesk set-up done.
+# Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
+  </si>
+  <si>
+    <t># Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
+# Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
+# VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
+# Payment collection for implementation milestone.
+# Billing for remaining milestones.</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Phase 1
+----------
+7 out of 9 modules deployed on production. Rest two modules are planned for production deployment in this week. (15Sept - 20Sept)
+Phase 2
+--------
+Development started working on Bircs. 
+Requirement gathering for 4 modules done with Payments partially done.
+-&gt; Billing done for phase 1 track 4
+-&gt; Payment received till track 3</t>
+  </si>
+  <si>
+    <t>→ Production deployment of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
+→ Next Part-2 modules decision — requirement analysis in progress for 7 modules; yet to start for employee directory &amp; drone module.
+→ Development started on BICRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRCS to be completed by end of 30th Sept due to previous agency contract expiring on 30th.
+Multiple resources on notice period and some new resources just joined the team who need to deliver from day one as per expectations.
+Due to delay in phase one Phase module completion time is very tight. </t>
   </si>
   <si>
     <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
@@ -1085,12 +1033,12 @@
 Billing till Jul-25 done.
 Payment of 136 L received on 26-Aug-2025 (till Jun-25)
 1] KM (Krishi Mapper) –
-   -&gt; Applying Scheduler on Telangana State API for NMEO-OP
-   -&gt; New API applied on 12 schemes on GIS
-   -&gt; Optimizing current GIS Dashboard
-   -&gt; GIS – Cluster has been applied till District level
-   -&gt; KM Dashboard new layout is in progress
-   -&gt; Aligned meeting with Maha DBT team for API discussion
+   #Applying Scheduler on Telangana State API for NMEO-OP
+   #New API applied on 12 schemes on GIS
+   #Optimizing current GIS Dashboard
+   #GIS – Cluster has been applied till District level
+   #KM Dashboard new layout is in progress
+   #Aligned meeting with Maha DBT team for API discussion
 2] Natural Farming - Fixing users highlighted issue.
 3] MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store (Under Review) - Working on Offline mode.
 4] Krishi Unnati – Mother/Daily sanction module: In Progress</t>
@@ -1098,46 +1046,154 @@
   <si>
     <t>1] NFSM – Make Agristack data live on Krishi Mapper
 2] KM –
-   -&gt; GIS google map with optimized API will push on Live
-   -&gt; PDMC data will push on Live
-   -&gt; Discussion on new UM layout
-   -&gt; Preparing Model flow or GT scheme
-   -&gt; UM – Optimizing the counts records
-   -&gt; Onboard consumed API’s data on KM
-   -&gt; Fixing UM bugs
+   #GIS google map with optimized API will push on Live
+   #PDMC data will push on Live
+   #Discussion on new UM layout
+   #Preparing Model flow or GT scheme
+   #UM – Optimizing the counts records
+   #Onboard consumed API’s data on KM
+   #Fixing UM bugs
 3] NF – 
-   -&gt; Work on Given Observation points
-   -&gt; Providing Data Import option</t>
+   #Work on Given Observation points
+   #Providing Data Import option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shared resources </t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O &amp; M continue
+VMD module request but approval pending 
+ATCS controller procurement pending from last 2 month
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O &amp; M activity continue 
+Last quarter invoice submission </t>
+  </si>
+  <si>
+    <t>VMD module request but approval pending - If not supply timely client impose penalty.
+ATCS controller procurement pending from last 2 month.
+New VMD controller and VMD application deployment pending from last one year.</t>
+  </si>
+  <si>
+    <t>1. PA, ECB, EVS, EVS poles, VMD display delivered at Site 
+2. PA/ ECB, EVS, VMD, GIS applications delivered at site.
+3. EVS pole foundation and pole installation done 10 Nos.
+4. VMD pole foundation - 6/10 completed.
+5. All SRS FRS and UAT documents submitted and approved except PA, ECB, EVS UAT approval pending. Work in progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.UAT documents approval for ECB EVS and PA
+2. ECB enclosure box delivery at site 
+3. VMD poles delivery at site.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. VMD poles delivery at site is a very big challenge within 22nd September '25. 
+2. ECB enclosure should be delivered at site by 20th September '25.
+</t>
   </si>
   <si>
     <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
 a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
 b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
 c) Energy billing system that coverers consumer’s energy monitoring and billing
--&gt; &gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
--&gt; &gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-&gt; Servers: Configured, tested, and delivered on 13-08-2025.
--&gt; Substations (1,2,3): Communication network completed; IPs assigned.
--&gt; ABT Meters: Two meters installed in custom panel, delivered on 13-08-2025; rack placed at permanent location.
--&gt; Water Flow Meters: 62 delivered, 3 (40 mm) installed; balance pending location finalization.
--&gt; RMU Communication: Survey completed; converter installation planned on 08-09-2025.
--&gt; Billing Meter Communication: GPRS testing ongoing with live data at JNPA.
+#&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
+#&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Primary &amp; Backup Servers – Fully configured, tested, delivered, and installed; ready for use. Powered up and activity in progress.
+	Substations 1, 2 &amp; 3 (MFM Meter Communication) – Network setup completed; pending switch rack installation by JNPA vendor with switch availabilty. Meter-to-server communication to be established post port enablement.
+	ABT Meters – Two meters installed in custom-designed panel; pending series connection with incomers and CAT-6 cabling. Coordination with MSETCL and Secutech required for completion.
+	RMU Panel Meter Communication – Survey completed; converter/cabling finalized. Pending OFC network support from JNPA vendor. This has been under doscuusion and is taken up by JNPA for clearing pendency’s from their end.Pnce this is cleared, we may start the communication setup work .
+	Water Flow Meters – 62 meters delivered. Installation of ~30 (40 mm) meters planned, subject to infra readiness by JNPA Water Dept. Larger meter installation pending location finalization.
 </t>
   </si>
   <si>
-    <t>-&gt; Servers: Installation in NOC room on 08-09-2025.
--&gt; Substations: Begin meter data retrieval post server installation.
-ABT Meters: Connect with incomer meters in coming week with electrical team.
--&gt; Water Flow Meters: Awaiting JNPA’s approval for 25 mm &amp; 40 mm meter scope.
--&gt; RMU Communication: Converter installation &amp; cabling for one RMU on 08-09-2025.
--&gt; Billing Meters: Continue GPRS testing; VI SIM cards expected in 20–25 days.</t>
-  </si>
-  <si>
-    <t>-&gt; Water Flow Meters: Pending finalization of 400 mm &amp; 100 mm locations, outage schedule from Water Dept., and clarification on 25 mm &amp; 40 mm meter scope (mismatch in procured vs. required).
--&gt; RMU Communication: JNPA’s network vendor unavailable; clarification needed on revised scope for fibre laying/splicing and switch availability.
--&gt; Substations Integration: Availability of one port in the switch (rack installation by vendor Supertech) still pending.</t>
+    <t xml:space="preserve">	Servers: Power-up and final validation of Primary &amp; Backup Servers.
+	Substations: Coordinate with JNPA vendor (Secutech) to enable one port in switch rack; once available, establish converter-to-switch connections.
+	ABT Meters: Finalize panel base installation; invite MSETCL testing team schedule for series connection.
+	RMU Panels: Begin setup of communication network (converter &amp; adapter in sintex box) for 1st RMU.
+	Water Flow Meters: Follow up with Water Dept. for confirmation of infra works (valves, ducts, power supply).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Vendor Delays – Switch port enablement &amp; OFC network pending from JNPA vendors.
+	External Coordination – MSETCL team scheduling and Water Dept. infra readiness may delay tasks.
+	Infra Constraints – Cabling, ducting, and larger water meter installations may need extra time from water dept,JNPA.
+	RMU OFC connectivity -OFC connectivity is not yet available and further under discussion from JNPA, hence this task is not yet started.
+</t>
+  </si>
+  <si>
+    <t>Module End Date Work Status Environment
+Authentication 4-July Done Production
+Landing Page 24-June Done Production
+Agency Selection 4-July Done Production
+View Girder Assign. 14-July Done Production
+WPSS &amp; QAP Submission 19-June Done Production
+Approver 10-July Done Production
+Module Integration 29-June Done Production
+Inter Service Communication 29-June Done Production
+View Download GAD 20-June Done Production
+Add New Girder &amp; Contractor 02-Aug Done Production
+Data Migration 28-June Done Production
+Agency Selection Module 30-July 29-Aug Done
+GAD Management Module 30-July 11-Aug Done
+Stake Holder &amp; Employee Onboarding 12-Aug 8-Sep Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girder Fabrication &amp; Raw Material
+Approval Process 
+Email Integration 
+Dashboard &amp; Listing Management
+WPQR Preparation &amp; Submission
+(Welding Procedure Qualification
+Record)
+</t>
+  </si>
+  <si>
+    <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
+  </si>
+  <si>
+    <t>Frequently requirements changes from clients</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently Deployed Resources-
+1- Bhavesh Chandra Bhanu (Backend Developer) --&gt; Joining Date: 09-09-2025
+2- Ashutosh Pandey (Backend Developer)            --&gt; Joining Date: 09-09-2025
+3- Mudassar Tousif (Full stack Developer)             --&gt; Joining Date: 09-09-2025
+4- Bharat Veer (Frontend Developer)                    --&gt; Joining Date: 11-09-2025
+5- Raghvendra Pratap (Project Manager)              --&gt; Joining Date: 09-09-2025
+The work we have started since 11-09-2025, which includes:
+- Development environment setup (Frontend &amp; Backend)
+- Landing Page development
+We successfully developed the Landing Page and set up the environment in just 2 days, in alignment with the target to present it during our first weekly review meeting with the client (ITPO).
+I am pleased to share that the ITPO higher officials (Shri Premjit Lal, ITS (Executive Director), and Shri Rakesh Chandra Sharma, IAS (General Manager)) appreciated the progress we have made so far, and NeGD also expressed satisfaction with our work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Develop Admin Panel for Content Management of ITPO Corporate Website
+2- Develop Static Pages of ITPO main website (Corporate Website)
+3- Develop dynamic contact us page </t>
+  </si>
+  <si>
+    <t>I would like to highlight the following points regarding the current status of resource allocation for the ITPO – Bharat Mandapam project:
+- One of my team members, Mudassar Tousif, has been appointed exclusively for the ITPO project.
+- However, he is currently being shared across three projects — ITPO, PFRDA, and DIC-ROB.
+- At this initial and critical stage of the ITPO project, this resource sharing may impact our ability to meet the weekly delivery targets.
+- One another resource (Rewatiraman) from ORGI is also aligned with us in ITPO project dedicated for daily 4 hours for few days.
+Billing Related- 
+- As per my understanding, NeGD has approved only 3 resources for the project (2 Frontend Developers and 1 Backend Developer).
+- However, we currently have 5 resources deployed, including myself.
+- I am raising this concern in advance for billing purposes, to ensure transparency and proper planning.
+Request:
+Kindly review the current resource allocation and advise on how we should proceed to align both delivery and billing expectations.</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1353,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -1326,9 +1382,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1336,7 +1389,89 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <top style="double">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF196B24"/>
+          <bgColor rgb="FF196B24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF196B24"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF196B24"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1502,9 +1637,20 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9038EDC6-3E22-48B9-8A09-9B8C7DFBDBE1}"/>
     <tableStyle name="TableStyleLight11 2" pivot="0" count="9" xr9:uid="{1E60FCDE-5A09-4372-B824-E4AB8FBDEE06}">
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="lastColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
+    </tableStyle>
+    <tableStyle name="TableStyleLight11 3" pivot="0" count="9" xr9:uid="{50B5B5AC-24D8-4D32-8305-B72B3E996F08}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -1515,7 +1661,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
       <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="TableStyleLight11 3" pivot="0" count="9" xr9:uid="{50B5B5AC-24D8-4D32-8305-B72B3E996F08}">
+    <tableStyle name="TableStyleLight11 4" pivot="0" count="9" xr9:uid="{0257A0D0-02DF-499D-9088-F03ED9E359A1}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="totalRow" dxfId="6"/>
@@ -1916,9 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X1" activeCellId="1" sqref="T1:V1048576 X1:X1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1936,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -2011,7 +2155,7 @@
         <v>25</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -2067,25 +2211,25 @@
         <v>31</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>33</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="Y2" s="16">
         <v>45911</v>
@@ -2097,7 +2241,7 @@
         <v>0.4323402397342212</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -2108,7 +2252,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>27</v>
@@ -2153,7 +2297,7 @@
         <v>35</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>36</v>
@@ -2162,16 +2306,16 @@
         <v>37</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="Y3" s="16">
         <v>45911</v>
@@ -2183,7 +2327,7 @@
         <v>0.19000000008625473</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -2194,7 +2338,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
@@ -2221,7 +2365,7 @@
         <v>447.75561847457629</v>
       </c>
       <c r="L4" s="12">
-        <v>148.55127779999992</v>
+        <v>148.55127779999995</v>
       </c>
       <c r="M4" s="12">
         <v>33.610999000000007</v>
@@ -2239,7 +2383,7 @@
         <v>41</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>42</v>
@@ -2247,17 +2391,17 @@
       <c r="T4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>250</v>
+      <c r="U4" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>44</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y4" s="16">
         <v>45905</v>
@@ -2269,7 +2413,7 @@
         <v>0.11942473989981339</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -2280,7 +2424,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>45</v>
@@ -2325,7 +2469,7 @@
         <v>50</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="S5" s="15" t="s">
         <v>51</v>
@@ -2334,16 +2478,16 @@
         <v>52</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>53</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="Y5" s="16">
         <v>45911</v>
@@ -2355,7 +2499,7 @@
         <v>0.33027289323308273</v>
       </c>
       <c r="AB5" s="17" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -2366,7 +2510,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>27</v>
@@ -2411,7 +2555,7 @@
         <v>58</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>59</v>
@@ -2419,11 +2563,11 @@
       <c r="T6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>252</v>
+      <c r="U6" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="W6" s="15" t="s">
         <v>61</v>
@@ -2441,7 +2585,7 @@
         <v>47</v>
       </c>
       <c r="AB6" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -2452,7 +2596,7 @@
         <v>62</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>27</v>
@@ -2497,7 +2641,7 @@
         <v>65</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="S7" s="15" t="s">
         <v>66</v>
@@ -2505,20 +2649,20 @@
       <c r="T7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>254</v>
+      <c r="U7" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="W7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="15">
-        <v>0</v>
+      <c r="X7" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="Y7" s="16">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="Z7" s="4">
         <v>0.27640980757497513</v>
@@ -2527,7 +2671,7 @@
         <v>0.32590705634920647</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -2538,7 +2682,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>27</v>
@@ -2583,22 +2727,22 @@
         <v>70</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S8" s="15" t="s">
         <v>71</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>256</v>
+        <v>137</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="X8" s="15">
         <v>0</v>
@@ -2613,7 +2757,7 @@
         <v>0.10999999996973608</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -2669,7 +2813,7 @@
         <v>76</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S9" s="15" t="s">
         <v>77</v>
@@ -2678,16 +2822,16 @@
         <v>78</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="W9" s="15" t="s">
         <v>79</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="16">
         <v>45912</v>
@@ -2764,10 +2908,10 @@
         <v>85</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="W10" s="15" t="s">
         <v>79</v>
@@ -2785,7 +2929,7 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AB10" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -2796,7 +2940,7 @@
         <v>87</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>88</v>
@@ -2808,31 +2952,31 @@
         <v>680.69294500000001</v>
       </c>
       <c r="G11" s="12">
-        <v>239.8515534</v>
+        <v>235.83634920000003</v>
       </c>
       <c r="H11" s="12">
         <v>22</v>
       </c>
       <c r="I11" s="12">
-        <v>261.8515534</v>
+        <v>257.83634920000003</v>
       </c>
       <c r="J11" s="12">
         <v>50</v>
       </c>
       <c r="K11" s="13">
-        <v>440.84139160000001</v>
+        <v>444.85659579999998</v>
       </c>
       <c r="L11" s="12">
-        <v>20.746828200000003</v>
+        <v>16.731624</v>
       </c>
       <c r="M11" s="12">
-        <v>0</v>
+        <v>-4.0152042000000003</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>90</v>
       </c>
       <c r="O11" s="14">
-        <v>0.35236380097930942</v>
+        <v>0.34646509991373575</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>30</v>
@@ -2841,7 +2985,7 @@
         <v>91</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="S11" s="15" t="s">
         <v>92</v>
@@ -2850,10 +2994,10 @@
         <v>93</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W11" s="15" t="s">
         <v>79</v>
@@ -2871,7 +3015,7 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AB11" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -2882,7 +3026,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>45</v>
@@ -2927,7 +3071,7 @@
         <v>97</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="S12" s="15" t="s">
         <v>98</v>
@@ -2936,16 +3080,16 @@
         <v>99</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="W12" s="15" t="s">
         <v>79</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Y12" s="16">
         <v>45915</v>
@@ -2957,7 +3101,7 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -3013,28 +3157,28 @@
         <v>101</v>
       </c>
       <c r="R13" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="S13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="T13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="T13" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="U13" s="15" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="W13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="X13" s="15">
-        <v>0</v>
+      <c r="X13" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="Y13" s="16">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="Z13" s="4">
         <v>0.20490000022684418</v>
@@ -3043,7 +3187,7 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AB13" s="17" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -3051,10 +3195,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>45</v>
@@ -3087,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O14" s="14">
         <v>0.59318156563162339</v>
@@ -3096,28 +3240,28 @@
         <v>46</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="W14" s="15" t="s">
         <v>79</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="Y14" s="16">
         <v>45910</v>
@@ -3129,7 +3273,7 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AB14" s="17" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -3137,10 +3281,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>45</v>
@@ -3173,37 +3317,37 @@
         <v>0</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O15" s="14">
         <v>0.15559721329490833</v>
       </c>
       <c r="P15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="U15" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="W15" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="T15" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="V15" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="W15" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="X15" s="15" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="Y15" s="16">
         <v>45911</v>
@@ -3215,7 +3359,7 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AB15" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -3223,13 +3367,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>73</v>
@@ -3259,40 +3403,40 @@
         <v>0</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O16" s="14">
         <v>0.86323800542931128</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>163</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="W16" s="15">
         <v>0</v>
       </c>
-      <c r="X16" s="15">
-        <v>0</v>
+      <c r="X16" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="Y16" s="16">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="Z16" s="4">
         <v>0.36662132665084957</v>
@@ -3301,7 +3445,7 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -3309,10 +3453,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>45</v>
@@ -3345,7 +3489,7 @@
         <v>72.059212500000001</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O17" s="14">
         <v>0.99066666684966431</v>
@@ -3354,28 +3498,28 @@
         <v>30</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="W17" s="15">
         <v>0</v>
       </c>
       <c r="X17" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y17" s="16">
         <v>45905</v>
@@ -3387,7 +3531,7 @@
         <v>47</v>
       </c>
       <c r="AB17" s="17" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3395,16 +3539,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F18" s="12">
         <v>171.31355932203391</v>
@@ -3431,40 +3575,40 @@
         <v>0</v>
       </c>
       <c r="N18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="S18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="U18" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>259</v>
+      <c r="T18" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="W18" s="15">
         <v>0</v>
       </c>
-      <c r="X18" s="28" t="s">
-        <v>260</v>
+      <c r="X18" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="Y18" s="16">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>47</v>
@@ -3473,7 +3617,7 @@
         <v>47</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -3481,10 +3625,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>27</v>
@@ -3496,61 +3640,61 @@
         <v>111.36</v>
       </c>
       <c r="G19" s="12">
-        <v>0</v>
+        <v>11.135999999999999</v>
       </c>
       <c r="H19" s="12">
         <v>0</v>
       </c>
       <c r="I19" s="12">
-        <v>0</v>
+        <v>11.135999999999999</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
       </c>
       <c r="K19" s="13">
-        <v>111.36</v>
+        <v>100.224</v>
       </c>
       <c r="L19" s="12">
-        <v>0</v>
+        <v>11.135999999999999</v>
       </c>
       <c r="M19" s="12">
-        <v>0</v>
+        <v>11.135999999999999</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O19" s="14">
-        <v>0</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="W19" s="15">
-        <v>0</v>
-      </c>
-      <c r="X19" s="15">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="Y19" s="16">
-        <v>45909</v>
+        <v>45917</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>47</v>
@@ -3559,7 +3703,7 @@
         <v>47</v>
       </c>
       <c r="AB19" s="17" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3567,10 +3711,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>27</v>
@@ -3612,28 +3756,28 @@
         <v>79</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="S20" s="15" t="s">
         <v>79</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="W20" s="15">
         <v>0</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Y20" s="16">
         <v>45910</v>
@@ -3645,7 +3789,7 @@
         <v>47</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -3653,10 +3797,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>27</v>
@@ -3689,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O21" s="14">
         <v>0</v>
@@ -3698,31 +3842,31 @@
         <v>30</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="W21" s="15">
         <v>0</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="Y21" s="16">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>47</v>
@@ -3731,7 +3875,7 @@
         <v>47</v>
       </c>
       <c r="AB21" s="17" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -3739,10 +3883,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>45</v>
@@ -3773,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O22" s="24">
         <v>0</v>
@@ -3782,22 +3926,22 @@
         <v>0</v>
       </c>
       <c r="Q22" s="25" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="R22" s="25">
         <v>0</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="T22" s="25" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="V22" s="25" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="W22" s="25">
         <v>0</v>
@@ -3815,7 +3959,7 @@
         <v>47</v>
       </c>
       <c r="AB22" s="27" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3828,40 +3972,40 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A362D5B6-D3D4-48A2-97B9-9DE1FB684E94}</x14:id>
+          <x14:id>{686FFF4E-1F9A-49E7-AF84-DFAABCBA99BA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" location="'INVEST INDIA'!A1" display="INVEST INDIA" xr:uid="{6C31F27C-8C0A-4105-B480-A84166CFABE8}"/>
-    <hyperlink ref="B3" location="'SBM-U'!A1" display="SBM-U" xr:uid="{FB23B759-AEAA-4CAF-A090-8B7DD40FC3C7}"/>
-    <hyperlink ref="B4" location="ORGI!A1" display="ORGI" xr:uid="{5E5EE4D1-DE1C-437F-A494-72D31F6C86FD}"/>
-    <hyperlink ref="B5" location="'ECCS NEW'!A1" display="ECCS NEW" xr:uid="{33E29409-FFBA-4999-9A50-965FF2431A1F}"/>
-    <hyperlink ref="B6" location="PFRDA!A1" display="PFRDA" xr:uid="{01867812-E7AD-45AE-A0C5-862D502A5145}"/>
-    <hyperlink ref="B7" location="'DIC NHAI'!A1" display="DIC NHAI" xr:uid="{2682D815-130F-4CDD-8ECA-D76D1973E5D0}"/>
-    <hyperlink ref="B8" location="DAnFW!A1" display="DAnFW" xr:uid="{B5A6BAED-54F8-4C11-B7E8-203327B92F27}"/>
-    <hyperlink ref="B9" location="'GWALIOR SC ICCC'!A1" display="GWALIOR SC ICCC" xr:uid="{33DC1599-310B-4CB9-B0DE-3FB579ED5D98}"/>
-    <hyperlink ref="B10" location="'Kanpur SC O&amp;M'!A1" display="Kanpur SC O&amp;M" xr:uid="{E3B6887F-FADA-4A0F-A901-C34107BAA054}"/>
-    <hyperlink ref="B11" location="NMPT!A1" display="NMPT" xr:uid="{5D01010C-4F38-48DA-878F-DE9B9C32FAB1}"/>
-    <hyperlink ref="B12" location="'Vadodara Traffic'!A1" display="Vadodara VMC Traffic" xr:uid="{E5184E73-5962-44A8-B4C0-5A02C4A067B5}"/>
-    <hyperlink ref="B13" location="'VADODARA ICCC'!A1" display="VADODARA ICCC" xr:uid="{81A77074-6CDA-496F-ADDC-6D27FBCB51F9}"/>
-    <hyperlink ref="B14" location="ISCDL!A1" display="ISCDL" xr:uid="{37CF4957-5E8E-4C3A-AB1B-B700C1B159FC}"/>
-    <hyperlink ref="B15" location="IREL!A1" display="IREL" xr:uid="{C56F8495-3F71-4B0E-A55F-7CFC87224DC1}"/>
-    <hyperlink ref="B16" location="'Guwahati SC'!A1" display="Guwahati SC" xr:uid="{BE8E18EF-D01A-455D-AB96-2A3606873C82}"/>
-    <hyperlink ref="B17" location="'MCS - L&amp;T'!A1" display="MCS - L&amp;T" xr:uid="{C6EC427A-63F7-47EE-928A-6EE4D42BA3B4}"/>
-    <hyperlink ref="B18" location="JNPA!A1" display="JNPA" xr:uid="{2E9D2031-2756-40A6-9A92-3F4F7BE0F2B8}"/>
-    <hyperlink ref="B19" location="'DIC ROB'!A1" display="DIC ROB" xr:uid="{6A3D9EA2-10E2-4C2E-B96C-EA14A1B9D58D}"/>
-    <hyperlink ref="B21" location="'NeGD ITPO'!A1" display="NeGD ITPO" xr:uid="{B0603A10-591F-4480-93AE-97384ABCE117}"/>
-    <hyperlink ref="B20" location="'DIC NOC'!A1" display="DIC NOC" xr:uid="{D4717433-C8AC-4560-8779-90F00D6597A8}"/>
-    <hyperlink ref="B22" location="'MMRDA BTRS'!A1" display="MMRDA BTRS" xr:uid="{B2472621-4F35-4EF7-BBB3-A7C9337B827C}"/>
+    <hyperlink ref="B2" location="'INVEST INDIA'!A1" display="INVEST INDIA" xr:uid="{89AC7D0E-15BE-458C-8717-ED5842A6D6C5}"/>
+    <hyperlink ref="B3" location="'SBM-U'!A1" display="SBM-U" xr:uid="{1DCE7E2A-3F6C-4920-BB28-4308F8C3ED26}"/>
+    <hyperlink ref="B4" location="ORGI!A1" display="ORGI" xr:uid="{D23138A5-6758-40B5-AAC5-98347D76B54F}"/>
+    <hyperlink ref="B5" location="'ECCS NEW'!A1" display="ECCS NEW" xr:uid="{C5B34D9B-8F01-4601-BF04-F864CAE460D5}"/>
+    <hyperlink ref="B6" location="PFRDA!A1" display="PFRDA" xr:uid="{4E671CE5-6C43-42B5-AFCF-086548FA4710}"/>
+    <hyperlink ref="B7" location="'DIC NHAI'!A1" display="DIC NHAI" xr:uid="{1BEE4835-3081-4205-880F-B58157EAD05B}"/>
+    <hyperlink ref="B8" location="DAnFW!A1" display="DAnFW" xr:uid="{9FAB69AF-2A2B-4A24-9BCF-BF608859FAFD}"/>
+    <hyperlink ref="B9" location="'GWALIOR SC ICCC'!A1" display="GWALIOR SC ICCC" xr:uid="{47781F12-6D67-4F44-B041-A8AF408AA58F}"/>
+    <hyperlink ref="B10" location="'Kanpur SC O&amp;M'!A1" display="Kanpur SC O&amp;M" xr:uid="{C4D11083-08D6-4B3C-B27E-174869F55DDE}"/>
+    <hyperlink ref="B11" location="NMPT!A1" display="NMPT" xr:uid="{CC10D42B-4BFA-4D6C-AE80-2ED3705C4660}"/>
+    <hyperlink ref="B12" location="'Vadodara Traffic'!A1" display="Vadodara VMC Traffic" xr:uid="{512535BF-823C-4610-912C-F1BDDE5FB043}"/>
+    <hyperlink ref="B13" location="'VADODARA ICCC'!A1" display="VADODARA ICCC" xr:uid="{4F6364B7-14FC-4026-AF5C-FDA3449BA477}"/>
+    <hyperlink ref="B14" location="ISCDL!A1" display="ISCDL" xr:uid="{23F1DDBC-CA9B-4D26-95FB-A98CDEC86902}"/>
+    <hyperlink ref="B15" location="IREL!A1" display="IREL" xr:uid="{1F5D90FE-EFCF-404C-B36E-896BF79B9EB4}"/>
+    <hyperlink ref="B16" location="'Guwahati SC'!A1" display="Guwahati SC" xr:uid="{CA02AD49-8B6D-4219-8B87-C000CB98E109}"/>
+    <hyperlink ref="B17" location="'MCS - L&amp;T'!A1" display="MCS - L&amp;T" xr:uid="{3FAA238D-C25D-4A4E-9468-B502549CC756}"/>
+    <hyperlink ref="B18" location="JNPA!A1" display="JNPA" xr:uid="{D5AA30DF-831B-4405-9EDB-26C6092E0E1E}"/>
+    <hyperlink ref="B19" location="'DIC ROB'!A1" display="DIC ROB" xr:uid="{D8B76204-DE99-4C89-9BAE-5757A157A405}"/>
+    <hyperlink ref="B21" location="'NeGD ITPO'!A1" display="NeGD ITPO" xr:uid="{A72B38D4-4EE8-461A-BE1D-899F32F6D403}"/>
+    <hyperlink ref="B20" location="'DIC NOC'!A1" display="DIC NOC" xr:uid="{7826EDD2-F1C9-4C80-A9C2-62323AEE0F5E}"/>
+    <hyperlink ref="B22" location="'MMRDA BTRS'!A1" display="MMRDA BTRS" xr:uid="{B95C0117-5403-4FF4-92FE-BAA1E06B7825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A362D5B6-D3D4-48A2-97B9-9DE1FB684E94}">
+          <x14:cfRule type="dataBar" id="{686FFF4E-1F9A-49E7-AF84-DFAABCBA99BA}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35293307-12FB-4022-8488-17B9AFE4F8B5}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF2F744-9330-4D17-8D55-A481A2408DBD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,9 +768,6 @@
 RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.</t>
   </si>
   <si>
-    <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -972,36 +969,6 @@
     <t>MMRDA - BALASAHEB THAKRE RASHTRIYA SMARAK MMRDA - BALASAHEB THAKRE RASHTRIYA SMARAK MMRDA BTRS</t>
   </si>
   <si>
-    <t># May 25 Bill Payment received.
-# June Payment under process.
-# Vikas July progress report verification is under progress.
-# July Draft invoice submitted -- approval pending.
-# New DB is deployed, 1 Tech support resource Joined.
-# GP Can extract Certificate 
-# Gujarat Onboarding Successfully done on 01-Sep-2025.
-# Commitee formed for current contract extension.</t>
-  </si>
-  <si>
-    <t># Indore IMC Zonal register creation.
-# Pondicherry state to join CRS portal.
-# WSO2 to NAPIX Shifting.
-# Gujarat onboarding from 15-Aug-25.
-# Contract extension approval -- proposal submitted.</t>
-  </si>
-  <si>
-    <t># System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
-# Go-Live done on 19th May 2025.
-# Helpdesk set-up done.
-# Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
-  </si>
-  <si>
-    <t># Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
-# Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
-# VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
-# Payment collection for implementation milestone.
-# Billing for remaining milestones.</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -1026,38 +993,6 @@
 Due to delay in phase one Phase module completion time is very tight. </t>
   </si>
   <si>
-    <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
-15 resources onboarded out of 15 – additional on need basis approval received from customer.
-2 VC Support addnl order received -- onboarded.
-1 Drupal &amp; 1 SEO developer onboarded on temporary basis (FOC basis)
-Billing till Jul-25 done.
-Payment of 136 L received on 26-Aug-2025 (till Jun-25)
-1] KM (Krishi Mapper) –
-   #Applying Scheduler on Telangana State API for NMEO-OP
-   #New API applied on 12 schemes on GIS
-   #Optimizing current GIS Dashboard
-   #GIS – Cluster has been applied till District level
-   #KM Dashboard new layout is in progress
-   #Aligned meeting with Maha DBT team for API discussion
-2] Natural Farming - Fixing users highlighted issue.
-3] MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store (Under Review) - Working on Offline mode.
-4] Krishi Unnati – Mother/Daily sanction module: In Progress</t>
-  </si>
-  <si>
-    <t>1] NFSM – Make Agristack data live on Krishi Mapper
-2] KM –
-   #GIS google map with optimized API will push on Live
-   #PDMC data will push on Live
-   #Discussion on new UM layout
-   #Preparing Model flow or GT scheme
-   #UM – Optimizing the counts records
-   #Onboard consumed API’s data on KM
-   #Fixing UM bugs
-3] NF – 
-   #Work on Given Observation points
-   #Providing Data Import option</t>
-  </si>
-  <si>
     <t xml:space="preserve">shared resources </t>
   </si>
   <si>
@@ -1095,14 +1030,6 @@
     <t xml:space="preserve">1. VMD poles delivery at site is a very big challenge within 22nd September '25. 
 2. ECB enclosure should be delivered at site by 20th September '25.
 </t>
-  </si>
-  <si>
-    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
-a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
-b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
-c) Energy billing system that coverers consumer’s energy monitoring and billing
-#&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
-#&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
   </si>
   <si>
     <t xml:space="preserve">	Primary &amp; Backup Servers – Fully configured, tested, delivered, and installed; ready for use. Powered up and activity in progress.
@@ -1194,6 +1121,79 @@
 - I am raising this concern in advance for billing purposes, to ensure transparency and proper planning.
 Request:
 Kindly review the current resource allocation and advise on how we should proceed to align both delivery and billing expectations.</t>
+  </si>
+  <si>
+    <t>-&gt;  May 25 Bill Payment received.
+-&gt;  June Payment under process.
+-&gt;  Vikas July progress report verification is under progress.
+-&gt;  July Draft invoice submitted -- approval pending.
+-&gt;  New DB is deployed, 1 Tech support resource Joined.
+-&gt;  GP Can extract Certificate 
+-&gt;  Gujarat Onboarding Successfully done on 01-Sep-2025.
+-&gt;  Commitee formed for current contract extension.</t>
+  </si>
+  <si>
+    <t>-&gt;  Indore IMC Zonal register creation.
+-&gt;  Pondicherry state to join CRS portal.
+-&gt;  WSO2 to NAPIX Shifting.
+-&gt;  Gujarat onboarding from 15-Aug-25.
+-&gt;  Contract extension approval -- proposal submitted.</t>
+  </si>
+  <si>
+    <t>-&gt;  System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
+-&gt;  Go-Live done on 19th May 2025.
+-&gt;  Helpdesk set-up done.
+-&gt;  Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
+  </si>
+  <si>
+    <t>-&gt;  Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
+-&gt;  Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
+-&gt;  VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
+-&gt;  Payment collection for implementation milestone.
+-&gt;  Billing for remaining milestones.</t>
+  </si>
+  <si>
+    <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
+15 resources onboarded out of 15 – additional on need basis approval received from customer.
+2 VC Support addnl order received -- onboarded.
+1 Drupal &amp; 1 SEO developer onboarded on temporary basis (FOC basis)
+Billing till Jul-25 done.
+Payment of 136 L received on 26-Aug-2025 (till Jun-25)
+1] KM (Krishi Mapper) –
+   -&gt; Applying Scheduler on Telangana State API for NMEO-OP
+   -&gt; New API applied on 12 schemes on GIS
+   -&gt; Optimizing current GIS Dashboard
+   -&gt; GIS – Cluster has been applied till District level
+   -&gt; KM Dashboard new layout is in progress
+   -&gt; Aligned meeting with Maha DBT team for API discussion
+2] Natural Farming - Fixing users highlighted issue.
+3] MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store (Under Review) - Working on Offline mode.
+4] Krishi Unnati – Mother/Daily sanction module: In Progress</t>
+  </si>
+  <si>
+    <t>1] NFSM – Make Agristack data live on Krishi Mapper
+2] KM –
+   -&gt; GIS google map with optimized API will push on Live
+   -&gt; PDMC data will push on Live
+   -&gt; Discussion on new UM layout
+   -&gt; Preparing Model flow or GT scheme
+   -&gt; UM – Optimizing the counts records
+   -&gt; Onboard consumed API’s data on KM
+   -&gt; Fixing UM bugs
+3] NF – 
+   -&gt; Work on Given Observation points
+   -&gt; Providing Data Import option</t>
+  </si>
+  <si>
+    <t>C-&gt; , ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
+  </si>
+  <si>
+    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
+a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
+b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
+c) Energy billing system that coverers consumer’s energy monitoring and billing
+-&gt; &gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
+-&gt; &gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -1382,6 +1382,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2062,7 +2065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2155,7 +2160,7 @@
         <v>25</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -2220,16 +2225,16 @@
         <v>142</v>
       </c>
       <c r="U2" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>33</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y2" s="16">
         <v>45911</v>
@@ -2241,7 +2246,7 @@
         <v>0.4323402397342212</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -2306,16 +2311,16 @@
         <v>37</v>
       </c>
       <c r="U3" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y3" s="16">
         <v>45911</v>
@@ -2327,7 +2332,7 @@
         <v>0.19000000008625473</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -2391,11 +2396,11 @@
       <c r="T4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>236</v>
+      <c r="U4" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>258</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>44</v>
@@ -2413,7 +2418,7 @@
         <v>0.11942473989981339</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -2499,7 +2504,7 @@
         <v>0.33027289323308273</v>
       </c>
       <c r="AB5" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -2563,11 +2568,11 @@
       <c r="T6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>238</v>
+      <c r="U6" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="W6" s="15" t="s">
         <v>61</v>
@@ -2641,7 +2646,7 @@
         <v>65</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="S7" s="15" t="s">
         <v>66</v>
@@ -2650,16 +2655,16 @@
         <v>67</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="W7" s="15" t="s">
         <v>68</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Y7" s="16">
         <v>45917</v>
@@ -2671,7 +2676,7 @@
         <v>0.32590705634920647</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -2735,14 +2740,14 @@
       <c r="T8" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="U8" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>244</v>
+      <c r="U8" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="X8" s="15">
         <v>0</v>
@@ -2757,7 +2762,7 @@
         <v>0.10999999996973608</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -2813,7 +2818,7 @@
         <v>76</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S9" s="15" t="s">
         <v>77</v>
@@ -2822,16 +2827,16 @@
         <v>78</v>
       </c>
       <c r="U9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="V9" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="V9" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="W9" s="15" t="s">
         <v>79</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y9" s="16">
         <v>45912</v>
@@ -2929,7 +2934,7 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AB10" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -3071,7 +3076,7 @@
         <v>97</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="S12" s="15" t="s">
         <v>98</v>
@@ -3080,16 +3085,16 @@
         <v>99</v>
       </c>
       <c r="U12" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="V12" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="W12" s="15" t="s">
         <v>79</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y12" s="16">
         <v>45915</v>
@@ -3157,7 +3162,7 @@
         <v>101</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="S13" s="15" t="s">
         <v>102</v>
@@ -3166,16 +3171,16 @@
         <v>103</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="W13" s="15" t="s">
         <v>79</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Y13" s="16">
         <v>45915</v>
@@ -3187,7 +3192,7 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AB13" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -3243,7 +3248,7 @@
         <v>106</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>107</v>
@@ -3252,16 +3257,16 @@
         <v>108</v>
       </c>
       <c r="U14" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="V14" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="V14" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="W14" s="15" t="s">
         <v>79</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y14" s="16">
         <v>45910</v>
@@ -3273,7 +3278,7 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AB14" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -3338,16 +3343,16 @@
         <v>114</v>
       </c>
       <c r="U15" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="V15" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="V15" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="W15" s="15" t="s">
         <v>115</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y15" s="16">
         <v>45911</v>
@@ -3424,16 +3429,16 @@
         <v>136</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="W16" s="15">
         <v>0</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Y16" s="16">
         <v>45911</v>
@@ -3445,7 +3450,7 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -3531,7 +3536,7 @@
         <v>47</v>
       </c>
       <c r="AB17" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3592,20 +3597,20 @@
       <c r="S18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="T18" s="15" t="s">
-        <v>253</v>
+      <c r="T18" s="28" t="s">
+        <v>264</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="W18" s="15">
         <v>0</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Y18" s="16">
         <v>45917</v>
@@ -3617,7 +3622,7 @@
         <v>47</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -3682,16 +3687,16 @@
         <v>171</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Y19" s="16">
         <v>45917</v>
@@ -3703,7 +3708,7 @@
         <v>47</v>
       </c>
       <c r="AB19" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3845,7 +3850,7 @@
         <v>183</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="S21" s="15" t="s">
         <v>184</v>
@@ -3854,16 +3859,16 @@
         <v>185</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="W21" s="15">
         <v>0</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Y21" s="16">
         <v>45916</v>
@@ -3875,7 +3880,7 @@
         <v>47</v>
       </c>
       <c r="AB21" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -3959,7 +3964,7 @@
         <v>47</v>
       </c>
       <c r="AB22" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF2F744-9330-4D17-8D55-A481A2408DBD}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0DD2F7-1948-4F03-AA43-8D89A51A2D10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="267">
   <si>
     <t>SN</t>
   </si>
@@ -542,12 +542,6 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t>Although the customer mail received for extension but awaiting for actual work Order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present work order is completed on 4th September,2025. However from customer side L&amp;T Project Director Mr P R Kumar's mail stated 3 months extension. </t>
-  </si>
-  <si>
     <t>Project1</t>
   </si>
   <si>
@@ -566,12 +560,6 @@
     <t>OFFICE OF REGISTRAR GENERAL OF INDIA - CRS</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>WSO2 server issues.</t>
-  </si>
-  <si>
     <t>EXPRESS CARGO CLEARANCE SYSTEM – ECCS 2.0</t>
   </si>
   <si>
@@ -609,13 +597,6 @@
   </si>
   <si>
     <t>Mumbai City Surveillance</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>1) Raise invoice for August-2025 month with Supporting documents.
-2) Recruitment for 20+ vacancies in project</t>
   </si>
   <si>
     <t>Jawaharlal Nehru Port Authority</t>
@@ -743,9 +724,6 @@
     <t>Discussion with OEM to be initiated post receiving of LOI</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>All critical resources have been onboarded.
 All AMJ quarter data has been sent to the client for releasing 80% payment.
 Successfully delivering the weekly dwell time report – an ad-hoc requirement apart from CR/in-application work.
@@ -777,58 +755,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>-&gt; Monthly billing from Jul-23 to Aug-25 done. 
--&gt; Application maintenance and regular CR deployment.
--&gt; 356 tasks out of 413 tasks are in production as on date.
--&gt; Pragati meetings module is developed by CMS - These meetings are being chaired by Prime Minister of India.
--&gt; AWS Optimization has been done on all PMG environments as instructed by PMG team.
--&gt; Security Audit was done &amp; agency has raised total 26 points, out of which 7 high priority tasks are completed &amp; awaiting further action from Auditor.
--&gt; Customer wants AI module to be integrated, pitching our AI solution &amp; will get additional order if selected.</t>
-  </si>
-  <si>
-    <t>Maintenance activities :
--&gt; Deployment of 2 task -- on UAT.
--&gt; 14 Tasks In progress (+ 9 Tasks in QA Testing, +3 in designing, +11 under estimation &amp; + 15 Tasks in to do).
--&gt; Due payment collection (May to Aug 25).
--&gt; Replacement of Bimal Kalsa &amp; Raghavendra Pratap on priority.</t>
-  </si>
-  <si>
-    <t>Replacement of Bimal Kalsa (Backend+Elastic Developer) - As per rfp terms we need to provide replacement with overlapping period of 30 days, if not then penalty equivalent to monthly amt of resource will be deducted.
-Replacement of Raghavendra Pratap on priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] 20 resources on-boarded. (13 resources from GAIA – Tech Partner)
-2] Payment received till May’25; Invoicing done for Aug’25.
-3] 2 resources onboarded for SS. 1 will be joining today; Interviews ongoing for other 2 resources
-4] DWR mobile app: changes ongoing for dumpsite. 
-5] New SBM Dashboard ver2'0 (Legacy waste &amp; Toilets): Testing &amp; Bug Fixing ongoing
-6] New SBM Dashboard ver2'0 (UWM): Development ongoing
-7] New SSJ page created for City pairing on website.
-8] Dumpsite API modified for SHS portal.  
-9] Bulk upload parser under implementation
-10] Website updates ongoing.
-11] Discussion done with 3rd party security Auditor on portal and mobile app.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] Maintenance activities: Daily ULB support. 
-2] Website changes.
-3] New SBM Dashboard 2'0 development: legacy waste &amp; Toilets: Testing
-4] New SBM Dashboard ver2'0 (UWM): Development 
-5] IHHL support ongoing. 
-6] Updates in SSJ page. 
-7] DWR Mobile App pilot to be planned; Enable DWR for Dumpsite.
-8] SS Handover with IPSOS in the next week based on resource availability.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] Need 2 developers (1 NodeJS + 1 Power BI)
-2] Limited Seats available for team members in the ministry.
-3] Majority of team members working remotely. 
-4] No Wi-Fi at New location
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">-&gt; UI/UX developer joining in progress client approval pending.
 -&gt; 3rd Qtr Invoice and all details submit to PDMC for SLA calculation.
 -&gt; Server, Storage &amp;Tape library HDD AMC Required -- Pending from Vendor and purchase team.
@@ -857,59 +783,6 @@
     <t>1] Work approval required from HO for the execution of ISCDL letter for 11 ATCS junctions, 9 ITMS junctions, 3 SVDS, 3 TVDS and 19 PTZs.
 2] Material approval including dispatching required as per site consumption report.
 3] Still no clarity received from Smart city regarding the availability of Payment receipt from different resources.</t>
-  </si>
-  <si>
-    <t>-&gt; HRMS- Payroll : Ongoing Tasks
-a] Post Demo Activities - Shared identified points with the development team for enhancements, including: 
-o    Loan module improvements: interest calculation, handling cases where no EMI is deducted, impact on other loans, and loan recovery planning (Actual vs Draft Recovery Plan).
-o    Payroll integration with reimbursement payment processing.
-o    Integration of Earned Leave (EL) with initial pay computation.
-o    Income tax computation updates, including perquisite calculation with a screen-view option for detailed visibility.
-b] Reports – Attendance - Visited and discussed with IREL HO HR team regarding attendance calculation process and logic.
-o    Conducted comparison between IREL’s calculation and our system-generated report: 
-o    Identified use of sandwich rule for leave calculation.
-o    Consideration of tour status as present.
-o    Verified physical attendance against report data.
-o    Highlighted a discrepancy in IREL’s May attendance data for one employee (incorrect record).
-o    Discussed issues related to missing attendance updates for retired employees on their last day.
-o    Raised ticket and assigned to developer for necessary corrections.
--&gt; Finance: 
-1] Production and Feedback bugs fixing
-2] Functional Support to developers and cross-functional teams
-3] Cashflow movement to production server
-4] Segment reports moved to production server
--&gt; MM :
-1]  Add 2 decimal in stock values for all transaction – Completed, Deploy on Production server
-2]  Last transaction date update in Chavara unit – Completed, Deploy on Production server
-3]  Cancel Provision in Purchase order and Work order transaction - Development in Process
-4]  Order type is blank in across all units – Chavara and MK is in Process
-5]  ITC blank in Purchase Requisition – OSCOM &amp; MK is in Process
-6]  Transactional Non-moving material code incorporates in SIV transaction – QA &amp; UAT testing
-7]  Production issues -5, Resolved.</t>
-  </si>
-  <si>
-    <t>-&gt; HRMS - Payroll :
-a] Testing &amp; Validation - 
-o    Test all changes suggested during demo.
-o    Execute payroll runs for April, May, and June with updated logic.
-b] Ongoing Client Support &amp; Coordination 
-o    Continue addressing daily payroll-related queries. 
-o    Provide support for payroll operations. 
-o    Assist clients in streamlining payroll processes to improve efficiency.
--&gt; Finance :
-1] Production and Feedback bugs fixing
-2] Validation with actual data for cashflow statement
-3] Validation with actual data for segment reports
--&gt; MM :
-1]  Last transaction date update in RED unit – Update on Production server
-2]  Cancel Provision in Purchase order and Work order transaction - UAT &amp; Production deployment
-3]  Order type is blank in across all units – Chavara and MK will complete
-4]  ITC blank in Purchase Requisition – OSCOM &amp; MK will complete
-5]  Transactional Non-moving material code incorporates in SIV transaction – UAT &amp; Production deployment</t>
-  </si>
-  <si>
-    <t>1] Payment release
-2] Unstable ERP behavior for computation</t>
   </si>
   <si>
     <t>search_db</t>
@@ -1123,23 +996,6 @@
 Kindly review the current resource allocation and advise on how we should proceed to align both delivery and billing expectations.</t>
   </si>
   <si>
-    <t>-&gt;  May 25 Bill Payment received.
--&gt;  June Payment under process.
--&gt;  Vikas July progress report verification is under progress.
--&gt;  July Draft invoice submitted -- approval pending.
--&gt;  New DB is deployed, 1 Tech support resource Joined.
--&gt;  GP Can extract Certificate 
--&gt;  Gujarat Onboarding Successfully done on 01-Sep-2025.
--&gt;  Commitee formed for current contract extension.</t>
-  </si>
-  <si>
-    <t>-&gt;  Indore IMC Zonal register creation.
--&gt;  Pondicherry state to join CRS portal.
--&gt;  WSO2 to NAPIX Shifting.
--&gt;  Gujarat onboarding from 15-Aug-25.
--&gt;  Contract extension approval -- proposal submitted.</t>
-  </si>
-  <si>
     <t>-&gt;  System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
 -&gt;  Go-Live done on 19th May 2025.
 -&gt;  Helpdesk set-up done.
@@ -1151,41 +1007,6 @@
 -&gt;  VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
 -&gt;  Payment collection for implementation milestone.
 -&gt;  Billing for remaining milestones.</t>
-  </si>
-  <si>
-    <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
-15 resources onboarded out of 15 – additional on need basis approval received from customer.
-2 VC Support addnl order received -- onboarded.
-1 Drupal &amp; 1 SEO developer onboarded on temporary basis (FOC basis)
-Billing till Jul-25 done.
-Payment of 136 L received on 26-Aug-2025 (till Jun-25)
-1] KM (Krishi Mapper) –
-   -&gt; Applying Scheduler on Telangana State API for NMEO-OP
-   -&gt; New API applied on 12 schemes on GIS
-   -&gt; Optimizing current GIS Dashboard
-   -&gt; GIS – Cluster has been applied till District level
-   -&gt; KM Dashboard new layout is in progress
-   -&gt; Aligned meeting with Maha DBT team for API discussion
-2] Natural Farming - Fixing users highlighted issue.
-3] MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store (Under Review) - Working on Offline mode.
-4] Krishi Unnati – Mother/Daily sanction module: In Progress</t>
-  </si>
-  <si>
-    <t>1] NFSM – Make Agristack data live on Krishi Mapper
-2] KM –
-   -&gt; GIS google map with optimized API will push on Live
-   -&gt; PDMC data will push on Live
-   -&gt; Discussion on new UM layout
-   -&gt; Preparing Model flow or GT scheme
-   -&gt; UM – Optimizing the counts records
-   -&gt; Onboard consumed API’s data on KM
-   -&gt; Fixing UM bugs
-3] NF – 
-   -&gt; Work on Given Observation points
-   -&gt; Providing Data Import option</t>
-  </si>
-  <si>
-    <t>C-&gt; , ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
   </si>
   <si>
     <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
@@ -1194,6 +1015,169 @@
 c) Energy billing system that coverers consumer’s energy monitoring and billing
 -&gt; &gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
 -&gt; &gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
+  </si>
+  <si>
+    <t>search_db1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>→ Monthly billing from Jul-23 to Aug-25 done.
+→ Application maintenance and regular CR deployment.
+→ 371 tasks out of 423 tasks are in production as on date.
+→ Pragati meetings module is developed by CMS - These meetings are being chaired by Prime Minister of India.
+→ AWS Optimization has been done on all PMG environments as instructed by PMG team.
+→ Security Audit was done &amp; agency has raised total 26 points, out of which 7 high priority tasks are completed &amp; awaiting further action from Auditor.
+→ Customer wants AI module to be integrated, pitching our AI solution &amp; will get additional order if selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance activities :
+→ 16 Tasks In progress (+ 9 Tasks in QA Testing, +4 in designing, +11 under estimation &amp; + 12 Tasks in to do).
+→ Deployment of 0 task — on UAT.
+→ Due payment collection (May to Aug 25).
+→ Replacement of Bimal Kalsa &amp; Raghavendra Pratap on priority.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacement for Bimal Kalsa (Back-end Developer + Elastic) pending for 5 Months. </t>
+  </si>
+  <si>
+    <t>20 (7+13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 resources on-boarded. (13 resources from GAIA – Tech Partner)
+Payment received till May’25. Invoicing done for Aug’25.
+2 resources onboarded for SS. 3 resources will be from GAIA.
+DWR mobile app: changes ongoing for dumpsite. 
+New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): testing ongoing
+New SSJ page created for City pairing on website.
+UWM Action Plan: addition of FSTP plant &amp; SOAK (ULB): Bug fixing ongoing. 8 RI’ renewed in AWS for 1 year.
+API modified for SHS portal, under testing. UK ULB created. 
+Bulk upload parser under implementation. Website updates ongoing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance activities: Daily ULB support, Website changes ongoing.
+New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing. Updates in SSJ page. 
+DWR Mobile App pilot to be planned. Enable DWR for Dumpsite.
+SS Handover with IPSOS planned to start on 19th Sep,25.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. DS has asked everyone should be working from office within 1 month.
+2. Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI) from GAIA
+3. Majority of team members working remotely. 
+4. No WiFi at New location
+</t>
+  </si>
+  <si>
+    <t>26 Resource deployed.
+Development of new Module is under process as per CRS requirement.
+DB and System performance and monitoring continue above 99.6 % availability.
+State onboard is on going.    
+WSO2 server issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June Payment  under process from .
+July Document approval pending from RGI.
+August document verification under processing
+1 Tech support resource Joined.
+GP Can extract Certificate .
+Gujarat Onboarding field issue resolution.
+Committee formed for Extension.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indore IMC Zonal register creation
+Puducherry  states will join CRS portal from 1st Oct 
+WSO2 to NAPIX Shifting.
+Extension Approval Submitted.
+Kalyan and Roopali Approval Pending </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Krishi MApper –
+Applying Scheduler on Telangana State API for NMEO-OP
+New API applied on 12 schemes on GIS
+Optimizing current GIS Dashboard
+GIS – Cluster has been applied till District level 
+KM Dashboard new layout is in progress
+Aligned meeting with Maha DBT team for API discussion
+2.Natural Farming :
+Fixing users highlighted issue
+3.NFSM – Agristack data pushing on live
+4.NMEO-OP – VGP module is in Progress
+5.NMEO-OS- Working on changes request 
+6.MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store 
+Working on Offline mode.
+7. Krishi Unnati – Master data/Annual Action plan/budget head wise data is done and showed to client. History version is on going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Krishi MApper –
+GIS google map with optimized API will push on Live
+PDMC data will push on Live
+NBM/PKVY/oil seed assets to be complete by 30th. 
+UM – Optimizing the counts records
+Onboard consumed API’s data on KM
+</t>
+  </si>
+  <si>
+    <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance:
+1.Internal Management Reporting
+2.Cross-Functional support in HRMS and Material
+3.Bug fixing in progress
+4.Error identification due to database updation in MM
+HRMS:
+1. Verified and checked data for issues raised during the 3rd September demo, including:
+· Income tax calculation
+· Perquisite tax calculation for various perquisite values
+· View break-up functionality
+· Raising tickets and discussing solutions with developers
+2. Met with the IREL HR team at HO Office and discussed:
+· Attendance report issues (fixed and moved into production)
+· Workflow-related issues
+· Attendance data of retired employees and missing date attendance
+· Shared resolutions with their HR team - Additionally, based on the points shared by Anil with Jena Sir:
+· Held discussions to understand the issues in detail
+· Suggested possible resolutions
+· Shared updates internally to ensure appropriate action is taken to meet expectations
+</t>
+  </si>
+  <si>
+    <t>Finance:
+1.Operational Modules optimization
+2.Response and bug fixing of the Chavara Unit Email 
+HRMS:
+1. Demo with Jena Sir &amp; Jyoti
+· Provide a demo on the points raised in the previous demo
+· Execute payroll runs for April, May, and June with updated logic
+2. Ongoing Client Support &amp; Coordination
+· Continue addressing daily payroll-related queries
+· Provide support for payroll operations
+· Assist clients in streamlining payroll processes to improve efficiency</t>
+  </si>
+  <si>
+    <t>Payment release</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 new candidates selected through interview, trained and deployed in the project. </t>
+  </si>
+  <si>
+    <t>The invoice for August 2025 will be submitted at L&amp;T’s Mallet Bunder (MB) Office on Monday, 22nd September 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mandays Report and In-Out Time Report for August 2025 have not yet been signed by the Police CRO. Due to this pending approval, the submission of the August 2025 invoice has been delayed.
+</t>
+  </si>
+  <si>
+    <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1376,89 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="36">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <top style="double">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF196B24"/>
+          <bgColor rgb="FF196B24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF196B24"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF196B24"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1640,9 +1706,20 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9038EDC6-3E22-48B9-8A09-9B8C7DFBDBE1}"/>
     <tableStyle name="TableStyleLight11 2" pivot="0" count="9" xr9:uid="{1E60FCDE-5A09-4372-B824-E4AB8FBDEE06}">
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
+    </tableStyle>
+    <tableStyle name="TableStyleLight11 3" pivot="0" count="9" xr9:uid="{50B5B5AC-24D8-4D32-8305-B72B3E996F08}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -1653,7 +1730,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="19"/>
       <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="TableStyleLight11 3" pivot="0" count="9" xr9:uid="{50B5B5AC-24D8-4D32-8305-B72B3E996F08}">
+    <tableStyle name="TableStyleLight11 4" pivot="0" count="9" xr9:uid="{0257A0D0-02DF-499D-9088-F03ED9E359A1}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -1664,7 +1741,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
       <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="TableStyleLight11 4" pivot="0" count="9" xr9:uid="{0257A0D0-02DF-499D-9088-F03ED9E359A1}">
+    <tableStyle name="TableStyleLight11 5" pivot="0" count="9" xr9:uid="{668C39AF-31FD-42BB-A4E1-F7B2162CEF2E}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="totalRow" dxfId="6"/>
@@ -2063,11 +2140,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2077,7 +2152,7 @@
     <col min="26" max="28" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2085,85 +2160,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="8" t="s">
-        <v>215</v>
+      <c r="AC1" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2171,85 +2249,88 @@
         <v>26</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12">
+      <c r="G2" s="12">
         <v>840.24454680000008</v>
       </c>
-      <c r="G2" s="12">
+      <c r="H2" s="12">
         <v>587.44015300000058</v>
       </c>
-      <c r="H2" s="12">
+      <c r="I2" s="12">
         <v>23</v>
       </c>
-      <c r="I2" s="12">
+      <c r="J2" s="12">
         <v>610.44015300000058</v>
       </c>
-      <c r="J2" s="12">
+      <c r="K2" s="12">
         <v>110.00000000000001</v>
       </c>
-      <c r="K2" s="13">
+      <c r="L2" s="13">
         <v>252.8043937999995</v>
       </c>
-      <c r="L2" s="12">
+      <c r="M2" s="12">
         <v>140.04075780000014</v>
       </c>
-      <c r="M2" s="12">
+      <c r="N2" s="12">
         <v>23.340126300000005</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="14">
+      <c r="P2" s="14">
         <v>0.69912997976269697</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="S2" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="U2" s="15" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="W2" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y2" s="16">
-        <v>45911</v>
-      </c>
-      <c r="Z2" s="4">
+      <c r="Y2" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>45918</v>
+      </c>
+      <c r="AA2" s="4">
         <v>0.58012380038870615</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AB2" s="4">
         <v>0.4323402397342212</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>216</v>
+      <c r="AC2" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2257,85 +2338,88 @@
         <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <v>1305.45</v>
       </c>
-      <c r="G3" s="12">
+      <c r="H3" s="12">
         <v>717.0616940000001</v>
       </c>
-      <c r="H3" s="12">
+      <c r="I3" s="12">
         <v>36</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>753.0616940000001</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>92</v>
       </c>
-      <c r="K3" s="13">
+      <c r="L3" s="13">
         <v>588.38830599999994</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <v>217.57499999999999</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>36.262500000000003</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14">
+      <c r="P3" s="14">
         <v>0.54928315446780807</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="S3" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="V3" s="15" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="W3" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="X3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>45911</v>
-      </c>
-      <c r="Z3" s="4">
+      <c r="Y3" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>45918</v>
+      </c>
+      <c r="AA3" s="4">
         <v>0.19000000000000017</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AB3" s="4">
         <v>0.19000000008625473</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>217</v>
+      <c r="AC3" s="17" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2343,85 +2427,88 @@
         <v>39</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <v>849.8214484745763</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4" s="12">
         <v>402.06583000000001</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>67</v>
       </c>
-      <c r="I4" s="12">
+      <c r="J4" s="12">
         <v>469.06583000000001</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <v>33</v>
       </c>
-      <c r="K4" s="13">
+      <c r="L4" s="13">
         <v>447.75561847457629</v>
       </c>
-      <c r="L4" s="12">
+      <c r="M4" s="12">
         <v>148.55127779999995</v>
       </c>
-      <c r="M4" s="12">
+      <c r="N4" s="12">
         <v>33.610999000000007</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="14">
+      <c r="P4" s="14">
         <v>0.47311800699041595</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>258</v>
+      <c r="V4" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="W4" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>45905</v>
-      </c>
-      <c r="Z4" s="4">
+      <c r="Y4" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>45919</v>
+      </c>
+      <c r="AA4" s="4">
         <v>0.22607225678680021</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AB4" s="4">
         <v>0.11942473989981339</v>
       </c>
-      <c r="AB4" s="17" t="s">
-        <v>218</v>
+      <c r="AC4" s="17" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2429,85 +2516,88 @@
         <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>2413.0259999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H5" s="12">
         <v>399.26925</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>182</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="12">
         <v>581.26925000000006</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="12">
         <v>471</v>
       </c>
-      <c r="K5" s="13">
+      <c r="L5" s="13">
         <v>2013.7567499999998</v>
       </c>
-      <c r="L5" s="12">
+      <c r="M5" s="12">
         <v>399.26925</v>
       </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="14">
+      <c r="P5" s="14">
         <v>0.16546413092938081</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="S5" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="V5" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="W5" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z5" s="16">
         <v>45911</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <v>0.41621469835230751</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="4">
         <v>0.33027289323308273</v>
       </c>
-      <c r="AB5" s="17" t="s">
-        <v>219</v>
+      <c r="AC5" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2515,85 +2605,88 @@
         <v>54</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <v>1265.69472</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <v>435.46562499999999</v>
       </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
       <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>435.46562499999999</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>367</v>
       </c>
-      <c r="K6" s="13">
+      <c r="L6" s="13">
         <v>830.22909499999992</v>
       </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="14">
+      <c r="P6" s="14">
         <v>0.34405265196966295</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="S6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="U6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="28" t="s">
-        <v>259</v>
-      </c>
       <c r="V6" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="W6" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="X6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16">
         <v>45897</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>149</v>
+      <c r="AB6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2601,85 +2694,88 @@
         <v>62</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <v>2186.2800000000002</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12">
         <v>325.5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>245.00000000000003</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>570.5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>77</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>1860.7800000000002</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>325.5</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>162.75</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="14">
+      <c r="P7" s="14">
         <v>0.14888303419507107</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="R7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="S7" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="T7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="U7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="15" t="s">
-        <v>235</v>
-      </c>
       <c r="V7" s="15" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="W7" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z7" s="16">
         <v>45917</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AA7" s="4">
         <v>0.27640980757497513</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AB7" s="4">
         <v>0.32590705634920647</v>
       </c>
-      <c r="AB7" s="17" t="s">
-        <v>220</v>
+      <c r="AC7" s="17" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2687,85 +2783,88 @@
         <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="12">
         <v>1606.08</v>
       </c>
-      <c r="G8" s="12">
+      <c r="H8" s="12">
         <v>497.14593049999996</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>68</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>565.14593049999996</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="13">
+      <c r="L8" s="13">
         <v>1108.9340695000001</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>385.62032499999998</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="12">
         <v>67.878</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="14">
+      <c r="P8" s="14">
         <v>0.30953995473450885</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="R8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="15" t="s">
-        <v>153</v>
-      </c>
       <c r="S8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="T8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="U8" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="U8" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>262</v>
+      <c r="V8" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="X8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>45904</v>
-      </c>
-      <c r="Z8" s="4">
+        <v>257</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>45918</v>
+      </c>
+      <c r="AA8" s="4">
         <v>0.11000001051303465</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AB8" s="4">
         <v>0.10999999996973608</v>
       </c>
-      <c r="AB8" s="17" t="s">
-        <v>221</v>
+      <c r="AC8" s="17" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2776,82 +2875,85 @@
         <v>72</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
         <v>1372.5805700000001</v>
       </c>
-      <c r="G9" s="12">
+      <c r="H9" s="12">
         <v>430.5498189000001</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <v>46</v>
       </c>
-      <c r="I9" s="12">
+      <c r="J9" s="12">
         <v>476.5498189000001</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="12">
         <v>204</v>
       </c>
-      <c r="K9" s="13">
+      <c r="L9" s="13">
         <v>942.03075109999997</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="12">
         <v>74.732390099999975</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="12">
         <v>33.449428699999999</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="14">
+      <c r="P9" s="14">
         <v>0.31367908617561158</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="Q9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="R9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="R9" s="15" t="s">
-        <v>198</v>
-      </c>
       <c r="S9" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="T9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="U9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="15" t="s">
-        <v>207</v>
-      </c>
       <c r="V9" s="15" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="W9" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="X9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z9" s="16">
         <v>45912</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AA9" s="4">
         <v>0.19540000015149273</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AB9" s="4">
         <v>0.11441806775377272</v>
       </c>
-      <c r="AB9" s="17" t="s">
+      <c r="AC9" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2859,85 +2961,88 @@
         <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="12">
         <v>5337.5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="H10" s="12">
         <v>3431.25</v>
       </c>
-      <c r="H10" s="12">
+      <c r="I10" s="12">
         <v>635</v>
       </c>
-      <c r="I10" s="12">
+      <c r="J10" s="12">
         <v>4066.25</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <v>916</v>
       </c>
-      <c r="K10" s="13">
+      <c r="L10" s="13">
         <v>1906.25</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <v>762.5</v>
       </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="14">
+      <c r="P10" s="14">
         <v>0.6428571428571429</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="Q10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="R10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="S10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="T10" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="U10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="V10" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="W10" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="X10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="Y10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Z10" s="16">
         <v>45897</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AA10" s="4">
         <v>0.25</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AB10" s="4">
         <v>0.51229508024724535</v>
       </c>
-      <c r="AB10" s="17" t="s">
-        <v>222</v>
+      <c r="AC10" s="17" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2945,85 +3050,88 @@
         <v>87</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="12">
+      <c r="G11" s="12">
         <v>680.69294500000001</v>
       </c>
-      <c r="G11" s="12">
+      <c r="H11" s="12">
         <v>235.83634920000003</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>22</v>
       </c>
-      <c r="I11" s="12">
+      <c r="J11" s="12">
         <v>257.83634920000003</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="12">
         <v>50</v>
       </c>
-      <c r="K11" s="13">
+      <c r="L11" s="13">
         <v>444.85659579999998</v>
       </c>
-      <c r="L11" s="12">
+      <c r="M11" s="12">
         <v>16.731624</v>
       </c>
-      <c r="M11" s="12">
+      <c r="N11" s="12">
         <v>-4.0152042000000003</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="14">
+      <c r="P11" s="14">
         <v>0.34646509991373575</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="Q11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="R11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="S11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="U11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="V11" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="W11" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="W11" s="15" t="s">
+      <c r="X11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="X11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
         <v>45898</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AA11" s="4">
         <v>-0.25967603526289684</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AB11" s="4">
         <v>0.12040585230689282</v>
       </c>
-      <c r="AB11" s="17" t="s">
-        <v>154</v>
+      <c r="AC11" s="17" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3031,85 +3139,88 @@
         <v>94</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="12">
+      <c r="G12" s="12">
         <v>1045.762712</v>
       </c>
-      <c r="G12" s="12">
+      <c r="H12" s="12">
         <v>709.40253320000011</v>
       </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
       <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
         <v>709.40253320000011</v>
       </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
         <v>336.36017879999986</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="12">
         <v>-0.59409959999999995</v>
       </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="O12" s="14">
+      <c r="P12" s="14">
         <v>0.6783589862783328</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="Q12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="R12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="R12" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="S12" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="T12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="U12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="U12" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="V12" s="15" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="W12" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="X12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="X12" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z12" s="16">
         <v>45915</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AB12" s="4">
         <v>0.18000000439604424</v>
       </c>
-      <c r="AB12" s="17" t="s">
-        <v>155</v>
+      <c r="AC12" s="17" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3117,85 +3228,88 @@
         <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="12">
+      <c r="G13" s="12">
         <v>2019.8763390000001</v>
       </c>
-      <c r="G13" s="12">
+      <c r="H13" s="12">
         <v>331.99717679999998</v>
       </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
       <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
         <v>331.99717679999998</v>
       </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
         <v>1687.8791622000001</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="12">
         <v>171.16043740000003</v>
       </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="14">
+      <c r="P13" s="14">
         <v>0.1643651001745805</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="Q13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="R13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="R13" s="15" t="s">
-        <v>239</v>
-      </c>
       <c r="S13" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="T13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="U13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="V13" s="15" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="W13" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="X13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="X13" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z13" s="16">
         <v>45915</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AA13" s="4">
         <v>0.20490000022684418</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AB13" s="4">
         <v>0.2046391013686556</v>
       </c>
-      <c r="AB13" s="17" t="s">
-        <v>226</v>
+      <c r="AC13" s="17" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3203,85 +3317,88 @@
         <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="12">
+      <c r="G14" s="12">
         <v>2903.04126</v>
       </c>
-      <c r="G14" s="12">
+      <c r="H14" s="12">
         <v>1722.0305597000006</v>
       </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
       <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
         <v>1722.0305597000006</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <v>977</v>
       </c>
-      <c r="K14" s="13">
+      <c r="L14" s="13">
         <v>1181.0107002999994</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M14" s="12">
         <v>54.821240000000003</v>
       </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O14" s="14">
+      <c r="P14" s="14">
         <v>0.59318156563162339</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="Q14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="R14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="R14" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="S14" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="T14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="U14" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>209</v>
-      </c>
       <c r="V14" s="15" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="W14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="X14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="X14" s="15" t="s">
+      <c r="Y14" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>45910</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0.2022725498365231</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>-0.204144834903355</v>
+      </c>
+      <c r="AC14" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="Y14" s="16">
-        <v>45910</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>0.2022725498365231</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>-0.204144834903355</v>
-      </c>
-      <c r="AB14" s="17" t="s">
-        <v>227</v>
-      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3289,85 +3406,88 @@
         <v>109</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="12">
         <v>1047.3630700000001</v>
       </c>
-      <c r="G15" s="12">
+      <c r="H15" s="12">
         <v>162.96677500000001</v>
       </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
       <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
         <v>162.96677500000001</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>114.99999999999999</v>
       </c>
-      <c r="K15" s="13">
+      <c r="L15" s="13">
         <v>884.39629500000012</v>
       </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
       <c r="M15" s="12">
         <v>0</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="O15" s="14">
+      <c r="P15" s="14">
         <v>0.15559721329490833</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="Q15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="R15" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="R15" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="S15" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="T15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="U15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="U15" s="15" t="s">
-        <v>212</v>
-      </c>
       <c r="V15" s="15" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="W15" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="X15" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="X15" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>45911</v>
-      </c>
-      <c r="Z15" s="4" t="s">
+      <c r="Y15" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>45915</v>
+      </c>
+      <c r="AA15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AB15" s="4">
         <v>-9.5509698226650848</v>
       </c>
-      <c r="AB15" s="17" t="s">
-        <v>157</v>
+      <c r="AC15" s="17" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3375,85 +3495,88 @@
         <v>116</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="12">
+      <c r="G16" s="12">
         <v>669.18430290000003</v>
       </c>
-      <c r="G16" s="12">
+      <c r="H16" s="12">
         <v>577.66532290000009</v>
       </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
       <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
         <v>577.66532290000009</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <v>325</v>
       </c>
-      <c r="K16" s="13">
+      <c r="L16" s="13">
         <v>91.518979999999942</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <v>262.51094999999998</v>
       </c>
-      <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="14">
+      <c r="P16" s="14">
         <v>0.86323800542931128</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="Q16" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="R16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="R16" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="S16" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="U16" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="U16" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="V16" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="W16" s="15">
-        <v>0</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y16" s="16">
+        <v>227</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="X16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z16" s="16">
         <v>45911</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AA16" s="4">
         <v>0.36662132665084957</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AB16" s="4">
         <v>0.20000000003501683</v>
       </c>
-      <c r="AB16" s="17" t="s">
-        <v>228</v>
+      <c r="AC16" s="17" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3461,85 +3584,88 @@
         <v>121</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="12">
         <v>437.16408000000001</v>
       </c>
-      <c r="G17" s="12">
+      <c r="H17" s="12">
         <v>433.08388200000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="12">
         <v>73</v>
       </c>
-      <c r="I17" s="12">
+      <c r="J17" s="12">
         <v>506.08388200000002</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <v>257</v>
       </c>
-      <c r="K17" s="13">
+      <c r="L17" s="13">
         <v>4.0801979999999958</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <v>433.08388200000002</v>
       </c>
-      <c r="M17" s="12">
+      <c r="N17" s="12">
         <v>72.059212500000001</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="14">
+      <c r="P17" s="14">
         <v>0.99066666684966431</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="Q17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="R17" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="R17" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="S17" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="T17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="U17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="V17" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="W17" s="15">
-        <v>0</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y17" s="16">
-        <v>45905</v>
-      </c>
-      <c r="Z17" s="4">
+        <v>263</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>45919</v>
+      </c>
+      <c r="AA17" s="4">
         <v>0.62624581052110095</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AB17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB17" s="17" t="s">
-        <v>229</v>
+      <c r="AC17" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3547,20 +3673,20 @@
         <v>126</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="12">
         <v>171.31355932203391</v>
       </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
       <c r="H18" s="12">
         <v>0</v>
       </c>
@@ -3570,255 +3696,264 @@
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
         <v>171.31355932203391</v>
       </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
       <c r="M18" s="12">
         <v>0</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="R18" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="R18" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="S18" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="T18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="T18" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>246</v>
+      <c r="U18" s="28" t="s">
+        <v>243</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="W18" s="15">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y18" s="16">
+        <v>266</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z18" s="16">
         <v>45917</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB18" s="17" t="s">
-        <v>230</v>
+      <c r="AB18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="12">
         <v>111.36</v>
       </c>
-      <c r="G19" s="12">
+      <c r="H19" s="12">
         <v>11.135999999999999</v>
       </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
       <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
         <v>11.135999999999999</v>
       </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
         <v>100.224</v>
-      </c>
-      <c r="L19" s="12">
-        <v>11.135999999999999</v>
       </c>
       <c r="M19" s="12">
         <v>11.135999999999999</v>
       </c>
-      <c r="N19" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="O19" s="14">
+      <c r="N19" s="12">
+        <v>11.135999999999999</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="14">
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="P19" s="15" t="s">
-        <v>167</v>
-      </c>
       <c r="Q19" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y19" s="16">
+        <v>235</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z19" s="16">
         <v>45917</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB19" s="17" t="s">
-        <v>231</v>
+      <c r="AB19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="W20" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="X20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="W20" s="15">
-        <v>0</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y20" s="16">
+      <c r="Z20" s="16">
         <v>45910</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB20" s="17" t="s">
-        <v>172</v>
+      <c r="AB20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC20" s="17" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="12">
         <v>509.88</v>
       </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
       <c r="H21" s="12">
         <v>0</v>
       </c>
@@ -3828,147 +3963,153 @@
       <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
         <v>509.88</v>
       </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
       <c r="M21" s="12">
         <v>0</v>
       </c>
-      <c r="N21" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="O21" s="14">
-        <v>0</v>
-      </c>
-      <c r="P21" s="15" t="s">
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="R21" s="15" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="W21" s="15">
-        <v>0</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y21" s="16">
+        <v>238</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="X21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z21" s="16">
         <v>45916</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB21" s="17" t="s">
-        <v>232</v>
+      <c r="AB21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC21" s="17" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="23">
+        <v>0</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>0</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0</v>
+      </c>
+      <c r="T22" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="U22" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="V22" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="W22" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="23">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="O22" s="24">
-        <v>0</v>
-      </c>
-      <c r="P22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="R22" s="25">
-        <v>0</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="T22" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="U22" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="V22" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="W22" s="25">
-        <v>0</v>
-      </c>
       <c r="X22" s="25">
         <v>0</v>
       </c>
-      <c r="Y22" s="26">
+      <c r="Y22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="26">
         <v>45910</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="AA22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB22" s="27" t="s">
-        <v>233</v>
+      <c r="AB22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC22" s="27" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:X22 O2:Q22">
+  <conditionalFormatting sqref="T2:Y22 P2:R22">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3977,40 +4118,40 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{686FFF4E-1F9A-49E7-AF84-DFAABCBA99BA}</x14:id>
+          <x14:id>{12B32C9D-117F-46BA-B00D-A825E773DF37}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" location="'INVEST INDIA'!A1" display="INVEST INDIA" xr:uid="{89AC7D0E-15BE-458C-8717-ED5842A6D6C5}"/>
-    <hyperlink ref="B3" location="'SBM-U'!A1" display="SBM-U" xr:uid="{1DCE7E2A-3F6C-4920-BB28-4308F8C3ED26}"/>
-    <hyperlink ref="B4" location="ORGI!A1" display="ORGI" xr:uid="{D23138A5-6758-40B5-AAC5-98347D76B54F}"/>
-    <hyperlink ref="B5" location="'ECCS NEW'!A1" display="ECCS NEW" xr:uid="{C5B34D9B-8F01-4601-BF04-F864CAE460D5}"/>
-    <hyperlink ref="B6" location="PFRDA!A1" display="PFRDA" xr:uid="{4E671CE5-6C43-42B5-AFCF-086548FA4710}"/>
-    <hyperlink ref="B7" location="'DIC NHAI'!A1" display="DIC NHAI" xr:uid="{1BEE4835-3081-4205-880F-B58157EAD05B}"/>
-    <hyperlink ref="B8" location="DAnFW!A1" display="DAnFW" xr:uid="{9FAB69AF-2A2B-4A24-9BCF-BF608859FAFD}"/>
-    <hyperlink ref="B9" location="'GWALIOR SC ICCC'!A1" display="GWALIOR SC ICCC" xr:uid="{47781F12-6D67-4F44-B041-A8AF408AA58F}"/>
-    <hyperlink ref="B10" location="'Kanpur SC O&amp;M'!A1" display="Kanpur SC O&amp;M" xr:uid="{C4D11083-08D6-4B3C-B27E-174869F55DDE}"/>
-    <hyperlink ref="B11" location="NMPT!A1" display="NMPT" xr:uid="{CC10D42B-4BFA-4D6C-AE80-2ED3705C4660}"/>
-    <hyperlink ref="B12" location="'Vadodara Traffic'!A1" display="Vadodara VMC Traffic" xr:uid="{512535BF-823C-4610-912C-F1BDDE5FB043}"/>
-    <hyperlink ref="B13" location="'VADODARA ICCC'!A1" display="VADODARA ICCC" xr:uid="{4F6364B7-14FC-4026-AF5C-FDA3449BA477}"/>
-    <hyperlink ref="B14" location="ISCDL!A1" display="ISCDL" xr:uid="{23F1DDBC-CA9B-4D26-95FB-A98CDEC86902}"/>
-    <hyperlink ref="B15" location="IREL!A1" display="IREL" xr:uid="{1F5D90FE-EFCF-404C-B36E-896BF79B9EB4}"/>
-    <hyperlink ref="B16" location="'Guwahati SC'!A1" display="Guwahati SC" xr:uid="{CA02AD49-8B6D-4219-8B87-C000CB98E109}"/>
-    <hyperlink ref="B17" location="'MCS - L&amp;T'!A1" display="MCS - L&amp;T" xr:uid="{3FAA238D-C25D-4A4E-9468-B502549CC756}"/>
-    <hyperlink ref="B18" location="JNPA!A1" display="JNPA" xr:uid="{D5AA30DF-831B-4405-9EDB-26C6092E0E1E}"/>
-    <hyperlink ref="B19" location="'DIC ROB'!A1" display="DIC ROB" xr:uid="{D8B76204-DE99-4C89-9BAE-5757A157A405}"/>
-    <hyperlink ref="B21" location="'NeGD ITPO'!A1" display="NeGD ITPO" xr:uid="{A72B38D4-4EE8-461A-BE1D-899F32F6D403}"/>
-    <hyperlink ref="B20" location="'DIC NOC'!A1" display="DIC NOC" xr:uid="{7826EDD2-F1C9-4C80-A9C2-62323AEE0F5E}"/>
-    <hyperlink ref="B22" location="'MMRDA BTRS'!A1" display="MMRDA BTRS" xr:uid="{B95C0117-5403-4FF4-92FE-BAA1E06B7825}"/>
+    <hyperlink ref="B2" location="'INVEST INDIA'!A1" display="INVEST INDIA" xr:uid="{0A059B53-86A2-4BD5-B304-A1F9EDB5CCBF}"/>
+    <hyperlink ref="B3" location="'SBM-U'!A1" display="SBM-U" xr:uid="{2C27BEF6-F9BF-4141-BB30-952031BB0AF1}"/>
+    <hyperlink ref="B4" location="ORGI!A1" display="ORGI" xr:uid="{42193DAA-E39B-4590-8F06-EAF7EDC91FFC}"/>
+    <hyperlink ref="B5" location="'ECCS NEW'!A1" display="ECCS NEW" xr:uid="{A88BD44F-33C3-4E17-80B2-0B1EBEE11FCB}"/>
+    <hyperlink ref="B6" location="PFRDA!A1" display="PFRDA" xr:uid="{1BD5CA0A-83BA-4EF9-ACA1-C79EF9EF2654}"/>
+    <hyperlink ref="B7" location="'DIC NHAI'!A1" display="DIC NHAI" xr:uid="{711EF8A2-E4BA-4F77-B76F-38287C6A9603}"/>
+    <hyperlink ref="B8" location="DAnFW!A1" display="DAnFW" xr:uid="{07484B2A-D47E-4F63-A7F1-37D3ABA7FE7E}"/>
+    <hyperlink ref="B9" location="'GWALIOR SC ICCC'!A1" display="GWALIOR SC ICCC" xr:uid="{A9392BB5-1F71-4381-83BB-F9BAAB64D3C4}"/>
+    <hyperlink ref="B10" location="'Kanpur SC O&amp;M'!A1" display="Kanpur SC O&amp;M" xr:uid="{E49489C8-EC26-4FB2-847B-C4E0A4A016BE}"/>
+    <hyperlink ref="B11" location="NMPT!A1" display="NMPT" xr:uid="{D82B10E7-0484-4F22-AD47-CE1ED01B685B}"/>
+    <hyperlink ref="B12" location="'Vadodara Traffic'!A1" display="Vadodara VMC Traffic" xr:uid="{66BB12D2-2EA3-4D3C-B1E2-2E8DB4F90BC9}"/>
+    <hyperlink ref="B13" location="'VADODARA ICCC'!A1" display="VADODARA ICCC" xr:uid="{47C78BF6-CFAE-4B76-B86A-F3C4B4C26CC5}"/>
+    <hyperlink ref="B14" location="ISCDL!A1" display="ISCDL" xr:uid="{9BD7AF3A-6382-47F7-B58B-E6228E302437}"/>
+    <hyperlink ref="B15" location="IREL!A1" display="IREL" xr:uid="{75DF3197-10D4-4018-8E9F-526E1B494C68}"/>
+    <hyperlink ref="B16" location="'Guwahati SC'!A1" display="Guwahati SC" xr:uid="{D65ABDE8-5324-443D-98C8-783C6BF31F62}"/>
+    <hyperlink ref="B17" location="'MCS - L&amp;T'!A1" display="MCS - L&amp;T" xr:uid="{B449BF1F-5D63-4F1C-8D2B-BD134381C8DC}"/>
+    <hyperlink ref="B18" location="JNPA!A1" display="JNPA" xr:uid="{068C2F46-AC61-42D7-A25C-B5021741F6F2}"/>
+    <hyperlink ref="B19" location="'DIC ROB'!A1" display="DIC ROB" xr:uid="{3FAF7323-193D-418B-AD63-D56716CF0D15}"/>
+    <hyperlink ref="B21" location="'NeGD ITPO'!A1" display="NeGD ITPO" xr:uid="{9A13E166-2E5F-4C1B-9632-D618CC9EF424}"/>
+    <hyperlink ref="B20" location="'DIC NOC'!A1" display="DIC NOC" xr:uid="{D25B1151-328E-45A9-9B48-14CDF23CC8A7}"/>
+    <hyperlink ref="B22" location="'MMRDA BTRS'!A1" display="MMRDA BTRS" xr:uid="{DA24FFCF-8877-4BF5-8DE9-38F6A2F92590}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{686FFF4E-1F9A-49E7-AF84-DFAABCBA99BA}">
+          <x14:cfRule type="dataBar" id="{12B32C9D-117F-46BA-B00D-A825E773DF37}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4024,7 +4165,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S2:X22 O2:Q22</xm:sqref>
+          <xm:sqref>T2:Y22 P2:R22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0DD2F7-1948-4F03-AA43-8D89A51A2D10}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F7B739-90A7-4FE3-813B-AB5AFF9FF6AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="288">
   <si>
     <t>SN</t>
   </si>
@@ -511,18 +511,6 @@
 Release of 25% retention/withheld amount -- In progress.</t>
   </si>
   <si>
-    <t>Support Started from 1st July 2024.
-Installation is complete for FRS &amp; UHF system for main gate.
-Received WO for kk &amp; cruise gate on 3rd Oct 24, to be completed in 3 months (03-Jan-2024) -- Taken exclusion as both Gates not ready from NMPT.
-KK Gate - 2 lanes system installed on temporary basis; Cabling provision is done for installation at both KK &amp; cruise gate.
-CAMC Billing done till May-25.</t>
-  </si>
-  <si>
-    <t>Regular maintenance activities.
-Support activities for UHF Reader, HF Reader, and FRS applications; Official Go-live expected but payment for the milestone is received from NMPT (177 L ~ on 22-Aug-25).
-Payment collection for Apr-25 to May-25 CAMC invoices.</t>
-  </si>
-  <si>
     <t>SITC for --.
 1] 20 ECB.
 2] 20 PA.
@@ -569,9 +557,6 @@
     <t>PENSION FUND REGULATORY AND DEVELOPMENT AUTHORITY - PFRDA</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>DIGITAL INDIA CORP - NATIONAL HIGHWAY AUTHORITY OF INDIA</t>
   </si>
   <si>
@@ -651,18 +636,6 @@
 Implementation of Registration &amp; Validation including Mobile OTP, GST validation, Aadhaar integration, and User Authorization.
 Enable Application Submission with GIS data pickup, document upload, affidavit submission, e-sign, payment gateway, and Q&amp;A module.
 Workflow automation for Right of Way (ROW) applications with end-to-end submission tracking.</t>
-  </si>
-  <si>
-    <t>11 resources are deployed on this project.
-Development is completed from our side -- Data is awaited from Morth &amp; NHAI to test the Application -- Expected by Sept 3rd week.
-A total of 21 Man Months has been consumed till 5th Sept 25 in the Project.</t>
-  </si>
-  <si>
-    <t>Application testing after Data is received.
-Work Order / LOI to be received.</t>
-  </si>
-  <si>
-    <t>Work Order / LOI to be received.</t>
   </si>
   <si>
     <t>NeGD ITPO</t>
@@ -724,65 +697,10 @@
     <t>Discussion with OEM to be initiated post receiving of LOI</t>
   </si>
   <si>
-    <t>All critical resources have been onboarded.
-All AMJ quarter data has been sent to the client for releasing 80% payment.
-Successfully delivering the weekly dwell time report – an ad-hoc requirement apart from CR/in-application work.
-New technology upgrade planning is in progress.
-Received 80% payment for FM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalizing the new technology upgrade.
-Finalizing the SLA document (except 3 pending points).
-Closing all approvals for AMJ (for 20% payment).
-Initiated approvals for July.
-Payment release discussion for Tatwa with Avdhoot.
-</t>
-  </si>
-  <si>
-    <t>From WZU, we require the SOP and process changes for each approval, as WZU has recently revised the approval procedure.
-Productivity challenges observed among a few employees.
-Certain SLA parameters are challenging to achieve.
-Attendance marking on the CBIC portal for absent employees.
-RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>from Purchase team finalize server and storage AMC ASAP.</t>
-  </si>
-  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-&gt; UI/UX developer joining in progress client approval pending.
--&gt; 3rd Qtr Invoice and all details submit to PDMC for SLA calculation.
--&gt; Server, Storage &amp;Tape library HDD AMC Required -- Pending from Vendor and purchase team.
--&gt; WLD Display installation pending from Siemens Vendor.
--&gt; ISO 27001 Documents work in progress.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-&gt; Payment file move from consultant to Client for note sheet and approval. 
--&gt; Follow up for approval to UI/UX developer joining
--&gt; Follow up for WLD display and server storage to our purchase team.
-</t>
-  </si>
-  <si>
-    <t>1] Hold 11 ATCS and 9 ITMS junction work letter received from ISCDL for complete the work.
-2] Hold 3 TVDS, 3 SVDS, 19 PTZ location work letter received from ISCDL for complete the work.
-3] Submitted invoices for completed work including other recurring cost are verified and under signing process by ISCDL team. 
-4] CAPEX cost of 2.43CR note sheet are ready for CEO sign and approval.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] On Monday dt: - 15-09-2025, CEO sir will join the office, Post CDO sir will submit the note sheet for CEO sir sign and approval.
-2] Hold junction CAPEX cost approval submitted at ISCDL and briefed to CDO sir for CEO sir approval.
-3] With the discussion with CEO sir, CDO Sir will release the GO-Live letter. </t>
-  </si>
-  <si>
-    <t>1] Work approval required from HO for the execution of ISCDL letter for 11 ATCS junctions, 9 ITMS junctions, 3 SVDS, 3 TVDS and 19 PTZs.
-2] Material approval including dispatching required as per site consumption report.
-3] Still no clarity received from Smart city regarding the availability of Payment receipt from different resources.</t>
   </si>
   <si>
     <t>search_db</t>
@@ -885,24 +803,6 @@
     <t>VMD module request but approval pending - If not supply timely client impose penalty.
 ATCS controller procurement pending from last 2 month.
 New VMD controller and VMD application deployment pending from last one year.</t>
-  </si>
-  <si>
-    <t>1. PA, ECB, EVS, EVS poles, VMD display delivered at Site 
-2. PA/ ECB, EVS, VMD, GIS applications delivered at site.
-3. EVS pole foundation and pole installation done 10 Nos.
-4. VMD pole foundation - 6/10 completed.
-5. All SRS FRS and UAT documents submitted and approved except PA, ECB, EVS UAT approval pending. Work in progress.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.UAT documents approval for ECB EVS and PA
-2. ECB enclosure box delivery at site 
-3. VMD poles delivery at site.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. VMD poles delivery at site is a very big challenge within 22nd September '25. 
-2. ECB enclosure should be delivered at site by 20th September '25.
-</t>
   </si>
   <si>
     <t xml:space="preserve">	Primary &amp; Backup Servers – Fully configured, tested, delivered, and installed; ready for use. Powered up and activity in progress.
@@ -994,27 +894,6 @@
 - I am raising this concern in advance for billing purposes, to ensure transparency and proper planning.
 Request:
 Kindly review the current resource allocation and advise on how we should proceed to align both delivery and billing expectations.</t>
-  </si>
-  <si>
-    <t>-&gt;  System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed -- Same is billed &amp; payment collected for SRS &amp; UAT milestone.
--&gt;  Go-Live done on 19th May 2025.
--&gt;  Helpdesk set-up done.
--&gt;  Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
-  </si>
-  <si>
-    <t>-&gt;  Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
--&gt;  Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
--&gt;  VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
--&gt;  Payment collection for implementation milestone.
--&gt;  Billing for remaining milestones.</t>
-  </si>
-  <si>
-    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
-a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
-b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
-c) Energy billing system that coverers consumer’s energy monitoring and billing
--&gt; &gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
--&gt; &gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
   </si>
   <si>
     <t>search_db1</t>
@@ -1178,6 +1057,234 @@
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
+  </si>
+  <si>
+    <t>Project Manager / Lead</t>
+  </si>
+  <si>
+    <t>Amit K</t>
+  </si>
+  <si>
+    <t>Anoop K</t>
+  </si>
+  <si>
+    <t>Dhananjay J</t>
+  </si>
+  <si>
+    <t>Rahul S / Asmita S</t>
+  </si>
+  <si>
+    <t>Dharmendra J</t>
+  </si>
+  <si>
+    <t>Mukul K / Agam V</t>
+  </si>
+  <si>
+    <t>Sourav M / Ravi R</t>
+  </si>
+  <si>
+    <t>Sachin S</t>
+  </si>
+  <si>
+    <t>Saleel H</t>
+  </si>
+  <si>
+    <t>Prashant P</t>
+  </si>
+  <si>
+    <t>Sachin R</t>
+  </si>
+  <si>
+    <t>Akash K</t>
+  </si>
+  <si>
+    <t>Priya R</t>
+  </si>
+  <si>
+    <t>Arindam R</t>
+  </si>
+  <si>
+    <t>Jaywant P</t>
+  </si>
+  <si>
+    <t>Brayan F</t>
+  </si>
+  <si>
+    <t>Pradeep N</t>
+  </si>
+  <si>
+    <t>Raghavendra P</t>
+  </si>
+  <si>
+    <t>Vinod S</t>
+  </si>
+  <si>
+    <t>FM 20% Payment processed is with accounts team
+Additional approval has been provided for AMJ.
+AMJ 80% is in final calculations with Admin team.
+4 out of 10 Saadhit Plan tasks have been delivered. The remaining tasks are in progress and planned for production deployment.
+Shared 1st Draft of Technology Upgrade documentation with WZU as its was part of this Quarter Delivery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 to 5 out of 6 Saadhit Plan tasks are in progress and planned for production deployment by the quarter end.
+Getting Approval on Application Uptime SLA 6.1
+Getting Approval on AMJ from ADG Sir
+Close MIS Developer Position.
+Getting TAT for JF20% payment.
+Meeting between CMS Management &amp; WZU for technology Upgrade.
+SLA Methodology Finalization meeting along with Technology Upgrade.
+Approval for Consolidated  SLA Letters : 4.1_4.9 / 5.1_5.3 / 8.1_8.3 /  7.1_/ 7.3  and 6.1 for the period 15th February 2025 to 31st March 2025. </t>
+  </si>
+  <si>
+    <t>SOP and process changes are required for each approval, as WZU has recently revised the approval procedure.
+Productivity challenges have been observed among a few employees; recruitment for two positions needs to be initiated.
+Certain SLA parameters continue to be challenging to achieve.
+Attendance marking issues have been noted on the CBIC portal for overlapping employee periods.
+WZU is conducting an RCA regarding full attendance marking on the CBIC portal by CMS for the past months. A few verification questions have been shared for review and response.
+Attendance approval for July has been raised by WZU.</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 1
+1. Print option to include the header of subject – List of Holidays observed during the calendar year ….. (Done)
+2. Movement, sent to, sent from, purpose, status is not covered. (Done ) 
+Note: For Movement -""Sent to"", ""Sent from"" should correctly shown on action perform)
+3. Maker Checker to be covered (Done )
+4.On approval, calendar all over ERP to highlight RH, Public holidays, Saturday, Sundays in different colour. (On Dashboard Calender Description of  holiday name is required when user click on particular date of Holiday)-Done
+5.Leave rules/business logic should also consider the RH, Public holiday, Saturday, Sundays while calculating no. of days based on logics set.(Done)
+Section 2
+1. Applying for multiple types of leave is not covered. Leave Type – Multi-selection of leave option as per business rules (CMS: New Feature)
+2. Reason – Drop down to be available along with any other option. (CMS: Client already removed this requirement, now the client again wants this requirement)
+3. Station leave period is different from leave applied period, therefore, after you want to apply for station leave, from and to date of station leave to be get captured. (CMS: Resolved)
+4. Do you want to apply for station leave – ‘also’ after station leave word to be added (CMS: Not to Implemented, a separate leave type STNL is added instead).
+5. Contact no. while of leave - Check box to select contact as available in office records / update different contact no. (CMS: Resolved)
+6. Option to add multiple station leave to be available.(CMS: New Feature)
+7. The slot is to be opened only upon selection of casual leave. Except for casual leave, no half day is allowed for any other type of leave.  (CMS: Resolved)
+8. After selection of from &amp; to date and slot selection – no. of days leave applied to be viewed. (CMS: Resolved)
+9. Related document – view option to be available . (CMS: As per Discussion – View Detail screen is already present)
+10.Before submission, message pop up before final submission. (CMS: As per Discussion –Not to be Implement).
+11. While selecting date from calendar RH, Public holidays, Saturday, Sundays are to be shown in different colour. (CMS: Provision is already implemented)
+12. Leave rules/business logic should also consider the RH, Public holiday, Saturday, Sundays while calculating no. of days based on logics set. (CMS: Resolved)
+13. On selection of from and to date- no. of days to get auto-calculated considering RH, Public holiday, Saturday, Sundays, and applicable business logics. (CMS: Resolved)
+14. How to apply only for station leave is not clear. CMS: Leave Type for Station Leave is already implemented
+Notification on leave submission/ approval/ return to be shown under dashboard, e-mail, message is not covered. (CMS: New Feature, not feasible)
+15. Applying for station leave only is not allowed in the given UAT. Error is shown. (CMS: Resolved)
+16. In case of dual reporting, how leave to be get approved or to whom it will sent is not clear. Information of leave to be available with both the reporting officers. (CMS: Approval flow is already implemented; not feasible at this moment)
+17. In case of reporting officer is on leave, pull option is available with officer to send leave to alternate reporting office / next higher authority by searching name of the officer and send option.  (CMS: Approval flow is already implemented; not feasible at this moment)
+</t>
+  </si>
+  <si>
+    <t>Mobile Application – Apple iOS
+UAT observations of IT, Admin and Legal modules
+Go live compliance documentation in line with the RFP
+VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.</t>
+  </si>
+  <si>
+    <t>ODOO resources for completion of pending tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd Quarter manpower &amp; O&amp;M billing done and Payment received.
+Capex 60% Payment received.
+Data center upgradation work done.
+2% New BOQ O&amp;M Bill submit for payment to client.
+3rd Quarter O&amp;M and Manpower bill submit to client for payment.
+Today our File for final SLA calculation from consultant side, tomorrow or Monday submit to client for payment process.
+ISO certification work in progress.
+WLD display work complete.
+</t>
+  </si>
+  <si>
+    <t>Payment file process from client to accounts.
+ISO Certificate work in progress
+UI/UX Developer joining approval pending from client end.
+Vertiv and Sudhir sales vendor payment pending from our Purchase team.</t>
+  </si>
+  <si>
+    <t>Tape Library HDD not functional , already  inform to HO and purchase team.
+San storage management console access required. already  inform to HO and purchase team.
+Switch Required but client end approval not received.
+Old Server AMC required. already  inform to HO and purchase team
+SAN Switch AMC Required. already  inform to HO and purchase team
+UI/UX Manpower Joining pending.
+Minimum Wages issue not resolved from HR end.ISO 27001 Certificate pending dependencies from client end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. KK Gate and Cruise gate installation work is in progress.
+2. Turnstile rectification should be done at the earliest to avoid penalties. 
+3. Awaiting materials from purchase team to complete the installation of visual alarm for each camera @ NMPA
+</t>
+  </si>
+  <si>
+    <t>1. completion of KK gate and Cruise gate RFID\FRS system installation.
+2. Turnstile issue rectification
+3. CAMC Bill submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 39 ATCS out of 50, 19 ITMS out of 28, 17 SVDS out of 20, 7 TVDS out of 10, 20 Entry-Exit Junction and Location completed.
+2. Hold 11 ATCS and 9 ITMS junction work letter received from ISCDL.
+3. Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received from ISCDL.
+4. Hold junction CAPEX cost submitted at ISCDL for cost approval and Billing.
+5. Submitted invoices for completed work including other recurring cost are under verification by CDO sir and ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.
+</t>
+  </si>
+  <si>
+    <t>1. Hold junction CAPEX cost approval verified by ISCDL team and will received approval on Monday dt:- 22-09-2025.
+2. Payment of 50 Lakh will be released by upcoming week.
+3. New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL.
+4. As per CDO sir, Go-Live note will be carried on Tuesday, post they will released the Go-live letter in week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Post the ISCDL cost approval, Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All SRS , FRS and UAT documents submitted and approved by PMC team. 
+6 Nos. VMD poles foundation done. Rest of the locations marking done by PMC on 18/09/2025. </t>
+  </si>
+  <si>
+    <t>4 Nos.VMD foundation to be done.
+ECB enclosure foundation to be started.</t>
+  </si>
+  <si>
+    <t>VMD poles delivery 
+ECB enclosure delivery.</t>
+  </si>
+  <si>
+    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
+a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
+b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
+c) Energy billing system that coverers consumer’s energy monitoring and billing
+#&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
+#&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
+  </si>
+  <si>
+    <t>Total 9 modules (functionalities to be developed in this project.
+Completed - 4
+In progress - 3
+Pending (dependencies from Client) - 2
+-&gt; Module-wise Status with remarks as below; 
+1] UIDAI Aadhaar Integration - Pending -Awaiting initiation and final approvals.
+2] CDAC E-Sign Integration - Completed - Fully integrated and tested.
+3] Bharatkosh Payment Integration - Completed - Live and functional.
+4] GIS Data Cleaning - In Progress - Data refinement activities underway.
+5] GIS Data (Geo Server Setup) - Pending - Geo Server establishment blocked due to Docker image support issue; Shridhar is investigating. MoRTH confirmation is still awaited.
+6] PA/CA/AE/IE User Data Cleaning - In Progress - User data validation and cleaning ongoing.
+7] Amenity Listing - Completed - Finalized and ready for use.
+8] Utility Listing -In Progress - Listing and validation activities ongoing.
+9] Compliance Questions - Completed - Reviewed and approved.</t>
+  </si>
+  <si>
+    <t>1] Work Order / LOI to be received.
+2] Expedite resolution of Geo Server/Docker issue.
+3] Obtain MoRTH confirmation for GIS data provisioning.
+4] Initiate UIDAI Aadhaar integration post prerequisites.</t>
+  </si>
+  <si>
+    <t>●	GIS Data / Geo Server: Docker image issue hindering setup; pending MoRTH confirmation.
+●	UIDAI Aadhaar Integration: Implementation to begin after receiving required approvals and environment setup.
+●	Template creation for Provisional License and Final License.</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1444,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -1366,9 +1473,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1376,7 +1482,89 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="45">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <top style="double">
+          <color rgb="FF196B24"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF196B24"/>
+          <bgColor rgb="FF196B24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF196B24"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF196B24"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF196B24"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF196B24"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1706,9 +1894,20 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9038EDC6-3E22-48B9-8A09-9B8C7DFBDBE1}"/>
     <tableStyle name="TableStyleLight11 2" pivot="0" count="9" xr9:uid="{1E60FCDE-5A09-4372-B824-E4AB8FBDEE06}">
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="totalRow" dxfId="42"/>
+      <tableStyleElement type="firstColumn" dxfId="41"/>
+      <tableStyleElement type="lastColumn" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
+    </tableStyle>
+    <tableStyle name="TableStyleLight11 3" pivot="0" count="9" xr9:uid="{50B5B5AC-24D8-4D32-8305-B72B3E996F08}">
       <tableStyleElement type="wholeTable" dxfId="35"/>
       <tableStyleElement type="headerRow" dxfId="34"/>
       <tableStyleElement type="totalRow" dxfId="33"/>
@@ -1719,7 +1918,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="28"/>
       <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
-    <tableStyle name="TableStyleLight11 3" pivot="0" count="9" xr9:uid="{50B5B5AC-24D8-4D32-8305-B72B3E996F08}">
+    <tableStyle name="TableStyleLight11 4" pivot="0" count="9" xr9:uid="{0257A0D0-02DF-499D-9088-F03ED9E359A1}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -1730,7 +1929,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="19"/>
       <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="TableStyleLight11 4" pivot="0" count="9" xr9:uid="{0257A0D0-02DF-499D-9088-F03ED9E359A1}">
+    <tableStyle name="TableStyleLight11 5" pivot="0" count="9" xr9:uid="{668C39AF-31FD-42BB-A4E1-F7B2162CEF2E}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -1741,7 +1940,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
       <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="TableStyleLight11 5" pivot="0" count="9" xr9:uid="{668C39AF-31FD-42BB-A4E1-F7B2162CEF2E}">
+    <tableStyle name="TableStyleLight11 6" pivot="0" count="9" xr9:uid="{93E7F571-994F-4D29-82C6-F70123559CC0}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="totalRow" dxfId="6"/>
@@ -2140,19 +2339,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="9.140625" style="1"/>
     <col min="14" max="15" width="9.140625" style="2"/>
     <col min="25" max="25" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="2"/>
+    <col min="26" max="26" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2160,10 +2362,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -2237,11 +2439,14 @@
       <c r="AB1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="8" t="s">
-        <v>244</v>
+      <c r="AC1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2249,7 +2454,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>26</v>
@@ -2297,25 +2502,25 @@
         <v>31</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>33</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="Z2" s="16">
         <v>45918</v>
@@ -2326,11 +2531,14 @@
       <c r="AB2" s="4">
         <v>0.4323402397342212</v>
       </c>
-      <c r="AC2" s="17" t="s">
-        <v>200</v>
+      <c r="AC2" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2338,10 +2546,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>27</v>
@@ -2386,7 +2594,7 @@
         <v>35</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>36</v>
@@ -2395,16 +2603,16 @@
         <v>37</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="X3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="Z3" s="16">
         <v>45918</v>
@@ -2415,11 +2623,14 @@
       <c r="AB3" s="4">
         <v>0.19000000008625473</v>
       </c>
-      <c r="AC3" s="17" t="s">
-        <v>201</v>
+      <c r="AC3" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2427,10 +2638,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>27</v>
@@ -2484,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>44</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="Z4" s="16">
         <v>45919</v>
@@ -2504,11 +2715,14 @@
       <c r="AB4" s="4">
         <v>0.11942473989981339</v>
       </c>
-      <c r="AC4" s="17" t="s">
-        <v>202</v>
+      <c r="AC4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2516,10 +2730,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>45</v>
@@ -2564,7 +2778,7 @@
         <v>50</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>51</v>
@@ -2573,19 +2787,19 @@
         <v>52</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>53</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="Z5" s="16">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="AA5" s="4">
         <v>0.41621469835230751</v>
@@ -2593,11 +2807,14 @@
       <c r="AB5" s="4">
         <v>0.33027289323308273</v>
       </c>
-      <c r="AC5" s="17" t="s">
-        <v>203</v>
+      <c r="AC5" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD5" s="17" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2605,10 +2822,10 @@
         <v>54</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>27</v>
@@ -2653,7 +2870,7 @@
         <v>58</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="T6" s="15" t="s">
         <v>59</v>
@@ -2661,20 +2878,20 @@
       <c r="U6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>242</v>
+      <c r="V6" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="X6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Y6" s="15">
-        <v>0</v>
+      <c r="Y6" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="Z6" s="16">
-        <v>45897</v>
+        <v>45918</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>47</v>
@@ -2682,11 +2899,14 @@
       <c r="AB6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="17" t="s">
-        <v>145</v>
+      <c r="AC6" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2694,10 +2914,10 @@
         <v>62</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>27</v>
@@ -2742,7 +2962,7 @@
         <v>65</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="T7" s="15" t="s">
         <v>66</v>
@@ -2751,16 +2971,16 @@
         <v>67</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="X7" s="15" t="s">
         <v>68</v>
       </c>
       <c r="Y7" s="15" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="Z7" s="16">
         <v>45917</v>
@@ -2771,11 +2991,14 @@
       <c r="AB7" s="4">
         <v>0.32590705634920647</v>
       </c>
-      <c r="AC7" s="17" t="s">
-        <v>204</v>
+      <c r="AC7" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD7" s="17" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2783,10 +3006,10 @@
         <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>27</v>
@@ -2831,22 +3054,22 @@
         <v>70</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T8" s="15" t="s">
         <v>71</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="Y8" s="15">
         <v>0</v>
@@ -2860,11 +3083,14 @@
       <c r="AB8" s="4">
         <v>0.10999999996973608</v>
       </c>
-      <c r="AC8" s="17" t="s">
-        <v>205</v>
+      <c r="AC8" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD8" s="17" t="s">
+        <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2920,7 +3146,7 @@
         <v>76</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="T9" s="15" t="s">
         <v>77</v>
@@ -2929,19 +3155,19 @@
         <v>78</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="X9" s="15" t="s">
         <v>79</v>
       </c>
       <c r="Y9" s="15" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="Z9" s="16">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="AA9" s="4">
         <v>0.19540000015149273</v>
@@ -2949,11 +3175,14 @@
       <c r="AB9" s="4">
         <v>0.11441806775377272</v>
       </c>
-      <c r="AC9" s="17" t="s">
+      <c r="AC9" s="28" t="s">
         <v>72</v>
       </c>
+      <c r="AD9" s="17" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2961,7 +3190,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>80</v>
@@ -3038,11 +3267,14 @@
       <c r="AB10" s="4">
         <v>0.51229508024724535</v>
       </c>
-      <c r="AC10" s="17" t="s">
-        <v>206</v>
+      <c r="AC10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3050,10 +3282,10 @@
         <v>87</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>88</v>
@@ -3098,7 +3330,7 @@
         <v>91</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>92</v>
@@ -3107,10 +3339,10 @@
         <v>93</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>135</v>
+        <v>277</v>
       </c>
       <c r="X11" s="15" t="s">
         <v>79</v>
@@ -3119,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="16">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="AA11" s="4">
         <v>-0.25967603526289684</v>
@@ -3127,11 +3359,14 @@
       <c r="AB11" s="4">
         <v>0.12040585230689282</v>
       </c>
-      <c r="AC11" s="17" t="s">
-        <v>150</v>
+      <c r="AC11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD11" s="17" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3139,10 +3374,10 @@
         <v>94</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>45</v>
@@ -3187,7 +3422,7 @@
         <v>97</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="T12" s="15" t="s">
         <v>98</v>
@@ -3196,16 +3431,16 @@
         <v>99</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="X12" s="15" t="s">
         <v>79</v>
       </c>
       <c r="Y12" s="15" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Z12" s="16">
         <v>45915</v>
@@ -3216,11 +3451,14 @@
       <c r="AB12" s="4">
         <v>0.18000000439604424</v>
       </c>
-      <c r="AC12" s="17" t="s">
-        <v>151</v>
+      <c r="AC12" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3228,7 +3466,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>100</v>
@@ -3276,7 +3514,7 @@
         <v>101</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="T13" s="15" t="s">
         <v>102</v>
@@ -3285,16 +3523,16 @@
         <v>103</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="X13" s="15" t="s">
         <v>79</v>
       </c>
       <c r="Y13" s="15" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="Z13" s="16">
         <v>45915</v>
@@ -3305,11 +3543,14 @@
       <c r="AB13" s="4">
         <v>0.2046391013686556</v>
       </c>
-      <c r="AC13" s="17" t="s">
-        <v>210</v>
+      <c r="AC13" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD13" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3317,10 +3558,10 @@
         <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>45</v>
@@ -3365,7 +3606,7 @@
         <v>106</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="T14" s="15" t="s">
         <v>107</v>
@@ -3374,19 +3615,19 @@
         <v>108</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="X14" s="15" t="s">
         <v>79</v>
       </c>
       <c r="Y14" s="15" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="Z14" s="16">
-        <v>45910</v>
+        <v>45919</v>
       </c>
       <c r="AA14" s="4">
         <v>0.2022725498365231</v>
@@ -3394,11 +3635,14 @@
       <c r="AB14" s="4">
         <v>-0.204144834903355</v>
       </c>
-      <c r="AC14" s="17" t="s">
-        <v>211</v>
+      <c r="AC14" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3406,10 +3650,10 @@
         <v>109</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>45</v>
@@ -3454,7 +3698,7 @@
         <v>112</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T15" s="15" t="s">
         <v>113</v>
@@ -3463,16 +3707,16 @@
         <v>114</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="W15" s="15" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="X15" s="15" t="s">
         <v>115</v>
       </c>
       <c r="Y15" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="Z15" s="16">
         <v>45915</v>
@@ -3483,11 +3727,14 @@
       <c r="AB15" s="4">
         <v>-9.5509698226650848</v>
       </c>
-      <c r="AC15" s="17" t="s">
-        <v>153</v>
+      <c r="AC15" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD15" s="17" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3495,7 +3742,7 @@
         <v>116</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>116</v>
@@ -3543,28 +3790,28 @@
         <v>120</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T16" s="15" t="s">
         <v>113</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="W16" s="15" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="X16" s="15">
         <v>0</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="Z16" s="16">
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="AA16" s="4">
         <v>0.36662132665084957</v>
@@ -3572,11 +3819,14 @@
       <c r="AB16" s="4">
         <v>0.20000000003501683</v>
       </c>
-      <c r="AC16" s="17" t="s">
-        <v>212</v>
+      <c r="AC16" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3584,10 +3834,10 @@
         <v>121</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>45</v>
@@ -3632,7 +3882,7 @@
         <v>123</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="T17" s="15" t="s">
         <v>124</v>
@@ -3641,16 +3891,16 @@
         <v>125</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="W17" s="15" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="X17" s="15">
         <v>0</v>
       </c>
       <c r="Y17" s="15" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="Z17" s="16">
         <v>45919</v>
@@ -3661,11 +3911,14 @@
       <c r="AB17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="17" t="s">
-        <v>213</v>
+      <c r="AC17" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD17" s="17" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3673,10 +3926,10 @@
         <v>126</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>45</v>
@@ -3688,31 +3941,31 @@
         <v>171.31355932203391</v>
       </c>
       <c r="H18" s="12">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
       </c>
       <c r="J18" s="12">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="K18" s="12">
         <v>0</v>
       </c>
       <c r="L18" s="13">
-        <v>171.31355932203391</v>
+        <v>15.81355932203391</v>
       </c>
       <c r="M18" s="12">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="N18" s="12">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>128</v>
       </c>
       <c r="P18" s="14">
-        <v>0</v>
+        <v>0.90769230769230758</v>
       </c>
       <c r="Q18" s="15" t="s">
         <v>129</v>
@@ -3721,25 +3974,25 @@
         <v>130</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="U18" s="28" t="s">
-        <v>243</v>
+      <c r="U18" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="W18" s="15" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="Y18" s="15" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="Z18" s="16">
         <v>45917</v>
@@ -3750,22 +4003,25 @@
       <c r="AB18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="17" t="s">
-        <v>214</v>
+      <c r="AC18" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD18" s="17" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>27</v>
@@ -3798,37 +4054,37 @@
         <v>11.135999999999999</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P19" s="14">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="T19" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="R19" s="15" t="s">
+      <c r="U19" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="S19" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="V19" s="15" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="Z19" s="16">
         <v>45917</v>
@@ -3839,22 +4095,25 @@
       <c r="AB19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="17" t="s">
-        <v>215</v>
+      <c r="AC19" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD19" s="17" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>27</v>
@@ -3896,31 +4155,31 @@
         <v>79</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T20" s="15" t="s">
         <v>79</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>172</v>
+        <v>286</v>
       </c>
       <c r="X20" s="15">
         <v>0</v>
       </c>
       <c r="Y20" s="15" t="s">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="Z20" s="16">
-        <v>45910</v>
+        <v>45919</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>47</v>
@@ -3928,22 +4187,25 @@
       <c r="AB20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="17" t="s">
-        <v>166</v>
+      <c r="AC20" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD20" s="17" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>27</v>
@@ -3976,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P21" s="14">
         <v>0</v>
@@ -3985,28 +4247,28 @@
         <v>30</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="X21" s="15">
         <v>0</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="Z21" s="16">
         <v>45916</v>
@@ -4017,22 +4279,25 @@
       <c r="AB21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="17" t="s">
-        <v>216</v>
+      <c r="AC21" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>45</v>
@@ -4063,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P22" s="24">
         <v>0</v>
@@ -4072,22 +4337,22 @@
         <v>0</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="S22" s="25">
         <v>0</v>
       </c>
       <c r="T22" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="V22" s="25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="W22" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="X22" s="25">
         <v>0</v>
@@ -4104,8 +4369,11 @@
       <c r="AB22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="27" t="s">
-        <v>217</v>
+      <c r="AC22" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD22" s="27" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4118,40 +4386,40 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{12B32C9D-117F-46BA-B00D-A825E773DF37}</x14:id>
+          <x14:id>{99D6CA3F-ACAE-48DE-B818-3F224D3A7AB3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" location="'INVEST INDIA'!A1" display="INVEST INDIA" xr:uid="{0A059B53-86A2-4BD5-B304-A1F9EDB5CCBF}"/>
-    <hyperlink ref="B3" location="'SBM-U'!A1" display="SBM-U" xr:uid="{2C27BEF6-F9BF-4141-BB30-952031BB0AF1}"/>
-    <hyperlink ref="B4" location="ORGI!A1" display="ORGI" xr:uid="{42193DAA-E39B-4590-8F06-EAF7EDC91FFC}"/>
-    <hyperlink ref="B5" location="'ECCS NEW'!A1" display="ECCS NEW" xr:uid="{A88BD44F-33C3-4E17-80B2-0B1EBEE11FCB}"/>
-    <hyperlink ref="B6" location="PFRDA!A1" display="PFRDA" xr:uid="{1BD5CA0A-83BA-4EF9-ACA1-C79EF9EF2654}"/>
-    <hyperlink ref="B7" location="'DIC NHAI'!A1" display="DIC NHAI" xr:uid="{711EF8A2-E4BA-4F77-B76F-38287C6A9603}"/>
-    <hyperlink ref="B8" location="DAnFW!A1" display="DAnFW" xr:uid="{07484B2A-D47E-4F63-A7F1-37D3ABA7FE7E}"/>
-    <hyperlink ref="B9" location="'GWALIOR SC ICCC'!A1" display="GWALIOR SC ICCC" xr:uid="{A9392BB5-1F71-4381-83BB-F9BAAB64D3C4}"/>
-    <hyperlink ref="B10" location="'Kanpur SC O&amp;M'!A1" display="Kanpur SC O&amp;M" xr:uid="{E49489C8-EC26-4FB2-847B-C4E0A4A016BE}"/>
-    <hyperlink ref="B11" location="NMPT!A1" display="NMPT" xr:uid="{D82B10E7-0484-4F22-AD47-CE1ED01B685B}"/>
-    <hyperlink ref="B12" location="'Vadodara Traffic'!A1" display="Vadodara VMC Traffic" xr:uid="{66BB12D2-2EA3-4D3C-B1E2-2E8DB4F90BC9}"/>
-    <hyperlink ref="B13" location="'VADODARA ICCC'!A1" display="VADODARA ICCC" xr:uid="{47C78BF6-CFAE-4B76-B86A-F3C4B4C26CC5}"/>
-    <hyperlink ref="B14" location="ISCDL!A1" display="ISCDL" xr:uid="{9BD7AF3A-6382-47F7-B58B-E6228E302437}"/>
-    <hyperlink ref="B15" location="IREL!A1" display="IREL" xr:uid="{75DF3197-10D4-4018-8E9F-526E1B494C68}"/>
-    <hyperlink ref="B16" location="'Guwahati SC'!A1" display="Guwahati SC" xr:uid="{D65ABDE8-5324-443D-98C8-783C6BF31F62}"/>
-    <hyperlink ref="B17" location="'MCS - L&amp;T'!A1" display="MCS - L&amp;T" xr:uid="{B449BF1F-5D63-4F1C-8D2B-BD134381C8DC}"/>
-    <hyperlink ref="B18" location="JNPA!A1" display="JNPA" xr:uid="{068C2F46-AC61-42D7-A25C-B5021741F6F2}"/>
-    <hyperlink ref="B19" location="'DIC ROB'!A1" display="DIC ROB" xr:uid="{3FAF7323-193D-418B-AD63-D56716CF0D15}"/>
-    <hyperlink ref="B21" location="'NeGD ITPO'!A1" display="NeGD ITPO" xr:uid="{9A13E166-2E5F-4C1B-9632-D618CC9EF424}"/>
-    <hyperlink ref="B20" location="'DIC NOC'!A1" display="DIC NOC" xr:uid="{D25B1151-328E-45A9-9B48-14CDF23CC8A7}"/>
-    <hyperlink ref="B22" location="'MMRDA BTRS'!A1" display="MMRDA BTRS" xr:uid="{DA24FFCF-8877-4BF5-8DE9-38F6A2F92590}"/>
+    <hyperlink ref="B2" location="'INVEST INDIA'!A1" display="INVEST INDIA" xr:uid="{0F92F2C8-D503-4658-B777-EE1C8496ED95}"/>
+    <hyperlink ref="B3" location="'SBM-U'!A1" display="SBM-U" xr:uid="{9C671E16-5CEF-40F8-994F-DDD4927A013D}"/>
+    <hyperlink ref="B4" location="ORGI!A1" display="ORGI" xr:uid="{9DA02DF2-46B2-49E5-AB9A-3EFFA1F08DA5}"/>
+    <hyperlink ref="B5" location="'ECCS NEW'!A1" display="ECCS NEW" xr:uid="{EFC90BCD-6AF4-4DC6-9303-204D3A16EF11}"/>
+    <hyperlink ref="B6" location="PFRDA!A1" display="PFRDA" xr:uid="{6CBE9B2C-238D-4CED-AE49-B3CDDCFAB660}"/>
+    <hyperlink ref="B7" location="'DIC NHAI'!A1" display="DIC NHAI" xr:uid="{2D678338-01F0-4776-A897-9970D5ABA340}"/>
+    <hyperlink ref="B8" location="DAnFW!A1" display="DAnFW" xr:uid="{3186618D-A409-489C-B913-30D824687243}"/>
+    <hyperlink ref="B9" location="'GWALIOR SC ICCC'!A1" display="GWALIOR SC ICCC" xr:uid="{79E351BC-38D3-4DED-966D-399F3FEF5E71}"/>
+    <hyperlink ref="B10" location="'Kanpur SC O&amp;M'!A1" display="Kanpur SC O&amp;M" xr:uid="{A7BEBB1F-ECC5-41EA-BD5F-40422839ADB9}"/>
+    <hyperlink ref="B11" location="NMPT!A1" display="NMPT" xr:uid="{202637E6-85A7-4D4E-B867-4E8CF6C896DF}"/>
+    <hyperlink ref="B12" location="'Vadodara Traffic'!A1" display="Vadodara VMC Traffic" xr:uid="{82D40EFC-7A4E-4860-9AA8-25174C6138F8}"/>
+    <hyperlink ref="B13" location="'VADODARA ICCC'!A1" display="VADODARA ICCC" xr:uid="{A3E47A8E-1E92-4E87-B9E2-2B009064DEEC}"/>
+    <hyperlink ref="B14" location="ISCDL!A1" display="ISCDL" xr:uid="{E3E64F04-B83F-4F3E-B563-D1503CB0B8FF}"/>
+    <hyperlink ref="B15" location="IREL!A1" display="IREL" xr:uid="{ADFB8234-B4B5-4A21-9CC4-5F5B6D0A81D1}"/>
+    <hyperlink ref="B16" location="'Guwahati SC'!A1" display="Guwahati SC" xr:uid="{51070F03-00A4-4D62-895A-7B1DA89526AA}"/>
+    <hyperlink ref="B17" location="'MCS - L&amp;T'!A1" display="MCS - L&amp;T" xr:uid="{94C8C767-57E2-4BD6-914D-67DB5D580190}"/>
+    <hyperlink ref="B18" location="JNPA!A1" display="JNPA" xr:uid="{611383E6-5047-4AC1-B881-CD76074DE63A}"/>
+    <hyperlink ref="B19" location="'DIC ROB'!A1" display="DIC ROB" xr:uid="{CB26752F-E068-4934-AD7C-D18C6C303F86}"/>
+    <hyperlink ref="B21" location="'NeGD ITPO'!A1" display="NeGD ITPO" xr:uid="{286EF307-7C87-4FA6-8019-4D1C8C126B8A}"/>
+    <hyperlink ref="B20" location="'DIC NOC'!A1" display="DIC NOC" xr:uid="{E340296C-37AE-4F06-84C7-0E2F5354EA9E}"/>
+    <hyperlink ref="B22" location="'MMRDA BTRS'!A1" display="MMRDA BTRS" xr:uid="{D70A2236-1899-420F-9CD4-55AADC88546A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12B32C9D-117F-46BA-B00D-A825E773DF37}">
+          <x14:cfRule type="dataBar" id="{99D6CA3F-ACAE-48DE-B818-3F224D3A7AB3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F7B739-90A7-4FE3-813B-AB5AFF9FF6AD}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29991917-2D59-42EA-8261-0E6C64C82B2D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1252,14 +1252,6 @@
 ECB enclosure delivery.</t>
   </si>
   <si>
-    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
-a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
-b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
-c) Energy billing system that coverers consumer’s energy monitoring and billing
-#&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
-#&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
-  </si>
-  <si>
     <t>Total 9 modules (functionalities to be developed in this project.
 Completed - 4
 In progress - 3
@@ -1285,6 +1277,14 @@
     <t>●	GIS Data / Geo Server: Docker image issue hindering setup; pending MoRTH confirmation.
 ●	UIDAI Aadhaar Integration: Implementation to begin after receiving required approvals and environment setup.
 ●	Template creation for Provisional License and Final License.</t>
+  </si>
+  <si>
+    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
+a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
+b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
+c) Energy billing system that coverers consumer’s energy monitoring and billing
+-&gt; &gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
+-&gt; &gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1444,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -1475,6 +1475,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2341,7 +2344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y1" activeCellId="1" sqref="U1:W1048576 Y1:Y1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3979,8 +3984,8 @@
       <c r="T18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="U18" s="15" t="s">
-        <v>284</v>
+      <c r="U18" s="30" t="s">
+        <v>287</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>212</v>
@@ -4167,16 +4172,16 @@
         <v>167</v>
       </c>
       <c r="V20" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="W20" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="W20" s="15" t="s">
+      <c r="X20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="X20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="15" t="s">
-        <v>287</v>
       </c>
       <c r="Z20" s="16">
         <v>45919</v>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB02CC32-885D-4042-AD9B-7F0921D6A8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49813AEC-0685-4FC5-AB74-62B3B811A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{534595BD-7436-4C87-B800-B0DCA5B4A9D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{64A706E5-F75D-488E-85DF-87B0BC7C89BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1024,14 +1024,6 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
-a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
-b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
-c) Energy billing system that coverers consumer’s energy monitoring and billing
-#&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
-#&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Primary &amp; Backup Servers – Fully configured, tested, delivered, and installed; ready for use. Powered up and activity in progress.
 	Substations 1, 2 &amp; 3 (MFM Meter Communication) – Network setup completed; pending switch rack installation by JNPA vendor with switch availabilty. Meter-to-server communication to be established post port enablement.
 	ABT Meters – Two meters installed in custom-designed panel; pending series connection with incomers and CAT-6 cabling. Coordination with MSETCL and Secutech required for completion.
@@ -1279,6 +1271,14 @@
   </si>
   <si>
     <t>Vinod S</t>
+  </si>
+  <si>
+    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
+a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
+b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
+c) Energy billing system that coverers consumer’s energy monitoring and billing
+-&gt;&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
+-&gt;&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1425,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1454,6 +1454,9 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1463,7 +1466,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{45F5DBA5-69E0-4E48-BA92-E7ACA0801A48}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{779135D4-2FE2-436F-A9DE-AA21F33A3482}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1792,7 +1795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1264CD4-E31F-437F-A630-705F1C68C2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1135A5-EB32-473D-93F8-43F9FF0B57E7}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3426,20 +3429,20 @@
       <c r="T18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="Z18" s="12">
         <v>45917</v>
@@ -3454,7 +3457,7 @@
         <v>231</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3462,13 +3465,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3501,37 +3504,37 @@
         <v>11.135999999999999</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="Z19" s="12">
         <v>45917</v>
@@ -3543,7 +3546,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3554,13 +3557,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3602,28 +3605,28 @@
         <v>134</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>134</v>
       </c>
       <c r="U20" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="V20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="Z20" s="12">
         <v>45919</v>
@@ -3635,10 +3638,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3646,13 +3649,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3685,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3694,28 +3697,28 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="X21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="Z21" s="12">
         <v>45916</v>
@@ -3727,10 +3730,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3738,13 +3741,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>279</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>72</v>
@@ -3775,31 +3778,31 @@
         <v>0</v>
       </c>
       <c r="O22" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>0</v>
+      </c>
+      <c r="R22" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="P22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>0</v>
-      </c>
-      <c r="R22" s="23" t="s">
+      <c r="S22" s="23">
+        <v>0</v>
+      </c>
+      <c r="T22" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="S22" s="23">
-        <v>0</v>
-      </c>
-      <c r="T22" s="23" t="s">
+      <c r="U22" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="23" t="s">
+      <c r="V22" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="V22" s="23" t="s">
+      <c r="W22" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="W22" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="X22" s="23">
         <v>0</v>
@@ -3817,10 +3820,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD22" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F8F0038F-4F64-4B59-B717-39123DFCF4AF}</x14:id>
+          <x14:id>{2669846D-9413-4AA5-A8B3-287E68A060FD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3843,7 +3846,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F8F0038F-4F64-4B59-B717-39123DFCF4AF}">
+          <x14:cfRule type="dataBar" id="{2669846D-9413-4AA5-A8B3-287E68A060FD}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49813AEC-0685-4FC5-AB74-62B3B811A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{901465CC-3175-43AE-A18C-14B8B6B6849B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C472302-473C-4517-95FC-D4914E1ABBE6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{64A706E5-F75D-488E-85DF-87B0BC7C89BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3A62D5A-BFBA-43B0-92D0-CFE54BCCE211}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
     <t>DIGITAL INDIA CORP - NOC</t>
   </si>
   <si>
-    <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : 00-Jan-00</t>
+    <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : Order to log</t>
   </si>
   <si>
     <t>11</t>
@@ -1244,7 +1244,7 @@
     <t>18 months</t>
   </si>
   <si>
-    <t>Start Date (PO) : 00-Jan-00 :: End Date (PO) : 00-Jan-00</t>
+    <t>Start Date (PO) : Yet to log Order :: End Date (PO) : .</t>
   </si>
   <si>
     <t>0 L</t>
@@ -1286,9 +1286,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1421,42 +1421,50 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1466,7 +1474,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{779135D4-2FE2-436F-A9DE-AA21F33A3482}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7BF8B051-B8C3-4325-A7E2-3C4244BA74F6}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1795,11 +1803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1135A5-EB32-473D-93F8-43F9FF0B57E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DF10AE-8187-4D65-BF80-D45A4EF38856}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AD22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,95 +3376,95 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="31">
         <v>171.31355932203391</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="31">
         <v>155.5</v>
       </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
         <v>155.5</v>
       </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32">
         <v>15.81355932203391</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="31">
         <v>155.5</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="31">
         <v>155.5</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="33">
         <v>0.90769230769230758</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="28" t="s">
+      <c r="U18" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="W18" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="X18" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Y18" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="Z18" s="34">
         <v>45917</v>
       </c>
-      <c r="AA18" s="13" t="s">
+      <c r="AA18" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="AB18" s="13" t="s">
+      <c r="AB18" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" s="14" t="s">
+      <c r="AC18" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="AD18" s="15" t="s">
+      <c r="AD18" s="37" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3836,7 +3844,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2669846D-9413-4AA5-A8B3-287E68A060FD}</x14:id>
+          <x14:id>{7312FCB0-681E-49A5-9D0C-583F2867A45E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3846,7 +3854,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2669846D-9413-4AA5-A8B3-287E68A060FD}">
+          <x14:cfRule type="dataBar" id="{7312FCB0-681E-49A5-9D0C-583F2867A45E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{901465CC-3175-43AE-A18C-14B8B6B6849B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C472302-473C-4517-95FC-D4914E1ABBE6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D1F1B69A-F120-4C8D-BE89-BBB8E824FB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E62354D-ADFB-43AD-9C35-4043657CC9D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3A62D5A-BFBA-43B0-92D0-CFE54BCCE211}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9CB4AA80-AFE3-4CA7-9643-8EB7AB1A12CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="288">
   <si>
     <t>SN</t>
   </si>
@@ -161,27 +161,23 @@
 Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
   </si>
   <si>
-    <t>→ Monthly billing from Jul-23 to Aug-25 done.
-→ Application maintenance and regular CR deployment.
-→ 371 tasks out of 423 tasks are in production as on date.
-→ Pragati meetings module is developed by CMS - These meetings are being chaired by Prime Minister of India.
-→ AWS Optimization has been done on all PMG environments as instructed by PMG team.
-→ Security Audit was done &amp; agency has raised total 26 points, out of which 7 high priority tasks are completed &amp; awaiting further action from Auditor.
-→ Customer wants AI module to be integrated, pitching our AI solution &amp; will get additional order if selected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance activities :
-→ 16 Tasks In progress (+ 9 Tasks in QA Testing, +4 in designing, +11 under estimation &amp; + 12 Tasks in to do).
-→ Deployment of 0 task — on UAT.
-→ Due payment collection (May to Aug 25).
-→ Replacement of Bimal Kalsa &amp; Raghavendra Pratap on priority.
-</t>
+    <t>Released on production- 374
+UAT- 2
+Testing- 10
+InProgress- 13
+To-Do - 17
+Designing- 3
+Estimation- 10</t>
+  </si>
+  <si>
+    <t>1- Task deployed on 23/09
+2- Task planned to deploy</t>
   </si>
   <si>
     <t>NodeJS , HTML5/CSS , JS , React , Springboot Elastic, PostGreSQL , MySQL , MongoDB, Postman, API &amp; SSO integration</t>
   </si>
   <si>
-    <t xml:space="preserve">Replacement for Bimal Kalsa (Back-end Developer + Elastic) pending for 5 Months. </t>
+    <t>One Resources Need to deploy</t>
   </si>
   <si>
     <t>Amit K</t>
@@ -1425,7 +1421,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1443,6 +1439,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1454,17 +1451,9 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1474,7 +1463,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7BF8B051-B8C3-4325-A7E2-3C4244BA74F6}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6E5937E8-E6E1-4E44-84ED-B0654D6059DF}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1803,14 +1792,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DF10AE-8187-4D65-BF80-D45A4EF38856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78186356-9251-456B-84CF-B1B6DA43B385}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1981,7 +1973,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45918</v>
+        <v>45924</v>
       </c>
       <c r="AA2" s="13">
         <v>0.54846740318532206</v>
@@ -3262,8 +3254,8 @@
       <c r="W16" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="X16" s="11">
-        <v>0</v>
+      <c r="X16" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>216</v>
@@ -3354,8 +3346,8 @@
       <c r="W17" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="X17" s="11">
-        <v>0</v>
+      <c r="X17" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="Y17" s="11" t="s">
         <v>228</v>
@@ -3376,95 +3368,95 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+    <row r="18" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="8">
         <v>171.31355932203391</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="8">
         <v>155.5</v>
       </c>
-      <c r="I18" s="31">
-        <v>0</v>
-      </c>
-      <c r="J18" s="31">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <v>155.5</v>
       </c>
-      <c r="K18" s="31">
-        <v>0</v>
-      </c>
-      <c r="L18" s="32">
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
         <v>15.81355932203391</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="8">
         <v>155.5</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="8">
         <v>155.5</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="10">
         <v>0.90769230769230758</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="T18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="U18" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="V18" s="16" t="s">
+      <c r="V18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="16" t="s">
+      <c r="Y18" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="Z18" s="34">
+      <c r="Z18" s="12">
         <v>45917</v>
       </c>
-      <c r="AA18" s="35" t="s">
+      <c r="AA18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AB18" s="35" t="s">
+      <c r="AB18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" s="36" t="s">
+      <c r="AC18" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="AD18" s="37" t="s">
+      <c r="AD18" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3603,7 +3595,7 @@
       <c r="N20" s="8">
         <v>0</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="17">
         <v>0</v>
       </c>
       <c r="P20" s="10">
@@ -3745,92 +3737,92 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20">
-        <v>0</v>
-      </c>
-      <c r="J22" s="20">
-        <v>0</v>
-      </c>
-      <c r="K22" s="20">
-        <v>0</v>
-      </c>
-      <c r="L22" s="21">
-        <v>0</v>
-      </c>
-      <c r="M22" s="20">
-        <v>0</v>
-      </c>
-      <c r="N22" s="20">
-        <v>0</v>
-      </c>
-      <c r="O22" s="20" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="P22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>0</v>
-      </c>
-      <c r="R22" s="23" t="s">
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="S22" s="23">
-        <v>0</v>
-      </c>
-      <c r="T22" s="23" t="s">
+      <c r="S22" s="24">
+        <v>0</v>
+      </c>
+      <c r="T22" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="U22" s="23" t="s">
+      <c r="U22" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="V22" s="23" t="s">
+      <c r="V22" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="W22" s="23" t="s">
+      <c r="W22" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="X22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="24">
+      <c r="X22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="25">
         <v>45910</v>
       </c>
-      <c r="AA22" s="25" t="s">
+      <c r="AA22" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="AB22" s="25" t="s">
+      <c r="AB22" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="AC22" s="26" t="s">
+      <c r="AC22" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="AD22" s="27" t="s">
+      <c r="AD22" s="28" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3844,7 +3836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7312FCB0-681E-49A5-9D0C-583F2867A45E}</x14:id>
+          <x14:id>{C64A5D13-8C05-41C8-9890-E9C91776AC66}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3854,7 +3846,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7312FCB0-681E-49A5-9D0C-583F2867A45E}">
+          <x14:cfRule type="dataBar" id="{C64A5D13-8C05-41C8-9890-E9C91776AC66}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D1F1B69A-F120-4C8D-BE89-BBB8E824FB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E62354D-ADFB-43AD-9C35-4043657CC9D0}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{169077E0-0AA3-419E-9A28-24B25D8ED427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230ED9F1-A618-4756-9D67-5AB099508E84}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9CB4AA80-AFE3-4CA7-9643-8EB7AB1A12CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02869732-9DFB-4D37-936B-77227B1B2750}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1178,7 +1178,7 @@
     <t>Start Date (PO) : 25-Aug-25 :: End Date (PO) : 24-Aug-27</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>21.25 L</t>
@@ -1193,36 +1193,27 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve">Currently Deployed Resources-
-1- Bhavesh Chandra Bhanu (Backend Developer) --&gt; Joining Date: 09-09-2025
-2- Ashutosh Pandey (Backend Developer)            --&gt; Joining Date: 09-09-2025
-3- Mudassar Tousif (Full stack Developer)             --&gt; Joining Date: 09-09-2025
-4- Bharat Veer (Frontend Developer)                    --&gt; Joining Date: 11-09-2025
-5- Raghvendra Pratap (Project Manager)              --&gt; Joining Date: 09-09-2025
-The work we have started since 11-09-2025, which includes:
-- Development environment setup (Frontend &amp; Backend)
-- Landing Page development
-We successfully developed the Landing Page and set up the environment in just 2 days, in alignment with the target to present it during our first weekly review meeting with the client (ITPO).
-I am pleased to share that the ITPO higher officials (Shri Premjit Lal, ITS (Executive Director), and Shri Rakesh Chandra Sharma, IAS (General Manager)) appreciated the progress we have made so far, and NeGD also expressed satisfaction with our work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Develop Admin Panel for Content Management of ITPO Corporate Website
-2- Develop Static Pages of ITPO main website (Corporate Website)
-3- Develop dynamic contact us page </t>
-  </si>
-  <si>
-    <t>I would like to highlight the following points regarding the current status of resource allocation for the ITPO – Bharat Mandapam project:
-- One of my team members, Mudassar Tousif, has been appointed exclusively for the ITPO project.
-- However, he is currently being shared across three projects — ITPO, PFRDA, and DIC-ROB.
-- At this initial and critical stage of the ITPO project, this resource sharing may impact our ability to meet the weekly delivery targets.
-- One another resource (Rewatiraman) from ORGI is also aligned with us in ITPO project dedicated for daily 4 hours for few days.
-Billing Related- 
-- As per my understanding, NeGD has approved only 3 resources for the project (2 Frontend Developers and 1 Backend Developer).
-- However, we currently have 5 resources deployed, including myself.
-- I am raising this concern in advance for billing purposes, to ensure transparency and proper planning.
-Request:
-Kindly review the current resource allocation and advise on how we should proceed to align both delivery and billing expectations.</t>
+    <t xml:space="preserve">ITPO new website development is in progress. We have been developed 11 pages till date along with mobile resposiveness. 
+Accessibility feature on the website has been developed. 
+For UAT purpose we have been deployed on Staging environment. 
+The development of the new ITPO website is currently underway. We have developed 11 static pages so far, ensuring mobile responsiveness across all pages. Additionally, the website now includes an accessibility feature.
+For UAT, the site has been deployed to the Staging environment. </t>
+  </si>
+  <si>
+    <t>Following pages are planned to develop by next week-
+- Events (5 pages)
+- Visitors (3 Pages)
+- Explore Venues (2 pages)
+- Financial Results (2 Pages)
+- Activity &amp; Services 
+- Brouchures
+- Career at ITPO
+- Admin Panel</t>
+  </si>
+  <si>
+    <t>- One of our team members, Bhawesh Bhanu, is currently hospitalized. NeGD wants to ensure that there is no disruption in deliveries and that Bhawesh can actively engage in the upcoming KT sessions with the existing vendor.
+- NeGD has raised concerns about potential billing issues due to this situation.
+- NeGD has requested that if Bhawesh requires additional time for recovery, CMS Computers should deploy a senior backend resource (12-13 Years experience) with expertise in Node.js (Nest.js framework) to ensure continuity.</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1421,7 +1412,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1451,9 +1442,17 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1463,7 +1462,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6E5937E8-E6E1-4E44-84ED-B0654D6059DF}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{68D19258-EA43-4484-A45C-7A6C18A12C0C}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1792,16 +1791,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78186356-9251-456B-84CF-B1B6DA43B385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDCC723-3B8E-4F1F-AB39-692382F6F4EC}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="N18" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -3368,95 +3367,95 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="32">
         <v>171.31355932203391</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="32">
         <v>155.5</v>
       </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="I18" s="32">
+        <v>0</v>
+      </c>
+      <c r="J18" s="32">
         <v>155.5</v>
       </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="K18" s="32">
+        <v>0</v>
+      </c>
+      <c r="L18" s="33">
         <v>15.81355932203391</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="32">
         <v>155.5</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="32">
         <v>155.5</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="34">
         <v>0.90769230769230758</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="29" t="s">
+      <c r="U18" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="W18" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="X18" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Y18" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="Z18" s="35">
         <v>45917</v>
       </c>
-      <c r="AA18" s="13" t="s">
+      <c r="AA18" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AB18" s="13" t="s">
+      <c r="AB18" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" s="14" t="s">
+      <c r="AC18" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="AD18" s="15" t="s">
+      <c r="AD18" s="38" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3721,7 +3720,7 @@
         <v>275</v>
       </c>
       <c r="Z21" s="12">
-        <v>45916</v>
+        <v>45924</v>
       </c>
       <c r="AA21" s="13" t="s">
         <v>97</v>
@@ -3836,7 +3835,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C64A5D13-8C05-41C8-9890-E9C91776AC66}</x14:id>
+          <x14:id>{DC1E55FB-93F8-42BD-8665-F55B4E0A7BEA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3846,7 +3845,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C64A5D13-8C05-41C8-9890-E9C91776AC66}">
+          <x14:cfRule type="dataBar" id="{DC1E55FB-93F8-42BD-8665-F55B4E0A7BEA}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{169077E0-0AA3-419E-9A28-24B25D8ED427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230ED9F1-A618-4756-9D67-5AB099508E84}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8216E175-96D5-4699-81F3-3114AC215CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02869732-9DFB-4D37-936B-77227B1B2750}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0544F88F-B20D-430C-A67A-BF48D28BDCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -530,31 +530,24 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Krishi MApper –
-Applying Scheduler on Telangana State API for NMEO-OP
-New API applied on 12 schemes on GIS
+    <t>1.Krishi MApper –
+Telangana State API for NMEO-OP : meeting schedule
 Optimizing current GIS Dashboard
-GIS – Cluster has been applied till District level 
 KM Dashboard new layout is in progress
-Aligned meeting with Maha DBT team for API discussion
+NBM/PKVY/oil seed assets : scheme to onboard by 30th.
 2.Natural Farming :
 Fixing users highlighted issue
-3.NFSM – Agristack data pushing on live
+3.NFSM – Agristack data pushing on live(hold as discussed in meeting) . Fetch data directly from Agristack API
 4.NMEO-OP – VGP module is in Progress
-5.NMEO-OS- Working on changes request 
-6.MIDH-APP – Added 8 new components in mobile app online mode and deployed on play store 
-Working on Offline mode.
-7. Krishi Unnati – Master data/Annual Action plan/budget head wise data is done and showed to client. History version is on going.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Krishi MApper –
-GIS google map with optimized API will push on Live
-PDMC data will push on Live
-NBM/PKVY/oil seed assets to be complete by 30th. 
-UM – Optimizing the counts records
-Onboard consumed API’s data on KM
-</t>
+5.NMEO-OS- Working on changes request
+6.MIDH-APP – Added 8 new components in mobile app online mode/Offline mode  and deployed on play store
+7. Krishi Unnati – Master data/Annual Action plan/budget head wise data is done and showed to client. History version is going. Discussion for MIS report scheduled.</t>
+  </si>
+  <si>
+    <t>1. NBM/PKVY/oil seed assets : scheme to onboard by 30th.
+2. PDMC/AMI/other API : push data on user management/GIS dashboard/survey data count
+3. AIKOSH API  : development of metadata API for all existing scheme.
+4. DCS dashboard : Data duplicity check with 3rd party and show data over dashboard</t>
   </si>
   <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
@@ -638,7 +631,7 @@
     <t>Start Date (PO) : 01-Jan-23 :: End Date (PO) : 25-Jun-26</t>
   </si>
   <si>
-    <t>31 + 2 + 14(TP)</t>
+    <t>46</t>
   </si>
   <si>
     <t>381 L</t>
@@ -649,20 +642,23 @@
 PBG of 3% of balance of TCV (137 L) to be submitted at end of Qtr 4.</t>
   </si>
   <si>
-    <t>Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
-24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withold payment -- KSCL will not pay to TechM (re-imbursement) &amp; has to be paid by TechM to CMS.
+    <t>📈 Overall Progress
+Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
+24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withold payment — KSCL will not pay to TechM (re-imbursement) &amp; has to be paid by TechM to CMS.
 Billing done for OND24 &amp; JFM25 Qtr.
-Neat-Park application demonstration to client is carried out on 23rd Oct 2024; Client has suggested few points, Team has incorporated the same - Payment integration is in progress (Bank details awaited from client - will share after VAPT) -- VAPT completed &amp; feedback points also closed on 28-Aug-25.
+Neat-Park application demonstration to client is carried out on 23rd Oct 2024; Client has suggested few points, Team has incorporated the same - Payment integration is in progress (Bank details awaited from client - will share after VAPT) — VAPT completed &amp; feedback points also closed on 28-Aug-25.
 EMS OEM onboarding done - OEM Team repairing work in progress.
 Collected ~ 632 L till JFM-25.</t>
   </si>
   <si>
-    <t>Smart Parking- Payment integration is in progress (bank details awaited) --  VAPT done &amp; feedback points closed on 28-Aug-25.
+    <t>ATCS work scope of fully operationalising 23 locations in progress
+Consolidation of inventory for metro route chunni ganj to Naya ganj for sharing it with Metro vendor for imdeninification of lost or damaged material 
+VMSB to be made functional by repairing card SMPS or fcr cable damages 
 Reimbursement of recurring charges from TechM.
-Release of 25% retention/withheld amount -- In progress.</t>
-  </si>
-  <si>
-    <t>Delay in release of withheld amount (25%), recurring charges reimbursement.</t>
+Release of 25% retention/withheld amount — In progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many software/application licenses have expired with OEM and needs renewal </t>
   </si>
   <si>
     <t>Saleel H</t>
@@ -943,16 +939,20 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t xml:space="preserve">All SRS , FRS and UAT documents submitted and approved by PMC team. 
-6 Nos. VMD poles foundation done. Rest of the locations marking done by PMC on 18/09/2025. </t>
-  </si>
-  <si>
-    <t>4 Nos.VMD foundation to be done.
-ECB enclosure foundation to be started.</t>
-  </si>
-  <si>
-    <t>VMD poles delivery 
-ECB enclosure delivery.</t>
+    <t xml:space="preserve">1. EVS- 10/10 EVS poles installed. Equipment installation pending due to power and network not available from Honeywell.
+2. 6/10 VMD pole foundations done. Poles installation pending due to poles are not delivered till date. Rest foundation will be started after Durga Puja. 
+3. PA installation pending due to power and network not available from Honeywell. 
+4. ECB enclosure delivered at site on 23/09/25. Works will be started after Durga Puja. 
+5. GIS testing server is working. Main server still note provided by Honeywell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this week upto 21/010/25 works has been suspended by GSCL/ Nagarnigam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. VMD poles delivery issues. 
+2. Vendor cable laying order still not done. 
+3.Approved VMD controller still not sell delivered.
+4. Accessories still not delivered. </t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -1273,9 +1273,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1408,51 +1408,43 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1462,7 +1454,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{68D19258-EA43-4484-A45C-7A6C18A12C0C}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1BA0DD35-A7FA-4248-AD13-DCDE77788D23}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1791,17 +1783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDCC723-3B8E-4F1F-AB39-692382F6F4EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE0EF86-BCD9-4642-ACCB-D2E087FB0313}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N18" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2524,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="12">
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="AA8" s="13">
         <v>0.10999999984936704</v>
@@ -2708,7 +2697,7 @@
         <v>146</v>
       </c>
       <c r="Z10" s="12">
-        <v>45897</v>
+        <v>45925</v>
       </c>
       <c r="AA10" s="13">
         <v>0.25</v>
@@ -3260,7 +3249,7 @@
         <v>216</v>
       </c>
       <c r="Z16" s="12">
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="AA16" s="13">
         <v>0.36662132665084957</v>
@@ -3367,95 +3356,95 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="8">
         <v>171.31355932203391</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="8">
         <v>155.5</v>
       </c>
-      <c r="I18" s="32">
-        <v>0</v>
-      </c>
-      <c r="J18" s="32">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <v>155.5</v>
       </c>
-      <c r="K18" s="32">
-        <v>0</v>
-      </c>
-      <c r="L18" s="33">
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
         <v>15.81355932203391</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="8">
         <v>155.5</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="8">
         <v>155.5</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="10">
         <v>0.90769230769230758</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="T18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="U18" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="V18" s="16" t="s">
+      <c r="V18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="16" t="s">
+      <c r="Y18" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="Z18" s="35">
+      <c r="Z18" s="12">
         <v>45917</v>
       </c>
-      <c r="AA18" s="36" t="s">
+      <c r="AA18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AB18" s="36" t="s">
+      <c r="AB18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" s="37" t="s">
+      <c r="AC18" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="AD18" s="38" t="s">
+      <c r="AD18" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3835,7 +3824,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC1E55FB-93F8-42BD-8665-F55B4E0A7BEA}</x14:id>
+          <x14:id>{B5E9CFD0-A558-46B9-818D-95542AE48457}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3845,7 +3834,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC1E55FB-93F8-42BD-8665-F55B4E0A7BEA}">
+          <x14:cfRule type="dataBar" id="{B5E9CFD0-A558-46B9-818D-95542AE48457}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8216E175-96D5-4699-81F3-3114AC215CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4442B4E2-2D37-405E-B015-5E82439D9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0544F88F-B20D-430C-A67A-BF48D28BDCA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7E2E25A-1821-42D7-B38A-273D841CB921}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="289">
   <si>
     <t>SN</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Developer require for SP, DB, API optimization due to heavy load of data. </t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -1454,7 +1457,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1BA0DD35-A7FA-4248-AD13-DCDE77788D23}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0EAA250F-A584-44F0-9133-A4AF90C5C44A}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1783,7 +1786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE0EF86-BCD9-4642-ACCB-D2E087FB0313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA5C08E-A4DB-4215-9E0C-74C1C4D09B19}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,8 +2512,8 @@
       <c r="X8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="Y8" s="11">
-        <v>0</v>
+      <c r="Y8" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="Z8" s="12">
         <v>45925</v>
@@ -2525,7 +2528,7 @@
         <v>114</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2533,19 +2536,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G9" s="8">
         <v>1372.5805700000001</v>
@@ -2572,37 +2575,37 @@
         <v>33.449428699999999</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P9" s="10">
         <v>0.31367908617561158</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z9" s="12">
         <v>45919</v>
@@ -2614,10 +2617,10 @@
         <v>0.11441806775377272</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2625,19 +2628,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G10" s="8">
         <v>5337.5</v>
@@ -2664,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2673,28 +2676,28 @@
         <v>74</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z10" s="12">
         <v>45925</v>
@@ -2706,10 +2709,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2717,19 +2720,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2756,7 +2759,7 @@
         <v>-14.359203600000001</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" s="10">
         <v>0.33126882165643717</v>
@@ -2765,25 +2768,25 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -2798,10 +2801,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2809,19 +2812,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G12" s="8">
         <v>1045.762712</v>
@@ -2848,37 +2851,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z12" s="12">
         <v>45915</v>
@@ -2890,10 +2893,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2901,19 +2904,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G13" s="8">
         <v>2019.8763390000001</v>
@@ -2940,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2949,28 +2952,28 @@
         <v>74</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z13" s="12">
         <v>45915</v>
@@ -2982,10 +2985,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2993,19 +2996,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G14" s="8">
         <v>2903.04126</v>
@@ -3032,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3041,28 +3044,28 @@
         <v>74</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z14" s="12">
         <v>45919</v>
@@ -3074,10 +3077,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3085,13 +3088,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>72</v>
@@ -3124,37 +3127,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z15" s="12">
         <v>45915</v>
@@ -3166,10 +3169,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3177,19 +3180,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G16" s="8">
         <v>669.18430290000003</v>
@@ -3216,37 +3219,37 @@
         <v>6.2230499999999997</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P16" s="10">
         <v>0.8725374614581386</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z16" s="12">
         <v>45925</v>
@@ -3258,10 +3261,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3269,19 +3272,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" s="8">
         <v>437.16408000000001</v>
@@ -3308,7 +3311,7 @@
         <v>72.059212500000001</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3317,28 +3320,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z17" s="12">
         <v>45919</v>
@@ -3350,10 +3353,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3361,19 +3364,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3400,37 +3403,37 @@
         <v>155.5</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P18" s="10">
         <v>0.90769230769230758</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z18" s="12">
         <v>45917</v>
@@ -3442,10 +3445,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3453,13 +3456,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3492,37 +3495,37 @@
         <v>11.135999999999999</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="12">
         <v>45917</v>
@@ -3534,7 +3537,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3545,13 +3548,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3590,31 +3593,31 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z20" s="12">
         <v>45919</v>
@@ -3626,10 +3629,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3637,13 +3640,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3676,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3685,28 +3688,28 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="X21" s="11">
         <v>0</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z21" s="12">
         <v>45924</v>
@@ -3718,10 +3721,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3729,13 +3732,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>72</v>
@@ -3766,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3775,25 +3778,25 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S22" s="24">
         <v>0</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X22" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y22" s="24">
         <v>0</v>
@@ -3808,10 +3811,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3824,7 +3827,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5E9CFD0-A558-46B9-818D-95542AE48457}</x14:id>
+          <x14:id>{2F33A766-90D9-4F52-AAA7-174142605000}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3834,7 +3837,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5E9CFD0-A558-46B9-818D-95542AE48457}">
+          <x14:cfRule type="dataBar" id="{2F33A766-90D9-4F52-AAA7-174142605000}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4442B4E2-2D37-405E-B015-5E82439D9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED97E6EA-3749-4670-B090-F670C27457C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7E2E25A-1821-42D7-B38A-273D841CB921}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0506AE27-2E16-4F20-8B33-7E4AD6845968}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1457,7 +1457,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0EAA250F-A584-44F0-9133-A4AF90C5C44A}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F023DB6F-FABB-4C04-ACC4-DFD651031F01}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1786,7 +1786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA5C08E-A4DB-4215-9E0C-74C1C4D09B19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080FFC2A-3EDA-409B-9A1D-41D2885CE63E}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3827,7 +3827,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F33A766-90D9-4F52-AAA7-174142605000}</x14:id>
+          <x14:id>{C921E19E-ECBF-441E-B75C-1409C06A1DAB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3837,7 +3837,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F33A766-90D9-4F52-AAA7-174142605000}">
+          <x14:cfRule type="dataBar" id="{C921E19E-ECBF-441E-B75C-1409C06A1DAB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED97E6EA-3749-4670-B090-F670C27457C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5830B6E7-26E7-4B44-AA14-32FA500D343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0506AE27-2E16-4F20-8B33-7E4AD6845968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{480CC922-FDD5-42F9-86AB-51AC430BB952}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,9 @@
 Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
   </si>
   <si>
-    <t>Released on production- 374
+    <t>Billing Done till Aug-25
+Payment received till Jun-25
+Released on production- 374
 UAT- 2
 Testing- 10
 InProgress- 13
@@ -209,30 +211,31 @@
   <si>
     <t xml:space="preserve">20 resources on-boarded. (13 resources from GAIA – Tech Partner)
 Payment received till May’25. Invoicing done for Aug’25.
-2 resources onboarded for SS. 3 resources will be from GAIA.
+2 resources onboarded for SS. Hiring ongoing for 3 resources from GAIA.
 DWR mobile app: changes ongoing for dumpsite. 
 New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): testing ongoing
 New SSJ page created for City pairing on website.
-UWM Action Plan: addition of FSTP plant &amp; SOAK (ULB): Bug fixing ongoing. 8 RI’ renewed in AWS for 1 year.
-API modified for SHS portal, under testing. UK ULB created. 
+UWM Action Plan: additional points added from CPEEHO: Dev Ongoing
+API written for Prayas, under testing. GFC-I4 Indicator logic understanding and automation ongoing. Engineer App: Geo location enabled in iOS/Android. Implementation of Media Service in Java-Ongoing.
 Bulk upload parser under implementation. Website updates ongoing.
+Migration of SBMurban.org domain from Cloud Flare to Cloud Front.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance activities: Daily ULB support, Website changes ongoing.
 New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing. Updates in SSJ page. 
-DWR Mobile App pilot to be planned. Enable DWR for Dumpsite.
-SS Handover with IPSOS planned to start on 19th Sep,25.
+DWR Mobile App pilot planned in Oct’25. Enable DWR for Dumpsite.
+SS Handover with IPSOS ongoing.
 </t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. DS has asked everyone should be working from office within 1 month.
-2. Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI) from GAIA
-3. Majority of team members working remotely. 
-4. No WiFi at New location
+    <t xml:space="preserve">Major Challenges:
+1. Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI) from GAIA
+2. DS has asked team whole team to work from SBM office. Majority of team members are working remotely. 
+3. No WiFi at New location
 </t>
   </si>
   <si>
@@ -530,30 +533,30 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t>1.Krishi MApper –
+    <t>1] Krishi MApper –
 Telangana State API for NMEO-OP : meeting schedule
 Optimizing current GIS Dashboard
 KM Dashboard new layout is in progress
 NBM/PKVY/oil seed assets : scheme to onboard by 30th.
-2.Natural Farming :
+2] Natural Farming :
 Fixing users highlighted issue
-3.NFSM – Agristack data pushing on live(hold as discussed in meeting) . Fetch data directly from Agristack API
-4.NMEO-OP – VGP module is in Progress
-5.NMEO-OS- Working on changes request
-6.MIDH-APP – Added 8 new components in mobile app online mode/Offline mode  and deployed on play store
-7. Krishi Unnati – Master data/Annual Action plan/budget head wise data is done and showed to client. History version is going. Discussion for MIS report scheduled.</t>
-  </si>
-  <si>
-    <t>1. NBM/PKVY/oil seed assets : scheme to onboard by 30th.
-2. PDMC/AMI/other API : push data on user management/GIS dashboard/survey data count
-3. AIKOSH API  : development of metadata API for all existing scheme.
-4. DCS dashboard : Data duplicity check with 3rd party and show data over dashboard</t>
+3] NFSM – Agristack data pushing on live(hold as discussed in meeting) . Fetch data directly from Agristack API
+4] NMEO-OP – VGP module is in Progress
+5] NMEO-OS- Working on changes request
+6] MIDH-APP – Added 8 new components in mobile app online mode/Offline mode  and deployed on play store
+7] Krishi Unnati – Master data/Annual Action plan/budget head wise data is done and showed to client. History version is going. Discussion for MIS report scheduled.</t>
+  </si>
+  <si>
+    <t>1] NBM/PKVY/oil seed assets : scheme to onboard by 30th.
+2] PDMC/AMI/other API : push data on user management/GIS dashboard/survey data count
+3] AIKOSH API  : development of metadata API for all existing scheme.
+4] DCS dashboard : Data duplicity check with 3rd party and show data over dashboard</t>
   </si>
   <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
   </si>
   <si>
-    <t xml:space="preserve">Database Developer require for SP, DB, API optimization due to heavy load of data. </t>
+    <t>Database Developer require for SP, DB, API optimization due to heavy load of data.</t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -645,8 +648,7 @@
 PBG of 3% of balance of TCV (137 L) to be submitted at end of Qtr 4.</t>
   </si>
   <si>
-    <t>📈 Overall Progress
-Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
+    <t>Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
 24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withold payment — KSCL will not pay to TechM (re-imbursement) &amp; has to be paid by TechM to CMS.
 Billing done for OND24 &amp; JFM25 Qtr.
 Neat-Park application demonstration to client is carried out on 23rd Oct 2024; Client has suggested few points, Team has incorporated the same - Payment integration is in progress (Bank details awaited from client - will share after VAPT) — VAPT completed &amp; feedback points also closed on 28-Aug-25.
@@ -942,20 +944,20 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. EVS- 10/10 EVS poles installed. Equipment installation pending due to power and network not available from Honeywell.
-2. 6/10 VMD pole foundations done. Poles installation pending due to poles are not delivered till date. Rest foundation will be started after Durga Puja. 
-3. PA installation pending due to power and network not available from Honeywell. 
-4. ECB enclosure delivered at site on 23/09/25. Works will be started after Durga Puja. 
-5. GIS testing server is working. Main server still note provided by Honeywell. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For this week upto 21/010/25 works has been suspended by GSCL/ Nagarnigam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. VMD poles delivery issues. 
-2. Vendor cable laying order still not done. 
-3.Approved VMD controller still not sell delivered.
-4. Accessories still not delivered. </t>
+    <t xml:space="preserve">1] EVS- 10/10 EVS poles installed. Equipment installation pending due to power and network not available from Honeywell.
+2] 6/10 VMD pole foundations done. Poles installation pending due to poles are not delivered till date. Rest foundation will be started after Durga Puja. 
+3] PA installation pending due to power and network not available from Honeywell. 
+4] ECB enclosure delivered at site on 23/09/25. Works will be started after Durga Puja. 
+5] GIS testing server is working. Main server still not provided by Honeywell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this week upto 21/10/25 works has been suspended by GSCL/ Nagarnigam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] VMD poles delivery issues. 
+2] Vendor cable laying order still not done. 
+3] Approved VMD controller still not sell delivered.
+4] Accessories still not delivered. </t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -1457,7 +1459,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F023DB6F-FABB-4C04-ACC4-DFD651031F01}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F83532D5-CC6B-4A60-856F-96C2860B94CD}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1786,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080FFC2A-3EDA-409B-9A1D-41D2885CE63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F9E13-F69B-4033-B604-F014F0BE4DA3}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2056,7 +2058,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="AA3" s="13">
         <v>0.20395380903136873</v>
@@ -3827,7 +3829,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C921E19E-ECBF-441E-B75C-1409C06A1DAB}</x14:id>
+          <x14:id>{E6CA3A9D-F007-491F-B3C5-4E38EA60E5D3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3837,7 +3839,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C921E19E-ECBF-441E-B75C-1409C06A1DAB}">
+          <x14:cfRule type="dataBar" id="{E6CA3A9D-F007-491F-B3C5-4E38EA60E5D3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5830B6E7-26E7-4B44-AA14-32FA500D343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7A7F87-8420-4360-B302-AF27862088F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{480CC922-FDD5-42F9-86AB-51AC430BB952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F96BD0D8-4E74-4F30-998A-8742F6C0B7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -987,14 +987,21 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t xml:space="preserve">5 new candidates selected through interview, trained and deployed in the project. </t>
-  </si>
-  <si>
-    <t>The invoice for August 2025 will be submitted at L&amp;T’s Mallet Bunder (MB) Office on Monday, 22nd September 2025.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Mandays Report and In-Out Time Report for August 2025 have not yet been signed by the Police CRO. Due to this pending approval, the submission of the August 2025 invoice has been delayed.
-</t>
+    <t>MCS Project Updates 
+1) August-2025 month invoice has been submitted to Customer
+2) Q32 Quarterly Report has been published and submitted
+3) Doing follow-up with L&amp;T for Next work Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Interview planned for 10 Candidates
+2. User ID deletion from Customer Active Directory for resigned employees
+3. Client and Operators List for Diwali Gift
+4. Salary Attendance and Salary Sheet preparation  </t>
+  </si>
+  <si>
+    <t>1. Awaiting for Work Order for MCS Project
+2. New Recruitment of CCTV Viewing Officers
+3. AR Collection for due Invoices</t>
   </si>
   <si>
     <t>Jaywant P</t>
@@ -1459,7 +1466,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F83532D5-CC6B-4A60-856F-96C2860B94CD}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BC8BC9D4-4941-41EC-836E-0BDC31EF62DC}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1788,7 +1795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F9E13-F69B-4033-B604-F014F0BE4DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C58A29A-EBE4-4368-BAD7-6A130526CA64}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3346,7 +3353,7 @@
         <v>229</v>
       </c>
       <c r="Z17" s="12">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="AA17" s="13">
         <v>0.61442879884363322</v>
@@ -3829,7 +3836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E6CA3A9D-F007-491F-B3C5-4E38EA60E5D3}</x14:id>
+          <x14:id>{C5E7BF5B-CF9E-4A04-AA8F-3546141E2BEC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3839,7 +3846,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E6CA3A9D-F007-491F-B3C5-4E38EA60E5D3}">
+          <x14:cfRule type="dataBar" id="{C5E7BF5B-CF9E-4A04-AA8F-3546141E2BEC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7A7F87-8420-4360-B302-AF27862088F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4015997-57E0-414F-A3BB-380D360F2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F96BD0D8-4E74-4F30-998A-8742F6C0B7B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A78903D8-D844-4240-B56F-6AE296A11666}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -993,15 +993,15 @@
 3) Doing follow-up with L&amp;T for Next work Order</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Interview planned for 10 Candidates
-2. User ID deletion from Customer Active Directory for resigned employees
-3. Client and Operators List for Diwali Gift
-4. Salary Attendance and Salary Sheet preparation  </t>
-  </si>
-  <si>
-    <t>1. Awaiting for Work Order for MCS Project
-2. New Recruitment of CCTV Viewing Officers
-3. AR Collection for due Invoices</t>
+    <t xml:space="preserve">1) Interview planned for 10 Candidates
+2) User ID deletion from Customer Active Directory for resigned employees
+3) Client and Operators List for Diwali Gift
+4) Salary Attendance and Salary Sheet preparation  </t>
+  </si>
+  <si>
+    <t>1) Awaiting for Work Order for MCS Project
+2) New Recruitment of CCTV Viewing Officers
+3) AR Collection for due Invoices</t>
   </si>
   <si>
     <t>Jaywant P</t>
@@ -1466,7 +1466,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BC8BC9D4-4941-41EC-836E-0BDC31EF62DC}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{12E25092-DA90-4523-9B1F-D43AA9BE3D3E}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1795,7 +1795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C58A29A-EBE4-4368-BAD7-6A130526CA64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1F8A3D-5B35-48E8-9210-98D6156785DA}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3836,7 +3836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C5E7BF5B-CF9E-4A04-AA8F-3546141E2BEC}</x14:id>
+          <x14:id>{0136ED9E-F14F-4D70-BEB2-54471FD3E76B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3846,7 +3846,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C5E7BF5B-CF9E-4A04-AA8F-3546141E2BEC}">
+          <x14:cfRule type="dataBar" id="{0136ED9E-F14F-4D70-BEB2-54471FD3E76B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4015997-57E0-414F-A3BB-380D360F2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{340877FF-60F6-47EE-8555-1350B73F9A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A78903D8-D844-4240-B56F-6AE296A11666}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9EC5093-3FAD-4A41-9CBA-E31244A447FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{12E25092-DA90-4523-9B1F-D43AA9BE3D3E}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B22D4963-EE67-49B4-8634-42516F48233E}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1795,7 +1795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1F8A3D-5B35-48E8-9210-98D6156785DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EB5CD-31F8-423F-A73F-629377193CD4}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3836,7 +3836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0136ED9E-F14F-4D70-BEB2-54471FD3E76B}</x14:id>
+          <x14:id>{2CBDAC98-6D0D-4508-90D0-017659B01A30}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3846,7 +3846,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0136ED9E-F14F-4D70-BEB2-54471FD3E76B}">
+          <x14:cfRule type="dataBar" id="{2CBDAC98-6D0D-4508-90D0-017659B01A30}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{340877FF-60F6-47EE-8555-1350B73F9A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE58C58-5045-4756-9506-4A5C570B845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9EC5093-3FAD-4A41-9CBA-E31244A447FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{33711BEF-966A-4455-820F-1B16912BF533}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
   <si>
     <t>SN</t>
   </si>
@@ -257,6 +257,9 @@
     <t>Start Date (PO) : 02-Apr-24 :: End Date (PO) : 01-Apr-26</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>35.2 L</t>
   </si>
   <si>
@@ -267,31 +270,31 @@
 Application Developers, Technical Support (helpdesk) – 6 resource each</t>
   </si>
   <si>
-    <t>26 Resource deployed.
-Development of new Module is under process as per CRS requirement.
-DB and System performance and monitoring continue above 99.6 % availability.
-State onboard is on going.    
-WSO2 server issues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June Payment  under process from .
-July Document approval pending from RGI.
-August document verification under processing
-1 Tech support resource Joined.
-GP Can extract Certificate .
-Gujarat Onboarding field issue resolution.
-Committee formed for Extension.
-</t>
+    <t xml:space="preserve">1. 26 Resource deployed.
+2. Development of new Module is under process as per CRS requirement.
+3. DB and System performance and monitoring continue above 99.6 % availability.
+4. State onboard is on going.
+5. Receive Data from Non CRS State through API.
+6. AADHAR , TRANSLITRATION and Payment Integrations. </t>
+  </si>
+  <si>
+    <t>1. June Payment under process from .
+2. July Document approval pending from RGI.
+3. August document verification under processing.
+4. Deployment of GP Can extract Certificate, Application Flow Correction for Puducherry, 
+Handling death events for where deceased’s permanent residence is outside India, Notification via SMS &amp; Email for Contact Details Update on Registrar Profile and Including Date of reporting in Acknowledgement slip  .
+5. ORISSA DATA Mapping On Going.
+6. Meeting with RGI is Scheduled on 26-Sep</t>
   </si>
   <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
   </si>
   <si>
-    <t xml:space="preserve">Indore IMC Zonal register creation
-Puducherry  states will join CRS portal from 1st Oct 
-WSO2 to NAPIX Shifting.
-Extension Approval Submitted.
-Kalyan and Roopali Approval Pending </t>
+    <t>1. Indore IMC Zonal register creation
+2. Puducherry states will join CRS portal from 1st Oct with three regional Languages.
+3. WSO2 to NAPIX Shifting.
+4. Extension Approval Submitted.
+5. Approval for Kalyan, Gaurang, and Roopali is pending. August attendance will be verified after approval.</t>
   </si>
   <si>
     <t>Dhananjay J</t>
@@ -334,32 +337,26 @@
 User Interface Upgrade</t>
   </si>
   <si>
-    <t>FM 20% Payment processed is with accounts team
-Additional approval has been provided for AMJ.
-AMJ 80% is in final calculations with Admin team.
-4 out of 10 Saadhit Plan tasks have been delivered. The remaining tasks are in progress and planned for production deployment.
-Shared 1st Draft of Technology Upgrade documentation with WZU as its was part of this Quarter Delivery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 to 5 out of 6 Saadhit Plan tasks are in progress and planned for production deployment by the quarter end.
-Getting Approval on Application Uptime SLA 6.1
-Getting Approval on AMJ from ADG Sir
-Close MIS Developer Position.
-Getting TAT for JF20% payment.
-Meeting between CMS Management &amp; WZU for technology Upgrade.
-SLA Methodology Finalization meeting along with Technology Upgrade.
-Approval for Consolidated  SLA Letters : 4.1_4.9 / 5.1_5.3 / 8.1_8.3 /  7.1_/ 7.3  and 6.1 for the period 15th February 2025 to 31st March 2025. </t>
+    <t xml:space="preserve">JF 20% Payment received.
+1 out of 4 saddhit item released. 
+The remaining tasks are in progress and planned for production deployment.
+All AMJ individual approvals received. </t>
+  </si>
+  <si>
+    <t>Provide different format of Attendance in Summary Sheet required by MA Team.
+Consolidated approvals proceeding.
+MIS resource closing.
+DBE interview proceeding. 
+Getting July and Aug Attendance.</t>
   </si>
   <si>
     <t>Java Struts, For upgrade - TBD</t>
   </si>
   <si>
-    <t>SOP and process changes are required for each approval, as WZU has recently revised the approval procedure.
-Productivity challenges have been observed among a few employees; recruitment for two positions needs to be initiated.
-Certain SLA parameters continue to be challenging to achieve.
-Attendance marking issues have been noted on the CBIC portal for overlapping employee periods.
-WZU is conducting an RCA regarding full attendance marking on the CBIC portal by CMS for the past months. A few verification questions have been shared for review and response.
-Attendance approval for July has been raised by WZU.</t>
+    <t>Productivity challenges observed among a few employees. 
+Certain SLA parameters are challenging to achieve.
+Attendance marking on the CBIC portal for overlapping period of employee. 
+RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.- Few verifications questions has given to study and answer. - July attendance approval raised by wzu.</t>
   </si>
   <si>
     <t>Rahul S / Asmita S</t>
@@ -465,7 +462,7 @@
     <t>Start Date (PO) : 13-Nov-24 :: End Date (PO) : 12-Nov-27</t>
   </si>
   <si>
-    <t>38</t>
+    <t>32</t>
   </si>
   <si>
     <t>As per achievment, Phase 1 - 321 L</t>
@@ -478,28 +475,20 @@
 Deployment of proposed 33 resources. (+5 in phase 2)</t>
   </si>
   <si>
-    <t>Phase 1
-----------
-7 out of 9 modules deployed on production. Rest two modules are planned for production deployment in this week. (15Sept - 20Sept)
-Phase 2
---------
-Development started working on Bircs. 
-Requirement gathering for 4 modules done with Payments partially done.
--&gt; Billing done for phase 1 track 4
--&gt; Payment received till track 3</t>
-  </si>
-  <si>
-    <t>→ Production deployment of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
-→ Next Part-2 modules decision — requirement analysis in progress for 7 modules; yet to start for employee directory &amp; drone module.
-→ Development started on BICRS</t>
+    <t>All Nine modules of Phase I done in UAT. Drone moved to Phase II
+Phase II requirement gathering done for BICRS, Road Closure, and Payments
+Development started on BICRS module.</t>
+  </si>
+  <si>
+    <t>Deployment of RSA, TM and BICRS on production.
+Start development of Road closure. 
+Requirement gather for other modules of phase II</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
   </si>
   <si>
-    <t xml:space="preserve">BIRCS to be completed by end of 30th Sept due to previous agency contract expiring on 30th.
-Multiple resources on notice period and some new resources just joined the team who need to deliver from day one as per expectations.
-Due to delay in phase one Phase module completion time is very tight. </t>
+    <t>Phase ll timelines are tight given the volume of work and current resources.</t>
   </si>
   <si>
     <t>Mukul K / Agam V</t>
@@ -580,9 +569,6 @@
     <t>Start Date (PO) : 30-Aug-24 :: End Date (PO) : 31-Oct-29</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>As per milestone</t>
   </si>
   <si>
@@ -593,33 +579,24 @@
 Provision – as &amp; when required.</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd Quarter manpower &amp; O&amp;M billing done and Payment received.
-Capex 60% Payment received.
-Data center upgradation work done.
-2% New BOQ O&amp;M Bill submit for payment to client.
-3rd Quarter O&amp;M and Manpower bill submit to client for payment.
-Today our File for final SLA calculation from consultant side, tomorrow or Monday submit to client for payment process.
-ISO certification work in progress.
-WLD display work complete.
+    <t>Q3 Billing done and payment in progress.
+ISO Work in progress
+Minimum wages letter submit to operators with clarification.
+Remaining manpower approval letter submit to client for approval as per BOQ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3 Payment file reach to accounts for payment
+ISO audit documents reviewed by clients.
+AMCs pending for server, tapes, switches and San switch from Management and Purchase team. 
 </t>
   </si>
   <si>
-    <t>Payment file process from client to accounts.
-ISO Certificate work in progress
-UI/UX Developer joining approval pending from client end.
-Vertiv and Sudhir sales vendor payment pending from our Purchase team.</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Tape Library HDD not functional , already  inform to HO and purchase team.
-San storage management console access required. already  inform to HO and purchase team.
-Switch Required but client end approval not received.
-Old Server AMC required. already  inform to HO and purchase team
-SAN Switch AMC Required. already  inform to HO and purchase team
-UI/UX Manpower Joining pending.
-Minimum Wages issue not resolved from HR end.ISO 27001 Certificate pending dependencies from client end.</t>
+    <t>ISO Audit related discussion required sales team to client.
+AMCs required IT , this is critical
+1st Floor 20no's AC AMC required ASAP.</t>
   </si>
   <si>
     <t>Sachin S</t>
@@ -700,15 +677,18 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. KK Gate and Cruise gate installation work is in progress.
-2. Turnstile rectification should be done at the earliest to avoid penalties. 
-3. Awaiting materials from purchase team to complete the installation of visual alarm for each camera @ NMPA
+    <t xml:space="preserve">1. Hardware installation is in progress at KK gate and Cruise gate 
+2. March\April 2025 CAMC bill in progress by NMPA finance dept.
+3. Turnstile should be rectified, awaiting inputs from purchase team to issue PO to turnstile OEM.
+4. Material procurement is in progress for Visual alarm system at NMPA.
 </t>
   </si>
   <si>
-    <t>1. completion of KK gate and Cruise gate RFID\FRS system installation.
-2. Turnstile issue rectification
-3. CAMC Bill submission</t>
+    <t>1. Completing installation of KK gate cruise gate.
+2. Handover the site to NMPA</t>
+  </si>
+  <si>
+    <t>Turnstile vendor PO not yet released</t>
   </si>
   <si>
     <t>Prashant P</t>
@@ -742,13 +722,14 @@
 Payment 100% after successful installation.</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302 traffic light material delivery and installation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">302 traffic light delivery </t>
+    <t xml:space="preserve">O &amp; M work is going on.
+302 new traffic light under procurement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O &amp; M activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 light deliveries pending. </t>
   </si>
   <si>
     <t>Sachin R</t>
@@ -774,19 +755,28 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M continue
-VMD module request but approval pending 
-ATCS controller procurement pending from last 2 month
+    <t xml:space="preserve">O &amp; M continue in second year first quarter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O &amp; M activity.
+All Projects Inclusive : ( ICCC , C1 ,C2 , VMC-Amrut ,VMC-P4 , VMC-CCTV )
+All sever project are Under O &amp; M 
+First year Fourt quarter invoice we will submit this week --- ICCC
+Last Two quarter invoice are under process --- ICCC
+302 Traffic light under procurement --- VMC ATCS
+C1 &amp; C2 last quarter o &amp; m invoice under process 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M activity continue 
-Last quarter invoice submission </t>
-  </si>
-  <si>
-    <t>VMD module request but approval pending - If not supply timely client impose penalty.
-ATCS controller procurement pending from last 2 month.
-New VMD controller and VMD application deployment pending from last one year.</t>
+    <t xml:space="preserve">
+20 no CDT and 5 no of DC controller spare material procurement pending since long time
+VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
+11 no of VMD LED tile have issue. Need to purchase new module - ICCC
+22 no of UCON 10 controller we needs to replace. - ICCC 
+300 faulty module given to OEM for replace material  --- VMC-P4 LED 
+Two VMD module need under procurement- Gandhinagar 
+40 no location battery stolen. Insurance under process 
+17 no ups under repairing </t>
   </si>
   <si>
     <t>ISCDL</t>
@@ -817,21 +807,20 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 39 ATCS out of 50, 19 ITMS out of 28, 17 SVDS out of 20, 7 TVDS out of 10, 20 Entry-Exit Junction and Location completed.
-2. Hold 11 ATCS and 9 ITMS junction work letter received from ISCDL.
-3. Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received from ISCDL.
-4. Hold junction CAPEX cost submitted at ISCDL for cost approval and Billing.
-5. Submitted invoices for completed work including other recurring cost are under verification by CDO sir and ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.
+    <t xml:space="preserve">1. Hold 11 ATCS and 9 ITMS junction work letter received.
+2. Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received.
+3. Hold junction CAPEX cost approval and Billing mail received.
+4. Submitted invoices for completed work including other recurring cost are under verification by CDO sir and ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.
+5. Dt:- 26-09-2025, Note sheet will be reached at CEO sir table for signing.
 </t>
   </si>
   <si>
-    <t>1. Hold junction CAPEX cost approval verified by ISCDL team and will received approval on Monday dt:- 22-09-2025.
-2. Payment of 50 Lakh will be released by upcoming week.
-3. New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL.
-4. As per CDO sir, Go-Live note will be carried on Tuesday, post they will released the Go-live letter in week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Post the ISCDL cost approval, Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
+    <t>1. New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL.
+4. As per CDO sir, Go-Live note sheet are preparing and will be released in upcoming week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
+2. Material approval including dispatching required as per site consumption report.
 </t>
   </si>
   <si>
@@ -1032,30 +1021,27 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t xml:space="preserve">	Primary &amp; Backup Servers – Fully configured, tested, delivered, and installed; ready for use. Powered up and activity in progress.
-	Substations 1, 2 &amp; 3 (MFM Meter Communication) – Network setup completed; pending switch rack installation by JNPA vendor with switch availabilty. Meter-to-server communication to be established post port enablement.
-	ABT Meters – Two meters installed in custom-designed panel; pending series connection with incomers and CAT-6 cabling. Coordination with MSETCL and Secutech required for completion.
-	RMU Panel Meter Communication – Survey completed; converter/cabling finalized. Pending OFC network support from JNPA vendor. This has been under doscuusion and is taken up by JNPA for clearing pendency’s from their end.Pnce this is cleared, we may start the communication setup work .
-	Water Flow Meters – 62 meters delivered. Installation of ~30 (40 mm) meters planned, subject to infra readiness by JNPA Water Dept. Larger meter installation pending location finalization.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Servers: Power-up and final validation of Primary &amp; Backup Servers.
-	Substations: Coordinate with JNPA vendor (Secutech) to enable one port in switch rack; once available, establish converter-to-switch connections.
-	ABT Meters: Finalize panel base installation; invite MSETCL testing team schedule for series connection.
-	RMU Panels: Begin setup of communication network (converter &amp; adapter in sintex box) for 1st RMU.
-	Water Flow Meters: Follow up with Water Dept. for confirmation of infra works (valves, ducts, power supply).
-</t>
+    <t>Primary &amp; Backup Servers – Fully configured, tested, and installed. Ready for operation from 15-09-2025.
+Substations 1, 2 &amp; 3 (MFM Meters) – Network setup completed. Awaiting switch rack installation by JNPA to enable data communication.
+ABT Meters – Installed and panel placed. Awaiting base installation, MSETCL testing, and switch installation for data connectivity.
+RMU Panel Communication – Survey and planning complete. Awaiting JNPA support for switch and OFC connectivity. Work can begin on RMUs currently offline.
+Water Flow Meters – 62 delivered, 3 installed. Awaiting infra readiness (valves, ducts, etc.) from Water Dept. for ~30 more installations. Larger meter installation delayed due to location finalization.</t>
+  </si>
+  <si>
+    <t>Software integration and deployment to client side</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t xml:space="preserve">	Vendor Delays – Switch port enablement &amp; OFC network pending from JNPA vendors.
-	External Coordination – MSETCL team scheduling and Water Dept. infra readiness may delay tasks.
-	Infra Constraints – Cabling, ducting, and larger water meter installations may need extra time from water dept,JNPA.
-	RMU OFC connectivity -OFC connectivity is not yet available and further under discussion from JNPA, hence this task is not yet started.
-</t>
+    <t>Network Delays:
+Delay in switch installation and OFC connectivity by JNPA is holding up data retrieval across substations, ABT meters, and RMUs.
+Infrastructure Readiness:
+Water meter installations delayed due to pending civil and plumbing works (valves, ducts, power) from Water Dept.
+Coordination with Multiple Teams:
+Dependencies on JNPA Network, Water, and SCADA teams are causing bottlenecks in parallel progress.
+SCADA Integration Uncertainty:
+Lack of API or clear approval for EMS data retrieval via SCADA is stalling server-side integration.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1259,14 +1245,13 @@
 SITC  of  SERVERS , DESKTOPS AND ASSOCIATED INFRASTRUCTURE</t>
   </si>
   <si>
-    <t>LOI is expected from MSI
-Pre-TAT activities done 
-Project initiation activities under progress
-BOQ is being finalized
-Discussion with OEM to be initiated post receiving of LOI</t>
-  </si>
-  <si>
-    <t>Discussion with OEM to be initiated post receiving of LOI</t>
+    <t>We have still  not received the order and SO is not generated, as per sales - Mr. Parag the final signature is awaited from customer side.</t>
+  </si>
+  <si>
+    <t>Once the Order is generated in our system we will ask Purchase to start taking the quotes and do negotiations along with Meeting with All identified vendors as per scope at site.</t>
+  </si>
+  <si>
+    <t>Crisp delivery timeliness and multiple vendors to deliver the entire solution makes it complex and timely follow-up and push is needed.</t>
   </si>
   <si>
     <t>Vinod S</t>
@@ -1466,7 +1451,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B22D4963-EE67-49B4-8634-42516F48233E}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{53F31ABD-C7A2-4819-BEFD-4831D86C3798}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1795,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EB5CD-31F8-423F-A73F-629377193CD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761C5B38-41B4-4235-BB5C-7ACAB6CC2398}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2135,29 +2120,29 @@
       <c r="R4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="11">
-        <v>0</v>
+      <c r="S4" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="AA4" s="13">
         <v>0.22115225934161375</v>
@@ -2169,7 +2154,7 @@
         <v>58</v>
       </c>
       <c r="AD4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -2177,16 +2162,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>33</v>
@@ -2216,40 +2201,40 @@
         <v>0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="10">
         <v>0.16546413092938081</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z5" s="12">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="AA5" s="13">
         <v>0.37262974390444603</v>
@@ -2258,10 +2243,10 @@
         <v>0.33027289323308273</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -2269,19 +2254,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" s="8">
         <v>1265.69472</v>
@@ -2308,52 +2293,52 @@
         <v>0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" s="10">
         <v>0.34405265196966295</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z6" s="12">
         <v>45918</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2361,19 +2346,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" s="8">
         <v>2186.2800000000002</v>
@@ -2400,40 +2385,40 @@
         <v>162.75</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P7" s="10">
         <v>0.14888303419507107</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z7" s="12">
-        <v>45917</v>
+        <v>45925</v>
       </c>
       <c r="AA7" s="13">
         <v>0.21406871945813666</v>
@@ -2442,10 +2427,10 @@
         <v>0.32590705634920647</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD7" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2453,13 +2438,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -2501,28 +2486,28 @@
         <v>35</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z8" s="12">
         <v>45925</v>
@@ -2534,10 +2519,10 @@
         <v>0.10999999996973608</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2545,19 +2530,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G9" s="8">
         <v>1372.5805700000001</v>
@@ -2584,19 +2569,19 @@
         <v>33.449428699999999</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P9" s="10">
         <v>0.31367908617561158</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>131</v>
@@ -2617,7 +2602,7 @@
         <v>136</v>
       </c>
       <c r="Z9" s="12">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="AA9" s="13">
         <v>0.1954000003408819</v>
@@ -2626,7 +2611,7 @@
         <v>0.11441806775377272</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD9" s="15" t="s">
         <v>137</v>
@@ -2649,7 +2634,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G10" s="8">
         <v>5337.5</v>
@@ -2682,7 +2667,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>141</v>
@@ -2797,11 +2782,11 @@
       <c r="X11" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Y11" s="11">
-        <v>0</v>
+      <c r="Y11" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="Z11" s="12">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="AA11" s="13">
         <v>-0.23918662882570962</v>
@@ -2813,7 +2798,7 @@
         <v>150</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2821,19 +2806,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G12" s="8">
         <v>1045.762712</v>
@@ -2860,52 +2845,52 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z12" s="12">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB12" s="13">
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2913,19 +2898,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G13" s="8">
         <v>2019.8763390000001</v>
@@ -2958,34 +2943,34 @@
         <v>0.1643651001745805</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z13" s="12">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="AA13" s="13">
         <v>0.2171250438887713</v>
@@ -2994,10 +2979,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -3005,19 +2990,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" s="8">
         <v>2903.04126</v>
@@ -3044,40 +3029,40 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z14" s="12">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="AA14" s="13">
         <v>-5.273871039764888E-2</v>
@@ -3086,10 +3071,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3097,19 +3082,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" s="8">
         <v>1047.3630700000001</v>
@@ -3136,52 +3121,52 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z15" s="12">
         <v>45915</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB15" s="13">
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3189,19 +3174,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G16" s="8">
         <v>669.18430290000003</v>
@@ -3228,37 +3213,37 @@
         <v>6.2230499999999997</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P16" s="10">
         <v>0.8725374614581386</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z16" s="12">
         <v>45925</v>
@@ -3270,10 +3255,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3281,19 +3266,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" s="8">
         <v>437.16408000000001</v>
@@ -3320,7 +3305,7 @@
         <v>72.059212500000001</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3329,28 +3314,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z17" s="12">
         <v>45925</v>
@@ -3359,13 +3344,13 @@
         <v>0.61442879884363322</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3373,19 +3358,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3412,52 +3397,52 @@
         <v>155.5</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P18" s="10">
         <v>0.90769230769230758</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z18" s="12">
-        <v>45917</v>
+        <v>45925</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3465,19 +3450,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" s="8">
         <v>111.36</v>
@@ -3504,52 +3489,52 @@
         <v>11.135999999999999</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z19" s="12">
         <v>45917</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AD19" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -3557,19 +3542,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
@@ -3605,43 +3590,43 @@
         <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z20" s="12">
         <v>45919</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3649,13 +3634,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3688,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3697,43 +3682,43 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="X21" s="11">
         <v>0</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z21" s="12">
         <v>45924</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3741,16 +3726,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21">
@@ -3778,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3787,43 +3772,43 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="S22" s="24">
-        <v>0</v>
+        <v>283</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="Y22" s="24">
-        <v>0</v>
+      <c r="Y22" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="Z22" s="25">
-        <v>45910</v>
+        <v>45925</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB22" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3836,7 +3821,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2CBDAC98-6D0D-4508-90D0-017659B01A30}</x14:id>
+          <x14:id>{5E29F037-DE7F-4790-A495-3555CEED0B1C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3846,7 +3831,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2CBDAC98-6D0D-4508-90D0-017659B01A30}">
+          <x14:cfRule type="dataBar" id="{5E29F037-DE7F-4790-A495-3555CEED0B1C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE58C58-5045-4756-9506-4A5C570B845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3750472C-1299-477F-9716-60024EC5F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{33711BEF-966A-4455-820F-1B16912BF533}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8675C23E-BECA-43BA-900B-2A2CF917228A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="289">
   <si>
     <t>SN</t>
   </si>
@@ -380,7 +380,7 @@
     <t>Start Date (PO) : 18-Dec-23 :: End Date (PO) : 17-Dec-29</t>
   </si>
   <si>
-    <t>25</t>
+    <t>23</t>
   </si>
   <si>
     <t>As per achievment</t>
@@ -397,45 +397,17 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t xml:space="preserve">Section 1
-1. Print option to include the header of subject – List of Holidays observed during the calendar year ….. (Done)
-2. Movement, sent to, sent from, purpose, status is not covered. (Done ) 
-Note: For Movement -""Sent to"", ""Sent from"" should correctly shown on action perform)
-3. Maker Checker to be covered (Done )
-4.On approval, calendar all over ERP to highlight RH, Public holidays, Saturday, Sundays in different colour. (On Dashboard Calender Description of  holiday name is required when user click on particular date of Holiday)-Done
-5.Leave rules/business logic should also consider the RH, Public holiday, Saturday, Sundays while calculating no. of days based on logics set.(Done)
-Section 2
-1. Applying for multiple types of leave is not covered. Leave Type – Multi-selection of leave option as per business rules (CMS: New Feature)
-2. Reason – Drop down to be available along with any other option. (CMS: Client already removed this requirement, now the client again wants this requirement)
-3. Station leave period is different from leave applied period, therefore, after you want to apply for station leave, from and to date of station leave to be get captured. (CMS: Resolved)
-4. Do you want to apply for station leave – ‘also’ after station leave word to be added (CMS: Not to Implemented, a separate leave type STNL is added instead).
-5. Contact no. while of leave - Check box to select contact as available in office records / update different contact no. (CMS: Resolved)
-6. Option to add multiple station leave to be available.(CMS: New Feature)
-7. The slot is to be opened only upon selection of casual leave. Except for casual leave, no half day is allowed for any other type of leave.  (CMS: Resolved)
-8. After selection of from &amp; to date and slot selection – no. of days leave applied to be viewed. (CMS: Resolved)
-9. Related document – view option to be available . (CMS: As per Discussion – View Detail screen is already present)
-10.Before submission, message pop up before final submission. (CMS: As per Discussion –Not to be Implement).
-11. While selecting date from calendar RH, Public holidays, Saturday, Sundays are to be shown in different colour. (CMS: Provision is already implemented)
-12. Leave rules/business logic should also consider the RH, Public holiday, Saturday, Sundays while calculating no. of days based on logics set. (CMS: Resolved)
-13. On selection of from and to date- no. of days to get auto-calculated considering RH, Public holiday, Saturday, Sundays, and applicable business logics. (CMS: Resolved)
-14. How to apply only for station leave is not clear. CMS: Leave Type for Station Leave is already implemented
-Notification on leave submission/ approval/ return to be shown under dashboard, e-mail, message is not covered. (CMS: New Feature, not feasible)
-15. Applying for station leave only is not allowed in the given UAT. Error is shown. (CMS: Resolved)
-16. In case of dual reporting, how leave to be get approved or to whom it will sent is not clear. Information of leave to be available with both the reporting officers. (CMS: Approval flow is already implemented; not feasible at this moment)
-17. In case of reporting officer is on leave, pull option is available with officer to send leave to alternate reporting office / next higher authority by searching name of the officer and send option.  (CMS: Approval flow is already implemented; not feasible at this moment)
-</t>
-  </si>
-  <si>
-    <t>Mobile Application – Apple iOS
-UAT observations of IT, Admin and Legal modules
-Go live compliance documentation in line with the RFP
-VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.</t>
+    <t>→ Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
+→ Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month — requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
+→ VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
+→ Payment collection for implementation milestone.
+→ Billing for remaining milestones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAPT Certificate,11 Pending Points From HRMS, </t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
-  </si>
-  <si>
-    <t>ODOO resources for completion of pending tasks</t>
   </si>
   <si>
     <t/>
@@ -840,9 +812,6 @@
   </si>
   <si>
     <t>Start Date (PO) : 29-Oct-18 :: End Date (PO) : 30-Sep-25</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>As per Achievement</t>
@@ -1080,37 +1049,23 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t>Module End Date Work Status Environment
-Authentication 4-July Done Production
-Landing Page 24-June Done Production
-Agency Selection 4-July Done Production
-View Girder Assign. 14-July Done Production
-WPSS &amp; QAP Submission 19-June Done Production
-Approver 10-July Done Production
-Module Integration 29-June Done Production
-Inter Service Communication 29-June Done Production
-View Download GAD 20-June Done Production
-Add New Girder &amp; Contractor 02-Aug Done Production
-Data Migration 28-June Done Production
-Agency Selection Module 30-July 29-Aug Done
-GAD Management Module 30-July 11-Aug Done
-Stake Holder &amp; Employee Onboarding 12-Aug 8-Sep Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girder Fabrication &amp; Raw Material
-Approval Process 
-Email Integration 
-Dashboard &amp; Listing Management
-WPQR Preparation &amp; Submission
-(Welding Procedure Qualification
-Record)
+    <t xml:space="preserve">1. WPSS  and QAP  ui completed and API integration done testing
+2. WPQR UI completed API integration done
+3. RAW Material ui done api integration in progress
+4. Plate Layout ui completed api integration in progress
 </t>
   </si>
   <si>
+    <t>1. WPQR process completion
+2. RAW material Completion
+3. Plate Layout API integration
+4. Cutting Edge UI completion</t>
+  </si>
+  <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
   </si>
   <si>
-    <t>Frequently requirements changes from clients</t>
+    <t xml:space="preserve">Continue changes in requirements. </t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1451,7 +1406,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{53F31ABD-C7A2-4819-BEFD-4831D86C3798}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7CEE62CC-29B9-4F94-A174-767C35A3B1AC}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1780,7 +1735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761C5B38-41B4-4235-BB5C-7ACAB6CC2398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE5697-1EBB-4546-BA67-9EC17FF8106E}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1919,7 +1874,7 @@
         <v>252.8043937999995</v>
       </c>
       <c r="M2" s="8">
-        <v>140.04075780000008</v>
+        <v>140.04075780000014</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -2088,31 +2043,31 @@
         <v>849.8214484745763</v>
       </c>
       <c r="H4" s="8">
-        <v>402.06583000000001</v>
+        <v>401.10391100000004</v>
       </c>
       <c r="I4" s="8">
         <v>67</v>
       </c>
       <c r="J4" s="8">
-        <v>469.06583000000001</v>
+        <v>468.10391100000004</v>
       </c>
       <c r="K4" s="8">
         <v>33</v>
       </c>
       <c r="L4" s="9">
-        <v>447.75561847457629</v>
+        <v>448.71753747457626</v>
       </c>
       <c r="M4" s="8">
-        <v>148.55127779999995</v>
+        <v>147.58935879999993</v>
       </c>
       <c r="N4" s="8">
-        <v>33.610999000000007</v>
+        <v>32.649080000000005</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="P4" s="10">
-        <v>0.47311800699041595</v>
+        <v>0.47198609980952921</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>35</v>
@@ -2322,23 +2277,23 @@
       <c r="X6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>45925</v>
+      </c>
+      <c r="AA6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" s="12">
-        <v>45918</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="AB6" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>86</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2346,13 +2301,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2385,37 +2340,37 @@
         <v>162.75</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P7" s="10">
         <v>0.14888303419507107</v>
       </c>
       <c r="Q7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="U7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="V7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="W7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="X7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="Z7" s="12">
         <v>45925</v>
@@ -2427,10 +2382,10 @@
         <v>0.32590705634920647</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2438,13 +2393,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -2486,28 +2441,28 @@
         <v>35</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="T8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="U8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="W8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="Z8" s="12">
         <v>45925</v>
@@ -2519,10 +2474,10 @@
         <v>0.10999999996973608</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2530,19 +2485,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="8">
         <v>1372.5805700000001</v>
@@ -2569,37 +2524,37 @@
         <v>33.449428699999999</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P9" s="10">
         <v>0.31367908617561158</v>
       </c>
       <c r="Q9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="S9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="Z9" s="12">
         <v>45925</v>
@@ -2611,10 +2566,10 @@
         <v>0.11441806775377272</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2622,19 +2577,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="8">
         <v>5337.5</v>
@@ -2661,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2670,28 +2625,28 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="Z10" s="12">
         <v>45925</v>
@@ -2703,10 +2658,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2714,19 +2669,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2753,7 +2708,7 @@
         <v>-14.359203600000001</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P11" s="10">
         <v>0.33126882165643717</v>
@@ -2762,28 +2717,28 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="T11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="U11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="X11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="Z11" s="12">
         <v>45925</v>
@@ -2795,10 +2750,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2806,19 +2761,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="8">
         <v>1045.762712</v>
@@ -2845,52 +2800,52 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="Z12" s="12">
         <v>45926</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB12" s="13">
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2898,19 +2853,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="8">
         <v>2019.8763390000001</v>
@@ -2937,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2946,28 +2901,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="T13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="X13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="Z13" s="12">
         <v>45926</v>
@@ -2979,10 +2934,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2990,19 +2945,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="8">
         <v>2903.04126</v>
@@ -3029,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3038,28 +2993,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="Z14" s="12">
         <v>45926</v>
@@ -3071,10 +3026,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3082,13 +3037,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3121,52 +3076,52 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="T15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="Z15" s="12">
         <v>45915</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB15" s="13">
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3174,76 +3129,76 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="8">
         <v>669.18430290000003</v>
       </c>
       <c r="H16" s="8">
-        <v>583.88837290000015</v>
+        <v>589.32837290000009</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
       </c>
       <c r="J16" s="8">
-        <v>583.88837290000015</v>
+        <v>589.32837290000009</v>
       </c>
       <c r="K16" s="8">
         <v>325</v>
       </c>
       <c r="L16" s="9">
-        <v>85.295929999999885</v>
+        <v>79.855929999999944</v>
       </c>
       <c r="M16" s="8">
-        <v>268.73399999999998</v>
+        <v>274.17399999999998</v>
       </c>
       <c r="N16" s="8">
-        <v>6.2230499999999997</v>
+        <v>11.66305</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0.88066676152752899</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="P16" s="10">
-        <v>0.8725374614581386</v>
-      </c>
-      <c r="Q16" s="16" t="s">
+      <c r="S16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="X16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="Z16" s="12">
         <v>45925</v>
@@ -3255,10 +3210,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3266,19 +3221,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="8">
         <v>437.16408000000001</v>
@@ -3305,7 +3260,7 @@
         <v>72.059212500000001</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3314,28 +3269,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="X17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="Z17" s="12">
         <v>45925</v>
@@ -3344,13 +3299,13 @@
         <v>0.61442879884363322</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3358,91 +3313,91 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
       </c>
       <c r="H18" s="8">
-        <v>155.5</v>
+        <v>131.779661</v>
       </c>
       <c r="I18" s="8">
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <v>155.5</v>
+        <v>131.779661</v>
       </c>
       <c r="K18" s="8">
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>15.81355932203391</v>
+        <v>39.533898322033906</v>
       </c>
       <c r="M18" s="8">
-        <v>155.5</v>
+        <v>131.779661</v>
       </c>
       <c r="N18" s="8">
-        <v>155.5</v>
+        <v>131.779661</v>
       </c>
       <c r="O18" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0.76923076913183275</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="P18" s="10">
-        <v>0.90769230769230758</v>
-      </c>
-      <c r="Q18" s="11" t="s">
+      <c r="S18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="U18" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="T18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="Z18" s="12">
         <v>45925</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3450,13 +3405,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3489,52 +3444,52 @@
         <v>11.135999999999999</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="X19" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="Z19" s="12">
-        <v>45917</v>
+        <v>45926</v>
       </c>
       <c r="AA19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC19" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD19" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC19" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD19" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -3542,13 +3497,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3587,46 +3542,46 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="V20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="Z20" s="12">
         <v>45919</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3634,13 +3589,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3673,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3682,43 +3637,43 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="X21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="X21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="Z21" s="12">
         <v>45924</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3726,13 +3681,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>279</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>281</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3763,52 +3718,52 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="T22" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="P22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="24" t="s">
+      <c r="U22" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="S22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="T22" s="24" t="s">
+      <c r="V22" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="W22" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="V22" s="24" t="s">
+      <c r="X22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y22" s="24" t="s">
         <v>286</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="X22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y22" s="24" t="s">
-        <v>288</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB22" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3821,7 +3776,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E29F037-DE7F-4790-A495-3555CEED0B1C}</x14:id>
+          <x14:id>{960D04B8-A0FC-46F0-992B-3722E5DBF7F2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3831,7 +3786,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5E29F037-DE7F-4790-A495-3555CEED0B1C}">
+          <x14:cfRule type="dataBar" id="{960D04B8-A0FC-46F0-992B-3722E5DBF7F2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3750472C-1299-477F-9716-60024EC5F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D4565A-43F1-4572-B5F9-700241E8646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8675C23E-BECA-43BA-900B-2A2CF917228A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{046D4FE0-ACBE-415E-92E3-67297555943A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="290">
   <si>
     <t>SN</t>
   </si>
@@ -434,7 +434,7 @@
     <t>Start Date (PO) : 13-Nov-24 :: End Date (PO) : 12-Nov-27</t>
   </si>
   <si>
-    <t>32</t>
+    <t>38</t>
   </si>
   <si>
     <t>As per achievment, Phase 1 - 321 L</t>
@@ -447,14 +447,18 @@
 Deployment of proposed 33 resources. (+5 in phase 2)</t>
   </si>
   <si>
-    <t>All Nine modules of Phase I done in UAT. Drone moved to Phase II
-Phase II requirement gathering done for BICRS, Road Closure, and Payments
-Development started on BICRS module.</t>
-  </si>
-  <si>
-    <t>Deployment of RSA, TM and BICRS on production.
-Start development of Road closure. 
-Requirement gather for other modules of phase II</t>
+    <t>-&gt; Phase 1 all 4 tracks billing completed
+-&gt; Payment received till Track 3 for Phase 1.
+-&gt; All Nine modules of Phase I development done. 
+-&gt; 7 in production 2 in UAT. 
+-&gt; Drone moved to Phase II
+-&gt; Phase II requirement gathering done for BICRS, Road Closure, and Payments
+-&gt; Development started on BICRS module, Road Closure.</t>
+  </si>
+  <si>
+    <t>-&gt; Deployment of RSA, TM, BICRS and Team Structure on production.
+-&gt; Development of Road closure. 
+-&gt; Requirement gather for other modules of phase II - CO Division (Onboarding, Toll Master), Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE. Employee Directory</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
@@ -539,6 +543,9 @@
   </si>
   <si>
     <t>Start Date (PO) : 30-Aug-24 :: End Date (PO) : 31-Oct-29</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>As per milestone</t>
@@ -1406,7 +1413,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7CEE62CC-29B9-4F94-A174-767C35A3B1AC}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BFFA1C69-9B1E-47E2-BDAE-D099FFFAD309}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1735,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE5697-1EBB-4546-BA67-9EC17FF8106E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACEF49-08F7-4DA3-B9A6-90A7C7D43FB8}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2536,25 +2543,25 @@
         <v>129</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z9" s="12">
         <v>45925</v>
@@ -2569,7 +2576,7 @@
         <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2577,13 +2584,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
@@ -2616,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2625,28 +2632,28 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z10" s="12">
         <v>45925</v>
@@ -2658,10 +2665,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2669,19 +2676,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2708,7 +2715,7 @@
         <v>-14.359203600000001</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" s="10">
         <v>0.33126882165643717</v>
@@ -2717,28 +2724,28 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z11" s="12">
         <v>45925</v>
@@ -2750,10 +2757,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2761,13 +2768,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -2800,37 +2807,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z12" s="12">
         <v>45926</v>
@@ -2842,10 +2849,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2853,13 +2860,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -2892,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2901,28 +2908,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z13" s="12">
         <v>45926</v>
@@ -2934,10 +2941,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2945,13 +2952,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -2984,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -2993,28 +3000,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z14" s="12">
         <v>45926</v>
@@ -3026,10 +3033,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3037,13 +3044,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3076,37 +3083,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>91</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z15" s="12">
         <v>45915</v>
@@ -3118,10 +3125,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3129,16 +3136,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3168,37 +3175,37 @@
         <v>11.66305</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P16" s="10">
         <v>0.88066676152752899</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z16" s="12">
         <v>45925</v>
@@ -3210,10 +3217,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3221,13 +3228,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3260,7 +3267,7 @@
         <v>72.059212500000001</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3269,28 +3276,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z17" s="12">
         <v>45925</v>
@@ -3302,10 +3309,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3313,19 +3320,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3352,37 +3359,37 @@
         <v>131.779661</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P18" s="10">
         <v>0.76923076913183275</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z18" s="12">
         <v>45925</v>
@@ -3394,10 +3401,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3405,13 +3412,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3444,37 +3451,37 @@
         <v>11.135999999999999</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="12">
         <v>45926</v>
@@ -3486,7 +3493,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3497,13 +3504,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3542,31 +3549,31 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z20" s="12">
         <v>45919</v>
@@ -3578,10 +3585,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3589,13 +3596,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3628,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3637,28 +3644,28 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="X21" s="11">
         <v>0</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z21" s="12">
         <v>45924</v>
@@ -3670,10 +3677,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3681,13 +3688,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3718,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3727,28 +3734,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X22" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3760,10 +3767,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3783,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{960D04B8-A0FC-46F0-992B-3722E5DBF7F2}</x14:id>
+          <x14:id>{F335A91F-CAD3-4DD9-BE22-AA57FE27424B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3786,7 +3793,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{960D04B8-A0FC-46F0-992B-3722E5DBF7F2}">
+          <x14:cfRule type="dataBar" id="{F335A91F-CAD3-4DD9-BE22-AA57FE27424B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D4565A-43F1-4572-B5F9-700241E8646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B5F19ED-C903-45A5-8A2A-B121A75CE921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{046D4FE0-ACBE-415E-92E3-67297555943A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B38284D5-495C-47BD-B191-DAFC9B60B089}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -786,20 +786,19 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Hold 11 ATCS and 9 ITMS junction work letter received.
-2. Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received.
-3. Hold junction CAPEX cost approval and Billing mail received.
-4. Submitted invoices for completed work including other recurring cost are under verification by CDO sir and ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.
-5. Dt:- 26-09-2025, Note sheet will be reached at CEO sir table for signing.
-</t>
-  </si>
-  <si>
-    <t>1. New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL.
-4. As per CDO sir, Go-Live note sheet are preparing and will be released in upcoming week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
-2. Material approval including dispatching required as per site consumption report.
+    <t>1] Hold 11 ATCS and 9 ITMS junction work letter received.
+2] Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received.
+3] Hold junction CAPEX cost approval and Billing mail received.
+4] Submitted invoices for completed work including other recurring cost are under verification by CDO sir and ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.
+5] Dt:- 26-09-2025, Note sheet will be reached at CEO sir table for signing.</t>
+  </si>
+  <si>
+    <t>1] New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL.
+2] As per CDO sir, Go-Live note sheet are preparing and will be released in upcoming week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
+2] Material approval including dispatching required as per site consumption report.
 </t>
   </si>
   <si>
@@ -958,7 +957,7 @@
 3) Doing follow-up with L&amp;T for Next work Order</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Interview planned for 10 Candidates
+    <t xml:space="preserve">'1) Interview planned for 10 Candidates
 2) User ID deletion from Customer Active Directory for resigned employees
 3) Client and Operators List for Diwali Gift
 4) Salary Attendance and Salary Sheet preparation  </t>
@@ -1056,17 +1055,17 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. WPSS  and QAP  ui completed and API integration done testing
-2. WPQR UI completed API integration done
-3. RAW Material ui done api integration in progress
-4. Plate Layout ui completed api integration in progress
+    <t xml:space="preserve">1] WPSS  and QAP  ui completed and API integration done testing
+2] WPQR UI completed API integration done
+3] RAW Material ui done api integration in progress
+4] Plate Layout ui completed api integration in progress
 </t>
   </si>
   <si>
-    <t>1. WPQR process completion
-2. RAW material Completion
-3. Plate Layout API integration
-4. Cutting Edge UI completion</t>
+    <t>1] WPQR process completion
+2] RAW material Completion
+3] Plate Layout API integration
+4] Cutting Edge UI completion</t>
   </si>
   <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
@@ -1413,7 +1412,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BFFA1C69-9B1E-47E2-BDAE-D099FFFAD309}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{569B6B07-C155-49CC-95DD-89AFEA76522B}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1742,7 +1741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACEF49-08F7-4DA3-B9A6-90A7C7D43FB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992EB5E-9E82-4E6D-A4DE-CE76F715FD34}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3783,7 +3782,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F335A91F-CAD3-4DD9-BE22-AA57FE27424B}</x14:id>
+          <x14:id>{F3F93235-4F76-46EC-A6F7-0C7E98164CBE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3793,7 +3792,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F335A91F-CAD3-4DD9-BE22-AA57FE27424B}">
+          <x14:cfRule type="dataBar" id="{F3F93235-4F76-46EC-A6F7-0C7E98164CBE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B5F19ED-C903-45A5-8A2A-B121A75CE921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7417D5F9-DCBF-4227-B953-989D0324A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B38284D5-495C-47BD-B191-DAFC9B60B089}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6859A54-6554-4465-A2F6-53CA5B5DEECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
   <si>
     <t>SN</t>
   </si>
@@ -1168,6 +1168,11 @@
 - Brouchures
 - Career at ITPO
 - Admin Panel</t>
+  </si>
+  <si>
+    <t>- Backend: Node.js (Java script- Nest.Js Framework)
+- Frontend: Angular
+- DB: MySQL</t>
   </si>
   <si>
     <t>- One of our team members, Bhawesh Bhanu, is currently hospitalized. NeGD wants to ensure that there is no disruption in deliveries and that Bhawesh can actively engage in the upcoming KT sessions with the existing vendor.
@@ -1412,7 +1417,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{569B6B07-C155-49CC-95DD-89AFEA76522B}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3E1200F2-9285-47FD-9352-408BBE369C07}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1741,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992EB5E-9E82-4E6D-A4DE-CE76F715FD34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F9CC32-CFEE-4B43-AF06-EBD31C3E988A}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3376,7 +3381,7 @@
         <v>238</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>239</v>
@@ -3660,11 +3665,11 @@
       <c r="W21" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="X21" s="11">
-        <v>0</v>
+      <c r="X21" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z21" s="12">
         <v>45924</v>
@@ -3679,7 +3684,7 @@
         <v>267</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3687,13 +3692,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3724,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3733,28 +3738,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>135</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3766,10 +3771,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3787,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F3F93235-4F76-46EC-A6F7-0C7E98164CBE}</x14:id>
+          <x14:id>{CD14923C-D71E-488C-8197-0974559A3917}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3792,7 +3797,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F3F93235-4F76-46EC-A6F7-0C7E98164CBE}">
+          <x14:cfRule type="dataBar" id="{CD14923C-D71E-488C-8197-0974559A3917}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7417D5F9-DCBF-4227-B953-989D0324A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5257CDF4-88D5-4196-B04A-9E84A492826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6859A54-6554-4465-A2F6-53CA5B5DEECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BDF7EB7-7350-4F4F-B9F7-4004486DF2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1417,7 +1417,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3E1200F2-9285-47FD-9352-408BBE369C07}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F68AB73C-C9A6-4D6C-A615-D1A81782F3F5}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1746,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F9CC32-CFEE-4B43-AF06-EBD31C3E988A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E96AAF-B905-4709-96E8-B3ADDD243F9E}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3158,31 +3158,31 @@
         <v>669.18430290000003</v>
       </c>
       <c r="H16" s="8">
-        <v>589.32837290000009</v>
+        <v>650.51515290000009</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
       </c>
       <c r="J16" s="8">
-        <v>589.32837290000009</v>
+        <v>650.51515290000009</v>
       </c>
       <c r="K16" s="8">
         <v>325</v>
       </c>
       <c r="L16" s="9">
-        <v>79.855929999999944</v>
+        <v>18.669149999999945</v>
       </c>
       <c r="M16" s="8">
-        <v>274.17399999999998</v>
+        <v>335.36077999999998</v>
       </c>
       <c r="N16" s="8">
-        <v>11.66305</v>
+        <v>72.849829999999997</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>210</v>
       </c>
       <c r="P16" s="10">
-        <v>0.88066676152752899</v>
+        <v>0.97210163191351817</v>
       </c>
       <c r="Q16" s="16" t="s">
         <v>211</v>
@@ -3787,7 +3787,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CD14923C-D71E-488C-8197-0974559A3917}</x14:id>
+          <x14:id>{BE45DCD1-BE7B-4B37-AF13-05B02D705017}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3797,7 +3797,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CD14923C-D71E-488C-8197-0974559A3917}">
+          <x14:cfRule type="dataBar" id="{BE45DCD1-BE7B-4B37-AF13-05B02D705017}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5257CDF4-88D5-4196-B04A-9E84A492826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4132C896-EB40-499B-B939-F410EC97085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BDF7EB7-7350-4F4F-B9F7-4004486DF2B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B32C632-1E21-4374-9F18-CDB9C94C42A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="290">
   <si>
     <t>SN</t>
   </si>
@@ -1083,35 +1083,37 @@
     <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : Order to log</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Development, deployment, and support of NOC Portal with modules for Login, User Registration, Application Submission, and Approval workflows.
 Implementation of Registration &amp; Validation including Mobile OTP, GST validation, Aadhaar integration, and User Authorization.
 Enable Application Submission with GIS data pickup, document upload, affidavit submission, e-sign, payment gateway, and Q&amp;A module.
 Workflow automation for Right of Way (ROW) applications with end-to-end submission tracking.</t>
   </si>
   <si>
-    <t>Total 9 modules (functionalities to be developed in this project.
-Completed - 4
+    <t>Total 12 modules (functionalities) to be developed in this project.
+Completed - 5
 In progress - 3
-Pending (dependencies from Client) - 2
--&gt; Module-wise Status with remarks as below; 
-1] UIDAI Aadhaar Integration - Pending -Awaiting initiation and final approvals.
-2] CDAC E-Sign Integration - Completed - Fully integrated and tested.
-3] Bharatkosh Payment Integration - Completed - Live and functional.
-4] GIS Data Cleaning - In Progress - Data refinement activities underway.
-5] GIS Data (Geo Server Setup) - Pending - Geo Server establishment blocked due to Docker image support issue; Shridhar is investigating. MoRTH confirmation is still awaited.
-6] PA/CA/AE/IE User Data Cleaning - In Progress - User data validation and cleaning ongoing.
-7] Amenity Listing - Completed - Finalized and ready for use.
-8] Utility Listing -In Progress - Listing and validation activities ongoing.
-9] Compliance Questions - Completed - Reviewed and approved.</t>
-  </si>
-  <si>
-    <t>1] Work Order / LOI to be received.
-2] Expedite resolution of Geo Server/Docker issue.
-3] Obtain MoRTH confirmation for GIS data provisioning.
-4] Initiate UIDAI Aadhaar integration post prerequisites.</t>
+Pending (dependencies from Client) - 4
+→ Module-wise Status with remarks as below;
+●	Development Completed for:
+1] CDAC E-Sign Integration - Fully integrated and tested.
+2] Bharatkosh Payment Integration - Live and functional.
+3] Amenity Listing - Finalized and ready for use.
+4] Compliance Questions Validation Enhancement (Access) - Pending Review and approval.
+5] Access Upload Drawings &amp; Documents - Awaiting initiation and final approvals.
+●	Development In Progress for:
+1] GIS Data Cleaning - Data refinement activities underway.
+2] PA/CA/AE/IE User Data Cleaning - User data validation and cleaning ongoing.
+3] GIS Data (Geo Server Setup) - Geo Server establishment blocked due to Docker image support issue; Shridhar is investigating. MoRTH confirmation is still awaited.
+●	Pending for:
+1] UIDAI Aadhaar Integration - Awaiting initiation and final approvals.
+2] Utility Listing - Awaiting initiation and final approvals
+3] Compliance Questions Validation Enhancement (ROW) - Pending - Awaiting initiation and final approvals.
+4] ROW Upload Drawings &amp; Documents - Pending - Awaiting initiation and final approvals.</t>
+  </si>
+  <si>
+    <t>●	Expedite resolution of Geo Server/Docker issue.
+●	Obtain MoRTH confirmation for GIS data provisioning.
+●	Initiate UIDAI Aadhaar integration post prerequisites.</t>
   </si>
   <si>
     <t>●	GIS Data / Geo Server: Docker image issue hindering setup; pending MoRTH confirmation.
@@ -1417,7 +1419,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F68AB73C-C9A6-4D6C-A615-D1A81782F3F5}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F5BF2B81-365D-4508-B608-966B7B53E285}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1746,7 +1748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E96AAF-B905-4709-96E8-B3ADDD243F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1289C7E6-3E58-4CE0-832C-C23EF438E28D}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3381,7 +3383,7 @@
         <v>238</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>239</v>
@@ -3523,7 +3525,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="8">
-        <v>0</v>
+        <v>218.28</v>
       </c>
       <c r="H20" s="8">
         <v>0</v>
@@ -3538,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="9">
-        <v>0</v>
+        <v>218.28</v>
       </c>
       <c r="M20" s="8">
         <v>0</v>
@@ -3559,28 +3561,28 @@
         <v>259</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="V20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="Z20" s="12">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="AA20" s="13" t="s">
         <v>97</v>
@@ -3592,7 +3594,7 @@
         <v>257</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3600,13 +3602,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3648,28 +3650,28 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="Y21" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="Z21" s="12">
         <v>45924</v>
@@ -3681,10 +3683,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3692,13 +3694,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>280</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>281</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3729,37 +3731,37 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24" t="s">
         <v>282</v>
-      </c>
-      <c r="P22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>283</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>135</v>
       </c>
       <c r="T22" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="U22" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="V22" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="V22" s="24" t="s">
+      <c r="W22" s="24" t="s">
         <v>286</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>287</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3771,10 +3773,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3789,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE45DCD1-BE7B-4B37-AF13-05B02D705017}</x14:id>
+          <x14:id>{C7F1EE03-2983-41C3-805D-28D7ED4BE486}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3797,7 +3799,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE45DCD1-BE7B-4B37-AF13-05B02D705017}">
+          <x14:cfRule type="dataBar" id="{C7F1EE03-2983-41C3-805D-28D7ED4BE486}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4132C896-EB40-499B-B939-F410EC97085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{500444A1-2E80-4E10-B6F8-206F70DB46DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B32C632-1E21-4374-9F18-CDB9C94C42A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0D838E0-97C0-4C1F-8B83-771CD333A314}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="288">
   <si>
     <t>SN</t>
   </si>
@@ -149,7 +149,7 @@
     <t>Start Date (PO) : 17-Jul-23 :: End Date (PO) : 16-Jul-26</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>23.34 L</t>
@@ -161,25 +161,26 @@
 Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
   </si>
   <si>
-    <t>Billing Done till Aug-25
-Payment received till Jun-25
-Released on production- 374
-UAT- 2
-Testing- 10
-InProgress- 13
-To-Do - 17
-Designing- 3
-Estimation- 10</t>
-  </si>
-  <si>
-    <t>1- Task deployed on 23/09
-2- Task planned to deploy</t>
+    <t>S.no  Bucket name     No. of Tasks
+  1.      No Status    =   16
+  2.      Estimation   =   10
+  3.     Designing    =    4
+  4.     To Do        =      21
+  5.     In Progress  =    11
+  6.     Under QA Testing = 7
+  7.     User Acceptance Testing (UAT) = 6
+  8.     Released on Production = 256
+  9.     Closed       = 119
+10. 2 months payment not cleared yet</t>
+  </si>
+  <si>
+    <t>5 --- Task planes to deployed</t>
   </si>
   <si>
     <t>NodeJS , HTML5/CSS , JS , React , Springboot Elastic, PostGreSQL , MySQL , MongoDB, Postman, API &amp; SSO integration</t>
   </si>
   <si>
-    <t>One Resources Need to deploy</t>
+    <t>Trying to retain the Bimal for june/july-2026</t>
   </si>
   <si>
     <t>Amit K</t>
@@ -210,31 +211,29 @@
   </si>
   <si>
     <t xml:space="preserve">20 resources on-boarded. (13 resources from GAIA – Tech Partner)
-Payment received till May’25. Invoicing done for Aug’25.
+Payment received till Aug’25.
 2 resources onboarded for SS. Hiring ongoing for 3 resources from GAIA.
 DWR mobile app: changes ongoing for dumpsite. 
 New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): testing ongoing
 New SSJ page created for City pairing on website.
-UWM Action Plan: additional points added from CPEEHO: Dev Ongoing
-API written for Prayas, under testing. GFC-I4 Indicator logic understanding and automation ongoing. Engineer App: Geo location enabled in iOS/Android. Implementation of Media Service in Java-Ongoing.
+UWM Action Plan: additional points added from CPEEHO: Dev done
+API written for Prayas, under testing. GFC-I1 Indicator logic understanding and automation ongoing. Engineer App: Geo location enabled in iOS/Android. Implementation of Media Service in Java-Ongoing.
 Bulk upload parser under implementation. Website updates ongoing.
 Migration of SBMurban.org domain from Cloud Flare to Cloud Front.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenance activities: Daily ULB support, Website changes ongoing.
-New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing. Updates in SSJ page. 
+    <t>Maintenance activities: Daily ULB support, Website changes ongoing.
+New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing.
 DWR Mobile App pilot planned in Oct’25. Enable DWR for Dumpsite.
-SS Handover with IPSOS ongoing.
-</t>
+SS Handover with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration ongoing</t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">Major Challenges:
-1. Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI) from GAIA
-2. DS has asked team whole team to work from SBM office. Majority of team members are working remotely. 
+    <t xml:space="preserve">1. File approved from Ministry. Contract start date is 01 Oct, 2025. 2 resources onboarded from CMS. Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI) from GAIA. 
+2. Majority of team members working remotely. 
 3. No WiFi at New location
 </t>
   </si>
@@ -558,24 +557,29 @@
 Provision – as &amp; when required.</t>
   </si>
   <si>
-    <t>Q3 Billing done and payment in progress.
-ISO Work in progress
-Minimum wages letter submit to operators with clarification.
-Remaining manpower approval letter submit to client for approval as per BOQ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3 Payment file reach to accounts for payment
-ISO audit documents reviewed by clients.
-AMCs pending for server, tapes, switches and San switch from Management and Purchase team. 
-</t>
+    <t>Q1 &amp; Q2 payment and 60% Capex payment released.
+32 Manpower deployed as per client requirements.
+Remaining Manpower deployment letter submitted to client for approval but client replied currently there is no requirement.
+ISO Certification Documents parts ready some parts are pending to client end for Audit.
+Q.3 O&amp;M &amp;Manpower and 2% of Capex. Payment file in accounts team for final payment. Most probably before 10 oct payment will credit our accounts.
+AMC vendors payment not done on timely from CMS end.
+Switches, Servers and Tape Library HDD AMC Required. This is very critical our Dc.</t>
+  </si>
+  <si>
+    <t>Q.3 Payment file sign from CFO &amp;CEO for final payment.
+Consumable ITem Diesel payment also released with o&amp;m payment.
+Video wall and switches and NvR down due to natural lighting: assign to vendor and resolve this issues.
+For ISO 27001 when client is free some points cleared for Audit.
+Minimum wages latter submitted to client and discussed final approval.
+For DC infra AMC discussing to HO and purchase team.</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>ISO Audit related discussion required sales team to client.
-AMCs required IT , this is critical
-1st Floor 20no's AC AMC required ASAP.</t>
+    <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG)
+AMC REQUIRED OLD DC INFRA ON URGENT BASIS.
+For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.</t>
   </si>
   <si>
     <t>Sachin S</t>
@@ -641,9 +645,6 @@
   </si>
   <si>
     <t>Start Date (PO) : 01-Jul-24 :: End Date (PO) : 01-Jul-29</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>7.3 L</t>
@@ -1154,32 +1155,18 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve">ITPO new website development is in progress. We have been developed 11 pages till date along with mobile resposiveness. 
-Accessibility feature on the website has been developed. 
-For UAT purpose we have been deployed on Staging environment. 
-The development of the new ITPO website is currently underway. We have developed 11 static pages so far, ensuring mobile responsiveness across all pages. Additionally, the website now includes an accessibility feature.
-For UAT, the site has been deployed to the Staging environment. </t>
-  </si>
-  <si>
-    <t>Following pages are planned to develop by next week-
-- Events (5 pages)
-- Visitors (3 Pages)
-- Explore Venues (2 pages)
-- Financial Results (2 Pages)
-- Activity &amp; Services 
-- Brouchures
-- Career at ITPO
-- Admin Panel</t>
+    <t>We are nearing the completion of the ITPO corporate website (main site static pages) development. This progress has been communicated to both ITPO and NeGD.
+We are working to fulfill the ITPO commitments made to the Ministry in August, prior to the deployment of the CMS team.</t>
+  </si>
+  <si>
+    <t>- Content and Images placement on webiste (if provided by concern person). 
+- Development on the remaining pages
+- Meeting with ITPO and NeGD officials for Tally Integration</t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
 - Frontend: Angular
 - DB: MySQL</t>
-  </si>
-  <si>
-    <t>- One of our team members, Bhawesh Bhanu, is currently hospitalized. NeGD wants to ensure that there is no disruption in deliveries and that Bhawesh can actively engage in the upcoming KT sessions with the existing vendor.
-- NeGD has raised concerns about potential billing issues due to this situation.
-- NeGD has requested that if Bhawesh requires additional time for recovery, CMS Computers should deploy a senior backend resource (12-13 Years experience) with expertise in Node.js (Nest.js framework) to ensure continuity.</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1419,7 +1406,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F5BF2B81-365D-4508-B608-966B7B53E285}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3C36DC4A-1FDE-4CD8-9010-40B652B6CA85}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1748,7 +1735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1289C7E6-3E58-4CE0-832C-C23EF438E28D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F1B150-8194-4679-9852-A2704FC719FE}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1887,10 +1874,10 @@
         <v>252.8043937999995</v>
       </c>
       <c r="M2" s="8">
-        <v>140.04075780000014</v>
+        <v>140.04075780000008</v>
       </c>
       <c r="N2" s="8">
-        <v>23.340126300000005</v>
+        <v>0</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>34</v>
@@ -1926,7 +1913,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="AA2" s="13">
         <v>0.54846740318532206</v>
@@ -1982,7 +1969,7 @@
         <v>217.57499999999999</v>
       </c>
       <c r="N3" s="8">
-        <v>36.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>34</v>
@@ -2018,7 +2005,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45925</v>
+        <v>45931</v>
       </c>
       <c r="AA3" s="13">
         <v>0.20395380903136873</v>
@@ -2074,7 +2061,7 @@
         <v>147.58935879999993</v>
       </c>
       <c r="N4" s="8">
-        <v>32.649080000000005</v>
+        <v>0</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>60</v>
@@ -2350,7 +2337,7 @@
         <v>325.5</v>
       </c>
       <c r="N7" s="8">
-        <v>162.75</v>
+        <v>0</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>102</v>
@@ -2442,7 +2429,7 @@
         <v>385.62032499999998</v>
       </c>
       <c r="N8" s="8">
-        <v>67.878</v>
+        <v>0</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>60</v>
@@ -2534,7 +2521,7 @@
         <v>74.732390099999975</v>
       </c>
       <c r="N9" s="8">
-        <v>33.449428699999999</v>
+        <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>127</v>
@@ -2570,7 +2557,7 @@
         <v>136</v>
       </c>
       <c r="Z9" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA9" s="13">
         <v>0.1954000003408819</v>
@@ -2718,7 +2705,7 @@
         <v>6.3876246000000023</v>
       </c>
       <c r="N11" s="8">
-        <v>-14.359203600000001</v>
+        <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>153</v>
@@ -2733,25 +2720,25 @@
         <v>154</v>
       </c>
       <c r="S11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="U11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z11" s="12">
         <v>45925</v>
@@ -2766,7 +2753,7 @@
         <v>150</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2774,13 +2761,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -2813,37 +2800,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z12" s="12">
         <v>45926</v>
@@ -2855,10 +2842,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2866,13 +2853,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -2914,28 +2901,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="T13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z13" s="12">
         <v>45926</v>
@@ -2947,10 +2934,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2958,13 +2945,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -2997,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3006,28 +2993,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z14" s="12">
         <v>45926</v>
@@ -3039,10 +3026,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3050,13 +3037,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3089,37 +3076,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>91</v>
       </c>
       <c r="T15" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="U15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="Z15" s="12">
         <v>45915</v>
@@ -3131,10 +3118,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3142,16 +3129,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3178,40 +3165,40 @@
         <v>335.36077999999998</v>
       </c>
       <c r="N16" s="8">
-        <v>72.849829999999997</v>
+        <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P16" s="10">
         <v>0.97210163191351817</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z16" s="12">
         <v>45925</v>
@@ -3223,10 +3210,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3234,13 +3221,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3270,10 +3257,10 @@
         <v>433.08388200000002</v>
       </c>
       <c r="N17" s="8">
-        <v>72.059212500000001</v>
+        <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3282,28 +3269,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z17" s="12">
         <v>45925</v>
@@ -3315,10 +3302,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3326,19 +3313,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3362,40 +3349,40 @@
         <v>131.779661</v>
       </c>
       <c r="N18" s="8">
-        <v>131.779661</v>
+        <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P18" s="10">
         <v>0.76923076913183275</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="Z18" s="12">
         <v>45925</v>
@@ -3407,10 +3394,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3418,13 +3405,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3454,40 +3441,40 @@
         <v>11.135999999999999</v>
       </c>
       <c r="N19" s="8">
-        <v>11.135999999999999</v>
+        <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="Z19" s="12">
         <v>45926</v>
@@ -3499,7 +3486,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3510,13 +3497,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3558,28 +3545,28 @@
         <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="V20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3591,10 +3578,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3602,13 +3589,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3641,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3650,31 +3637,31 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="X21" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>276</v>
+      <c r="Y21" s="11">
+        <v>0</v>
       </c>
       <c r="Z21" s="12">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="AA21" s="13" t="s">
         <v>97</v>
@@ -3683,10 +3670,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3694,13 +3681,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>280</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3731,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3740,28 +3727,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>135</v>
       </c>
       <c r="T22" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="V22" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="W22" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="V22" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>286</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3773,10 +3760,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3789,7 +3776,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C7F1EE03-2983-41C3-805D-28D7ED4BE486}</x14:id>
+          <x14:id>{1161A8D0-A257-46FA-9427-BDC32DFA2629}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3799,7 +3786,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C7F1EE03-2983-41C3-805D-28D7ED4BE486}">
+          <x14:cfRule type="dataBar" id="{1161A8D0-A257-46FA-9427-BDC32DFA2629}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{500444A1-2E80-4E10-B6F8-206F70DB46DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A326EB99-5647-4287-AC73-3BBFB58CD93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0D838E0-97C0-4C1F-8B83-771CD333A314}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{542CB76C-5155-4AB4-A272-4A5B1A46D306}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="287">
   <si>
     <t>SN</t>
   </si>
@@ -497,30 +497,44 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t>1] Krishi MApper –
-Telangana State API for NMEO-OP : meeting schedule
-Optimizing current GIS Dashboard
-KM Dashboard new layout is in progress
-NBM/PKVY/oil seed assets : scheme to onboard by 30th.
-2] Natural Farming :
-Fixing users highlighted issue
-3] NFSM – Agristack data pushing on live(hold as discussed in meeting) . Fetch data directly from Agristack API
-4] NMEO-OP – VGP module is in Progress
-5] NMEO-OS- Working on changes request
-6] MIDH-APP – Added 8 new components in mobile app online mode/Offline mode  and deployed on play store
-7] Krishi Unnati – Master data/Annual Action plan/budget head wise data is done and showed to client. History version is going. Discussion for MIS report scheduled.</t>
-  </si>
-  <si>
-    <t>1] NBM/PKVY/oil seed assets : scheme to onboard by 30th.
-2] PDMC/AMI/other API : push data on user management/GIS dashboard/survey data count
-3] AIKOSH API  : development of metadata API for all existing scheme.
-4] DCS dashboard : Data duplicity check with 3rd party and show data over dashboard</t>
+    <t xml:space="preserve">Krishi MApper 
+•	API Consumption
+1.	AMI API: consumed and reflecting on GIS/Survey Count dashboard
+2.	Mahadbt-API : To consume and reflect over production
+•	Scheme on boarding
+1.	PKVY : apk shared to tester for review
+2.	oil seed Assets : apk shared to tester for review.
+3.	NBM : testing on progress
+•	Power BI Dashboard : 2-3 dashboard created as requested. Need to incorporate with API to get updated data 
+•	Count Dashboard— FY wise / scheme wise / state wise : testing going on over staging
+•	GIS Dashboard : Data load issue/information :  testing going on over staging
+Natural Farming :  
+•	Fixing users highlighted issue
+Krishi Unnati
+•	MIS report discussed with client. Some design will shared to freeze before development start
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishi MApper 
+•	API Consumption
+1.	Mahadbt-API : To consume and reflect over production
+2. RKVY API : API consumption and relect over surveycount
+3. NMEO-OP : API consumption and relect over surveycount
+•	Scheme on boarding
+1.	PKVY : over production
+2.	oil seed Assets : over production
+3.	NBM : over production
+•	Power BI Dashboard : deploy over production
+•	Count Dashboard— FY wise / scheme wise / state wise : deploy over production
+•	GIS Dashboard : Data load issue/information :  deploy over production
+Natural Farming :  
+•	Fixing users highlighted issue
+Krishi Unnati
+•	MIS report discussed with client. Some design will shared to freeze before development start
+</t>
   </si>
   <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
-  </si>
-  <si>
-    <t>Database Developer require for SP, DB, API optimization due to heavy load of data.</t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -787,20 +801,20 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1] Hold 11 ATCS and 9 ITMS junction work letter received.
-2] Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received.
-3] Hold junction CAPEX cost approval and Billing mail received.
-4] Submitted invoices for completed work including other recurring cost are under verification by CDO sir and ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.
-5] Dt:- 26-09-2025, Note sheet will be reached at CEO sir table for signing.</t>
-  </si>
-  <si>
-    <t>1] New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL.
+    <t xml:space="preserve">1. Hold 11 ATCS and 9 ITMS junction work letter received.
+2. Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received.
+3. Hold junction CAPEX cost approval and Billing mail received.
+4. Submitted invoices for completed work including other recurring cost are under verification by CEO sir, Verified by ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.
+5. Dt:- 01-10-2025, Note sheet reached at CEO sir table for signing.
+</t>
+  </si>
+  <si>
+    <t>1] New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL in upcoming week.
 2] As per CDO sir, Go-Live note sheet are preparing and will be released in upcoming week.</t>
   </si>
   <si>
-    <t xml:space="preserve">1] Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
-2] Material approval including dispatching required as per site consumption report.
-</t>
+    <t>1] Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
+2] Material approval including dispatching required as per site consumption report.</t>
   </si>
   <si>
     <t>Akash K</t>
@@ -997,27 +1011,26 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Primary &amp; Backup Servers – Fully configured, tested, and installed. Ready for operation from 15-09-2025.
-Substations 1, 2 &amp; 3 (MFM Meters) – Network setup completed. Awaiting switch rack installation by JNPA to enable data communication.
-ABT Meters – Installed and panel placed. Awaiting base installation, MSETCL testing, and switch installation for data connectivity.
-RMU Panel Communication – Survey and planning complete. Awaiting JNPA support for switch and OFC connectivity. Work can begin on RMUs currently offline.
-Water Flow Meters – 62 delivered, 3 installed. Awaiting infra readiness (valves, ducts, etc.) from Water Dept. for ~30 more installations. Larger meter installation delayed due to location finalization.</t>
-  </si>
-  <si>
-    <t>Software integration and deployment to client side</t>
+    <t>Overall Progress Summary 
+Servers: Fully configured, installed, and ready. 
+Substations (MFM): Network set; waiting on switch installation by JNPA vendor to connect meters.
+ABT Meters: Installed; pending series connection and cable laying. Switch port activation needed.
+RMU Meters: Survey and cabling done; waiting for JNPA to provide OFC and switch for communication setup.
+Water Flow Meters: 62 delivered; ~30 to be installed after Water Dept completes infrastructure. Larger meters’ locations pending.</t>
+  </si>
+  <si>
+    <t>ABT meter series connection planning.
+Water meter installation as per readiness from JNPA water department.</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>Network Delays:
-Delay in switch installation and OFC connectivity by JNPA is holding up data retrieval across substations, ABT meters, and RMUs.
-Infrastructure Readiness:
-Water meter installations delayed due to pending civil and plumbing works (valves, ducts, power) from Water Dept.
-Coordination with Multiple Teams:
-Dependencies on JNPA Network, Water, and SCADA teams are causing bottlenecks in parallel progress.
-SCADA Integration Uncertainty:
-Lack of API or clear approval for EMS data retrieval via SCADA is stalling server-side integration.</t>
+    <t>Switch installation delay by JNPA vendor impacting meter communication setup.
+Dependency on JNPA for OFC network and switch availability at RMU sites.
+Pending infrastructure (valves, ducts, power) from Water Dept delaying water meter installation.
+Coordination needed with multiple vendors (Secutech, MSETCL, JNPA) for timely execution.
+Complexity and size of larger water meters causing location finalization delays.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1406,7 +1419,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3C36DC4A-1FDE-4CD8-9010-40B652B6CA85}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8AAE7C74-84F5-45D9-8862-699F9DD324E8}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1735,7 +1748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F1B150-8194-4679-9852-A2704FC719FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5313E750-BDEA-4E25-8E86-657724E8BBAE}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2461,11 +2474,11 @@
       <c r="X8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="Y8" s="11" t="s">
-        <v>123</v>
+      <c r="Y8" s="11">
+        <v>0</v>
       </c>
       <c r="Z8" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA8" s="13">
         <v>0.10999999984936704</v>
@@ -2477,7 +2490,7 @@
         <v>114</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2485,19 +2498,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="8">
         <v>1372.5805700000001</v>
@@ -2524,37 +2537,37 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P9" s="10">
         <v>0.31367908617561158</v>
       </c>
       <c r="Q9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="Z9" s="12">
         <v>45933</v>
@@ -2566,10 +2579,10 @@
         <v>0.11441806775377272</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2577,19 +2590,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="8">
         <v>5337.5</v>
@@ -2616,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2625,28 +2638,28 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y10" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="Z10" s="12">
         <v>45925</v>
@@ -2658,10 +2671,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2669,19 +2682,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2708,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P11" s="10">
         <v>0.33126882165643717</v>
@@ -2717,28 +2730,28 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="X11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="Z11" s="12">
         <v>45925</v>
@@ -2750,10 +2763,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2761,19 +2774,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="8">
         <v>1045.762712</v>
@@ -2800,37 +2813,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="Z12" s="12">
         <v>45926</v>
@@ -2842,10 +2855,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2853,19 +2866,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="8">
         <v>2019.8763390000001</v>
@@ -2892,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2901,28 +2914,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="T13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="X13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="Z13" s="12">
         <v>45926</v>
@@ -2934,10 +2947,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2945,19 +2958,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" s="8">
         <v>2903.04126</v>
@@ -2984,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -2993,31 +3006,31 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="X14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="Z14" s="12">
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="AA14" s="13">
         <v>-5.273871039764888E-2</v>
@@ -3026,10 +3039,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3037,13 +3050,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3076,37 +3089,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>91</v>
       </c>
       <c r="T15" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="U15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="Z15" s="12">
         <v>45915</v>
@@ -3118,10 +3131,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3129,19 +3142,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="8">
         <v>669.18430290000003</v>
@@ -3168,37 +3181,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P16" s="10">
         <v>0.97210163191351817</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="X16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="Z16" s="12">
         <v>45925</v>
@@ -3210,10 +3223,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3221,19 +3234,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="8">
         <v>437.16408000000001</v>
@@ -3260,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3269,28 +3282,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="X17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="Z17" s="12">
         <v>45925</v>
@@ -3302,10 +3315,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3313,19 +3326,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3352,40 +3365,40 @@
         <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P18" s="10">
         <v>0.76923076913183275</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="Z18" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA18" s="13" t="s">
         <v>97</v>
@@ -3394,10 +3407,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3405,13 +3418,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3444,37 +3457,37 @@
         <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="Z19" s="12">
         <v>45926</v>
@@ -3486,7 +3499,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3497,13 +3510,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3542,31 +3555,31 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="S20" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="11" t="s">
+      <c r="V20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3578,10 +3591,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3589,13 +3602,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3628,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3637,25 +3650,25 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3670,10 +3683,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3681,13 +3694,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>277</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>278</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3718,37 +3731,37 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="P22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="24" t="s">
+      <c r="S22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="T22" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="S22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="T22" s="24" t="s">
+      <c r="U22" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="V22" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="V22" s="24" t="s">
+      <c r="W22" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="W22" s="24" t="s">
+      <c r="X22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y22" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="X22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y22" s="24" t="s">
-        <v>285</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3760,10 +3773,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3789,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1161A8D0-A257-46FA-9427-BDC32DFA2629}</x14:id>
+          <x14:id>{91AB2D30-95B8-4952-A069-CDA183A6F782}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3786,7 +3799,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1161A8D0-A257-46FA-9427-BDC32DFA2629}">
+          <x14:cfRule type="dataBar" id="{91AB2D30-95B8-4952-A069-CDA183A6F782}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A326EB99-5647-4287-AC73-3BBFB58CD93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60EC279-F57E-4BF5-A087-C2669040DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{542CB76C-5155-4AB4-A272-4A5B1A46D306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{34C47DC7-D26D-43E8-8C04-5EF5F9898869}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -671,18 +671,16 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Hardware installation is in progress at KK gate and Cruise gate 
-2. March\April 2025 CAMC bill in progress by NMPA finance dept.
-3. Turnstile should be rectified, awaiting inputs from purchase team to issue PO to turnstile OEM.
-4. Material procurement is in progress for Visual alarm system at NMPA.
-</t>
-  </si>
-  <si>
-    <t>1. Completing installation of KK gate cruise gate.
-2. Handover the site to NMPA</t>
-  </si>
-  <si>
-    <t>Turnstile vendor PO not yet released</t>
+    <t>1. KK gate hardware installation is completed
+2. Cruise gate hardware installation is completed.
+3. Turnstile repair is pending PO need to be issued to vendor</t>
+  </si>
+  <si>
+    <t>Make sure of CAMC billing clearance of March April 2025 from NMPA end 
+May June July 2025 bills should be submit to customer for clearance</t>
+  </si>
+  <si>
+    <t>Turnstile repair</t>
   </si>
   <si>
     <t>Prashant P</t>
@@ -1069,23 +1067,47 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t xml:space="preserve">1] WPSS  and QAP  ui completed and API integration done testing
-2] WPQR UI completed API integration done
-3] RAW Material ui done api integration in progress
-4] Plate Layout ui completed api integration in progress
+    <t xml:space="preserve">Modules Completed
+1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
+2. Landing Page – Developed and deployed interactive dashboard with quick navigation to all major modules.
+3. Agency Selection – Functionality for selecting and managing agencies successfully integrated.
+4. View Girder Assignment – Module to view girder assignment details completed and tested.
+5. WPSS &amp; QAP Submission Approver – Approval flow for WPSS and QAP submissions finalized and implemented.
+6. Module Integration – All completed modules integrated seamlessly within the main application framework.
+7. Inter-Service Communication – Microservice communication established through REST APIs for smooth data exchange.
+8. View &amp; Download GAD – Functionality to view and download GAD files successfully developed and tested.
+9. Add New Girder &amp; Contractor – Module for adding new girders and assigning contractors implemented.
+10. Agency Selection (Extended) – Additional features and validations incorporated as per updated PRD.
+11. GAD Management Module – Developed module for managing GAD-related data and documents.
+12. Stakeholder &amp; Employee Onboarding – Onboarding flow for stakeholders and employees completed, integrated with authentication service.
+13. All core modules and approval workflows have been completed as per PRD.
+14. API integration and inter-service communication successfully tested.
+15. GAD Management and WPSS/QAP Approval flows are functional and aligned with updated requirements.
+16. Stakeholder onboarding and agency management workflows are fully operational.
+17.Email Integration – Successfully implemented and tested email service for notification and approval workflows.
 </t>
   </si>
   <si>
-    <t>1] WPQR process completion
-2] RAW material Completion
-3] Plate Layout API integration
-4] Cutting Edge UI completion</t>
+    <t xml:space="preserve">
+1.	Girder Fabrication &amp; Raw Material Approval Process – Partially completed; remaining integration and approval flow under development.
+2. WPQR Preparation &amp; Submission (Welding Procedure Qualification Record) – Partially completed; submission and approval components in progress.
+3. Layout, Master Plates, Jigs, Joints &amp; Fixtures – Inspection Request – Partially completed; inspection request generation and workflow integration ongoing.
+4. Cutting, Straightening &amp; Edge Preparation – Inspection Request – Partially completed; validation and backend service linkage under progress.
+Plan
+1.	Complete pending workflow integrations for fabrication and inspection modules.
+2. Conduct testing of WPQR and inspection request flows.
+3. Prepare modules for internal review and UAT.
+</t>
   </si>
   <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
   </si>
   <si>
-    <t xml:space="preserve">Continue changes in requirements. </t>
+    <t xml:space="preserve">1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
+2. The project comprises 302 screens (132 complex, 170 average), spanning Fabrication, Inspection, Workshop, and Approval modules.
+3. Fabrication and Inspection modules exhibit high complexity owing to multiple process stages such as WPQR, Raw Material, Welding, and Assembly.
+4.Approval workflows involving multi-level roles (Agency, ADE/B&amp;S, Directors) add significant logic, validation, and access control complexity.
+</t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1419,7 +1441,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8AAE7C74-84F5-45D9-8862-699F9DD324E8}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5E676CFB-58AF-4635-8445-66BD8AE25EEA}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1748,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5313E750-BDEA-4E25-8E86-657724E8BBAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DDEA9A-18CE-4F19-AEFE-8B9F75023373}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2754,7 +2776,7 @@
         <v>158</v>
       </c>
       <c r="Z11" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA11" s="13">
         <v>-0.23918662882570962</v>
@@ -3490,7 +3512,7 @@
         <v>254</v>
       </c>
       <c r="Z19" s="12">
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="AA19" s="13" t="s">
         <v>97</v>
@@ -3789,7 +3811,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91AB2D30-95B8-4952-A069-CDA183A6F782}</x14:id>
+          <x14:id>{54865379-C874-44BF-93B6-6DC609FB144C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3799,7 +3821,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91AB2D30-95B8-4952-A069-CDA183A6F782}">
+          <x14:cfRule type="dataBar" id="{54865379-C874-44BF-93B6-6DC609FB144C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60EC279-F57E-4BF5-A087-C2669040DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0F2AFE-FD3E-4A3A-A5F0-AAC88F9DA01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{34C47DC7-D26D-43E8-8C04-5EF5F9898869}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31DC1431-6C63-41BD-B799-037E149B100D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1441,7 +1441,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5E676CFB-58AF-4635-8445-66BD8AE25EEA}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2E866A00-7BE1-45CF-B715-0CCEAB454408}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1770,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DDEA9A-18CE-4F19-AEFE-8B9F75023373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA66B43-E1B6-41E4-B975-46E0C1417F0D}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3811,7 +3811,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{54865379-C874-44BF-93B6-6DC609FB144C}</x14:id>
+          <x14:id>{BF6BD87D-972C-44DA-A86E-EA8AAA81D058}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3821,7 +3821,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{54865379-C874-44BF-93B6-6DC609FB144C}">
+          <x14:cfRule type="dataBar" id="{BF6BD87D-972C-44DA-A86E-EA8AAA81D058}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0F2AFE-FD3E-4A3A-A5F0-AAC88F9DA01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB8E0CC-7A8B-4C9E-8706-137271708A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31DC1431-6C63-41BD-B799-037E149B100D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B1E83AAF-8235-415D-B0DB-D10925A55EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="288">
   <si>
     <t>SN</t>
   </si>
@@ -269,31 +269,36 @@
 Application Developers, Technical Support (helpdesk) – 6 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 26 Resource deployed.
+    <t xml:space="preserve"> 
+1. 26 Resource deployed.
 2. Development of new Module is under process as per CRS requirement.
-3. DB and System performance and monitoring continue above 99.6 % availability.
+3. DB , System performance and monitoring continue above 99.6 % availability.
 4. State onboard is on going.
 5. Receive Data from Non CRS State through API.
 6. AADHAR , TRANSLITRATION and Payment Integrations. </t>
   </si>
   <si>
-    <t>1. June Payment under process from .
-2. July Document approval pending from RGI.
+    <t xml:space="preserve">1. June Payment  under process from FO .
+2. July payment approval pending from RGI.
 3. August document verification under processing.
-4. Deployment of GP Can extract Certificate, Application Flow Correction for Puducherry, 
-Handling death events for where deceased’s permanent residence is outside India, Notification via SMS &amp; Email for Contact Details Update on Registrar Profile and Including Date of reporting in Acknowledgement slip  .
-5. ORISSA DATA Mapping On Going.
-6. Meeting with RGI is Scheduled on 26-Sep</t>
+4. Kalyan, Gaurang and Roopali Approval Pending from RGI 
+5. Aug Attendance approval under processing (Kalyan Roopli)
+6  Sep Doc completed and Attendance not received
+7. Payment Reconciliation Acknowledgement ,Old Death Digitization Report and Verification Screen, Deployment of GP Can extract Certificate, Application Flow Correction for Puducherry, 
+8. TN, Rajasthan and ORISSA DATA Mapping On Going
+9. Integration of CRS Portal and UP MaNTrA </t>
   </si>
   <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
   </si>
   <si>
-    <t>1. Indore IMC Zonal register creation
-2. Puducherry states will join CRS portal from 1st Oct with three regional Languages.
-3. WSO2 to NAPIX Shifting.
-4. Extension Approval Submitted.
-5. Approval for Kalyan, Gaurang, and Roopali is pending. August attendance will be verified after approval.</t>
+    <t xml:space="preserve">
+1. Family Care Tracker – Pilot Project (Integration of CRS BRN with Poshan Tracker, Techo+, and CTS Portals)
+2  Indore IMC Zonal register creation
+3. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
+4. SOP for the automation of the onboarding process of the states
+5. Puducherry states will join CRS portal from 1st Nov with three regional Languages.
+6. Approval for Kalyan, Gaurang, and Roopali is pending(Experience). August attendance will be verified after approval.</t>
   </si>
   <si>
     <t>Dhananjay J</t>
@@ -379,7 +384,7 @@
     <t>Start Date (PO) : 18-Dec-23 :: End Date (PO) : 17-Dec-29</t>
   </si>
   <si>
-    <t>23</t>
+    <t>29</t>
   </si>
   <si>
     <t>As per achievment</t>
@@ -396,14 +401,19 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t>→ Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
+    <t xml:space="preserve">→ Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-574 out of 585, F&amp;A-39 out of 50).
 → Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month — requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
-→ VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
+→ VAPT  done - certificate Received ,
 → Payment collection for implementation milestone.
-→ Billing for remaining milestones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAPT Certificate,11 Pending Points From HRMS, </t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- HRMS Remain 11 point Fixing  
+- Daily stand-up meetings started which includes PM;  leadership - the same is in process.
+- Production issue Resolution 
+- Payment collection for implementation milestone.
+- Finance Module Pending Points 
+</t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
@@ -446,24 +456,25 @@
 Deployment of proposed 33 resources. (+5 in phase 2)</t>
   </si>
   <si>
-    <t>-&gt; Phase 1 all 4 tracks billing completed
--&gt; Payment received till Track 3 for Phase 1.
--&gt; All Nine modules of Phase I development done. 
--&gt; 7 in production 2 in UAT. 
--&gt; Drone moved to Phase II
--&gt; Phase II requirement gathering done for BICRS, Road Closure, and Payments
--&gt; Development started on BICRS module, Road Closure.</t>
-  </si>
-  <si>
-    <t>-&gt; Deployment of RSA, TM, BICRS and Team Structure on production.
--&gt; Development of Road closure. 
--&gt; Requirement gather for other modules of phase II - CO Division (Onboarding, Toll Master), Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE. Employee Directory</t>
+    <t>→ Phase 1 all 4 tracks billing completed
+→ Payment received till Track 3 for Phase 1.
+→ All Nine modules of Phase I development done.
+→ 7 in production 2 in UAT.
+→ Drone moved to Phase II
+→ Phase II requirement gathering done for BICRS, Road Closure, and Payments
+→ Development in progress on BICRS module.</t>
+  </si>
+  <si>
+    <t>→ Deployment of RSA, TM, BICRS and Team Structure on production.
+→ Development of Road closure.
+→ Requirement gather for other modules of phase II - CO Division (Onboarding, Toll Master), Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE. Employee Directory</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
   </si>
   <si>
-    <t>Phase ll timelines are tight given the volume of work and current resources.</t>
+    <t>Phase ll timelines are tight given the volume of work and current resources.
+Timely onboarding of resources.</t>
   </si>
   <si>
     <t>Mukul K / Agam V</t>
@@ -831,6 +842,9 @@
   </si>
   <si>
     <t>Start Date (PO) : 29-Oct-18 :: End Date (PO) : 30-Sep-25</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>As per Achievement</t>
@@ -955,7 +969,7 @@
     <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
   </si>
   <si>
-    <t>223</t>
+    <t>217</t>
   </si>
   <si>
     <t>72.86 L</t>
@@ -964,21 +978,14 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t>MCS Project Updates 
-1) August-2025 month invoice has been submitted to Customer
-2) Q32 Quarterly Report has been published and submitted
-3) Doing follow-up with L&amp;T for Next work Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'1) Interview planned for 10 Candidates
-2) User ID deletion from Customer Active Directory for resigned employees
-3) Client and Operators List for Diwali Gift
-4) Salary Attendance and Salary Sheet preparation  </t>
-  </si>
-  <si>
-    <t>1) Awaiting for Work Order for MCS Project
-2) New Recruitment of CCTV Viewing Officers
-3) AR Collection for due Invoices</t>
+    <t xml:space="preserve">1.5CR+ AR is collected for May and June-2025 invoices.
+</t>
+  </si>
+  <si>
+    <t>Concentration on Recruitment at Least 20 Operators to fulfill the short of manpower</t>
+  </si>
+  <si>
+    <t>Facing shortfalls on daily basis due to vacant positions not fulfilled by Million Minds Team.</t>
   </si>
   <si>
     <t>Jaywant P</t>
@@ -1441,7 +1448,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2E866A00-7BE1-45CF-B715-0CCEAB454408}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{32C35CEF-7617-4824-80D2-8FBE1A24F560}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1770,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA66B43-E1B6-41E4-B975-46E0C1417F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A82CEB4-AF6E-467F-BF73-8A318826011C}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2132,7 +2139,7 @@
         <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA4" s="13">
         <v>0.22115225934161375</v>
@@ -2316,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="12">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>97</v>
@@ -2408,7 +2415,7 @@
         <v>111</v>
       </c>
       <c r="Z7" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA7" s="13">
         <v>0.21406871945813666</v>
@@ -3123,25 +3130,25 @@
         <v>197</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z15" s="12">
         <v>45915</v>
@@ -3156,7 +3163,7 @@
         <v>194</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3164,16 +3171,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>125</v>
@@ -3203,37 +3210,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P16" s="10">
         <v>0.97210163191351817</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>134</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z16" s="12">
         <v>45925</v>
@@ -3245,10 +3252,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3256,13 +3263,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3295,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3304,31 +3311,31 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>134</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z17" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA17" s="13">
         <v>0.61442879884363322</v>
@@ -3337,10 +3344,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3348,19 +3355,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3387,37 +3394,37 @@
         <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P18" s="10">
         <v>0.76923076913183275</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z18" s="12">
         <v>45933</v>
@@ -3429,10 +3436,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3440,13 +3447,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3479,37 +3486,37 @@
         <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z19" s="12">
         <v>45933</v>
@@ -3521,7 +3528,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3532,13 +3539,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3580,28 +3587,28 @@
         <v>134</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>134</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3613,10 +3620,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3624,13 +3631,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3663,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3672,25 +3679,25 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3705,10 +3712,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3716,13 +3723,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3753,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3762,28 +3769,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>134</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>134</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3795,10 +3802,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3811,7 +3818,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BF6BD87D-972C-44DA-A86E-EA8AAA81D058}</x14:id>
+          <x14:id>{1A078650-F3E1-4DD3-9CCB-0B24CFD17F3C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3821,7 +3828,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BF6BD87D-972C-44DA-A86E-EA8AAA81D058}">
+          <x14:cfRule type="dataBar" id="{1A078650-F3E1-4DD3-9CCB-0B24CFD17F3C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB8E0CC-7A8B-4C9E-8706-137271708A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBFC260-1E5D-430C-B3DC-6FF750450235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B1E83AAF-8235-415D-B0DB-D10925A55EB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D32F5C57-4757-402E-9CF2-EB603852DA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="287">
   <si>
     <t>SN</t>
   </si>
@@ -341,26 +341,27 @@
 User Interface Upgrade</t>
   </si>
   <si>
-    <t xml:space="preserve">JF 20% Payment received.
-1 out of 4 saddhit item released. 
-The remaining tasks are in progress and planned for production deployment.
-All AMJ individual approvals received. </t>
-  </si>
-  <si>
-    <t>Provide different format of Attendance in Summary Sheet required by MA Team.
-Consolidated approvals proceeding.
-MIS resource closing.
-DBE interview proceeding. 
-Getting July and Aug Attendance.</t>
+    <t xml:space="preserve">Technology upgrade final presentation shared with estimation and manpower details to ADG.
+Few small changes deployment done on pre-prod &amp; on production.
+2 Task from Saddhit Target (E-mobility &amp; Dwell Time In application) Demo has been given to WZU.
+July Attendance discussion is going on positively. </t>
+  </si>
+  <si>
+    <t>Taking all approvals for JAS.
+Payment from WZU for AMJ.
+Delivering Saddhit task on given date.
+SLA document last Meeting.
+Start Interviews for Full Stack Developer.</t>
   </si>
   <si>
     <t>Java Struts, For upgrade - TBD</t>
   </si>
   <si>
-    <t>Productivity challenges observed among a few employees. 
+    <t>Productivity challenges observed among a few employees.
 Certain SLA parameters are challenging to achieve.
-Attendance marking on the CBIC portal for overlapping period of employee. 
-RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.- Few verifications questions has given to study and answer. - July attendance approval raised by wzu.</t>
+Attendance marking on the CBIC portal for overlapping period of employee.
+RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.- Few verifications questions has given to study and answer. - July attendance approval raised by wzu.
+3 positions needs to close.</t>
   </si>
   <si>
     <t>Rahul S / Asmita S</t>
@@ -633,22 +634,28 @@
 PBG of 3% of balance of TCV (137 L) to be submitted at end of Qtr 4.</t>
   </si>
   <si>
-    <t>Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
-24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withold payment — KSCL will not pay to TechM (re-imbursement) &amp; has to be paid by TechM to CMS.
-Billing done for OND24 &amp; JFM25 Qtr.
-Neat-Park application demonstration to client is carried out on 23rd Oct 2024; Client has suggested few points, Team has incorporated the same - Payment integration is in progress (Bank details awaited from client - will share after VAPT) — VAPT completed &amp; feedback points also closed on 28-Aug-25.
-EMS OEM onboarding done - OEM Team repairing work in progress.
-Collected ~ 632 L till JFM-25.</t>
-  </si>
-  <si>
-    <t>ATCS work scope of fully operationalising 23 locations in progress
-Consolidation of inventory for metro route chunni ganj to Naya ganj for sharing it with Metro vendor for imdeninification of lost or damaged material 
-VMSB to be made functional by repairing card SMPS or fcr cable damages 
-Reimbursement of recurring charges from TechM.
-Release of 25% retention/withheld amount — In progress.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many software/application licenses have expired with OEM and needs renewal </t>
+    <t xml:space="preserve">1)Jan23 to Sept25 (Total 11 quarters payment released- 75%)
+2)24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withhold payment- KSCL will not pay to TechM (re-imbursement)- KSCL will not pay to Tech M reimburesement and will have to be paid by Tech M to CMS
+3) Billing done for OND24 &amp; JFM24 Qtr
+</t>
+  </si>
+  <si>
+    <t>1) To expedite ATCS -23 junctions for making it operational
+2) VMSB issue resolution to keep it live
+3) Metro Inventory consolidation
+4) Reimbursement of recurring charges from Tech-M
+5) Release of 25% retention/withheld amount
+6) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
+7) Coordination with vendor Text Local for redemption of credit points on vendor's migration to new portal
+8)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
+2)Vendor Videonetics "Time for Red" feature not yet been delivered despite the forgone timeline.
+3)Battery order is awaited
+4)VMSB devices facing recurring problems (dark spots, black lines, component failures).Smart Parking sensors &amp; VMSB card-related issues.
+5)HDD order for LPU is awaited as a result of which system at various junction has downtime
+</t>
   </si>
   <si>
     <t>Saleel H</t>
@@ -712,7 +719,7 @@
     <t>Start Date (PO) : 26-Feb-24 :: End Date (PO) : 25-Jun-29</t>
   </si>
   <si>
-    <t xml:space="preserve">shared resources </t>
+    <t xml:space="preserve">shared resource </t>
   </si>
   <si>
     <t>full</t>
@@ -725,14 +732,15 @@
 Payment 100% after successful installation.</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M work is going on.
-302 new traffic light under procurement. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O &amp; M activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">302 light deliveries pending. </t>
+    <t xml:space="preserve">Under O &amp; M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O &amp; M activity and once 302 light received we will start installation.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 light under procurement we are already delay in material delivery and installation --- VMC ATCS
+20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
+</t>
   </si>
   <si>
     <t>Sachin R</t>
@@ -758,28 +766,15 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M continue in second year first quarter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O &amp; M activity.
-All Projects Inclusive : ( ICCC , C1 ,C2 , VMC-Amrut ,VMC-P4 , VMC-CCTV )
-All sever project are Under O &amp; M 
-First year Fourt quarter invoice we will submit this week --- ICCC
-Last Two quarter invoice are under process --- ICCC
-302 Traffic light under procurement --- VMC ATCS
-C1 &amp; C2 last quarter o &amp; m invoice under process 
+    <t xml:space="preserve">Q2 quarter payment received. Q3 &amp; Q4 Payment under process.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
+11 no of VMD LED time have issue. Need to purchase new module - ICCC
+22 no of UCON 10 controller we needs to replace. - ICCC
+ 40 no location battery stolen. Insurance under process 
+17 no ups under repairing 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-20 no CDT and 5 no of DC controller spare material procurement pending since long time
-VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
-11 no of VMD LED tile have issue. Need to purchase new module - ICCC
-22 no of UCON 10 controller we needs to replace. - ICCC 
-300 faulty module given to OEM for replace material  --- VMC-P4 LED 
-Two VMD module need under procurement- Gandhinagar 
-40 no location battery stolen. Insurance under process 
-17 no ups under repairing </t>
   </si>
   <si>
     <t>ISCDL</t>
@@ -844,7 +839,7 @@
     <t>Start Date (PO) : 29-Oct-18 :: End Date (PO) : 30-Sep-25</t>
   </si>
   <si>
-    <t>23</t>
+    <t>21</t>
   </si>
   <si>
     <t>As per Achievement</t>
@@ -856,45 +851,19 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t xml:space="preserve">Finance:
-1.Internal Management Reporting
-2.Cross-Functional support in HRMS and Material
-3.Bug fixing in progress
-4.Error identification due to database updation in MM
-HRMS:
-1. Verified and checked data for issues raised during the 3rd September demo, including:
-· Income tax calculation
-· Perquisite tax calculation for various perquisite values
-· View break-up functionality
-· Raising tickets and discussing solutions with developers
-2. Met with the IREL HR team at HO Office and discussed:
-· Attendance report issues (fixed and moved into production)
-· Workflow-related issues
-· Attendance data of retired employees and missing date attendance
-· Shared resolutions with their HR team - Additionally, based on the points shared by Anil with Jena Sir:
-· Held discussions to understand the issues in detail
-· Suggested possible resolutions
-· Shared updates internally to ensure appropriate action is taken to meet expectations
+    <t xml:space="preserve">HRMS - Completed the feedback provided by Mr. Anil 
+SM - Ship cum road way issue for IRN and Revert the PI qty and LC qty after short close
+FA -  Running balance of GL for specific period shall have the opening balance row (separate) for income and expense.
 </t>
   </si>
   <si>
-    <t>Finance:
-1.Operational Modules optimization
-2.Response and bug fixing of the Chavara Unit Email 
-HRMS:
-1. Demo with Jena Sir &amp; Jyoti
-· Provide a demo on the points raised in the previous demo
-· Execute payroll runs for April, May, and June with updated logic
-2. Ongoing Client Support &amp; Coordination
-· Continue addressing daily payroll-related queries
-· Provide support for payroll operations
-· Assist clients in streamlining payroll processes to improve efficiency</t>
+    <t>Planning to complete buy back for MM, e-separation demo, SMS integration.</t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
   </si>
   <si>
-    <t>Payment release</t>
+    <t>No risks involved</t>
   </si>
   <si>
     <t>Priya R</t>
@@ -935,20 +904,17 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t xml:space="preserve">1] EVS- 10/10 EVS poles installed. Equipment installation pending due to power and network not available from Honeywell.
-2] 6/10 VMD pole foundations done. Poles installation pending due to poles are not delivered till date. Rest foundation will be started after Durga Puja. 
-3] PA installation pending due to power and network not available from Honeywell. 
-4] ECB enclosure delivered at site on 23/09/25. Works will be started after Durga Puja. 
-5] GIS testing server is working. Main server still not provided by Honeywell. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For this week upto 21/10/25 works has been suspended by GSCL/ Nagarnigam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] VMD poles delivery issues. 
-2] Vendor cable laying order still not done. 
-3] Approved VMD controller still not sell delivered.
-4] Accessories still not delivered. </t>
+    <t>1. EVS: 10/10 Nos. EVS Poles has been installed. EVS installation is pending due to Power and Network from Honeywell. 
+2. 6/10 Nos. VMD foundations done. 4 Nos. Pending due to digging work restricted by Client for Puja vacations up to 21st Oct'25, but we submitted an work permit letter for start the work from 6/10/25. Still not getting approval. 
+3. ECB, ECB enclosure, VMD Display board, VMD Poles, EVS, PA delivered at site and invoicing done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ECB enclosure foundation work.
+2. EVS, ECB and PA cable laying work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. VMD controller still not delivered. 
+2. Accessories like Cat-6 cable, Earthing accessories, lightning arrestor, HDPE pipes make still not approved by client. Due this delivery pending. </t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -1448,7 +1414,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{32C35CEF-7617-4824-80D2-8FBE1A24F560}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{FB3C5D15-3663-4D42-8E7F-AA433BF5BFF8}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1777,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A82CEB4-AF6E-467F-BF73-8A318826011C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A17F63-E1F8-4B68-AED1-BDF4E969CF46}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2231,7 +2197,7 @@
         <v>83</v>
       </c>
       <c r="Z5" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA5" s="13">
         <v>0.37262974390444603</v>
@@ -2691,7 +2657,7 @@
         <v>146</v>
       </c>
       <c r="Z10" s="12">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="AA10" s="13">
         <v>0.25</v>
@@ -2875,7 +2841,7 @@
         <v>170</v>
       </c>
       <c r="Z12" s="12">
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="AA12" s="13" t="s">
         <v>97</v>
@@ -2955,19 +2921,19 @@
         <v>177</v>
       </c>
       <c r="V13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="W13" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>134</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z13" s="12">
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="AA13" s="13">
         <v>0.2171250438887713</v>
@@ -2987,13 +2953,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -3026,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3035,28 +3001,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>134</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z14" s="12">
         <v>45933</v>
@@ -3068,10 +3034,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3079,13 +3045,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3118,40 +3084,40 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="Z15" s="12">
-        <v>45915</v>
+        <v>45933</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>97</v>
@@ -3160,10 +3126,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3171,16 +3137,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>125</v>
@@ -3210,40 +3176,40 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P16" s="10">
         <v>0.97210163191351817</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>134</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z16" s="12">
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="AA16" s="13">
         <v>0.36662132665084957</v>
@@ -3252,10 +3218,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3263,13 +3229,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3302,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3311,28 +3277,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>134</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z17" s="12">
         <v>45933</v>
@@ -3344,10 +3310,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3355,19 +3321,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3394,37 +3360,37 @@
         <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P18" s="10">
         <v>0.76923076913183275</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="Z18" s="12">
         <v>45933</v>
@@ -3436,10 +3402,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3447,13 +3413,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3486,37 +3452,37 @@
         <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P19" s="10">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="Z19" s="12">
         <v>45933</v>
@@ -3528,7 +3494,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3539,13 +3505,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3587,28 +3553,28 @@
         <v>134</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>134</v>
       </c>
       <c r="U20" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="V20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3620,10 +3586,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3631,13 +3597,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3670,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3679,25 +3645,25 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3712,10 +3678,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3723,13 +3689,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>277</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>278</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3760,37 +3726,37 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>280</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>134</v>
       </c>
       <c r="T22" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="U22" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="V22" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="V22" s="24" t="s">
+      <c r="W22" s="24" t="s">
         <v>283</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>284</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>134</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3802,10 +3768,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3818,7 +3784,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A078650-F3E1-4DD3-9CCB-0B24CFD17F3C}</x14:id>
+          <x14:id>{69C92A71-ED30-4535-8518-30872B95AE10}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3828,7 +3794,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A078650-F3E1-4DD3-9CCB-0B24CFD17F3C}">
+          <x14:cfRule type="dataBar" id="{69C92A71-ED30-4535-8518-30872B95AE10}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBFC260-1E5D-430C-B3DC-6FF750450235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86148807-8465-43F3-9EF1-4C9AB7604C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D32F5C57-4757-402E-9CF2-EB603852DA3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E292F654-F5F3-4282-AC2D-2E22AC6FA6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1414,7 +1414,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{FB3C5D15-3663-4D42-8E7F-AA433BF5BFF8}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E2C7CBD0-F584-4166-847F-6F319B2BE71C}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1743,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A17F63-E1F8-4B68-AED1-BDF4E969CF46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529CC8EC-8FD2-4E1D-9F17-28B830433190}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1867,31 +1867,31 @@
         <v>840.24454680000008</v>
       </c>
       <c r="H2" s="8">
-        <v>587.44015300000058</v>
+        <v>610.78027930000064</v>
       </c>
       <c r="I2" s="8">
         <v>23</v>
       </c>
       <c r="J2" s="8">
-        <v>610.44015300000058</v>
+        <v>633.78027930000064</v>
       </c>
       <c r="K2" s="8">
-        <v>110.00000000000001</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="L2" s="9">
-        <v>252.8043937999995</v>
+        <v>229.46426749999944</v>
       </c>
       <c r="M2" s="8">
-        <v>140.04075780000008</v>
+        <v>163.38088410000017</v>
       </c>
       <c r="N2" s="8">
-        <v>0</v>
+        <v>23.340126300000005</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P2" s="10">
-        <v>0.69912997976269697</v>
+        <v>0.72690775754047487</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>35</v>
@@ -1959,31 +1959,31 @@
         <v>1305.45</v>
       </c>
       <c r="H3" s="8">
-        <v>717.0616940000001</v>
+        <v>753.32419400000003</v>
       </c>
       <c r="I3" s="8">
         <v>36</v>
       </c>
       <c r="J3" s="8">
-        <v>753.0616940000001</v>
+        <v>789.32419400000003</v>
       </c>
       <c r="K3" s="8">
-        <v>92</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="L3" s="9">
-        <v>588.38830599999994</v>
+        <v>552.12580600000001</v>
       </c>
       <c r="M3" s="8">
-        <v>217.57499999999999</v>
+        <v>253.83750000000001</v>
       </c>
       <c r="N3" s="8">
-        <v>0</v>
+        <v>36.262500000000003</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P3" s="10">
-        <v>0.54928315446780807</v>
+        <v>0.57706093224558586</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>35</v>
@@ -2060,7 +2060,7 @@
         <v>468.10391100000004</v>
       </c>
       <c r="K4" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="L4" s="9">
         <v>448.71753747457626</v>
@@ -2146,13 +2146,13 @@
         <v>399.26925</v>
       </c>
       <c r="I5" s="8">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="J5" s="8">
-        <v>581.26925000000006</v>
+        <v>672.26925000000006</v>
       </c>
       <c r="K5" s="8">
-        <v>471</v>
+        <v>352</v>
       </c>
       <c r="L5" s="9">
         <v>2013.7567499999998</v>
@@ -2238,10 +2238,10 @@
         <v>435.46562499999999</v>
       </c>
       <c r="I6" s="8">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J6" s="8">
-        <v>435.46562499999999</v>
+        <v>621.46562500000005</v>
       </c>
       <c r="K6" s="8">
         <v>367</v>
@@ -2330,13 +2330,13 @@
         <v>325.5</v>
       </c>
       <c r="I7" s="8">
-        <v>245.00000000000003</v>
+        <v>111.00000000000001</v>
       </c>
       <c r="J7" s="8">
-        <v>570.5</v>
+        <v>436.5</v>
       </c>
       <c r="K7" s="8">
-        <v>77</v>
+        <v>204.99999999999997</v>
       </c>
       <c r="L7" s="9">
         <v>1860.7800000000002</v>
@@ -2428,7 +2428,7 @@
         <v>565.14593049999996</v>
       </c>
       <c r="K8" s="8">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="L8" s="9">
         <v>1108.9340695000001</v>
@@ -2514,13 +2514,13 @@
         <v>430.5498189000001</v>
       </c>
       <c r="I9" s="8">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J9" s="8">
-        <v>476.5498189000001</v>
+        <v>453.5498189000001</v>
       </c>
       <c r="K9" s="8">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="L9" s="9">
         <v>942.03075109999997</v>
@@ -2606,13 +2606,13 @@
         <v>3431.25</v>
       </c>
       <c r="I10" s="8">
-        <v>635</v>
+        <v>762</v>
       </c>
       <c r="J10" s="8">
-        <v>4066.25</v>
+        <v>4193.25</v>
       </c>
       <c r="K10" s="8">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="L10" s="9">
         <v>1906.25</v>
@@ -2704,7 +2704,7 @@
         <v>247.4923498</v>
       </c>
       <c r="K11" s="8">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L11" s="9">
         <v>455.20059520000001</v>
@@ -2974,10 +2974,10 @@
         <v>1722.0305597000006</v>
       </c>
       <c r="I14" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J14" s="8">
-        <v>1722.0305597000006</v>
+        <v>1737.0305597000006</v>
       </c>
       <c r="K14" s="8">
         <v>977</v>
@@ -3158,13 +3158,13 @@
         <v>650.51515290000009</v>
       </c>
       <c r="I16" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J16" s="8">
-        <v>650.51515290000009</v>
+        <v>668.51515290000009</v>
       </c>
       <c r="K16" s="8">
-        <v>325</v>
+        <v>411.00000000000006</v>
       </c>
       <c r="L16" s="9">
         <v>18.669149999999945</v>
@@ -3250,13 +3250,13 @@
         <v>433.08388200000002</v>
       </c>
       <c r="I17" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="8">
-        <v>506.08388200000002</v>
+        <v>505.08388200000002</v>
       </c>
       <c r="K17" s="8">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="L17" s="9">
         <v>4.0801979999999958</v>
@@ -3348,7 +3348,7 @@
         <v>131.779661</v>
       </c>
       <c r="K18" s="8">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L18" s="9">
         <v>39.533898322033906</v>
@@ -3618,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -3784,7 +3784,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69C92A71-ED30-4535-8518-30872B95AE10}</x14:id>
+          <x14:id>{9AE378E4-BD9D-49F2-9B1B-9EA043FA9A83}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3794,7 +3794,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{69C92A71-ED30-4535-8518-30872B95AE10}">
+          <x14:cfRule type="dataBar" id="{9AE378E4-BD9D-49F2-9B1B-9EA043FA9A83}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86148807-8465-43F3-9EF1-4C9AB7604C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A42D02-31BB-4235-9932-8B39C73C4837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E292F654-F5F3-4282-AC2D-2E22AC6FA6C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5777AE12-FC0B-41E4-B4A6-B46A9F2F2869}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -165,22 +165,21 @@
   1.      No Status    =   16
   2.      Estimation   =   10
   3.     Designing    =    4
-  4.     To Do        =      21
+  4.     To Do        =    20
   5.     In Progress  =    11
-  6.     Under QA Testing = 7
+  6.     Under QA Testing = 8
   7.     User Acceptance Testing (UAT) = 6
   8.     Released on Production = 256
-  9.     Closed       = 119
-10. 2 months payment not cleared yet</t>
-  </si>
-  <si>
-    <t>5 --- Task planes to deployed</t>
+  9.     Closed       = 119</t>
+  </si>
+  <si>
+    <t>Task-5 need to deploy(last week not deployed)</t>
   </si>
   <si>
     <t>NodeJS , HTML5/CSS , JS , React , Springboot Elastic, PostGreSQL , MySQL , MongoDB, Postman, API &amp; SSO integration</t>
   </si>
   <si>
-    <t>Trying to retain the Bimal for june/july-2026</t>
+    <t>Client has not the permission on AI task</t>
   </si>
   <si>
     <t>Amit K</t>
@@ -1414,7 +1413,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E2C7CBD0-F584-4166-847F-6F319B2BE71C}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{505F450A-B359-402C-AA03-FD3717819E5F}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1743,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529CC8EC-8FD2-4E1D-9F17-28B830433190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F25D7A-062F-4A65-9881-99FAA1D4EFDF}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1921,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="AA2" s="13">
         <v>0.54846740318532206</v>
@@ -3784,7 +3783,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9AE378E4-BD9D-49F2-9B1B-9EA043FA9A83}</x14:id>
+          <x14:id>{8E6EE507-CB30-4430-85E6-E4C1BD27C861}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3794,7 +3793,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9AE378E4-BD9D-49F2-9B1B-9EA043FA9A83}">
+          <x14:cfRule type="dataBar" id="{8E6EE507-CB30-4430-85E6-E4C1BD27C861}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A42D02-31BB-4235-9932-8B39C73C4837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE629588-35D4-4F1C-8F3D-7D86C82050DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5777AE12-FC0B-41E4-B4A6-B46A9F2F2869}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{98214565-32DC-4459-B936-30959DC989AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="289">
   <si>
     <t>SN</t>
   </si>
@@ -508,44 +508,53 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Krishi MApper 
-•	API Consumption
-1.	AMI API: consumed and reflecting on GIS/Survey Count dashboard
-2.	Mahadbt-API : To consume and reflect over production
-•	Scheme on boarding
-1.	PKVY : apk shared to tester for review
-2.	oil seed Assets : apk shared to tester for review.
-3.	NBM : testing on progress
-•	Power BI Dashboard : 2-3 dashboard created as requested. Need to incorporate with API to get updated data 
-•	Count Dashboard— FY wise / scheme wise / state wise : testing going on over staging
-•	GIS Dashboard : Data load issue/information :  testing going on over staging
-Natural Farming :  
-•	Fixing users highlighted issue
+    <t xml:space="preserve">Krishi MApper
+• API Consumption
+1. AMI API: reflecting on GIS/Survey Count dashboard 
+2. Mahadbt-API/patanjali API/karnatka RKVY API  : WIP
+• Scheme on boarding
+1. PKVY : feedback shared from tester - WIP for fixing issue
+2. oil seed Assets : feedback shared from tester - WIP for fixing issue
+3. NBM : testing on progress
+• Power BI Dashboard : Need to incorporate with API to get updated data
+• Count Dashboard— FY wise / scheme wise / state wise : testing going on over staging
+• GIS Dashboard : API/query optimization for data
+Natural Farming :
+• Fixing users highlighted issue
+AI-KOSH
+• APIs to share for metadata for all scheme : some APIs are shared : meeting schedule for review of API
 Krishi Unnati
-•	MIS report discussed with client. Some design will shared to freeze before development start
+• MIS report discussed with client. Some design will shared to freeze before development start
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Krishi MApper 
-•	API Consumption
-1.	Mahadbt-API : To consume and reflect over production
-2. RKVY API : API consumption and relect over surveycount
-3. NMEO-OP : API consumption and relect over surveycount
-•	Scheme on boarding
-1.	PKVY : over production
-2.	oil seed Assets : over production
-3.	NBM : over production
-•	Power BI Dashboard : deploy over production
-•	Count Dashboard— FY wise / scheme wise / state wise : deploy over production
-•	GIS Dashboard : Data load issue/information :  deploy over production
-Natural Farming :  
-•	Fixing users highlighted issue
+    <t xml:space="preserve">
+Krishi MApper
+• API Consumption
+1. Data count to show over dashoard for state API which is consumed
+2. Mahadbt-API/patanjali API/karnatka RKVY API  : consume and show over dashboard
+• Scheme on boarding
+1. PKVY : deploy over production/play store
+2. oil seed Assets : deploy over production/play store
+3. NBM : deploy over production/play store
+• Power BI Dashboard : deploy over production
+• Count Dashboard— FY wise / scheme wise / state wise : deploy over production
+• GIS Dashboard :deploy over production
+Natural Farming :
+• Fixing users highlighted issue
+AI-KOSH
+• APIs to share for metadata for all scheme : all APIs to be share
 Krishi Unnati
-•	MIS report discussed with client. Some design will shared to freeze before development start
-</t>
+• MIS report : work on report</t>
   </si>
   <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GIS dashboard/survey count query issue : query is more complex and need to optimize.
+A dedicated database developer is required at our end to fix it : one developer is already shortlisted and mailed for the further process
+  </t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -586,12 +595,12 @@
 32 Manpower deployed as per client requirements.
 Remaining Manpower deployment letter submitted to client for approval but client replied currently there is no requirement.
 ISO Certification Documents parts ready some parts are pending to client end for Audit.
-Q.3 O&amp;M &amp;Manpower and 2% of Capex. Payment file in accounts team for final payment. Most probably before 10 oct payment will credit our accounts.
+Q.3 O&amp;M &amp;Manpower and 2% of Capex. Payment file is at CEO for approval for final payment. Most probably before 15 oct payment will credit our accounts.
 AMC vendors payment not done on timely from CMS end.
 Switches, Servers and Tape Library HDD AMC Required. This is very critical our Dc.</t>
   </si>
   <si>
-    <t>Q.3 Payment file sign from CFO &amp;CEO for final payment.
+    <t>Q.3 Payment file sign from CEO for final payment.
 Consumable ITem Diesel payment also released with o&amp;m payment.
 Video wall and switches and NvR down due to natural lighting: assign to vendor and resolve this issues.
 For ISO 27001 when client is free some points cleared for Audit.
@@ -604,7 +613,9 @@
   <si>
     <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG)
 AMC REQUIRED OLD DC INFRA ON URGENT BASIS.
-For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.</t>
+For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
+Video wall down last 8 days, Vendor PO pending.
+Insurance claim register for video wall and Switches.</t>
   </si>
   <si>
     <t>Sachin S</t>
@@ -633,28 +644,26 @@
 PBG of 3% of balance of TCV (137 L) to be submitted at end of Qtr 4.</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Jan23 to Sept25 (Total 11 quarters payment released- 75%)
+    <t>1)Jan23 to Sept25 (Total 11 quarters payment released- 75%)
 2)24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withhold payment- KSCL will not pay to TechM (re-imbursement)- KSCL will not pay to Tech M reimburesement and will have to be paid by Tech M to CMS
-3) Billing done for OND24 &amp; JFM24 Qtr
+3) Billing done for OND24 &amp; JFM24 Qtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) To expedite ATCS -23 junctions for making it operational
+2) VMSB issue resolution to keep it live
+3) Reimbursement of recurring charges from Tech-M
+4) Release of 25% retention/withheld amount
+5) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
+6) Coordination with vendor Text Local for redemption of credit points on vendor's migration to new portal
+7)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,
 </t>
   </si>
   <si>
-    <t>1) To expedite ATCS -23 junctions for making it operational
-2) VMSB issue resolution to keep it live
-3) Metro Inventory consolidation
-4) Reimbursement of recurring charges from Tech-M
-5) Release of 25% retention/withheld amount
-6) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
-7) Coordination with vendor Text Local for redemption of credit points on vendor's migration to new portal
-8)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
+    <t>1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
 2)Vendor Videonetics "Time for Red" feature not yet been delivered despite the forgone timeline.
 3)Battery order is awaited
 4)VMSB devices facing recurring problems (dark spots, black lines, component failures).Smart Parking sensors &amp; VMSB card-related issues.
-5)HDD order for LPU is awaited as a result of which system at various junction has downtime
-</t>
+5)HDD order for LPU is awaited as a result of which system at various junction has downtime</t>
   </si>
   <si>
     <t>Saleel H</t>
@@ -765,15 +774,20 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2 quarter payment received. Q3 &amp; Q4 Payment under process.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
-11 no of VMD LED time have issue. Need to purchase new module - ICCC
+    <t xml:space="preserve">Maintenace activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3 quarter invoice process. 
+6 no VMD module we will change 
+1 no 6 KVA ups received now we will live VMD 
+</t>
+  </si>
+  <si>
+    <t>VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC
+05 no of VMD LED time have issue. Need to purchase new module - ICCC
 22 no of UCON 10 controller we needs to replace. - ICCC
- 40 no location battery stolen. Insurance under process 
-17 no ups under repairing 
-</t>
+40 no location battery stolen. Insurance under process
+16 no ups under repairing</t>
   </si>
   <si>
     <t>ISCDL</t>
@@ -804,19 +818,18 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Hold 11 ATCS and 9 ITMS junction work letter received.
+    <t>1. Hold 11 ATCS and 9 ITMS junction work letter received.
 2. Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received.
 3. Hold junction CAPEX cost approval and Billing mail received.
-4. Submitted invoices for completed work including other recurring cost are under verification by CEO sir, Verified by ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.
-5. Dt:- 01-10-2025, Note sheet reached at CEO sir table for signing.
-</t>
+4. Today, Submitted invoices for completed work including other recurring cost are under signing by CEO sir, Verified by ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.</t>
   </si>
   <si>
     <t>1] New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL in upcoming week.
-2] As per CDO sir, Go-Live note sheet are preparing and will be released in upcoming week.</t>
-  </si>
-  <si>
-    <t>1] Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
+2] As per CDO sir, Today Go-Live note sheet will prepare and will be released soon after the today billing note sheet signing by CEO sir.</t>
+  </si>
+  <si>
+    <t>1] Apart from 50Lakh payment, Rest all the recurring cost and capex cost will be released based on the availability of fund at smart city.
+2. Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
 2] Material approval including dispatching required as per site consumption report.</t>
   </si>
   <si>
@@ -934,7 +947,7 @@
     <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
   </si>
   <si>
-    <t>217</t>
+    <t>218</t>
   </si>
   <si>
     <t>72.86 L</t>
@@ -943,14 +956,20 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5CR+ AR is collected for May and June-2025 invoices.
-</t>
-  </si>
-  <si>
-    <t>Concentration on Recruitment at Least 20 Operators to fulfill the short of manpower</t>
-  </si>
-  <si>
-    <t>Facing shortfalls on daily basis due to vacant positions not fulfilled by Million Minds Team.</t>
+    <t>AR Collected till Jun-2025 i.e. 1.5Cr
+July-25 Invoice is Due 85L
+Aug-25 Invoice is Not Due 85L
+Pending Balance 1.8Cr</t>
+  </si>
+  <si>
+    <t>1. Recruitment of 20 Operators
+2. Workorder Follow-Up with Customer
+3. Support Document preparation for upcoming Invoice</t>
+  </si>
+  <si>
+    <t>1. Recruitment according to Attrition
+- Multiple follow-up with Vendor for shortlisting and calling for recruitment.
+2. New Work Order from Customer</t>
   </si>
   <si>
     <t>Jaywant P</t>
@@ -981,26 +1000,23 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Overall Progress Summary 
-Servers: Fully configured, installed, and ready. 
-Substations (MFM): Network set; waiting on switch installation by JNPA vendor to connect meters.
-ABT Meters: Installed; pending series connection and cable laying. Switch port activation needed.
-RMU Meters: Survey and cabling done; waiting for JNPA to provide OFC and switch for communication setup.
-Water Flow Meters: 62 delivered; ~30 to be installed after Water Dept completes infrastructure. Larger meters’ locations pending.</t>
-  </si>
-  <si>
-    <t>ABT meter series connection planning.
-Water meter installation as per readiness from JNPA water department.</t>
+    <t>Core Infrastructure (Servers, Cloud, Panel Delivery): Completed
+Meter Communication (Substations &amp; ABT): Partially completed, pending vendor/network readiness
+Water Meter Deployment: Materials delivered; ~30 units ready for installation once infra is provided
+Pending Dependencies: Switch rack/port enablement (CQTech), API from GE SCADA vendor, OFC &amp; infra support from JNPA</t>
+  </si>
+  <si>
+    <t>one water meter installation as per infra ready from JNPA.
+ABT panel permanent placement besides main incomer panel.
+NDP pole installation for MPLS Link setup</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>Switch installation delay by JNPA vendor impacting meter communication setup.
-Dependency on JNPA for OFC network and switch availability at RMU sites.
-Pending infrastructure (valves, ducts, power) from Water Dept delaying water meter installation.
-Coordination needed with multiple vendors (Secutech, MSETCL, JNPA) for timely execution.
-Complexity and size of larger water meters causing location finalization delays.</t>
+    <t>Dependency on third-party vendors (CQTech, GE SCADA) for switch ports &amp; API availability.
+OFC network readiness at RMU locations pending from JNPA.
+Infra support delays (valves, strainers, ducts, power supply) affecting water meter installations.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1413,7 +1429,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{505F450A-B359-402C-AA03-FD3717819E5F}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{25C7D653-D793-4F74-AF4B-266C198360B4}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1742,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F25D7A-062F-4A65-9881-99FAA1D4EFDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C1DEB-B87A-45FE-90D7-8426CB1E3AD1}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1881,7 +1897,7 @@
         <v>229.46426749999944</v>
       </c>
       <c r="M2" s="8">
-        <v>163.38088410000017</v>
+        <v>163.38088410000015</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -2234,31 +2250,31 @@
         <v>1265.69472</v>
       </c>
       <c r="H6" s="8">
-        <v>435.46562499999999</v>
+        <v>497.67500000000001</v>
       </c>
       <c r="I6" s="8">
         <v>186</v>
       </c>
       <c r="J6" s="8">
-        <v>621.46562500000005</v>
+        <v>683.67499999999995</v>
       </c>
       <c r="K6" s="8">
         <v>367</v>
       </c>
       <c r="L6" s="9">
-        <v>830.22909499999992</v>
+        <v>768.01972000000001</v>
       </c>
       <c r="M6" s="8">
-        <v>0</v>
+        <v>62.209375000000001</v>
       </c>
       <c r="N6" s="8">
-        <v>0</v>
+        <v>62.209375000000001</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>88</v>
       </c>
       <c r="P6" s="10">
-        <v>0.34405265196966295</v>
+        <v>0.39320303082247199</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>89</v>
@@ -2468,11 +2484,11 @@
       <c r="X8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="Y8" s="11">
-        <v>0</v>
+      <c r="Y8" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="Z8" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA8" s="13">
         <v>0.10999999984936704</v>
@@ -2484,7 +2500,7 @@
         <v>114</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2492,19 +2508,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G9" s="8">
         <v>1372.5805700000001</v>
@@ -2531,40 +2547,40 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P9" s="10">
         <v>0.31367908617561158</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z9" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA9" s="13">
         <v>0.1954000003408819</v>
@@ -2573,10 +2589,10 @@
         <v>0.11441806775377272</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2584,19 +2600,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G10" s="8">
         <v>5337.5</v>
@@ -2623,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2632,31 +2648,31 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z10" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA10" s="13">
         <v>0.25</v>
@@ -2665,10 +2681,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2676,19 +2692,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2715,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" s="10">
         <v>0.33126882165643717</v>
@@ -2724,28 +2740,28 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z11" s="12">
         <v>45933</v>
@@ -2757,10 +2773,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2768,19 +2784,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G12" s="8">
         <v>1045.762712</v>
@@ -2807,37 +2823,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z12" s="12">
         <v>45933</v>
@@ -2849,10 +2865,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2860,19 +2876,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G13" s="8">
         <v>2019.8763390000001</v>
@@ -2899,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2908,31 +2924,31 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Z13" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA13" s="13">
         <v>0.2171250438887713</v>
@@ -2941,10 +2957,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2952,19 +2968,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G14" s="8">
         <v>2903.04126</v>
@@ -2991,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3000,31 +3016,31 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Z14" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA14" s="13">
         <v>-5.273871039764888E-2</v>
@@ -3033,10 +3049,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3044,13 +3060,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3083,37 +3099,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Z15" s="12">
         <v>45933</v>
@@ -3125,10 +3141,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3136,19 +3152,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G16" s="8">
         <v>669.18430290000003</v>
@@ -3175,37 +3191,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P16" s="10">
         <v>0.97210163191351817</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Z16" s="12">
         <v>45932</v>
@@ -3217,10 +3233,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3228,19 +3244,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" s="8">
         <v>437.16408000000001</v>
@@ -3267,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3276,31 +3292,31 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Z17" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA17" s="13">
         <v>0.61442879884363322</v>
@@ -3309,10 +3325,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3320,79 +3336,79 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
       </c>
       <c r="H18" s="8">
-        <v>131.779661</v>
+        <v>171.31355930000001</v>
       </c>
       <c r="I18" s="8">
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <v>131.779661</v>
+        <v>171.31355930000001</v>
       </c>
       <c r="K18" s="8">
         <v>132</v>
       </c>
       <c r="L18" s="9">
-        <v>39.533898322033906</v>
+        <v>2.2033901814211276E-8</v>
       </c>
       <c r="M18" s="8">
-        <v>131.779661</v>
+        <v>171.31355930000001</v>
       </c>
       <c r="N18" s="8">
-        <v>0</v>
+        <v>39.533898300000004</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P18" s="10">
-        <v>0.76923076913183275</v>
+        <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z18" s="12">
-        <v>45933</v>
+        <v>45938</v>
       </c>
       <c r="AA18" s="13" t="s">
         <v>97</v>
@@ -3401,10 +3417,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3412,13 +3428,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3430,58 +3446,58 @@
         <v>111.36</v>
       </c>
       <c r="H19" s="8">
-        <v>11.135999999999999</v>
+        <v>33.408000000000001</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <v>11.135999999999999</v>
+        <v>33.408000000000001</v>
       </c>
       <c r="K19" s="8">
         <v>0</v>
       </c>
       <c r="L19" s="9">
-        <v>100.224</v>
+        <v>77.951999999999998</v>
       </c>
       <c r="M19" s="8">
-        <v>11.135999999999999</v>
+        <v>33.408000000000001</v>
       </c>
       <c r="N19" s="8">
-        <v>0</v>
+        <v>22.271999999999998</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P19" s="10">
-        <v>9.9999999999999992E-2</v>
+        <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="12">
         <v>45933</v>
@@ -3493,7 +3509,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3504,13 +3520,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3549,31 +3565,31 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3585,10 +3601,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3596,13 +3612,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3635,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3644,25 +3660,25 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3677,10 +3693,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3688,13 +3704,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3725,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3734,28 +3750,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="X22" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3767,10 +3783,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3783,7 +3799,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E6EE507-CB30-4430-85E6-E4C1BD27C861}</x14:id>
+          <x14:id>{979DE5DB-2E03-45B5-B5D3-3A17978810C8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3793,7 +3809,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8E6EE507-CB30-4430-85E6-E4C1BD27C861}">
+          <x14:cfRule type="dataBar" id="{979DE5DB-2E03-45B5-B5D3-3A17978810C8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE629588-35D4-4F1C-8F3D-7D86C82050DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD7D80E-06CA-495C-9285-73DEA9D0A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{98214565-32DC-4459-B936-30959DC989AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFD74711-9460-4641-A786-15CF2A2A1387}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -459,22 +459,26 @@
     <t>→ Phase 1 all 4 tracks billing completed
 → Payment received till Track 3 for Phase 1.
 → All Nine modules of Phase I development done.
-→ 7 in production 2 in UAT.
+→ All nine modules in production.
 → Drone moved to Phase II
-→ Phase II requirement gathering done for BICRS, Road Closure, and Payments
-→ Development in progress on BICRS module.</t>
-  </si>
-  <si>
-    <t>→ Deployment of RSA, TM, BICRS and Team Structure on production.
-→ Development of Road closure.
+→ Phase II requirement gathering done for BICRS, Road Closure, Document Repository, Critical Correspondence, and Payments
+→ Development in progress on 
+         BICRS
+         Road closure
+         Document Repository
+         Critical Correspondence</t>
+  </si>
+  <si>
+    <t>→ Deployment of BICRS on production.
+→ Development of Road closure, Document Repository, Critical Correspondence and feature enhancements from phase 1 modules.
 → Requirement gather for other modules of phase II - CO Division (Onboarding, Toll Master), Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE. Employee Directory</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
   </si>
   <si>
-    <t>Phase ll timelines are tight given the volume of work and current resources.
-Timely onboarding of resources.</t>
+    <t>Phase II timelines are quite tight considering the workload and current team capacity.
+Timely onboarding of additional resources will be crucial.</t>
   </si>
   <si>
     <t>Mukul K / Agam V</t>
@@ -1429,7 +1433,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{25C7D653-D793-4F74-AF4B-266C198360B4}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{65732A3F-F6D2-44F0-AF16-625E21B0BFB5}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1758,7 +1762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C1DEB-B87A-45FE-90D7-8426CB1E3AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D4C4E6-E67D-40C5-A55C-BEF5389671C3}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2396,7 +2400,7 @@
         <v>111</v>
       </c>
       <c r="Z7" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA7" s="13">
         <v>0.21406871945813666</v>
@@ -3799,7 +3803,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{979DE5DB-2E03-45B5-B5D3-3A17978810C8}</x14:id>
+          <x14:id>{C9D2386F-8A2E-4DEC-BD90-7257CBD3032A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3809,7 +3813,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{979DE5DB-2E03-45B5-B5D3-3A17978810C8}">
+          <x14:cfRule type="dataBar" id="{C9D2386F-8A2E-4DEC-BD90-7257CBD3032A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD7D80E-06CA-495C-9285-73DEA9D0A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D670BE-D7F5-4D4C-9E5E-36C5BE483E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFD74711-9460-4641-A786-15CF2A2A1387}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D41521A-CE3F-45B1-80FB-3B30E75F9779}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
     <t>Start Date (PO) : 10-Jan-24 :: End Date (PO) : 09-Jan-27</t>
   </si>
   <si>
-    <t>20 (7+13)</t>
-  </si>
-  <si>
-    <t>36.26 L</t>
+    <t>22 (9+13)</t>
+  </si>
+  <si>
+    <t>45.06 L</t>
   </si>
   <si>
     <t>Development, Maintenance and operations of an Integrated Portal for SBM used by the MoHUA
@@ -209,31 +209,30 @@
 Resolve all the bugs, issues and queries raised for these developed functionalities</t>
   </si>
   <si>
-    <t xml:space="preserve">20 resources on-boarded. (13 resources from GAIA – Tech Partner)
-Payment received till Aug’25.
-2 resources onboarded for SS. Hiring ongoing for 3 resources from GAIA.
-DWR mobile app: changes ongoing for dumpsite. 
-New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): testing ongoing
-New SSJ page created for City pairing on website.
-UWM Action Plan: additional points added from CPEEHO: Dev done
-API written for Prayas, under testing. GFC-I1 Indicator logic understanding and automation ongoing. Engineer App: Geo location enabled in iOS/Android. Implementation of Media Service in Java-Ongoing.
-Bulk upload parser under implementation. Website updates ongoing.
-Migration of SBMurban.org domain from Cloud Flare to Cloud Front.
+    <t xml:space="preserve">1. 22 resources on-boarded. (13 resources from GAIA – Tech Partner)
+2. Payment received till Aug’25.
+3. 2 resources onboarded for SS. 3 resources from GAIA yet to join.
+4. DWR mobile app: changes ongoing for dumpsite. 
+5. New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): testing ongoing
+6. UWM Action Plan: additional points added from CPEEHO: Dev done
+7. API written for Prayas, under testing. GFC-I15 Indicator logic understanding and changes ongoing in DB site. Engineer App: Geo location enabled in iOS/Android-App published.
+8. Implementation of Media Service in Java-Ongoing.
+9. Bulk upload parser under implementation. Website updates ongoing.
+10. Migration of SBMurban.org domain from Cloud Flare to Cloud Front planned on 10th Oct, 2025.
 </t>
   </si>
   <si>
-    <t>Maintenance activities: Daily ULB support, Website changes ongoing.
-New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing.
-DWR Mobile App pilot planned in Oct’25. Enable DWR for Dumpsite.
-SS Handover with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration ongoing</t>
+    <t>1. Maintenance activities: Daily ULB support, Website changes ongoing.
+2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing.
+3. DWR Mobile App pilot planned in Oct’25. Enable DWR for Dumpsite.
+4. SS Handover : Session on SS scoring &amp; result finalization with IPSOS planned on 14th Oct, 2025. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration ongoing. 6. Doc prepared to update libraries which are old/outdated/deprecated.</t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. File approved from Ministry. Contract start date is 01 Oct, 2025. 2 resources onboarded from CMS. Need 3 developers (1 Angular + 1 NodeJS + 1 Power BI) from GAIA. 
-2. Majority of team members working remotely. 
-3. No WiFi at New location
+    <t xml:space="preserve">1. 3 developers (1 Angular + 1 NodeJS + 1 Power BI) from GAIA yet to join.
+2. Majority of team members working remotely. Multiple times DS has asked to call resources to work from Ministry.
 </t>
   </si>
   <si>
@@ -920,17 +919,18 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t>1. EVS: 10/10 Nos. EVS Poles has been installed. EVS installation is pending due to Power and Network from Honeywell. 
-2. 6/10 Nos. VMD foundations done. 4 Nos. Pending due to digging work restricted by Client for Puja vacations up to 21st Oct'25, but we submitted an work permit letter for start the work from 6/10/25. Still not getting approval. 
-3. ECB, ECB enclosure, VMD Display board, VMD Poles, EVS, PA delivered at site and invoicing done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ECB enclosure foundation work.
-2. EVS, ECB and PA cable laying work. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. VMD controller still not delivered. 
-2. Accessories like Cat-6 cable, Earthing accessories, lightning arrestor, HDPE pipes make still not approved by client. Due this delivery pending. </t>
+    <t xml:space="preserve">1. All SRS, FRS, UAT documents approved by GSCL.
+2. EVS: 10/10 Nos. EVS Pols installation done.
+3. VMD: 6/10 Nos. VMD pole foundation completed. Rest pending due to digging Permission pending.
+4. All materials delivered as per PO and billing done. </t>
+  </si>
+  <si>
+    <t>1. PA installation.
+2. 6/10 Nos. VMD pole installation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Accessories not delivered due to make model not approved yet from GSCL.
+2. Vendor payment. </t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1432,9 +1432,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{65732A3F-F6D2-44F0-AF16-625E21B0BFB5}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1762,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D4C4E6-E67D-40C5-A55C-BEF5389671C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8DF5E1-99B3-4416-A520-2D43DF211F5D}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1975,7 +1973,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="8">
-        <v>1305.45</v>
+        <v>1440.002</v>
       </c>
       <c r="H3" s="8">
         <v>753.32419400000003</v>
@@ -1990,7 +1988,7 @@
         <v>7.0000000000000009</v>
       </c>
       <c r="L3" s="9">
-        <v>552.12580600000001</v>
+        <v>686.67780599999992</v>
       </c>
       <c r="M3" s="8">
         <v>253.83750000000001</v>
@@ -2002,7 +2000,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="10">
-        <v>0.57706093224558586</v>
+        <v>0.5231410748040628</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>35</v>
@@ -2032,7 +2030,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45931</v>
+        <v>45939</v>
       </c>
       <c r="AA3" s="13">
         <v>0.20395380903136873</v>
@@ -3228,7 +3226,7 @@
         <v>217</v>
       </c>
       <c r="Z16" s="12">
-        <v>45932</v>
+        <v>45939</v>
       </c>
       <c r="AA16" s="13">
         <v>0.36662132665084957</v>
@@ -3803,7 +3801,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C9D2386F-8A2E-4DEC-BD90-7257CBD3032A}</x14:id>
+          <x14:id>{9FA9C468-01B9-45C1-8ED3-A8A1936E03B2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3813,7 +3811,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C9D2386F-8A2E-4DEC-BD90-7257CBD3032A}">
+          <x14:cfRule type="dataBar" id="{9FA9C468-01B9-45C1-8ED3-A8A1936E03B2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D670BE-D7F5-4D4C-9E5E-36C5BE483E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09DE663B-EEAE-4080-B820-A98BDAE1F641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D41521A-CE3F-45B1-80FB-3B30E75F9779}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4AA5A2E2-D291-4F6E-9A02-E1B45CA77F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -866,19 +866,24 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t xml:space="preserve">HRMS - Completed the feedback provided by Mr. Anil 
-SM - Ship cum road way issue for IRN and Revert the PI qty and LC qty after short close
-FA -  Running balance of GL for specific period shall have the opening balance row (separate) for income and expense.
+    <t xml:space="preserve">HRMS - eseparation full and final settlement functionality, Fetched for three tabs the data for permanent employees from temporary employee ID.
+SM - PLA feedback changes completed. SMS Integration completed
+MM - Buy back functionality development completed
+FA - Running bill Number in SES field for AP PO-Service invoice
+Portal - Website vulnerability has fixed and UAT portal bug fixed 
 </t>
   </si>
   <si>
-    <t>Planning to complete buy back for MM, e-separation demo, SMS integration.</t>
+    <t>Cash flow statement to completed
+Completed for other tabs data fetch for employee
+Buy back functionality testing to be completed,
+Payroll demo has planned.</t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
   </si>
   <si>
-    <t>No risks involved</t>
+    <t>No risks</t>
   </si>
   <si>
     <t>Priya R</t>
@@ -1250,7 +1255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1432,7 +1437,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B4851156-3E7D-4211-AC60-E8747FA8E2DC}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1760,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8DF5E1-99B3-4416-A520-2D43DF211F5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E20B265-CF59-4497-B92D-6AB8DDBDB53C}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3134,7 +3141,7 @@
         <v>205</v>
       </c>
       <c r="Z15" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>97</v>
@@ -3801,7 +3808,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9FA9C468-01B9-45C1-8ED3-A8A1936E03B2}</x14:id>
+          <x14:id>{A9E58C47-CB25-4226-95BF-75A80EC773BC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3811,7 +3818,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9FA9C468-01B9-45C1-8ED3-A8A1936E03B2}">
+          <x14:cfRule type="dataBar" id="{A9E58C47-CB25-4226-95BF-75A80EC773BC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09DE663B-EEAE-4080-B820-A98BDAE1F641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55BDB57E-5BA0-407D-A08E-73088E8BCA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4AA5A2E2-D291-4F6E-9A02-E1B45CA77F5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9C1D134-1369-4A3C-B68C-8F0CAEDF70A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="288">
   <si>
     <t>SN</t>
   </si>
@@ -339,27 +339,26 @@
 User Interface Upgrade</t>
   </si>
   <si>
-    <t xml:space="preserve">Technology upgrade final presentation shared with estimation and manpower details to ADG.
-Few small changes deployment done on pre-prod &amp; on production.
-2 Task from Saddhit Target (E-mobility &amp; Dwell Time In application) Demo has been given to WZU.
-July Attendance discussion is going on positively. </t>
-  </si>
-  <si>
-    <t>Taking all approvals for JAS.
-Payment from WZU for AMJ.
-Delivering Saddhit task on given date.
-SLA document last Meeting.
-Start Interviews for Full Stack Developer.</t>
+    <t>AMJ Payment is with payment Team (PAO).
+Saadhit Plan: Out of 5/10 deployed,  1- under BRD/approach paper changes(CMS is working), 3 - Under VAPT/WIP. 1 - pending.
+Technical Upgrade meeting done on 8th Oct 2025 with WZU, couriers &amp; CMS. CMS need to schedule next meeting once update from WZU(After receiving feedback from couriers).
+Interviews under process for DBE/JAVA profiles.</t>
+  </si>
+  <si>
+    <t>Approval on JAS pending items for 80% bill. 
+Interviews with WZU/PGA for JAVA/DBE Profile.
+Followup for  the list from WZU for JAS Saadhit Plan.
+bulk upload, load testing will be completed and move to VAPT stage.</t>
   </si>
   <si>
     <t>Java Struts, For upgrade - TBD</t>
   </si>
   <si>
-    <t>Productivity challenges observed among a few employees.
+    <t>We have to find out the resources. Right now we have total 4 resignation. (3 JAVA, 1 DBE).
+PGA team will be not available in WZU (after 2 to 3 months). CMS need to manage PGA's work.
+From WZU, we require the SOP and process changes for each approval, as WZU has recently revised the approval procedure. 
 Certain SLA parameters are challenging to achieve.
-Attendance marking on the CBIC portal for overlapping period of employee.
-RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.- Few verifications questions has given to study and answer. - July attendance approval raised by wzu.
-3 positions needs to close.</t>
+RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.</t>
   </si>
   <si>
     <t>Rahul S / Asmita S</t>
@@ -400,19 +399,10 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t xml:space="preserve">→ Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-574 out of 585, F&amp;A-39 out of 50).
-→ Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month — requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
-→ VAPT  done - certificate Received ,
-→ Payment collection for implementation milestone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- HRMS Remain 11 point Fixing  
-- Daily stand-up meetings started which includes PM;  leadership - the same is in process.
-- Production issue Resolution 
-- Payment collection for implementation milestone.
-- Finance Module Pending Points 
-</t>
+    <t>VAPT Done, HRMS UAT points in Progress , BI tool Development is in progress , F&amp;A Discussion is in progress , Admin Module UAT points development has been started. Production issue tracker in progress . Payment follow up .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Follow up , UAT Points Delivery, on going Scheduled Delivery on track </t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
@@ -700,16 +690,18 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t>1. KK gate hardware installation is completed
-2. Cruise gate hardware installation is completed.
-3. Turnstile repair is pending PO need to be issued to vendor</t>
-  </si>
-  <si>
-    <t>Make sure of CAMC billing clearance of March April 2025 from NMPA end 
-May June July 2025 bills should be submit to customer for clearance</t>
-  </si>
-  <si>
-    <t>Turnstile repair</t>
+    <t>1. KK gate Cruise gate installation is 90% completed. We can submit supply\installation invoice for payment process. 
+2. FRS and RFID Application is not stable from last 3-4 days. Our P&amp;D team is working for the rectification.
+3. Below customer queries should be complied to process our CAMC bill i.e. April 2025.
+   The agreement copy submitted now is valid until March 2025 (Pg No.3). Please submit valid    agreement copy to process your invoice for the month of April 2025.
+     The difference in minimum wages is reimbursed by the port as per contract conditions. However as CMS has failed to deposit correct minimum wages for the month of April 2025, it will be difficult to reimburse the same without the contractor claiming the right amount in the invoice. In this regard, it is informed to Re-submit correct invoice to avoid such confusion for payment and during audit trails. 
+4. Turnstile repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Trail run of Cruise gate and KK gate 4 lanes. (once NMPA civil work is completed.
+2. Submissions of remaining CAMC and supply installation bills to get the payment.
+3. Rectification of application issue and faulty turnstile issues.
+</t>
   </si>
   <si>
     <t>Prashant P</t>
@@ -1064,8 +1056,7 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t xml:space="preserve">Modules Completed
-1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
+    <t xml:space="preserve">1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
 2. Landing Page – Developed and deployed interactive dashboard with quick navigation to all major modules.
 3. Agency Selection – Functionality for selecting and managing agencies successfully integrated.
 4. View Girder Assignment – Module to view girder assignment details completed and tested.
@@ -1082,29 +1073,27 @@
 15. GAD Management and WPSS/QAP Approval flows are functional and aligned with updated requirements.
 16. Stakeholder onboarding and agency management workflows are fully operational.
 17.Email Integration – Successfully implemented and tested email service for notification and approval workflows.
+18.	Girder Fabrication &amp; Raw Material Approval Process – Partially completed; remaining integration and approval flow under development.
+19. WPQR Preparation &amp; Submission (Welding Procedure Qualification Record) – Partially completed; submission and approval components in progress.
+20. Layout, Master Plates, Jigs, Joints &amp; Fixtures – Inspection Request – Partially completed; inspection request generation and workflow integration ongoing.
+21. Cutting, Straightening &amp; Edge Preparation – Inspection Request – Partially completed; validation and backend service linkage under progress.
+Plan
 </t>
   </si>
   <si>
+    <t>1. Conduct testing .
+2. Prepare modules for internal review and UAT.
+3. Start work on inspection Module</t>
+  </si>
+  <si>
+    <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-1.	Girder Fabrication &amp; Raw Material Approval Process – Partially completed; remaining integration and approval flow under development.
-2. WPQR Preparation &amp; Submission (Welding Procedure Qualification Record) – Partially completed; submission and approval components in progress.
-3. Layout, Master Plates, Jigs, Joints &amp; Fixtures – Inspection Request – Partially completed; inspection request generation and workflow integration ongoing.
-4. Cutting, Straightening &amp; Edge Preparation – Inspection Request – Partially completed; validation and backend service linkage under progress.
-Plan
-1.	Complete pending workflow integrations for fabrication and inspection modules.
-2. Conduct testing of WPQR and inspection request flows.
-3. Prepare modules for internal review and UAT.
-</t>
-  </si>
-  <si>
-    <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
+1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
 2. The project comprises 302 screens (132 complex, 170 average), spanning Fabrication, Inspection, Workshop, and Approval modules.
 3. Fabrication and Inspection modules exhibit high complexity owing to multiple process stages such as WPQR, Raw Material, Welding, and Assembly.
-4.Approval workflows involving multi-level roles (Agency, ADE/B&amp;S, Directors) add significant logic, validation, and access control complexity.
-</t>
+4.Approval workflows involving multi-level roles (Agency, ADE/B&amp;S, Directors) add significant logic, validation, and access control complexity.</t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1438,7 +1427,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B4851156-3E7D-4211-AC60-E8747FA8E2DC}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{44C3F89E-E324-4220-9AF3-B8CC11B9B40D}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1767,7 +1756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E20B265-CF59-4497-B92D-6AB8DDBDB53C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61DE8F3-B3D9-4593-8377-0467EC0AEF08}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2221,7 +2210,7 @@
         <v>83</v>
       </c>
       <c r="Z5" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA5" s="13">
         <v>0.37262974390444603</v>
@@ -2313,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="12">
-        <v>45929</v>
+        <v>45939</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>97</v>
@@ -2769,11 +2758,11 @@
       <c r="X11" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>159</v>
+      <c r="Y11" s="11">
+        <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA11" s="13">
         <v>-0.23918662882570962</v>
@@ -2785,7 +2774,7 @@
         <v>150</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2793,13 +2782,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -2832,37 +2821,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z12" s="12">
         <v>45933</v>
@@ -2874,10 +2863,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2885,13 +2874,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -2933,28 +2922,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="T13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z13" s="12">
         <v>45939</v>
@@ -2966,10 +2955,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2977,13 +2966,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -3016,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3025,28 +3014,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z14" s="12">
         <v>45939</v>
@@ -3058,10 +3047,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3069,13 +3058,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3108,37 +3097,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="Z15" s="12">
         <v>45939</v>
@@ -3150,10 +3139,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3161,16 +3150,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3200,37 +3189,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P16" s="10">
         <v>0.97210163191351817</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z16" s="12">
         <v>45939</v>
@@ -3242,10 +3231,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3253,13 +3242,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3292,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3301,28 +3290,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z17" s="12">
         <v>45939</v>
@@ -3334,10 +3323,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3345,19 +3334,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3384,37 +3373,37 @@
         <v>39.533898300000004</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="Z18" s="12">
         <v>45938</v>
@@ -3426,10 +3415,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3437,13 +3426,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3476,40 +3465,40 @@
         <v>22.271999999999998</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P19" s="10">
         <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="Z19" s="12">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="AA19" s="13" t="s">
         <v>97</v>
@@ -3518,7 +3507,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3529,13 +3518,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3577,28 +3566,28 @@
         <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="V20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3610,10 +3599,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3621,13 +3610,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3660,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3669,25 +3658,25 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3702,10 +3691,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3713,13 +3702,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>279</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3750,37 +3739,37 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="P22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>135</v>
       </c>
       <c r="T22" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="U22" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="V22" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="V22" s="24" t="s">
+      <c r="W22" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>285</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3792,10 +3781,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +3797,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A9E58C47-CB25-4226-95BF-75A80EC773BC}</x14:id>
+          <x14:id>{3EAFBFBF-56F4-40F8-92AC-8263C490A935}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3818,7 +3807,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A9E58C47-CB25-4226-95BF-75A80EC773BC}">
+          <x14:cfRule type="dataBar" id="{3EAFBFBF-56F4-40F8-92AC-8263C490A935}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55BDB57E-5BA0-407D-A08E-73088E8BCA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4090F19E-A5F5-462A-BC43-9BD2B43AF8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9C1D134-1369-4A3C-B68C-8F0CAEDF70A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A4E3128-972B-4AC0-AF82-83C717439481}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1427,7 +1427,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{44C3F89E-E324-4220-9AF3-B8CC11B9B40D}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3C129C38-57E6-41D7-B809-82835522B7E9}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1756,7 +1756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61DE8F3-B3D9-4593-8377-0467EC0AEF08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C57910-8DEA-48E6-ACC9-55888EEA1743}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3797,7 +3797,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3EAFBFBF-56F4-40F8-92AC-8263C490A935}</x14:id>
+          <x14:id>{1DD722C0-ABFB-405A-B80C-B1959FABB346}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3807,7 +3807,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3EAFBFBF-56F4-40F8-92AC-8263C490A935}">
+          <x14:cfRule type="dataBar" id="{1DD722C0-ABFB-405A-B80C-B1959FABB346}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4090F19E-A5F5-462A-BC43-9BD2B43AF8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA64603-ED57-4D24-BA3D-DE00A0BDD487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A4E3128-972B-4AC0-AF82-83C717439481}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B86E303-CA4B-4536-97AA-1F2671E78B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="289">
   <si>
     <t>SN</t>
   </si>
@@ -164,22 +164,22 @@
     <t>S.no  Bucket name     No. of Tasks
   1.      No Status    =   16
   2.      Estimation   =   10
-  3.     Designing    =    4
-  4.     To Do        =    20
-  5.     In Progress  =    11
-  6.     Under QA Testing = 8
-  7.     User Acceptance Testing (UAT) = 6
-  8.     Released on Production = 256
+  3.     Designing    =    6
+  4.     To Do        =    18
+  5.     In Progress  =    09
+  6.     Under QA Testing = 11
+  7.     User Acceptance Testing (UAT) = 2
+  8.     Released on Production = 263
   9.     Closed       = 119</t>
   </si>
   <si>
-    <t>Task-5 need to deploy(last week not deployed)</t>
+    <t>2 task planned to deploy</t>
   </si>
   <si>
     <t>NodeJS , HTML5/CSS , JS , React , Springboot Elastic, PostGreSQL , MySQL , MongoDB, Postman, API &amp; SSO integration</t>
   </si>
   <si>
-    <t>Client has not the permission on AI task</t>
+    <t>NA</t>
   </si>
   <si>
     <t>Amit K</t>
@@ -601,9 +601,6 @@
 For DC infra AMC discussing to HO and purchase team.</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG)
 AMC REQUIRED OLD DC INFRA ON URGENT BASIS.
 For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
@@ -642,14 +639,14 @@
 3) Billing done for OND24 &amp; JFM24 Qtr</t>
   </si>
   <si>
-    <t xml:space="preserve">1) To expedite ATCS -23 junctions for making it operational
+    <t>1) To expedite ATCS -23 junctions for making it operational
 2) VMSB issue resolution to keep it live
-3) Reimbursement of recurring charges from Tech-M
-4) Release of 25% retention/withheld amount
-5) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
-6) Coordination with vendor Text Local for redemption of credit points on vendor's migration to new portal
-7)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,
-</t>
+3) Metro Inventory consolidation
+4) Reimbursement of recurring charges from Tech-M
+5) Release of 25% retention/withheld amount
+6) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
+7) Coordination with vendor Text Local for redemption of credit points on vendor's migration to new portal
+8)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,</t>
   </si>
   <si>
     <t>1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
@@ -690,18 +687,18 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t>1. KK gate Cruise gate installation is 90% completed. We can submit supply\installation invoice for payment process. 
-2. FRS and RFID Application is not stable from last 3-4 days. Our P&amp;D team is working for the rectification.
-3. Below customer queries should be complied to process our CAMC bill i.e. April 2025.
-   The agreement copy submitted now is valid until March 2025 (Pg No.3). Please submit valid    agreement copy to process your invoice for the month of April 2025.
-     The difference in minimum wages is reimbursed by the port as per contract conditions. However as CMS has failed to deposit correct minimum wages for the month of April 2025, it will be difficult to reimburse the same without the contractor claiming the right amount in the invoice. In this regard, it is informed to Re-submit correct invoice to avoid such confusion for payment and during audit trails. 
-4. Turnstile repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Trail run of Cruise gate and KK gate 4 lanes. (once NMPA civil work is completed.
-2. Submissions of remaining CAMC and supply installation bills to get the payment.
-3. Rectification of application issue and faulty turnstile issues.
+    <t>Long pending Turnstile issue is resolved.
+KK gate and Cruise gate installation is almost completed. Only configuration part is pending
+Gate application is getting freeze, our P&amp;D team is working to resolve the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruise gate billing
+Push customer to clear the pending CAMC bills
+completing the configuration of KK gate and Cruise gate
 </t>
+  </si>
+  <si>
+    <t>Gate application is getting freeze on regular intervals.</t>
   </si>
   <si>
     <t>Prashant P</t>
@@ -735,14 +732,16 @@
 Payment 100% after successful installation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Under O &amp; M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O &amp; M activity and once 302 light received we will start installation.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">302 light under procurement we are already delay in material delivery and installation --- VMC ATCS
-20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
+    <t xml:space="preserve">O &amp; M 
+new 302 light installed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O &amp; M activity 
+Last invoice document preparation for submission  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
+22 no of UCON 10 controller we needs to replace. - ICCC
 </t>
   </si>
   <si>
@@ -769,20 +768,22 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenace activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3 quarter invoice process. 
-6 no VMD module we will change 
-1 no 6 KVA ups received now we will live VMD 
+    <t xml:space="preserve">O &amp; M activity. 
 </t>
   </si>
   <si>
-    <t>VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC
-05 no of VMD LED time have issue. Need to purchase new module - ICCC
+    <t xml:space="preserve">Q3 quarter payment follow up 
+6 no VMD tile received. We will start replacement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC
+ 6  no of VMD LED time have issue. Need to purchase new module - ICCC
 22 no of UCON 10 controller we needs to replace. - ICCC
-40 no location battery stolen. Insurance under process
-16 no ups under repairing</t>
+300 faulty modules given to OEM for replace material --- VMC-P4 LED  
+40 no location battery stolen. Insurance under process 
+17 no ups under repairing 
+DR OEM needs to final – ICCC Project 
+</t>
   </si>
   <si>
     <t>ISCDL</t>
@@ -813,17 +814,14 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1. Hold 11 ATCS and 9 ITMS junction work letter received.
-2. Hold 3 TVDS, 3 SVDS, 19 PTZ location letter received.
-3. Hold junction CAPEX cost approval and Billing mail received.
-4. Today, Submitted invoices for completed work including other recurring cost are under signing by CEO sir, Verified by ISCDL team. As per ISCDL CEO Sir confirmation, partial payment of 50 Lakh will be released by upcoming week.</t>
-  </si>
-  <si>
-    <t>1] New junction work of one no. 3 Arm ATCS-ITMS approval will be received from ISCDL in upcoming week.
-2] As per CDO sir, Today Go-Live note sheet will prepare and will be released soon after the today billing note sheet signing by CEO sir.</t>
-  </si>
-  <si>
-    <t>1] Apart from 50Lakh payment, Rest all the recurring cost and capex cost will be released based on the availability of fund at smart city.
+    <t>1. Partial payment of 30 Lakh with GST will be credited by 16-10-2025.</t>
+  </si>
+  <si>
+    <t>1] New junction work of one no. 3 Arm ATCS-ITMS approval under process from ISCDL.
+2] As per CDO sir, Go-Live note sheet will prepare once 11 location work completed.</t>
+  </si>
+  <si>
+    <t>1] Apart from 30Lakh with GST payment, part payment will start processing from next 10 days.
 2. Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
 2] Material approval including dispatching required as per site consumption report.</t>
   </si>
@@ -1161,7 +1159,7 @@
     <t>Start Date (PO) : 25-Aug-25 :: End Date (PO) : 24-Aug-27</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>21.25 L</t>
@@ -1176,18 +1174,30 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t>We are nearing the completion of the ITPO corporate website (main site static pages) development. This progress has been communicated to both ITPO and NeGD.
-We are working to fulfill the ITPO commitments made to the Ministry in August, prior to the deployment of the CMS team.</t>
-  </si>
-  <si>
-    <t>- Content and Images placement on webiste (if provided by concern person). 
-- Development on the remaining pages
-- Meeting with ITPO and NeGD officials for Tally Integration</t>
+    <t>Development of the ITPO main website, as per the Figma design provided by NeGD, has been completed. 
+Work on the Content Management System (CMS) is currently in progress. Additionally, API development for selected website sections, prioritized by NeGD, has been completed.
+Development of the 2 microsites has been completed and remaining are in progress.</t>
+  </si>
+  <si>
+    <t>- New UI/UX designer from our team has been assigned to lead design enhancements. Based on this, the design phase will commence shortly.
+- Development of the remaining microsites will continue.
+- Content Management System (CMS) development is also underway.</t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
 - Frontend: Angular
 - DB: MySQL</t>
+  </si>
+  <si>
+    <t>NeGD had shared the approved Figma designs and corresponding PDFs (11 pages) with us via email. Based on these, we developed the respective web pages within a span of 10 days.
+During the development phase, these pages were regularly shared with ITPO officials for review. However, no formal feedback was provided throughout this period. The only verbal input received was that the design should be “more aesthetic and immersive.”
+We clarified that the development was strictly based on the approved Figma designs shared by NeGD. Any design changes or enhancements would need to be addressed by the UI/UX designer appointed by NeGD, who would then seek necessary approvals and share the updated designs with us for implementation.
+Whenever we raised this point, both NeGD and ITPO officials responded by stating that "Figma is just a tool" and did not acknowledge the standard industry process of following approved design systems for development.
+Moreover, NeGD has communicated multiple times that we should expect minimal support from both NeGD and ITPO and advised us to refer to the existing website for content. Despite this, since the early days of team deployment at ITPO, we have continuously shared our development progress with officials, yet no structured feedback was provided until recently.
+On Thursday, 09 October 2025, additional stakeholders from various ITPO divisions were suddenly involved in reviewing the website. This resulted in multiple, sometimes conflicting, sets of feedback and suggestions, which are now expected to be implemented. We have requested that a single point of contact be designated to provide us with consolidated and finalized feedback, along with the necessary content, as it is not feasible to accommodate feedback from numerous individual sources.
+Following this, we are now being told that "nothing has been done so far," which we find concerning given the efforts and progress made under the approved framework.
+We respectfully request your immediate attention to this matter before it escalates further. A clear and structured feedback and communication mechanism is essential for the timely and efficient completion of this project.
+Thank you for your understanding and support.</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1427,7 +1437,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3C129C38-57E6-41D7-B809-82835522B7E9}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F26BAC25-8465-4120-AB8C-A52892814A0C}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1756,7 +1766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C57910-8DEA-48E6-ACC9-55888EEA1743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545507C0-98CB-4D33-A7DB-A691773F6656}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1895,7 +1905,7 @@
         <v>229.46426749999944</v>
       </c>
       <c r="M2" s="8">
-        <v>163.38088410000015</v>
+        <v>163.38088410000017</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -1934,7 +1944,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45938</v>
+        <v>45946</v>
       </c>
       <c r="AA2" s="13">
         <v>0.54846740318532206</v>
@@ -2064,19 +2074,19 @@
         <v>849.8214484745763</v>
       </c>
       <c r="H4" s="8">
-        <v>401.10391100000004</v>
+        <v>401.1039110000001</v>
       </c>
       <c r="I4" s="8">
         <v>67</v>
       </c>
       <c r="J4" s="8">
-        <v>468.10391100000004</v>
+        <v>468.1039110000001</v>
       </c>
       <c r="K4" s="8">
         <v>71</v>
       </c>
       <c r="L4" s="9">
-        <v>448.71753747457626</v>
+        <v>448.7175374745762</v>
       </c>
       <c r="M4" s="8">
         <v>147.58935879999993</v>
@@ -2088,7 +2098,7 @@
         <v>60</v>
       </c>
       <c r="P4" s="10">
-        <v>0.47198609980952921</v>
+        <v>0.47198609980952927</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>35</v>
@@ -2432,31 +2442,31 @@
         <v>1606.08</v>
       </c>
       <c r="H8" s="8">
-        <v>497.14593049999996</v>
+        <v>564.73653049999996</v>
       </c>
       <c r="I8" s="8">
         <v>68</v>
       </c>
       <c r="J8" s="8">
-        <v>565.14593049999996</v>
+        <v>632.73653049999996</v>
       </c>
       <c r="K8" s="8">
         <v>179</v>
       </c>
       <c r="L8" s="9">
-        <v>1108.9340695000001</v>
+        <v>1041.3434695000001</v>
       </c>
       <c r="M8" s="8">
-        <v>385.62032499999998</v>
+        <v>453.21092499999997</v>
       </c>
       <c r="N8" s="8">
-        <v>0</v>
+        <v>67.590599999999995</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="10">
-        <v>0.30953995473450885</v>
+        <v>0.35162415975542938</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>35</v>
@@ -2572,10 +2582,10 @@
         <v>134</v>
       </c>
       <c r="X9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="Z9" s="12">
         <v>45939</v>
@@ -2590,7 +2600,7 @@
         <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2598,13 +2608,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
@@ -2637,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2646,31 +2656,31 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="X10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="Z10" s="12">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="AA10" s="13">
         <v>0.25</v>
@@ -2679,10 +2689,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2690,19 +2700,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2729,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P11" s="10">
         <v>0.33126882165643717</v>
@@ -2738,31 +2748,31 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="X11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
       <c r="Z11" s="12">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="AA11" s="13">
         <v>-0.23918662882570962</v>
@@ -2771,7 +2781,7 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD11" s="15" t="s">
         <v>159</v>
@@ -2848,13 +2858,13 @@
         <v>169</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="Y12" s="11" t="s">
         <v>170</v>
       </c>
       <c r="Z12" s="12">
-        <v>45933</v>
+        <v>45946</v>
       </c>
       <c r="AA12" s="13" t="s">
         <v>97</v>
@@ -2907,13 +2917,13 @@
         <v>1687.8791622000001</v>
       </c>
       <c r="M13" s="8">
-        <v>171.16043740000003</v>
+        <v>171.16043739999998</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2940,13 +2950,13 @@
         <v>179</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="Y13" s="11" t="s">
         <v>180</v>
       </c>
       <c r="Z13" s="12">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="AA13" s="13">
         <v>0.2171250438887713</v>
@@ -3032,13 +3042,13 @@
         <v>190</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>191</v>
       </c>
       <c r="Z14" s="12">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="AA14" s="13">
         <v>-5.273871039764888E-2</v>
@@ -3216,7 +3226,7 @@
         <v>215</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>216</v>
@@ -3308,7 +3318,7 @@
         <v>227</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="Y17" s="11" t="s">
         <v>228</v>
@@ -3391,7 +3401,7 @@
         <v>237</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>238</v>
@@ -3563,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>258</v>
@@ -3572,7 +3582,7 @@
         <v>249</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>259</v>
@@ -3678,11 +3688,11 @@
       <c r="X21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="Y21" s="11">
-        <v>0</v>
+      <c r="Y21" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="Z21" s="12">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="AA21" s="13" t="s">
         <v>97</v>
@@ -3694,7 +3704,7 @@
         <v>265</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3702,13 +3712,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3739,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3748,28 +3758,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X22" s="24" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3781,10 +3791,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +3807,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1DD722C0-ABFB-405A-B80C-B1959FABB346}</x14:id>
+          <x14:id>{990CE357-6602-47A0-B098-1C9A614AF7BF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3807,7 +3817,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1DD722C0-ABFB-405A-B80C-B1959FABB346}">
+          <x14:cfRule type="dataBar" id="{990CE357-6602-47A0-B098-1C9A614AF7BF}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA64603-ED57-4D24-BA3D-DE00A0BDD487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B9AEF9-9971-474D-BAE0-7BE30AD6B4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B86E303-CA4B-4536-97AA-1F2671E78B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D8BAA81-7CDE-439B-8BDA-06583BAA5E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -914,18 +914,21 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. All SRS, FRS, UAT documents approved by GSCL.
-2. EVS: 10/10 Nos. EVS Pols installation done.
-3. VMD: 6/10 Nos. VMD pole foundation completed. Rest pending due to digging Permission pending.
-4. All materials delivered as per PO and billing done. </t>
-  </si>
-  <si>
-    <t>1. PA installation.
-2. 6/10 Nos. VMD pole installation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Accessories not delivered due to make model not approved yet from GSCL.
-2. Vendor payment. </t>
+    <t xml:space="preserve">1. EVS: 10/10 EVS Pole installation done and 8/10 EVS installation done.
+2. 20/20 Pairs PA installation done.
+3. 6/10 VMD Foundation done and 6/10 VMD Pole installation done. VMD Display installation plan for today.
+4. All Documentation part has been completed.
+5. All Materials delivered and billing completed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 6 Nos. VMD Display installation
+2. 2 Nos. EVS installation.
+3. EVS enclosure foundation work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Accessories not delivered yet.
+2. VMD pole vendor not giving proper support for VMD installation and others SOW. 
+Vendor Payment. </t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -1437,7 +1440,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F26BAC25-8465-4120-AB8C-A52892814A0C}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9EB67FB4-CE65-49E3-B945-CA96557476E9}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1766,7 +1769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545507C0-98CB-4D33-A7DB-A691773F6656}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5798F8-53A7-4CD4-8037-235CF41BE5A7}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3232,7 +3235,7 @@
         <v>216</v>
       </c>
       <c r="Z16" s="12">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="AA16" s="13">
         <v>0.36662132665084957</v>
@@ -3807,7 +3810,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{990CE357-6602-47A0-B098-1C9A614AF7BF}</x14:id>
+          <x14:id>{CED762CD-58A4-473B-AF66-96C8CC815428}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3817,7 +3820,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{990CE357-6602-47A0-B098-1C9A614AF7BF}">
+          <x14:cfRule type="dataBar" id="{CED762CD-58A4-473B-AF66-96C8CC815428}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B9AEF9-9971-474D-BAE0-7BE30AD6B4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB98C3F-783D-44B5-A5FF-72ECAF9FECB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D8BAA81-7CDE-439B-8BDA-06583BAA5E10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC505DF1-8FA6-4DEC-A801-36CF8935CC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <t>Start Date (PO) : 10-Jan-24 :: End Date (PO) : 09-Jan-27</t>
   </si>
   <si>
-    <t>22 (9+13)</t>
+    <t>24 (9+ 15)</t>
   </si>
   <si>
     <t>45.06 L</t>
@@ -209,30 +209,32 @@
 Resolve all the bugs, issues and queries raised for these developed functionalities</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 22 resources on-boarded. (13 resources from GAIA – Tech Partner)
-2. Payment received till Aug’25.
-3. 2 resources onboarded for SS. 3 resources from GAIA yet to join.
+    <t>1. 24 resources on-boarded. (15 resources from GAIA – Tech Partner)
+2. Payment received till Aug’25. invoicing done for Sep’25.
+3. 4 resources onboarded for SS. 1 resource from GAIA yet to join.
 4. DWR mobile app: changes ongoing for dumpsite. 
 5. New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): testing ongoing
 6. UWM Action Plan: additional points added from CPEEHO: Dev done
-7. API written for Prayas, under testing. GFC-I15 Indicator logic understanding and changes ongoing in DB site. Engineer App: Geo location enabled in iOS/Android-App published.
-8. Implementation of Media Service in Java-Ongoing.
-9. Bulk upload parser under implementation. Website updates ongoing.
-10. Migration of SBMurban.org domain from Cloud Flare to Cloud Front planned on 10th Oct, 2025.
-</t>
-  </si>
-  <si>
-    <t>1. Maintenance activities: Daily ULB support, Website changes ongoing.
+7. API written for Prayas, under testing. GFC Indicator logic understanding and changes ongoing in 8. DB side. Engineer App: Geo location enabled in iOS/Android-App published.
+9. Implementation of Media Service in Java-Ongoing.
+10. Bulk upload parser under implementation. Website updates ongoing.
+11. Migration of SBMurban.org domain from Cloud Flare to Cloud Front done on 10th Oct, 2025 successfully.
+12. NUC Registration portal development- Ongoing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Maintenance activities: Daily ULB support, Website changes ongoing.
 2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing.
 3. DWR Mobile App pilot planned in Oct’25. Enable DWR for Dumpsite.
-4. SS Handover : Session on SS scoring &amp; result finalization with IPSOS planned on 14th Oct, 2025. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration ongoing. 6. Doc prepared to update libraries which are old/outdated/deprecated.</t>
+4. SS Handover : Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration ongoing. Doc prepared to update libraries which are old/outdated/deprecated.
+5. NUC Registration portal development- Ongoing
+</t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 3 developers (1 Angular + 1 NodeJS + 1 Power BI) from GAIA yet to join.
-2. Majority of team members working remotely. Multiple times DS has asked to call resources to work from Ministry.
+    <t xml:space="preserve">1. 1 developer (Angular) from GAIA yet to join.
+2. Majority of team members working remotely. 
 </t>
   </si>
   <si>
@@ -1440,7 +1442,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9EB67FB4-CE65-49E3-B945-CA96557476E9}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6F5AF8F7-11C2-4628-932E-D7A84808054E}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1769,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5798F8-53A7-4CD4-8037-235CF41BE5A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17E8AF1-66D2-4F43-9B91-2F065C6DA4F0}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2039,7 +2041,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="AA3" s="13">
         <v>0.20395380903136873</v>
@@ -3810,7 +3812,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CED762CD-58A4-473B-AF66-96C8CC815428}</x14:id>
+          <x14:id>{6BEAF7D9-356B-446D-96A4-C135E7AB8983}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3820,7 +3822,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CED762CD-58A4-473B-AF66-96C8CC815428}">
+          <x14:cfRule type="dataBar" id="{6BEAF7D9-356B-446D-96A4-C135E7AB8983}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB98C3F-783D-44B5-A5FF-72ECAF9FECB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FBB3E1-0E8A-4DD0-90C0-3B3D895B0605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC505DF1-8FA6-4DEC-A801-36CF8935CC34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D043F31E-4415-45B1-AC8D-AF9D9F6F4444}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <t>2 task planned to deploy</t>
   </si>
   <si>
-    <t>NodeJS , HTML5/CSS , JS , React , Springboot Elastic, PostGreSQL , MySQL , MongoDB, Postman, API &amp; SSO integration</t>
+    <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
   </si>
   <si>
     <t>NA</t>
@@ -1442,7 +1442,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6F5AF8F7-11C2-4628-932E-D7A84808054E}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3EE6EABB-3C3F-4189-93FB-4BD0743F0216}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1771,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17E8AF1-66D2-4F43-9B91-2F065C6DA4F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE07A35C-8B0F-499F-8412-703572F674A5}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3812,7 +3812,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6BEAF7D9-356B-446D-96A4-C135E7AB8983}</x14:id>
+          <x14:id>{22FE34DD-E43B-4B56-A68D-2E68476A10BF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3822,7 +3822,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6BEAF7D9-356B-446D-96A4-C135E7AB8983}">
+          <x14:cfRule type="dataBar" id="{22FE34DD-E43B-4B56-A68D-2E68476A10BF}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FBB3E1-0E8A-4DD0-90C0-3B3D895B0605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F5A5738-31B6-4630-B952-DE5CB0B88CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D043F31E-4415-45B1-AC8D-AF9D9F6F4444}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3AA6FAC8-4251-47A4-A3DB-20A8C12F12D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="289">
   <si>
     <t>SN</t>
   </si>
@@ -269,24 +269,21 @@
 Application Developers, Technical Support (helpdesk) – 6 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-1. 26 Resource deployed.
+    <t>1. 26 Resource deployed.
 2. Development of new Module is under process as per CRS requirement.
 3. DB , System performance and monitoring continue above 99.6 % availability.
 4. State onboard is on going.
 5. Receive Data from Non CRS State through API.
-6. AADHAR , TRANSLITRATION and Payment Integrations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. June Payment  under process from FO .
-2. July payment approval pending from RGI.
-3. August document verification under processing.
-4. Kalyan, Gaurang and Roopali Approval Pending from RGI 
-5. Aug Attendance approval under processing (Kalyan Roopli)
-6  Sep Doc completed and Attendance not received
-7. Payment Reconciliation Acknowledgement ,Old Death Digitization Report and Verification Screen, Deployment of GP Can extract Certificate, Application Flow Correction for Puducherry, 
-8. TN, Rajasthan and ORISSA DATA Mapping On Going
-9. Integration of CRS Portal and UP MaNTrA </t>
+6. AADHAR , TRANSLITRATION and Payment Integrations.</t>
+  </si>
+  <si>
+    <t>1.June and  July Payment  under process from IFA .
+2. Aug payment approval pending from RGI.
+3. Sept document and Attendance verification under processing.
+4. Gaurang  Approval Pending. 
+5. Payment Reconciliation Acknowledgement ,Old Death Digitization Report and Verification Screen, Deployment of GP Can extract Certificate,
+6. GOA DELHI nd ORISSA DATA Mapping On Going
+7. Integration of CRS Portal and UP MaNTrA</t>
   </si>
   <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
@@ -294,11 +291,11 @@
   <si>
     <t xml:space="preserve">
 1. Family Care Tracker – Pilot Project (Integration of CRS BRN with Poshan Tracker, Techo+, and CTS Portals)
-2  Indore IMC Zonal register creation
+2  Indore and Ahmedabad IMC Zonal register creation
 3. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
 4. SOP for the automation of the onboarding process of the states
 5. Puducherry states will join CRS portal from 1st Nov with three regional Languages.
-6. Approval for Kalyan, Gaurang, and Roopali is pending(Experience). August attendance will be verified after approval.</t>
+6. Approval for Gaurang, Sept attendance will be verified after approval.</t>
   </si>
   <si>
     <t>Dhananjay J</t>
@@ -858,24 +855,25 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t xml:space="preserve">HRMS - eseparation full and final settlement functionality, Fetched for three tabs the data for permanent employees from temporary employee ID.
-SM - PLA feedback changes completed. SMS Integration completed
-MM - Buy back functionality development completed
-FA - Running bill Number in SES field for AP PO-Service invoice
-Portal - Website vulnerability has fixed and UAT portal bug fixed 
-</t>
-  </si>
-  <si>
-    <t>Cash flow statement to completed
-Completed for other tabs data fetch for employee
-Buy back functionality testing to be completed,
-Payroll demo has planned.</t>
+    <t>SM - CRM Feed back points are completed
+MM - Buyback functionality is completed and given for UAT testing
+HRMS - Temporary employee data needs to add to same full time employee. It has completed for all tabs, e-separation development has completed for F&amp;F
+Payroll - Preparation for Demo is completed.
+FA -Cashflow report development is completed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM - Check the backlog tickets created by customer and close the tickets
+MM - Vendor registration enhancements to deploy
+FA - Segment report needs to start
+HRMS - Task allotment enhancement to complete
+Payroll - Deploy the functionalities at PROD environment
+Portal - Complete the local set up and resolve the issue cross scripting vulnerability. </t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
   </si>
   <si>
-    <t>No risks</t>
+    <t>No Risks</t>
   </si>
   <si>
     <t>Priya R</t>
@@ -951,7 +949,7 @@
     <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
   </si>
   <si>
-    <t>218</t>
+    <t>220</t>
   </si>
   <si>
     <t>72.86 L</t>
@@ -960,20 +958,16 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t>AR Collected till Jun-2025 i.e. 1.5Cr
-July-25 Invoice is Due 85L
-Aug-25 Invoice is Not Due 85L
-Pending Balance 1.8Cr</t>
-  </si>
-  <si>
-    <t>1. Recruitment of 20 Operators
-2. Workorder Follow-Up with Customer
-3. Support Document preparation for upcoming Invoice</t>
-  </si>
-  <si>
-    <t>1. Recruitment according to Attrition
-- Multiple follow-up with Vendor for shortlisting and calling for recruitment.
-2. New Work Order from Customer</t>
+    <t>AR COLLECTED 1.5Cr. till June-2025
+AR Due 1.8Cr for July and August-2025</t>
+  </si>
+  <si>
+    <t>1. Visit all 10 Work Locations of MCS Project  
+2. Distribute Diwali Gifts to Clients, Police Officials and MCS Operators
+3. Collect Billing Supporting documents from all locations</t>
+  </si>
+  <si>
+    <t>Risk is shortage of 20 Operators and Heavy Leave requests from existing staff for festival season.</t>
   </si>
   <si>
     <t>Jaywant P</t>
@@ -1004,23 +998,27 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Core Infrastructure (Servers, Cloud, Panel Delivery): Completed
-Meter Communication (Substations &amp; ABT): Partially completed, pending vendor/network readiness
-Water Meter Deployment: Materials delivered; ~30 units ready for installation once infra is provided
-Pending Dependencies: Switch rack/port enablement (CQTech), API from GE SCADA vendor, OFC &amp; infra support from JNPA</t>
-  </si>
-  <si>
-    <t>one water meter installation as per infra ready from JNPA.
-ABT panel permanent placement besides main incomer panel.
-NDP pole installation for MPLS Link setup</t>
+    <t>Major hardware, servers, and software setups are completed.
+Substation networks are ready; awaiting switch enablement and SCADA API for data integration.
+ABT meters installed—pending series connection and network link.
+RMU setup and water meter installations to continue once JNPA infra is ready.
+Consumer meter MPLS setup in progress.
+Cloud registered and software deployed with all modules active.</t>
+  </si>
+  <si>
+    <t>MPLS connectivity is planned for this week.</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>Dependency on third-party vendors (CQTech, GE SCADA) for switch ports &amp; API availability.
-OFC network readiness at RMU locations pending from JNPA.
-Infra support delays (valves, strainers, ducts, power supply) affecting water meter installations.</t>
+    <t>Delay in network switch installation and port enablement by JNPA vendor.
+SCADA vendor API pending for data integration with EEMS.
+MSETCL testing schedule pending for ABT meter series connection.
+OFC network and SEZ scope finalization pending for RMU communication.
+Infrastructure readiness (valves, ducts, power) delaying water meter installations.
+MPLS connectivity and SIM activation pending for consumer meters.
+Coordination among multiple stakeholders may impact overall timelines.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1442,7 +1440,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3EE6EABB-3C3F-4189-93FB-4BD0743F0216}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6486437F-16EA-48F7-91AC-0E31D36C0517}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1771,7 +1769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE07A35C-8B0F-499F-8412-703572F674A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09F9670-ADC5-4A58-9CEA-CE426B0E2805}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1952,7 +1950,7 @@
         <v>45946</v>
       </c>
       <c r="AA2" s="13">
-        <v>0.54846740318532206</v>
+        <v>0.53779761992455066</v>
       </c>
       <c r="AB2" s="13">
         <v>0.4323402397342212</v>
@@ -2044,7 +2042,7 @@
         <v>45946</v>
       </c>
       <c r="AA3" s="13">
-        <v>0.20395380903136873</v>
+        <v>0.25894174422612948</v>
       </c>
       <c r="AB3" s="13">
         <v>0.19000000008625473</v>
@@ -2133,10 +2131,10 @@
         <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45933</v>
+        <v>45946</v>
       </c>
       <c r="AA4" s="13">
-        <v>0.22115225934161375</v>
+        <v>0.28825328932803584</v>
       </c>
       <c r="AB4" s="13">
         <v>0.11942473989981339</v>
@@ -2228,7 +2226,7 @@
         <v>45939</v>
       </c>
       <c r="AA5" s="13">
-        <v>0.37262974390444603</v>
+        <v>0.3723722124622717</v>
       </c>
       <c r="AB5" s="13">
         <v>0.33027289323308273</v>
@@ -2412,7 +2410,7 @@
         <v>45939</v>
       </c>
       <c r="AA7" s="13">
-        <v>0.21406871945813666</v>
+        <v>0.15992064345319656</v>
       </c>
       <c r="AB7" s="13">
         <v>0.32590705634920647</v>
@@ -2504,7 +2502,7 @@
         <v>45939</v>
       </c>
       <c r="AA8" s="13">
-        <v>0.10999999984936704</v>
+        <v>0.1099999998749408</v>
       </c>
       <c r="AB8" s="13">
         <v>0.10999999996973608</v>
@@ -2596,7 +2594,7 @@
         <v>45939</v>
       </c>
       <c r="AA9" s="13">
-        <v>0.1954000003408819</v>
+        <v>0.16973100550277276</v>
       </c>
       <c r="AB9" s="13">
         <v>0.11441806775377272</v>
@@ -2688,7 +2686,7 @@
         <v>45946</v>
       </c>
       <c r="AA10" s="13">
-        <v>0.25</v>
+        <v>0.34945618360655739</v>
       </c>
       <c r="AB10" s="13">
         <v>0.51229508024724535</v>
@@ -2780,7 +2778,7 @@
         <v>45946</v>
       </c>
       <c r="AA11" s="13">
-        <v>-0.23918662882570962</v>
+        <v>-1.2010821392234354</v>
       </c>
       <c r="AB11" s="13">
         <v>0.12040585230689282</v>
@@ -2871,8 +2869,8 @@
       <c r="Z12" s="12">
         <v>45946</v>
       </c>
-      <c r="AA12" s="13" t="s">
-        <v>97</v>
+      <c r="AA12" s="13">
+        <v>-0.51352273844110385</v>
       </c>
       <c r="AB12" s="13">
         <v>0.18000000439604424</v>
@@ -2964,7 +2962,7 @@
         <v>45946</v>
       </c>
       <c r="AA13" s="13">
-        <v>0.2171250438887713</v>
+        <v>0.20489999986167973</v>
       </c>
       <c r="AB13" s="13">
         <v>0.2046391013686556</v>
@@ -3056,7 +3054,7 @@
         <v>45946</v>
       </c>
       <c r="AA14" s="13">
-        <v>-5.273871039764888E-2</v>
+        <v>5.8906222519107154E-2</v>
       </c>
       <c r="AB14" s="13">
         <v>-0.204144834903355</v>
@@ -3145,7 +3143,7 @@
         <v>204</v>
       </c>
       <c r="Z15" s="12">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>97</v>
@@ -3240,7 +3238,7 @@
         <v>45946</v>
       </c>
       <c r="AA16" s="13">
-        <v>0.36662132665084957</v>
+        <v>0.21114271514376304</v>
       </c>
       <c r="AB16" s="13">
         <v>0.20000000003501683</v>
@@ -3329,10 +3327,10 @@
         <v>228</v>
       </c>
       <c r="Z17" s="12">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="AA17" s="13">
-        <v>0.61442879884363322</v>
+        <v>0.60186008759672394</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>97</v>
@@ -3421,10 +3419,10 @@
         <v>241</v>
       </c>
       <c r="Z18" s="12">
-        <v>45938</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>97</v>
+        <v>45947</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0.22378829916704679</v>
       </c>
       <c r="AB18" s="13" t="s">
         <v>97</v>
@@ -3515,8 +3513,8 @@
       <c r="Z19" s="12">
         <v>45939</v>
       </c>
-      <c r="AA19" s="13" t="s">
-        <v>97</v>
+      <c r="AA19" s="13">
+        <v>0.86590914152298848</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>97</v>
@@ -3699,8 +3697,8 @@
       <c r="Z21" s="12">
         <v>45944</v>
       </c>
-      <c r="AA21" s="13" t="s">
-        <v>97</v>
+      <c r="AA21" s="13">
+        <v>0.34652488000000004</v>
       </c>
       <c r="AB21" s="13" t="s">
         <v>97</v>
@@ -3812,7 +3810,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22FE34DD-E43B-4B56-A68D-2E68476A10BF}</x14:id>
+          <x14:id>{E62781F2-C198-459D-B24F-C2E3303E1EE2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3822,7 +3820,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{22FE34DD-E43B-4B56-A68D-2E68476A10BF}">
+          <x14:cfRule type="dataBar" id="{E62781F2-C198-459D-B24F-C2E3303E1EE2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F5A5738-31B6-4630-B952-DE5CB0B88CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{290D3F68-712A-4568-8D0A-1EFA87A5AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3AA6FAC8-4251-47A4-A3DB-20A8C12F12D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0BB9400A-A5D4-4227-B8D3-69122B765973}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="288">
   <si>
     <t>SN</t>
   </si>
@@ -161,19 +161,21 @@
 Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
   </si>
   <si>
-    <t>S.no  Bucket name     No. of Tasks
-  1.      No Status    =   16
+    <t xml:space="preserve">S.no  Bucket name     No. of Tasks
+  1.      No Status    =   15
   2.      Estimation   =   10
   3.     Designing    =    6
-  4.     To Do        =    18
-  5.     In Progress  =    09
+  4.     To Do        =    13
+  5.     In Progress  =    14
   6.     Under QA Testing = 11
   7.     User Acceptance Testing (UAT) = 2
-  8.     Released on Production = 263
-  9.     Closed       = 119</t>
-  </si>
-  <si>
-    <t>2 task planned to deploy</t>
+  8.     Released on Production = 264
+  9.     Closed       = 119
+Payment pending 3 months
+</t>
+  </si>
+  <si>
+    <t>5 task plan to deploy</t>
   </si>
   <si>
     <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
@@ -197,7 +199,7 @@
     <t>Start Date (PO) : 10-Jan-24 :: End Date (PO) : 09-Jan-27</t>
   </si>
   <si>
-    <t>24 (9+ 15)</t>
+    <t>26 (9+ 17)</t>
   </si>
   <si>
     <t>45.06 L</t>
@@ -209,31 +211,31 @@
 Resolve all the bugs, issues and queries raised for these developed functionalities</t>
   </si>
   <si>
-    <t>1. 24 resources on-boarded. (15 resources from GAIA – Tech Partner)
+    <t xml:space="preserve">1. 26 resources on-boarded. (17 resources from GAIA – Tech Partner)
 2. Payment received till Aug’25. invoicing done for Sep’25.
-3. 4 resources onboarded for SS. 1 resource from GAIA yet to join.
-4. DWR mobile app: changes ongoing for dumpsite. 
-5. New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): testing ongoing
+3. SS: 4 resources onboarded.1 resource (GAIA) expected to join on 27th Oct
+4. DWR mobile app: changes done for dumpsite, testing ongoing. 
+5. New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): bug fixing ongoing
 6. UWM Action Plan: additional points added from CPEEHO: Dev done
-7. API written for Prayas, under testing. GFC Indicator logic understanding and changes ongoing in 8. DB side. Engineer App: Geo location enabled in iOS/Android-App published.
+7. GFC Indicator logic understanding and changes ongoing in DB side.
+8. Engineer App: Geo location enabled in iOS/Android-Bug fixing ongoing.
 9. Implementation of Media Service in Java-Ongoing.
-10. Bulk upload parser under implementation. Website updates ongoing.
-11. Migration of SBMurban.org domain from Cloud Flare to Cloud Front done on 10th Oct, 2025 successfully.
-12. NUC Registration portal development- Ongoing</t>
+10. Website updates ongoing. NUC Registration portal: Changes Ongoing
+11. SS Scoring logic and result declaration: understanding excel sheet
+</t>
   </si>
   <si>
     <t xml:space="preserve">1. Maintenance activities: Daily ULB support, Website changes ongoing.
 2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing.
 3. DWR Mobile App pilot planned in Oct’25. Enable DWR for Dumpsite.
-4. SS Handover : Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration ongoing. Doc prepared to update libraries which are old/outdated/deprecated.
-5. NUC Registration portal development- Ongoing
+4. SS Handover: Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration ongoing. Doc prepared to update libraries which are old/outdated/deprecated.
 </t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 1 developer (Angular) from GAIA yet to join.
+    <t xml:space="preserve">1. 1 developer (Angular) from GAIA expected to join next week.
 2. Majority of team members working remotely. 
 </t>
   </si>
@@ -269,33 +271,34 @@
 Application Developers, Technical Support (helpdesk) – 6 resource each</t>
   </si>
   <si>
-    <t>1. 26 Resource deployed.
+    <t xml:space="preserve">1. 26 Resource deployed.
 2. Development of new Module is under process as per CRS requirement.
-3. DB , System performance and monitoring continue above 99.6 % availability.
+3. DC and DR Sync up , Horizontal and vertical scalling 
 4. State onboard is on going.
 5. Receive Data from Non CRS State through API.
-6. AADHAR , TRANSLITRATION and Payment Integrations.</t>
-  </si>
-  <si>
-    <t>1.June and  July Payment  under process from IFA .
+6. AADHAR , TRANSLITRATION and Payment Integrations.
+7. DB,System performance and monitoring continue above 99.6 % availability.
+8. Bag resoluation </t>
+  </si>
+  <si>
+    <t>1. June and July Payment under process from FO. Will release on Monday, All staff is on Leave up to 27
 2. Aug payment approval pending from RGI.
 3. Sept document and Attendance verification under processing.
-4. Gaurang  Approval Pending. 
-5. Payment Reconciliation Acknowledgement ,Old Death Digitization Report and Verification Screen, Deployment of GP Can extract Certificate,
-6. GOA DELHI nd ORISSA DATA Mapping On Going
-7. Integration of CRS Portal and UP MaNTrA</t>
+4. 14 Team members and maximum ORGI Staff are on leave.
+5. EPIC No Addition on death Certificate , Bilingural Languagesin QR Code , Generic Master Filter ,Hospital Validation , Water mark on UAT certificate ,Deployment of GP Can extract Certificate,
+6. TN,GOA, DELHI and ORISSA DATA Mapping is On Going</t>
   </si>
   <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Family Care Tracker – Pilot Project (Integration of CRS BRN with Poshan Tracker, Techo+, and CTS Portals)
-2  Indore and Ahmedabad IMC Zonal register creation
-3. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
-4. SOP for the automation of the onboarding process of the states
+    <t>1. Delhi State Onboarding on CRS Portal- No subdistrict 
+2  GHMC Telangana: Provision for single municipal corporation under Four district which is not support by CRS portal
+3. Family Care Tracker – Pilot Project (Integration of CRS BRN with Poshan Tracker, Techo+, and CTS Portals)  
+4. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
 5. Puducherry states will join CRS portal from 1st Nov with three regional Languages.
-6. Approval for Gaurang, Sept attendance will be verified after approval.</t>
+6. Approval for Gaurang, Sept attendance will be verified after approval.
+7. Indore and Ahmedabad IMC Zonal register creation</t>
   </si>
   <si>
     <t>Dhananjay J</t>
@@ -338,26 +341,25 @@
 User Interface Upgrade</t>
   </si>
   <si>
-    <t>AMJ Payment is with payment Team (PAO).
-Saadhit Plan: Out of 5/10 deployed,  1- under BRD/approach paper changes(CMS is working), 3 - Under VAPT/WIP. 1 - pending.
-Technical Upgrade meeting done on 8th Oct 2025 with WZU, couriers &amp; CMS. CMS need to schedule next meeting once update from WZU(After receiving feedback from couriers).
-Interviews under process for DBE/JAVA profiles.</t>
-  </si>
-  <si>
-    <t>Approval on JAS pending items for 80% bill. 
-Interviews with WZU/PGA for JAVA/DBE Profile.
-Followup for  the list from WZU for JAS Saadhit Plan.
-bulk upload, load testing will be completed and move to VAPT stage.</t>
+    <t xml:space="preserve">All approvals received for JAS for invoice.
+AMJ 80% Payment received.
+Replacement of Linux developer is approved by WZU. We will upload the NDA by next week.
+Refund Module- FRD completed &amp; submitted. Development in WIP.
+WZU visited Tatwa along with CMS members to capturing all the security &amp; network parameters.  </t>
+  </si>
+  <si>
+    <t>Refund Module- Targeting to complete by 31st Oct on UAT, as production date is given by WZU is 15th Nov 2025.
+Submitting Invoice and getting approved ADG Sir.
+Targeting to move Dwell time and E-mobility on production as VAPT is still in progress. 
+Getting NDA document corrected and verify by Legal team.
+Email thread for Onboarding dummy Resources with actual identity with internal as well as with WZU.</t>
   </si>
   <si>
     <t>Java Struts, For upgrade - TBD</t>
   </si>
   <si>
-    <t>We have to find out the resources. Right now we have total 4 resignation. (3 JAVA, 1 DBE).
-PGA team will be not available in WZU (after 2 to 3 months). CMS need to manage PGA's work.
-From WZU, we require the SOP and process changes for each approval, as WZU has recently revised the approval procedure. 
-Certain SLA parameters are challenging to achieve.
-RCA is in progress by WZU for full attendance marking on the CBIC portal by CMS for the past months.</t>
+    <t xml:space="preserve">Closing 4 positions. 
+Onboarding dummy Resources with actual identity. (2 types of Penalty). </t>
   </si>
   <si>
     <t>Rahul S / Asmita S</t>
@@ -398,10 +400,10 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t>VAPT Done, HRMS UAT points in Progress , BI tool Development is in progress , F&amp;A Discussion is in progress , Admin Module UAT points development has been started. Production issue tracker in progress . Payment follow up .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Follow up , UAT Points Delivery, on going Scheduled Delivery on track </t>
+    <t xml:space="preserve">Working on HRMS/Finance UAT points feedback Point, Retired employee portal development done, Ongoing Production issue in progress </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery of UAT points and scheduled delivery </t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
@@ -446,20 +448,19 @@
   <si>
     <t>→ Phase 1 all 4 tracks billing completed
 → Payment received till Track 3 for Phase 1.
-→ All Nine modules of Phase I development done.
-→ All nine modules in production.
+→ All Nine modules of Phase I development &amp; production deployment is done.
 → Drone moved to Phase II
-→ Phase II requirement gathering done for BICRS, Road Closure, Document Repository, Critical Correspondence, and Payments
-→ Development in progress on 
-         BICRS
-         Road closure
-         Document Repository
-         Critical Correspondence</t>
+→ BICRS development done, moved to UAT.
+→ Phase II requirement gathering done for Road Closure, Document Repository, Critical Correspondence, and Payments
+→ Development in progress on
+Road closure
+Document Repository
+Critical Correspondence</t>
   </si>
   <si>
     <t>→ Deployment of BICRS on production.
 → Development of Road closure, Document Repository, Critical Correspondence and feature enhancements from phase 1 modules.
-→ Requirement gather for other modules of phase II - CO Division (Onboarding, Toll Master), Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE. Employee Directory</t>
+→ Requirement gather for other modules of phase II - CO Division (Onboarding, Toll Master), Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE, Employee Directory</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
@@ -583,27 +584,24 @@
 Provision – as &amp; when required.</t>
   </si>
   <si>
-    <t>Q1 &amp; Q2 payment and 60% Capex payment released.
+    <t xml:space="preserve">Q1 &amp; Q2 payment and 60% Capex payment released.
+Q.3, 2% Capex and Diesel Reimbursement Payment Received. - 16th Oct. 2025
 32 Manpower deployed as per client requirements.
-Remaining Manpower deployment letter submitted to client for approval but client replied currently there is no requirement.
+Q-4 Documents under  Preparation, submit to PDMC after 20 Nov. 2025.
 ISO Certification Documents parts ready some parts are pending to client end for Audit.
-Q.3 O&amp;M &amp;Manpower and 2% of Capex. Payment file is at CEO for approval for final payment. Most probably before 15 oct payment will credit our accounts.
-AMC vendors payment not done on timely from CMS end.
-Switches, Servers and Tape Library HDD AMC Required. This is very critical our Dc.</t>
-  </si>
-  <si>
-    <t>Q.3 Payment file sign from CEO for final payment.
-Consumable ITem Diesel payment also released with o&amp;m payment.
-Video wall and switches and NvR down due to natural lighting: assign to vendor and resolve this issues.
-For ISO 27001 when client is free some points cleared for Audit.
-Minimum wages latter submitted to client and discussed final approval.
-For DC infra AMC discussing to HO and purchase team.</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Vendor Payment not received details are submitted on email.
+Video wall repairing work complete because client is issuing a letter for this
+Minimum wages and Statutory Bonus issue from our HR team.  not proper reply from our HR team.
+</t>
   </si>
   <si>
     <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG)
 AMC REQUIRED OLD DC INFRA ON URGENT BASIS.
 For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
-Video wall down last 8 days, Vendor PO pending.
+Video wall down last 20 days, Vendor PO pending and insurance team not responding.
 Insurance claim register for video wall and Switches.</t>
   </si>
   <si>
@@ -620,9 +618,6 @@
   </si>
   <si>
     <t>Start Date (PO) : 01-Jan-23 :: End Date (PO) : 25-Jun-26</t>
-  </si>
-  <si>
-    <t>46</t>
   </si>
   <si>
     <t>381 L</t>
@@ -686,18 +681,13 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t>Long pending Turnstile issue is resolved.
-KK gate and Cruise gate installation is almost completed. Only configuration part is pending
-Gate application is getting freeze, our P&amp;D team is working to resolve the same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruise gate billing
-Push customer to clear the pending CAMC bills
-completing the configuration of KK gate and Cruise gate
+    <t xml:space="preserve">1. We are awaiting the completion of the remaining work by NMPA and the site's handover so that we can finish the remaining installations at the Cruise and KK gates.
+2. Ongoing CAMC billing is in progress
 </t>
   </si>
   <si>
-    <t>Gate application is getting freeze on regular intervals.</t>
+    <t>1. finish the remaining installations at the Cruise and KK gates.
+2. ongoing CAMC bill clearance.</t>
   </si>
   <si>
     <t>Prashant P</t>
@@ -731,12 +721,10 @@
 Payment 100% after successful installation.</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M 
-new 302 light installed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O &amp; M activity 
-Last invoice document preparation for submission  </t>
+    <t xml:space="preserve">Under O &amp; M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O &amp; M activity and Final capex billing </t>
   </si>
   <si>
     <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
@@ -767,18 +755,18 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M activity. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3 quarter payment follow up 
-6 no VMD tile received. We will start replacement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC
- 6  no of VMD LED time have issue. Need to purchase new module - ICCC
+    <t xml:space="preserve">under O &amp; M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Quarter invoice process.
+O &amp; M activity   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
+VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
+5 no of VMD LED time have issue. Need to purchase new module - ICCC
 22 no of UCON 10 controller we needs to replace. - ICCC
-300 faulty modules given to OEM for replace material --- VMC-P4 LED  
+300 faulty module given to OEM for replace material  --- VMC-P4 LED 
 40 no location battery stolen. Insurance under process 
 17 no ups under repairing 
 DR OEM needs to final – ICCC Project 
@@ -813,14 +801,14 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1. Partial payment of 30 Lakh with GST will be credited by 16-10-2025.</t>
+    <t>1. Partial payment of 30 Lakh with GST PFMS generated with CEO sir sign. Due to technical issue at ISCDL linked bank account, payment will be credited soon post the rectification of issue.</t>
   </si>
   <si>
     <t>1] New junction work of one no. 3 Arm ATCS-ITMS approval under process from ISCDL.
 2] As per CDO sir, Go-Live note sheet will prepare once 11 location work completed.</t>
   </si>
   <si>
-    <t>1] Apart from 30Lakh with GST payment, part payment will start processing from next 10 days.
+    <t>1] Apart from 30Lakh with GST payment, post  part payment will start processing from next 10 days.
 2. Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
 2] Material approval including dispatching required as per site consumption report.</t>
   </si>
@@ -855,19 +843,18 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t>SM - CRM Feed back points are completed
-MM - Buyback functionality is completed and given for UAT testing
-HRMS - Temporary employee data needs to add to same full time employee. It has completed for all tabs, e-separation development has completed for F&amp;F
-Payroll - Preparation for Demo is completed.
-FA -Cashflow report development is completed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM - Check the backlog tickets created by customer and close the tickets
-MM - Vendor registration enhancements to deploy
-FA - Segment report needs to start
-HRMS - Task allotment enhancement to complete
-Payroll - Deploy the functionalities at PROD environment
-Portal - Complete the local set up and resolve the issue cross scripting vulnerability. </t>
+    <t>HRMS - Comparing the files between environments, moving them. Fixing the minor bugs. Working on the report development
+SM - Fixing minor bugs
+MM - Fixing minor bugs
+FA - Cash flow statement development is in progress
+Payroll - Old Regime development is completed. demo has given to the customer.
+Portal - No major issues.</t>
+  </si>
+  <si>
+    <t>Planning to raise PO for website security audit.
+Fixing the bugs for SM, MM, HRMS
+FA - Planning to start segment report
+Buy back to move to PROD for MM</t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
@@ -914,21 +901,18 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. EVS: 10/10 EVS Pole installation done and 8/10 EVS installation done.
-2. 20/20 Pairs PA installation done.
-3. 6/10 VMD Foundation done and 6/10 VMD Pole installation done. VMD Display installation plan for today.
-4. All Documentation part has been completed.
-5. All Materials delivered and billing completed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 6 Nos. VMD Display installation
-2. 2 Nos. EVS installation.
-3. EVS enclosure foundation work. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Accessories not delivered yet.
-2. VMD pole vendor not giving proper support for VMD installation and others SOW. 
-Vendor Payment. </t>
+    <t>1. 20 pairs PA installation done.
+2. 10 Nos. EVS along with poles installation done.
+3. 6/10 Nos. VMD display along with poles installation done.
+4. All SRS, FRS, UAT documents submitted and approved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Rest 4 Nos. VMD pole foundation. 
+2. 20 Nos. ECB foundation. </t>
+  </si>
+  <si>
+    <t>1. VMD pole foundation and installation vendor issues and payment.
+2. ECB, PA, EVS installation vendor PO and payment issue.</t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -958,16 +942,20 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t>AR COLLECTED 1.5Cr. till June-2025
-AR Due 1.8Cr for July and August-2025</t>
-  </si>
-  <si>
-    <t>1. Visit all 10 Work Locations of MCS Project  
-2. Distribute Diwali Gifts to Clients, Police Officials and MCS Operators
-3. Collect Billing Supporting documents from all locations</t>
-  </si>
-  <si>
-    <t>Risk is shortage of 20 Operators and Heavy Leave requests from existing staff for festival season.</t>
+    <t>Work Order for the project has been completed.
+Support is being continued as per Customer’s mail and awaiting new Work Order.
+Diwali Gifts distributed to Clients, Police Officials, and MCS Operators across all MCS Project locations.
+Billing supporting documents are being signed by concerned stakeholders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the sign-off on Billing Support Documents
+Follow up with Customer for New Work Order
+</t>
+  </si>
+  <si>
+    <t>Need to recruit 20+ Operators across the locations.
+New Work Order
+AR of 1.8Cr (Majorly July and August,2025 month's Invoice collection)</t>
   </si>
   <si>
     <t>Jaywant P</t>
@@ -998,27 +986,32 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Major hardware, servers, and software setups are completed.
-Substation networks are ready; awaiting switch enablement and SCADA API for data integration.
-ABT meters installed—pending series connection and network link.
-RMU setup and water meter installations to continue once JNPA infra is ready.
-Consumer meter MPLS setup in progress.
-Cloud registered and software deployed with all modules active.</t>
-  </si>
-  <si>
-    <t>MPLS connectivity is planned for this week.</t>
+    <t>Primary &amp; Backup Servers: Fully configured, tested, and ready for use. ✅
+	•	Substations 1, 2 &amp; 3 (MFM): Network setup completed; awaiting switch rack installation and port enablement by JNPA vendor. ⚙️
+	•	Main Substation (MFM): Communication active via SCADA; awaiting API support for EEMS data integration. 🔄
+	•	ABT Meters: Installed; pending series connection and switch port enablement for data retrieval. 🔌
+	•	RMU Panel Meters: Survey completed; awaiting OFC network and switch availability from JNPA. 🕓
+	•	Water Flow Meters: 62 delivered, 5 installed; installation to continue as site infra becomes ready. 🚰
+	•	Consumer Billing Meters: MPLS setup in progress; data communication to start post connectivity and SIM activation. 📡
+	•	Cloud Registration: AWS account successfully created. ☁️
+Overall Status:
+Core server infrastructure and communication framework are ready. Field-level integrations and network dependencies from JNPA side are in progress for full data connectivity.</t>
+  </si>
+  <si>
+    <t>Antenna installation and MPLS link setup and testing.
+DSM calculations to be understood and worked out in coordination with JNPA</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>Delay in network switch installation and port enablement by JNPA vendor.
-SCADA vendor API pending for data integration with EEMS.
-MSETCL testing schedule pending for ABT meter series connection.
-OFC network and SEZ scope finalization pending for RMU communication.
-Infrastructure readiness (valves, ducts, power) delaying water meter installations.
-MPLS connectivity and SIM activation pending for consumer meters.
-Coordination among multiple stakeholders may impact overall timelines.</t>
+    <t>Delay in switch installation and port enablement by JNPA vendor.
+	•	Pending SCADA API integration for main substation data.
+	•	ABT meter series connection and network setup awaiting external teams.
+	•	MPLS connectivity and SIM activation pending for consumer meters.
+	•	Water meter installation held up due to incomplete site infra and location finalization.
+	•	Awaiting revised scope confirmation for RMU meters.
+	•	Multiple stakeholder coordination causing activity delays.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1042,7 +1035,7 @@
     <t>Start Date (PO) : 09-Jun-25 :: End Date (PO) : 08-Oct-25</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
   </si>
   <si>
     <t>As per achievment.</t>
@@ -1057,7 +1050,8 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
+    <t xml:space="preserve">Modules Completed
+1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
 2. Landing Page – Developed and deployed interactive dashboard with quick navigation to all major modules.
 3. Agency Selection – Functionality for selecting and managing agencies successfully integrated.
 4. View Girder Assignment – Module to view girder assignment details completed and tested.
@@ -1079,12 +1073,15 @@
 20. Layout, Master Plates, Jigs, Joints &amp; Fixtures – Inspection Request – Partially completed; inspection request generation and workflow integration ongoing.
 21. Cutting, Straightening &amp; Edge Preparation – Inspection Request – Partially completed; validation and backend service linkage under progress.
 Plan
+22. Demo to DIC 
+23.Demo to NHAI
 </t>
   </si>
   <si>
-    <t>1. Conduct testing .
+    <t>1. Conduct .
 2. Prepare modules for internal review and UAT.
-3. Start work on inspection Module</t>
+3. Start work on Workshp
+4. Demo to Railway</t>
   </si>
   <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
@@ -1092,9 +1089,10 @@
   <si>
     <t xml:space="preserve">
 1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
-2. The project comprises 302 screens (132 complex, 170 average), spanning Fabrication, Inspection, Workshop, and Approval modules.
+2. The project comprises approx 400s creens (160 complex, 240 average), spanning Fabrication, Inspection, Workshop, and Approval modules.
 3. Fabrication and Inspection modules exhibit high complexity owing to multiple process stages such as WPQR, Raw Material, Welding, and Assembly.
-4.Approval workflows involving multi-level roles (Agency, ADE/B&amp;S, Directors) add significant logic, validation, and access control complexity.</t>
+4.Approval workflows involving multi-level roles (Agency, ADE/B&amp;S, Directors) add significant logic, validation, and access control complexity.
+</t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1104,6 +1102,9 @@
   </si>
   <si>
     <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : Order to log</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>Development, deployment, and support of NOC Portal with modules for Login, User Registration, Application Submission, and Approval workflows.
@@ -1177,14 +1178,12 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t>Development of the ITPO main website, as per the Figma design provided by NeGD, has been completed. 
-Work on the Content Management System (CMS) is currently in progress. Additionally, API development for selected website sections, prioritized by NeGD, has been completed.
-Development of the 2 microsites has been completed and remaining are in progress.</t>
-  </si>
-  <si>
-    <t>- New UI/UX designer from our team has been assigned to lead design enhancements. Based on this, the design phase will commence shortly.
-- Development of the remaining microsites will continue.
-- Content Management System (CMS) development is also underway.</t>
+    <t>Main website development has been completed, and we are currently addressing the feedback received from NeGD. 
+Additionally, we have developed the Admin panel for managing the website's content. At this stage, the Admin panel allows us to perform only the "add" operation.
+Simultaneously, we have assigned Munendra for the functional knowledge transfer (KT) and Bhawesh for the technical and logical KT of the booking platform. The KT sessions are scheduled to begin on 23-10-2025.</t>
+  </si>
+  <si>
+    <t>As per our discussion with Mr. Rakesh Sir - IAS (GM-IT, ITPO), we are required to go Beta Live by 27-10-2025, without exception. Once the website is live in the Beta phase, we can focus on implementing any cosmetic changes, as communicated by Mr. Sarwesh (NeGD).</t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
@@ -1192,15 +1191,8 @@
 - DB: MySQL</t>
   </si>
   <si>
-    <t>NeGD had shared the approved Figma designs and corresponding PDFs (11 pages) with us via email. Based on these, we developed the respective web pages within a span of 10 days.
-During the development phase, these pages were regularly shared with ITPO officials for review. However, no formal feedback was provided throughout this period. The only verbal input received was that the design should be “more aesthetic and immersive.”
-We clarified that the development was strictly based on the approved Figma designs shared by NeGD. Any design changes or enhancements would need to be addressed by the UI/UX designer appointed by NeGD, who would then seek necessary approvals and share the updated designs with us for implementation.
-Whenever we raised this point, both NeGD and ITPO officials responded by stating that "Figma is just a tool" and did not acknowledge the standard industry process of following approved design systems for development.
-Moreover, NeGD has communicated multiple times that we should expect minimal support from both NeGD and ITPO and advised us to refer to the existing website for content. Despite this, since the early days of team deployment at ITPO, we have continuously shared our development progress with officials, yet no structured feedback was provided until recently.
-On Thursday, 09 October 2025, additional stakeholders from various ITPO divisions were suddenly involved in reviewing the website. This resulted in multiple, sometimes conflicting, sets of feedback and suggestions, which are now expected to be implemented. We have requested that a single point of contact be designated to provide us with consolidated and finalized feedback, along with the necessary content, as it is not feasible to accommodate feedback from numerous individual sources.
-Following this, we are now being told that "nothing has been done so far," which we find concerning given the efforts and progress made under the approved framework.
-We respectfully request your immediate attention to this matter before it escalates further. A clear and structured feedback and communication mechanism is essential for the timely and efficient completion of this project.
-Thank you for your understanding and support.</t>
+    <t>On 22-10-2025, we experienced an issue with the Admin Panel where login access suddenly stopped working. After some time, it started functioning again. Additionally, several “Add” functionalities that were previously working have also stopped responding properly.
+Time of Occurrence: 12:45 PM</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1257,7 +1249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1439,9 +1431,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6486437F-16EA-48F7-91AC-0E31D36C0517}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1769,7 +1759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09F9670-ADC5-4A58-9CEA-CE426B0E2805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595EB752-D12E-4A43-A14D-1AE82D7F790F}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1908,7 +1898,7 @@
         <v>229.46426749999944</v>
       </c>
       <c r="M2" s="8">
-        <v>163.38088410000017</v>
+        <v>163.38088410000015</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -1947,7 +1937,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45946</v>
+        <v>45952</v>
       </c>
       <c r="AA2" s="13">
         <v>0.53779761992455066</v>
@@ -2039,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="AA3" s="13">
         <v>0.25894174422612948</v>
@@ -2077,31 +2067,31 @@
         <v>849.8214484745763</v>
       </c>
       <c r="H4" s="8">
-        <v>401.1039110000001</v>
+        <v>434.41276180000017</v>
       </c>
       <c r="I4" s="8">
         <v>67</v>
       </c>
       <c r="J4" s="8">
-        <v>468.1039110000001</v>
+        <v>501.41276180000017</v>
       </c>
       <c r="K4" s="8">
         <v>71</v>
       </c>
       <c r="L4" s="9">
-        <v>448.7175374745762</v>
+        <v>415.40868667457613</v>
       </c>
       <c r="M4" s="8">
-        <v>147.58935879999993</v>
+        <v>180.89820959999989</v>
       </c>
       <c r="N4" s="8">
-        <v>0</v>
+        <v>33.308850800000002</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="P4" s="10">
-        <v>0.47198609980952927</v>
+        <v>0.51118121645407766</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>35</v>
@@ -2131,7 +2121,7 @@
         <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="AA4" s="13">
         <v>0.28825328932803584</v>
@@ -2169,31 +2159,31 @@
         <v>2413.0259999999998</v>
       </c>
       <c r="H5" s="8">
-        <v>399.26925</v>
+        <v>679.61924999999997</v>
       </c>
       <c r="I5" s="8">
         <v>273</v>
       </c>
       <c r="J5" s="8">
-        <v>672.26925000000006</v>
+        <v>952.61924999999997</v>
       </c>
       <c r="K5" s="8">
         <v>352</v>
       </c>
       <c r="L5" s="9">
-        <v>2013.7567499999998</v>
+        <v>1733.4067499999999</v>
       </c>
       <c r="M5" s="8">
-        <v>399.26925</v>
+        <v>679.61924999999997</v>
       </c>
       <c r="N5" s="8">
-        <v>0</v>
+        <v>280.35000000000002</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="P5" s="10">
-        <v>0.16546413092938081</v>
+        <v>0.28164605354438782</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>75</v>
@@ -2223,7 +2213,7 @@
         <v>83</v>
       </c>
       <c r="Z5" s="12">
-        <v>45939</v>
+        <v>45953</v>
       </c>
       <c r="AA5" s="13">
         <v>0.3723722124622717</v>
@@ -2315,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="12">
-        <v>45939</v>
+        <v>45953</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>97</v>
@@ -2407,7 +2397,7 @@
         <v>111</v>
       </c>
       <c r="Z7" s="12">
-        <v>45939</v>
+        <v>45947</v>
       </c>
       <c r="AA7" s="13">
         <v>0.15992064345319656</v>
@@ -2591,7 +2581,7 @@
         <v>135</v>
       </c>
       <c r="Z9" s="12">
-        <v>45939</v>
+        <v>45954</v>
       </c>
       <c r="AA9" s="13">
         <v>0.16973100550277276</v>
@@ -2661,29 +2651,29 @@
       <c r="R10" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z10" s="12">
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="AA10" s="13">
         <v>0.34945618360655739</v>
@@ -2695,7 +2685,7 @@
         <v>138</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2703,19 +2693,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2742,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P11" s="10">
         <v>0.33126882165643717</v>
@@ -2751,31 +2741,31 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>158</v>
+      <c r="Y11" s="11">
+        <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="AA11" s="13">
         <v>-1.2010821392234354</v>
@@ -2784,10 +2774,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2795,13 +2785,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -2834,40 +2824,40 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z12" s="12">
-        <v>45946</v>
+        <v>45954</v>
       </c>
       <c r="AA12" s="13">
         <v>-0.51352273844110385</v>
@@ -2876,10 +2866,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2887,13 +2877,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -2920,13 +2910,13 @@
         <v>1687.8791622000001</v>
       </c>
       <c r="M13" s="8">
-        <v>171.16043739999998</v>
+        <v>171.16043740000003</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2935,31 +2925,31 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z13" s="12">
-        <v>45946</v>
+        <v>45954</v>
       </c>
       <c r="AA13" s="13">
         <v>0.20489999986167973</v>
@@ -2968,10 +2958,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2979,13 +2969,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -3018,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3027,31 +3017,31 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z14" s="12">
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="AA14" s="13">
         <v>5.8906222519107154E-2</v>
@@ -3060,10 +3050,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3071,13 +3061,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3110,40 +3100,40 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="X15" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="Z15" s="12">
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>97</v>
@@ -3152,10 +3142,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3163,16 +3153,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3181,61 +3171,61 @@
         <v>669.18430290000003</v>
       </c>
       <c r="H16" s="8">
-        <v>650.51515290000009</v>
+        <v>662.96125290000009</v>
       </c>
       <c r="I16" s="8">
         <v>18</v>
       </c>
       <c r="J16" s="8">
-        <v>668.51515290000009</v>
+        <v>680.96125290000009</v>
       </c>
       <c r="K16" s="8">
         <v>411.00000000000006</v>
       </c>
       <c r="L16" s="9">
-        <v>18.669149999999945</v>
+        <v>6.2230499999999438</v>
       </c>
       <c r="M16" s="8">
-        <v>335.36077999999998</v>
+        <v>347.80687999999998</v>
       </c>
       <c r="N16" s="8">
-        <v>0</v>
+        <v>12.446099999999999</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0.9907005439711728</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P16" s="10">
-        <v>0.97210163191351817</v>
-      </c>
-      <c r="Q16" s="16" t="s">
+      <c r="S16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z16" s="12">
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="AA16" s="13">
         <v>0.21114271514376304</v>
@@ -3244,10 +3234,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3255,13 +3245,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3294,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3303,31 +3293,31 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z17" s="12">
-        <v>45946</v>
+        <v>45954</v>
       </c>
       <c r="AA17" s="13">
         <v>0.60186008759672394</v>
@@ -3336,10 +3326,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3347,19 +3337,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3386,40 +3376,40 @@
         <v>39.533898300000004</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="U18" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="T18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="Z18" s="12">
-        <v>45947</v>
+        <v>45953</v>
       </c>
       <c r="AA18" s="13">
         <v>0.22378829916704679</v>
@@ -3428,10 +3418,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3439,13 +3429,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3478,40 +3468,40 @@
         <v>22.271999999999998</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P19" s="10">
         <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="X19" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="Z19" s="12">
-        <v>45939</v>
+        <v>45953</v>
       </c>
       <c r="AA19" s="13">
         <v>0.86590914152298848</v>
@@ -3520,7 +3510,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3531,13 +3521,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3579,28 +3569,28 @@
         <v>43</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>43</v>
       </c>
       <c r="U20" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="V20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3612,10 +3602,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3623,13 +3613,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3662,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3671,31 +3661,31 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="Y21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="Z21" s="12">
-        <v>45944</v>
+        <v>45952</v>
       </c>
       <c r="AA21" s="13">
         <v>0.34652488000000004</v>
@@ -3704,10 +3694,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3715,13 +3705,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>279</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3752,37 +3742,37 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="P22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>43</v>
       </c>
       <c r="T22" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="U22" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="V22" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="V22" s="24" t="s">
+      <c r="W22" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>285</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>43</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3794,10 +3784,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3810,7 +3800,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E62781F2-C198-459D-B24F-C2E3303E1EE2}</x14:id>
+          <x14:id>{5CDBFA30-C147-420E-81C2-9BB5A53F5B73}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3820,7 +3810,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E62781F2-C198-459D-B24F-C2E3303E1EE2}">
+          <x14:cfRule type="dataBar" id="{5CDBFA30-C147-420E-81C2-9BB5A53F5B73}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{290D3F68-712A-4568-8D0A-1EFA87A5AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD61DDD-C201-4B55-8D46-F75A462A5A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0BB9400A-A5D4-4227-B8D3-69122B765973}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE6CC7C1-5D81-4ACA-9F7F-2C86D40D1858}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -161,21 +161,20 @@
 Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve">S.no  Bucket name     No. of Tasks
+    <t>S.no  Bucket name     No. of Tasks
   1.      No Status    =   15
   2.      Estimation   =   10
   3.     Designing    =    6
-  4.     To Do        =    13
-  5.     In Progress  =    14
-  6.     Under QA Testing = 11
-  7.     User Acceptance Testing (UAT) = 2
-  8.     Released on Production = 264
-  9.     Closed       = 119
-Payment pending 3 months
-</t>
-  </si>
-  <si>
-    <t>5 task plan to deploy</t>
+  4.     To Do        =    12
+  5.     In Progress  =    17
+  6.     Under QA Testing = 7
+  7.     User Acceptance Testing (UAT) = 1
+  8.     Released on Production = 269
+  9.     Closed       = 120
+Note:- 3 months payment pending</t>
+  </si>
+  <si>
+    <t>3 task need to deploy</t>
   </si>
   <si>
     <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
@@ -681,13 +680,17 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. We are awaiting the completion of the remaining work by NMPA and the site's handover so that we can finish the remaining installations at the Cruise and KK gates.
-2. Ongoing CAMC billing is in progress
+    <t xml:space="preserve">1. DB server issues, gate application is getting hang
+2. Taken official system downtime and patch updated.
+3. Antivirus has been disabled
+4. System is under observation
+5. This week case worker were not available to clear our CAMC bills.
 </t>
   </si>
   <si>
-    <t>1. finish the remaining installations at the Cruise and KK gates.
-2. ongoing CAMC bill clearance.</t>
+    <t xml:space="preserve">DB server issues must be resolved.
+Following up with NMPA for bill clearance
+</t>
   </si>
   <si>
     <t>Prashant P</t>
@@ -744,9 +747,6 @@
     <t>Start Date (PO) : 01-Aug-24 :: End Date (PO) : 31-Jul-29</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>100.99 L</t>
   </si>
   <si>
@@ -755,21 +755,14 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">under O &amp; M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Quarter invoice process.
-O &amp; M activity   </t>
+    <t xml:space="preserve">O &amp; M activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending one junction light installation </t>
   </si>
   <si>
     <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
-VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
-5 no of VMD LED time have issue. Need to purchase new module - ICCC
-22 no of UCON 10 controller we needs to replace. - ICCC
-300 faulty module given to OEM for replace material  --- VMC-P4 LED 
-40 no location battery stolen. Insurance under process 
-17 no ups under repairing 
-DR OEM needs to final – ICCC Project 
+22 no of UCON 10 controller we needs to replace. 
 </t>
   </si>
   <si>
@@ -901,18 +894,26 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t>1. 20 pairs PA installation done.
-2. 10 Nos. EVS along with poles installation done.
-3. 6/10 Nos. VMD display along with poles installation done.
-4. All SRS, FRS, UAT documents submitted and approved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Rest 4 Nos. VMD pole foundation. 
-2. 20 Nos. ECB foundation. </t>
-  </si>
-  <si>
-    <t>1. VMD pole foundation and installation vendor issues and payment.
-2. ECB, PA, EVS installation vendor PO and payment issue.</t>
+    <t xml:space="preserve">1. EVS: 10/10 Nos. EVS installation done.
+2. PA: 20/20 Pairs PA installation done.
+3. VMD: 6/10 Nos. VMD installation done.
+4. ECB: 10/20 Nos. ECB enclosure foundation done.
+5. All materials delivered at site as per PO Qty.
+6. 97% billing done.
+7. Accessories not yet delivered.
+8. 4 Nos. VMD foundation pending 
+9. 10 ECB foundation work in progress.
+10. Cable laying, connection, configuration and commissioning pending. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 10 Nos. ECB foundation work.
+2. 4 Nos. VMD foundation work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Accessories not yet purchased and delivered. Pending from purchase.
+2. VMD controller not yet delivered. Pending due to payment issue.
+3. Cable laying, digging, etc work order not yet given to local vendor. Pending from purchase.
+4. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. </t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -983,35 +984,37 @@
     <t>Start Date (PO) : 07-Apr-25 :: End Date (PO) : 04-Oct-25</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Primary &amp; Backup Servers: Fully configured, tested, and ready for use. ✅
-	•	Substations 1, 2 &amp; 3 (MFM): Network setup completed; awaiting switch rack installation and port enablement by JNPA vendor. ⚙️
-	•	Main Substation (MFM): Communication active via SCADA; awaiting API support for EEMS data integration. 🔄
-	•	ABT Meters: Installed; pending series connection and switch port enablement for data retrieval. 🔌
-	•	RMU Panel Meters: Survey completed; awaiting OFC network and switch availability from JNPA. 🕓
-	•	Water Flow Meters: 62 delivered, 5 installed; installation to continue as site infra becomes ready. 🚰
-	•	Consumer Billing Meters: MPLS setup in progress; data communication to start post connectivity and SIM activation. 📡
-	•	Cloud Registration: AWS account successfully created. ☁️
-Overall Status:
-Core server infrastructure and communication framework are ready. Field-level integrations and network dependencies from JNPA side are in progress for full data connectivity.</t>
-  </si>
-  <si>
-    <t>Antenna installation and MPLS link setup and testing.
-DSM calculations to be understood and worked out in coordination with JNPA</t>
+    <t>Overall Progress (Summary)
+Primary &amp; Backup Servers: Fully configured, tested, and installed in NOC room. No pending issues.
+Substations 1, 2 &amp; 3: Network setup completed; pending switch rack installation by JNPA. CMS to enable data retrieval in 2–3 days after availability.
+Main Substation: Communication established; awaiting API details from JNPA SCADA vendor for EEMS integration.
+ABT Meters: Two meters installed; pending series connection with Incomer 1 &amp; 2 and switch port enablement. Awaiting MSETCL response.
+RMU Panel: Survey completed; pending OFC network and switch readiness from JNPA.
+Water Flow Meters: 62 delivered, 5 installed; pending infrastructure readiness from Water Dept. ~30 more (40 mm) meters to be installed after confirmation.
+Consumer Billing Meters: MPLS setup in progress; antenna and civil works done. Link testing ongoing; SIM activation and modem setup next.
+Cloud Registration: AWS account successfully registered.
+Software: Deployed and integrated at NOC server; supports multi-user access. Enhancements to be added as live data begins streaming.</t>
+  </si>
+  <si>
+    <t>MPLS link testing and completion. Further sim activation and modem installation for billing meter communication.</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>Delay in switch installation and port enablement by JNPA vendor.
-	•	Pending SCADA API integration for main substation data.
-	•	ABT meter series connection and network setup awaiting external teams.
-	•	MPLS connectivity and SIM activation pending for consumer meters.
-	•	Water meter installation held up due to incomplete site infra and location finalization.
-	•	Awaiting revised scope confirmation for RMU meters.
-	•	Multiple stakeholder coordination causing activity delays.</t>
+    <t>Challenges / Risks
+Network Dependencies: Delay in switch rack installation and port enablement by JNPA vendors affecting meter communication setup.
+Coordination with MSETCL: Pending response for ABT meter series connection causing delays in integration.
+SCADA Integration: Awaited API support from JNPA SCADA vendor for data transfer to EEMS.
+OFC &amp; Infrastructure Readiness: RMU and Water Flow Meter installations dependent on JNPA’s OFC and civil infrastructure readiness.
+Water Dept. Coordination: Pending confirmation on meter installation readiness (valves, ducts, power).
+MPLS Link Testing: Delay in completion may impact consumer meter data retrieval timeline.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1178,12 +1181,16 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t>Main website development has been completed, and we are currently addressing the feedback received from NeGD. 
-Additionally, we have developed the Admin panel for managing the website's content. At this stage, the Admin panel allows us to perform only the "add" operation.
-Simultaneously, we have assigned Munendra for the functional knowledge transfer (KT) and Bhawesh for the technical and logical KT of the booking platform. The KT sessions are scheduled to begin on 23-10-2025.</t>
-  </si>
-  <si>
-    <t>As per our discussion with Mr. Rakesh Sir - IAS (GM-IT, ITPO), we are required to go Beta Live by 27-10-2025, without exception. Once the website is live in the Beta phase, we can focus on implementing any cosmetic changes, as communicated by Mr. Sarwesh (NeGD).</t>
+    <t>Primary website for ITPO has been developed with a Content Management System, and we are currently addressing UI and logic feedback provided by the client.
+Shakun has been assigned to this project as the UI/UX Figma designer from 15-10-2025 for a duration of 15 days. However, her proficiency with Figma is not sufficient to meet the project's needs.
+We presented the Figma design for the website's landing page to ITPO's senior officials, who reviewed it and provided positive feedback, confirming that we can proceed with the design for development. NeGD was not present during that meeting or the recent review sessions.
+According to NeGD, the Figma design does not align with their expectations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- We are currently focusing on refining the logical feedback for the Admin backend panel. 
+- Key Official data is still pending from ITPO, and we will proceed once it's received. 
+- Google Map API key is awaiting approval from NeGD; ITPO has requested a formal email from NeGD to facilitate this. 
+- Bhashini Language Translation script has been implemented, but domain registration is still pending. An email has already been sent regarding this matter. Currently we are getting 401 authentication error. </t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
@@ -1191,8 +1198,7 @@
 - DB: MySQL</t>
   </si>
   <si>
-    <t>On 22-10-2025, we experienced an issue with the Admin Panel where login access suddenly stopped working. After some time, it started functioning again. Additionally, several “Add” functionalities that were previously working have also stopped responding properly.
-Time of Occurrence: 12:45 PM</t>
+    <t>NeGD is not fully satisfied with Shakun's performance. We require another UI/UX resource who is highly proficient in Figma design</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1249,7 +1255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1431,7 +1437,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EA2BA040-31F3-4B4C-9A0F-9D5373998383}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1759,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595EB752-D12E-4A43-A14D-1AE82D7F790F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D861B8CB-634B-4221-AD04-8D866CAAB271}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1937,7 +1945,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45952</v>
+        <v>45959</v>
       </c>
       <c r="AA2" s="13">
         <v>0.53779761992455066</v>
@@ -2765,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA11" s="13">
         <v>-1.2010821392234354</v>
@@ -2927,29 +2935,29 @@
       <c r="R13" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z13" s="12">
-        <v>45954</v>
+        <v>45960</v>
       </c>
       <c r="AA13" s="13">
         <v>0.20489999986167973</v>
@@ -2969,13 +2977,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -3008,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3017,28 +3025,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z14" s="12">
         <v>45953</v>
@@ -3050,10 +3058,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3061,13 +3069,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3100,37 +3108,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="Z15" s="12">
         <v>45953</v>
@@ -3142,10 +3150,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3153,16 +3161,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3192,40 +3200,40 @@
         <v>12.446099999999999</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P16" s="10">
         <v>0.9907005439711728</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z16" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA16" s="13">
         <v>0.21114271514376304</v>
@@ -3234,10 +3242,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3245,13 +3253,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3284,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3293,28 +3301,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>43</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z17" s="12">
         <v>45954</v>
@@ -3326,10 +3334,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3337,19 +3345,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3376,19 +3384,19 @@
         <v>39.533898300000004</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="S18" s="11">
-        <v>0</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>235</v>
@@ -3409,7 +3417,7 @@
         <v>239</v>
       </c>
       <c r="Z18" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA18" s="13">
         <v>0.22378829916704679</v>
@@ -3418,7 +3426,7 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD18" s="15" t="s">
         <v>240</v>
@@ -3685,7 +3693,7 @@
         <v>274</v>
       </c>
       <c r="Z21" s="12">
-        <v>45952</v>
+        <v>45959</v>
       </c>
       <c r="AA21" s="13">
         <v>0.34652488000000004</v>
@@ -3800,7 +3808,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5CDBFA30-C147-420E-81C2-9BB5A53F5B73}</x14:id>
+          <x14:id>{AC2FB2D9-CAB2-4258-9E27-CAAC70B4D9CB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3810,7 +3818,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5CDBFA30-C147-420E-81C2-9BB5A53F5B73}">
+          <x14:cfRule type="dataBar" id="{AC2FB2D9-CAB2-4258-9E27-CAAC70B4D9CB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD61DDD-C201-4B55-8D46-F75A462A5A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BF42A5-7009-4689-9939-4A3011D709BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE6CC7C1-5D81-4ACA-9F7F-2C86D40D1858}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A8553603-66A9-4F0B-8C7F-E98C83FDD787}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <t>Start Date (PO) : 10-Jan-24 :: End Date (PO) : 09-Jan-27</t>
   </si>
   <si>
-    <t>26 (9+ 17)</t>
+    <t>27 ((16 resources from GAIA – 11 from CMS)</t>
   </si>
   <si>
     <t>45.06 L</t>
@@ -210,31 +210,30 @@
 Resolve all the bugs, issues and queries raised for these developed functionalities</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 26 resources on-boarded. (17 resources from GAIA – Tech Partner)
+    <t xml:space="preserve">1. 27 resources on-boarded. (16 resources from GAIA – 11 from CMS)
 2. Payment received till Aug’25. invoicing done for Sep’25.
-3. SS: 4 resources onboarded.1 resource (GAIA) expected to join on 27th Oct
-4. DWR mobile app: changes done for dumpsite, testing ongoing. 
-5. New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): bug fixing ongoing
-6. UWM Action Plan: additional points added from CPEEHO: Dev done
-7. GFC Indicator logic understanding and changes ongoing in DB side.
-8. Engineer App: Geo location enabled in iOS/Android-Bug fixing ongoing.
-9. Implementation of Media Service in Java-Ongoing.
-10. Website updates ongoing. NUC Registration portal: Changes Ongoing
-11. SS Scoring logic and result declaration: understanding excel sheet
+3. DWR mobile app: changes done for dumpsite, bug fixing ongoing. 
+4. New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): bug fixing ongoing as per PMU comments. SS: 5 resources onboarded.
+5. UWM Action Plan: additional points added from CPEEHO: Testing ongoing
+6. GFC Indicator logic implemented in DB and changes ongoing in UI side.
+7. Engineer App: Geo location enabled in iOS/Android-verification ongoing.
+8. Implementation of Media Service in Java-Ongoing.
+9. Website updates ongoing. NUC Registration portal: Changes Ongoing
+10. SS Scoring logic and result declaration: understanding excel sheet
 </t>
   </si>
   <si>
     <t xml:space="preserve">1. Maintenance activities: Daily ULB support, Website changes ongoing.
-2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing.
-3. DWR Mobile App pilot planned in Oct’25. Enable DWR for Dumpsite.
-4. SS Handover: Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration ongoing. Doc prepared to update libraries which are old/outdated/deprecated.
+2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing by PMU. 
+3. DWR Mobile App pilot planned for dumpsite.
+4. SS Handover: Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration done. Doc prepared to update libraries which are old/outdated/deprecated.
 </t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 1 developer (Angular) from GAIA expected to join next week.
+    <t xml:space="preserve">1. Replacement of DevOps not finalized yet. Need to sensitize HR on this.
 2. Majority of team members working remotely. 
 </t>
   </si>
@@ -1184,7 +1183,8 @@
     <t>Primary website for ITPO has been developed with a Content Management System, and we are currently addressing UI and logic feedback provided by the client.
 Shakun has been assigned to this project as the UI/UX Figma designer from 15-10-2025 for a duration of 15 days. However, her proficiency with Figma is not sufficient to meet the project's needs.
 We presented the Figma design for the website's landing page to ITPO's senior officials, who reviewed it and provided positive feedback, confirming that we can proceed with the design for development. NeGD was not present during that meeting or the recent review sessions.
-According to NeGD, the Figma design does not align with their expectations.</t>
+According to NeGD, the Figma design does not align with their expectations.
+Functional &amp; logical KT started with Daffodil (old Vendor)</t>
   </si>
   <si>
     <t xml:space="preserve">- We are currently focusing on refining the logical feedback for the Admin backend panel. 
@@ -1438,7 +1438,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EA2BA040-31F3-4B4C-9A0F-9D5373998383}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{AD3F8456-EE78-42CF-BEA5-E98440909EAB}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1767,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D861B8CB-634B-4221-AD04-8D866CAAB271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC0481B-9149-4468-8290-3A20343E95CD}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2037,7 +2037,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA3" s="13">
         <v>0.25894174422612948</v>
@@ -3808,7 +3808,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AC2FB2D9-CAB2-4258-9E27-CAAC70B4D9CB}</x14:id>
+          <x14:id>{051EE13B-3DD5-47EC-92F2-2FA0555786C5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3818,7 +3818,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AC2FB2D9-CAB2-4258-9E27-CAAC70B4D9CB}">
+          <x14:cfRule type="dataBar" id="{051EE13B-3DD5-47EC-92F2-2FA0555786C5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BF42A5-7009-4689-9939-4A3011D709BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E5D677-0687-48E3-A712-896EDEAC3ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A8553603-66A9-4F0B-8C7F-E98C83FDD787}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD521B3E-4CE0-4DBC-96C8-60B06F914173}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,8 @@
   7.     User Acceptance Testing (UAT) = 1
   8.     Released on Production = 269
   9.     Closed       = 120
-Note:- 3 months payment pending</t>
+Note:- 3 months payment pending
+Billed till Sep-25 month.</t>
   </si>
   <si>
     <t>3 task need to deploy</t>
@@ -180,7 +181,7 @@
     <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Jayashri (FrontEnd Dev) : 9085424 -- will be on Maternity leave starting December last week. Need replacement against her. (with min 4 Yr experience in react)</t>
   </si>
   <si>
     <t>Amit K</t>
@@ -269,33 +270,33 @@
 Application Developers, Technical Support (helpdesk) – 6 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 26 Resource deployed.
+    <t>1. 26 Resource deployed.
 2. Development of new Module is under process as per CRS requirement.
-3. DC and DR Sync up , Horizontal and vertical scalling 
+3. DC and DR Sync up , Horizontal and vertical scalling
 4. State onboard is on going.
 5. Receive Data from Non CRS State through API.
 6. AADHAR , TRANSLITRATION and Payment Integrations.
 7. DB,System performance and monitoring continue above 99.6 % availability.
-8. Bag resoluation </t>
-  </si>
-  <si>
-    <t>1. June and July Payment under process from FO. Will release on Monday, All staff is on Leave up to 27
-2. Aug payment approval pending from RGI.
+8. Bag resoluation</t>
+  </si>
+  <si>
+    <t>1. June and Aug Payment under process from FO. 
+2. July payment Received.
 3. Sept document and Attendance verification under processing.
-4. 14 Team members and maximum ORGI Staff are on leave.
-5. EPIC No Addition on death Certificate , Bilingural Languagesin QR Code , Generic Master Filter ,Hospital Validation , Water mark on UAT certificate ,Deployment of GP Can extract Certificate,
-6. TN,GOA, DELHI and ORISSA DATA Mapping is On Going</t>
+4. Integration of UMANG App with CRS Portal
+5. EPIC No Addition on death Certificate , Bilingural Languagesin QR Code , Certificate Cancellation Report, Water mark on UAT certificate ,
+6. Bihar CRBD Form (11,12 &amp; 13)</t>
   </si>
   <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
   </si>
   <si>
-    <t>1. Delhi State Onboarding on CRS Portal- No subdistrict 
+    <t>1. Delhi State Onboarding on CRS Portal- No subdistrict
 2  GHMC Telangana: Provision for single municipal corporation under Four district which is not support by CRS portal
-3. Family Care Tracker – Pilot Project (Integration of CRS BRN with Poshan Tracker, Techo+, and CTS Portals)  
+3. Family Care Tracker – Pilot Project (Integration of CRS BRN with Poshan Tracker, Techo+, and CTS Portals)
 4. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
 5. Puducherry states will join CRS portal from 1st Nov with three regional Languages.
-6. Approval for Gaurang, Sept attendance will be verified after approval.
+6. Approval for Gaurang Rejected.
 7. Indore and Ahmedabad IMC Zonal register creation</t>
   </si>
   <si>
@@ -448,24 +449,26 @@
 → Payment received till Track 3 for Phase 1.
 → All Nine modules of Phase I development &amp; production deployment is done.
 → Drone moved to Phase II
-→ BICRS development done, moved to UAT.
-→ Phase II requirement gathering done for Road Closure, Document Repository, Critical Correspondence, and Payments
+→ BICRS development done, moved to UAT. Awaiting client sign-off.
+→ Road Closure development done, moved to UAT. Awaiting client sign-off.
+→ Phase II requirement gathering done for Road Closure, Document Repository, Critical Correspondence, and Payments, Schedule H, Highway QR.
+→ Requirement gathering completed for CO Division (Onboarding, Toll Master)
 → Development in progress on
-Road closure
 Document Repository
 Critical Correspondence</t>
   </si>
   <si>
     <t>→ Deployment of BICRS on production.
-→ Development of Road closure, Document Repository, Critical Correspondence and feature enhancements from phase 1 modules.
-→ Requirement gather for other modules of phase II - CO Division (Onboarding, Toll Master), Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE, Employee Directory</t>
+→ Deployment of Road Closure on production.
+→ Development of Highway QR, Document Repository, Critical Correspondence, CO Division (Onboarding, Toll Master) and feature enhancements from phase 1 modules.
+→ Requirement gather for other modules of phase II - Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE, Employee Directory</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
   </si>
   <si>
-    <t>Phase II timelines are quite tight considering the workload and current team capacity.
-Timely onboarding of additional resources will be crucial.</t>
+    <t>→ Phase II timelines are quite tight considering the workload and current team capacity.
+→ Timely onboarding of additional resources will be crucial.</t>
   </si>
   <si>
     <t>Mukul K / Agam V</t>
@@ -596,6 +599,9 @@
 </t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG)
 AMC REQUIRED OLD DC INFRA ON URGENT BASIS.
 For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
@@ -793,14 +799,13 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1. Partial payment of 30 Lakh with GST PFMS generated with CEO sir sign. Due to technical issue at ISCDL linked bank account, payment will be credited soon post the rectification of issue.</t>
-  </si>
-  <si>
-    <t>1] New junction work of one no. 3 Arm ATCS-ITMS approval under process from ISCDL.
-2] As per CDO sir, Go-Live note sheet will prepare once 11 location work completed.</t>
-  </si>
-  <si>
-    <t>1] Apart from 30Lakh with GST payment, post  part payment will start processing from next 10 days.
+    <t>1. Awaiting the resolution of Payment issue at ISCDL linked bank account, Post part payment will be credited.</t>
+  </si>
+  <si>
+    <t>1. On Friday, dt:- 31-10-2025, Will brief the Go live letter clause as per HO discussion with CEO sir, Post will Go-Live note sheet will prepare.</t>
+  </si>
+  <si>
+    <t>1] Apart from 30Lakh with GST payment, post part payment will start processing from next 10 days.
 2. Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
 2] Material approval including dispatching required as per site consumption report.</t>
   </si>
@@ -933,7 +938,7 @@
     <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
   </si>
   <si>
-    <t>220</t>
+    <t>215</t>
   </si>
   <si>
     <t>72.86 L</t>
@@ -942,20 +947,11 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t>Work Order for the project has been completed.
-Support is being continued as per Customer’s mail and awaiting new Work Order.
-Diwali Gifts distributed to Clients, Police Officials, and MCS Operators across all MCS Project locations.
-Billing supporting documents are being signed by concerned stakeholders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete the sign-off on Billing Support Documents
-Follow up with Customer for New Work Order
-</t>
-  </si>
-  <si>
-    <t>Need to recruit 20+ Operators across the locations.
-New Work Order
-AR of 1.8Cr (Majorly July and August,2025 month's Invoice collection)</t>
+    <t>2 Candidates Trained today and will join CP OFFICE &amp; WORLI
+July-2025 Months AR has been followed with customer on mail</t>
+  </si>
+  <si>
+    <t>20 Candidates need to shortlist and to be deployed</t>
   </si>
   <si>
     <t>Jaywant P</t>
@@ -1438,7 +1434,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{AD3F8456-EE78-42CF-BEA5-E98440909EAB}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C22BC469-93D4-4860-986F-985751F9E6A9}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1767,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC0481B-9149-4468-8290-3A20343E95CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAABEFF4-0955-4AE5-A827-8863F3052FA8}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2129,7 +2125,7 @@
         <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA4" s="13">
         <v>0.28825328932803584</v>
@@ -2405,7 +2401,7 @@
         <v>111</v>
       </c>
       <c r="Z7" s="12">
-        <v>45947</v>
+        <v>45960</v>
       </c>
       <c r="AA7" s="13">
         <v>0.15992064345319656</v>
@@ -2583,10 +2579,10 @@
         <v>134</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z9" s="12">
         <v>45954</v>
@@ -2601,7 +2597,7 @@
         <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2609,13 +2605,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
@@ -2648,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2657,28 +2653,28 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S10" s="11">
         <v>0</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z10" s="12">
         <v>45953</v>
@@ -2690,10 +2686,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2701,19 +2697,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2740,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" s="10">
         <v>0.33126882165643717</v>
@@ -2749,25 +2745,25 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -2782,10 +2778,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2793,13 +2789,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -2832,37 +2828,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z12" s="12">
         <v>45954</v>
@@ -2874,10 +2870,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2885,13 +2881,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -2924,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2933,28 +2929,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S13" s="11">
         <v>0</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z13" s="12">
         <v>45960</v>
@@ -2966,10 +2962,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2977,13 +2973,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -3016,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3025,31 +3021,31 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z14" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA14" s="13">
         <v>5.8906222519107154E-2</v>
@@ -3058,10 +3054,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3069,13 +3065,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3108,37 +3104,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z15" s="12">
         <v>45953</v>
@@ -3150,10 +3146,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3161,16 +3157,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3200,37 +3196,37 @@
         <v>12.446099999999999</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P16" s="10">
         <v>0.9907005439711728</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z16" s="12">
         <v>45960</v>
@@ -3242,10 +3238,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3253,13 +3249,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3292,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3301,31 +3297,31 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
         <v>225</v>
       </c>
       <c r="Z17" s="12">
-        <v>45954</v>
+        <v>45960</v>
       </c>
       <c r="AA17" s="13">
         <v>0.60186008759672394</v>
@@ -3334,7 +3330,7 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD17" s="15" t="s">
         <v>226</v>
@@ -3574,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>256</v>
@@ -3583,7 +3579,7 @@
         <v>257</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>258</v>
@@ -3762,7 +3758,7 @@
         <v>280</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="T22" s="24" t="s">
         <v>281</v>
@@ -3777,7 +3773,7 @@
         <v>284</v>
       </c>
       <c r="X22" s="24" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y22" s="24" t="s">
         <v>285</v>
@@ -3808,7 +3804,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{051EE13B-3DD5-47EC-92F2-2FA0555786C5}</x14:id>
+          <x14:id>{EC416BD5-9E0A-461D-BA3B-737D43F9ECEB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3818,7 +3814,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{051EE13B-3DD5-47EC-92F2-2FA0555786C5}">
+          <x14:cfRule type="dataBar" id="{EC416BD5-9E0A-461D-BA3B-737D43F9ECEB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E5D677-0687-48E3-A712-896EDEAC3ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9B5D94-E231-43D5-9B69-59D48B94C9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD521B3E-4CE0-4DBC-96C8-60B06F914173}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C178E71-15CB-4793-84EE-1CD12EE6B183}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="289">
   <si>
     <t>SN</t>
   </si>
@@ -399,13 +399,16 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t xml:space="preserve">Working on HRMS/Finance UAT points feedback Point, Retired employee portal development done, Ongoing Production issue in progress </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery of UAT points and scheduled delivery </t>
+    <t>We are addressing production-related issues and delivering UAT feedback observations. We have delivered 8 UAT HRMS points, and 3 more HRMS points are planned for delivery. We are also delivering UAT observations for the Finance module. Additionally, 4 Finance UAT points are ready for delivery. From the BI tool, the HRMS and Legal dashboards have been developed and delivered to the client</t>
+  </si>
+  <si>
+    <t>Finance module UAT and production issues related to employees.</t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t/>
@@ -624,6 +627,9 @@
     <t>Start Date (PO) : 01-Jan-23 :: End Date (PO) : 25-Jun-26</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>381 L</t>
   </si>
   <si>
@@ -634,7 +640,7 @@
   <si>
     <t>1)Jan23 to Sept25 (Total 11 quarters payment released- 75%)
 2)24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withhold payment- KSCL will not pay to TechM (re-imbursement)- KSCL will not pay to Tech M reimburesement and will have to be paid by Tech M to CMS
-3) Billing done for OND24 &amp; JFM24 Qtr</t>
+3) Billing done for JJA25 &amp; SON25 Qtr</t>
   </si>
   <si>
     <t>1) To expedite ATCS -23 junctions for making it operational
@@ -647,11 +653,16 @@
 8)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,</t>
   </si>
   <si>
-    <t>1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
-2)Vendor Videonetics "Time for Red" feature not yet been delivered despite the forgone timeline.
+    <t xml:space="preserve">1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
+2)Vendor Videonetics "Time for Red" feature not yet been delivered despite the forgone timeline. Client now want to replace CMS.
 3)Battery order is awaited
 4)VMSB devices facing recurring problems (dark spots, black lines, component failures).Smart Parking sensors &amp; VMSB card-related issues.
-5)HDD order for LPU is awaited as a result of which system at various junction has downtime</t>
+5)HDD order for LPU is awaited as a result of which system at various junction has downtime.
+6) Smart parking affected due to unavailability of sensors, and no visibility of it has irrated the client.
+7) Messaging vendor Text local have retired its services and recommended another enterprise Arihant global whose credit top up is required. Absence of it shall stall GPR &amp; Wi-fi services in the proj
+8) DR/DC – The OEM ESDS services has expired in Dec’24 and has been disabled.  
+9)Client’s requirement of inventory list.
+</t>
   </si>
   <si>
     <t>Saleel H</t>
@@ -840,18 +851,14 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t>HRMS - Comparing the files between environments, moving them. Fixing the minor bugs. Working on the report development
-SM - Fixing minor bugs
-MM - Fixing minor bugs
-FA - Cash flow statement development is in progress
-Payroll - Old Regime development is completed. demo has given to the customer.
-Portal - No major issues.</t>
-  </si>
-  <si>
-    <t>Planning to raise PO for website security audit.
-Fixing the bugs for SM, MM, HRMS
-FA - Planning to start segment report
-Buy back to move to PROD for MM</t>
+    <t xml:space="preserve">Fixing the bugs and enhancements in all the modules.
+Started working on Liferay website upgrade.
+</t>
+  </si>
+  <si>
+    <t>Fixing the bugs and enhancements in all the modules.
+Planning to start the FA CO modules development.
+Will continue with Website upgrades.</t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
@@ -1033,7 +1040,7 @@
     <t>Start Date (PO) : 09-Jun-25 :: End Date (PO) : 08-Oct-25</t>
   </si>
   <si>
-    <t>14</t>
+    <t>12</t>
   </si>
   <si>
     <t>As per achievment.</t>
@@ -1048,7 +1055,8 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t xml:space="preserve">Modules Completed
+    <t xml:space="preserve">
+Modules Completed
 1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
 2. Landing Page – Developed and deployed interactive dashboard with quick navigation to all major modules.
 3. Agency Selection – Functionality for selecting and managing agencies successfully integrated.
@@ -1071,26 +1079,23 @@
 20. Layout, Master Plates, Jigs, Joints &amp; Fixtures – Inspection Request – Partially completed; inspection request generation and workflow integration ongoing.
 21. Cutting, Straightening &amp; Edge Preparation – Inspection Request – Partially completed; validation and backend service linkage under progress.
 Plan
-22. Demo to DIC 
-23.Demo to NHAI
+Module work in progress
+1.Inspection 2.Workshop
 </t>
   </si>
   <si>
-    <t>1. Conduct .
-2. Prepare modules for internal review and UAT.
-3. Start work on Workshp
-4. Demo to Railway</t>
+    <t xml:space="preserve">1. Working on Inspection 
+and 2. Workshop module 
+</t>
   </si>
   <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
-2. The project comprises approx 400s creens (160 complex, 240 average), spanning Fabrication, Inspection, Workshop, and Approval modules.
+    <t>1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
+2. The project comprises 302 screens (132 complex, 170 average), spanning Fabrication, Inspection, Workshop, and Approval modules.
 3. Fabrication and Inspection modules exhibit high complexity owing to multiple process stages such as WPQR, Raw Material, Welding, and Assembly.
-4.Approval workflows involving multi-level roles (Agency, ADE/B&amp;S, Directors) add significant logic, validation, and access control complexity.
-</t>
+4.Approval workflows involving multi-level roles (Agency, ADE/B&amp;S, Directors) add significant logic, validation, and access control complexity.</t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1100,9 +1105,6 @@
   </si>
   <si>
     <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : Order to log</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>Development, deployment, and support of NOC Portal with modules for Login, User Registration, Application Submission, and Approval workflows.
@@ -1434,7 +1436,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C22BC469-93D4-4860-986F-985751F9E6A9}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{FB69F9FA-5267-4885-8B10-47919D8AF790}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1763,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAABEFF4-0955-4AE5-A827-8863F3052FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DCDAEA-59E9-4FD3-A389-BF7538BD99ED}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2086,7 +2088,7 @@
         <v>415.40868667457613</v>
       </c>
       <c r="M4" s="8">
-        <v>180.89820959999989</v>
+        <v>180.89820959999994</v>
       </c>
       <c r="N4" s="8">
         <v>33.308850800000002</v>
@@ -2305,23 +2307,23 @@
       <c r="X6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="11">
-        <v>0</v>
+      <c r="Y6" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="Z6" s="12">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>86</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2329,13 +2331,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2368,37 +2370,37 @@
         <v>0</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P7" s="10">
         <v>0.14888303419507107</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z7" s="12">
         <v>45960</v>
@@ -2410,10 +2412,10 @@
         <v>0.32590705634920647</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD7" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2421,13 +2423,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -2469,28 +2471,28 @@
         <v>35</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z8" s="12">
         <v>45939</v>
@@ -2502,10 +2504,10 @@
         <v>0.10999999996973608</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2513,19 +2515,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G9" s="8">
         <v>1372.5805700000001</v>
@@ -2552,37 +2554,37 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P9" s="10">
         <v>0.31367908617561158</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z9" s="12">
         <v>45954</v>
@@ -2594,10 +2596,10 @@
         <v>0.11441806775377272</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2605,19 +2607,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G10" s="8">
         <v>5337.5</v>
@@ -2644,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2653,31 +2655,31 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="S10" s="11">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Z10" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA10" s="13">
         <v>0.34945618360655739</v>
@@ -2686,10 +2688,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2697,73 +2699,73 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
       </c>
       <c r="H11" s="8">
-        <v>225.4923498</v>
+        <v>257.29620160000007</v>
       </c>
       <c r="I11" s="8">
         <v>22</v>
       </c>
       <c r="J11" s="8">
-        <v>247.4923498</v>
+        <v>279.29620160000007</v>
       </c>
       <c r="K11" s="8">
         <v>33</v>
       </c>
       <c r="L11" s="9">
-        <v>455.20059520000001</v>
+        <v>423.39674339999993</v>
       </c>
       <c r="M11" s="8">
-        <v>6.3876246000000023</v>
+        <v>38.191476400000006</v>
       </c>
       <c r="N11" s="8">
-        <v>0</v>
+        <v>31.8038518</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P11" s="10">
-        <v>0.33126882165643717</v>
+        <v>0.37799157974231695</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -2778,10 +2780,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2789,19 +2791,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G12" s="8">
         <v>1045.762712</v>
@@ -2828,37 +2830,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Z12" s="12">
         <v>45954</v>
@@ -2870,10 +2872,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2881,19 +2883,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G13" s="8">
         <v>2019.8763390000001</v>
@@ -2920,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2929,28 +2931,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="S13" s="11">
         <v>0</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z13" s="12">
         <v>45960</v>
@@ -2962,10 +2964,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD13" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="AD13" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2973,19 +2975,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" s="8">
         <v>2903.04126</v>
@@ -3012,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3021,28 +3023,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Z14" s="12">
         <v>45960</v>
@@ -3054,10 +3056,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3065,13 +3067,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3104,52 +3106,52 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Z15" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB15" s="13">
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3157,19 +3159,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G16" s="8">
         <v>669.18430290000003</v>
@@ -3196,37 +3198,37 @@
         <v>12.446099999999999</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P16" s="10">
         <v>0.9907005439711728</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Z16" s="12">
         <v>45960</v>
@@ -3238,10 +3240,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3249,19 +3251,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" s="8">
         <v>437.16408000000001</v>
@@ -3288,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3297,28 +3299,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Z17" s="12">
         <v>45960</v>
@@ -3327,13 +3329,13 @@
         <v>0.60186008759672394</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3341,19 +3343,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3380,37 +3382,37 @@
         <v>39.533898300000004</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z18" s="12">
         <v>45960</v>
@@ -3419,13 +3421,13 @@
         <v>0.22378829916704679</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3433,13 +3435,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3472,52 +3474,52 @@
         <v>22.271999999999998</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P19" s="10">
         <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Z19" s="12">
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="AA19" s="13">
         <v>0.86590914152298848</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AD19" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -3525,13 +3527,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3570,46 +3572,46 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3617,13 +3619,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3656,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3665,28 +3667,28 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z21" s="12">
         <v>45959</v>
@@ -3695,13 +3697,13 @@
         <v>0.34652488000000004</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3709,13 +3711,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3755,43 +3757,43 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X22" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB22" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +3806,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EC416BD5-9E0A-461D-BA3B-737D43F9ECEB}</x14:id>
+          <x14:id>{DB9BA06D-1C29-41A1-AADF-DE3E2E691031}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3814,7 +3816,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC416BD5-9E0A-461D-BA3B-737D43F9ECEB}">
+          <x14:cfRule type="dataBar" id="{DB9BA06D-1C29-41A1-AADF-DE3E2E691031}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9B5D94-E231-43D5-9B69-59D48B94C9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BA1FDEA-4C03-493C-92CD-CD66C904A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C178E71-15CB-4793-84EE-1CD12EE6B183}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FAA2448B-A95A-4CF3-8820-E51F0B55E35E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="287">
   <si>
     <t>SN</t>
   </si>
@@ -161,27 +161,28 @@
 Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
   </si>
   <si>
-    <t>S.no  Bucket name     No. of Tasks
-  1.      No Status    =   15
+    <t xml:space="preserve">S.no  Bucket name     No. of Tasks
+  1.      No Status    =   14
   2.      Estimation   =   10
-  3.     Designing    =    6
+  3.     Designing    =    7
   4.     To Do        =    12
-  5.     In Progress  =    17
-  6.     Under QA Testing = 7
-  7.     User Acceptance Testing (UAT) = 1
-  8.     Released on Production = 269
-  9.     Closed       = 120
-Note:- 3 months payment pending
-Billed till Sep-25 month.</t>
-  </si>
-  <si>
-    <t>3 task need to deploy</t>
+  5.     In Progress  =    13
+  6.     Under QA Testing = 2
+  7.     User Acceptance Testing (UAT) = 18
+  8.     Released on Production = 270
+  9.     Closed       = 121
+</t>
+  </si>
+  <si>
+    <t>4 task plan to deploy</t>
   </si>
   <si>
     <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
   </si>
   <si>
-    <t>Jayashri (FrontEnd Dev) : 9085424 -- will be on Maternity leave starting December last week. Need replacement against her. (with min 4 Yr experience in react)</t>
+    <t>1) 3 months payment pending
+2) Bill submitted up to September
+3) Need one fronted resource (min 4 yr exp) as replacement of Jayshri Barmase</t>
   </si>
   <si>
     <t>Amit K</t>
@@ -588,28 +589,33 @@
 Provision – as &amp; when required.</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1 &amp; Q2 payment and 60% Capex payment released.
-Q.3, 2% Capex and Diesel Reimbursement Payment Received. - 16th Oct. 2025
+    <t>Q1 &amp; Q2&amp; Q3 payment and 60% Capex payment  and also 2% capex payment released.
+Q.4 Data preparing for bill submission WIP. (Bill submit before 20 Nov. because some details are pending from HR end Like PF, ESIC and Paid chalan copy etc.)
 32 Manpower deployed as per client requirements.
-Q-4 Documents under  Preparation, submit to PDMC after 20 Nov. 2025.
 ISO Certification Documents parts ready some parts are pending to client end for Audit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some Vendor Payment not received details are submitted on email.
-Video wall repairing work complete because client is issuing a letter for this
-Minimum wages and Statutory Bonus issue from our HR team.  not proper reply from our HR team.
-</t>
+IT Equipment like server switch and storage AMC not start yet.
+Video wall down last one month due to lighting effect.
+Minimum wages and saturatory  Bonus issue not resolved from our HR side.
+1st floor 20 No's Ac AMC not done from HO and Purchase team.</t>
+  </si>
+  <si>
+    <t>Prepare Q.4 Payment Documents and SLA details.
+Video wall Quote and Switch quote submit to Insurance team for claim process.
+IT equipment for AMC vendor visit at site for check all devices.
+Q.4 PM activity and breakdown issues resolve as per requirement.
+Some Vendor Payment not received details are submitted on email to HO team.</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG)
-AMC REQUIRED OLD DC INFRA ON URGENT BASIS.
+    <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG &amp; Delta UPS and Vertiv)
+AMC REQUIRED OLD DC INFRA ON URGENT BASIS because our SAN storage and tape library not working , client is issuing a letter for this.
 For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
-Video wall down last 20 days, Vendor PO pending and insurance team not responding.
-Insurance claim register for video wall and Switches.</t>
+Video wall down last 30 days, Vendor PO pending and insurance team not responding proper time.
+Insurance claim register for video wall and Switches.
+Minimum wages, Increment letter and saturatory  Bonus issue not resolved from our HR side.
+1st floor 20 No's Ac AMC not done from HO and Purchase team.</t>
   </si>
   <si>
     <t>Sachin S</t>
@@ -797,7 +803,7 @@
     <t>Start Date (PO) : 01-Nov-22 :: End Date (PO) : 31-Aug-29</t>
   </si>
   <si>
-    <t>6</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">43.3 L + Taxes (O&amp;M) </t>
@@ -810,15 +816,15 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1. Awaiting the resolution of Payment issue at ISCDL linked bank account, Post part payment will be credited.</t>
-  </si>
-  <si>
-    <t>1. On Friday, dt:- 31-10-2025, Will brief the Go live letter clause as per HO discussion with CEO sir, Post will Go-Live note sheet will prepare.</t>
-  </si>
-  <si>
-    <t>1] Apart from 30Lakh with GST payment, post part payment will start processing from next 10 days.
-2. Work approval required from HO for the execution of ISCDL letter for 11 ATCS junction, 9 ITMS junctions, 3 TVDS and 3 SVDS.
-2] Material approval including dispatching required as per site consumption report.</t>
+    <t xml:space="preserve">1. In accordance with the direction issued by the Hon’ble High Court, the bank guarantee (BG) submitted by the contractor for the MOG Land Monetisation project has been found to be forged. Consequently, the bank account of the Smart City entity connected to this project has been frozen, together with all associated funds.
+2. As of today, the Smart City entity has no available funds in its bank account for project mobilization or disbursement.
+</t>
+  </si>
+  <si>
+    <t>1. Draft letter as per submitted GO-Live letter are under review by CEO sir. Expected to received final letter in upcoming week.</t>
+  </si>
+  <si>
+    <t>1. There is no clarity against the payment availability at Smart city.</t>
   </si>
   <si>
     <t>Akash K</t>
@@ -1163,9 +1169,6 @@
     <t>Start Date (PO) : 25-Aug-25 :: End Date (PO) : 24-Aug-27</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>21.25 L</t>
   </si>
   <si>
@@ -1178,25 +1181,20 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t>Primary website for ITPO has been developed with a Content Management System, and we are currently addressing UI and logic feedback provided by the client.
-Shakun has been assigned to this project as the UI/UX Figma designer from 15-10-2025 for a duration of 15 days. However, her proficiency with Figma is not sufficient to meet the project's needs.
-We presented the Figma design for the website's landing page to ITPO's senior officials, who reviewed it and provided positive feedback, confirming that we can proceed with the design for development. NeGD was not present during that meeting or the recent review sessions.
-According to NeGD, the Figma design does not align with their expectations.
-Functional &amp; logical KT started with Daffodil (old Vendor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- We are currently focusing on refining the logical feedback for the Admin backend panel. 
-- Key Official data is still pending from ITPO, and we will proceed once it's received. 
-- Google Map API key is awaiting approval from NeGD; ITPO has requested a formal email from NeGD to facilitate this. 
-- Bhashini Language Translation script has been implemented, but domain registration is still pending. An email has already been sent regarding this matter. Currently we are getting 401 authentication error. </t>
+    <t xml:space="preserve">- Main website has been developed, and we are currently implementing feedback received from ITPO.
+- Enhancements to the Admin Panel functionality are underway.
+- Knowledge transfer (KT) for the Booking Portal is in progress.
+</t>
+  </si>
+  <si>
+    <t>- New Figma designs for the inner pages are in progress. Once approved, the inner pages will be redeveloped accordingly.
+- Knowledge Transfer (KT) activities will continue.
+- Newly developed corporate website is expected to go live soon.</t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
 - Frontend: Angular
 - DB: MySQL</t>
-  </si>
-  <si>
-    <t>NeGD is not fully satisfied with Shakun's performance. We require another UI/UX resource who is highly proficient in Figma design</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1436,7 +1434,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{FB69F9FA-5267-4885-8B10-47919D8AF790}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2DBDDEFD-9FB0-449A-9B74-154EAD2B4EBF}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1765,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DCDAEA-59E9-4FD3-A389-BF7538BD99ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C165E4DA-0ACD-4DFC-8B0B-364E9F0448A0}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1889,22 +1887,22 @@
         <v>840.24454680000008</v>
       </c>
       <c r="H2" s="8">
-        <v>610.78027930000064</v>
+        <v>634.12040560000059</v>
       </c>
       <c r="I2" s="8">
         <v>23</v>
       </c>
       <c r="J2" s="8">
-        <v>633.78027930000064</v>
+        <v>657.12040560000059</v>
       </c>
       <c r="K2" s="8">
         <v>55.000000000000007</v>
       </c>
       <c r="L2" s="9">
-        <v>229.46426749999944</v>
+        <v>206.12414119999949</v>
       </c>
       <c r="M2" s="8">
-        <v>163.38088410000015</v>
+        <v>186.72101040000018</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -1913,7 +1911,7 @@
         <v>34</v>
       </c>
       <c r="P2" s="10">
-        <v>0.72690775754047487</v>
+        <v>0.75468553531825255</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>35</v>
@@ -1943,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45959</v>
+        <v>45967</v>
       </c>
       <c r="AA2" s="13">
         <v>0.53779761992455066</v>
@@ -1981,31 +1979,31 @@
         <v>1440.002</v>
       </c>
       <c r="H3" s="8">
-        <v>753.32419400000003</v>
+        <v>798.38669400000003</v>
       </c>
       <c r="I3" s="8">
         <v>36</v>
       </c>
       <c r="J3" s="8">
-        <v>789.32419400000003</v>
+        <v>834.38669400000003</v>
       </c>
       <c r="K3" s="8">
         <v>7.0000000000000009</v>
       </c>
       <c r="L3" s="9">
-        <v>686.67780599999992</v>
+        <v>641.61530599999992</v>
       </c>
       <c r="M3" s="8">
-        <v>253.83750000000001</v>
+        <v>298.89999999999998</v>
       </c>
       <c r="N3" s="8">
-        <v>36.262500000000003</v>
+        <v>45.0625</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P3" s="10">
-        <v>0.5231410748040628</v>
+        <v>0.55443443411884152</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>35</v>
@@ -2088,10 +2086,10 @@
         <v>415.40868667457613</v>
       </c>
       <c r="M4" s="8">
-        <v>180.89820959999994</v>
+        <v>180.89820959999989</v>
       </c>
       <c r="N4" s="8">
-        <v>33.308850800000002</v>
+        <v>0</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>60</v>
@@ -2183,7 +2181,7 @@
         <v>679.61924999999997</v>
       </c>
       <c r="N5" s="8">
-        <v>280.35000000000002</v>
+        <v>0</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>74</v>
@@ -2275,7 +2273,7 @@
         <v>62.209375000000001</v>
       </c>
       <c r="N6" s="8">
-        <v>62.209375000000001</v>
+        <v>0</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>88</v>
@@ -2459,7 +2457,7 @@
         <v>453.21092499999997</v>
       </c>
       <c r="N8" s="8">
-        <v>67.590599999999995</v>
+        <v>0</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>60</v>
@@ -2587,7 +2585,7 @@
         <v>137</v>
       </c>
       <c r="Z9" s="12">
-        <v>45954</v>
+        <v>45967</v>
       </c>
       <c r="AA9" s="13">
         <v>0.16973100550277276</v>
@@ -2735,7 +2733,7 @@
         <v>38.191476400000006</v>
       </c>
       <c r="N11" s="8">
-        <v>31.8038518</v>
+        <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>154</v>
@@ -3047,7 +3045,7 @@
         <v>191</v>
       </c>
       <c r="Z14" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA14" s="13">
         <v>5.8906222519107154E-2</v>
@@ -3195,7 +3193,7 @@
         <v>347.80687999999998</v>
       </c>
       <c r="N16" s="8">
-        <v>12.446099999999999</v>
+        <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>209</v>
@@ -3379,7 +3377,7 @@
         <v>171.31355930000001</v>
       </c>
       <c r="N18" s="8">
-        <v>39.533898300000004</v>
+        <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>233</v>
@@ -3400,7 +3398,7 @@
         <v>237</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>238</v>
@@ -3471,7 +3469,7 @@
         <v>33.408000000000001</v>
       </c>
       <c r="N19" s="8">
-        <v>22.271999999999998</v>
+        <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>246</v>
@@ -3670,28 +3668,28 @@
         <v>268</v>
       </c>
       <c r="S21" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="X21" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>275</v>
+      <c r="Y21" s="11">
+        <v>0</v>
       </c>
       <c r="Z21" s="12">
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="AA21" s="13">
         <v>0.34652488000000004</v>
@@ -3703,7 +3701,7 @@
         <v>265</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3711,13 +3709,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>277</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>279</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3748,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3757,28 +3755,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>136</v>
       </c>
       <c r="T22" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="V22" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="W22" s="24" t="s">
         <v>283</v>
-      </c>
-      <c r="V22" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>285</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>136</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3790,10 +3788,10 @@
         <v>98</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3804,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB9BA06D-1C29-41A1-AADF-DE3E2E691031}</x14:id>
+          <x14:id>{BEC2E4B3-5607-47FD-897A-87497E0E4795}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3816,7 +3814,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BA06D-1C29-41A1-AADF-DE3E2E691031}">
+          <x14:cfRule type="dataBar" id="{BEC2E4B3-5607-47FD-897A-87497E0E4795}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BA1FDEA-4C03-493C-92CD-CD66C904A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EACE9E-D330-4188-9ECB-CCCAEBE29750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FAA2448B-A95A-4CF3-8820-E51F0B55E35E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{03A7EC0C-6603-4ADD-A1B1-0ECB1717D9E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="288">
   <si>
     <t>SN</t>
   </si>
@@ -951,7 +951,7 @@
     <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
   </si>
   <si>
-    <t>215</t>
+    <t>216</t>
   </si>
   <si>
     <t>72.86 L</t>
@@ -960,11 +960,15 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t>2 Candidates Trained today and will join CP OFFICE &amp; WORLI
-July-2025 Months AR has been followed with customer on mail</t>
-  </si>
-  <si>
-    <t>20 Candidates need to shortlist and to be deployed</t>
+    <t xml:space="preserve">New 5 Candidates selected, trained and joined till 6th November,2025
+ </t>
+  </si>
+  <si>
+    <t>Shortlist, Interview and Train new 20 Candidates.</t>
+  </si>
+  <si>
+    <t>Recruitment of 20 Candidates
+New Work Order for extension period</t>
   </si>
   <si>
     <t>Jaywant P</t>
@@ -998,31 +1002,30 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Overall Progress (Summary)
-Primary &amp; Backup Servers: Fully configured, tested, and installed in NOC room. No pending issues.
-Substations 1, 2 &amp; 3: Network setup completed; pending switch rack installation by JNPA. CMS to enable data retrieval in 2–3 days after availability.
-Main Substation: Communication established; awaiting API details from JNPA SCADA vendor for EEMS integration.
-ABT Meters: Two meters installed; pending series connection with Incomer 1 &amp; 2 and switch port enablement. Awaiting MSETCL response.
-RMU Panel: Survey completed; pending OFC network and switch readiness from JNPA.
-Water Flow Meters: 62 delivered, 5 installed; pending infrastructure readiness from Water Dept. ~30 more (40 mm) meters to be installed after confirmation.
-Consumer Billing Meters: MPLS setup in progress; antenna and civil works done. Link testing ongoing; SIM activation and modem setup next.
-Cloud Registration: AWS account successfully registered.
-Software: Deployed and integrated at NOC server; supports multi-user access. Enhancements to be added as live data begins streaming.</t>
-  </si>
-  <si>
-    <t>MPLS link testing and completion. Further sim activation and modem installation for billing meter communication.</t>
+    <t>Primary &amp; Backup Servers: Fully configured, tested, and installed in NOC room. Ready for use.
+Substations 1–3 (MFM): Network setup done; awaiting switch installation/port enabling by JNPA. CMS to enable data retrieval in 2–3 days post availability.
+Main Substation (MFM): Communication established; awaiting API support from JNPA SCADA vendor for EEMS integration.
+ABT Meters: Installed; awaiting series connection by MSETCL and switch port activation by JNPA.
+RMU Panels: Survey completed; awaiting OFC network and switch from JNPA to start communication setup.
+Water Flow Meters: 62 delivered, 5 installed; infra readiness awaited from Water Dept. ~30 more (40 mm) to be installed.
+Consumer Billing Meters: MPLS connectivity to NOC server established; link testing in progress before SIM and modem setup.
+Cloud Registration: AWS account created and active.
+Software: Deployed on NOC server; all modules integrated, supports multi-user access. Enhancements to follow with live data.</t>
+  </si>
+  <si>
+    <t>MPLS setup is completed, and sim card testing is planned for this week.</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>Challenges / Risks
-Network Dependencies: Delay in switch rack installation and port enablement by JNPA vendors affecting meter communication setup.
-Coordination with MSETCL: Pending response for ABT meter series connection causing delays in integration.
-SCADA Integration: Awaited API support from JNPA SCADA vendor for data transfer to EEMS.
-OFC &amp; Infrastructure Readiness: RMU and Water Flow Meter installations dependent on JNPA’s OFC and civil infrastructure readiness.
-Water Dept. Coordination: Pending confirmation on meter installation readiness (valves, ducts, power).
-MPLS Link Testing: Delay in completion may impact consumer meter data retrieval timeline.</t>
+    <t xml:space="preserve">Network Dependencies: Delays in switch installation and port enabling by JNPA vendors.
+Third-Party Coordination: Awaited responses from MSETCL and JNPA SCADA vendors affecting integration timelines.
+Infrastructure Readiness: Pending civil and electrical works (valves, ducts, power) for water meter installation.
+Data Integration Delays: API details and testing dependencies slowing EEMS integration.
+MPLS Link Testing: Ongoing testing could delay consumer meter data flow.
+Scope Clarifications: Pending confirmation of revised SEZ and RMU scope.
+</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1434,7 +1437,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2DBDDEFD-9FB0-449A-9B74-154EAD2B4EBF}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{29FFB86E-8B62-46D9-96ED-7425BCCA1CB1}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1763,7 +1766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C165E4DA-0ACD-4DFC-8B0B-364E9F0448A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A1AA33-11E1-467A-BC98-7013A8077528}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3318,10 +3321,10 @@
         <v>136</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z17" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA17" s="13">
         <v>0.60186008759672394</v>
@@ -3333,7 +3336,7 @@
         <v>219</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3341,19 +3344,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3380,40 +3383,40 @@
         <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z18" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA18" s="13">
         <v>0.22378829916704679</v>
@@ -3422,10 +3425,10 @@
         <v>98</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3433,13 +3436,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3472,37 +3475,37 @@
         <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P19" s="10">
         <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="12">
         <v>45960</v>
@@ -3514,7 +3517,7 @@
         <v>98</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>99</v>
@@ -3525,13 +3528,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3573,28 +3576,28 @@
         <v>136</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>136</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3606,10 +3609,10 @@
         <v>98</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3617,13 +3620,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3656,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3665,25 +3668,25 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>186</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3698,10 +3701,10 @@
         <v>98</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3709,13 +3712,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>73</v>
@@ -3746,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P22" s="23">
         <v>0</v>
@@ -3755,28 +3758,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>136</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>136</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z22" s="25">
         <v>45925</v>
@@ -3788,10 +3791,10 @@
         <v>98</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +3807,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEC2E4B3-5607-47FD-897A-87497E0E4795}</x14:id>
+          <x14:id>{5052C84B-844B-477C-B5FE-06AEE45377D6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3814,7 +3817,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BEC2E4B3-5607-47FD-897A-87497E0E4795}">
+          <x14:cfRule type="dataBar" id="{5052C84B-844B-477C-B5FE-06AEE45377D6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EACE9E-D330-4188-9ECB-CCCAEBE29750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3E4FC3-2BA4-4135-9836-7A4252946212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{03A7EC0C-6603-4ADD-A1B1-0ECB1717D9E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAB3F690-FB27-4CB7-81A6-E0CB0C5992C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -449,30 +449,34 @@
 Deployment of proposed 33 resources. (+5 in phase 2)</t>
   </si>
   <si>
-    <t>→ Phase 1 all 4 tracks billing completed
-→ Payment received till Track 3 for Phase 1.
+    <t xml:space="preserve">→ Phase 1 all 4 tracks billing completed.
+→ Payment received till Track 4 for Phase 1.
 → All Nine modules of Phase I development &amp; production deployment is done.
-→ Drone moved to Phase II
-→ BICRS development done, moved to UAT. Awaiting client sign-off.
-→ Road Closure development done, moved to UAT. Awaiting client sign-off.
-→ Phase II requirement gathering done for Road Closure, Document Repository, Critical Correspondence, and Payments, Schedule H, Highway QR.
-→ Requirement gathering completed for CO Division (Onboarding, Toll Master)
+→ Drone moved to Phase II.
+→ BICRS, Highway QR deployed on production.
+→ Phase II requirement gathering done for Road Closure, Document Repository, Critical Correspondence, and Payment to AE/IE, Digitization Schedule H, CO Division (Onboarding, Toll Master), NSV.
+→ Requirement gathering in progress for NCR.
 → Development in progress on
-Document Repository
-Critical Correspondence</t>
-  </si>
-  <si>
-    <t>→ Deployment of BICRS on production.
-→ Deployment of Road Closure on production.
-→ Development of Highway QR, Document Repository, Critical Correspondence, CO Division (Onboarding, Toll Master) and feature enhancements from phase 1 modules.
-→ Requirement gather for other modules of phase II - Schedule digitization (G, H &amp; M), correspondence module, Document Library, Payment for AE, Employee Directory</t>
+Road Closure. Expected UAT date is 10th Nov.
+Document Repository. Expected UAT date is 10th Nov.
+Critical Correspondence. Expected UAT date is 10th Nov.
+</t>
+  </si>
+  <si>
+    <t>→ Development of Document Repository, Critical Correspondence and feature enhancements from phase 1 modules.
+→ Deployment of:
+Road Closure.
+Document Repository. 
+Critical Correspondence. 
+→ Requirement gather for other modules of phase II - Schedule digitization (G &amp; M), Employee Directory, Financial Progress, Toll Collection API, Rectification of Black Spot, Road Accident Monitoring &amp; Reduction API.</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
   </si>
   <si>
     <t>→ Phase II timelines are quite tight considering the workload and current team capacity.
-→ Timely onboarding of additional resources will be crucial.</t>
+→ Timely onboarding of additional resources will be crucial.
+→ Scope addition / Change Requests in ongoing development, even on the final day.</t>
   </si>
   <si>
     <t>Mukul K / Agam V</t>
@@ -506,53 +510,41 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Krishi MApper
+    <t>Krishi MApper
 • API Consumption
-1. AMI API: reflecting on GIS/Survey Count dashboard 
-2. Mahadbt-API/patanjali API/karnatka RKVY API  : WIP
+1. AMI API: reflecting on GIS/Survey Count dashboard
+2. Mahadbt-API/patanjali API/karnatka RKVY API: WIP
 • Scheme on boarding
-1. PKVY : feedback shared from tester - WIP for fixing issue
-2. oil seed Assets : feedback shared from tester - WIP for fixing issue
-3. NBM : testing on progress
-• Power BI Dashboard : Need to incorporate with API to get updated data
-• Count Dashboard— FY wise / scheme wise / state wise : testing going on over staging
-• GIS Dashboard : API/query optimization for data
-Natural Farming :
+1. PKVY, Oil seed Assets, NBM APP: Done
+• Power BI Dashboard: Under Process (Continue Updating from consultant side regarding the schemes data report visual)
+• Survey Count Dashboard— FY wise / scheme wise / state wise: Done
+• GIS Dashboard: API/query optimization for data Pending due to short of Database developer
+2. Natural Farming:
 • Fixing users highlighted issue
-AI-KOSH
-• APIs to share for metadata for all scheme : some APIs are shared : meeting schedule for review of API
-Krishi Unnati
-• MIS report discussed with client. Some design will shared to freeze before development start
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Krishi MApper
-• API Consumption
-1. Data count to show over dashoard for state API which is consumed
-2. Mahadbt-API/patanjali API/karnatka RKVY API  : consume and show over dashboard
-• Scheme on boarding
-1. PKVY : deploy over production/play store
-2. oil seed Assets : deploy over production/play store
-3. NBM : deploy over production/play store
-• Power BI Dashboard : deploy over production
-• Count Dashboard— FY wise / scheme wise / state wise : deploy over production
-• GIS Dashboard :deploy over production
-Natural Farming :
-• Fixing users highlighted issue
-AI-KOSH
-• APIs to share for metadata for all scheme : all APIs to be share
-Krishi Unnati
-• MIS report : work on report</t>
+• New observation needs to be added in KM Natural Farming App. It's under progress
+3. AI-KOSH
+• ACABC, Integration, Soil Lab Testing APIs share with AI-Kosh team. Now working on AIF API for metadata for all scheme: some APIs are shared: meeting schedule for review of API
+4. Krishi Unnati
+• MIS report discussed with client. Some design will share to freeze before development start
+5. Upaj
+• Done DCS module completed by team. 
+• Tomorrow review meeting scheduled for Team progress</t>
+  </si>
+  <si>
+    <t>1. Krishi Mapper: Complete portal CSV report optimization and survey count dashboard improve flexibility report
+2. Natural Farming: Give Demo for latest mobile app to JS and optimize web portal
+3. Upaj : Clear all previous requirement and share the done work document with Director
+4. Krishi Unnati : Deliver MIS report and start working Agency Module
+5. AI-KOSH : Deliver schemes API as requested</t>
   </si>
   <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
   </si>
   <si>
-    <t xml:space="preserve">
-GIS dashboard/survey count query issue : query is more complex and need to optimize.
-A dedicated database developer is required at our end to fix it : one developer is already shortlisted and mailed for the further process
-  </t>
+    <t>1. Require dedicated Database Developer for Upaj Project
+2. Urgent require database developer for MoAFW all projects for upto 6 months
+3. UI/UX designer replacement
+4. Lack of documentation from consultant and existing team side.</t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -918,19 +910,22 @@
 5. All materials delivered at site as per PO Qty.
 6. 97% billing done.
 7. Accessories not yet delivered.
-8. 4 Nos. VMD foundation pending 
-9. 10 ECB foundation work in progress.
-10. Cable laying, connection, configuration and commissioning pending. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 10 Nos. ECB foundation work.
-2. 4 Nos. VMD foundation work. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Accessories not yet purchased and delivered. Pending from purchase.
-2. VMD controller not yet delivered. Pending due to payment issue.
-3. Cable laying, digging, etc work order not yet given to local vendor. Pending from purchase.
-4. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. </t>
+8. 4 Nos. VMD foundation pending. Location not approved by Police department. Survey done by PMC and Honeywell team. 
+9. 13 Nos. ECB foundation done.
+10. Cable laying, connection, configuration and commissioning pending.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 7 Nos. ECB foundation work.
+2. 4 Nos. VMD foundation work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation. 
+2. VMD controller not yet delivered. Pending due to payment issue. Need support from HO.
+3. Cable laying, digging, etc work order not yet given to local vendor. Pending from purchase. Need to follow-ups with purchase team.
+4. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. After discussion with me, Santosh Sir and Vaibhav Sir over the phone with Mr. Deepak Pathak, Bonsai still not supplied any accessories as per SOW for VMD installation work. Need to complete discussion with Bonsai and CMS stakeholders. Payment also a big issue. 
+</t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -1437,7 +1432,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{29FFB86E-8B62-46D9-96ED-7425BCCA1CB1}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{59EFC075-C1B3-4755-BDFC-81B52843475A}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1766,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A1AA33-11E1-467A-BC98-7013A8077528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0677D7E0-2CB3-434A-826D-0C86009D9951}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2404,7 +2399,7 @@
         <v>112</v>
       </c>
       <c r="Z7" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA7" s="13">
         <v>0.15992064345319656</v>
@@ -2496,7 +2491,7 @@
         <v>124</v>
       </c>
       <c r="Z8" s="12">
-        <v>45939</v>
+        <v>45967</v>
       </c>
       <c r="AA8" s="13">
         <v>0.1099999998749408</v>
@@ -3232,7 +3227,7 @@
         <v>216</v>
       </c>
       <c r="Z16" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA16" s="13">
         <v>0.21114271514376304</v>
@@ -3807,7 +3802,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5052C84B-844B-477C-B5FE-06AEE45377D6}</x14:id>
+          <x14:id>{2210685F-3863-4F32-B59D-6EDDE1A492F0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3817,7 +3812,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5052C84B-844B-477C-B5FE-06AEE45377D6}">
+          <x14:cfRule type="dataBar" id="{2210685F-3863-4F32-B59D-6EDDE1A492F0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3E4FC3-2BA4-4135-9836-7A4252946212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7845522-AAFC-402F-85BD-94FAF44A716F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAB3F690-FB27-4CB7-81A6-E0CB0C5992C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B676BCFD-5C10-4065-824B-E31BDD0FF1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="312">
   <si>
     <t>SN</t>
   </si>
@@ -200,7 +200,7 @@
     <t>Start Date (PO) : 10-Jan-24 :: End Date (PO) : 09-Jan-27</t>
   </si>
   <si>
-    <t>27 ((16 resources from GAIA – 11 from CMS)</t>
+    <t>27 ((16 resources from GAIA + 11 from CMS)</t>
   </si>
   <si>
     <t>45.06 L</t>
@@ -213,29 +213,28 @@
   </si>
   <si>
     <t xml:space="preserve">1. 27 resources on-boarded. (16 resources from GAIA – 11 from CMS)
-2. Payment received till Aug’25. invoicing done for Sep’25.
+2. Payment received till Aug’25. Payment expected for Sep’25 in next week.
 3. DWR mobile app: changes done for dumpsite, bug fixing ongoing. 
-4. New SBM Dashboard ver2.0 (Legacy waste &amp; Toilets): bug fixing ongoing as per PMU comments. SS: 5 resources onboarded.
+4. New SBM Dashboard ver2.0 (SWM, Legacy waste &amp; Toilets): bug fixing ongoing as per PMU comments. SS: 5 resources onboarded.
 5. UWM Action Plan: additional points added from CPEEHO: Testing ongoing
 6. GFC Indicator logic implemented in DB and changes ongoing in UI side.
-7. Engineer App: Geo location enabled in iOS/Android-verification ongoing.
+7. Engineer App: Geo location enabled in iOS/Android-verification done.
 8. Implementation of Media Service in Java-Ongoing.
-9. Website updates ongoing. NUC Registration portal: Changes Ongoing
+9. Website updates ongoing. NUC Registration portal: Changes Ongoing, if any.
 10. SS Scoring logic and result declaration: understanding excel sheet
 </t>
   </si>
   <si>
     <t xml:space="preserve">1. Maintenance activities: Daily ULB support, Website changes ongoing.
-2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing by PMU. 
-3. DWR Mobile App pilot planned for dumpsite.
-4. SS Handover: Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration done. Doc prepared to update libraries which are old/outdated/deprecated.
+2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing by PMU. DWR Mobile App pilot planned for dumpsite in Nov’25.
+3. SS Handover : Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration done. Doc prepared to update libraries which are old/outdated/deprecated.
 </t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Replacement of DevOps not finalized yet. Need to sensitize HR on this.
+    <t xml:space="preserve">1. Replacement of DevOps has joined on 6th Nov. we have only 1 day for his KT. Delayed hiring from HR. Need to be sensitize HR to fill positions ontime.
 2. Majority of team members working remotely. 
 </t>
   </si>
@@ -400,18 +399,15 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t>We are addressing production-related issues and delivering UAT feedback observations. We have delivered 8 UAT HRMS points, and 3 more HRMS points are planned for delivery. We are also delivering UAT observations for the Finance module. Additionally, 4 Finance UAT points are ready for delivery. From the BI tool, the HRMS and Legal dashboards have been developed and delivered to the client</t>
-  </si>
-  <si>
-    <t>Finance module UAT and production issues related to employees.</t>
+    <t>Delivery of the BI tool for the Legal Department completed. Data migration for the month of April completed for the Finance module. Two UAT points from the Finance module delivered; remaining UAT points are in progress. Twenty-one production issues resolved this week</t>
+  </si>
+  <si>
+    <t>Delivery of production issues and Finance module UAT points</t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -439,7 +435,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>As per achievment, Phase 1 - 321 L</t>
+    <t>As per achievment, Phase 1 - 321 L, Phase 2 onwards - 350 L</t>
   </si>
   <si>
     <t>Developing and Maintaining a state-of-the-art Application to support transaction-based business processes covering entire lifecycle of National Highway projects of NHAI – Data Lake 2.0 upgradation.
@@ -638,7 +634,7 @@
   <si>
     <t>1)Jan23 to Sept25 (Total 11 quarters payment released- 75%)
 2)24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withhold payment- KSCL will not pay to TechM (re-imbursement)- KSCL will not pay to Tech M reimburesement and will have to be paid by Tech M to CMS
-3) Billing done for JJA25 &amp; SON25 Qtr</t>
+3) Billing done for AMJ25 &amp; JAS24 Qtr</t>
   </si>
   <si>
     <t>1) To expedite ATCS -23 junctions for making it operational
@@ -647,19 +643,19 @@
 4) Reimbursement of recurring charges from Tech-M
 5) Release of 25% retention/withheld amount
 6) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
-7) Coordination with vendor Text Local for redemption of credit points on vendor's migration to new portal
-8)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,</t>
+7)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,
+8)Coordination with purchase to issue an amended P.O for M/s Commend towards their AMC services for P.A system
+9) Deployment of smart parking sensors at sites that can be completed as per the existing quantity of sensors.</t>
   </si>
   <si>
     <t xml:space="preserve">1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
 2)Vendor Videonetics "Time for Red" feature not yet been delivered despite the forgone timeline. Client now want to replace CMS.
-3)Battery order is awaited
+3)Battery order is placed and expected around 8th Nov for its delivery. 
 4)VMSB devices facing recurring problems (dark spots, black lines, component failures).Smart Parking sensors &amp; VMSB card-related issues.
-5)HDD order for LPU is awaited as a result of which system at various junction has downtime.
-6) Smart parking affected due to unavailability of sensors, and no visibility of it has irrated the client.
-7) Messaging vendor Text local have retired its services and recommended another enterprise Arihant global whose credit top up is required. Absence of it shall stall GPR &amp; Wi-fi services in the proj
-8) DR/DC – The OEM ESDS services has expired in Dec’24 and has been disabled.  
-9)Client’s requirement of inventory list.
+5)DR/DC – The OEM ESDS services has expired in Dec’24 and has been disabled.  
+6) Smart parking affected due to unavailability of sensors, and 45 days delivery time expected.
+7)HDD order for LPU is awaited as a result of which system at various junction has downtime.
+8)Client’s requirement of inventory list.
 </t>
   </si>
   <si>
@@ -849,20 +845,17 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fixing the bugs and enhancements in all the modules.
-Started working on Liferay website upgrade.
-</t>
-  </si>
-  <si>
-    <t>Fixing the bugs and enhancements in all the modules.
-Planning to start the FA CO modules development.
-Will continue with Website upgrades.</t>
+    <t>We are fixing the bugs for HRMS, SM, MM.
+For FA, we are working segment report</t>
+  </si>
+  <si>
+    <t>Planning to send an email to customer to schedule a meeting with CMD</t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
   </si>
   <si>
-    <t>No Risks</t>
+    <t>IREL is planning to migrate the website from ESDS to NIC</t>
   </si>
   <si>
     <t>Priya R</t>
@@ -1044,7 +1037,7 @@
     <t>Start Date (PO) : 09-Jun-25 :: End Date (PO) : 08-Oct-25</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
   </si>
   <si>
     <t>As per achievment.</t>
@@ -1059,9 +1052,7 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Modules Completed
-1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
+    <t xml:space="preserve">1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
 2. Landing Page – Developed and deployed interactive dashboard with quick navigation to all major modules.
 3. Agency Selection – Functionality for selecting and managing agencies successfully integrated.
 4. View Girder Assignment – Module to view girder assignment details completed and tested.
@@ -1083,23 +1074,23 @@
 20. Layout, Master Plates, Jigs, Joints &amp; Fixtures – Inspection Request – Partially completed; inspection request generation and workflow integration ongoing.
 21. Cutting, Straightening &amp; Edge Preparation – Inspection Request – Partially completed; validation and backend service linkage under progress.
 Plan
-Module work in progress
-1.Inspection 2.Workshop
+22. Fabrication QA
+23. Workshop development
+24. inspection development
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Working on Inspection 
-and 2. Workshop module 
-</t>
+    <t>1. Demo for RDSO
+2.Inspection &amp; Workshop QA</t>
   </si>
   <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
   </si>
   <si>
-    <t>1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
-2. The project comprises 302 screens (132 complex, 170 average), spanning Fabrication, Inspection, Workshop, and Approval modules.
-3. Fabrication and Inspection modules exhibit high complexity owing to multiple process stages such as WPQR, Raw Material, Welding, and Assembly.
-4.Approval workflows involving multi-level roles (Agency, ADE/B&amp;S, Directors) add significant logic, validation, and access control complexity.</t>
+    <t xml:space="preserve">
+Challenges / Risks
+1.Due to continuous changes in PRD and Figma designs, development work is in progress.
+2. Waiting for RDSO feedback/changes</t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1108,7 +1099,13 @@
     <t>DIGITAL INDIA CORP - NOC</t>
   </si>
   <si>
-    <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : Order to log</t>
+    <t>9 months + O&amp;M</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : 02-Jan-27</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>Development, deployment, and support of NOC Portal with modules for Login, User Registration, Application Submission, and Approval workflows.
@@ -1238,12 +1235,100 @@
     <t>Vinod S</t>
   </si>
   <si>
+    <t>EWDS O&amp;M</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>• Supply, Installation, Testing, Commissioning with O&amp;M for Statewide Early Warning Dissemination System (EWDS) for Kerala State
+• Implementation at SEOC- 80 KVA UPS, Smart rack with Enterprise devices -servers, storage, switches, routers, firewall and the entire application stack. (ICCC-Trinity/EPW-Everbridge/NMS- Motadata /Contact center- Genesys).
+• Implementation at EOC locations across 14 DEOC, 77 TEOC, 14 Fire Stations, 20 Matsya Bhavan and Police Head Quarter( 126 locations).</t>
+  </si>
+  <si>
+    <t>Sreejith V</t>
+  </si>
+  <si>
+    <t>Bhagalpur O&amp;M</t>
+  </si>
+  <si>
+    <t>Bhagalpur Smart City O&amp;M (Shapoorji Pallonji)</t>
+  </si>
+  <si>
+    <t>5 Years</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 06-Nov-23 :: End Date (PO) : 05-Nov-28</t>
+  </si>
+  <si>
+    <t>18.04 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5Years O&amp;M for 
+•	ERP Solutions
+•	16 Nos ATCS junctions
+•	20 Nos ECB
+•	25 Nos PA
+•	15 Nos VMD
+•	60 Nos GPS
+•	ICCC Software 
+-- with ITMS expert and field expert.  </t>
+  </si>
+  <si>
+    <t>Muzaffarpur O&amp;M</t>
+  </si>
+  <si>
+    <t>Muzaffarpur Smart City O&amp;M (Shapoorji Pallonji)</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 25-May-23 :: End Date (PO) : 24-May-28</t>
+  </si>
+  <si>
+    <t>17.63 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5Years O&amp;M for 
+•	ERP Solutions
+•	31 Nos ATCS Junctions
+•	31 Nos ECB
+•	10 Nos PA
+•	31 Nos VMD
+•	ICCC Software
+--- with ITMS expert and filed expert.  </t>
+  </si>
+  <si>
+    <t>DVC O&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	5 Years O&amp;M support including 24X7 DC support and with proper adequate manpower support in field for 48 Substations and Power plants. 
+•	Any Changes in S/w, reports, screen without extra cost as per PO and need to be added other OEM meters in the same T&amp;C. </t>
+  </si>
+  <si>
+    <t>Daman SC</t>
+  </si>
+  <si>
+    <t>Rahul Pol</t>
+  </si>
+  <si>
+    <t>NIRBHAYA VMD</t>
+  </si>
+  <si>
+    <t>•	Nirbhaya Safe City - Variable Messaging Displays (Digital Billboards) for Commissioner of Police – Mumbai 
+•	2 VMD’s to be installed in MMP Region .</t>
+  </si>
+  <si>
+    <t>Vinod S / Anil H</t>
+  </si>
+  <si>
     <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
 a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
 b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
 c) Energy billing system that coverers consumer’s energy monitoring and billing
 -&gt;&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
 -&gt;&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
+  </si>
+  <si>
+    <t>-&gt;N/A</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1475,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1416,6 +1501,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1432,7 +1518,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{59EFC075-C1B3-4755-BDFC-81B52843475A}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1E7CC5E0-8F42-4B4E-AD02-A6ABFE6FB446}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1761,11 +1847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0677D7E0-2CB3-434A-826D-0C86009D9951}">
-  <dimension ref="A1:AD22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAB6B19-9B79-4FA1-B235-3187C6695BA1}">
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AD22"/>
+      <selection sqref="A1:AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1980,7 @@
         <v>657.12040560000059</v>
       </c>
       <c r="K2" s="8">
-        <v>55.000000000000007</v>
+        <v>83</v>
       </c>
       <c r="L2" s="9">
         <v>206.12414119999949</v>
@@ -1986,7 +2072,7 @@
         <v>834.38669400000003</v>
       </c>
       <c r="K3" s="8">
-        <v>7.0000000000000009</v>
+        <v>49</v>
       </c>
       <c r="L3" s="9">
         <v>641.61530599999992</v>
@@ -2031,7 +2117,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA3" s="13">
         <v>0.25894174422612948</v>
@@ -2164,13 +2250,13 @@
         <v>679.61924999999997</v>
       </c>
       <c r="I5" s="8">
-        <v>273</v>
+        <v>93</v>
       </c>
       <c r="J5" s="8">
-        <v>952.61924999999997</v>
+        <v>772.61924999999997</v>
       </c>
       <c r="K5" s="8">
-        <v>352</v>
+        <v>435.99999999999994</v>
       </c>
       <c r="L5" s="9">
         <v>1733.4067499999999</v>
@@ -2256,10 +2342,10 @@
         <v>497.67500000000001</v>
       </c>
       <c r="I6" s="8">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="J6" s="8">
-        <v>683.67499999999995</v>
+        <v>621.67499999999995</v>
       </c>
       <c r="K6" s="8">
         <v>367</v>
@@ -2303,23 +2389,23 @@
       <c r="X6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>45967</v>
+      </c>
+      <c r="AA6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" s="12">
-        <v>45957</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="AB6" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>86</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2327,13 +2413,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2345,58 +2431,58 @@
         <v>2186.2800000000002</v>
       </c>
       <c r="H7" s="8">
-        <v>325.5</v>
+        <v>360.57</v>
       </c>
       <c r="I7" s="8">
-        <v>111.00000000000001</v>
+        <v>89</v>
       </c>
       <c r="J7" s="8">
-        <v>436.5</v>
+        <v>449.57</v>
       </c>
       <c r="K7" s="8">
-        <v>204.99999999999997</v>
+        <v>39</v>
       </c>
       <c r="L7" s="9">
-        <v>1860.7800000000002</v>
+        <v>1825.7100000000003</v>
       </c>
       <c r="M7" s="8">
-        <v>325.5</v>
+        <v>360.57</v>
       </c>
       <c r="N7" s="8">
-        <v>0</v>
+        <v>35.07</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.16492398045995937</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="10">
-        <v>0.14888303419507107</v>
-      </c>
-      <c r="Q7" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="U7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="V7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="W7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="X7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="Z7" s="12">
         <v>45967</v>
@@ -2408,10 +2494,10 @@
         <v>0.32590705634920647</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2419,13 +2505,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -2446,7 +2532,7 @@
         <v>632.73653049999996</v>
       </c>
       <c r="K8" s="8">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="L8" s="9">
         <v>1041.3434695000001</v>
@@ -2467,28 +2553,28 @@
         <v>35</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="T8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="U8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="W8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="Z8" s="12">
         <v>45967</v>
@@ -2500,10 +2586,10 @@
         <v>0.10999999996973608</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2511,19 +2597,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="8">
         <v>1372.5805700000001</v>
@@ -2532,13 +2618,13 @@
         <v>430.5498189000001</v>
       </c>
       <c r="I9" s="8">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J9" s="8">
-        <v>453.5498189000001</v>
+        <v>465.5498189000001</v>
       </c>
       <c r="K9" s="8">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="L9" s="9">
         <v>942.03075109999997</v>
@@ -2550,37 +2636,37 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P9" s="10">
         <v>0.31367908617561158</v>
       </c>
       <c r="Q9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="Z9" s="12">
         <v>45967</v>
@@ -2592,10 +2678,10 @@
         <v>0.11441806775377272</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2603,19 +2689,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="8">
         <v>5337.5</v>
@@ -2624,10 +2710,10 @@
         <v>3431.25</v>
       </c>
       <c r="I10" s="8">
-        <v>762</v>
+        <v>890</v>
       </c>
       <c r="J10" s="8">
-        <v>4193.25</v>
+        <v>4321.25</v>
       </c>
       <c r="K10" s="8">
         <v>923</v>
@@ -2642,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2651,31 +2737,31 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y10" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="X10" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="Z10" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA10" s="13">
         <v>0.34945618360655739</v>
@@ -2684,10 +2770,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2695,19 +2781,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2716,13 +2802,13 @@
         <v>257.29620160000007</v>
       </c>
       <c r="I11" s="8">
-        <v>22</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J11" s="8">
-        <v>279.29620160000007</v>
+        <v>264.29620160000007</v>
       </c>
       <c r="K11" s="8">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="L11" s="9">
         <v>423.39674339999993</v>
@@ -2734,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P11" s="10">
         <v>0.37799157974231695</v>
@@ -2743,25 +2829,25 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="X11" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -2776,10 +2862,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2787,19 +2873,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="8">
         <v>1045.762712</v>
@@ -2826,37 +2912,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="Z12" s="12">
         <v>45954</v>
@@ -2868,10 +2954,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2879,19 +2965,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="8">
         <v>2019.8763390000001</v>
@@ -2918,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -2927,28 +3013,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="X13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="Z13" s="12">
         <v>45960</v>
@@ -2960,10 +3046,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2971,19 +3057,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="8">
         <v>2903.04126</v>
@@ -2992,13 +3078,13 @@
         <v>1722.0305597000006</v>
       </c>
       <c r="I14" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" s="8">
-        <v>1737.0305597000006</v>
+        <v>1735.0305597000006</v>
       </c>
       <c r="K14" s="8">
-        <v>977</v>
+        <v>978.99999999999989</v>
       </c>
       <c r="L14" s="9">
         <v>1181.0107002999994</v>
@@ -3010,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3019,28 +3105,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="Z14" s="12">
         <v>45967</v>
@@ -3052,10 +3138,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3063,13 +3149,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3102,52 +3188,52 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="Z15" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB15" s="13">
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3155,19 +3241,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="8">
         <v>669.18430290000003</v>
@@ -3176,13 +3262,13 @@
         <v>662.96125290000009</v>
       </c>
       <c r="I16" s="8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J16" s="8">
-        <v>680.96125290000009</v>
+        <v>668.96125290000009</v>
       </c>
       <c r="K16" s="8">
-        <v>411.00000000000006</v>
+        <v>426</v>
       </c>
       <c r="L16" s="9">
         <v>6.2230499999999438</v>
@@ -3194,37 +3280,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P16" s="10">
         <v>0.9907005439711728</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="X16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y16" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="Z16" s="12">
         <v>45967</v>
@@ -3236,10 +3322,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3247,19 +3333,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="8">
         <v>437.16408000000001</v>
@@ -3268,10 +3354,10 @@
         <v>433.08388200000002</v>
       </c>
       <c r="I17" s="8">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="J17" s="8">
-        <v>505.08388200000002</v>
+        <v>577.08388200000002</v>
       </c>
       <c r="K17" s="8">
         <v>188</v>
@@ -3286,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3295,28 +3381,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="X17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y17" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="Z17" s="12">
         <v>45967</v>
@@ -3325,13 +3411,13 @@
         <v>0.60186008759672394</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3339,19 +3425,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3366,7 +3452,7 @@
         <v>171.31355930000001</v>
       </c>
       <c r="K18" s="8">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="L18" s="9">
         <v>2.2033901814211276E-8</v>
@@ -3378,37 +3464,37 @@
         <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="Z18" s="12">
         <v>45967</v>
@@ -3417,13 +3503,13 @@
         <v>0.22378829916704679</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3431,13 +3517,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3470,52 +3556,52 @@
         <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P19" s="10">
         <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="Z19" s="12">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="AA19" s="13">
         <v>0.86590914152298848</v>
       </c>
       <c r="AB19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC19" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD19" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="AC19" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD19" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -3523,13 +3609,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3561,53 +3647,53 @@
       <c r="N20" s="8">
         <v>0</v>
       </c>
-      <c r="O20" s="17">
-        <v>0</v>
+      <c r="O20" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="P20" s="10">
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>259</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3615,13 +3701,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3636,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J21" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -3654,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3663,25 +3749,25 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3693,107 +3779,659 @@
         <v>0.34652488000000004</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
-        <v>0</v>
-      </c>
-      <c r="J22" s="21">
-        <v>0</v>
-      </c>
-      <c r="K22" s="21">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
-        <v>0</v>
-      </c>
-      <c r="N22" s="21">
-        <v>0</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="P22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="24" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="S22" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="T22" s="24" t="s">
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="S22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="T22" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="V22" s="24" t="s">
+      <c r="U22" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="W22" s="24" t="s">
+      <c r="V22" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="X22" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y22" s="24" t="s">
+      <c r="W22" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="Z22" s="25">
+      <c r="X22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z22" s="12">
         <v>45925</v>
       </c>
-      <c r="AA22" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB22" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC22" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD22" s="28" t="s">
-        <v>286</v>
+      <c r="AA22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC22" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD22" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6660.9289406779662</v>
+      </c>
+      <c r="H23" s="8">
+        <v>6209.0702939000003</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>6209.0702939000003</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>451.85864677796599</v>
+      </c>
+      <c r="M23" s="8">
+        <v>157.10576839999999</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0.93216281830924697</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="S23" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z23" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0.42434365454578726</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>4.7055080021901952E-2</v>
+      </c>
+      <c r="AC23" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD23" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="8">
+        <v>360.9787</v>
+      </c>
+      <c r="H24" s="8">
+        <v>126.342545</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>126.342545</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>234.636155</v>
+      </c>
+      <c r="M24" s="8">
+        <v>90.244675000000001</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="S24" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z24" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>0.15841573956451205</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0.42701644292272078</v>
+      </c>
+      <c r="AC24" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="8">
+        <v>352.65960000000001</v>
+      </c>
+      <c r="H25" s="8">
+        <v>158.69682</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>158.69682</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>193.96278000000001</v>
+      </c>
+      <c r="M25" s="8">
+        <v>52.898940000000003</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="S25" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z25" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>0.54524491322510427</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0.67739458815242792</v>
+      </c>
+      <c r="AC25" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1275.816245</v>
+      </c>
+      <c r="H26" s="8">
+        <v>11.875325</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
+        <v>11.875325</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1263.94092</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="P26" s="10">
+        <v>9.3080214698159774E-3</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="S26" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z26" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>0.68765168853167546</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0.51174435922491024</v>
+      </c>
+      <c r="AC26" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD26" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="S27" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z27" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC27" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD27" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="21">
+        <v>108.12905000000001</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10.812905000000001</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0</v>
+      </c>
+      <c r="J28" s="21">
+        <v>10.812905000000001</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0</v>
+      </c>
+      <c r="L28" s="22">
+        <v>97.316145000000006</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="P28" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="R28" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="S28" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T28" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="U28" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="V28" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="W28" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="X28" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y28" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z28" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB28" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC28" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD28" s="29" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T2:Y22 P2:R22">
+  <conditionalFormatting sqref="T2:Y28 P2:R28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3802,7 +4440,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2210685F-3863-4F32-B59D-6EDDE1A492F0}</x14:id>
+          <x14:id>{CD0AD0C3-354C-4B6F-A6F8-CE5192879125}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3812,7 +4450,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2210685F-3863-4F32-B59D-6EDDE1A492F0}">
+          <x14:cfRule type="dataBar" id="{CD0AD0C3-354C-4B6F-A6F8-CE5192879125}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3826,7 +4464,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T2:Y22 P2:R22</xm:sqref>
+          <xm:sqref>T2:Y28 P2:R28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7845522-AAFC-402F-85BD-94FAF44A716F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C6D0A76-E2E2-4D0D-BAD7-0D56993747AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B676BCFD-5C10-4065-824B-E31BDD0FF1B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C96DBB50-E2F7-4FF4-968F-EDE650E7D43E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="318">
   <si>
     <t>SN</t>
   </si>
@@ -1238,6 +1238,12 @@
     <t>EWDS O&amp;M</t>
   </si>
   <si>
+    <t>National Cyclone Risk Mitigation</t>
+  </si>
+  <si>
+    <t>National Cyclone Risk Mitigation (EWDS) O&amp;M</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -1300,6 +1306,12 @@
     <t>DVC O&amp;M</t>
   </si>
   <si>
+    <t>Damodar Valley Corporation</t>
+  </si>
+  <si>
+    <t>Damodar Valley Corporation O&amp;M</t>
+  </si>
+  <si>
     <t xml:space="preserve">•	5 Years O&amp;M support including 24X7 DC support and with proper adequate manpower support in field for 48 Substations and Power plants. 
 •	Any Changes in S/w, reports, screen without extra cost as per PO and need to be added other OEM meters in the same T&amp;C. </t>
   </si>
@@ -1307,10 +1319,16 @@
     <t>Daman SC</t>
   </si>
   <si>
+    <t>Daman Smart City</t>
+  </si>
+  <si>
     <t>Rahul Pol</t>
   </si>
   <si>
     <t>NIRBHAYA VMD</t>
+  </si>
+  <si>
+    <t>Nirbhaya VMD</t>
   </si>
   <si>
     <t>•	Nirbhaya Safe City - Variable Messaging Displays (Digital Billboards) for Commissioner of Police – Mumbai 
@@ -1518,7 +1536,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1E7CC5E0-8F42-4B4E-AD02-A6ABFE6FB446}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C24B0F94-FE3C-4D3D-9994-FF894EE36DD5}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1847,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAB6B19-9B79-4FA1-B235-3187C6695BA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A298A3F2-6AA2-4220-A468-AF8309BD1514}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3482,7 +3500,7 @@
         <v>237</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>238</v>
@@ -3885,11 +3903,11 @@
       <c r="B23" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C23" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="7" t="e">
-        <v>#N/A</v>
+      <c r="C23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>151</v>
@@ -3922,37 +3940,37 @@
         <v>0</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P23" s="10">
         <v>0.93216281830924697</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S23" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Z23" s="12" t="e">
         <v>#N/A</v>
@@ -3967,7 +3985,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD23" s="15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -3975,13 +3993,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D24" s="7" t="e">
-        <v>#N/A</v>
+        <v>295</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>207</v>
@@ -4014,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P24" s="10">
         <v>0.35</v>
@@ -4023,28 +4041,28 @@
         <v>75</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S24" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Z24" s="12" t="e">
         <v>#N/A</v>
@@ -4067,13 +4085,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" s="7" t="e">
-        <v>#N/A</v>
+        <v>301</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>207</v>
@@ -4106,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P25" s="10">
         <v>0.45</v>
@@ -4115,28 +4133,28 @@
         <v>75</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S25" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Z25" s="12" t="e">
         <v>#N/A</v>
@@ -4159,13 +4177,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="7" t="e">
-        <v>#N/A</v>
+        <v>305</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>207</v>
@@ -4177,19 +4195,19 @@
         <v>1275.816245</v>
       </c>
       <c r="H26" s="8">
-        <v>11.875325</v>
+        <v>1059.0158557000004</v>
       </c>
       <c r="I26" s="8">
         <v>0</v>
       </c>
       <c r="J26" s="8">
-        <v>11.875325</v>
+        <v>1059.0158557000004</v>
       </c>
       <c r="K26" s="8">
         <v>0</v>
       </c>
       <c r="L26" s="9">
-        <v>1263.94092</v>
+        <v>216.80038929999955</v>
       </c>
       <c r="M26" s="8">
         <v>0</v>
@@ -4198,37 +4216,37 @@
         <v>0</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P26" s="10">
-        <v>9.3080214698159774E-3</v>
+        <v>0.83006926730267527</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S26" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Z26" s="12" t="e">
         <v>#N/A</v>
@@ -4251,13 +4269,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="7" t="e">
-        <v>#N/A</v>
+        <v>309</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>73</v>
@@ -4290,37 +4308,37 @@
         <v>0</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P27" s="10">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S27" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Z27" s="12" t="e">
         <v>#N/A</v>
@@ -4335,7 +4353,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4343,13 +4361,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="20" t="e">
-        <v>#N/A</v>
+        <v>312</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>73</v>
@@ -4382,37 +4400,37 @@
         <v>0</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P28" s="23">
         <v>0.1</v>
       </c>
       <c r="Q28" s="24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R28" s="24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S28" s="24" t="e">
         <v>#N/A</v>
       </c>
       <c r="T28" s="24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="X28" s="24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Z28" s="26" t="e">
         <v>#N/A</v>
@@ -4427,7 +4445,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4458,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CD0AD0C3-354C-4B6F-A6F8-CE5192879125}</x14:id>
+          <x14:id>{D776EE4C-6690-440D-B7A9-2321A8D40125}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4450,7 +4468,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CD0AD0C3-354C-4B6F-A6F8-CE5192879125}">
+          <x14:cfRule type="dataBar" id="{D776EE4C-6690-440D-B7A9-2321A8D40125}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C6D0A76-E2E2-4D0D-BAD7-0D56993747AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B9189F-5C72-479E-88D4-B47C512215BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C96DBB50-E2F7-4FF4-968F-EDE650E7D43E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C737C57C-1F54-40A6-BD66-A829F7B0DF55}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="323">
   <si>
     <t>SN</t>
   </si>
@@ -1244,12 +1244,21 @@
     <t>National Cyclone Risk Mitigation (EWDS) O&amp;M</t>
   </si>
   <si>
-    <t>-</t>
+    <t>2 Years (O&amp;M)</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 25-Feb-21 :: End Date (PO) : 27-Feb-28</t>
+  </si>
+  <si>
+    <t>O&amp;M – 618 L (1st Year 237 L &amp; 2nd Year 381 L)</t>
   </si>
   <si>
     <t>• Supply, Installation, Testing, Commissioning with O&amp;M for Statewide Early Warning Dissemination System (EWDS) for Kerala State
 • Implementation at SEOC- 80 KVA UPS, Smart rack with Enterprise devices -servers, storage, switches, routers, firewall and the entire application stack. (ICCC-Trinity/EPW-Everbridge/NMS- Motadata /Contact center- Genesys).
 • Implementation at EOC locations across 14 DEOC, 77 TEOC, 14 Fire Stations, 20 Matsya Bhavan and Police Head Quarter( 126 locations).</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Sreejith V</t>
@@ -1310,6 +1319,12 @@
   </si>
   <si>
     <t>Damodar Valley Corporation O&amp;M</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 01-Feb-24 :: End Date (PO) : 31-Jan-29</t>
+  </si>
+  <si>
+    <t>14.2 L Quarterly (AMC- 7.2 L/Qtr, Data Collection- 7 L/Qtr) &amp;  Audit- 3.2 L/Yr</t>
   </si>
   <si>
     <t xml:space="preserve">•	5 Years O&amp;M support including 24X7 DC support and with proper adequate manpower support in field for 48 Substations and Power plants. 
@@ -1536,7 +1551,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C24B0F94-FE3C-4D3D-9994-FF894EE36DD5}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E9C526C3-75A5-4E76-8DB5-6B588A5845B1}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1865,7 +1880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A298A3F2-6AA2-4220-A468-AF8309BD1514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CEC32D-FC09-40A1-BB66-4B76EB9A7436}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2004,7 +2019,7 @@
         <v>206.12414119999949</v>
       </c>
       <c r="M2" s="8">
-        <v>186.72101040000018</v>
+        <v>186.72101040000015</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -2188,7 +2203,7 @@
         <v>415.40868667457613</v>
       </c>
       <c r="M4" s="8">
-        <v>180.89820959999989</v>
+        <v>180.89820959999994</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
@@ -3500,7 +3515,7 @@
         <v>237</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>238</v>
@@ -3946,31 +3961,31 @@
         <v>0.93216281830924697</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S23" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Z23" s="12" t="e">
         <v>#N/A</v>
@@ -3985,7 +4000,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD23" s="15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -3993,13 +4008,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>207</v>
@@ -4032,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P24" s="10">
         <v>0.35</v>
@@ -4041,28 +4056,28 @@
         <v>75</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S24" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Z24" s="12" t="e">
         <v>#N/A</v>
@@ -4085,13 +4100,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>207</v>
@@ -4124,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P25" s="10">
         <v>0.45</v>
@@ -4133,28 +4148,28 @@
         <v>75</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="S25" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Z25" s="12" t="e">
         <v>#N/A</v>
@@ -4177,13 +4192,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>207</v>
@@ -4216,37 +4231,37 @@
         <v>0</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="P26" s="10">
         <v>0.83006926730267527</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="S26" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Z26" s="12" t="e">
         <v>#N/A</v>
@@ -4269,13 +4284,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>73</v>
@@ -4308,37 +4323,37 @@
         <v>0</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P27" s="10">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="S27" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Z27" s="12" t="e">
         <v>#N/A</v>
@@ -4353,7 +4368,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4361,13 +4376,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>73</v>
@@ -4400,37 +4415,37 @@
         <v>0</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P28" s="23">
         <v>0.1</v>
       </c>
       <c r="Q28" s="24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R28" s="24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="S28" s="24" t="e">
         <v>#N/A</v>
       </c>
       <c r="T28" s="24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="X28" s="24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Z28" s="26" t="e">
         <v>#N/A</v>
@@ -4445,7 +4460,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4458,7 +4473,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D776EE4C-6690-440D-B7A9-2321A8D40125}</x14:id>
+          <x14:id>{154C536E-C9AD-4D3C-B442-77E28B76BDD1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4468,7 +4483,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D776EE4C-6690-440D-B7A9-2321A8D40125}">
+          <x14:cfRule type="dataBar" id="{154C536E-C9AD-4D3C-B442-77E28B76BDD1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B9189F-5C72-479E-88D4-B47C512215BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC83DAF-2F0C-4A34-8DF1-68F492EAB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C737C57C-1F54-40A6-BD66-A829F7B0DF55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0C5F9135-E239-4692-9945-27B998C26A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -161,28 +161,27 @@
 Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve">S.no  Bucket name     No. of Tasks
+    <t>S.no  Bucket name     No. of Tasks
   1.      No Status    =   14
   2.      Estimation   =   10
-  3.     Designing    =    7
+  3.     Designing    =    8
   4.     To Do        =    12
   5.     In Progress  =    13
   6.     Under QA Testing = 2
-  7.     User Acceptance Testing (UAT) = 18
-  8.     Released on Production = 270
-  9.     Closed       = 121
-</t>
-  </si>
-  <si>
-    <t>4 task plan to deploy</t>
+  7.     User Acceptance Testing (UAT) = 16
+  8.     Released on Production = 273
+  9.     Closed       = 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 task plan to deployment </t>
   </si>
   <si>
     <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
   </si>
   <si>
-    <t>1) 3 months payment pending
-2) Bill submitted up to September
-3) Need one fronted resource (min 4 yr exp) as replacement of Jayshri Barmase</t>
+    <t xml:space="preserve">1) Replacement of Jaysharee
+2) 4 Months payment pending
+3 up oct bill submitted </t>
   </si>
   <si>
     <t>Amit K</t>
@@ -506,41 +505,41 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t>Krishi MApper
-• API Consumption
-1. AMI API: reflecting on GIS/Survey Count dashboard
-2. Mahadbt-API/patanjali API/karnatka RKVY API: WIP
-• Scheme on boarding
-1. PKVY, Oil seed Assets, NBM APP: Done
-• Power BI Dashboard: Under Process (Continue Updating from consultant side regarding the schemes data report visual)
-• Survey Count Dashboard— FY wise / scheme wise / state wise: Done
-• GIS Dashboard: API/query optimization for data Pending due to short of Database developer
+    <t xml:space="preserve">1. Krishi Mapper : 
+A. GIS Dashboard new layout implemented on Production server
+B. Working on Assign Target. Adding Self assign target data listing
+C. GIS implementing option for Google to Bhuvan Map switching
+D. Delivered NF Mobile app to the division
+E. Assets App done and under testing before going live
 2. Natural Farming:
-• Fixing users highlighted issue
-• New observation needs to be added in KM Natural Farming App. It's under progress
-3. AI-KOSH
-• ACABC, Integration, Soil Lab Testing APIs share with AI-Kosh team. Now working on AIF API for metadata for all scheme: some APIs are shared: meeting schedule for review of API
-4. Krishi Unnati
-• MIS report discussed with client. Some design will share to freeze before development start
-5. Upaj
-• Done DCS module completed by team. 
-• Tomorrow review meeting scheduled for Team progress</t>
-  </si>
-  <si>
-    <t>1. Krishi Mapper: Complete portal CSV report optimization and survey count dashboard improve flexibility report
-2. Natural Farming: Give Demo for latest mobile app to JS and optimize web portal
-3. Upaj : Clear all previous requirement and share the done work document with Director
-4. Krishi Unnati : Deliver MIS report and start working Agency Module
-5. AI-KOSH : Deliver schemes API as requested</t>
+A. Start working on implementing MIS Report module
+B. Designer working on page layout
+C. Need to show specific village level farmer data and also give data export option. 
+3. UPAg
+A. Meeting with Division for review the team performance
+B. Given briefing to Crops Director Komal
+4. M&amp;T
+A. FMTTI, SMAM &amp; CRM components done from user management
+B. Survey data report module done
+C. Data fetching from external API, showing total count and making the relevant report to showing the data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Krishi Mapper: 
+A. RKVY API integration
+B. Seed Fostering scheme onboarding
+C. AIF crop stage changes
+2. Natural Farming
+A. Deliver MIS report Module to division
+B. Demonstration to States about the NF scheme on KM
+</t>
   </si>
   <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
   </si>
   <si>
-    <t>1. Require dedicated Database Developer for Upaj Project
-2. Urgent require database developer for MoAFW all projects for upto 6 months
-3. UI/UX designer replacement
-4. Lack of documentation from consultant and existing team side.</t>
+    <t>1. Heavy workload on UI/UX due to shortage of designer
+2. Facing API loading issue from server side due to lack of DB Developer.</t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -804,15 +803,16 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t xml:space="preserve">1. In accordance with the direction issued by the Hon’ble High Court, the bank guarantee (BG) submitted by the contractor for the MOG Land Monetisation project has been found to be forged. Consequently, the bank account of the Smart City entity connected to this project has been frozen, together with all associated funds.
-2. As of today, the Smart City entity has no available funds in its bank account for project mobilization or disbursement.
+    <t>1. As of today, the Smart City entity are awaiting the funds in its bank account for project mobilization/ disbursement.
+2. ISCDL team are working for New PPP project of initially 20 ITMS Junction, 20 VMS (5X3), 20 PAS, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects. Post they will issue rest 95 ITMS, 90 VMS (5X3), 90 PAS.
+3. ISCDL team are working for New PPP project of Data centre for 65,000 Camera, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects.</t>
+  </si>
+  <si>
+    <t>1. Draft letter as per submitted GO-Live letter are reviewed by CEO sir. As per CEO sir, he is taking concurrence from ED sir for issuing the Go-Live certificates. Expected to received final letter in upcoming week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. There is no clarity against the payment availability at Smart city.
 </t>
-  </si>
-  <si>
-    <t>1. Draft letter as per submitted GO-Live letter are under review by CEO sir. Expected to received final letter in upcoming week.</t>
-  </si>
-  <si>
-    <t>1. There is no clarity against the payment availability at Smart city.</t>
   </si>
   <si>
     <t>Akash K</t>
@@ -899,28 +899,26 @@
     <t xml:space="preserve">1. EVS: 10/10 Nos. EVS installation done.
 2. PA: 20/20 Pairs PA installation done.
 3. VMD: 6/10 Nos. VMD installation done.
-4. ECB: 10/20 Nos. ECB enclosure foundation done.
-5. All materials delivered at site as per PO Qty.
-6. 97% billing done.
+4. ECB: 20/20 Nos. ECB enclosure foundation done.
+5. All materials delivered at site as per PO Qty except 10 Nos. VMD controllers and Accessories. 
+6. 99% billing done.
 7. Accessories not yet delivered.
-8. 4 Nos. VMD foundation pending. Location not approved by Police department. Survey done by PMC and Honeywell team. 
-9. 13 Nos. ECB foundation done.
-10. Cable laying, connection, configuration and commissioning pending.
+8. 4 Nos. VMD foundation pending. 1 VMD foundation digging work started. 
+9. Cable laying, connection, configuration and commissioning pending.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. 7 Nos. ECB foundation work.
-2. 4 Nos. VMD foundation work.
+    <t xml:space="preserve">1. 4 Nos. VMD pole foundation work.
+2. EVS, PA cable laying work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation.
+2. VMD controller not yet delivered.
+3. Cable laying, digging, etc work order not yet given to local vendor. Pending from purchase. Need to follow-ups with purchase team.
+4. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. After discussion with me, Santosh Sir and Vaibhav Sir over the phone with Mr. Deepak Pathak, Bonsai still not supplied any accessories as per SOW for VMD installation work. Need to complete discussion with Bonsai and CMS stakeholders. Payment also a big issue. Bonsai asking the payment of 10 Nos. of supplied VMD poles and structures and the 6 Nos. of installed VMD. They are threatening to stop the installation work due to the payment not yet done. Need immediate support from HO. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation. 
-2. VMD controller not yet delivered. Pending due to payment issue. Need support from HO.
-3. Cable laying, digging, etc work order not yet given to local vendor. Pending from purchase. Need to follow-ups with purchase team.
-4. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. After discussion with me, Santosh Sir and Vaibhav Sir over the phone with Mr. Deepak Pathak, Bonsai still not supplied any accessories as per SOW for VMD installation work. Need to complete discussion with Bonsai and CMS stakeholders. Payment also a big issue. 
-</t>
-  </si>
-  <si>
     <t>Arindam R</t>
   </si>
   <si>
@@ -948,14 +946,13 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t xml:space="preserve">New 5 Candidates selected, trained and joined till 6th November,2025
- </t>
+    <t>New 3 Candidates selected, trained and joined till 14th November,2025</t>
   </si>
   <si>
     <t>Shortlist, Interview and Train new 20 Candidates.</t>
   </si>
   <si>
-    <t>Recruitment of 20 Candidates
+    <t>Recruitment of 20 Candidates.
 New Work Order for extension period</t>
   </si>
   <si>
@@ -990,30 +987,37 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Primary &amp; Backup Servers: Fully configured, tested, and installed in NOC room. Ready for use.
-Substations 1–3 (MFM): Network setup done; awaiting switch installation/port enabling by JNPA. CMS to enable data retrieval in 2–3 days post availability.
-Main Substation (MFM): Communication established; awaiting API support from JNPA SCADA vendor for EEMS integration.
-ABT Meters: Installed; awaiting series connection by MSETCL and switch port activation by JNPA.
-RMU Panels: Survey completed; awaiting OFC network and switch from JNPA to start communication setup.
-Water Flow Meters: 62 delivered, 5 installed; infra readiness awaited from Water Dept. ~30 more (40 mm) to be installed.
-Consumer Billing Meters: MPLS connectivity to NOC server established; link testing in progress before SIM and modem setup.
-Cloud Registration: AWS account created and active.
-Software: Deployed on NOC server; all modules integrated, supports multi-user access. Enhancements to follow with live data.</t>
-  </si>
-  <si>
-    <t>MPLS setup is completed, and sim card testing is planned for this week.</t>
+    <t>1. Primary &amp; Backup Servers:
+✅ Fully configured, tested, and installed at NOC. Ready for use; no pending issues.
+2. Substations 1, 2 &amp; 3 (MFM Communication):
+🔧 Network setup done; awaiting switch rack installation and port enabling by JNPA vendor. CMS to complete meter data connectivity within 2–3 days post availability.
+3. Main Substation (MFM Communication):
+📡 Communication established via SCADA. Awaiting API support from GE (JNPA vendor) for EEMS integration.
+4. ABT Meters:
+⚙️ Two meters installed; pending series connection by MSETCL and switch port activation at Incomer room. CMS to proceed post both activities.
+5. RMU Panel Meters:
+🧭 Survey completed; communication pending due to OFC network and switch unavailability. CMS to proceed post JNPA readiness confirmation.
+6. Water Flow Meters:
+💧 62 delivered, 5 installed. Awaiting readiness confirmation from Water Dept for remaining installations (~30 nos.). Larger meter locations yet to be finalized.
+7. Consumer Billing Meters:
+📶 MPLS connectivity established at NOC; link testing in progress. SIM activation and modem setup next for live data flow.
+8. Cloud Registration:
+☁️ AWS account successfully created.
+9. Software Deployment:
+💻 System deployed and integrated at NOC. Supports multi-user access. Enhancements to be taken up during live data phase.</t>
+  </si>
+  <si>
+    <t>Sim card availability and testing with energy meters modem connection</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t xml:space="preserve">Network Dependencies: Delays in switch installation and port enabling by JNPA vendors.
-Third-Party Coordination: Awaited responses from MSETCL and JNPA SCADA vendors affecting integration timelines.
-Infrastructure Readiness: Pending civil and electrical works (valves, ducts, power) for water meter installation.
-Data Integration Delays: API details and testing dependencies slowing EEMS integration.
-MPLS Link Testing: Ongoing testing could delay consumer meter data flow.
-Scope Clarifications: Pending confirmation of revised SEZ and RMU scope.
-</t>
+    <t>⚠️ Dependency on JNPA vendors for switch installation, port enabling, and OFC network readiness — causing delays in data communication setup.
+🕒 Pending response from GE (SCADA vendor) for API support — holding up integration with EEMS.
+🔌 MSETCL testing team delay in connecting ABT meters in series — impacting meter data availability.
+🚧 Water Dept infrastructure readiness (valves, ducts, power) pending — delaying further water meter installations.
+🔁 Scope clarity for RMU communication and SEZ area pending from JNPA — required to finalize configuration and rollout.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1176,15 +1180,11 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve">- Main website has been developed, and we are currently implementing feedback received from ITPO.
-- Enhancements to the Admin Panel functionality are underway.
-- Knowledge transfer (KT) for the Booking Portal is in progress.
-</t>
-  </si>
-  <si>
-    <t>- New Figma designs for the inner pages are in progress. Once approved, the inner pages will be redeveloped accordingly.
-- Knowledge Transfer (KT) activities will continue.
-- Newly developed corporate website is expected to go live soon.</t>
+    <t xml:space="preserve">The corporate website has been completed according to the previous Figma design. We are currently working on the design for the inner pages and have already shared two Figma design options for these pages for your review and approval.
+KT of the Booking portal is in progress. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once the pages are approved, we will begin development on the approved designs. </t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
@@ -1551,7 +1551,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E9C526C3-75A5-4E76-8DB5-6B588A5845B1}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4ACF72B0-6479-493A-A27C-A8F731BE5650}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1880,7 +1880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CEC32D-FC09-40A1-BB66-4B76EB9A7436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33BEFCA-DF20-4103-BFE5-1CCDB0B6C74F}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2019,7 +2019,7 @@
         <v>206.12414119999949</v>
       </c>
       <c r="M2" s="8">
-        <v>186.72101040000015</v>
+        <v>186.72101040000018</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA2" s="13">
         <v>0.53779761992455066</v>
@@ -2203,7 +2203,7 @@
         <v>415.40868667457613</v>
       </c>
       <c r="M4" s="8">
-        <v>180.89820959999994</v>
+        <v>180.89820959999989</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
@@ -2556,31 +2556,31 @@
         <v>1606.08</v>
       </c>
       <c r="H8" s="8">
-        <v>564.73653049999996</v>
+        <v>631.65653049999992</v>
       </c>
       <c r="I8" s="8">
         <v>68</v>
       </c>
       <c r="J8" s="8">
-        <v>632.73653049999996</v>
+        <v>699.65653049999992</v>
       </c>
       <c r="K8" s="8">
         <v>259</v>
       </c>
       <c r="L8" s="9">
-        <v>1041.3434695000001</v>
+        <v>974.42346950000001</v>
       </c>
       <c r="M8" s="8">
-        <v>453.21092499999997</v>
+        <v>520.13092500000005</v>
       </c>
       <c r="N8" s="8">
-        <v>0</v>
+        <v>66.92</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="10">
-        <v>0.35162415975542938</v>
+        <v>0.39329082642209601</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>35</v>
@@ -2610,7 +2610,7 @@
         <v>123</v>
       </c>
       <c r="Z8" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA8" s="13">
         <v>0.1099999998749408</v>
@@ -3162,7 +3162,7 @@
         <v>190</v>
       </c>
       <c r="Z14" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA14" s="13">
         <v>5.8906222519107154E-2</v>
@@ -3346,7 +3346,7 @@
         <v>215</v>
       </c>
       <c r="Z16" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA16" s="13">
         <v>0.21114271514376304</v>
@@ -3438,7 +3438,7 @@
         <v>227</v>
       </c>
       <c r="Z17" s="12">
-        <v>45967</v>
+        <v>45973</v>
       </c>
       <c r="AA17" s="13">
         <v>0.60186008759672394</v>
@@ -3530,7 +3530,7 @@
         <v>241</v>
       </c>
       <c r="Z18" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA18" s="13">
         <v>0.22378829916704679</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="12">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="AA21" s="13">
         <v>0.34652488000000004</v>
@@ -4473,7 +4473,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{154C536E-C9AD-4D3C-B442-77E28B76BDD1}</x14:id>
+          <x14:id>{4BD745CC-240C-4A6D-B0C2-50086C51C337}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4483,7 +4483,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{154C536E-C9AD-4D3C-B442-77E28B76BDD1}">
+          <x14:cfRule type="dataBar" id="{4BD745CC-240C-4A6D-B0C2-50086C51C337}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC83DAF-2F0C-4A34-8DF1-68F492EAB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5208263F-A844-4E31-AD3B-74743F6E7E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0C5F9135-E239-4692-9945-27B998C26A5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BE6CCF9E-99B5-45AE-AADA-3A0AA866AEDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="326">
   <si>
     <t>SN</t>
   </si>
@@ -1288,6 +1288,28 @@
 •	60 Nos GPS
 •	ICCC Software 
 -- with ITMS expert and field expert.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ATCS, ECB, PA, VMD, GPS and VDC maintenance work going on.
+2. Quarterly PM report submitting as per the BSCL and SPCL requirement. 
+3. ERP solutions developing work still going on. 
+4. Trade license module handed over to Nagar Nigam. Rest 15 Modules Modifications works are still in progress. 
+5. 58 Nos. GPS re-installed.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ERP Modification work completion. 
+2. 6 Nos. VDC cable issue will be rectified. </t>
+  </si>
+  <si>
+    <t>ERP Support Issues:
+1. SoftTech is not providing adequate support to resolve ERP-related issues and pending modifications. Management intervention is required to close these matters.
+2. Request for Services Module:
+SoftTech has stopped providing support for the Request for Services module and has put its development on hold due to financial constraints. Immediate management support is requested to resume the development.
+3. Bhagalpur Site Power Issues:
+Bhagalpur site is facing severe power fluctuation problems. UPS back-up is not available from SPCL, resulting in damage to several Traffic Controller and VMD Controller cards due to over-voltage. Proper earthing is also missing, and the HT overhead line is dangerously close to the poles.
+Solutions: We are currently creating earthing pits for the Traffic Controllers and poles and are planning to use AVS and surge protectors to prevent further damage.
+4. ECB Card Compatibility:
+The new ECB cards are not matching with the existing system. The issue needs to be checked and closed at the earliest.</t>
   </si>
   <si>
     <t>Muzaffarpur O&amp;M</t>
@@ -1551,7 +1573,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4ACF72B0-6479-493A-A27C-A8F731BE5650}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E274FC0D-AEE9-46D7-A60D-3FB2425279BA}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1880,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33BEFCA-DF20-4103-BFE5-1CCDB0B6C74F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D712E1-EE3B-4D18-97E8-5ED72214243D}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3515,7 +3537,7 @@
         <v>237</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>238</v>
@@ -3976,19 +3998,19 @@
         <v>294</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z23" s="12" t="e">
-        <v>#N/A</v>
+        <v>325</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>0</v>
       </c>
       <c r="AA23" s="13">
         <v>0.42434365454578726</v>
@@ -4058,8 +4080,8 @@
       <c r="R24" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="S24" s="11" t="e">
-        <v>#N/A</v>
+      <c r="S24" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="T24" s="11" t="s">
         <v>301</v>
@@ -4068,19 +4090,19 @@
         <v>302</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="X24" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z24" s="12" t="e">
-        <v>#N/A</v>
+        <v>305</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>45974</v>
       </c>
       <c r="AA24" s="13">
         <v>0.15841573956451205</v>
@@ -4100,13 +4122,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>207</v>
@@ -4148,31 +4170,31 @@
         <v>75</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S25" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z25" s="12" t="e">
-        <v>#N/A</v>
+        <v>325</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>0</v>
       </c>
       <c r="AA25" s="13">
         <v>0.54524491322510427</v>
@@ -4192,13 +4214,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>207</v>
@@ -4240,31 +4262,31 @@
         <v>295</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S26" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z26" s="12" t="e">
-        <v>#N/A</v>
+        <v>325</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>0</v>
       </c>
       <c r="AA26" s="13">
         <v>0.68765168853167546</v>
@@ -4284,13 +4306,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>73</v>
@@ -4344,19 +4366,19 @@
         <v>295</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z27" s="12" t="e">
-        <v>#N/A</v>
+        <v>325</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>0</v>
       </c>
       <c r="AA27" s="13" t="s">
         <v>97</v>
@@ -4368,7 +4390,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4376,13 +4398,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>73</v>
@@ -4433,22 +4455,22 @@
         <v>295</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>295</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z28" s="26" t="e">
-        <v>#N/A</v>
+        <v>325</v>
+      </c>
+      <c r="Z28" s="26">
+        <v>0</v>
       </c>
       <c r="AA28" s="27" t="s">
         <v>97</v>
@@ -4460,7 +4482,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4473,7 +4495,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4BD745CC-240C-4A6D-B0C2-50086C51C337}</x14:id>
+          <x14:id>{FF496ED1-BFDE-4269-A52A-6C7C11C59B43}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4483,7 +4505,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4BD745CC-240C-4A6D-B0C2-50086C51C337}">
+          <x14:cfRule type="dataBar" id="{FF496ED1-BFDE-4269-A52A-6C7C11C59B43}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5208263F-A844-4E31-AD3B-74743F6E7E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F824504-78FF-48F9-B7A1-BDAE153644BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BE6CCF9E-99B5-45AE-AADA-3A0AA866AEDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAB66D27-A5E2-49D8-8872-F0FC0A614CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -505,31 +505,31 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Krishi Mapper : 
+    <t xml:space="preserve">1] Krishi Mapper : 
 A. GIS Dashboard new layout implemented on Production server
 B. Working on Assign Target. Adding Self assign target data listing
 C. GIS implementing option for Google to Bhuvan Map switching
 D. Delivered NF Mobile app to the division
 E. Assets App done and under testing before going live
-2. Natural Farming:
+2] Natural Farming:
 A. Start working on implementing MIS Report module
 B. Designer working on page layout
 C. Need to show specific village level farmer data and also give data export option. 
-3. UPAg
+3] UPAg
 A. Meeting with Division for review the team performance
 B. Given briefing to Crops Director Komal
-4. M&amp;T
+4] M&amp;T
 A. FMTTI, SMAM &amp; CRM components done from user management
 B. Survey data report module done
 C. Data fetching from external API, showing total count and making the relevant report to showing the data
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Krishi Mapper: 
+    <t xml:space="preserve">1] Krishi Mapper: 
 A. RKVY API integration
 B. Seed Fostering scheme onboarding
 C. AIF crop stage changes
-2. Natural Farming
+2] Natural Farming
 A. Deliver MIS report Module to division
 B. Demonstration to States about the NF scheme on KM
 </t>
@@ -538,8 +538,8 @@
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
   </si>
   <si>
-    <t>1. Heavy workload on UI/UX due to shortage of designer
-2. Facing API loading issue from server side due to lack of DB Developer.</t>
+    <t>1] Heavy workload on UI/UX due to shortage of designer
+2] Facing API loading issue from server side due to lack of DB Developer.</t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -803,15 +803,15 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1. As of today, the Smart City entity are awaiting the funds in its bank account for project mobilization/ disbursement.
-2. ISCDL team are working for New PPP project of initially 20 ITMS Junction, 20 VMS (5X3), 20 PAS, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects. Post they will issue rest 95 ITMS, 90 VMS (5X3), 90 PAS.
+    <t>1] As of today, the Smart City entity are awaiting the funds in its bank account for project mobilization/ disbursement.
+2] ISCDL team are working for New PPP project of initially 20 ITMS Junction, 20 VMS (5X3), 20 PAS, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects. Post they will issue rest 95 ITMS, 90 VMS (5X3), 90 PAS.
 3. ISCDL team are working for New PPP project of Data centre for 65,000 Camera, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects.</t>
   </si>
   <si>
-    <t>1. Draft letter as per submitted GO-Live letter are reviewed by CEO sir. As per CEO sir, he is taking concurrence from ED sir for issuing the Go-Live certificates. Expected to received final letter in upcoming week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. There is no clarity against the payment availability at Smart city.
+    <t>1.Draft letter as per submitted GO-Live letter are reviewed by CEO sir. As per CEO sir, he is taking concurrence from ED sir for issuing the Go-Live certificates. Expected to received final letter in upcoming week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no clarity against the payment availability at Smart city.
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. EVS: 10/10 Nos. EVS installation done.
+    <t xml:space="preserve">-&gt;1. EVS: 10/10 Nos. EVS installation done.
 2. PA: 20/20 Pairs PA installation done.
 3. VMD: 6/10 Nos. VMD installation done.
 4. ECB: 20/20 Nos. ECB enclosure foundation done.
@@ -908,11 +908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. 4 Nos. VMD pole foundation work.
-2. EVS, PA cable laying work. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.	Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation.
+    <t xml:space="preserve">1] 4 Nos. VMD pole foundation work.
+2] EVS, PA cable laying work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1]	Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation.
 2. VMD controller not yet delivered.
 3. Cable laying, digging, etc work order not yet given to local vendor. Pending from purchase. Need to follow-ups with purchase team.
 4. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. After discussion with me, Santosh Sir and Vaibhav Sir over the phone with Mr. Deepak Pathak, Bonsai still not supplied any accessories as per SOW for VMD installation work. Need to complete discussion with Bonsai and CMS stakeholders. Payment also a big issue. Bonsai asking the payment of 10 Nos. of supplied VMD poles and structures and the 6 Nos. of installed VMD. They are threatening to stop the installation work due to the payment not yet done. Need immediate support from HO. 
@@ -1290,15 +1290,15 @@
 -- with ITMS expert and field expert.  </t>
   </si>
   <si>
-    <t xml:space="preserve">1. ATCS, ECB, PA, VMD, GPS and VDC maintenance work going on.
-2. Quarterly PM report submitting as per the BSCL and SPCL requirement. 
-3. ERP solutions developing work still going on. 
-4. Trade license module handed over to Nagar Nigam. Rest 15 Modules Modifications works are still in progress. 
-5. 58 Nos. GPS re-installed.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ERP Modification work completion. 
-2. 6 Nos. VDC cable issue will be rectified. </t>
+    <t xml:space="preserve">-&gt; ATCS, ECB, PA, VMD, GPS and VDC maintenance work going on.
+-&gt; Quarterly PM report submitting as per the BSCL and SPCL requirement. 
+-&gt; ERP solutions developing work still going on. 
+-&gt; Trade license module handed over to Nagar Nigam. Rest 15 Modules Modifications works are still in progress.
+-&gt; 58 Nos. GPS re-installed.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; ERP Modification work completion. 
+-&gt; 6 Nos. VDC cable issue will be rectified. </t>
   </si>
   <si>
     <t>ERP Support Issues:
@@ -1573,7 +1573,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E274FC0D-AEE9-46D7-A60D-3FB2425279BA}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{969A76C7-A9F6-424D-9AC5-E9026288B8CE}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1902,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D712E1-EE3B-4D18-97E8-5ED72214243D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7FF489-F14B-4E8C-9FAD-60CD178804DC}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4495,7 +4495,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF496ED1-BFDE-4269-A52A-6C7C11C59B43}</x14:id>
+          <x14:id>{FF6BB067-00B5-4AA0-A97D-76AD3EFBBAAE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4505,7 +4505,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF496ED1-BFDE-4269-A52A-6C7C11C59B43}">
+          <x14:cfRule type="dataBar" id="{FF6BB067-00B5-4AA0-A97D-76AD3EFBBAAE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F824504-78FF-48F9-B7A1-BDAE153644BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F32FAB-EB8E-4DF5-A870-5C16174640C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAB66D27-A5E2-49D8-8872-F0FC0A614CB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B068237B-006E-4593-AE13-F4E5690003BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="330">
   <si>
     <t>SN</t>
   </si>
@@ -1321,6 +1321,9 @@
     <t>Start Date (PO) : 25-May-23 :: End Date (PO) : 24-May-28</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>17.63 L</t>
   </si>
   <si>
@@ -1334,6 +1337,19 @@
 --- with ITMS expert and filed expert.  </t>
   </si>
   <si>
+    <t xml:space="preserve">1] ATCS, ECB, PA, VMD maintenance work is going on. 
+2] ERP O&amp;M also going on. 
+3] ERP new module, modification work is going on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] ERP issues closing plan. 
+2] VDC issues closing plan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] SoftTech is not providing adequate support for ERP modifications. Immediate management intervention is required to resolve this issue.
+2] The new ECB card is not compatible with the ECB application. This needs to be addressed and resolved urgently. </t>
+  </si>
+  <si>
     <t>DVC O&amp;M</t>
   </si>
   <si>
@@ -1389,7 +1405,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1572,9 +1588,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{969A76C7-A9F6-424D-9AC5-E9026288B8CE}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1902,7 +1916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7FF489-F14B-4E8C-9FAD-60CD178804DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA89FCE-91F2-4653-9092-E2D910425012}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3537,7 +3551,7 @@
         <v>237</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>238</v>
@@ -3998,16 +4012,16 @@
         <v>294</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Z23" s="12">
         <v>0</v>
@@ -4172,29 +4186,29 @@
       <c r="R25" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="S25" s="11" t="e">
-        <v>#N/A</v>
+      <c r="S25" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Z25" s="12">
-        <v>0</v>
+        <v>45974</v>
       </c>
       <c r="AA25" s="13">
         <v>0.54524491322510427</v>
@@ -4214,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>207</v>
@@ -4262,28 +4276,28 @@
         <v>295</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="S26" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Z26" s="12">
         <v>0</v>
@@ -4306,13 +4320,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>73</v>
@@ -4366,16 +4380,16 @@
         <v>295</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Z27" s="12">
         <v>0</v>
@@ -4390,7 +4404,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4398,13 +4412,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>73</v>
@@ -4455,19 +4469,19 @@
         <v>295</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>295</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Z28" s="26">
         <v>0</v>
@@ -4482,7 +4496,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4509,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF6BB067-00B5-4AA0-A97D-76AD3EFBBAAE}</x14:id>
+          <x14:id>{3B9D262B-E21B-4CD5-BB6A-C7FC8DCA734C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4505,7 +4519,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF6BB067-00B5-4AA0-A97D-76AD3EFBBAAE}">
+          <x14:cfRule type="dataBar" id="{3B9D262B-E21B-4CD5-BB6A-C7FC8DCA734C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F32FAB-EB8E-4DF5-A870-5C16174640C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EB4CF6-EE0F-4265-B0E5-93A5DFC84F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B068237B-006E-4593-AE13-F4E5690003BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4B326068-ABE4-4B97-B751-886FC87E259E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="333">
   <si>
     <t>SN</t>
   </si>
@@ -1367,6 +1367,24 @@
   <si>
     <t xml:space="preserve">•	5 Years O&amp;M support including 24X7 DC support and with proper adequate manpower support in field for 48 Substations and Power plants. 
 •	Any Changes in S/w, reports, screen without extra cost as per PO and need to be added other OEM meters in the same T&amp;C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 7 Qrt. O&amp;M support done and 6 Qrt billing done. 
+2. Out of 6 Qrt, 4 Qrt Payment received. 2 Pending due to the DVC vendor billing portal have in development stage. Expected by this month end payment for 2 Qrt will be received. 
+3. 1 Qrt billing due. By this month it will be done. 
+4. Meter rectification work going on at the substations. 
+5. CERTIN Audit partially done. Pending for Lease line not available from DVC end and they are arranging. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CERTIN audit completion.
+2. Meter rectification. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Out of 706 EDMI meters, 26 units are frequently found faulty. These need to be either repaired by EDMI or replaced (by EDMI or another make). It is becoming very difficult to maintain service levels without LD implications. Immediate management support is required.
+2. Around 60 out of the remaining 680 meters are facing TTL card issues. Our team is continuously replacing TTL cards to keep the system functional.
+3. 2–3 blocks (out of 96) are missing on a daily basis because we are required to restart the meters twice a day.
+4. DVC is extracting raw data from our server through API for their internal services. We need to continue providing necessary API/service support as per the PO terms and conditions.
+Your immediate attention and intervention in resolving these issues will help ensure uninterrupted service and compliance with contractual obligations. </t>
   </si>
   <si>
     <t>Daman SC</t>
@@ -1916,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA89FCE-91F2-4653-9092-E2D910425012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4328A63A-B01D-4825-AF21-B9A037990A63}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3551,7 +3569,7 @@
         <v>237</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>238</v>
@@ -4012,16 +4030,16 @@
         <v>294</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Z23" s="12">
         <v>0</v>
@@ -4278,8 +4296,8 @@
       <c r="R26" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="S26" s="11" t="e">
-        <v>#N/A</v>
+      <c r="S26" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>319</v>
@@ -4288,19 +4306,19 @@
         <v>320</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Z26" s="12">
-        <v>0</v>
+        <v>45974</v>
       </c>
       <c r="AA26" s="13">
         <v>0.68765168853167546</v>
@@ -4320,13 +4338,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>73</v>
@@ -4380,16 +4398,16 @@
         <v>295</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Z27" s="12">
         <v>0</v>
@@ -4404,7 +4422,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4412,13 +4430,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>73</v>
@@ -4469,19 +4487,19 @@
         <v>295</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>295</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Z28" s="26">
         <v>0</v>
@@ -4496,7 +4514,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4509,7 +4527,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3B9D262B-E21B-4CD5-BB6A-C7FC8DCA734C}</x14:id>
+          <x14:id>{CAD3E2A6-5EDE-458F-AC16-5443ECA5AAB7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4519,7 +4537,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3B9D262B-E21B-4CD5-BB6A-C7FC8DCA734C}">
+          <x14:cfRule type="dataBar" id="{CAD3E2A6-5EDE-458F-AC16-5443ECA5AAB7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EB4CF6-EE0F-4265-B0E5-93A5DFC84F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE7CAEC-C99E-4C4F-9E28-1518C99AB906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4B326068-ABE4-4B97-B751-886FC87E259E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CE305937-4A03-4E0E-B3BA-EDA2E8753763}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1934,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4328A63A-B01D-4825-AF21-B9A037990A63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CCF991-B490-4971-8956-849A4180B425}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4527,7 +4527,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CAD3E2A6-5EDE-458F-AC16-5443ECA5AAB7}</x14:id>
+          <x14:id>{0CB51031-F233-4CF6-8853-EC4F4104A3E3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4537,7 +4537,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CAD3E2A6-5EDE-458F-AC16-5443ECA5AAB7}">
+          <x14:cfRule type="dataBar" id="{0CB51031-F233-4CF6-8853-EC4F4104A3E3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE7CAEC-C99E-4C4F-9E28-1518C99AB906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FE63A54-EC7D-4F44-B721-5012C290E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CE305937-4A03-4E0E-B3BA-EDA2E8753763}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DA8ED651-45ED-48D9-9992-726079677D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="335">
   <si>
     <t>SN</t>
   </si>
@@ -211,30 +211,30 @@
 Resolve all the bugs, issues and queries raised for these developed functionalities</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 27 resources on-boarded. (16 resources from GAIA – 11 from CMS)
-2. Payment received till Aug’25. Payment expected for Sep’25 in next week.
-3. DWR mobile app: changes done for dumpsite, bug fixing ongoing. 
+    <t>1. 27 resources on-boarded. (16 resources from GAIA – 11 from CMS)
+2. Payment received till Aug’25. Payment expected for Sep’25 in this week.
+3. DWR mobile app: new changes done for dumpsite. 
 4. New SBM Dashboard ver2.0 (SWM, Legacy waste &amp; Toilets): bug fixing ongoing as per PMU comments. SS: 5 resources onboarded.
 5. UWM Action Plan: additional points added from CPEEHO: Testing ongoing
 6. GFC Indicator logic implemented in DB and changes ongoing in UI side.
-7. Engineer App: Geo location enabled in iOS/Android-verification done.
+7. MyToilet App: Changes ongoing as per findings in CERT-in audit.
 8. Implementation of Media Service in Java-Ongoing.
-9. Website updates ongoing. NUC Registration portal: Changes Ongoing, if any.
+9. Website updates ongoing. Trash Tales, newsletter, contact Us updated
 10. SS Scoring logic and result declaration: understanding excel sheet
-</t>
+11. Pushed Prayas and DBT data to PMO website</t>
   </si>
   <si>
     <t xml:space="preserve">1. Maintenance activities: Daily ULB support, Website changes ongoing.
 2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing by PMU. DWR Mobile App pilot planned for dumpsite in Nov’25.
 3. SS Handover : Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration done. Doc prepared to update libraries which are old/outdated/deprecated.
+4. Swachh City: working on reports
 </t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Replacement of DevOps has joined on 6th Nov. we have only 1 day for his KT. Delayed hiring from HR. Need to be sensitize HR to fill positions ontime.
-2. Majority of team members working remotely. 
+    <t xml:space="preserve">1. Majority of team members working remotely. 
 </t>
   </si>
   <si>
@@ -269,7 +269,7 @@
 Application Developers, Technical Support (helpdesk) – 6 resource each</t>
   </si>
   <si>
-    <t>1. 26 Resource deployed.
+    <t>1. 25 Resource deployed (one Tech Support Remaining).
 2. Development of new Module is under process as per CRS requirement.
 3. DC and DR Sync up , Horizontal and vertical scalling
 4. State onboard is on going.
@@ -279,12 +279,14 @@
 8. Bag resoluation</t>
   </si>
   <si>
-    <t>1. June and Aug Payment under process from FO. 
+    <t xml:space="preserve">
+1. June and Aug Payment under process from FO.
 2. July payment Received.
-3. Sept document and Attendance verification under processing.
-4. Integration of UMANG App with CRS Portal
-5. EPIC No Addition on death Certificate , Bilingural Languagesin QR Code , Certificate Cancellation Report, Water mark on UAT certificate ,
-6. Bihar CRBD Form (11,12 &amp; 13)</t>
+3. Sept calculation sheet not received from team.
+4. Oct document and Attendance verification under processing.
+5. Integration of UMANG App with CRS Portal
+6. Inactive RU Report, Certificate Cancellation Report.
+7. Critical bug fixing</t>
   </si>
   <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
@@ -292,11 +294,10 @@
   <si>
     <t>1. Delhi State Onboarding on CRS Portal- No subdistrict
 2  GHMC Telangana: Provision for single municipal corporation under Four district which is not support by CRS portal
-3. Family Care Tracker – Pilot Project (Integration of CRS BRN with Poshan Tracker, Techo+, and CTS Portals)
-4. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
-5. Puducherry states will join CRS portal from 1st Nov with three regional Languages.
+3. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
+5. Goa will join CRS portal from 1st Dec with three regional Languages.
 6. Approval for Gaurang Rejected.
-7. Indore and Ahmedabad IMC Zonal register creation</t>
+7. Indore and Ahmedabad IMC Zonal register creation.</t>
   </si>
   <si>
     <t>Dhananjay J</t>
@@ -339,25 +340,30 @@
 User Interface Upgrade</t>
   </si>
   <si>
-    <t xml:space="preserve">All approvals received for JAS for invoice.
-AMJ 80% Payment received.
-Replacement of Linux developer is approved by WZU. We will upload the NDA by next week.
-Refund Module- FRD completed &amp; submitted. Development in WIP.
-WZU visited Tatwa along with CMS members to capturing all the security &amp; network parameters.  </t>
-  </si>
-  <si>
-    <t>Refund Module- Targeting to complete by 31st Oct on UAT, as production date is given by WZU is 15th Nov 2025.
-Submitting Invoice and getting approved ADG Sir.
-Targeting to move Dwell time and E-mobility on production as VAPT is still in progress. 
-Getting NDA document corrected and verify by Legal team.
-Email thread for Onboarding dummy Resources with actual identity with internal as well as with WZU.</t>
+    <t>Production deployment done for is Dwell report on 10th Nov.
+Internal VAPT initiated for Bulk upload UI &amp; Refund CR.
+External VAPT initiated for E-mobility.
+PGA's Task of of VAPT Coordination in now CMS is handling.
+Onboarding of Last project employees instead of Dummy - Out of 11, 7 NDAs were signed on 13th November.
+Laptop Hardening Task is in progress. We have received initiation task for this over the email.
+JIRA licensed version has been purchased as required by client.
+JAS 80% bill is approved by all the level of officers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onboarding of Last project employees instead of Dummy - Out of 11, 4 NDAs need to signed before 15th November.
+By 16th JAS 80% invoice should send to PAO team by WZU.
+Laptop hardening action items need to be discussed with the CMS IT team and WZU, and a response should be sent over email.
+Initiate all the all the approvals which are need to process 20% payment.
+Finalize SLA methodology document. </t>
   </si>
   <si>
     <t>Java Struts, For upgrade - TBD</t>
   </si>
   <si>
-    <t xml:space="preserve">Closing 4 positions. 
-Onboarding dummy Resources with actual identity. (2 types of Penalty). </t>
+    <t xml:space="preserve">The client has requested to deboard all 11 employees from the previous project and enroll them again for the new project. In this case, enrolling the same users with the same mobile numbers may lead to data loss for some email IDs. (L3) - Optional another way is not accepted by Client. Still not received any confirmation for final way to do this. 
+Few issues raised by client:
+What exactly is the reason for not replying to all the emails? We had requested a structured task list (only one list has been received).
+</t>
   </si>
   <si>
     <t>Rahul S / Asmita S</t>
@@ -398,10 +404,10 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t>Delivery of the BI tool for the Legal Department completed. Data migration for the month of April completed for the Finance module. Two UAT points from the Finance module delivered; remaining UAT points are in progress. Twenty-one production issues resolved this week</t>
-  </si>
-  <si>
-    <t>Delivery of production issues and Finance module UAT points</t>
+    <t xml:space="preserve">Production issue is currently in progress; inventory data has been migrated for the IT department; five UAT points have been closed for the Finance module; and retired employee credentials have been shared with the HR department for functionality review. Data Migration for Finance module in Progress. </t>
+  </si>
+  <si>
+    <t>Production issue tracker, Legal &amp; Admin Module UAT points Closer , Continue data migration.</t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
@@ -444,26 +450,27 @@
 Deployment of proposed 33 resources. (+5 in phase 2)</t>
   </si>
   <si>
-    <t xml:space="preserve">→ Phase 1 all 4 tracks billing completed.
+    <t>→ Phase 1 all 4 tracks billing completed.
 → Payment received till Track 4 for Phase 1.
 → All Nine modules of Phase I development &amp; production deployment is done.
 → Drone moved to Phase II.
-→ BICRS, Highway QR deployed on production.
-→ Phase II requirement gathering done for Road Closure, Document Repository, Critical Correspondence, and Payment to AE/IE, Digitization Schedule H, CO Division (Onboarding, Toll Master), NSV.
-→ Requirement gathering in progress for NCR.
-→ Development in progress on
-Road Closure. Expected UAT date is 10th Nov.
-Document Repository. Expected UAT date is 10th Nov.
-Critical Correspondence. Expected UAT date is 10th Nov.
-</t>
-  </si>
-  <si>
-    <t>→ Development of Document Repository, Critical Correspondence and feature enhancements from phase 1 modules.
-→ Deployment of:
-Road Closure.
-Document Repository. 
-Critical Correspondence. 
-→ Requirement gather for other modules of phase II - Schedule digitization (G &amp; M), Employee Directory, Financial Progress, Toll Collection API, Rectification of Black Spot, Road Accident Monitoring &amp; Reduction API.</t>
+→ Phase II updates
+	- Modules deployed on production
+	  	Team Structure, BICRS, Highway QR
+	- Modules on UAT
+	         Road Closure, Document repository, Critical Correspondence
+	-  Requirement gathering done for 
+	        On boarding user fees agency, Issuance of NCR, Payment to AE/IE, Digitalization of Schedule H, NSV Surveys / Priority Maintenance, CO Division (Onboarding, Toll Master)
+	 -  Requirement gathering in progress for 
+	 	 NHIDCL and MoRTH, Drone, Blackspot
+    - Development in progress on
+  		Issuance of NCR
+  		Payment to AE/IE</t>
+  </si>
+  <si>
+    <t>→ Development of Issuance of NCR, Payment to AE/Issuance
+→ Deployment of Document Repository, Critical Correspondence, and Road Closure.
+→ Requirement gathering for Drone, Blackspot, NHIDCL, MoRTH and Contractor payment</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
@@ -631,9 +638,10 @@
 PBG of 3% of balance of TCV (137 L) to be submitted at end of Qtr 4.</t>
   </si>
   <si>
-    <t>1)Jan23 to Sept25 (Total 11 quarters payment released- 75%)
+    <t xml:space="preserve">1)Jan23 to Sept25 (Total 11 quarters payment released- 75%)
 2)24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withhold payment- KSCL will not pay to TechM (re-imbursement)- KSCL will not pay to Tech M reimburesement and will have to be paid by Tech M to CMS
-3) Billing done for AMJ25 &amp; JAS24 Qtr</t>
+3) Billing done for AMJ25 &amp; JAS25 Qtr
+</t>
   </si>
   <si>
     <t>1) To expedite ATCS -23 junctions for making it operational
@@ -647,13 +655,13 @@
 9) Deployment of smart parking sensors at sites that can be completed as per the existing quantity of sensors.</t>
   </si>
   <si>
-    <t xml:space="preserve">1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
-2)Vendor Videonetics "Time for Red" feature not yet been delivered despite the forgone timeline. Client now want to replace CMS.
+    <t xml:space="preserve">1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions and poor quality work exhibited in work expedition of it.  
+2)Vendor Videonetics "Time for Red" in the final stage of deployment.
 3)Battery order is placed and expected around 8th Nov for its delivery. 
 4)VMSB devices facing recurring problems (dark spots, black lines, component failures).Smart Parking sensors &amp; VMSB card-related issues.
-5)DR/DC – The OEM ESDS services has expired in Dec’24 and has been disabled.  
-6) Smart parking affected due to unavailability of sensors, and 45 days delivery time expected.
-7)HDD order for LPU is awaited as a result of which system at various junction has downtime.
+5)HDD order for LPU is awaited as a result of which system at various junction has downtime.
+6) Smart parking affected due to unavailability of sensors, and no visibility of it has irrated the client.
+7) DR/DC – The OEM ESDS services has expired in Dec’24 and has been disabled.  
 8)Client’s requirement of inventory list.
 </t>
   </si>
@@ -733,15 +741,12 @@
 Payment 100% after successful installation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Under O &amp; M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O &amp; M activity and Final capex billing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
+    <t xml:space="preserve">O &amp; M activity </t>
+  </si>
+  <si>
+    <t>20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
 22 no of UCON 10 controller we needs to replace. - ICCC
-</t>
+ATCS spare request given 3 months back still no update from purchase team.</t>
   </si>
   <si>
     <t>Sachin R</t>
@@ -754,6 +759,9 @@
   </si>
   <si>
     <t>Start Date (PO) : 01-Aug-24 :: End Date (PO) : 31-Jul-29</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>100.99 L</t>
@@ -764,14 +772,18 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pending one junction light installation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
-22 no of UCON 10 controller we needs to replace. 
+    <t xml:space="preserve">O &amp; M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice process and O &amp; M activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
+5 no of VMD LED time have issue. Need to purchase new module - ICCC
+22 no of UCON 10 controller we needs to replace. - ICCC
+300 faulty module given to OEM for replace material  --- VMC-P4 LED 
+40 no location battery stolen. Insurance under process 
+DR OEM needs to final – ICCC Project 
 </t>
   </si>
   <si>
@@ -845,17 +857,19 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t>We are fixing the bugs for HRMS, SM, MM.
-For FA, we are working segment report</t>
-  </si>
-  <si>
-    <t>Planning to send an email to customer to schedule a meeting with CMD</t>
+    <t>SMS development has completed
+Restart the server to clear cache and it has increased server performance
+Working on SM, MM, FA modules bug fixing.</t>
+  </si>
+  <si>
+    <t>Planning for payroll demo
+Segment report to start the development during next week.</t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
   </si>
   <si>
-    <t>IREL is planning to migrate the website from ESDS to NIC</t>
+    <t>No major challenges</t>
   </si>
   <si>
     <t>Priya R</t>
@@ -1041,7 +1055,7 @@
     <t>Start Date (PO) : 09-Jun-25 :: End Date (PO) : 08-Oct-25</t>
   </si>
   <si>
-    <t>14</t>
+    <t>12</t>
   </si>
   <si>
     <t>As per achievment.</t>
@@ -1056,7 +1070,7 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
+    <t>1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
 2. Landing Page – Developed and deployed interactive dashboard with quick navigation to all major modules.
 3. Agency Selection – Functionality for selecting and managing agencies successfully integrated.
 4. View Girder Assignment – Module to view girder assignment details completed and tested.
@@ -1078,23 +1092,21 @@
 20. Layout, Master Plates, Jigs, Joints &amp; Fixtures – Inspection Request – Partially completed; inspection request generation and workflow integration ongoing.
 21. Cutting, Straightening &amp; Edge Preparation – Inspection Request – Partially completed; validation and backend service linkage under progress.
 Plan
-22. Fabrication QA
-23. Workshop development
-24. inspection development
-</t>
-  </si>
-  <si>
-    <t>1. Demo for RDSO
-2.Inspection &amp; Workshop QA</t>
+22. Inspction module completed
+23. Workshop Completed
+RDSO Lucknow demo has been given successfully</t>
+  </si>
+  <si>
+    <t>Weekly Plan
+Bug fixing and changes implementation</t>
   </si>
   <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Challenges / Risks
-1.Due to continuous changes in PRD and Figma designs, development work is in progress.
-2. Waiting for RDSO feedback/changes</t>
+    <t>1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
+2. Continues Requirement/changes in application after demo.
+Note: Requirement collected till 10th september has been deeveloped on time 31st Oct 2025. Requirement changes after 10th September is continue in progress</t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1107,9 +1119,6 @@
   </si>
   <si>
     <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : 02-Jan-27</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>Development, deployment, and support of NOC Portal with modules for Login, User Registration, Application Submission, and Approval workflows.
@@ -1393,6 +1402,29 @@
     <t>Daman Smart City</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Construction of Foundation and Installation of Straight Pole and Cantilever Pole work done at Rajiv Gandhi Junction
+2. Ducting and Cable Laying work done at Rajiv Gandhi Junction
+3. Installation of Aspects on straight pole and cantilever pole done at Rajiv Gandhi Junction
+4.Ducting work done at Dholar junction
+5.Construction of foundation for straight pole and cantilever pole work done
+6.Teenbatti Junction ducting Work done
+7.Dhobi Talav Junction ducting work done
+</t>
+  </si>
+  <si>
+    <t>1. Ducting work in progress at three junction
+2. Once we received the Vehicle Detection Camera and LPU Unit we will do the installation work at Rajiv Gandhi Junction
+3. Need Straight Pole and Cantilever pole for installation work at Dholar Junction</t>
+  </si>
+  <si>
+    <t>Straight pole and cantilever pole
+1.Need Delivery Date for Straight pole and Cantilever Pole from M/s Transrail for Installation at Dholar Junction because foundation work has been completed
+Supply and Installation of Solar Panel Unit all Accessories With Pale
+2. PR Enterprise is supporting for the Supply and Installation of Battery, Inverter with pole and foundation need to find out the other vendor, once we received Rajiv Gandhi Junction Solar Panel work will be completed
+Need Delivery Date of Vehicle Detection Camera with LPU Unit
+3. Need Delivery Date of Vehicle Detection Camera with LPU Unit for installation one we received the material we will complete the rajiv gandhi junction</t>
+  </si>
+  <si>
     <t>Rahul Pol</t>
   </si>
   <si>
@@ -1423,7 +1455,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1606,7 +1638,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8C2A10D5-DD50-47C2-8D8B-DB02265BEC3D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1934,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CCF991-B490-4971-8956-849A4180B425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4F0D4-2D00-4F3E-99A2-8B54164809A2}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2204,7 +2238,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA3" s="13">
         <v>0.25894174422612948</v>
@@ -2242,31 +2276,31 @@
         <v>849.8214484745763</v>
       </c>
       <c r="H4" s="8">
-        <v>434.41276180000017</v>
+        <v>468.6991618000003</v>
       </c>
       <c r="I4" s="8">
         <v>67</v>
       </c>
       <c r="J4" s="8">
-        <v>501.41276180000017</v>
+        <v>535.6991618000003</v>
       </c>
       <c r="K4" s="8">
         <v>71</v>
       </c>
       <c r="L4" s="9">
-        <v>415.40868667457613</v>
+        <v>381.122286674576</v>
       </c>
       <c r="M4" s="8">
-        <v>180.89820959999989</v>
+        <v>215.18460959999987</v>
       </c>
       <c r="N4" s="8">
-        <v>0</v>
+        <v>34.2864</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="P4" s="10">
-        <v>0.51118121645407766</v>
+        <v>0.55152663261360613</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>35</v>
@@ -2296,7 +2330,7 @@
         <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45960</v>
+        <v>45974</v>
       </c>
       <c r="AA4" s="13">
         <v>0.28825328932803584</v>
@@ -2388,7 +2422,7 @@
         <v>83</v>
       </c>
       <c r="Z5" s="12">
-        <v>45953</v>
+        <v>45974</v>
       </c>
       <c r="AA5" s="13">
         <v>0.3723722124622717</v>
@@ -2480,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>97</v>
@@ -2572,7 +2606,7 @@
         <v>111</v>
       </c>
       <c r="Z7" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA7" s="13">
         <v>0.15992064345319656</v>
@@ -2848,7 +2882,7 @@
         <v>147</v>
       </c>
       <c r="Z10" s="12">
-        <v>45967</v>
+        <v>45975</v>
       </c>
       <c r="AA10" s="13">
         <v>0.34945618360655739</v>
@@ -3023,16 +3057,16 @@
         <v>168</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z12" s="12">
-        <v>45954</v>
+        <v>45975</v>
       </c>
       <c r="AA12" s="13">
         <v>-0.51352273844110385</v>
@@ -3044,7 +3078,7 @@
         <v>161</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -3052,13 +3086,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -3100,10 +3134,10 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>175</v>
@@ -3124,7 +3158,7 @@
         <v>179</v>
       </c>
       <c r="Z13" s="12">
-        <v>45960</v>
+        <v>45975</v>
       </c>
       <c r="AA13" s="13">
         <v>0.20489999986167973</v>
@@ -3133,10 +3167,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -3308,7 +3342,7 @@
         <v>203</v>
       </c>
       <c r="Z15" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>97</v>
@@ -3569,7 +3603,7 @@
         <v>237</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>238</v>
@@ -3676,7 +3710,7 @@
         <v>255</v>
       </c>
       <c r="Z19" s="12">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="AA19" s="13">
         <v>0.86590914152298848</v>
@@ -3747,25 +3781,25 @@
         <v>259</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="V20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3780,7 +3814,7 @@
         <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3788,13 +3822,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3827,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3836,25 +3870,25 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>185</v>
       </c>
       <c r="T21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="U21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3869,10 +3903,10 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3880,13 +3914,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>73</v>
@@ -3917,37 +3951,37 @@
         <v>0</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>0</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>135</v>
       </c>
       <c r="T22" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="U22" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="V22" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="W22" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="W22" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z22" s="12">
         <v>45925</v>
@@ -3959,10 +3993,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD22" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -3970,13 +4004,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>151</v>
@@ -4009,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P23" s="10">
         <v>0.93216281830924697</v>
@@ -4018,28 +4052,28 @@
         <v>75</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S23" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="T23" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="U23" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="V23" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="X23" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="V23" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="Y23" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z23" s="12">
         <v>0</v>
@@ -4054,7 +4088,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD23" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -4062,13 +4096,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>207</v>
@@ -4101,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P24" s="10">
         <v>0.35</v>
@@ -4110,28 +4144,28 @@
         <v>75</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>185</v>
       </c>
       <c r="T24" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="U24" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="V24" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="W24" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="X24" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y24" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="X24" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y24" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="Z24" s="12">
         <v>45974</v>
@@ -4154,13 +4188,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>207</v>
@@ -4193,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P25" s="10">
         <v>0.45</v>
@@ -4202,28 +4236,28 @@
         <v>75</v>
       </c>
       <c r="R25" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="S25" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="T25" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="T25" s="11" t="s">
+      <c r="U25" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="U25" s="16" t="s">
+      <c r="V25" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="W25" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="X25" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y25" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>314</v>
       </c>
       <c r="Z25" s="12">
         <v>45974</v>
@@ -4246,13 +4280,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>207</v>
@@ -4285,37 +4319,37 @@
         <v>0</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P26" s="10">
         <v>0.83006926730267527</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>211</v>
       </c>
       <c r="T26" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="U26" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="U26" s="16" t="s">
+      <c r="V26" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="W26" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="X26" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y26" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y26" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="Z26" s="12">
         <v>45974</v>
@@ -4338,13 +4372,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>73</v>
@@ -4377,40 +4411,40 @@
         <v>0</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P27" s="10">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="S27" s="11" t="e">
-        <v>#N/A</v>
+        <v>294</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Z27" s="12">
-        <v>0</v>
+        <v>45974</v>
       </c>
       <c r="AA27" s="13" t="s">
         <v>97</v>
@@ -4422,7 +4456,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4430,13 +4464,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>73</v>
@@ -4469,37 +4503,37 @@
         <v>0</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P28" s="23">
         <v>0.1</v>
       </c>
       <c r="Q28" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R28" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S28" s="24" t="e">
         <v>#N/A</v>
       </c>
       <c r="T28" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="X28" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z28" s="26">
         <v>0</v>
@@ -4514,7 +4548,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4527,7 +4561,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0CB51031-F233-4CF6-8853-EC4F4104A3E3}</x14:id>
+          <x14:id>{8B39D30E-8B53-4F90-B373-8204188C4CBB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4537,7 +4571,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0CB51031-F233-4CF6-8853-EC4F4104A3E3}">
+          <x14:cfRule type="dataBar" id="{8B39D30E-8B53-4F90-B373-8204188C4CBB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FE63A54-EC7D-4F44-B721-5012C290E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77022ADE-58A5-4F3B-AB60-02825FD3D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DA8ED651-45ED-48D9-9992-726079677D10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4020A880-C2A6-4F62-8990-9997720FF84E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,7 @@
 8. Bag resoluation</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. June and Aug Payment under process from FO.
+    <t>1. June and Aug Payment under process from FO.
 2. July payment Received.
 3. Sept calculation sheet not received from team.
 4. Oct document and Attendance verification under processing.
@@ -292,12 +291,13 @@
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
   </si>
   <si>
-    <t>1. Delhi State Onboarding on CRS Portal- No subdistrict
+    <t xml:space="preserve">1. Delhi State Onboarding on CRS Portal- No subdistrict
 2  GHMC Telangana: Provision for single municipal corporation under Four district which is not support by CRS portal
 3. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
 5. Goa will join CRS portal from 1st Dec with three regional Languages.
 6. Approval for Gaurang Rejected.
-7. Indore and Ahmedabad IMC Zonal register creation.</t>
+7. Indore and Ahmedabad IMC Zonal register creation.
+</t>
   </si>
   <si>
     <t>Dhananjay J</t>
@@ -1639,7 +1639,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8C2A10D5-DD50-47C2-8D8B-DB02265BEC3D}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00009481-F41C-454A-BEDF-7559968EB5B3}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1968,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4F0D4-2D00-4F3E-99A2-8B54164809A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA2222A-0A41-4E4E-9093-52CAD56498AB}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2330,7 +2330,7 @@
         <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="AA4" s="13">
         <v>0.28825328932803584</v>
@@ -4561,7 +4561,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8B39D30E-8B53-4F90-B373-8204188C4CBB}</x14:id>
+          <x14:id>{4E087CA7-FAD1-4243-BE00-3255610331D3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4571,7 +4571,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B39D30E-8B53-4F90-B373-8204188C4CBB}">
+          <x14:cfRule type="dataBar" id="{4E087CA7-FAD1-4243-BE00-3255610331D3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77022ADE-58A5-4F3B-AB60-02825FD3D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9960EDD-EBEF-48C1-8F3F-4EC7352046B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4020A880-C2A6-4F62-8990-9997720FF84E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{955F9099-9664-44AD-944D-07E69425DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="335">
   <si>
     <t>SN</t>
   </si>
@@ -164,24 +164,24 @@
     <t>S.no  Bucket name     No. of Tasks
   1.      No Status    =   14
   2.      Estimation   =   10
-  3.     Designing    =    8
-  4.     To Do        =    12
-  5.     In Progress  =    13
-  6.     Under QA Testing = 2
+  3.     Designing    =    9
+  4.     To Do        =    14
+  5.     In Progress  =    15
+  6.     Under QA Testing = 4
   7.     User Acceptance Testing (UAT) = 16
   8.     Released on Production = 273
-  9.     Closed       = 121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 task plan to deployment </t>
+  9.     Closed       = 122</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Replacement of Jaysharee
-2) 4 Months payment pending
-3 up oct bill submitted </t>
+    <t xml:space="preserve">1) For Jayshree replacement resume already shared waiting for client reply
+2) 4 Months payment pending 
+3) End of this months payment expected. </t>
   </si>
   <si>
     <t>Amit K</t>
@@ -600,9 +600,6 @@
 Some Vendor Payment not received details are submitted on email to HO team.</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG &amp; Delta UPS and Vertiv)
 AMC REQUIRED OLD DC INFRA ON URGENT BASIS because our SAN storage and tape library not working , client is issuing a letter for this.
 For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
@@ -951,7 +948,7 @@
     <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
   </si>
   <si>
-    <t>216</t>
+    <t>220</t>
   </si>
   <si>
     <t>72.86 L</t>
@@ -960,10 +957,10 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t>New 3 Candidates selected, trained and joined till 14th November,2025</t>
-  </si>
-  <si>
-    <t>Shortlist, Interview and Train new 20 Candidates.</t>
+    <t>New 6 Candidates selected, they trained and joined till 21st November,2025</t>
+  </si>
+  <si>
+    <t>Shortlist, Interview and Train new 25 Candidates.</t>
   </si>
   <si>
     <t>Recruitment of 20 Candidates.
@@ -1189,16 +1186,21 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t xml:space="preserve">The corporate website has been completed according to the previous Figma design. We are currently working on the design for the inner pages and have already shared two Figma design options for these pages for your review and approval.
-KT of the Booking portal is in progress. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once the pages are approved, we will begin development on the approved designs. </t>
+    <t>Website redevelopment is currently underway. We’ve provided the client with a detailed development plan outlining the steps toward completion.
+Neha and Anant have been brought as UI/UX designers to work on redesigning the inner pages, while Sameer is handling the testing phase.
+The development will be finished on our end by November 25, 2025. Should we receive any feedback, we'll continue working on adjustments after that date.</t>
+  </si>
+  <si>
+    <t>- Daffodil team will provide the KT session and share all relevant documents related to the Booking platform.
+- We will conduct a demo and gather requirements for the HRMS and Asset Management systems.</t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
 - Frontend: Angular
 - DB: MySQL</t>
+  </si>
+  <si>
+    <t>Daffodil team has shown a lack of interest in handing over the required documents of the booking platform.</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1639,7 +1641,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00009481-F41C-454A-BEDF-7559968EB5B3}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EF5912F0-E487-4C29-8749-2A5FE29A65F8}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1968,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA2222A-0A41-4E4E-9093-52CAD56498AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCF192-B103-410F-B09C-16B1BEE9134F}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2107,7 +2109,7 @@
         <v>206.12414119999949</v>
       </c>
       <c r="M2" s="8">
-        <v>186.72101040000018</v>
+        <v>186.72101040000015</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -2146,7 +2148,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA2" s="13">
         <v>0.53779761992455066</v>
@@ -2784,10 +2786,10 @@
         <v>134</v>
       </c>
       <c r="X9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="Z9" s="12">
         <v>45967</v>
@@ -2802,7 +2804,7 @@
         <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2810,13 +2812,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P10" s="10">
         <v>0.6428571428571429</v>
@@ -2858,28 +2860,28 @@
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="Z10" s="12">
         <v>45975</v>
@@ -2891,10 +2893,10 @@
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2902,19 +2904,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
@@ -2941,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P11" s="10">
         <v>0.37799157974231695</v>
@@ -2950,25 +2952,25 @@
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="X11" s="11" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -2983,10 +2985,10 @@
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2994,13 +2996,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -3033,37 +3035,37 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="W12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="Z12" s="12">
         <v>45975</v>
@@ -3075,10 +3077,10 @@
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -3086,13 +3088,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -3119,13 +3121,13 @@
         <v>1687.8791622000001</v>
       </c>
       <c r="M13" s="8">
-        <v>171.16043740000003</v>
+        <v>171.16043739999998</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -3134,28 +3136,28 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="T13" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="X13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="Z13" s="12">
         <v>45975</v>
@@ -3167,10 +3169,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -3178,13 +3180,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -3217,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3226,28 +3228,28 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="Z14" s="12">
         <v>45974</v>
@@ -3259,10 +3261,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3270,13 +3272,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3309,37 +3311,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="Z15" s="12">
         <v>45974</v>
@@ -3351,10 +3353,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3362,16 +3364,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3401,37 +3403,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P16" s="10">
         <v>0.9907005439711728</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="X16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="Z16" s="12">
         <v>45974</v>
@@ -3443,10 +3445,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3454,13 +3456,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3493,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3502,31 +3504,31 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="W17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="X17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="Z17" s="12">
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="AA17" s="13">
         <v>0.60186008759672394</v>
@@ -3535,10 +3537,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3546,19 +3548,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3585,37 +3587,37 @@
         <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="U18" s="30" t="s">
         <v>333</v>
       </c>
       <c r="V18" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="W18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="Z18" s="12">
         <v>45974</v>
@@ -3627,10 +3629,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3638,13 +3640,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3677,37 +3679,37 @@
         <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P19" s="10">
         <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="Z19" s="12">
         <v>45974</v>
@@ -3719,7 +3721,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3730,13 +3732,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3769,37 +3771,37 @@
         <v>0</v>
       </c>
       <c r="O20" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="P20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="R20" s="11" t="s">
+      <c r="S20" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="S20" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="11" t="s">
+      <c r="V20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="Z20" s="12">
         <v>45926</v>
@@ -3811,10 +3813,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3822,13 +3824,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3861,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3870,31 +3872,31 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="S21" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="T21" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="Y21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="Y21" s="11">
-        <v>0</v>
-      </c>
       <c r="Z21" s="12">
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="AA21" s="13">
         <v>0.34652488000000004</v>
@@ -3903,7 +3905,7 @@
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD21" s="15" t="s">
         <v>275</v>
@@ -3963,7 +3965,7 @@
         <v>280</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="T22" s="11" t="s">
         <v>281</v>
@@ -3978,7 +3980,7 @@
         <v>284</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="Y22" s="11" t="s">
         <v>285</v>
@@ -4013,10 +4015,10 @@
         <v>289</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G23" s="8">
         <v>6660.9289406779662</v>
@@ -4105,7 +4107,7 @@
         <v>297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>126</v>
@@ -4147,7 +4149,7 @@
         <v>299</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T24" s="11" t="s">
         <v>300</v>
@@ -4180,7 +4182,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -4197,7 +4199,7 @@
         <v>306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>126</v>
@@ -4272,7 +4274,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -4289,10 +4291,10 @@
         <v>316</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" s="8">
         <v>1275.816245</v>
@@ -4331,7 +4333,7 @@
         <v>317</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>318</v>
@@ -4364,7 +4366,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD26" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -4423,7 +4425,7 @@
         <v>294</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T27" s="11" t="s">
         <v>294</v>
@@ -4561,7 +4563,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4E087CA7-FAD1-4243-BE00-3255610331D3}</x14:id>
+          <x14:id>{8EC3FEFA-923B-4FB1-89EA-8BE083AE5EE5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4571,7 +4573,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4E087CA7-FAD1-4243-BE00-3255610331D3}">
+          <x14:cfRule type="dataBar" id="{8EC3FEFA-923B-4FB1-89EA-8BE083AE5EE5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9960EDD-EBEF-48C1-8F3F-4EC7352046B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{672D1552-A2BC-4C26-83A8-37858CD4173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{955F9099-9664-44AD-944D-07E69425DBEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{23929227-0285-4ACE-9283-6DFE5C9C9045}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -211,24 +211,28 @@
 Resolve all the bugs, issues and queries raised for these developed functionalities</t>
   </si>
   <si>
-    <t>1. 27 resources on-boarded. (16 resources from GAIA – 11 from CMS)
-2. Payment received till Aug’25. Payment expected for Sep’25 in this week.
+    <t xml:space="preserve">1. 27 resources on-boarded. (16 resources from GAIA – 11 from CMS)
+2. Payment received till Sep’25. Invoice for Oct’25 under processing.
 3. DWR mobile app: new changes done for dumpsite. 
-4. New SBM Dashboard ver2.0 (SWM, Legacy waste &amp; Toilets): bug fixing ongoing as per PMU comments. SS: 5 resources onboarded.
-5. UWM Action Plan: additional points added from CPEEHO: Testing ongoing
+4. New SBM Dashboard ver2.0 (SWM, Legacy waste &amp; Toilets): bug fixing ongoing as per PMU comments.
+5. UWM Action Plan: additional points added from CPEEHO: now Live
 6. GFC Indicator logic implemented in DB and changes ongoing in UI side.
-7. MyToilet App: Changes ongoing as per findings in CERT-in audit.
-8. Implementation of Media Service in Java-Ongoing.
-9. Website updates ongoing. Trash Tales, newsletter, contact Us updated
+7. MyToilet App: Changes done as per findings in CERT-in audit. Changes ongoing in Swachhatam portal as per findings in CERT-in audit.
+8. Implementation of Media Service in Java-Onhold.
+9. Website updates ongoing: Trash Tales, Banner Updated.
 10. SS Scoring logic and result declaration: understanding excel sheet
-11. Pushed Prayas and DBT data to PMO website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Maintenance activities: Daily ULB support, Website changes ongoing.
+11. Interviews ongoing to replace remote developers
+12. New implementation in CST action Plan: creation of project per toilet.
+13. Integration of DRAP dashboard with DWR mobile app: done on staging
+</t>
+  </si>
+  <si>
+    <t>Upcoming  activities:
+1. Maintenance activities: Daily ULB support, Website changes ongoing.
 2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing by PMU. DWR Mobile App pilot planned for dumpsite in Nov’25.
-3. SS Handover : Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration done. Doc prepared to update libraries which are old/outdated/deprecated.
+3. SS Handover : Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration done. DO App verified, GA verification ongoing.
 4. Swachh City: working on reports
-</t>
+5. Integration of DRAP dashboard with DWR mobile app on PROD</t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
@@ -812,16 +816,15 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1] As of today, the Smart City entity are awaiting the funds in its bank account for project mobilization/ disbursement.
+    <t>1] The Smart City entity have received a fund from PTRI Bhopal-UADD from E-challan and will reimburse INR 50 Lakh by Today or Tomorrow.
 2] ISCDL team are working for New PPP project of initially 20 ITMS Junction, 20 VMS (5X3), 20 PAS, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects. Post they will issue rest 95 ITMS, 90 VMS (5X3), 90 PAS.
 3. ISCDL team are working for New PPP project of Data centre for 65,000 Camera, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects.</t>
   </si>
   <si>
-    <t>1.Draft letter as per submitted GO-Live letter are reviewed by CEO sir. As per CEO sir, he is taking concurrence from ED sir for issuing the Go-Live certificates. Expected to received final letter in upcoming week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is no clarity against the payment availability at Smart city.
-</t>
+    <t>1. Post the approval from Our HO, will start the working on rest hold junction including BRTS Shifting  components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Smart city are working for monetization of Land and from other project revenue for payment. </t>
   </si>
   <si>
     <t>Akash K</t>
@@ -998,37 +1001,46 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>1. Primary &amp; Backup Servers:
-✅ Fully configured, tested, and installed at NOC. Ready for use; no pending issues.
-2. Substations 1, 2 &amp; 3 (MFM Communication):
-🔧 Network setup done; awaiting switch rack installation and port enabling by JNPA vendor. CMS to complete meter data connectivity within 2–3 days post availability.
-3. Main Substation (MFM Communication):
-📡 Communication established via SCADA. Awaiting API support from GE (JNPA vendor) for EEMS integration.
-4. ABT Meters:
-⚙️ Two meters installed; pending series connection by MSETCL and switch port activation at Incomer room. CMS to proceed post both activities.
-5. RMU Panel Meters:
-🧭 Survey completed; communication pending due to OFC network and switch unavailability. CMS to proceed post JNPA readiness confirmation.
-6. Water Flow Meters:
-💧 62 delivered, 5 installed. Awaiting readiness confirmation from Water Dept for remaining installations (~30 nos.). Larger meter locations yet to be finalized.
-7. Consumer Billing Meters:
-📶 MPLS connectivity established at NOC; link testing in progress. SIM activation and modem setup next for live data flow.
-8. Cloud Registration:
-☁️ AWS account successfully created.
-9. Software Deployment:
-💻 System deployed and integrated at NOC. Supports multi-user access. Enhancements to be taken up during live data phase.</t>
-  </si>
-  <si>
-    <t>Sim card availability and testing with energy meters modem connection</t>
+    <t>Overall Project Progress – Summary
+Primary &amp; Backup Servers
+Fully configured and installed; no pending actions.
+Substations 1, 2 &amp; 3 – MFM Communication
+Network setup done; IPs assigned.
+Awaiting switch rack installation and port enabling by JNPA.
+CMS will enable meter data in 2–3 days once switch is ready.
+Main Substation – MFM Communication
+SCADA communication established.
+API details awaited from SCADA vendor for EEMS integration.
+ABT Meters
+Two meters installed.
+Pending series connection by MSETCL and switch port activation.
+CMS to connect CAT-6 after port is enabled.
+RMU Panel Communication
+Survey completed.
+Waiting for OFC network and switch availability from JNPA.
+Water Flow Meters
+62 delivered; 5 installed.
+Awaiting valve/duct/power readiness from JNPA.
+~30 small meters pending; large meter locations to be finalized.
+Consumer Billing Meters
+MPLS setup ongoing; connectivity to NOC established.
+MPLS testing in progress; SIM activation &amp; modem installation next.
+Cloud Registration
+AWS cloud account registered.</t>
+  </si>
+  <si>
+    <t>Sim testing with modem.
+1 water meter installation.</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>⚠️ Dependency on JNPA vendors for switch installation, port enabling, and OFC network readiness — causing delays in data communication setup.
-🕒 Pending response from GE (SCADA vendor) for API support — holding up integration with EEMS.
-🔌 MSETCL testing team delay in connecting ABT meters in series — impacting meter data availability.
-🚧 Water Dept infrastructure readiness (valves, ducts, power) pending — delaying further water meter installations.
-🔁 Scope clarity for RMU communication and SEZ area pending from JNPA — required to finalize configuration and rollout.</t>
+    <t>Delay in switch rack installation by JNPA affecting MFM meter communication.
+MSETCL testing team not responding, causing delays in ABT meter series connection.
+OFC network and switch unavailability delaying RMU meter communication.
+Infrastructure readiness (valves, ducts, power) still pending for water flow meter installations.
+Dependence on multiple external teams/vendors, causing timeline uncertainty.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1187,7 +1199,7 @@
   </si>
   <si>
     <t>Website redevelopment is currently underway. We’ve provided the client with a detailed development plan outlining the steps toward completion.
-Neha and Anant have been brought as UI/UX designers to work on redesigning the inner pages, while Sameer is handling the testing phase.
+Neha and Anant have been brought on as UI/UX designers to work on redesigning the inner pages, while Sameer is handling the testing phase.
 The development will be finished on our end by November 25, 2025. Should we receive any feedback, we'll continue working on adjustments after that date.</t>
   </si>
   <si>
@@ -1200,7 +1212,9 @@
 - DB: MySQL</t>
   </si>
   <si>
-    <t>Daffodil team has shown a lack of interest in handing over the required documents of the booking platform.</t>
+    <t>Daffodil team has shown a lack of interest in handing over the required documents of the booking platform.
+Performance issue of Raj Kumar – Frontend Developer.
+Billing for Sep &amp; Oct-25 is pending.</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1641,7 +1655,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EF5912F0-E487-4C29-8749-2A5FE29A65F8}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{43BB8E3E-7C36-4A4D-93E6-2E8EA6B082A7}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1970,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCF192-B103-410F-B09C-16B1BEE9134F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E14E3AA-D7B9-46A4-BC30-2AED13743150}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2240,7 +2254,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA3" s="13">
         <v>0.25894174422612948</v>
@@ -3252,7 +3266,7 @@
         <v>189</v>
       </c>
       <c r="Z14" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA14" s="13">
         <v>5.8906222519107154E-2</v>
@@ -3620,7 +3634,7 @@
         <v>240</v>
       </c>
       <c r="Z18" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA18" s="13">
         <v>0.22378829916704679</v>
@@ -3896,7 +3910,7 @@
         <v>274</v>
       </c>
       <c r="Z21" s="12">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="AA21" s="13">
         <v>0.34652488000000004</v>
@@ -4563,7 +4577,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8EC3FEFA-923B-4FB1-89EA-8BE083AE5EE5}</x14:id>
+          <x14:id>{E58E593D-6302-43FF-A0F0-B8FAC05206C3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4573,7 +4587,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8EC3FEFA-923B-4FB1-89EA-8BE083AE5EE5}">
+          <x14:cfRule type="dataBar" id="{E58E593D-6302-43FF-A0F0-B8FAC05206C3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{672D1552-A2BC-4C26-83A8-37858CD4173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CFE949B-1CEB-41BC-8FFB-2FEB672D8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{23929227-0285-4ACE-9283-6DFE5C9C9045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{879EE703-03B3-40D9-BDC2-D42238E1CB85}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -910,27 +910,25 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t xml:space="preserve">-&gt;1. EVS: 10/10 Nos. EVS installation done.
+    <t>1. EVS: 10/10 Nos. EVS installation done.
 2. PA: 20/20 Pairs PA installation done.
 3. VMD: 6/10 Nos. VMD installation done.
-4. ECB: 20/20 Nos. ECB enclosure foundation done.
-5. All materials delivered at site as per PO Qty except 10 Nos. VMD controllers and Accessories. 
+4. ECB: 20/20 Nos. ECB enclosure foundation &amp; installation done.
+5. All materials delivered at site as per PO Qty except 10 Nos. VMD controllers and Accessories.
 6. 99% billing done.
 7. Accessories not yet delivered.
-8. 4 Nos. VMD foundation pending. 1 VMD foundation digging work started. 
-9. Cable laying, connection, configuration and commissioning pending.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] 4 Nos. VMD pole foundation work.
-2] EVS, PA cable laying work. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1]	Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation.
+8. 3/4 Nos. VMD foundation pending. 1 VMD foundation done.
+9. Cable laying, connection, configuration and commissioning pending.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Nos. VMD foundation work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation.
 2. VMD controller not yet delivered.
 3. Cable laying, digging, etc work order not yet given to local vendor. Pending from purchase. Need to follow-ups with purchase team.
-4. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. After discussion with me, Santosh Sir and Vaibhav Sir over the phone with Mr. Deepak Pathak, Bonsai still not supplied any accessories as per SOW for VMD installation work. Need to complete discussion with Bonsai and CMS stakeholders. Payment also a big issue. Bonsai asking the payment of 10 Nos. of supplied VMD poles and structures and the 6 Nos. of installed VMD. They are threatening to stop the installation work due to the payment not yet done. Need immediate support from HO. 
-</t>
+4. VMD foundation work stopped by Bonsai. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. After discussion with me, Santosh Sir and Vaibhav Sir over the phone with Mr. Deepak Pathak, Bonsai still not supplied any accessories as per SOW for VMD installation work. Need to complete discussion with Bonsai and CMS stakeholders. Payment also a big issue. Bonsai asking the payment of 10 Nos. of supplied VMD poles and structures and the 6 Nos. of installed VMD. Need immediate support from HO. Bonsai Not supporting to us. Now very critical situation. 
+5. Cable laying work still pending for ECB, PA, EVS and VMD. The service vendor not yet finalized by purchase team. Now it is very critical. </t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -1315,18 +1313,18 @@
 -- with ITMS expert and field expert.  </t>
   </si>
   <si>
-    <t xml:space="preserve">-&gt; ATCS, ECB, PA, VMD, GPS and VDC maintenance work going on.
--&gt; Quarterly PM report submitting as per the BSCL and SPCL requirement. 
--&gt; ERP solutions developing work still going on. 
--&gt; Trade license module handed over to Nagar Nigam. Rest 15 Modules Modifications works are still in progress.
--&gt; 58 Nos. GPS re-installed.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-&gt; ERP Modification work completion. 
--&gt; 6 Nos. VDC cable issue will be rectified. </t>
-  </si>
-  <si>
-    <t>ERP Support Issues:
+    <t xml:space="preserve">ATCS, ECB, PA, VMD, GPS and VDC maintenance work going on.
+1. Quarterly PM report submitting as per the BSCL and SPCL requirement.
+2. ERP solutions developing work still going on.
+3. Trade license module handed over to Nagar Nigam. Rest 15 Modules Modifications works are still in progress.
+4. 59 Nos. GPS re-installed. 1 GPS missing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ERP Modification work completion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERP Support Issues:
 1. SoftTech is not providing adequate support to resolve ERP-related issues and pending modifications. Management intervention is required to close these matters.
 2. Request for Services Module:
 SoftTech has stopped providing support for the Request for Services module and has put its development on hold due to financial constraints. Immediate management support is requested to resume the development.
@@ -1334,7 +1332,8 @@
 Bhagalpur site is facing severe power fluctuation problems. UPS back-up is not available from SPCL, resulting in damage to several Traffic Controller and VMD Controller cards due to over-voltage. Proper earthing is also missing, and the HT overhead line is dangerously close to the poles.
 Solutions: We are currently creating earthing pits for the Traffic Controllers and poles and are planning to use AVS and surge protectors to prevent further damage.
 4. ECB Card Compatibility:
-The new ECB cards are not matching with the existing system. The issue needs to be checked and closed at the earliest.</t>
+The new ECB cards are not matching with the existing system. The issue needs to be checked and closed at the earliest.
+</t>
   </si>
   <si>
     <t>Muzaffarpur O&amp;M</t>
@@ -1362,17 +1361,20 @@
 --- with ITMS expert and filed expert.  </t>
   </si>
   <si>
-    <t xml:space="preserve">1] ATCS, ECB, PA, VMD maintenance work is going on. 
-2] ERP O&amp;M also going on. 
-3] ERP new module, modification work is going on. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] ERP issues closing plan. 
-2] VDC issues closing plan. </t>
+    <t xml:space="preserve">1] ATCS, ECB, PA, VMD maintenance work is going on.
+2] ERP O&amp;M also going on.
+3] ERP new module, modification work is going on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] ERP issues closing plan.
+2] VDC issues closing plan.
+</t>
   </si>
   <si>
     <t xml:space="preserve">1] SoftTech is not providing adequate support for ERP modifications. Immediate management intervention is required to resolve this issue.
-2] The new ECB card is not compatible with the ECB application. This needs to be addressed and resolved urgently. </t>
+2] The new ECB card is not compatible with the ECB application. This needs to be addressed and resolved urgently.
+</t>
   </si>
   <si>
     <t>DVC O&amp;M</t>
@@ -1394,22 +1396,25 @@
 •	Any Changes in S/w, reports, screen without extra cost as per PO and need to be added other OEM meters in the same T&amp;C. </t>
   </si>
   <si>
-    <t xml:space="preserve">1. 7 Qrt. O&amp;M support done and 6 Qrt billing done. 
-2. Out of 6 Qrt, 4 Qrt Payment received. 2 Pending due to the DVC vendor billing portal have in development stage. Expected by this month end payment for 2 Qrt will be received. 
-3. 1 Qrt billing due. By this month it will be done. 
-4. Meter rectification work going on at the substations. 
-5. CERTIN Audit partially done. Pending for Lease line not available from DVC end and they are arranging. </t>
+    <t xml:space="preserve">1. 7 Qrt. O&amp;M support done and 6 Qrt billing done.
+2. Out of 6 Qrt, 4 Qrt Payment received. 2 Pending due to the DVC vendor billing portal have in development stage. Expected by this month end payment for 2 Qrt will be received.
+3. 1 Qrt billing due. By this month it will be done.
+4. Meter rectification work going on at the substations.
+5. CERTIN Audit partially done. Pending for Lease line not available from DVC end and they are arranging.
+</t>
   </si>
   <si>
     <t xml:space="preserve">1. CERTIN audit completion.
-2. Meter rectification. </t>
+2. Meter rectification.
+</t>
   </si>
   <si>
     <t xml:space="preserve">1. Out of 706 EDMI meters, 26 units are frequently found faulty. These need to be either repaired by EDMI or replaced (by EDMI or another make). It is becoming very difficult to maintain service levels without LD implications. Immediate management support is required.
 2. Around 60 out of the remaining 680 meters are facing TTL card issues. Our team is continuously replacing TTL cards to keep the system functional.
 3. 2–3 blocks (out of 96) are missing on a daily basis because we are required to restart the meters twice a day.
 4. DVC is extracting raw data from our server through API for their internal services. We need to continue providing necessary API/service support as per the PO terms and conditions.
-Your immediate attention and intervention in resolving these issues will help ensure uninterrupted service and compliance with contractual obligations. </t>
+Your immediate attention and intervention in resolving these issues will help ensure uninterrupted service and compliance with contractual obligations.
+</t>
   </si>
   <si>
     <t>Daman SC</t>
@@ -1655,7 +1660,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{43BB8E3E-7C36-4A4D-93E6-2E8EA6B082A7}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A19752E0-AC60-4945-962A-9AF88FC3CE15}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1984,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E14E3AA-D7B9-46A4-BC30-2AED13743150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335E6689-FEB1-40F2-8E1A-1C79E34D47B6}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3450,7 +3455,7 @@
         <v>214</v>
       </c>
       <c r="Z16" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA16" s="13">
         <v>0.21114271514376304</v>
@@ -4184,7 +4189,7 @@
         <v>304</v>
       </c>
       <c r="Z24" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA24" s="13">
         <v>0.15841573956451205</v>
@@ -4276,7 +4281,7 @@
         <v>313</v>
       </c>
       <c r="Z25" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA25" s="13">
         <v>0.54524491322510427</v>
@@ -4368,7 +4373,7 @@
         <v>322</v>
       </c>
       <c r="Z26" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA26" s="13">
         <v>0.68765168853167546</v>
@@ -4577,7 +4582,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E58E593D-6302-43FF-A0F0-B8FAC05206C3}</x14:id>
+          <x14:id>{F30EC4FE-3F9D-4197-AA61-1300590BC7A0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4587,7 +4592,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E58E593D-6302-43FF-A0F0-B8FAC05206C3}">
+          <x14:cfRule type="dataBar" id="{F30EC4FE-3F9D-4197-AA61-1300590BC7A0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CFE949B-1CEB-41BC-8FFB-2FEB672D8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8586BBB-202B-4DF0-B25C-C21A61DFCFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{879EE703-03B3-40D9-BDC2-D42238E1CB85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2596B31A-8103-4393-A085-D38B226FE364}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -1660,7 +1660,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A19752E0-AC60-4945-962A-9AF88FC3CE15}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F4B67D02-A674-441B-855D-5D961F66BF95}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1989,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335E6689-FEB1-40F2-8E1A-1C79E34D47B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BBE5E-712B-4617-BBFC-6DC7241CE4B4}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4582,7 +4582,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F30EC4FE-3F9D-4197-AA61-1300590BC7A0}</x14:id>
+          <x14:id>{A20466C9-35AF-47B7-B7BE-73E6354F2916}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4592,7 +4592,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F30EC4FE-3F9D-4197-AA61-1300590BC7A0}">
+          <x14:cfRule type="dataBar" id="{A20466C9-35AF-47B7-B7BE-73E6354F2916}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8586BBB-202B-4DF0-B25C-C21A61DFCFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{958436FA-4290-4D03-B0AF-24194A0E5736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2596B31A-8103-4393-A085-D38B226FE364}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{895C864D-CF63-4386-BDD4-FA6142C45017}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -587,13 +587,12 @@
 Provision – as &amp; when required.</t>
   </si>
   <si>
-    <t>Q1 &amp; Q2&amp; Q3 payment and 60% Capex payment  and also 2% capex payment released.
-Q.4 Data preparing for bill submission WIP. (Bill submit before 20 Nov. because some details are pending from HR end Like PF, ESIC and Paid chalan copy etc.)
+    <t>Q1 &amp; Q2&amp; Q3 payment and 60% Capex payment and also 2% capex payment released.
+Q.4 Data preparing for bill submission WIP. (Bill submit before 22 Nov. because some details are pending from HR end Like PF, ESIC and Paid chalan copy etc.)
 32 Manpower deployed as per client requirements.
 ISO Certification Documents parts ready some parts are pending to client end for Audit.
 IT Equipment like server switch and storage AMC not start yet.
 Video wall down last one month due to lighting effect.
-Minimum wages and saturatory  Bonus issue not resolved from our HR side.
 1st floor 20 No's Ac AMC not done from HO and Purchase team.</t>
   </si>
   <si>
@@ -601,15 +600,15 @@
 Video wall Quote and Switch quote submit to Insurance team for claim process.
 IT equipment for AMC vendor visit at site for check all devices.
 Q.4 PM activity and breakdown issues resolve as per requirement.
-Some Vendor Payment not received details are submitted on email to HO team.</t>
-  </si>
-  <si>
-    <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; SUDHIR SALES DG &amp; Delta UPS and Vertiv)
+Some Vendor Payment not received details are submitted on email to HO team.
+Q4 invoice submitted tomorrow to client.</t>
+  </si>
+  <si>
+    <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; Delta UPS and Vertiv)
 AMC REQUIRED OLD DC INFRA ON URGENT BASIS because our SAN storage and tape library not working , client is issuing a letter for this.
 For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
 Video wall down last 30 days, Vendor PO pending and insurance team not responding proper time.
 Insurance claim register for video wall and Switches.
-Minimum wages, Increment letter and saturatory  Bonus issue not resolved from our HR side.
 1st floor 20 No's Ac AMC not done from HO and Purchase team.</t>
   </si>
   <si>
@@ -1128,42 +1127,19 @@
     <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : 02-Jan-27</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Development, deployment, and support of NOC Portal with modules for Login, User Registration, Application Submission, and Approval workflows.
 Implementation of Registration &amp; Validation including Mobile OTP, GST validation, Aadhaar integration, and User Authorization.
 Enable Application Submission with GIS data pickup, document upload, affidavit submission, e-sign, payment gateway, and Q&amp;A module.
 Workflow automation for Right of Way (ROW) applications with end-to-end submission tracking.</t>
   </si>
   <si>
-    <t>Total 12 modules (functionalities) to be developed in this project.
-Completed - 5
-In progress - 3
-Pending (dependencies from Client) - 4
-→ Module-wise Status with remarks as below;
-●	Development Completed for:
-1] CDAC E-Sign Integration - Fully integrated and tested.
-2] Bharatkosh Payment Integration - Live and functional.
-3] Amenity Listing - Finalized and ready for use.
-4] Compliance Questions Validation Enhancement (Access) - Pending Review and approval.
-5] Access Upload Drawings &amp; Documents - Awaiting initiation and final approvals.
-●	Development In Progress for:
-1] GIS Data Cleaning - Data refinement activities underway.
-2] PA/CA/AE/IE User Data Cleaning - User data validation and cleaning ongoing.
-3] GIS Data (Geo Server Setup) - Geo Server establishment blocked due to Docker image support issue; Shridhar is investigating. MoRTH confirmation is still awaited.
-●	Pending for:
-1] UIDAI Aadhaar Integration - Awaiting initiation and final approvals.
-2] Utility Listing - Awaiting initiation and final approvals
-3] Compliance Questions Validation Enhancement (ROW) - Pending - Awaiting initiation and final approvals.
-4] ROW Upload Drawings &amp; Documents - Pending - Awaiting initiation and final approvals.</t>
-  </si>
-  <si>
-    <t>●	Expedite resolution of Geo Server/Docker issue.
-●	Obtain MoRTH confirmation for GIS data provisioning.
-●	Initiate UIDAI Aadhaar integration post prerequisites.</t>
-  </si>
-  <si>
-    <t>●	GIS Data / Geo Server: Docker image issue hindering setup; pending MoRTH confirmation.
-●	UIDAI Aadhaar Integration: Implementation to begin after receiving required approvals and environment setup.
-●	Template creation for Provisional License and Final License.</t>
+    <t>Phase 1 development has been completed, and we are currently working on fixing the security audit bugs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fixing the security audit bugs.</t>
   </si>
   <si>
     <t>Pradeep N</t>
@@ -1660,7 +1636,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F4B67D02-A674-441B-855D-5D961F66BF95}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{167188AD-27F0-4803-8742-DB2FCCCCD6CE}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1989,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BBE5E-712B-4617-BBFC-6DC7241CE4B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11F283A-5F90-480A-89EC-C1859BDC38D9}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2811,7 +2787,7 @@
         <v>135</v>
       </c>
       <c r="Z9" s="12">
-        <v>45967</v>
+        <v>45981</v>
       </c>
       <c r="AA9" s="13">
         <v>0.16973100550277276</v>
@@ -3802,28 +3778,28 @@
         <v>258</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>41</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="Z20" s="12">
-        <v>45926</v>
+        <v>45980</v>
       </c>
       <c r="AA20" s="13" t="s">
         <v>97</v>
@@ -4582,7 +4558,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A20466C9-35AF-47B7-B7BE-73E6354F2916}</x14:id>
+          <x14:id>{24033435-CE2B-46B8-9324-77C8623FDF4D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4592,7 +4568,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A20466C9-35AF-47B7-B7BE-73E6354F2916}">
+          <x14:cfRule type="dataBar" id="{24033435-CE2B-46B8-9324-77C8623FDF4D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{958436FA-4290-4D03-B0AF-24194A0E5736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61A61C3-3770-4E72-B3B9-00F6835738DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{895C864D-CF63-4386-BDD4-FA6142C45017}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{313C508B-6EB7-4500-A495-2AA7A3231A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="339">
   <si>
     <t>SN</t>
   </si>
@@ -273,7 +273,7 @@
 Application Developers, Technical Support (helpdesk) – 6 resource each</t>
   </si>
   <si>
-    <t>1. 25 Resource deployed (one Tech Support Remaining).
+    <t>1. 25 Resource deployed.
 2. Development of new Module is under process as per CRS requirement.
 3. DC and DR Sync up , Horizontal and vertical scalling
 4. State onboard is on going.
@@ -283,25 +283,25 @@
 8. Bag resoluation</t>
   </si>
   <si>
-    <t>1. June and Aug Payment under process from FO.
-2. July payment Received.
-3. Sept calculation sheet not received from team.
-4. Oct document and Attendance verification under processing.
-5. Integration of UMANG App with CRS Portal
-6. Inactive RU Report, Certificate Cancellation Report.
-7. Critical bug fixing</t>
+    <t>1. June and Aug Payment under process from FO. 
+2. Sept patment approval under processing from RGI.
+3. Oct document and Attendance verification under processing.
+4. Integration of UMANG App with CRS Portal
+5. Inactive RU Report, Certificate Cancellation Report ,  ,
+6. Bihar , Gujarat and Puducherry Bug resolation
+7. Enhancement: Payment Reconciliation and Collecting EPIC number in the death registration 
+8. API for Punjab, Kerala &amp; Goa , Death Aadhar Data sharing with UIDAI</t>
   </si>
   <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Delhi State Onboarding on CRS Portal- No subdistrict
+    <t>1. Delhi State Onboarding on CRS Portal- No subdistrict
 2  GHMC Telangana: Provision for single municipal corporation under Four district which is not support by CRS portal
 3. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
-5. Goa will join CRS portal from 1st Dec with three regional Languages.
-6. Approval for Gaurang Rejected.
-7. Indore and Ahmedabad IMC Zonal register creation.
-</t>
+4. Puducherry states joined on CRS portal from 1st Dec.
+5. Verificatio for Navdeep Rana is pending.
+6. Indore and Ahmedabad IMC Zonal register creation</t>
   </si>
   <si>
     <t>Dhananjay J</t>
@@ -741,12 +741,15 @@
 Payment 100% after successful installation.</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M activity </t>
-  </si>
-  <si>
-    <t>20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
+    <t>Under O &amp; M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
 22 no of UCON 10 controller we needs to replace. - ICCC
-ATCS spare request given 3 months back still no update from purchase team.</t>
+</t>
   </si>
   <si>
     <t>Sachin R</t>
@@ -772,18 +775,16 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice process and O &amp; M activity </t>
+    <t xml:space="preserve">O &amp; M activity. </t>
   </si>
   <si>
     <t xml:space="preserve">VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
-5 no of VMD LED time have issue. Need to purchase new module - ICCC
-22 no of UCON 10 controller we needs to replace. - ICCC
+22 no of UCON 10 controller we need to replace. - ICCC
 300 faulty module given to OEM for replace material  --- VMC-P4 LED 
 40 no location battery stolen. Insurance under process 
-DR OEM needs to final – ICCC Project 
+DR OEM needs to final – ICCC Project
+VMC-CCTV Project EMD submission pending  
+ANPR IR needs to repair- Under process 
 </t>
   </si>
   <si>
@@ -1249,6 +1250,9 @@
     <t>Start Date (PO) : 25-Feb-21 :: End Date (PO) : 27-Feb-28</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>O&amp;M – 618 L (1st Year 237 L &amp; 2nd Year 381 L)</t>
   </si>
   <si>
@@ -1257,7 +1261,33 @@
 • Implementation at EOC locations across 14 DEOC, 77 TEOC, 14 Fire Stations, 20 Matsya Bhavan and Police Head Quarter( 126 locations).</t>
   </si>
   <si>
+    <t>EWDS Implementation completed on 31st March 2024.
+All the implementation payment has been collected.
+Currently project is on O&amp;M phase and running the Second year.
+O&amp;M start Date- 01-04-2024
+O&amp;M End Date- 31-03-2026
+First year O&amp;M payment has been collected.
+Balance payment for lightning arrestor installation with an amount of 5L and 35 BSNL
+location shifting balance payment of 42L has been received.</t>
+  </si>
+  <si>
+    <t>O&amp;M second year 2nd quarter billing to be done.
+Collection for the first and second quarter invoices.
+New battery commercial finalization with customer and further fund allocation process initiation.
+Follow up for Wayanad 5 new Siren project order. TSG has been approved the amount of 4Cr and file is under Disaster Management Department for further financial approvals.
+Camera issues rectifications.
+Submission for Air Ride Siren proposal.
+Collection of Laptop batteries delivered payment-58K.</t>
+  </si>
+  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Siren spare to be purchased. Currently 12 numbers Siren units are nonfunctional due to Siren board, Amplifier and DC unit issues. Request has been raised with purchase team to negotiate with vendor and place the purchase order.
+Dell Servers and Storage AMC renewal.
+Frequent camera issues due to water leakage. This to be negotiate with vendor and rectification should be on free of cost.
+Fine tuning of Citizen portal
+Replacement for the Trinity Application-KSDMA has repeatedly expressed concerns in our previous meetings regarding the Trinity application. They are not satisfied with its usability, as it is not user-friendly and requires multiple logins to complete the workflow. During our CEO visit 17th November 2025 , discussed this concern.</t>
   </si>
   <si>
     <t>Sreejith V</t>
@@ -1636,7 +1666,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{167188AD-27F0-4803-8742-DB2FCCCCD6CE}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{AEC83788-E689-4816-A633-2147743B610B}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1965,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11F283A-5F90-480A-89EC-C1859BDC38D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F406130-9C56-4E0C-BBA5-4A8DD23FE559}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2327,7 +2357,7 @@
         <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="AA4" s="13">
         <v>0.28825328932803584</v>
@@ -3054,16 +3084,16 @@
         <v>167</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z12" s="12">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="AA12" s="13">
         <v>-0.51352273844110385</v>
@@ -3075,7 +3105,7 @@
         <v>160</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -3083,13 +3113,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -3131,19 +3161,19 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="W13" s="11" t="s">
         <v>177</v>
@@ -3155,7 +3185,7 @@
         <v>178</v>
       </c>
       <c r="Z13" s="12">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="AA13" s="13">
         <v>0.20489999986167973</v>
@@ -3164,10 +3194,10 @@
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -3600,7 +3630,7 @@
         <v>236</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>237</v>
@@ -4051,29 +4081,29 @@
       <c r="R23" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="S23" s="11" t="e">
-        <v>#N/A</v>
+      <c r="S23" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Z23" s="12">
-        <v>0</v>
+        <v>45981</v>
       </c>
       <c r="AA23" s="13">
         <v>0.42434365454578726</v>
@@ -4085,7 +4115,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD23" s="15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -4093,13 +4123,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>206</v>
@@ -4132,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P24" s="10">
         <v>0.35</v>
@@ -4141,28 +4171,28 @@
         <v>75</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>184</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Z24" s="12">
         <v>45981</v>
@@ -4185,13 +4215,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>206</v>
@@ -4224,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P25" s="10">
         <v>0.45</v>
@@ -4233,28 +4263,28 @@
         <v>75</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Z25" s="12">
         <v>45981</v>
@@ -4277,13 +4307,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>206</v>
@@ -4316,37 +4346,37 @@
         <v>0</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="10">
         <v>0.83006926730267527</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>210</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Z26" s="12">
         <v>45981</v>
@@ -4369,13 +4399,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>73</v>
@@ -4408,37 +4438,37 @@
         <v>0</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P27" s="10">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S27" s="11" t="s">
         <v>210</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Z27" s="12">
         <v>45974</v>
@@ -4453,7 +4483,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4461,13 +4491,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>73</v>
@@ -4500,37 +4530,37 @@
         <v>0</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P28" s="23">
         <v>0.1</v>
       </c>
       <c r="Q28" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="R28" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S28" s="24" t="e">
         <v>#N/A</v>
       </c>
       <c r="T28" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="X28" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Z28" s="26">
         <v>0</v>
@@ -4545,7 +4575,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4558,7 +4588,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24033435-CE2B-46B8-9324-77C8623FDF4D}</x14:id>
+          <x14:id>{4587DE35-C0D6-4CAC-88C0-9578F575A9DC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4568,7 +4598,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{24033435-CE2B-46B8-9324-77C8623FDF4D}">
+          <x14:cfRule type="dataBar" id="{4587DE35-C0D6-4CAC-88C0-9578F575A9DC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61A61C3-3770-4E72-B3B9-00F6835738DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F4ECF4-7F13-4608-B60B-9327A67460C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{313C508B-6EB7-4500-A495-2AA7A3231A68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{805DBD9F-5CB0-4D9C-8191-BAA1B6B53D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -408,10 +408,10 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t xml:space="preserve">Production issue is currently in progress; inventory data has been migrated for the IT department; five UAT points have been closed for the Finance module; and retired employee credentials have been shared with the HR department for functionality review. Data Migration for Finance module in Progress. </t>
-  </si>
-  <si>
-    <t>Production issue tracker, Legal &amp; Admin Module UAT points Closer , Continue data migration.</t>
+    <t>HRMS, Legal, and IT module UAT points have been completed. In the Finance module, we have completed 6 points and 5 points are in progress. We are also working on production issues; the count has reduced from 48 to 31</t>
+  </si>
+  <si>
+    <t>We will work on the production issues, and proceed with the closure of the Admin module and Finance module</t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
@@ -441,7 +441,7 @@
     <t>Start Date (PO) : 13-Nov-24 :: End Date (PO) : 12-Nov-27</t>
   </si>
   <si>
-    <t>38</t>
+    <t>30</t>
   </si>
   <si>
     <t>As per achievment, Phase 1 - 321 L, Phase 2 onwards - 350 L</t>
@@ -459,29 +459,30 @@
 → All Nine modules of Phase I development &amp; production deployment is done.
 → Drone moved to Phase II.
 → Phase II updates
-	- Modules deployed on production
-	  	Team Structure, BICRS, Highway QR
-	- Modules on UAT
-	         Road Closure, Document repository, Critical Correspondence
-	-  Requirement gathering done for 
-	        On boarding user fees agency, Issuance of NCR, Payment to AE/IE, Digitalization of Schedule H, NSV Surveys / Priority Maintenance, CO Division (Onboarding, Toll Master)
-	 -  Requirement gathering in progress for 
-	 	 NHIDCL and MoRTH, Drone, Blackspot
-    - Development in progress on
-  		Issuance of NCR
-  		Payment to AE/IE</t>
-  </si>
-  <si>
-    <t>→ Development of Issuance of NCR, Payment to AE/Issuance
+- Modules deployed on production
+Team Structure, BICRS, Highway QR
+- Modules on UAT
+Road Closure, Document repository, Critical Correspondence (Client Sign off awaited)
+- Requirement gathering done for
+On boarding user fees agency, Issuance of NCR, Payment to AE/IE, Digitalization of Schedule H, NSV Surveys / Priority Maintenance, CO Division (Onboarding, Toll Master)
+- Requirement gathering in progress for
+NHIDCL and MoRTH, Drone, Blackspot
+- Development in progress on
+Issuance of NCR
+Payment to AE/IE
+NHIDCL and MoRTH</t>
+  </si>
+  <si>
+    <t>→ Development of Issuance of NCR, Payment to AE/Issuance, NHIDCL and MoRTH
 → Deployment of Document Repository, Critical Correspondence, and Road Closure.
-→ Requirement gathering for Drone, Blackspot, NHIDCL, MoRTH and Contractor payment</t>
+→ Design finalisation Drone, Blackspot, NHIDCL, MoRTH and Contractor payment</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
   </si>
   <si>
     <t>→ Phase II timelines are quite tight considering the workload and current team capacity.
-→ Timely onboarding of additional resources will be crucial.
+→ We are behind the shared plan due onboarding of additional resources. Immideate deployment of additional resources is be crucial.
 → Scope addition / Change Requests in ongoing development, even on the final day.</t>
   </si>
   <si>
@@ -516,41 +517,34 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t xml:space="preserve">1] Krishi Mapper : 
-A. GIS Dashboard new layout implemented on Production server
-B. Working on Assign Target. Adding Self assign target data listing
-C. GIS implementing option for Google to Bhuvan Map switching
-D. Delivered NF Mobile app to the division
-E. Assets App done and under testing before going live
+    <t>1] Krishi Mapper :
+A. GIS Dashboard new layout :suggestion implemented
+B. Assign Target : deployed over production
+c. oil assets : deployed over play store
+d. RAD changes :  deployed over play store
+e. AIKOSH - Different scheme onboarding
 2] Natural Farming:
-A. Start working on implementing MIS Report module
-B. Designer working on page layout
-C. Need to show specific village level farmer data and also give data export option. 
-3] UPAg
-A. Meeting with Division for review the team performance
-B. Given briefing to Crops Director Komal
-4] M&amp;T
+A. MIS Report module : Testing done /some observation suggested
+3] M&amp;T
 A. FMTTI, SMAM &amp; CRM components done from user management
 B. Survey data report module done
 C. Data fetching from external API, showing total count and making the relevant report to showing the data
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] Krishi Mapper: 
+4] Krishi Unnati : Agency module done and data insertion continue for testing</t>
+  </si>
+  <si>
+    <t>1] Krishi Mapper:
 A. RKVY API integration
 B. Seed Fostering scheme onboarding
 C. AIF crop stage changes
-2] Natural Farming
-A. Deliver MIS report Module to division
-B. Demonstration to States about the NF scheme on KM
+D. PDMC multielection surveyor</t>
+  </si>
+  <si>
+    <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] Heavy workload on UI/UX due to shortage of designer
+2] Facing API loading issue from server side due to lack of DB Developer.
 </t>
-  </si>
-  <si>
-    <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
-  </si>
-  <si>
-    <t>1] Heavy workload on UI/UX due to shortage of designer
-2] Facing API loading issue from server side due to lack of DB Developer.</t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -638,32 +632,30 @@
 PBG of 3% of balance of TCV (137 L) to be submitted at end of Qtr 4.</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Jan23 to Sept25 (Total 11 quarters payment released- 75%)
+    <t>1)Jan23 to Jun25 (Total 11 quarters payment released- 75%)
 2)24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withhold payment- KSCL will not pay to TechM (re-imbursement)- KSCL will not pay to Tech M reimburesement and will have to be paid by Tech M to CMS
-3) Billing done for AMJ25 &amp; JAS25 Qtr
-</t>
-  </si>
-  <si>
-    <t>1) To expedite ATCS -23 junctions for making it operational
-2) VMSB issue resolution to keep it live
-3) Metro Inventory consolidation
-4) Reimbursement of recurring charges from Tech-M
-5) Release of 25% retention/withheld amount
-6) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
-7)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,
-8)Coordination with purchase to issue an amended P.O for M/s Commend towards their AMC services for P.A system
+3) Billing done for AMJ25 &amp; JAS24 Qtr</t>
+  </si>
+  <si>
+    <t>1) Project inventory consolidation
+2) To expedite ATCS -23 junctions for making it operational
+3) VMSB issue resolution to keep it live
+4) Metro Inventory consolidation
+5) Reimbursement of recurring charges from Tech-M
+6) Release of 25% retention/withheld amount
+7) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
+8)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,
 9) Deployment of smart parking sensors at sites that can be completed as per the existing quantity of sensors.</t>
   </si>
   <si>
-    <t xml:space="preserve">1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions and poor quality work exhibited in work expedition of it.  
-2)Vendor Videonetics "Time for Red" in the final stage of deployment.
+    <t>1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
+2)Vendor Videonetics "Time for Red" feature not yet been delivered despite the forgone timeline. Client now want to replace CMS.
 3)Battery order is placed and expected around 8th Nov for its delivery. 
 4)VMSB devices facing recurring problems (dark spots, black lines, component failures).Smart Parking sensors &amp; VMSB card-related issues.
 5)HDD order for LPU is awaited as a result of which system at various junction has downtime.
 6) Smart parking affected due to unavailability of sensors, and no visibility of it has irrated the client.
 7) DR/DC – The OEM ESDS services has expired in Dec’24 and has been disabled.  
-8)Client’s requirement of inventory list.
-</t>
+8)Client’s requirement of inventory list.</t>
   </si>
   <si>
     <t>Saleel H</t>
@@ -697,16 +689,27 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. DB server issues, gate application is getting hang
-2. Taken official system downtime and patch updated.
-3. Antivirus has been disabled
-4. System is under observation
-5. This week case worker were not available to clear our CAMC bills.
+    <t xml:space="preserve">1. KK gate cruise gate installation is completed
+2. We have to raise invoice for kk gate and cruise gate installation, awaiting for invoice from Mumbai invoicing team, It will be submitted to client for payment process once I received the invoice.
+3. CAMC invoice already submitted to NMPA for payment process. i.e. till Sep 2025
+4. Few changes are done for ongoing DB Server issue, system is still under observation.
+5. Few non compliance received from client. we are working for the same for rectification, below is the update.
+1. Boom barrier at HMV exit of Mallya gate is delay to respond to display card details and also boom needs to replaced for an aesthetic point of view.
+CMS: a. We are already working on application delay issue, It will be fixed at all the gates with in 10 working days.
+          b. Mallya gate HMV exit boom barrier arm procurement and installation may take up to 30days, already we are in co- ordination with OEM.
+2. HMV entry side of KK gate where boom barrier installation along with its configuration and display indicator for FRS needs to be done.
+CMS: Configuration is already completed, procurement and installation of the Boom barrier Arm may take up to 30days since already we are in co- ordination with OEM
+3. SJ gate UHF reader cover box needs to be replaced since it got corroded
+CMS: procurement and installation of reader cover box may take up to 30days
+4. Boom barrier at the SJ gate entry side needs to be increase its length
+CMS: complied
+5. Buzzer must made to work in Mallya gate exit end of pedestrian lane.
+CMS: complied
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB server issues must be resolved.
-Following up with NMPA for bill clearance
+    <t xml:space="preserve">Follow up with client for payment clearance.
+Working to completed above mentioned pending tasks.
 </t>
   </si>
   <si>
@@ -857,19 +860,20 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t>SMS development has completed
-Restart the server to clear cache and it has increased server performance
-Working on SM, MM, FA modules bug fixing.</t>
-  </si>
-  <si>
-    <t>Planning for payroll demo
-Segment report to start the development during next week.</t>
+    <t>Fixing the bugs and enhancements of SM, MM HRMS and FA
+Working pending approval and transaction reports.
+Send an email for Payroll demo.
+SMS issue has fixed</t>
+  </si>
+  <si>
+    <t>CO module will be planned to start.
+We will continue to take enhancements tickets for all four modules HRMS, SM, MM and FA</t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
   </si>
   <si>
-    <t>No major challenges</t>
+    <t>No major risks</t>
   </si>
   <si>
     <t>Priya R</t>
@@ -1062,7 +1066,7 @@
     <t>Start Date (PO) : 09-Jun-25 :: End Date (PO) : 08-Oct-25</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
   </si>
   <si>
     <t>As per achievment.</t>
@@ -1077,7 +1081,8 @@
 Deployment of proposed resources for total 80 Man-months.</t>
   </si>
   <si>
-    <t>1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
+    <t xml:space="preserve">Modules Completed
+1.	Authentication Module – Implemented secure login and access control mechanism with proper user roles and permissions.
 2. Landing Page – Developed and deployed interactive dashboard with quick navigation to all major modules.
 3. Agency Selection – Functionality for selecting and managing agencies successfully integrated.
 4. View Girder Assignment – Module to view girder assignment details completed and tested.
@@ -1093,27 +1098,19 @@
 14. API integration and inter-service communication successfully tested.
 15. GAD Management and WPSS/QAP Approval flows are functional and aligned with updated requirements.
 16. Stakeholder onboarding and agency management workflows are fully operational.
-17.Email Integration – Successfully implemented and tested email service for notification and approval workflows.
-18.	Girder Fabrication &amp; Raw Material Approval Process – Partially completed; remaining integration and approval flow under development.
-19. WPQR Preparation &amp; Submission (Welding Procedure Qualification Record) – Partially completed; submission and approval components in progress.
-20. Layout, Master Plates, Jigs, Joints &amp; Fixtures – Inspection Request – Partially completed; inspection request generation and workflow integration ongoing.
-21. Cutting, Straightening &amp; Edge Preparation – Inspection Request – Partially completed; validation and backend service linkage under progress.
-Plan
-22. Inspction module completed
-23. Workshop Completed
-RDSO Lucknow demo has been given successfully</t>
-  </si>
-  <si>
-    <t>Weekly Plan
-Bug fixing and changes implementation</t>
+17.Email Integration – Successfully implemented and tested email service for notification and 18. approval workflows.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo for NHAI , Railway, and RDSO 
+Bug fixing </t>
   </si>
   <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
   </si>
   <si>
-    <t>1.	Due to continuous changes in PRD and Figma designs, development work is in progress.
-2. Continues Requirement/changes in application after demo.
-Note: Requirement collected till 10th september has been deeveloped on time 31st Oct 2025. Requirement changes after 10th September is continue in progress</t>
+    <t xml:space="preserve">continuous changes in PRD and Figma designs, development work is in progress.
+</t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1666,7 +1663,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{AEC83788-E689-4816-A633-2147743B610B}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5E6D0F19-EF12-4927-9E86-F8B0554B625C}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1995,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F406130-9C56-4E0C-BBA5-4A8DD23FE559}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C62734-0E23-407A-BF86-E8AE9DD14599}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2541,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>97</v>
@@ -2633,7 +2630,7 @@
         <v>111</v>
       </c>
       <c r="Z7" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA7" s="13">
         <v>0.15992064345319656</v>
@@ -2725,7 +2722,7 @@
         <v>123</v>
       </c>
       <c r="Z8" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA8" s="13">
         <v>0.1099999998749408</v>
@@ -2909,7 +2906,7 @@
         <v>146</v>
       </c>
       <c r="Z10" s="12">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="AA10" s="13">
         <v>0.34945618360655739</v>
@@ -3001,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <v>45960</v>
+        <v>45981</v>
       </c>
       <c r="AA11" s="13">
         <v>-1.2010821392234354</v>
@@ -3369,7 +3366,7 @@
         <v>202</v>
       </c>
       <c r="Z15" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>97</v>
@@ -3737,7 +3734,7 @@
         <v>254</v>
       </c>
       <c r="Z19" s="12">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA19" s="13">
         <v>0.86590914152298848</v>
@@ -4588,7 +4585,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4587DE35-C0D6-4CAC-88C0-9578F575A9DC}</x14:id>
+          <x14:id>{867BC9EB-9756-482A-8F89-3EF14466DEDE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4598,7 +4595,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4587DE35-C0D6-4CAC-88C0-9578F575A9DC}">
+          <x14:cfRule type="dataBar" id="{867BC9EB-9756-482A-8F89-3EF14466DEDE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F4ECF4-7F13-4608-B60B-9327A67460C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CF009F08-7C74-4081-B7CE-C040139EFB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C728EBFE-CE0A-4F5B-8DEC-BB53EA017206}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{805DBD9F-5CB0-4D9C-8191-BAA1B6B53D25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B97C5376-4C74-4C7A-9CC3-62647844258A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="350">
   <si>
     <t>SN</t>
   </si>
@@ -164,24 +164,22 @@
     <t>S.no  Bucket name     No. of Tasks
   1.      No Status    =   14
   2.      Estimation   =   10
-  3.     Designing    =    9
-  4.     To Do        =    14
-  5.     In Progress  =    15
-  6.     Under QA Testing = 4
+  3.     Designing    =    8
+  4.     To Do        =    15
+  5.     In Progress  =    14
+  6.     Under QA Testing = 8
   7.     User Acceptance Testing (UAT) = 16
-  8.     Released on Production = 273
-  9.     Closed       = 122</t>
-  </si>
-  <si>
-    <t>NA</t>
+  8.     Released on Production = 274
+  9.     Closed       = 124</t>
+  </si>
+  <si>
+    <t>7 task planned for deployment</t>
   </si>
   <si>
     <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
   </si>
   <si>
-    <t xml:space="preserve">1) For Jayshree replacement resume already shared waiting for client reply
-2) 4 Months payment pending 
-3) End of this months payment expected. </t>
+    <t xml:space="preserve">Still waiting for approval for replacement for one frontend </t>
   </si>
   <si>
     <t>Amit K</t>
@@ -596,6 +594,9 @@
 Q.4 PM activity and breakdown issues resolve as per requirement.
 Some Vendor Payment not received details are submitted on email to HO team.
 Q4 invoice submitted tomorrow to client.</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; Delta UPS and Vertiv)
@@ -1426,27 +1427,24 @@
     <t>Daman Smart City</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Construction of Foundation and Installation of Straight Pole and Cantilever Pole work done at Rajiv Gandhi Junction
+    <t>1.Construction of Foundation and Installation of Straight Pole and Cantilever Pole work done at Rajiv Gandhi Junction
 2. Ducting and Cable Laying work done at Rajiv Gandhi Junction
 3. Installation of Aspects on straight pole and cantilever pole done at Rajiv Gandhi Junction
 4.Ducting work done at Dholar junction
 5.Construction of foundation for straight pole and cantilever pole work done
 6.Teenbatti Junction ducting Work done
-7.Dhobi Talav Junction ducting work done
-</t>
-  </si>
-  <si>
-    <t>1. Ducting work in progress at three junction
-2. Once we received the Vehicle Detection Camera and LPU Unit we will do the installation work at Rajiv Gandhi Junction
-3. Need Straight Pole and Cantilever pole for installation work at Dholar Junction</t>
-  </si>
-  <si>
-    <t>Straight pole and cantilever pole
+7.Dhobi Talav Junction ducting work done</t>
+  </si>
+  <si>
+    <t>1.Ducting work in progress at three junction
+2. Need Straight Pole and Cantilever pole for installation work at Dholar Junction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straight pole and cantilever pole
 1.Need Delivery Date for Straight pole and Cantilever Pole from M/s Transrail for Installation at Dholar Junction because foundation work has been completed
 Supply and Installation of Solar Panel Unit all Accessories With Pale
 2. PR Enterprise is supporting for the Supply and Installation of Battery, Inverter with pole and foundation need to find out the other vendor, once we received Rajiv Gandhi Junction Solar Panel work will be completed
-Need Delivery Date of Vehicle Detection Camera with LPU Unit
-3. Need Delivery Date of Vehicle Detection Camera with LPU Unit for installation one we received the material we will complete the rajiv gandhi junction</t>
+</t>
   </si>
   <si>
     <t>Rahul Pol</t>
@@ -1463,6 +1461,51 @@
   </si>
   <si>
     <t>Vinod S / Anil H</t>
+  </si>
+  <si>
+    <t>IFSCA</t>
+  </si>
+  <si>
+    <t>International Financial Services Centres Authority (IFSCA) International Financial Services Centres Authority (IFSCA)</t>
+  </si>
+  <si>
+    <t>International Financial Services Centres Authority (IFSCA)</t>
+  </si>
+  <si>
+    <t>6 Yrs (1Yr Proj + 3 month stabilization + 9 month Warr + 4 Yr AMC)</t>
+  </si>
+  <si>
+    <t>-&gt; 3 Month - Requirement (5%);
+-&gt; 4 month - Documentation - BRD, FRS, SRS (5%);
+-&gt; 12 month - Development &amp; integration (5%); Data Migration (5%); Deployment (5%); Testing - SIT &amp; UAT (5%); Implementation (5%); Training (5%); Go-Live (5%);
+-&gt; 24 month - Stabilization &amp; Warr (5%);
+-&gt; 72 month - Support &amp; Maintenance - 16 Qtr (50%)</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 13-Nov-25 :: End Date (PO) : 12-Nov-31</t>
+  </si>
+  <si>
+    <t>As per achievement : First milestone is 82 L</t>
+  </si>
+  <si>
+    <t>Design, development, testing, deployment &amp; maintenance of integrated ERP covering:
+• HRMS
+• Payroll
+• Finance &amp; Accounts
+• Admin
+• Mobile App
+• Integration with existing systems (Biometric, e-Office, NIC Infra)
+• Hosting on NIC/MeghRaj 2.0 cloud
+• Security Audits (CERT-IN, VAPT)
+• 9-Month Warranty + 4-Year AMC Support
+• Onsite manpower (5 during implementation, 9 during AMC)
+• Compliance with RFP, Corrigendum &amp; NIC guidelines</t>
+  </si>
+  <si>
+    <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, NIC Cloud, Flutter, Node JS</t>
+  </si>
+  <si>
+    <t>Vinod S / TBH</t>
   </si>
   <si>
     <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
@@ -1481,9 +1524,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1616,44 +1659,53 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1663,7 +1715,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5E6D0F19-EF12-4927-9E86-F8B0554B625C}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E25A6813-C24C-46E6-BF5A-CE7B0FC32B02}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1992,11 +2044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C62734-0E23-407A-BF86-E8AE9DD14599}">
-  <dimension ref="A1:AD28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B9F41A-C250-410F-BE26-DD696703A0BD}">
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AD28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,10 +2222,10 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="AA2" s="13">
-        <v>0.53779761992455066</v>
+        <v>0.52524313759069319</v>
       </c>
       <c r="AB2" s="13">
         <v>0.4323402397342212</v>
@@ -2265,7 +2317,7 @@
         <v>45981</v>
       </c>
       <c r="AA3" s="13">
-        <v>0.25894174422612948</v>
+        <v>0.2490929236223961</v>
       </c>
       <c r="AB3" s="13">
         <v>0.19000000008625473</v>
@@ -2357,7 +2409,7 @@
         <v>45981</v>
       </c>
       <c r="AA4" s="13">
-        <v>0.28825328932803584</v>
+        <v>0.28894944759306884</v>
       </c>
       <c r="AB4" s="13">
         <v>0.11942473989981339</v>
@@ -2449,7 +2501,7 @@
         <v>45974</v>
       </c>
       <c r="AA5" s="13">
-        <v>0.3723722124622717</v>
+        <v>0.39544993623736813</v>
       </c>
       <c r="AB5" s="13">
         <v>0.33027289323308273</v>
@@ -2531,7 +2583,7 @@
       <c r="W6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="16" t="s">
         <v>96</v>
       </c>
       <c r="Y6" s="11">
@@ -2633,7 +2685,7 @@
         <v>45981</v>
       </c>
       <c r="AA7" s="13">
-        <v>0.15992064345319656</v>
+        <v>-6.1288843379005087E-2</v>
       </c>
       <c r="AB7" s="13">
         <v>0.32590705634920647</v>
@@ -2725,7 +2777,7 @@
         <v>45981</v>
       </c>
       <c r="AA8" s="13">
-        <v>0.1099999998749408</v>
+        <v>0.11000000010704014</v>
       </c>
       <c r="AB8" s="13">
         <v>0.10999999996973608</v>
@@ -2808,16 +2860,16 @@
         <v>134</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z9" s="12">
         <v>45981</v>
       </c>
       <c r="AA9" s="13">
-        <v>0.16973100550277276</v>
+        <v>0.19540000011082481</v>
       </c>
       <c r="AB9" s="13">
         <v>0.11441806775377272</v>
@@ -2826,7 +2878,7 @@
         <v>125</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2834,13 +2886,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
@@ -2852,73 +2904,73 @@
         <v>5337.5</v>
       </c>
       <c r="H10" s="8">
-        <v>3431.25</v>
+        <v>3812.5</v>
       </c>
       <c r="I10" s="8">
         <v>890</v>
       </c>
       <c r="J10" s="8">
-        <v>4321.25</v>
+        <v>4702.5</v>
       </c>
       <c r="K10" s="8">
         <v>923</v>
       </c>
       <c r="L10" s="9">
-        <v>1906.25</v>
+        <v>1525</v>
       </c>
       <c r="M10" s="8">
-        <v>762.5</v>
+        <v>1143.75</v>
       </c>
       <c r="N10" s="8">
-        <v>0</v>
+        <v>381.25</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" s="10">
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>75</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z10" s="12">
         <v>45981</v>
       </c>
       <c r="AA10" s="13">
-        <v>0.34945618360655739</v>
+        <v>0.3352481576964802</v>
       </c>
       <c r="AB10" s="13">
         <v>0.51229508024724535</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2926,73 +2978,73 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="8">
         <v>680.69294500000001</v>
       </c>
       <c r="H11" s="8">
-        <v>257.29620160000007</v>
+        <v>297.19870160000005</v>
       </c>
       <c r="I11" s="8">
         <v>7.0000000000000009</v>
       </c>
       <c r="J11" s="8">
-        <v>264.29620160000007</v>
+        <v>304.19870160000005</v>
       </c>
       <c r="K11" s="8">
         <v>70</v>
       </c>
       <c r="L11" s="9">
-        <v>423.39674339999993</v>
+        <v>383.49424339999996</v>
       </c>
       <c r="M11" s="8">
-        <v>38.191476400000006</v>
+        <v>78.093976400000017</v>
       </c>
       <c r="N11" s="8">
-        <v>0</v>
+        <v>39.902500000000003</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" s="10">
-        <v>0.37799157974231695</v>
+        <v>0.43661199044746973</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -3001,16 +3053,16 @@
         <v>45981</v>
       </c>
       <c r="AA11" s="13">
-        <v>-1.2010821392234354</v>
+        <v>-0.37667385879947046</v>
       </c>
       <c r="AB11" s="13">
         <v>0.12040585230689282</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -3018,13 +3070,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -3057,52 +3109,52 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P12" s="10">
         <v>0.6783589862783328</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z12" s="12">
         <v>45981</v>
       </c>
       <c r="AA12" s="13">
-        <v>-0.51352273844110385</v>
+        <v>-0.51932262126862749</v>
       </c>
       <c r="AB12" s="13">
         <v>0.18000000439604424</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -3110,13 +3162,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>73</v>
@@ -3143,13 +3195,13 @@
         <v>1687.8791622000001</v>
       </c>
       <c r="M13" s="8">
-        <v>171.16043739999998</v>
+        <v>171.16043740000003</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P13" s="10">
         <v>0.1643651001745805</v>
@@ -3158,43 +3210,43 @@
         <v>75</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z13" s="12">
         <v>45981</v>
       </c>
       <c r="AA13" s="13">
-        <v>0.20489999986167973</v>
+        <v>0.20489999988172514</v>
       </c>
       <c r="AB13" s="13">
         <v>0.2046391013686556</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -3202,13 +3254,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -3241,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3250,43 +3302,43 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z14" s="12">
         <v>45981</v>
       </c>
       <c r="AA14" s="13">
-        <v>5.8906222519107154E-2</v>
+        <v>-8.6348333434192792E-2</v>
       </c>
       <c r="AB14" s="13">
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3294,13 +3346,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3333,37 +3385,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z15" s="12">
         <v>45981</v>
@@ -3375,10 +3427,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3386,16 +3438,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3425,37 +3477,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P16" s="10">
         <v>0.9907005439711728</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z16" s="12">
         <v>45981</v>
@@ -3467,10 +3519,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3478,13 +3530,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3517,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3526,135 +3578,135 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z17" s="12">
         <v>45980</v>
       </c>
       <c r="AA17" s="13">
-        <v>0.60186008759672394</v>
+        <v>0.5943608235990715</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="34">
         <v>171.31355932203391</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="34">
         <v>171.31355930000001</v>
       </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="J18" s="34">
         <v>171.31355930000001</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="34">
         <v>51</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="35">
         <v>2.2033901814211276E-8</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="34">
         <v>171.31355930000001</v>
       </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="P18" s="10">
+      <c r="N18" s="34">
+        <v>0</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="P18" s="36">
         <v>0.99999999987138266</v>
       </c>
-      <c r="Q18" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="R18" s="11" t="s">
+      <c r="Q18" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="R18" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="S18" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="U18" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="T18" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="U18" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="V18" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="W18" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="X18" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="Y18" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z18" s="37">
         <v>45981</v>
       </c>
-      <c r="AA18" s="13">
-        <v>0.22378829916704679</v>
-      </c>
-      <c r="AB18" s="13" t="s">
+      <c r="AA18" s="38">
+        <v>0.22245253764919004</v>
+      </c>
+      <c r="AB18" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD18" s="15" t="s">
-        <v>241</v>
+      <c r="AC18" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD18" s="40" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3662,13 +3714,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3701,49 +3753,49 @@
         <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P19" s="10">
         <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z19" s="12">
         <v>45981</v>
       </c>
       <c r="AA19" s="13">
-        <v>0.86590914152298848</v>
+        <v>0.51068048970306512</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3754,13 +3806,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3793,37 +3845,37 @@
         <v>0</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P20" s="10">
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Z20" s="12">
         <v>45980</v>
@@ -3835,10 +3887,10 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3846,13 +3898,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>32</v>
@@ -3885,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P21" s="10">
         <v>0</v>
@@ -3894,43 +3946,43 @@
         <v>35</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z21" s="12">
         <v>45981</v>
       </c>
       <c r="AA21" s="13">
-        <v>0.34652488000000004</v>
+        <v>0.17777007000000011</v>
       </c>
       <c r="AB21" s="13" t="s">
         <v>97</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3938,13 +3990,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>73</v>
@@ -3975,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P22" s="10">
         <v>0</v>
@@ -3984,28 +4036,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z22" s="12">
         <v>45925</v>
@@ -4017,10 +4069,10 @@
         <v>97</v>
       </c>
       <c r="AC22" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD22" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -4028,19 +4080,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G23" s="8">
         <v>6660.9289406779662</v>
@@ -4067,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P23" s="10">
         <v>0.93216281830924697</v>
@@ -4076,34 +4128,34 @@
         <v>75</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z23" s="12">
         <v>45981</v>
       </c>
       <c r="AA23" s="13">
-        <v>0.42434365454578726</v>
+        <v>0.1578635874803842</v>
       </c>
       <c r="AB23" s="13">
         <v>4.7055080021901952E-2</v>
@@ -4112,7 +4164,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD23" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -4120,16 +4172,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>126</v>
@@ -4159,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P24" s="10">
         <v>0.35</v>
@@ -4168,34 +4220,34 @@
         <v>75</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z24" s="12">
         <v>45981</v>
       </c>
       <c r="AA24" s="13">
-        <v>0.15841573956451205</v>
+        <v>0.24452521116592174</v>
       </c>
       <c r="AB24" s="13">
         <v>0.42701644292272078</v>
@@ -4204,7 +4256,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -4212,16 +4264,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>126</v>
@@ -4251,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P25" s="10">
         <v>0.45</v>
@@ -4260,34 +4312,34 @@
         <v>75</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z25" s="12">
         <v>45981</v>
       </c>
       <c r="AA25" s="13">
-        <v>0.54524491322510427</v>
+        <v>0.36692424244633803</v>
       </c>
       <c r="AB25" s="13">
         <v>0.67739458815242792</v>
@@ -4296,7 +4348,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -4304,19 +4356,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G26" s="8">
         <v>1275.816245</v>
@@ -4343,43 +4395,43 @@
         <v>0</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P26" s="10">
         <v>0.83006926730267527</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z26" s="12">
         <v>45981</v>
       </c>
       <c r="AA26" s="13">
-        <v>0.68765168853167546</v>
+        <v>0.63015178399761762</v>
       </c>
       <c r="AB26" s="13">
         <v>0.51174435922491024</v>
@@ -4388,7 +4440,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD26" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -4396,13 +4448,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>73</v>
@@ -4435,40 +4487,40 @@
         <v>0</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P27" s="10">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z27" s="12">
-        <v>45974</v>
+        <v>45982</v>
       </c>
       <c r="AA27" s="13" t="s">
         <v>97</v>
@@ -4480,103 +4532,195 @@
         <v>#N/A</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="C28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="8">
         <v>108.12905000000001</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="8">
         <v>10.812905000000001</v>
       </c>
-      <c r="I28" s="21">
-        <v>0</v>
-      </c>
-      <c r="J28" s="21">
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
         <v>10.812905000000001</v>
       </c>
-      <c r="K28" s="21">
-        <v>0</v>
-      </c>
-      <c r="L28" s="22">
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
         <v>97.316145000000006</v>
       </c>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="21">
-        <v>0</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="P28" s="23">
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P28" s="10">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="R28" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="S28" s="24" t="e">
+      <c r="Q28" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="S28" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="T28" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="U28" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="V28" s="24" t="s">
+      <c r="T28" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC28" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD28" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="W28" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="X28" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y28" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="27" t="s">
+      <c r="C29" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1640</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0</v>
+      </c>
+      <c r="L29" s="22">
+        <v>1640</v>
+      </c>
+      <c r="M29" s="21">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21">
+        <v>0</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="P29" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="R29" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="S29" s="25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T29" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="U29" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="V29" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="W29" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="X29" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y29" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z29" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="AB28" s="27" t="s">
+      <c r="AB29" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="AC28" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD28" s="29" t="s">
-        <v>336</v>
+      <c r="AC29" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD29" s="30" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T2:Y28 P2:R28">
+  <conditionalFormatting sqref="T2:Y29 P2:R29">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4585,7 +4729,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{867BC9EB-9756-482A-8F89-3EF14466DEDE}</x14:id>
+          <x14:id>{36E475EB-65B8-4A00-8E19-E21417BB04E3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4595,7 +4739,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{867BC9EB-9756-482A-8F89-3EF14466DEDE}">
+          <x14:cfRule type="dataBar" id="{36E475EB-65B8-4A00-8E19-E21417BB04E3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4609,7 +4753,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T2:Y28 P2:R28</xm:sqref>
+          <xm:sqref>T2:Y29 P2:R29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{CF009F08-7C74-4081-B7CE-C040139EFB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C728EBFE-CE0A-4F5B-8DEC-BB53EA017206}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9732CB-884E-4EF0-AE19-C9A591E44597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B97C5376-4C74-4C7A-9CC3-62647844258A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1524F0BD-FF18-4548-BD0C-D22A9F36776C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -580,26 +580,26 @@
   </si>
   <si>
     <t>Q1 &amp; Q2&amp; Q3 payment and 60% Capex payment and also 2% capex payment released.
-Q.4 Data preparing for bill submission WIP. (Bill submit before 22 Nov. because some details are pending from HR end Like PF, ESIC and Paid chalan copy etc.)
+Q.4 Data Prepared and bill submit to consultant for Calculation. (submitted on 24th Nov.)
 32 Manpower deployed as per client requirements.
 ISO Certification Documents parts ready some parts are pending to client end for Audit.
-IT Equipment like server switch and storage AMC not start yet.
-Video wall down last one month due to lighting effect.
+IT Equipment like server switch and San storage AMC not start yet.(this is very critical)-Pending from HO.
+Video wall down last one month due to lighting effect.(Parts may be received tomorrow then restore this device. 
 1st floor 20 No's Ac AMC not done from HO and Purchase team.</t>
   </si>
   <si>
-    <t>Prepare Q.4 Payment Documents and SLA details.
-Video wall Quote and Switch quote submit to Insurance team for claim process.
-IT equipment for AMC vendor visit at site for check all devices.
+    <t>Q.4 and Capex 2% and Diesel consumable bill submit to client for SLA calculation follow-up and push for payment.
+Videowall repair work done before 29 as per vendor then we will claim insurance for final bill.
+For San storage Vivek and shivam is working for configuration for replacement of old storage.
 Q.4 PM activity and breakdown issues resolve as per requirement.
 Some Vendor Payment not received details are submitted on email to HO team.
-Q4 invoice submitted tomorrow to client.</t>
+IT equipment for AMC vendor visit at site for check all devices. but there is no conclusion yet.</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL &amp; Delta UPS and Vertiv)
+    <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL)
 AMC REQUIRED OLD DC INFRA ON URGENT BASIS because our SAN storage and tape library not working , client is issuing a letter for this.
 For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
 Video wall down last 30 days, Vendor PO pending and insurance team not responding proper time.
@@ -1004,46 +1004,28 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Overall Project Progress – Summary
-Primary &amp; Backup Servers
-Fully configured and installed; no pending actions.
-Substations 1, 2 &amp; 3 – MFM Communication
-Network setup done; IPs assigned.
-Awaiting switch rack installation and port enabling by JNPA.
-CMS will enable meter data in 2–3 days once switch is ready.
-Main Substation – MFM Communication
-SCADA communication established.
-API details awaited from SCADA vendor for EEMS integration.
-ABT Meters
-Two meters installed.
-Pending series connection by MSETCL and switch port activation.
-CMS to connect CAT-6 after port is enabled.
-RMU Panel Communication
-Survey completed.
-Waiting for OFC network and switch availability from JNPA.
-Water Flow Meters
-62 delivered; 5 installed.
-Awaiting valve/duct/power readiness from JNPA.
-~30 small meters pending; large meter locations to be finalized.
-Consumer Billing Meters
-MPLS setup ongoing; connectivity to NOC established.
-MPLS testing in progress; SIM activation &amp; modem installation next.
-Cloud Registration
-AWS cloud account registered.</t>
-  </si>
-  <si>
-    <t>Sim testing with modem.
-1 water meter installation.</t>
+    <t>Servers: Primary &amp; Backup servers fully configured and ready; no pending items.
+Substations 1–3 (MFM): IPs assigned; waiting for JNPA switch installation. CMS will enable meter data within 2–3 days after switch availability.
+Main Substation (MFM): SCADA communication active; awaiting API details from GE/JNPA for EEMS integration.
+ABT Meters: Installed. Pending MSETCL series connection and JNPA switch port availability. Data retrieval to start after both are completed.
+RMU Panels: Survey done; awaiting OFC network and switch readiness from JNPA.
+Water Flow Meters: 62 delivered, 5 installed. Pending infrastructure readiness from Water Dept. ~30 installations planned; large meter locations yet to be finalized.
+Consumer Billing Meters: MPLS setup ongoing; NOC connectivity done. Pending MPLS testing, then SIM activation &amp; modem installation.
+Cloud: AWS account registered.
+Software: Installed on NOC server; all modules integrated. Further enhancements will follow once live data starts streaming.</t>
+  </si>
+  <si>
+    <t>Sim testing with modem and firewall configuration</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>Delay in switch rack installation by JNPA affecting MFM meter communication.
-MSETCL testing team not responding, causing delays in ABT meter series connection.
-OFC network and switch unavailability delaying RMU meter communication.
-Infrastructure readiness (valves, ducts, power) still pending for water flow meter installations.
-Dependence on multiple external teams/vendors, causing timeline uncertainty.</t>
+    <t>Pending network readiness from JNPA vendor (switch racks, OFC network, port enablement) delaying multiple integrations.
+Awaited API details from SCADA vendor (GE), blocking main substation data integration.
+MSETCL testing team delay in completing ABT meter series connection.
+Water infrastructure not ready (valves, ducts, power) causing installation hold-ups.
+Dependency on multiple external teams (JNPA network, SCADA vendor, MSETCL, Water Dept.), creating timeline risks.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1171,13 +1153,18 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t>Website redevelopment is currently underway. We’ve provided the client with a detailed development plan outlining the steps toward completion.
-Neha and Anant have been brought on as UI/UX designers to work on redesigning the inner pages, while Sameer is handling the testing phase.
-The development will be finished on our end by November 25, 2025. Should we receive any feedback, we'll continue working on adjustments after that date.</t>
-  </si>
-  <si>
-    <t>- Daffodil team will provide the KT session and share all relevant documents related to the Booking platform.
-- We will conduct a demo and gather requirements for the HRMS and Asset Management systems.</t>
+    <t>The corporate website development has been completed as per the agreed timeline. We’ve received some feedback from the ITPO officials yesterday, and the team is currently addressing those. 
+Exhibition and Stall Booking Platform KT: Completed.
+Mobile Application KT: Completed.
+Convention Center Booking KT: Pending, as NeGD has informed us that it is still under development.</t>
+  </si>
+  <si>
+    <t>Following resources required- 
+1 Sr. Front End Developer (Replacement of existing Resource)
+1 Sr. Backend Developer (for Stall/Exhibition Booking portal)
+2 Sr. Front End Developer (for Asset Management System)
+2 Sr. Backend Developer (for Asset Management System)
+Security testing of the website will preformed by NeGD team.</t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
@@ -1185,9 +1172,9 @@
 - DB: MySQL</t>
   </si>
   <si>
-    <t>Daffodil team has shown a lack of interest in handing over the required documents of the booking platform.
-Performance issue of Raj Kumar – Frontend Developer.
-Billing for Sep &amp; Oct-25 is pending.</t>
+    <t>- Resources
+- Billing 
+- Laptops required for the onboarded resources</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1524,9 +1511,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1659,53 +1646,45 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1715,7 +1694,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E25A6813-C24C-46E6-BF5A-CE7B0FC32B02}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{846A2BF7-D25D-4AC5-AE78-BE886F08BB7B}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2044,11 +2023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B9F41A-C250-410F-BE26-DD696703A0BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4ABD4-E7AA-4F77-A7C5-C3255E38E7DB}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,7 +2845,7 @@
         <v>136</v>
       </c>
       <c r="Z9" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA9" s="13">
         <v>0.19540000011082481</v>
@@ -3195,7 +3174,7 @@
         <v>1687.8791622000001</v>
       </c>
       <c r="M13" s="8">
-        <v>171.16043740000003</v>
+        <v>171.16043739999998</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
@@ -3617,95 +3596,95 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="8">
         <v>171.31355932203391</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="8">
         <v>171.31355930000001</v>
       </c>
-      <c r="I18" s="34">
-        <v>0</v>
-      </c>
-      <c r="J18" s="34">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <v>171.31355930000001</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="8">
         <v>51</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="9">
         <v>2.2033901814211276E-8</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="8">
         <v>171.31355930000001</v>
       </c>
-      <c r="N18" s="34">
-        <v>0</v>
-      </c>
-      <c r="O18" s="34" t="s">
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="T18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="U18" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="V18" s="16" t="s">
+      <c r="V18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="16" t="s">
+      <c r="Y18" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="Z18" s="37">
-        <v>45981</v>
-      </c>
-      <c r="AA18" s="38">
+      <c r="Z18" s="12">
+        <v>45988</v>
+      </c>
+      <c r="AA18" s="13">
         <v>0.22245253764919004</v>
       </c>
-      <c r="AB18" s="38" t="s">
+      <c r="AB18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" s="39" t="s">
+      <c r="AC18" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="AD18" s="40" t="s">
+      <c r="AD18" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3970,7 +3949,7 @@
         <v>275</v>
       </c>
       <c r="Z21" s="12">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="AA21" s="13">
         <v>0.17777007000000011</v>
@@ -4729,7 +4708,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36E475EB-65B8-4A00-8E19-E21417BB04E3}</x14:id>
+          <x14:id>{A6ED6E4A-0E40-4A1A-BEC0-C9DAC9C5D073}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4739,7 +4718,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36E475EB-65B8-4A00-8E19-E21417BB04E3}">
+          <x14:cfRule type="dataBar" id="{A6ED6E4A-0E40-4A1A-BEC0-C9DAC9C5D073}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9732CB-884E-4EF0-AE19-C9A591E44597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F9D0A4-4A9E-404E-99D7-33CBF4686E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1524F0BD-FF18-4548-BD0C-D22A9F36776C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2343D267-09A8-4D5A-9B16-A170A75B86B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
   <si>
     <t xml:space="preserve">1. 27 resources on-boarded. (16 resources from GAIA – 11 from CMS)
 2. Payment received till Sep’25. Invoice for Oct’25 under processing.
-3. DWR mobile app: new changes done for dumpsite. 
+3. DWR mobile app: new changes done &amp; integrated with DRAP. 
 4. New SBM Dashboard ver2.0 (SWM, Legacy waste &amp; Toilets): bug fixing ongoing as per PMU comments.
 5. UWM Action Plan: additional points added from CPEEHO: now Live
 6. GFC Indicator logic implemented in DB and changes ongoing in UI side.
@@ -225,18 +225,19 @@
 </t>
   </si>
   <si>
-    <t>Upcoming  activities:
-1. Maintenance activities: Daily ULB support, Website changes ongoing.
+    <t xml:space="preserve">1. Maintenance activities: Daily ULB support, Website changes ongoing.
 2. New SBM Dashboard 2.0 development: legacy waste &amp; Toilets: testing ongoing by PMU. DWR Mobile App pilot planned for dumpsite in Nov’25.
-3. SS Handover : Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration done. DO App verified, GA verification ongoing.
+3. SS Handover: Session on SS scoring &amp; result finalization with IPSOS ongoing. Development setup &amp; Code configuration is ongoing, Mobile App – Code Configuration done. DO App verified, GA verification ongoing.
 4. Swachh City: working on reports
-5. Integration of DRAP dashboard with DWR mobile app on PROD</t>
+5. Closure of Cert-In audit findings
+</t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Majority of team members working remotely. 
+    <t xml:space="preserve">Major Challenges:
+1. Majority of team members working remotely. 
 </t>
   </si>
   <si>
@@ -915,7 +916,7 @@
 -- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
-    <t>1. EVS: 10/10 Nos. EVS installation done.
+    <t xml:space="preserve">1. EVS: 10/10 Nos. EVS installation done.
 2. PA: 20/20 Pairs PA installation done.
 3. VMD: 6/10 Nos. VMD installation done.
 4. ECB: 20/20 Nos. ECB enclosure foundation &amp; installation done.
@@ -923,17 +924,19 @@
 6. 99% billing done.
 7. Accessories not yet delivered.
 8. 3/4 Nos. VMD foundation pending. 1 VMD foundation done.
-9. Cable laying, connection, configuration and commissioning pending.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Nos. VMD foundation work. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation.
+9. Cable laying, connection, configuration and commissioning pending.
+</t>
+  </si>
+  <si>
+    <t>1. 3Nos. Pending VMD foundation work.
+2. Cable laying work.</t>
+  </si>
+  <si>
+    <t>1.Accessories not yet purchased and delivered. Pending from purchase. Need to deliver urgently to start the cable laying, connection, earth pit installation.
 2. VMD controller not yet delivered.
 3. Cable laying, digging, etc work order not yet given to local vendor. Pending from purchase. Need to follow-ups with purchase team.
-4. VMD foundation work stopped by Bonsai. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. After discussion with me, Santosh Sir and Vaibhav Sir over the phone with Mr. Deepak Pathak, Bonsai still not supplied any accessories as per SOW for VMD installation work. Need to complete discussion with Bonsai and CMS stakeholders. Payment also a big issue. Bonsai asking the payment of 10 Nos. of supplied VMD poles and structures and the 6 Nos. of installed VMD. Need immediate support from HO. Bonsai Not supporting to us. Now very critical situation. 
-5. Cable laying work still pending for ECB, PA, EVS and VMD. The service vendor not yet finalized by purchase team. Now it is very critical. </t>
+4. VMD foundation work stopped by Bonsai. VMD installation vendor (Bonsai) SOW issue and payment issue. Need to be closed immediately. After discussion with me, Santosh Sir and Vaibhav Sir over the phone with Mr. Deepak Pathak, Bonsai still not supplied any accessories as per SOW for VMD installation work. Need to complete discussion with Bonsai and CMS stakeholders. Payment also a big issue. Bonsai asking the payment of 10 Nos. of supplied VMD poles and structures and the 6 Nos. of installed VMD. Need immediate support from HO. Bonsai Not supporting to us. Now very critical situation.
+5. Cable laying work still pending for ECB, PA, EVS and VMD. The service vendor not yet finalized by purchase team. Now it is very critical.</t>
   </si>
   <si>
     <t>Arindam R</t>
@@ -1308,11 +1311,11 @@
 1. Quarterly PM report submitting as per the BSCL and SPCL requirement.
 2. ERP solutions developing work still going on.
 3. Trade license module handed over to Nagar Nigam. Rest 15 Modules Modifications works are still in progress.
-4. 59 Nos. GPS re-installed. 1 GPS missing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ERP Modification work completion.
+4. 59 Nos. GPS re-installed. 1 GPS missing.
 </t>
+  </si>
+  <si>
+    <t>1. ERP Modification work completion.</t>
   </si>
   <si>
     <t xml:space="preserve">ERP Support Issues:
@@ -1694,7 +1697,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{846A2BF7-D25D-4AC5-AE78-BE886F08BB7B}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9B10952B-7828-4089-8733-A5531F006129}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2023,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4ABD4-E7AA-4F77-A7C5-C3255E38E7DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7522B5DE-F150-4B3F-BA0A-D7AA55B88B27}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2296,7 @@
         <v>55</v>
       </c>
       <c r="Z3" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA3" s="13">
         <v>0.2490929236223961</v>
@@ -3489,7 +3492,7 @@
         <v>215</v>
       </c>
       <c r="Z16" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA16" s="13">
         <v>0.21114271514376304</v>
@@ -4223,7 +4226,7 @@
         <v>309</v>
       </c>
       <c r="Z24" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA24" s="13">
         <v>0.24452521116592174</v>
@@ -4708,7 +4711,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A6ED6E4A-0E40-4A1A-BEC0-C9DAC9C5D073}</x14:id>
+          <x14:id>{118EC1EE-5165-47FC-A7EE-F43BB4BA09FE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4718,7 +4721,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A6ED6E4A-0E40-4A1A-BEC0-C9DAC9C5D073}">
+          <x14:cfRule type="dataBar" id="{118EC1EE-5165-47FC-A7EE-F43BB4BA09FE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F9D0A4-4A9E-404E-99D7-33CBF4686E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B1426B-848D-4707-AA4E-0AC3C7732138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2343D267-09A8-4D5A-9B16-A170A75B86B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B55AE243-B6D2-4959-82BE-841D61E15B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -517,33 +517,31 @@
   </si>
   <si>
     <t>1] Krishi Mapper :
-A. GIS Dashboard new layout :suggestion implemented
-B. Assign Target : deployed over production
-c. oil assets : deployed over play store
-d. RAD changes :  deployed over play store
-e. AIKOSH - Different scheme onboarding
+A. Survey count Dashboard : table view API in progress
+B. Assign Target : deployed over production for PDMC/NMEO-OP/NMEO-OS....working on other scheme
+c. Multi selection subdistrict surveyor : MIDH deployed...PDMC in testing phase ....RAD in development
+d. State APIs : RKVY-karnataka/MIDH-MP consumed...other state APIs consumption in progress
+e. AIF crop stage changes in progress 
 2] Natural Farming:
-A. MIS Report module : Testing done /some observation suggested
+A. Meeting held with JS : observation shared for portal
 3] M&amp;T
 A. FMTTI, SMAM &amp; CRM components done from user management
 B. Survey data report module done
-C. Data fetching from external API, showing total count and making the relevant report to showing the data
 4] Krishi Unnati : Agency module done and data insertion continue for testing</t>
   </si>
   <si>
     <t>1] Krishi Mapper:
-A. RKVY API integration
+A. RKVY API integration with KM
 B. Seed Fostering scheme onboarding
-C. AIF crop stage changes
-D. PDMC multielection surveyor</t>
+c. MIDH suraksha portal integration with KM
+D. RAD multielection surveyor</t>
   </si>
   <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
   </si>
   <si>
-    <t xml:space="preserve">1] Heavy workload on UI/UX due to shortage of designer
-2] Facing API loading issue from server side due to lack of DB Developer.
-</t>
+    <t>1] Heavy workload on UI/UX due to shortage of designer
+2] Facing API loading issue from server side due to lack of DB Developer.</t>
   </si>
   <si>
     <t>Sourav M / Ravi R</t>
@@ -1697,7 +1695,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9B10952B-7828-4089-8733-A5531F006129}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{60D99279-C1AF-4A68-B0BA-0E75C2F565A4}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2026,7 +2024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7522B5DE-F150-4B3F-BA0A-D7AA55B88B27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A471E98-6651-4DF0-AA2D-B7B440143E04}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2756,7 +2754,7 @@
         <v>123</v>
       </c>
       <c r="Z8" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA8" s="13">
         <v>0.11000000010704014</v>
@@ -4318,7 +4316,7 @@
         <v>318</v>
       </c>
       <c r="Z25" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA25" s="13">
         <v>0.36692424244633803</v>
@@ -4410,7 +4408,7 @@
         <v>327</v>
       </c>
       <c r="Z26" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA26" s="13">
         <v>0.63015178399761762</v>
@@ -4711,7 +4709,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{118EC1EE-5165-47FC-A7EE-F43BB4BA09FE}</x14:id>
+          <x14:id>{832F0E65-84A7-4B4C-A09C-61F76D035FCA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4721,7 +4719,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{118EC1EE-5165-47FC-A7EE-F43BB4BA09FE}">
+          <x14:cfRule type="dataBar" id="{832F0E65-84A7-4B4C-A09C-61F76D035FCA}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B1426B-848D-4707-AA4E-0AC3C7732138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E8DA97-0CC7-43BF-A1B3-B87E6E3B2CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B55AE243-B6D2-4959-82BE-841D61E15B1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D1D23F9D-CD09-4AC3-AF64-9A3293F692D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -634,28 +634,29 @@
   <si>
     <t>1)Jan23 to Jun25 (Total 11 quarters payment released- 75%)
 2)24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withhold payment- KSCL will not pay to TechM (re-imbursement)- KSCL will not pay to Tech M reimburesement and will have to be paid by Tech M to CMS
-3) Billing done for AMJ25 &amp; JAS24 Qtr</t>
-  </si>
-  <si>
-    <t>1) Project inventory consolidation
-2) To expedite ATCS -23 junctions for making it operational
-3) VMSB issue resolution to keep it live
-4) Metro Inventory consolidation
-5) Reimbursement of recurring charges from Tech-M
-6) Release of 25% retention/withheld amount
-7) Coordination with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
-8)Follow-up on procurement of batteries, smart parking sensors, HDD for LPU's,
+3) Billing done for AMJ25 &amp; JAS25 Qtr</t>
+  </si>
+  <si>
+    <t>1) Project inventory consolidation.
+2) To expedite ATCS -23 junctions for making it operational.
+3) VMSB issue resolution to keep it live.
+4) Working on list of documents required to company auditors.
+5) Reimbursement of recurring charges from Tech-M.
+6) Release of 25% retention/withheld amount.
+7) Coordination for document compliance with vendor Videonetics for implementation of "Time for Red" as per the requirement of the client.
+8)Follow-up on procurement of batteries, smart parking sensors.
 9) Deployment of smart parking sensors at sites that can be completed as per the existing quantity of sensors.</t>
   </si>
   <si>
     <t>1) ATCS 23 junction activity work has suffered due to vendor M/s SPIT inactions in expediting works  
-2)Vendor Videonetics "Time for Red" feature not yet been delivered despite the forgone timeline. Client now want to replace CMS.
+2)Vendor Videonetics "Time for Red" feature UAT report requirement to client.
 3)Battery order is placed and expected around 8th Nov for its delivery. 
 4)VMSB devices facing recurring problems (dark spots, black lines, component failures).Smart Parking sensors &amp; VMSB card-related issues.
 5)HDD order for LPU is awaited as a result of which system at various junction has downtime.
 6) Smart parking affected due to unavailability of sensors, and no visibility of it has irrated the client.
 7) DR/DC – The OEM ESDS services has expired in Dec’24 and has been disabled.  
-8)Client’s requirement of inventory list.</t>
+8)Client’s requirement of inventory list.
+9) ESDS-DR services expired</t>
   </si>
   <si>
     <t>Saleel H</t>
@@ -955,7 +956,7 @@
     <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
   </si>
   <si>
-    <t>220</t>
+    <t>223</t>
   </si>
   <si>
     <t>72.86 L</t>
@@ -964,13 +965,13 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t>New 6 Candidates selected, they trained and joined till 21st November,2025</t>
-  </si>
-  <si>
-    <t>Shortlist, Interview and Train new 25 Candidates.</t>
-  </si>
-  <si>
-    <t>Recruitment of 20 Candidates.
+    <t>New 5 Candidates selected, they trained and joined till 29th November,2025</t>
+  </si>
+  <si>
+    <t>Shortlist, Interview and Train new 17 Candidates.</t>
+  </si>
+  <si>
+    <t>Recruitment of 17 Candidates.
 New Work Order for extension period</t>
   </si>
   <si>
@@ -1050,7 +1051,7 @@
     <t>Start Date (PO) : 09-Jun-25 :: End Date (PO) : 08-Oct-25</t>
   </si>
   <si>
-    <t>14</t>
+    <t>12</t>
   </si>
   <si>
     <t>As per achievment.</t>
@@ -1082,19 +1083,22 @@
 14. API integration and inter-service communication successfully tested.
 15. GAD Management and WPSS/QAP Approval flows are functional and aligned with updated requirements.
 16. Stakeholder onboarding and agency management workflows are fully operational.
-17.Email Integration – Successfully implemented and tested email service for notification and 18. approval workflows.
+17.Email Integration – Successfully implemented and tested email service for notification and approval workflows.
+Allmost modules of second phase is developed and QA is going on
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Demo for NHAI , Railway, and RDSO 
-Bug fixing </t>
+    <t xml:space="preserve">
+1.	Complete pending tasks
+2. Conduct testing 
+3. Prepare modules for internal review and UAT.
+</t>
   </si>
   <si>
     <t>JAVA 17, Springboot, PostgreSql, React, AWS Cloud, Microservices, NodeJS, Postman, Apache Tomcat webserver, SSL, Oauth, AWS ECS</t>
   </si>
   <si>
-    <t xml:space="preserve">continuous changes in PRD and Figma designs, development work is in progress.
-</t>
+    <t>Continuous demo, changes in PRD.</t>
   </si>
   <si>
     <t>DIC NOC</t>
@@ -1253,13 +1257,12 @@
 O&amp;M start Date- 01-04-2024
 O&amp;M End Date- 31-03-2026
 First year O&amp;M payment has been collected.
-Balance payment for lightning arrestor installation with an amount of 5L and 35 BSNL
-location shifting balance payment of 42L has been received.</t>
-  </si>
-  <si>
-    <t>O&amp;M second year 2nd quarter billing to be done.
+Per battery purchase cost of Rs. 9550 and asked us to deliver 200 count batteries immediately. Balance they will have requirement of 2300 batteries. Waiting for the work order.</t>
+  </si>
+  <si>
+    <t>O&amp;M second year 2nd quarter billing to be done.
 Collection for the first and second quarter invoices.
-New battery commercial finalization with customer and further fund allocation process initiation.
+Work Order for UPS battery purchase
 Follow up for Wayanad 5 new Siren project order. TSG has been approved the amount of 4Cr and file is under Disaster Management Department for further financial approvals.
 Camera issues rectifications.
 Submission for Air Ride Siren proposal.
@@ -1695,7 +1698,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{60D99279-C1AF-4A68-B0BA-0E75C2F565A4}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A8D02B1D-2EF1-4914-9C4D-3C582AA355AF}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2024,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A471E98-6651-4DF0-AA2D-B7B440143E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A162ED54-2211-468C-9D8D-902A8A612E7C}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2938,7 +2941,7 @@
         <v>147</v>
       </c>
       <c r="Z10" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA10" s="13">
         <v>0.3352481576964802</v>
@@ -3582,7 +3585,7 @@
         <v>227</v>
       </c>
       <c r="Z17" s="12">
-        <v>45980</v>
+        <v>45988</v>
       </c>
       <c r="AA17" s="13">
         <v>0.5943608235990715</v>
@@ -3766,7 +3769,7 @@
         <v>255</v>
       </c>
       <c r="Z19" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA19" s="13">
         <v>0.51068048970306512</v>
@@ -4132,7 +4135,7 @@
         <v>299</v>
       </c>
       <c r="Z23" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA23" s="13">
         <v>0.1578635874803842</v>
@@ -4709,7 +4712,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{832F0E65-84A7-4B4C-A09C-61F76D035FCA}</x14:id>
+          <x14:id>{31F0E12A-1FF7-4582-B6D3-C5100427BA1D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4719,7 +4722,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{832F0E65-84A7-4B4C-A09C-61F76D035FCA}">
+          <x14:cfRule type="dataBar" id="{31F0E12A-1FF7-4582-B6D3-C5100427BA1D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E8DA97-0CC7-43BF-A1B3-B87E6E3B2CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C2F81A-891D-4367-849A-CB07E51606C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D1D23F9D-CD09-4AC3-AF64-9A3293F692D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{053FB31F-FC82-4957-9720-39A2BE679536}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t>HRMS, Legal, and IT module UAT points have been completed. In the Finance module, we have completed 6 points and 5 points are in progress. We are also working on production issues; the count has reduced from 48 to 31</t>
-  </si>
-  <si>
-    <t>We will work on the production issues, and proceed with the closure of the Admin module and Finance module</t>
+    <t>Data migration for the Finance module has been completed. UAT for the Finance module is in progress, and issue resolution for the production tracker is currently underway.</t>
+  </si>
+  <si>
+    <t>Closure of Finance Module UAT feedback and migrated data validation, along with resolution of production issues</t>
   </si>
   <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
@@ -690,28 +690,12 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. KK gate cruise gate installation is completed
-2. We have to raise invoice for kk gate and cruise gate installation, awaiting for invoice from Mumbai invoicing team, It will be submitted to client for payment process once I received the invoice.
-3. CAMC invoice already submitted to NMPA for payment process. i.e. till Sep 2025
-4. Few changes are done for ongoing DB Server issue, system is still under observation.
-5. Few non compliance received from client. we are working for the same for rectification, below is the update.
-1. Boom barrier at HMV exit of Mallya gate is delay to respond to display card details and also boom needs to replaced for an aesthetic point of view.
-CMS: a. We are already working on application delay issue, It will be fixed at all the gates with in 10 working days.
-          b. Mallya gate HMV exit boom barrier arm procurement and installation may take up to 30days, already we are in co- ordination with OEM.
-2. HMV entry side of KK gate where boom barrier installation along with its configuration and display indicator for FRS needs to be done.
-CMS: Configuration is already completed, procurement and installation of the Boom barrier Arm may take up to 30days since already we are in co- ordination with OEM
-3. SJ gate UHF reader cover box needs to be replaced since it got corroded
-CMS: procurement and installation of reader cover box may take up to 30days
-4. Boom barrier at the SJ gate entry side needs to be increase its length
-CMS: complied
-5. Buzzer must made to work in Mallya gate exit end of pedestrian lane.
-CMS: complied
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow up with client for payment clearance.
-Working to completed above mentioned pending tasks.
-</t>
+    <t>KK gate and cruise gate installation is completed
+Bill submitted to NMPA for payment process.
+Rs.4,787,385 bill submitted to NMPA for payment process.</t>
+  </si>
+  <si>
+    <t>Payment follow-ups and fixing few operation related issues.</t>
   </si>
   <si>
     <t>Prashant P</t>
@@ -1698,7 +1682,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A8D02B1D-2EF1-4914-9C4D-3C582AA355AF}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E8A8DDF4-DEFB-4458-B56F-1D7F0CD89FC6}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2027,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A162ED54-2211-468C-9D8D-902A8A612E7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F1F52E-B88F-4B51-995F-6C9FC475404B}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2573,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>97</v>
@@ -3033,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA11" s="13">
         <v>-0.37667385879947046</v>
@@ -4712,7 +4696,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31F0E12A-1FF7-4582-B6D3-C5100427BA1D}</x14:id>
+          <x14:id>{DE6AD55F-5F40-47E6-B014-C664925798A4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4722,7 +4706,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31F0E12A-1FF7-4582-B6D3-C5100427BA1D}">
+          <x14:cfRule type="dataBar" id="{DE6AD55F-5F40-47E6-B014-C664925798A4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C2F81A-891D-4367-849A-CB07E51606C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1204E5A3-1221-4C81-815D-76DA03E954B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{053FB31F-FC82-4957-9720-39A2BE679536}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{936F177B-1723-498D-9C02-0A4F7321339C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <t>Start Date (PO) : 02-Apr-24 :: End Date (PO) : 01-Apr-26</t>
   </si>
   <si>
-    <t>26</t>
+    <t>25</t>
   </si>
   <si>
     <t>35.2 L</t>
@@ -273,34 +273,41 @@
   </si>
   <si>
     <t>1. 25 Resource deployed.
-2. Development of new Module is under process as per CRS requirement.
-3. DC and DR Sync up , Horizontal and vertical scalling
+2. Oracle Interactive Analytics Dashboard for Birth &amp; Death Statistics with dynamic charts, KPIs, and visual data insights.
+3. iOAS and Android App
 4. State onboard is on going.
 5. Receive Data from Non CRS State through API.
 6. AADHAR , TRANSLITRATION and Payment Integrations.
 7. DB,System performance and monitoring continue above 99.6 % availability.
-8. Bag resoluation</t>
-  </si>
-  <si>
-    <t>1. June and Aug Payment under process from FO. 
-2. Sept patment approval under processing from RGI.
-3. Oct document and Attendance verification under processing.
-4. Integration of UMANG App with CRS Portal
-5. Inactive RU Report, Certificate Cancellation Report ,  ,
-6. Bihar , Gujarat and Puducherry Bug resolation
-7. Enhancement: Payment Reconciliation and Collecting EPIC number in the death registration 
-8. API for Punjab, Kerala &amp; Goa , Death Aadhar Data sharing with UIDAI</t>
+8. Bag resoluation
+9. Development of new Module is under process as per CRS requirement.
+10.DC and DR Sync up , Horizontal and vertical scalling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. June ,Aug andSept  Payment under process from FO.
+2. Oct document and Attendance verification under processing(Officer admitted in hospital).
+3. Integration of UMANG App with CRS Portal
+4. Bihar , Gujarat and Puducherry Bug resolation
+Payment Reconciliation 
+Register in DCO level.
+Certificate Cancellation Report 
+Old Death GP registration 
+SR record movements to RE  
+UIDAI deasesed API encreption  
+API for Punjab, Kerala &amp; Goa  
+Death Aadhar Data sharing with UIDAI
+Inactive RU Report</t>
   </si>
   <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
   </si>
   <si>
     <t>1. Delhi State Onboarding on CRS Portal- No subdistrict
-2  GHMC Telangana: Provision for single municipal corporation under Four district which is not support by CRS portal
-3. RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
-4. Puducherry states joined on CRS portal from 1st Dec.
-5. Verificatio for Navdeep Rana is pending.
-6. Indore and Ahmedabad IMC Zonal register creation</t>
+2. 6 Cr record update with AADHAR referance N.
+3  RU &amp; Jurisdiction Mapping Phase 4: Functionality for Merging and Splitting of RU Units
+4. Verificatio for Navdeep Rana is pending.
+5. Indore and Ahmedabad IMC Zonal register creation</t>
   </si>
   <si>
     <t>Dhananjay J</t>
@@ -440,7 +447,7 @@
     <t>Start Date (PO) : 13-Nov-24 :: End Date (PO) : 12-Nov-27</t>
   </si>
   <si>
-    <t>30</t>
+    <t>38</t>
   </si>
   <si>
     <t>As per achievment, Phase 1 - 321 L, Phase 2 onwards - 350 L</t>
@@ -459,13 +466,11 @@
 → Drone moved to Phase II.
 → Phase II updates
 - Modules deployed on production
-Team Structure, BICRS, Highway QR
-- Modules on UAT
-Road Closure, Document repository, Critical Correspondence (Client Sign off awaited)
+	Team Structure, BICRS, Highway QR, Road Closure, Document Repository, Critical Correspondence
 - Requirement gathering done for
-On boarding user fees agency, Issuance of NCR, Payment to AE/IE, Digitalization of Schedule H, NSV Surveys / Priority Maintenance, CO Division (Onboarding, Toll Master)
+On boarding user fees agency, Issuance of NCR, Payment to AE/IE, Digitalization of Schedule H, Drone Video Report, NSV Surveys / Priority Maintenance, CO Division (Onboarding, Toll Master)
 - Requirement gathering in progress for
-NHIDCL and MoRTH, Drone, Blackspot
+NHIDCL and MoRTH, Drone, Blackspot, Physical and Financial Progress, Payment for Contractor/Concessionaire during maintenance period
 - Development in progress on
 Issuance of NCR
 Payment to AE/IE
@@ -473,8 +478,8 @@
   </si>
   <si>
     <t>→ Development of Issuance of NCR, Payment to AE/Issuance, NHIDCL and MoRTH
-→ Deployment of Document Repository, Critical Correspondence, and Road Closure.
-→ Design finalisation Drone, Blackspot, NHIDCL, MoRTH and Contractor payment</t>
+→ Design finalisation Drone, Blackspot, NHIDCL, MoRTH and Contractor payment
+→ Demo of first version of NHIDCL, MoRTH with limited modules.</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
@@ -732,11 +737,10 @@
     <t>Under O &amp; M</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenance activity </t>
+    <t xml:space="preserve">O &amp; M ACTIVITY </t>
   </si>
   <si>
     <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
-22 no of UCON 10 controller we needs to replace. - ICCC
 </t>
   </si>
   <si>
@@ -763,16 +767,19 @@
 PBG of 3%</t>
   </si>
   <si>
-    <t xml:space="preserve">O &amp; M activity. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
-22 no of UCON 10 controller we need to replace. - ICCC
+    <t xml:space="preserve">Under O &amp; M </t>
+  </si>
+  <si>
+    <t>O &amp; M and invoice process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 no CDT and 5 no of DC controller spare material procurement pending since long time.---VMC ATCS
+VMD application testing done but controller replacement activity pending. New controller under procurement --- ICCC 
+05 no of VMD LED tile have issue. Need to purchase new module - ICCC
+22 no of UCON 10 controller we needs to replace. - ICCC
 300 faulty module given to OEM for replace material  --- VMC-P4 LED 
 40 no location battery stolen. Insurance under process 
-DR OEM needs to final – ICCC Project
-VMC-CCTV Project EMD submission pending  
-ANPR IR needs to repair- Under process 
+DR OEM needs to final – ICCC Project 
 </t>
   </si>
   <si>
@@ -804,15 +811,14 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1] The Smart City entity have received a fund from PTRI Bhopal-UADD from E-challan and will reimburse INR 50 Lakh by Today or Tomorrow.
-2] ISCDL team are working for New PPP project of initially 20 ITMS Junction, 20 VMS (5X3), 20 PAS, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects. Post they will issue rest 95 ITMS, 90 VMS (5X3), 90 PAS.
-3. ISCDL team are working for New PPP project of Data centre for 65,000 Camera, regarding this CEO sir asked CDO sir to ask CMS to work on the PPP projects.</t>
-  </si>
-  <si>
-    <t>1. Post the approval from Our HO, will start the working on rest hold junction including BRTS Shifting  components.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Smart city are working for monetization of Land and from other project revenue for payment. </t>
+    <t>1] The reimbursement of  INR 50 Lakh is under process.
+2] ISCDL team prepared New PPP project of initially 20 ITMS Junction, 20 VMS (5X3), 20 PAS, and submitted to CEO sir for review.</t>
+  </si>
+  <si>
+    <t>1. Post the approval from Our HO, will start the working on rest hold junction including BRTS Shifting components against the required approval and Payment from ISCDL.</t>
+  </si>
+  <si>
+    <t>1. Smart city are working for monetization of Land and from other project revenue for payment, which is totally unknown when the payment will received.</t>
   </si>
   <si>
     <t>Akash K</t>
@@ -845,20 +851,22 @@
 Change Request (63 K)</t>
   </si>
   <si>
-    <t>Fixing the bugs and enhancements of SM, MM HRMS and FA
-Working pending approval and transaction reports.
-Send an email for Payroll demo.
-SMS issue has fixed</t>
-  </si>
-  <si>
-    <t>CO module will be planned to start.
-We will continue to take enhancements tickets for all four modules HRMS, SM, MM and FA</t>
+    <t>We have completed Multi Factor Authentication 
+Payroll development has completed. Testing is going on
+SM, HRMS, MM bug fixing.
+Asset management development has started.
+Two servers are taken from ESDS to migrate from CentOs to Ubuntu</t>
+  </si>
+  <si>
+    <t>Check for other servers how to migrate for Ubuntu.
+Dashboard scripts to update
+CO module for fund management will be started</t>
   </si>
   <si>
     <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
   </si>
   <si>
-    <t>No major risks</t>
+    <t>No Risks.</t>
   </si>
   <si>
     <t>Priya R</t>
@@ -1097,19 +1105,22 @@
     <t>Start Date (PO) : 03-Jul-25 :: End Date (PO) : 02-Jan-27</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Development, deployment, and support of NOC Portal with modules for Login, User Registration, Application Submission, and Approval workflows.
 Implementation of Registration &amp; Validation including Mobile OTP, GST validation, Aadhaar integration, and User Authorization.
 Enable Application Submission with GIS data pickup, document upload, affidavit submission, e-sign, payment gateway, and Q&amp;A module.
 Workflow automation for Right of Way (ROW) applications with end-to-end submission tracking.</t>
   </si>
   <si>
-    <t>Phase 1 development has been completed, and we are currently working on fixing the security audit bugs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fixing the security audit bugs.</t>
+    <t>Development das been completed for Phase 1. 
+Currently working on below:
+ 1. Security Audit bug fixing
+  2. UI Audit bug fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will fix Security Audit bug fixing
+Helpdesk integration 
+Testing on dynamic data.
+Phase 2 Development Planning </t>
   </si>
   <si>
     <t>Pradeep N</t>
@@ -1682,7 +1693,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E8A8DDF4-DEFB-4458-B56F-1D7F0CD89FC6}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B318C45D-F577-4D99-A97D-75D27A0F14FA}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2011,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F1F52E-B88F-4B51-995F-6C9FC475404B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B0ACDC-4FED-4E1D-A548-2690CEB04EB6}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2373,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="Z4" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA4" s="13">
         <v>0.28894944759306884</v>
@@ -2649,7 +2660,7 @@
         <v>111</v>
       </c>
       <c r="Z7" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA7" s="13">
         <v>-6.1288843379005087E-2</v>
@@ -3109,7 +3120,7 @@
         <v>170</v>
       </c>
       <c r="Z12" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA12" s="13">
         <v>-0.51932262126862749</v>
@@ -3189,19 +3200,19 @@
         <v>177</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z13" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA13" s="13">
         <v>0.20489999988172514</v>
@@ -3221,13 +3232,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -3260,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P14" s="10">
         <v>0.59318156563162339</v>
@@ -3269,31 +3280,31 @@
         <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z14" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA14" s="13">
         <v>-8.6348333434192792E-2</v>
@@ -3302,10 +3313,10 @@
         <v>-0.204144834903355</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -3313,13 +3324,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>73</v>
@@ -3352,40 +3363,40 @@
         <v>0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P15" s="10">
         <v>0.15559721329490833</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z15" s="12">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>97</v>
@@ -3394,10 +3405,10 @@
         <v>-9.5509698226650848</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -3405,16 +3416,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>126</v>
@@ -3444,37 +3455,37 @@
         <v>0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P16" s="10">
         <v>0.9907005439711728</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z16" s="12">
         <v>45988</v>
@@ -3486,10 +3497,10 @@
         <v>0.20000000003501683</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3497,13 +3508,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -3536,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P17" s="10">
         <v>0.99066666684966431</v>
@@ -3545,28 +3556,28 @@
         <v>35</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z17" s="12">
         <v>45988</v>
@@ -3578,10 +3589,10 @@
         <v>97</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3589,19 +3600,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G18" s="8">
         <v>171.31355932203391</v>
@@ -3628,37 +3639,37 @@
         <v>0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P18" s="10">
         <v>0.99999999987138266</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U18" s="31" t="s">
         <v>348</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z18" s="12">
         <v>45988</v>
@@ -3670,10 +3681,10 @@
         <v>97</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3681,13 +3692,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -3720,37 +3731,37 @@
         <v>0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P19" s="10">
         <v>0.3</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="12">
         <v>45988</v>
@@ -3762,7 +3773,7 @@
         <v>97</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>98</v>
@@ -3773,13 +3784,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -3812,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P20" s="10">
         <v>0</v>
@@ -3821,10 +3832,10 @@
         <v>135</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>135</v>
@@ -3845,7 +3856,7 @@
         <v>135</v>
       </c>
       <c r="Z20" s="12">
-        <v>45980</v>
+        <v>45989</v>
       </c>
       <c r="AA20" s="13" t="s">
         <v>97</v>
@@ -3854,7 +3865,7 @@
         <v>97</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD20" s="15" t="s">
         <v>264</v>
@@ -3916,7 +3927,7 @@
         <v>269</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T21" s="11" t="s">
         <v>270</v>
@@ -4148,7 +4159,7 @@
         <v>302</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>126</v>
@@ -4190,7 +4201,7 @@
         <v>304</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T24" s="11" t="s">
         <v>305</v>
@@ -4223,7 +4234,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -4240,7 +4251,7 @@
         <v>311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>126</v>
@@ -4315,7 +4326,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -4332,10 +4343,10 @@
         <v>321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G26" s="8">
         <v>1275.816245</v>
@@ -4374,7 +4385,7 @@
         <v>322</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>323</v>
@@ -4407,7 +4418,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD26" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -4466,7 +4477,7 @@
         <v>298</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T27" s="11" t="s">
         <v>298</v>
@@ -4696,7 +4707,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DE6AD55F-5F40-47E6-B014-C664925798A4}</x14:id>
+          <x14:id>{7B4171AE-050C-4834-AC62-524CC3450A18}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4706,7 +4717,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE6AD55F-5F40-47E6-B014-C664925798A4}">
+          <x14:cfRule type="dataBar" id="{7B4171AE-050C-4834-AC62-524CC3450A18}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1204E5A3-1221-4C81-815D-76DA03E954B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FAF044-BD98-40AF-96AC-477946603FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{936F177B-1723-498D-9C02-0A4F7321339C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{039055B1-1187-4C64-8FF8-F6A31E478BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="354">
   <si>
     <t>SN</t>
   </si>
@@ -350,30 +350,26 @@
 User Interface Upgrade</t>
   </si>
   <si>
-    <t>Production deployment done for is Dwell report on 10th Nov.
-Internal VAPT initiated for Bulk upload UI &amp; Refund CR.
-External VAPT initiated for E-mobility.
-PGA's Task of of VAPT Coordination in now CMS is handling.
-Onboarding of Last project employees instead of Dummy - Out of 11, 7 NDAs were signed on 13th November.
-Laptop Hardening Task is in progress. We have received initiation task for this over the email.
-JIRA licensed version has been purchased as required by client.
-JAS 80% bill is approved by all the level of officers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onboarding of Last project employees instead of Dummy - Out of 11, 4 NDAs need to signed before 15th November.
-By 16th JAS 80% invoice should send to PAO team by WZU.
-Laptop hardening action items need to be discussed with the CMS IT team and WZU, and a response should be sent over email.
-Initiate all the all the approvals which are need to process 20% payment.
-Finalize SLA methodology document. </t>
+    <t>Prod deployment (24th November)
+1. GSTIN validation 
+2. PCA module 
+3. Weight record 
+Refund: external VAPT completed.
+Expected production date: 1st Dec
+E-mobility; expected production date:1st December 25
+Oct Attendance approval email sent for approval.</t>
+  </si>
+  <si>
+    <t>Getting approval on Oct period for leaves. 
+Jira completion with all previous task and training to all officers.
+80% Payment of JAS expected to be on 1st Dec or Max by 2nd Dec.</t>
   </si>
   <si>
     <t>Java Struts, For upgrade - TBD</t>
   </si>
   <si>
-    <t xml:space="preserve">The client has requested to deboard all 11 employees from the previous project and enroll them again for the new project. In this case, enrolling the same users with the same mobile numbers may lead to data loss for some email IDs. (L3) - Optional another way is not accepted by Client. Still not received any confirmation for final way to do this. 
-Few issues raised by client:
-What exactly is the reason for not replying to all the emails? We had requested a structured task list (only one list has been received).
-</t>
+    <t xml:space="preserve">Difficult to get approval on leaves as leaves are more than 40.
+Difficulty in finding good resources. </t>
   </si>
   <si>
     <t>Rahul S / Asmita S</t>
@@ -1442,8 +1438,28 @@
     <t>Nirbhaya VMD</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>•	Nirbhaya Safe City - Variable Messaging Displays (Digital Billboards) for Commissioner of Police – Mumbai 
 •	2 VMD’s to be installed in MMP Region .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Highlights &amp; Updates:-
+Billing Done for the Feasibility Phase.
+Powai Location has been finalized &amp; Site Survey done with Vendor.
+We have suggested new location for 2nd VMD &amp; requested permission to install, awaiting approval. 
+For 1 location (Powai) file is currently in BMC license dept. (expected approval by November end). 
+For second location we have suggested JVPD circle, Panjarapol, chembur -yet to be finalized by police dept
+Now Vendor is asking to increase PO Amount  Santosh sir need to close the same 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Progress waiting for approval from client </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have not received approval for 2nd Location 
+</t>
   </si>
   <si>
     <t>Vinod S / Anil H</t>
@@ -1693,7 +1709,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B318C45D-F577-4D99-A97D-75D27A0F14FA}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3318AB8F-4469-4144-9390-9495CEDD2046}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2022,7 +2038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B0ACDC-4FED-4E1D-A548-2690CEB04EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F80D540-E1CE-4141-BDB9-24BAFAC4432B}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2476,7 +2492,7 @@
         <v>83</v>
       </c>
       <c r="Z5" s="12">
-        <v>45974</v>
+        <v>45989</v>
       </c>
       <c r="AA5" s="13">
         <v>0.39544993623736813</v>
@@ -3657,7 +3673,7 @@
         <v>238</v>
       </c>
       <c r="U18" s="31" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>239</v>
@@ -4568,29 +4584,29 @@
       <c r="R28" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="S28" s="11" t="e">
-        <v>#N/A</v>
+      <c r="S28" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="T28" s="11" t="s">
         <v>298</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="X28" s="11" t="s">
         <v>298</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Z28" s="12">
-        <v>0</v>
+        <v>45988</v>
       </c>
       <c r="AA28" s="13" t="s">
         <v>97</v>
@@ -4602,7 +4618,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD28" s="15" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -4610,13 +4626,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>73</v>
@@ -4649,37 +4665,37 @@
         <v>0</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P29" s="24">
         <v>0</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="S29" s="25" t="e">
         <v>#N/A</v>
       </c>
       <c r="T29" s="25" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="V29" s="25" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="W29" s="25" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="X29" s="25" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Y29" s="25" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z29" s="27">
         <v>0</v>
@@ -4691,10 +4707,10 @@
         <v>97</v>
       </c>
       <c r="AC29" s="29" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AD29" s="30" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4723,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7B4171AE-050C-4834-AC62-524CC3450A18}</x14:id>
+          <x14:id>{B3B0D28F-EDF2-4ECA-B73F-154917086AE7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4717,7 +4733,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B4171AE-050C-4834-AC62-524CC3450A18}">
+          <x14:cfRule type="dataBar" id="{B3B0D28F-EDF2-4ECA-B73F-154917086AE7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/data/Dashboard_data.xlsx
+++ b/data/Dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FAF044-BD98-40AF-96AC-477946603FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D59C2EE-E33E-4423-9616-232AE42F209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{039055B1-1187-4C64-8FF8-F6A31E478BB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C8F4FE6D-05B7-46B7-A9E7-57ED7019B7B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
@@ -165,21 +165,24 @@
   1.      No Status    =   14
   2.      Estimation   =   10
   3.     Designing    =    8
-  4.     To Do        =    15
-  5.     In Progress  =    14
-  6.     Under QA Testing = 8
-  7.     User Acceptance Testing (UAT) = 16
-  8.     Released on Production = 274
+  4.     To Do        =    13
+  5.     In Progress  =    12
+  6.     Under QA Testing = 4
+  7.     User Acceptance Testing (UAT) = 17
+  8.     Released on Production = 281
   9.     Closed       = 124</t>
   </si>
   <si>
-    <t>7 task planned for deployment</t>
+    <t>2 task planned to deploy this week</t>
   </si>
   <si>
     <t>HTML,CSS,React,java, spring boot,Elastic,mysql AWS,Postman,Jenkins,CI/CD,Kibana,GIT,Docker</t>
   </si>
   <si>
-    <t xml:space="preserve">Still waiting for approval for replacement for one frontend </t>
+    <t xml:space="preserve">1)Replacement for Jayshee - Maternity Leave:--
+The client has rejected the resume we provided due to insufficient experience in the required field. So we need to arrange an alternative
+2) I need confirmation regarding the payment—whether we have received it or not—so that I can follow up with him
+</t>
   </si>
   <si>
     <t>Amit K</t>
@@ -582,28 +585,27 @@
     <t>Q1 &amp; Q2&amp; Q3 payment and 60% Capex payment and also 2% capex payment released.
 Q.4 Data Prepared and bill submit to consultant for Calculation. (submitted on 24th Nov.)
 32 Manpower deployed as per client requirements.
-ISO Certification Documents parts ready some parts are pending to client end for Audit.
+ISO Certification Documents parts ready some parts are pending to client end for Audit.(Letter submit to client for support today)
 IT Equipment like server switch and San storage AMC not start yet.(this is very critical)-Pending from HO.
-Video wall down last one month due to lighting effect.(Parts may be received tomorrow then restore this device. 
 1st floor 20 No's Ac AMC not done from HO and Purchase team.</t>
   </si>
   <si>
-    <t>Q.4 and Capex 2% and Diesel consumable bill submit to client for SLA calculation follow-up and push for payment.
-Videowall repair work done before 29 as per vendor then we will claim insurance for final bill.
+    <t xml:space="preserve">Q.4 and Capex 2% and Diesel consumable bill submit to client for SLA calculation follow-up and push for payment.
+Videowall repaired on 28th Nov. bill required for claim insurance.
 For San storage Vivek and shivam is working for configuration for replacement of old storage.
 Q.4 PM activity and breakdown issues resolve as per requirement.
 Some Vendor Payment not received details are submitted on email to HO team.
-IT equipment for AMC vendor visit at site for check all devices. but there is no conclusion yet.</t>
+IT equipment for AMC vendor visit at site for check all devices. but there is no conclusion yet.
+Letter submit to client for ISO certificate.
+Bill calculation done from consultant tomorrow for submit to client for payment. </t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>VENDORS PAYMENT NOT DONE TIMELY FROM CMS END. (Ramp display and CCSPL)
-AMC REQUIRED OLD DC INFRA ON URGENT BASIS because our SAN storage and tape library not working , client is issuing a letter for this.
+    <t>AMC REQUIRED OLD DC INFRA ON URGENT BASIS because our SAN storage and tape library not working , client is issuing a letter for this.
 For ISO CERTIFICATION PUSH TO CLINT FROM OUR SALES TEAM.
-Video wall down last 30 days, Vendor PO pending and insurance team not responding proper time.
-Insurance claim register for video wall and Switches.
+Insurance claim register for video wall and Switches. Bill required from Vendor to submit insurance team.
 1st floor 20 No's Ac AMC not done from HO and Purchase team.</t>
   </si>
   <si>
@@ -691,12 +693,14 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t>KK gate and cruise gate installation is completed
-Bill submitted to NMPA for payment process.
-Rs.4,787,385 bill submitted to NMPA for payment process.</t>
-  </si>
-  <si>
-    <t>Payment follow-ups and fixing few operation related issues.</t>
+    <t>1. 45L payment bills of KK gate cruise gate are already submitted and it is in progress.
+2. Further to bill submission, NMPT officials are conducted Site survey on 03.12.2025 to check all the installed materials at respective gates. 
+3. Also promised us to release the payment within 7working days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Following up for bill clearance.
+2.  follow up with NMPA for reviewing and revising the penalty deductions applied for the months January , February, March and April 
+</t>
   </si>
   <si>
     <t>Prashant P</t>
@@ -807,14 +811,14 @@
 CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
   </si>
   <si>
-    <t>1] The reimbursement of  INR 50 Lakh is under process.
-2] ISCDL team prepared New PPP project of initially 20 ITMS Junction, 20 VMS (5X3), 20 PAS, and submitted to CEO sir for review.</t>
+    <t>1] The part payment of INR 50 Lakh will be done today.
+2] ISCDL team prepared New PPP project of initially 20 ITMS Junction, 20 PAS, and are under reviewed by CEO sir for final approval.</t>
   </si>
   <si>
     <t>1. Post the approval from Our HO, will start the working on rest hold junction including BRTS Shifting components against the required approval and Payment from ISCDL.</t>
   </si>
   <si>
-    <t>1. Smart city are working for monetization of Land and from other project revenue for payment, which is totally unknown when the payment will received.</t>
+    <t>1.Since there is no clarity on payment availability at Smart city, Smart City projects are focusing on monetizing land and generating revenue from various initiatives to meet payment obligations. However, the timeline for receiving these payments remains uncertain.</t>
   </si>
   <si>
     <t>Akash K</t>
@@ -944,7 +948,7 @@
     <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
   </si>
   <si>
-    <t>223</t>
+    <t>218</t>
   </si>
   <si>
     <t>72.86 L</t>
@@ -953,13 +957,16 @@
     <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
   </si>
   <si>
-    <t>New 5 Candidates selected, they trained and joined till 29th November,2025</t>
-  </si>
-  <si>
-    <t>Shortlist, Interview and Train new 17 Candidates.</t>
-  </si>
-  <si>
-    <t>Recruitment of 17 Candidates.
+    <t xml:space="preserve">5 candidates selected for CP office and they are working on Documentation
+Lineup 5 Candidates for Interview for this week
+</t>
+  </si>
+  <si>
+    <t>Daily 2 candidates Interview for this week
+Follow-up on New Work Order</t>
+  </si>
+  <si>
+    <t>Recruitment of 20 Candidates.
 New Work Order for extension period</t>
   </si>
   <si>
@@ -994,28 +1001,29 @@
     <t>131.78 L</t>
   </si>
   <si>
-    <t>Servers: Primary &amp; Backup servers fully configured and ready; no pending items.
-Substations 1–3 (MFM): IPs assigned; waiting for JNPA switch installation. CMS will enable meter data within 2–3 days after switch availability.
-Main Substation (MFM): SCADA communication active; awaiting API details from GE/JNPA for EEMS integration.
-ABT Meters: Installed. Pending MSETCL series connection and JNPA switch port availability. Data retrieval to start after both are completed.
-RMU Panels: Survey done; awaiting OFC network and switch readiness from JNPA.
-Water Flow Meters: 62 delivered, 5 installed. Pending infrastructure readiness from Water Dept. ~30 installations planned; large meter locations yet to be finalized.
-Consumer Billing Meters: MPLS setup ongoing; NOC connectivity done. Pending MPLS testing, then SIM activation &amp; modem installation.
-Cloud: AWS account registered.
-Software: Installed on NOC server; all modules integrated. Further enhancements will follow once live data starts streaming.</t>
-  </si>
-  <si>
-    <t>Sim testing with modem and firewall configuration</t>
+    <t>Core servers (Primary &amp; Backup) fully configured, tested, installed, and operational.
+Substation MFM communication ready from CMS side; awaiting switch rack installation and port activation from JNPA/Secutech to start data communication.
+Main Substation communication enabled, but API documentation from SCADA vendor (GE) still pending for integration.
+NFMS API integration: Major modules completed; testing in progress for scheduled transactions and planned outage entries.
+ABT meters installed, pending network switch port, series connection, and MSETCL clearances to start communication.
+RMU &amp; SEZ metering: Survey done; awaiting OFC network availability, switch readiness, and revised scope.
+Water flow meters: 62 delivered, 6 installed; rest pending due to required infra readiness from Water Dept.
+Consumer meters (MPLS-based): Link setup completed; data retrieval in progress, validation pending.
+AWS Cloud account activated for cloud integration.
+EEMS software deployed, with ongoing enhancements as live data becomes available.</t>
+  </si>
+  <si>
+    <t>Firewall installation and data retrieval with modem from meters</t>
   </si>
   <si>
     <t>PostgreSQL, DLMS, MODBUS, GPRS, Python, DotNet MVC</t>
   </si>
   <si>
-    <t>Pending network readiness from JNPA vendor (switch racks, OFC network, port enablement) delaying multiple integrations.
-Awaited API details from SCADA vendor (GE), blocking main substation data integration.
-MSETCL testing team delay in completing ABT meter series connection.
-Water infrastructure not ready (valves, ducts, power) causing installation hold-ups.
-Dependency on multiple external teams (JNPA network, SCADA vendor, MSETCL, Water Dept.), creating timeline risks.</t>
+    <t>Network readiness delays at substations, RMU &amp; SEZ (switches, OFC availability pending).
+Dependency on third-party vendors (Secutech, GE SCADA, MSETCL) causing integration hold-ups.
+NFMS API testing dependency may affect real-time data integration timelines.
+Water Dept. infra readiness (valves/ducts/power) delaying water meter deployment.
+Scope finalization pending for SEZ metering leading to schedule impact.</t>
   </si>
   <si>
     <t>Brayan F</t>
@@ -1149,18 +1157,15 @@
 Quality Analyst, DevOps, Project Manager cum Business Analyst, Data Entry Analyst (Platform Management) - 1 resource each</t>
   </si>
   <si>
-    <t>The corporate website development has been completed as per the agreed timeline. We’ve received some feedback from the ITPO officials yesterday, and the team is currently addressing those. 
-Exhibition and Stall Booking Platform KT: Completed.
-Mobile Application KT: Completed.
-Convention Center Booking KT: Pending, as NeGD has informed us that it is still under development.</t>
-  </si>
-  <si>
-    <t>Following resources required- 
-1 Sr. Front End Developer (Replacement of existing Resource)
-1 Sr. Backend Developer (for Stall/Exhibition Booking portal)
-2 Sr. Front End Developer (for Asset Management System)
-2 Sr. Backend Developer (for Asset Management System)
-Security testing of the website will preformed by NeGD team.</t>
+    <t>- The corporate website is now live at https://www.itpo.gov.in
+- The old website has been successfully migrated to ITPO’s AWS server and is now under our control.
+- Priority tasks for Hall booking have been identified from the task list shared by the Daffodil team.
+- Knowledge Transfer (KT) has been completed for Hall and Stall bookings.
+- Development for the Convention Center booking platform is still ongoing. The client has suggested that KT for this platform begin once the development is completed.</t>
+  </si>
+  <si>
+    <t>- There are some additional information to be added to the new corporate website. ITPO will provide these details, and we will incorporate them accordingly.
+- Begin development on the identified tasks for the booking platform.</t>
   </si>
   <si>
     <t>- Backend: Node.js (Java script- Nest.Js Framework)
@@ -1168,9 +1173,8 @@
 - DB: MySQL</t>
   </si>
   <si>
-    <t>- Resources
-- Billing 
-- Laptops required for the onboarded resources</t>
+    <t>- Resource Onboarding
+- KT of Convention Center</t>
   </si>
   <si>
     <t>Raghavendra P</t>
@@ -1709,7 +1713,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3318AB8F-4469-4144-9390-9495CEDD2046}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0D42D50F-719E-48DC-92E9-1ED27F309BF0}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2038,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F80D540-E1CE-4141-BDB9-24BAFAC4432B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037620B1-7AAE-49E8-8956-F8FA4BE9CDB5}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2162,22 +2166,22 @@
         <v>840.24454680000008</v>
       </c>
       <c r="H2" s="8">
-        <v>634.12040560000059</v>
+        <v>657.46053190000077</v>
       </c>
       <c r="I2" s="8">
         <v>23</v>
       </c>
       <c r="J2" s="8">
-        <v>657.12040560000059</v>
+        <v>680.46053190000077</v>
       </c>
       <c r="K2" s="8">
         <v>83</v>
       </c>
       <c r="L2" s="9">
-        <v>206.12414119999949</v>
+        <v>182.78401489999931</v>
       </c>
       <c r="M2" s="8">
-        <v>186.72101040000015</v>
+        <v>210.06113670000019</v>
       </c>
       <c r="N2" s="8">
         <v>23.340126300000005</v>
@@ -2186,7 +2190,7 @@
         <v>34</v>
       </c>
       <c r="P2" s="10">
-        <v>0.75468553531825255</v>
+        <v>0.78246331309603057</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>35</v>
@@ -2216,7 +2220,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="12">
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="AA2" s="13">
         <v>0.52524313759069319</v>
@@ -2272,7 +2276,7 @@
         <v>298.89999999999998</v>
       </c>
       <c r="N3" s="8">
-        <v>45.0625</v>
+        <v>0</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>34</v>
@@ -2361,10 +2365,10 @@
         <v>381.122286674576</v>
       </c>
       <c r="M4" s="8">
-        <v>215.18460959999987</v>
+        <v>215.1846095999999</v>
       </c>
       <c r="N4" s="8">
-        <v>34.2864</v>
+        <v>0</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>60</v>
@@ -2640,7 +2644,7 @@
         <v>360.57</v>
       </c>
       <c r="N7" s="8">
-        <v>35.07</v>
+        <v>0</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>102</v>
@@ -2732,7 +2736,7 @@
         <v>520.13092500000005</v>
       </c>
       <c r="N8" s="8">
-        <v>66.92</v>
+        <v>0</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>60</v>
@@ -2860,7 +2864,7 @@
         <v>136</v>
       </c>
       <c r="Z9" s="12">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="AA9" s="13">
         <v>0.19540000011082481</v>
@@ -2916,7 +2920,7 @@
         <v>1143.75</v>
       </c>
       <c r="N10" s="8">
-        <v>381.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>140</v>
@@ -3008,7 +3012,7 @@
         <v>78.093976400000017</v>
       </c>
       <c r="N11" s="8">
-        <v>39.902500000000003</v>
+        <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>153</v>
@@ -3044,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="AA11" s="13">
         <v>-0.37667385879947046</v>
@@ -3174,31 +3178,31 @@
         <v>2019.8763390000001</v>
       </c>
       <c r="H13" s="8">
-        <v>331.99717679999998</v>
+        <v>418.2129961</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <v>331.99717679999998</v>
+        <v>418.2129961</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
       </c>
       <c r="L13" s="9">
-        <v>1687.8791622000001</v>
+        <v>1601.6633429000001</v>
       </c>
       <c r="M13" s="8">
-        <v>171.16043739999998</v>
+        <v>257.3762567</v>
       </c>
       <c r="N13" s="8">
-        <v>0</v>
+        <v>86.215819299999993</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>153</v>
       </c>
       <c r="P13" s="10">
-        <v>0.1643651001745805</v>
+        <v>0.20704881186293256</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>75</v>
@@ -3320,7 +3324,7 @@
         <v>191</v>
       </c>
       <c r="Z14" s="12">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="AA14" s="13">
         <v>-8.6348333434192792E-2</v>
@@ -3596,7 +3600,7 @@
         <v>228</v>
       </c>
       <c r="Z17" s="12">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="AA17" s="13">
         <v>0.5943608235990715</v>
@@ -3688,7 +3692,7 @@
         <v>242</v>
       </c>
       <c r="Z18" s="12">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="AA18" s="13">
         <v>0.22245253764919004</v>
@@ -3910,31 +3914,31 @@
         <v>509.88</v>
       </c>
       <c r="H21" s="8">
-        <v>0</v>
+        <v>12.65733</v>
       </c>
 